--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -35,12 +35,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
   <si>
     <t>Sources:</t>
   </si>
@@ -174,16 +174,7 @@
     <t>line when needed to avoid any discontinuity between 2015 and 2016.</t>
   </si>
   <si>
-    <t>Output tabs contain zeros for years more than one vehicle lifetime into</t>
-  </si>
-  <si>
-    <t>the model run, because for these years, the model will have switched</t>
-  </si>
-  <si>
     <t>over to using data from retiring vehicles that were added during the</t>
-  </si>
-  <si>
-    <t>model run itself and no longer needs to reference historical input data.</t>
   </si>
   <si>
     <t>Historical fuel economies are estimated for vehicle type / technology</t>
@@ -200,6 +191,24 @@
   <si>
     <t>be retired during the model run.</t>
   </si>
+  <si>
+    <t>More than one vehicle lifetime into</t>
+  </si>
+  <si>
+    <t>the model run, the model will have switched</t>
+  </si>
+  <si>
+    <t>model run itself and no longer needs to reference the historical input data</t>
+  </si>
+  <si>
+    <t>in this variable.  However, we include values in this variable out to</t>
+  </si>
+  <si>
+    <t>2050 to make the process of updating the model's start year</t>
+  </si>
+  <si>
+    <t>simpler (since no updates to this variable will be needed).</t>
+  </si>
 </sst>
 </file>
 
@@ -208,9 +217,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -890,19 +899,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1034,7 +1043,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1104,7 +1113,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="153">
@@ -1287,7 +1296,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1478,11 +1486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140231040"/>
-        <c:axId val="140232576"/>
+        <c:axId val="177569152"/>
+        <c:axId val="198808704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140231040"/>
+        <c:axId val="177569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140232576"/>
+        <c:crossAx val="198808704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140232576"/>
+        <c:axId val="198808704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140231040"/>
+        <c:crossAx val="177569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,7 +1550,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1793,11 +1800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137156864"/>
-        <c:axId val="137162752"/>
+        <c:axId val="198739840"/>
+        <c:axId val="198741376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137156864"/>
+        <c:axId val="198739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137162752"/>
+        <c:crossAx val="198741376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137162752"/>
+        <c:axId val="198741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137156864"/>
+        <c:crossAx val="198739840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,7 +1864,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2060,11 +2066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138603904"/>
-        <c:axId val="138691712"/>
+        <c:axId val="199044096"/>
+        <c:axId val="199049984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138603904"/>
+        <c:axId val="199044096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138691712"/>
+        <c:crossAx val="199049984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138691712"/>
+        <c:axId val="199049984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2093,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138603904"/>
+        <c:crossAx val="199044096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2125,7 +2131,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2316,11 +2321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153597440"/>
-        <c:axId val="153598976"/>
+        <c:axId val="198877952"/>
+        <c:axId val="198879488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153597440"/>
+        <c:axId val="198877952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153598976"/>
+        <c:crossAx val="198879488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153598976"/>
+        <c:axId val="198879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153597440"/>
+        <c:crossAx val="198877952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2380,7 +2385,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2616,11 +2620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212606336"/>
-        <c:axId val="212618624"/>
+        <c:axId val="198915968"/>
+        <c:axId val="198917504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212606336"/>
+        <c:axId val="198915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212618624"/>
+        <c:crossAx val="198917504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212618624"/>
+        <c:axId val="198917504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212606336"/>
+        <c:crossAx val="198915968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,7 +2684,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2916,11 +2919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212846080"/>
-        <c:axId val="212850176"/>
+        <c:axId val="200616960"/>
+        <c:axId val="200618752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212846080"/>
+        <c:axId val="200616960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212850176"/>
+        <c:crossAx val="200618752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2937,7 +2940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212850176"/>
+        <c:axId val="200618752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212846080"/>
+        <c:crossAx val="200616960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2980,7 +2983,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3204,11 +3206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224919936"/>
-        <c:axId val="224921856"/>
+        <c:axId val="200761728"/>
+        <c:axId val="200763264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224919936"/>
+        <c:axId val="200761728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224921856"/>
+        <c:crossAx val="200763264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224921856"/>
+        <c:axId val="200763264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224919936"/>
+        <c:crossAx val="200761728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3268,7 +3270,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3492,11 +3493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136431488"/>
-        <c:axId val="136433024"/>
+        <c:axId val="209272192"/>
+        <c:axId val="209507456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136431488"/>
+        <c:axId val="209272192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3505,7 +3506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136433024"/>
+        <c:crossAx val="209507456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3513,7 +3514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136433024"/>
+        <c:axId val="209507456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136431488"/>
+        <c:crossAx val="209272192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3556,7 +3557,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3810,11 +3810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137120768"/>
-        <c:axId val="137122560"/>
+        <c:axId val="209266560"/>
+        <c:axId val="209560320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137120768"/>
+        <c:axId val="209266560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137122560"/>
+        <c:crossAx val="209560320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3831,7 +3831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137122560"/>
+        <c:axId val="209560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3843,7 +3843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137120768"/>
+        <c:crossAx val="209266560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3875,7 +3875,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4129,11 +4128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137129984"/>
-        <c:axId val="137131520"/>
+        <c:axId val="178982912"/>
+        <c:axId val="178984448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137129984"/>
+        <c:axId val="178982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137131520"/>
+        <c:crossAx val="178984448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4150,7 +4149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137131520"/>
+        <c:axId val="178984448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,7 +4160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137129984"/>
+        <c:crossAx val="178982912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4193,7 +4192,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4444,11 +4442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137143424"/>
-        <c:axId val="137144960"/>
+        <c:axId val="179041024"/>
+        <c:axId val="179042560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137143424"/>
+        <c:axId val="179041024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137144960"/>
+        <c:crossAx val="179042560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4465,7 +4463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137144960"/>
+        <c:axId val="179042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,7 +4474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137143424"/>
+        <c:crossAx val="179041024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5196,7 +5194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5310,47 +5308,62 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6130,38 +6143,49 @@
         <f>Extrapolations!AJ7</f>
         <v>1.1302138168030021E-4</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="Z7" s="4">
+        <f>Extrapolations!AK7</f>
+        <v>1.13088178981932E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>Extrapolations!AL7</f>
+        <v>1.1814218661480272E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>Extrapolations!AM7</f>
+        <v>1.1790234457221552E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>Extrapolations!AN7</f>
+        <v>1.1757358267513993E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>Extrapolations!AO7</f>
+        <v>1.2024584389221321E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>Extrapolations!AP7</f>
+        <v>1.2485594117817294E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>Extrapolations!AQ7</f>
+        <v>1.2871537566981403E-4</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>Extrapolations!AR7</f>
+        <v>1.3183661097842603E-4</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>Extrapolations!AS7</f>
+        <v>1.3609847550038039E-4</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>Extrapolations!AT7</f>
+        <v>1.3772373811961089E-4</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AU7</f>
+        <v>1.4020262324112415E-4</v>
       </c>
     </row>
   </sheetData>
@@ -6980,8 +7004,9 @@
         <f>Extrapolations!AJ8</f>
         <v>8.8167002986916745E-4</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AK8</f>
+        <v>8.816700298691681E-4</v>
       </c>
     </row>
   </sheetData>
@@ -7800,8 +7825,9 @@
         <f>Extrapolations!AJ9</f>
         <v>3.7263915933223729E-3</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AK9</f>
+        <v>3.7212456171101574E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8616,11 +8642,13 @@
         <f>Extrapolations!AJ10</f>
         <v>9.7979641522397912E-6</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="AI7" s="4">
+        <f>Extrapolations!AK10</f>
+        <v>9.7979641522397912E-6</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AL10</f>
+        <v>9.7979641522397912E-6</v>
       </c>
     </row>
   </sheetData>
@@ -9435,11 +9463,13 @@
         <f>Extrapolations!AJ11</f>
         <v>5.3000377863975379E-3</v>
       </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="AI7" s="4">
+        <f>Extrapolations!AK11</f>
+        <v>5.3224604033574249E-3</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AL11</f>
+        <v>5.4077143049242422E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9640,77 +9670,77 @@
         <f>R$4/(1-'Other Values'!$B$2)</f>
         <v>3.6164265612794438E-3</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+        <v>3.6164265612794451E-3</v>
+      </c>
+      <c r="AJ2" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
+        <v>3.6164265612794451E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -9785,77 +9815,77 @@
         <f t="shared" si="0"/>
         <v>1.1357372671786685E-3</v>
       </c>
-      <c r="S3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1357372671786689E-3</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -9930,59 +9960,77 @@
         <f>Extrapolations!AJ12</f>
         <v>1.1357372671786685E-3</v>
       </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0</v>
+      <c r="S4" s="4">
+        <f>Extrapolations!AK12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Extrapolations!AL12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="U4" s="4">
+        <f>Extrapolations!AM12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="V4" s="4">
+        <f>Extrapolations!AN12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="W4" s="4">
+        <f>Extrapolations!AO12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="X4" s="4">
+        <f>Extrapolations!AP12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>Extrapolations!AQ12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>Extrapolations!AR12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>Extrapolations!AS12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>Extrapolations!AT12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>Extrapolations!AU12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>Extrapolations!AV12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>Extrapolations!AW12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>Extrapolations!AX12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>Extrapolations!AY12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>Extrapolations!AZ12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>Extrapolations!BA12</f>
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>Extrapolations!BB12</f>
+        <v>1.1357372671786689E-3</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -10057,77 +10105,77 @@
         <f t="shared" si="1"/>
         <v>1.1357372671786685E-3</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AH5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AI5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
+        <v>1.1357372671786689E-3</v>
+      </c>
+      <c r="AJ5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1357372671786689E-3</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -10202,77 +10250,77 @@
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
         <v>2.5001163789340952E-3</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
+        <v>2.5001163789340961E-3</v>
+      </c>
+      <c r="AJ6" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AJ$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
+        <v>2.5001163789340961E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -16373,93 +16421,93 @@
         <f>N$4/(1-'Other Values'!$B$2)</f>
         <v>1.0899466769330041E-3</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
+        <v>1.1045982621303912E-3</v>
+      </c>
+      <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>1.1252191578012478E-3</v>
+      </c>
+      <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
+        <v>1.1448424347850017E-3</v>
+      </c>
+      <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
+        <v>1.188565825783602E-3</v>
+      </c>
+      <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
+        <v>1.2454820861176102E-3</v>
+      </c>
+      <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
+        <v>1.3137701931264752E-3</v>
+      </c>
+      <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
+        <v>1.3711702115708562E-3</v>
+      </c>
+      <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
+        <v>1.4355279604869977E-3</v>
+      </c>
+      <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
+        <v>1.5077536201663225E-3</v>
+      </c>
+      <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8">
+        <v>1.5779469661199169E-3</v>
+      </c>
+      <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>1.5861882887091725E-3</v>
+      </c>
+      <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
+        <v>1.593815335602985E-3</v>
+      </c>
+      <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
+        <v>1.594862257009913E-3</v>
+      </c>
+      <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
+        <v>1.5977935398445811E-3</v>
+      </c>
+      <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
+        <v>1.6024344397311712E-3</v>
+      </c>
+      <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>1.6055401138335478E-3</v>
+      </c>
+      <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>1.6084550212796256E-3</v>
+      </c>
+      <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>1.6097973176203686E-3</v>
+      </c>
+      <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>1.6112434718838951E-3</v>
+      </c>
+      <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
+        <v>1.6120820153675505E-3</v>
+      </c>
+      <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+        <v>1.6141151235865275E-3</v>
+      </c>
+      <c r="AJ2" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
+        <v>1.6143789836215463E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -16518,93 +16566,93 @@
         <f t="shared" si="0"/>
         <v>3.4229730349962119E-4</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4689862777648655E-4</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.533746115408878E-4</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.595372935688436E-4</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7326860644443704E-4</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9114313448321655E-4</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1258898627112453E-4</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3061543834456651E-4</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5082696279756963E-4</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7350940137454764E-4</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9555359266575917E-4</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9814177661940964E-4</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.005370475447392E-4</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0086583277997277E-4</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0178640094292637E-4</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0324387363458276E-4</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0421920930309773E-4</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0513463478203127E-4</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0555618239317369E-4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0601034654204982E-4</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0627369077658622E-4</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0691218757262853E-4</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0699505270759317E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -16663,71 +16711,93 @@
         <f>Extrapolations!AJ2</f>
         <v>3.4229730349962119E-4</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0</v>
+      <c r="O4" s="4">
+        <f>Extrapolations!AK2</f>
+        <v>3.4689862777648655E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f>Extrapolations!AL2</f>
+        <v>3.533746115408878E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Extrapolations!AM2</f>
+        <v>3.595372935688436E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Extrapolations!AN2</f>
+        <v>3.7326860644443704E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f>Extrapolations!AO2</f>
+        <v>3.9114313448321655E-4</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Extrapolations!AP2</f>
+        <v>4.1258898627112453E-4</v>
+      </c>
+      <c r="U4" s="4">
+        <f>Extrapolations!AQ2</f>
+        <v>4.3061543834456651E-4</v>
+      </c>
+      <c r="V4" s="4">
+        <f>Extrapolations!AR2</f>
+        <v>4.5082696279756963E-4</v>
+      </c>
+      <c r="W4" s="4">
+        <f>Extrapolations!AS2</f>
+        <v>4.7350940137454764E-4</v>
+      </c>
+      <c r="X4" s="4">
+        <f>Extrapolations!AT2</f>
+        <v>4.9555359266575917E-4</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>Extrapolations!AU2</f>
+        <v>4.9814177661940964E-4</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>Extrapolations!AV2</f>
+        <v>5.005370475447392E-4</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>Extrapolations!AW2</f>
+        <v>5.0086583277997277E-4</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>Extrapolations!AX2</f>
+        <v>5.0178640094292637E-4</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>Extrapolations!AY2</f>
+        <v>5.0324387363458276E-4</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>Extrapolations!AZ2</f>
+        <v>5.0421920930309773E-4</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>Extrapolations!BA2</f>
+        <v>5.0513463478203127E-4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>Extrapolations!BB2</f>
+        <v>5.0555618239317369E-4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>Extrapolations!BC2</f>
+        <v>5.0601034654204982E-4</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>Extrapolations!BD2</f>
+        <v>5.0627369077658622E-4</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>Extrapolations!BE2</f>
+        <v>5.0691218757262853E-4</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>Extrapolations!BF2</f>
+        <v>5.0699505270759317E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -16786,93 +16856,93 @@
         <f t="shared" si="0"/>
         <v>3.4229730349962119E-4</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4689862777648655E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.533746115408878E-4</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.595372935688436E-4</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7326860644443704E-4</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9114313448321655E-4</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1258898627112453E-4</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3061543834456651E-4</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5082696279756963E-4</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7350940137454764E-4</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9555359266575917E-4</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9814177661940964E-4</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.005370475447392E-4</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0086583277997277E-4</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0178640094292637E-4</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0324387363458276E-4</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0421920930309773E-4</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0513463478203127E-4</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0555618239317369E-4</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0601034654204982E-4</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0627369077658622E-4</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0691218757262853E-4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0699505270759317E-4</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -16931,93 +17001,93 @@
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
         <v>7.5350445888798176E-4</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
+        <v>7.6363342667113419E-4</v>
+      </c>
+      <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
+        <v>7.7788911198408577E-4</v>
+      </c>
+      <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
+        <v>7.9145512123773062E-4</v>
+      </c>
+      <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+        <v>8.2168207708097779E-4</v>
+      </c>
+      <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
+        <v>8.6102955788213309E-4</v>
+      </c>
+      <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
+        <v>9.0823865004156746E-4</v>
+      </c>
+      <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
+        <v>9.479205636190259E-4</v>
+      </c>
+      <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
+        <v>9.9241251152675522E-4</v>
+      </c>
+      <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
+        <v>1.0423437217100238E-3</v>
+      </c>
+      <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
+        <v>1.0908699480655459E-3</v>
+      </c>
+      <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
+        <v>1.0965673582687793E-3</v>
+      </c>
+      <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
+        <v>1.1018401059767744E-3</v>
+      </c>
+      <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
+        <v>1.10256386610644E-3</v>
+      </c>
+      <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8">
+        <v>1.1045903273388365E-3</v>
+      </c>
+      <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
+        <v>1.1077986849877064E-3</v>
+      </c>
+      <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>1.1099457067948453E-3</v>
+      </c>
+      <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
+        <v>1.1119608473557081E-3</v>
+      </c>
+      <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
+        <v>1.1128888067681308E-3</v>
+      </c>
+      <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
+        <v>1.1138885654800648E-3</v>
+      </c>
+      <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
+        <v>1.1144682693016166E-3</v>
+      </c>
+      <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
+        <v>1.115873802380273E-3</v>
+      </c>
+      <c r="AJ6" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AJ$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
+        <v>1.1160562147102674E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -17066,67 +17136,67 @@
       <c r="O7" s="8">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" s="8">
         <v>0</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" s="8">
         <v>0</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7" s="8">
         <v>0</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7" s="8">
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7" s="8">
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7" s="8">
         <v>0</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7">
         <v>0</v>
       </c>
     </row>
@@ -17312,93 +17382,93 @@
         <f>N$4/(1-'Other Values'!$B$2)</f>
         <v>3.4288033647131473E-4</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
+        <v>3.4653723301081139E-4</v>
+      </c>
+      <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>3.5036573368620256E-4</v>
+      </c>
+      <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
+        <v>4.8409520175234718E-4</v>
+      </c>
+      <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
+        <v>4.8499575958347668E-4</v>
+      </c>
+      <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
+        <v>4.8748971775990313E-4</v>
+      </c>
+      <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
+        <v>4.919824634214108E-4</v>
+      </c>
+      <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
+        <v>4.9613457605008889E-4</v>
+      </c>
+      <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
+        <v>5.0172473202786828E-4</v>
+      </c>
+      <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
+        <v>5.0860082527902459E-4</v>
+      </c>
+      <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8">
+        <v>5.1620343317996501E-4</v>
+      </c>
+      <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>5.2392740877851179E-4</v>
+      </c>
+      <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
+        <v>5.3090055389935699E-4</v>
+      </c>
+      <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
+        <v>5.3383946529642924E-4</v>
+      </c>
+      <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
+        <v>5.3781235441520544E-4</v>
+      </c>
+      <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
+        <v>5.4077605738465473E-4</v>
+      </c>
+      <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>5.4265908038464948E-4</v>
+      </c>
+      <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>5.4361791691203819E-4</v>
+      </c>
+      <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>5.4257836240806205E-4</v>
+      </c>
+      <c r="AG2" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>5.4278692349295167E-4</v>
+      </c>
+      <c r="AH2" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
+        <v>5.4302643439794063E-4</v>
+      </c>
+      <c r="AI2" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+        <v>5.4328539796526395E-4</v>
+      </c>
+      <c r="AJ2" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)</f>
-        <v>0</v>
+        <v>5.4359941573862264E-4</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -17457,93 +17527,93 @@
         <f t="shared" si="0"/>
         <v>1.0768142798272696E-4</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0882987482984162E-4</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1003221388492314E-4</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.520298980709851E-4</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5231271788571999E-4</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5309594442046548E-4</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5450688933895548E-4</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5581085859424284E-4</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5756644476908264E-4</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5972587901324744E-4</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6211347488296425E-4</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6453918622796242E-4</v>
+      </c>
+      <c r="Z3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6672909957169893E-4</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6765206348152327E-4</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6889974766758523E-4</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6983049736047013E-4</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.704218599555098E-4</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7072298217072279E-4</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7039651050831703E-4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7046200903084435E-4</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7053722733158469E-4</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7061855473289285E-4</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7071717188485674E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -17602,71 +17672,93 @@
         <f>Extrapolations!AJ3</f>
         <v>1.0768142798272696E-4</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0</v>
+      <c r="O4" s="4">
+        <f>Extrapolations!AK3</f>
+        <v>1.0882987482984162E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <f>Extrapolations!AL3</f>
+        <v>1.1003221388492314E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Extrapolations!AM3</f>
+        <v>1.520298980709851E-4</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Extrapolations!AN3</f>
+        <v>1.5231271788571999E-4</v>
+      </c>
+      <c r="S4" s="4">
+        <f>Extrapolations!AO3</f>
+        <v>1.5309594442046548E-4</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Extrapolations!AP3</f>
+        <v>1.5450688933895548E-4</v>
+      </c>
+      <c r="U4" s="4">
+        <f>Extrapolations!AQ3</f>
+        <v>1.5581085859424284E-4</v>
+      </c>
+      <c r="V4" s="4">
+        <f>Extrapolations!AR3</f>
+        <v>1.5756644476908264E-4</v>
+      </c>
+      <c r="W4" s="4">
+        <f>Extrapolations!AS3</f>
+        <v>1.5972587901324744E-4</v>
+      </c>
+      <c r="X4" s="4">
+        <f>Extrapolations!AT3</f>
+        <v>1.6211347488296425E-4</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>Extrapolations!AU3</f>
+        <v>1.6453918622796242E-4</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>Extrapolations!AV3</f>
+        <v>1.6672909957169893E-4</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>Extrapolations!AW3</f>
+        <v>1.6765206348152327E-4</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>Extrapolations!AX3</f>
+        <v>1.6889974766758523E-4</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>Extrapolations!AY3</f>
+        <v>1.6983049736047013E-4</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>Extrapolations!AZ3</f>
+        <v>1.704218599555098E-4</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>Extrapolations!BA3</f>
+        <v>1.7072298217072279E-4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>Extrapolations!BB3</f>
+        <v>1.7039651050831703E-4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>Extrapolations!BC3</f>
+        <v>1.7046200903084435E-4</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>Extrapolations!BD3</f>
+        <v>1.7053722733158469E-4</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>Extrapolations!BE3</f>
+        <v>1.7061855473289285E-4</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>Extrapolations!BF3</f>
+        <v>1.7071717188485674E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -17725,93 +17817,93 @@
         <f t="shared" si="1"/>
         <v>1.0768142798272696E-4</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
+        <v>1.0882987482984162E-4</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
+        <v>1.1003221388492314E-4</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
+        <v>1.520298980709851E-4</v>
+      </c>
+      <c r="R5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
+        <v>1.5231271788571999E-4</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
+        <v>1.5309594442046548E-4</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
+        <v>1.5450688933895548E-4</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
+        <v>1.5581085859424284E-4</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
+        <v>1.5756644476908264E-4</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
+        <v>1.5972587901324744E-4</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
+        <v>1.6211347488296425E-4</v>
+      </c>
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
+        <v>1.6453918622796242E-4</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
+        <v>1.6672909957169893E-4</v>
+      </c>
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
+        <v>1.6765206348152327E-4</v>
+      </c>
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8">
+        <v>1.6889974766758523E-4</v>
+      </c>
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
+        <v>1.6983049736047013E-4</v>
+      </c>
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
+        <v>1.704218599555098E-4</v>
+      </c>
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
+        <v>1.7072298217072279E-4</v>
+      </c>
+      <c r="AF5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
+        <v>1.7039651050831703E-4</v>
+      </c>
+      <c r="AG5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
+        <v>1.7046200903084435E-4</v>
+      </c>
+      <c r="AH5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
+        <v>1.7053722733158469E-4</v>
+      </c>
+      <c r="AI5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
+        <v>1.7061855473289285E-4</v>
+      </c>
+      <c r="AJ5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7071717188485674E-4</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -17870,93 +17962,93 @@
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
         <v>2.3704082765145024E-4</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
+        <v>2.3956892182937502E-4</v>
+      </c>
+      <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
+        <v>2.4221564977562683E-4</v>
+      </c>
+      <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
+        <v>3.3466581509573423E-4</v>
+      </c>
+      <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+        <v>3.3528839081948619E-4</v>
+      </c>
+      <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
+        <v>3.3701251975715624E-4</v>
+      </c>
+      <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
+        <v>3.4011845508430589E-4</v>
+      </c>
+      <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
+        <v>3.4298890319495819E-4</v>
+      </c>
+      <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
+        <v>3.4685350276141474E-4</v>
+      </c>
+      <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
+        <v>3.5160709945942489E-4</v>
+      </c>
+      <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
+        <v>3.5686295194631469E-4</v>
+      </c>
+      <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
+        <v>3.6220270863076458E-4</v>
+      </c>
+      <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
+        <v>3.6702339945191091E-4</v>
+      </c>
+      <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
+        <v>3.690551344797216E-4</v>
+      </c>
+      <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8">
+        <v>3.7180168137877637E-4</v>
+      </c>
+      <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
+        <v>3.7385055537377166E-4</v>
+      </c>
+      <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>3.7515233119153667E-4</v>
+      </c>
+      <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
+        <v>3.7581519627844629E-4</v>
+      </c>
+      <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
+        <v>3.7509652905317681E-4</v>
+      </c>
+      <c r="AG6" s="4">
         <f>AG$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AG$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
+        <v>3.7524071198500339E-4</v>
+      </c>
+      <c r="AH6" s="4">
         <f>AH$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AH$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
+        <v>3.7540629121808047E-4</v>
+      </c>
+      <c r="AI6" s="4">
         <f>AI$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AI$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
+        <v>3.7558531851069699E-4</v>
+      </c>
+      <c r="AJ6" s="4">
         <f>AJ$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AJ$4*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
+        <v>3.75802406004428E-4</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -18311,33 +18403,33 @@
         <f>AC$5/(1-'Other Values'!$B$3)</f>
         <v>4.3456591185686193E-3</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>4.3923245835032045E-3</v>
+      </c>
+      <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>4.4910455672096733E-3</v>
+      </c>
+      <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>4.6721838985640946E-3</v>
+      </c>
+      <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>4.6898380650106054E-3</v>
+      </c>
+      <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
+        <v>4.7420793324872458E-3</v>
+      </c>
+      <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+        <v>4.8253940681356562E-3</v>
+      </c>
+      <c r="AJ2" s="4">
         <f>AJ$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
+        <v>4.9089727414312577E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -18456,33 +18548,33 @@
         <f t="shared" si="0"/>
         <v>1.3523240743531558E-3</v>
       </c>
-      <c r="AD3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AD3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3668458833469338E-3</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3975668302200186E-3</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4539352014141741E-3</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4594289950245018E-3</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4756859359754187E-3</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5016126181406836E-3</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5276214349660051E-3</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -18601,33 +18693,33 @@
         <f t="shared" si="0"/>
         <v>1.3523240743531558E-3</v>
       </c>
-      <c r="AD4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AD4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3668458833469338E-3</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3975668302200186E-3</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4539352014141741E-3</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4594289950245018E-3</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4756859359754187E-3</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5016126181406836E-3</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5276214349660051E-3</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -18746,26 +18838,33 @@
         <f>Extrapolations!AJ4</f>
         <v>1.3523240743531558E-3</v>
       </c>
-      <c r="AD5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>0</v>
+      <c r="AD5" s="4">
+        <f>Extrapolations!AK4</f>
+        <v>1.3668458833469338E-3</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>Extrapolations!AL4</f>
+        <v>1.3975668302200186E-3</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>Extrapolations!AM4</f>
+        <v>1.4539352014141741E-3</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>Extrapolations!AN4</f>
+        <v>1.4594289950245018E-3</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>Extrapolations!AO4</f>
+        <v>1.4756859359754187E-3</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>Extrapolations!AP4</f>
+        <v>1.5016126181406836E-3</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>Extrapolations!AQ4</f>
+        <v>1.5276214349660051E-3</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -18884,33 +18983,33 @@
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
         <v>2.998658348671661E-3</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>3.0308591684328826E-3</v>
+      </c>
+      <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
+        <v>3.0989801355643287E-3</v>
+      </c>
+      <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
+        <v>3.2239719848466304E-3</v>
+      </c>
+      <c r="AG6" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AG$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
+        <v>3.2361539835168594E-3</v>
+      </c>
+      <c r="AH6" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AH$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
+        <v>3.2722023040569238E-3</v>
+      </c>
+      <c r="AI6" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AI$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
+        <v>3.3296924156379186E-3</v>
+      </c>
+      <c r="AJ6" s="4">
         <f>AJ$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AJ$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
+        <v>3.3873646535218941E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -19265,33 +19364,33 @@
         <f>AC$5/(1-'Other Values'!$B$3)</f>
         <v>2.7406786880279249E-3</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>2.770109216682741E-3</v>
+      </c>
+      <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>2.8323696215427031E-3</v>
+      </c>
+      <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>2.946608210162494E-3</v>
+      </c>
+      <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>2.957742170837897E-3</v>
+      </c>
+      <c r="AH2" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
+        <v>2.9906891932578133E-3</v>
+      </c>
+      <c r="AI2" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+        <v>3.0432333330902739E-3</v>
+      </c>
+      <c r="AJ2" s="4">
         <f>AJ$5/(1-'Other Values'!$B$3)</f>
-        <v>0</v>
+        <v>3.0959439305911548E-3</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -19410,33 +19509,33 @@
         <f t="shared" si="0"/>
         <v>8.5287080020845444E-4</v>
       </c>
-      <c r="AD3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AD3" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6202927567441716E-4</v>
+      </c>
+      <c r="AE3" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8140406832930762E-4</v>
+      </c>
+      <c r="AF3" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1695393300934153E-4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2041870616651632E-4</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>9.306714780432442E-4</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4702266973197924E-4</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6342566132177042E-4</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -19555,33 +19654,33 @@
         <f t="shared" si="0"/>
         <v>8.5287080020845444E-4</v>
       </c>
-      <c r="AD4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AD4" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6202927567441716E-4</v>
+      </c>
+      <c r="AE4" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8140406832930762E-4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1695393300934153E-4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2041870616651632E-4</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.306714780432442E-4</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4702266973197924E-4</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6342566132177042E-4</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -19700,26 +19799,33 @@
         <f>Extrapolations!AJ5</f>
         <v>8.5287080020845444E-4</v>
       </c>
-      <c r="AD5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>0</v>
+      <c r="AD5" s="4">
+        <f>Extrapolations!AK5</f>
+        <v>8.6202927567441716E-4</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>Extrapolations!AL5</f>
+        <v>8.8140406832930762E-4</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>Extrapolations!AM5</f>
+        <v>9.1695393300934153E-4</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>Extrapolations!AN5</f>
+        <v>9.2041870616651632E-4</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>Extrapolations!AO5</f>
+        <v>9.306714780432442E-4</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>Extrapolations!AP5</f>
+        <v>9.4702266973197924E-4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>Extrapolations!AQ5</f>
+        <v>9.6342566132177042E-4</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -19838,33 +19944,33 @@
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
         <v>1.8911651385091631E-3</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
+        <v>1.9114732432289954E-3</v>
+      </c>
+      <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
+        <v>1.954435122596675E-3</v>
+      </c>
+      <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
+        <v>2.0332637854435756E-3</v>
+      </c>
+      <c r="AG6" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AG$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
+        <v>2.0409466117357758E-3</v>
+      </c>
+      <c r="AH6" s="4">
         <f>AH$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AH$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
+        <v>2.0636812214112573E-3</v>
+      </c>
+      <c r="AI6" s="4">
         <f>AI$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AI$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
+        <v>2.0999385345790412E-3</v>
+      </c>
+      <c r="AJ6" s="4">
         <f>AJ$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AJ$5*(1-'Other Values'!$B$6)</f>
-        <v>0</v>
+        <v>2.1363107094199319E-3</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -20753,38 +20859,49 @@
         <f>Extrapolations!AJ6</f>
         <v>4.831259210219211E-4</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="Z7" s="4">
+        <f>Extrapolations!AK6</f>
+        <v>4.8938430261690022E-4</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>Extrapolations!AL6</f>
+        <v>4.9094930125429513E-4</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>Extrapolations!AM6</f>
+        <v>4.9015296740417727E-4</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>Extrapolations!AN6</f>
+        <v>4.9002718091810653E-4</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>Extrapolations!AO6</f>
+        <v>4.8834101036056721E-4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>Extrapolations!AP6</f>
+        <v>4.9090237763877006E-4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>Extrapolations!AQ6</f>
+        <v>4.9363046291435334E-4</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>Extrapolations!AR6</f>
+        <v>4.9672649529711762E-4</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>Extrapolations!AS6</f>
+        <v>4.9947333327800606E-4</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>Extrapolations!AT6</f>
+        <v>4.9860284908454942E-4</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>Extrapolations!AU6</f>
+        <v>5.0509516951304531E-4</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\trans\BHNVFEAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="19425" windowHeight="11025" tabRatio="742"/>
+    <workbookView xWindow="360" yWindow="96" windowWidth="19428" windowHeight="11028" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +40,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1277,12 +1282,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1296,6 +1304,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1311,9 +1320,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$2:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>LDVs psgr</c:v>
+                  <c:v>LDVs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1475,6 +1487,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D103-40F3-B705-D06D6F55F31D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1484,7 +1501,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="177569152"/>
         <c:axId val="198808704"/>
@@ -1519,7 +1535,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="177569152"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -1536,7 +1552,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1550,6 +1566,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1565,9 +1582,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$11:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ships frgt</c:v>
+                  <c:v>ships</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1789,6 +1809,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D85-457C-979A-2B83C354C3CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1798,7 +1823,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="198739840"/>
         <c:axId val="198741376"/>
@@ -1833,7 +1857,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="198739840"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -1850,7 +1874,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1864,6 +1888,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1879,9 +1904,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$12:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>motorbikes psgr</c:v>
+                  <c:v>motorbikes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2055,6 +2083,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D589-495D-B209-DBE27AA2BDA2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2064,7 +2097,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="199044096"/>
         <c:axId val="199049984"/>
@@ -2100,7 +2132,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="199044096"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -2117,7 +2149,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2131,6 +2163,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2146,9 +2179,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$3:$B$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>LDVs frgt</c:v>
+                  <c:v>LDVs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2310,6 +2346,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56FE-45BE-91CB-AD70E79DC418}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2319,7 +2360,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="198877952"/>
         <c:axId val="198879488"/>
@@ -2354,7 +2394,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="198877952"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -2371,7 +2411,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2385,6 +2425,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2400,9 +2441,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$4:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HDVs psgr</c:v>
+                  <c:v>HDVs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,6 +2653,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F25-4EBA-BDE8-170EF0E8E35F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2618,7 +2667,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="198915968"/>
         <c:axId val="198917504"/>
@@ -2653,7 +2701,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="198915968"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -2670,7 +2718,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2684,6 +2732,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2699,9 +2748,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$5:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>HDVs frgt</c:v>
+                  <c:v>HDVs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2908,6 +2960,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-799E-47F4-8644-3A040F3A9B27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2917,7 +2974,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="200616960"/>
         <c:axId val="200618752"/>
@@ -2952,7 +3008,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="200616960"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -2969,7 +3025,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2983,6 +3039,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2998,9 +3055,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>aircraft psgr</c:v>
+                  <c:v>aircraft</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3195,6 +3255,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6B2-4B86-967E-8CB150C67796}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3204,7 +3269,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="200761728"/>
         <c:axId val="200763264"/>
@@ -3239,7 +3303,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="200761728"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -3256,7 +3320,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3270,6 +3334,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3285,9 +3350,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$7:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>aircraft frgt</c:v>
+                  <c:v>aircraft</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3482,6 +3550,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AC6-4868-B118-F1A6BB173FC8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3491,7 +3564,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="209272192"/>
         <c:axId val="209507456"/>
@@ -3526,7 +3598,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="209272192"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -3543,7 +3615,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3557,6 +3629,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3572,9 +3645,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$8:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>rail psgr</c:v>
+                  <c:v>rail</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3799,6 +3875,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A01B-46D7-9971-4B60B612738C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3808,7 +3889,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="209266560"/>
         <c:axId val="209560320"/>
@@ -3844,7 +3924,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="209266560"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -3861,7 +3941,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3875,6 +3955,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3890,9 +3971,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$9:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>rail frgt</c:v>
+                  <c:v>rail</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4117,6 +4201,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D55-451A-B673-5FFCCFCC454B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4126,7 +4215,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="178982912"/>
         <c:axId val="178984448"/>
@@ -4161,7 +4249,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="178982912"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -4178,7 +4266,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4192,6 +4280,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4207,9 +4296,12 @@
             <c:strRef>
               <c:f>Extrapolations!$A$10:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ships psgr</c:v>
+                  <c:v>ships</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4431,6 +4523,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D80-4FCE-BFFD-1E700362E2B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4440,7 +4537,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="179041024"/>
         <c:axId val="179042560"/>
@@ -4475,7 +4571,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="179041024"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -4950,7 +5046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4985,7 +5081,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5198,10 +5294,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5381,9 +5477,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -6202,9 +6298,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -7023,9 +7119,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -7844,9 +7940,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -8665,9 +8761,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9486,9 +9582,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -10453,9 +10549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -11236,11 +11332,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -12823,9 +12919,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12935,7 +13031,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
@@ -16253,9 +16349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -17214,9 +17310,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -18175,9 +18271,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -19136,9 +19232,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -20097,9 +20193,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.4.2-us - AEO Update\InputData\trans\BHNVFEAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="19425" windowHeight="11025" tabRatio="742"/>
   </bookViews>
@@ -40,7 +35,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -218,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1290,7 +1285,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1320,12 +1315,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$2:$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LDVs</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>LDVs psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,7 +1479,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D103-40F3-B705-D06D6F55F31D}"/>
             </c:ext>
@@ -1501,12 +1493,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177569152"/>
-        <c:axId val="198808704"/>
+        <c:axId val="74607232"/>
+        <c:axId val="74609024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177569152"/>
+        <c:axId val="74607232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198808704"/>
+        <c:crossAx val="74609024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1523,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198808704"/>
+        <c:axId val="74609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177569152"/>
+        <c:crossAx val="74607232"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,7 +1545,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1566,6 +1559,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1581,12 +1575,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$11:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ships</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>frgt</c:v>
+                  <c:v>ships frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1808,7 +1799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D85-457C-979A-2B83C354C3CD}"/>
             </c:ext>
@@ -1822,12 +1813,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198739840"/>
-        <c:axId val="198741376"/>
+        <c:axId val="74896512"/>
+        <c:axId val="74898048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198739840"/>
+        <c:axId val="74896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198741376"/>
+        <c:crossAx val="74898048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1844,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198741376"/>
+        <c:axId val="74898048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198739840"/>
+        <c:crossAx val="74896512"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1873,7 +1865,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1887,6 +1879,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1902,12 +1895,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$12:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>motorbikes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>motorbikes psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,7 +2071,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D589-495D-B209-DBE27AA2BDA2}"/>
             </c:ext>
@@ -2095,12 +2085,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199044096"/>
-        <c:axId val="199049984"/>
+        <c:axId val="75057792"/>
+        <c:axId val="75071872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199044096"/>
+        <c:axId val="75057792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199049984"/>
+        <c:crossAx val="75071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2117,7 +2108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199049984"/>
+        <c:axId val="75071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2129,7 +2120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199044096"/>
+        <c:crossAx val="75057792"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2147,7 +2138,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2177,12 +2168,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$3:$B$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LDVs</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>frgt</c:v>
+                  <c:v>LDVs frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2197,43 +2185,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.9515627594923914E-4</c:v>
+                  <c:v>1.605847123296331E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.969629237439854E-4</c:v>
+                  <c:v>1.610452319395552E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.9876957153873209E-4</c:v>
+                  <c:v>1.6159785547146171E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>2.0057621933347879E-4</c:v>
+                  <c:v>1.6226100370974952E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>2.0238286712822548E-4</c:v>
+                  <c:v>1.630567815956949E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>2.0418951492297174E-4</c:v>
+                  <c:v>1.6401171505882935E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>2.0599616271771843E-4</c:v>
+                  <c:v>1.651576352145907E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>2.0780281051246513E-4</c:v>
+                  <c:v>1.6653273940150432E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>2.0960945830721139E-4</c:v>
+                  <c:v>1.6818286442580067E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>2.1141610610195808E-4</c:v>
+                  <c:v>1.7016301445495628E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>2.1322275389670477E-4</c:v>
+                  <c:v>1.7253919448994301E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>2.1502940169145147E-4</c:v>
+                  <c:v>1.7539061053192708E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>2.1683604948619773E-4</c:v>
+                  <c:v>1.7881230978230797E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
                   <c:v>1.8291834888276503E-4</c:v>
@@ -2344,7 +2332,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56FE-45BE-91CB-AD70E79DC418}"/>
             </c:ext>
@@ -2358,12 +2346,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198877952"/>
-        <c:axId val="198879488"/>
+        <c:axId val="74629504"/>
+        <c:axId val="74631040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198877952"/>
+        <c:axId val="74629504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198879488"/>
+        <c:crossAx val="74631040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198879488"/>
+        <c:axId val="74631040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198877952"/>
+        <c:crossAx val="74629504"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2409,7 +2398,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2439,12 +2428,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$4:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HDVs</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>HDVs psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2651,7 +2637,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F25-4EBA-BDE8-170EF0E8E35F}"/>
             </c:ext>
@@ -2665,12 +2651,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198915968"/>
-        <c:axId val="198917504"/>
+        <c:axId val="74659712"/>
+        <c:axId val="74661248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198915968"/>
+        <c:axId val="74659712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198917504"/>
+        <c:crossAx val="74661248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2687,7 +2674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198917504"/>
+        <c:axId val="74661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198915968"/>
+        <c:crossAx val="74659712"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2716,7 +2703,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2746,12 +2733,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$5:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HDVs</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>frgt</c:v>
+                  <c:v>HDVs frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2958,7 +2942,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-799E-47F4-8644-3A040F3A9B27}"/>
             </c:ext>
@@ -2972,12 +2956,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200616960"/>
-        <c:axId val="200618752"/>
+        <c:axId val="74687616"/>
+        <c:axId val="74689152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200616960"/>
+        <c:axId val="74687616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200618752"/>
+        <c:crossAx val="74689152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +2979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200618752"/>
+        <c:axId val="74689152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +2990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200616960"/>
+        <c:crossAx val="74687616"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3023,7 +3008,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3053,12 +3038,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$6:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aircraft</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>aircraft psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3253,7 +3235,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F6B2-4B86-967E-8CB150C67796}"/>
             </c:ext>
@@ -3267,12 +3249,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200761728"/>
-        <c:axId val="200763264"/>
+        <c:axId val="74701440"/>
+        <c:axId val="74719616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200761728"/>
+        <c:axId val="74701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200763264"/>
+        <c:crossAx val="74719616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3289,7 +3272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200763264"/>
+        <c:axId val="74719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +3283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200761728"/>
+        <c:crossAx val="74701440"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3318,7 +3301,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3348,12 +3331,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$7:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>aircraft</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>frgt</c:v>
+                  <c:v>aircraft frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3548,7 +3528,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AC6-4868-B118-F1A6BB173FC8}"/>
             </c:ext>
@@ -3562,12 +3542,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209272192"/>
-        <c:axId val="209507456"/>
+        <c:axId val="74730112"/>
+        <c:axId val="74744192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209272192"/>
+        <c:axId val="74730112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +3557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209507456"/>
+        <c:crossAx val="74744192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3584,7 +3565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209507456"/>
+        <c:axId val="74744192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,7 +3576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209272192"/>
+        <c:crossAx val="74730112"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3613,7 +3594,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3643,12 +3624,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$8:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rail</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>rail psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3873,7 +3851,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A01B-46D7-9971-4B60B612738C}"/>
             </c:ext>
@@ -3887,12 +3865,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209266560"/>
-        <c:axId val="209560320"/>
+        <c:axId val="74797440"/>
+        <c:axId val="74798976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209266560"/>
+        <c:axId val="74797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209560320"/>
+        <c:crossAx val="74798976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3909,7 +3888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209560320"/>
+        <c:axId val="74798976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3921,7 +3900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209266560"/>
+        <c:crossAx val="74797440"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3939,7 +3918,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3969,12 +3948,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$9:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rail</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>frgt</c:v>
+                  <c:v>rail frgt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4199,7 +4175,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D55-451A-B673-5FFCCFCC454B}"/>
             </c:ext>
@@ -4213,12 +4189,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178982912"/>
-        <c:axId val="178984448"/>
+        <c:axId val="74844032"/>
+        <c:axId val="74845568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178982912"/>
+        <c:axId val="74844032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178984448"/>
+        <c:crossAx val="74845568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4235,7 +4212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178984448"/>
+        <c:axId val="74845568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +4223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178982912"/>
+        <c:crossAx val="74844032"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4264,7 +4241,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4278,6 +4255,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4293,12 +4271,9 @@
             <c:strRef>
               <c:f>Extrapolations!$A$10:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ships</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>psgr</c:v>
+                  <c:v>ships psgr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4520,7 +4495,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5D80-4FCE-BFFD-1E700362E2B8}"/>
             </c:ext>
@@ -4534,12 +4509,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179041024"/>
-        <c:axId val="179042560"/>
+        <c:axId val="74878336"/>
+        <c:axId val="74880128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179041024"/>
+        <c:axId val="74878336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179042560"/>
+        <c:crossAx val="74880128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4556,7 +4532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179042560"/>
+        <c:axId val="74880128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179041024"/>
+        <c:crossAx val="74878336"/>
         <c:crossesAt val="35"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5043,7 +5019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5078,7 +5054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11328,7 +11304,7 @@
   <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:AL18"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13495,56 +13471,56 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="20">
-        <f t="shared" ref="X3:AI3" si="1">TREND($AK3:$BS3,$AK$1:$BS$1,X$1)-($AM3-$AK3*1.05)</f>
-        <v>1.9515627594923914E-4</v>
+        <f t="shared" ref="X3:AI3" si="1">Y3-(Z3-Y3)/1.2</f>
+        <v>1.605847123296331E-4</v>
       </c>
       <c r="Y3" s="20">
         <f t="shared" si="1"/>
-        <v>1.969629237439854E-4</v>
+        <v>1.610452319395552E-4</v>
       </c>
       <c r="Z3" s="20">
         <f t="shared" si="1"/>
-        <v>1.9876957153873209E-4</v>
+        <v>1.6159785547146171E-4</v>
       </c>
       <c r="AA3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0057621933347879E-4</v>
+        <v>1.6226100370974952E-4</v>
       </c>
       <c r="AB3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0238286712822548E-4</v>
+        <v>1.630567815956949E-4</v>
       </c>
       <c r="AC3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0418951492297174E-4</v>
+        <v>1.6401171505882935E-4</v>
       </c>
       <c r="AD3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0599616271771843E-4</v>
+        <v>1.651576352145907E-4</v>
       </c>
       <c r="AE3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0780281051246513E-4</v>
+        <v>1.6653273940150432E-4</v>
       </c>
       <c r="AF3" s="20">
         <f t="shared" si="1"/>
-        <v>2.0960945830721139E-4</v>
+        <v>1.6818286442580067E-4</v>
       </c>
       <c r="AG3" s="20">
         <f t="shared" si="1"/>
-        <v>2.1141610610195808E-4</v>
+        <v>1.7016301445495628E-4</v>
       </c>
       <c r="AH3" s="20">
         <f t="shared" si="1"/>
-        <v>2.1322275389670477E-4</v>
+        <v>1.7253919448994301E-4</v>
       </c>
       <c r="AI3" s="20">
         <f t="shared" si="1"/>
-        <v>2.1502940169145147E-4</v>
+        <v>1.7539061053192708E-4</v>
       </c>
       <c r="AJ3" s="14">
-        <f>TREND($AK3:$BS3,$AK$1:$BS$1,AJ$1)-($AM3-$AK3*1.05)</f>
-        <v>2.1683604948619773E-4</v>
+        <f>AK3-(AL3-AK3)/1.2</f>
+        <v>1.7881230978230797E-4</v>
       </c>
       <c r="AK3" s="16">
         <f>BNVFE!D9</f>
@@ -16335,6 +16311,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="X3:AJ3" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17427,55 +17406,55 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>6.2141866815415613E-4</v>
+        <v>5.1133553136541057E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>6.2717141507953231E-4</v>
+        <v>5.128019227548993E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>6.3292416200490991E-4</v>
+        <v>5.1456159242228589E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>6.3867690893028761E-4</v>
+        <v>5.1667319602314969E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>6.4442965585566521E-4</v>
+        <v>5.1920712034418627E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>6.501824027810415E-4</v>
+        <v>5.2224782952943016E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>6.559351497064191E-4</v>
+        <v>5.2589668055172292E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>6.6168789663179669E-4</v>
+        <v>5.3027530177847415E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>6.6744064355717299E-4</v>
+        <v>5.355296472505757E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7319339048255058E-4</v>
+        <v>5.4183486181709755E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>6.7894613740792818E-4</v>
+        <v>5.4940111929692372E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>6.8469888433330588E-4</v>
+        <v>5.5848062827271508E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>6.9045163125868207E-4</v>
+        <v>5.693760390436647E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
@@ -17572,55 +17551,55 @@
       </c>
       <c r="B3" s="4">
         <f>B$4</f>
-        <v>1.9515627594923914E-4</v>
+        <v>1.605847123296331E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:AJ3" si="0">C$4</f>
-        <v>1.969629237439854E-4</v>
+        <v>1.610452319395552E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1.9876957153873209E-4</v>
+        <v>1.6159785547146171E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0057621933347879E-4</v>
+        <v>1.6226100370974952E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0238286712822548E-4</v>
+        <v>1.630567815956949E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0418951492297174E-4</v>
+        <v>1.6401171505882935E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0599616271771843E-4</v>
+        <v>1.651576352145907E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0780281051246513E-4</v>
+        <v>1.6653273940150432E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0960945830721139E-4</v>
+        <v>1.6818286442580067E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>2.1141610610195808E-4</v>
+        <v>1.7016301445495628E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>2.1322275389670477E-4</v>
+        <v>1.7253919448994301E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="0"/>
-        <v>2.1502940169145147E-4</v>
+        <v>1.7539061053192708E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="0"/>
-        <v>2.1683604948619773E-4</v>
+        <v>1.7881230978230797E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="0"/>
@@ -17717,55 +17696,55 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!X3</f>
-        <v>1.9515627594923914E-4</v>
+        <v>1.605847123296331E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!Y3</f>
-        <v>1.969629237439854E-4</v>
+        <v>1.610452319395552E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!Z3</f>
-        <v>1.9876957153873209E-4</v>
+        <v>1.6159785547146171E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>2.0057621933347879E-4</v>
+        <v>1.6226100370974952E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>2.0238286712822548E-4</v>
+        <v>1.630567815956949E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>2.0418951492297174E-4</v>
+        <v>1.6401171505882935E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>2.0599616271771843E-4</v>
+        <v>1.651576352145907E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>2.0780281051246513E-4</v>
+        <v>1.6653273940150432E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>2.0960945830721139E-4</v>
+        <v>1.6818286442580067E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>2.1141610610195808E-4</v>
+        <v>1.7016301445495628E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>2.1322275389670477E-4</v>
+        <v>1.7253919448994301E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>2.1502940169145147E-4</v>
+        <v>1.7539061053192708E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>2.1683604948619773E-4</v>
+        <v>1.7881230978230797E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AK3</f>
@@ -17862,55 +17841,55 @@
       </c>
       <c r="B5" s="4">
         <f>B$4</f>
-        <v>1.9515627594923914E-4</v>
+        <v>1.605847123296331E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:AJ5" si="1">C$4</f>
-        <v>1.969629237439854E-4</v>
+        <v>1.610452319395552E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>1.9876957153873209E-4</v>
+        <v>1.6159785547146171E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0057621933347879E-4</v>
+        <v>1.6226100370974952E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0238286712822548E-4</v>
+        <v>1.630567815956949E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0418951492297174E-4</v>
+        <v>1.6401171505882935E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0599616271771843E-4</v>
+        <v>1.651576352145907E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0780281051246513E-4</v>
+        <v>1.6653273940150432E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>2.0960945830721139E-4</v>
+        <v>1.6818286442580067E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>2.1141610610195808E-4</v>
+        <v>1.7016301445495628E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>2.1322275389670477E-4</v>
+        <v>1.7253919448994301E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>2.1502940169145147E-4</v>
+        <v>1.7539061053192708E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
-        <v>2.1683604948619773E-4</v>
+        <v>1.7881230978230797E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="1"/>
@@ -18007,55 +17986,55 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>4.2960059166194354E-4</v>
+        <v>3.534976627993107E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>4.3357759397853621E-4</v>
+        <v>3.5451141188799448E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>4.3755459629512991E-4</v>
+        <v>3.5572791079441506E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>4.4153159861172366E-4</v>
+        <v>3.5718770948211961E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>4.4550860092831731E-4</v>
+        <v>3.5893946790736516E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>4.4948560324491009E-4</v>
+        <v>3.6104157801765982E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>4.5346260556150379E-4</v>
+        <v>3.6356411015001338E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>4.5743960787809749E-4</v>
+        <v>3.6659114870883777E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6141661019469027E-4</v>
+        <v>3.7022359497942698E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6539361251128397E-4</v>
+        <v>3.7458253050413399E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>4.6937061482787767E-4</v>
+        <v>3.7981325313378244E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>4.7334761714447142E-4</v>
+        <v>3.8609012028936046E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>4.7732461946106415E-4</v>
+        <v>3.9362236087605413E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4CFF3-7E7E-4173-83D4-9D12544D8158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6877" yWindow="187" windowWidth="12091" windowHeight="10141" firstSheet="16" activeTab="16" xr2:uid="{993692F4-C124-4710-B3D7-C2F6E29BEAF3}"/>
-    <workbookView xWindow="15" yWindow="60" windowWidth="12090" windowHeight="10140" firstSheet="4" activeTab="4" xr2:uid="{CB93BD1B-E6A1-4A15-B101-279FF1129CB1}"/>
+    <workbookView xWindow="6878" yWindow="188" windowWidth="12090" windowHeight="10140"/>
+    <workbookView xWindow="15" yWindow="60" windowWidth="12090" windowHeight="10140" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1288,160 +1287,160 @@
     </xf>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2463,6 +2462,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4430,6 +4430,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5428,6 +5429,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5676,202 +5678,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.070242239185747E-4</c:v>
+                  <c:v>8.122417554319157E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.0702422391857502E-4</c:v>
+                  <c:v>8.1224175543191505E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5922,7 +5924,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6451,7 +6453,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6487,6 +6489,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7556,23 +7559,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7608,23 +7594,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7800,10 +7769,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8022,7 +7993,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8030,7 +8001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8827,131 +8798,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.0285041882251815E-3</v>
+        <v>1.2342050258702176E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.0354928896036072E-3</v>
+        <v>1.2425914675243284E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.0424815909820307E-3</v>
+        <v>1.2509779091784367E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.0494702923604564E-3</v>
+        <v>1.2593643508325475E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.0564589937388821E-3</v>
+        <v>1.2677507924866583E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.0634476951173056E-3</v>
+        <v>1.2761372341407666E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.0704363964957313E-3</v>
+        <v>1.2845236757948774E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.077425097874157E-3</v>
+        <v>1.2929101174489882E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.0844137992525827E-3</v>
+        <v>1.3012965591030991E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.0914025006310063E-3</v>
+        <v>1.3096830007572073E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.098391202009432E-3</v>
+        <v>1.3180694424113181E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.1053799033878577E-3</v>
+        <v>1.326455884065429E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.1123686047662812E-3</v>
+        <v>1.3348423257195372E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.1193573061447069E-3</v>
+        <v>1.343228767373648E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.1263460075231326E-3</v>
+        <v>1.3516152090277589E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.1333347089015561E-3</v>
+        <v>1.3600016506818671E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.1403234102799818E-3</v>
+        <v>1.368388092335978E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.1473121116584075E-3</v>
+        <v>1.3767745339900888E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.1543008130368332E-3</v>
+        <v>1.3851609756441996E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.1612895144152567E-3</v>
+        <v>1.3935474172983079E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.1682782157936824E-3</v>
+        <v>1.4019338589524187E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.1752669171721081E-3</v>
+        <v>1.4103203006065295E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.1822556185505317E-3</v>
+        <v>1.4187067422606378E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.1892443199289573E-3</v>
+        <v>1.4270931839147486E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.1901477808755785E-3</v>
+        <v>1.4281773370506941E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.1870043305566933E-3</v>
+        <v>1.4244051966680318E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.1959708032095119E-3</v>
+        <v>1.4351649638514141E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.2045165698477225E-3</v>
+        <v>1.4454198838172666E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.2133796453626963E-3</v>
+        <v>1.4560555744352354E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.222169687266617E-3</v>
+        <v>1.4666036247199402E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.2213828021307559E-3</v>
+        <v>1.465659362556907E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>1.2375089436638476E-3</v>
+        <v>1.485010732396617E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -8962,7 +8933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9759,131 +9730,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.2999517457206547E-4</v>
+        <v>2.7599420948647851E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.3362740840636868E-4</v>
+        <v>2.8035289008764236E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.3725964224067297E-4</v>
+        <v>2.8471157068880751E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.4089187607497618E-4</v>
+        <v>2.8907025128997136E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.4452410990928044E-4</v>
+        <v>2.9342893189113651E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.4815634374358365E-4</v>
+        <v>2.9778761249230035E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.5178857757788794E-4</v>
+        <v>3.021462930934655E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.5542081141219114E-4</v>
+        <v>3.0650497369462935E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>2.5905304524649544E-4</v>
+        <v>3.108636542957945E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>2.6268527908079973E-4</v>
+        <v>3.1522233489695965E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>2.6631751291510293E-4</v>
+        <v>3.195810154981235E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>2.6994974674940722E-4</v>
+        <v>3.2393969609928865E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>2.7358198058371043E-4</v>
+        <v>3.2829837670045249E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>2.7721421441801472E-4</v>
+        <v>3.3265705730161764E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>2.8084644825231793E-4</v>
+        <v>3.3701573790278149E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>2.8447868208662222E-4</v>
+        <v>3.4137441850394664E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>2.8811091592092543E-4</v>
+        <v>3.4573309910511049E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>2.9174314975522972E-4</v>
+        <v>3.5009177970627564E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>2.9537538358953401E-4</v>
+        <v>3.5445046030744079E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>2.9900761742383721E-4</v>
+        <v>3.5880914090860464E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.0263985125814151E-4</v>
+        <v>3.6316782150976978E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.0627208509244471E-4</v>
+        <v>3.6752650211093363E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.09904318926749E-4</v>
+        <v>3.7188518271209878E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.1353655276105221E-4</v>
+        <v>3.7624386331326263E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>3.0642860374827563E-4</v>
+        <v>3.6771432449793069E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>3.1658202558688671E-4</v>
+        <v>3.7989843070426396E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>3.2179980486067838E-4</v>
+        <v>3.8615976583281395E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>3.3214901378975228E-4</v>
+        <v>3.9857881654770268E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>3.4338648240875627E-4</v>
+        <v>4.1206377889050743E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>3.56356040256355E-4</v>
+        <v>4.276272483076259E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>3.642052905081176E-4</v>
+        <v>4.3704634860974103E-4</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>3.7982782509152056E-4</v>
+        <v>4.5579339010982462E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -9894,7 +9865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10017,131 +9988,131 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AG2" s="4">
         <f>AG$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5933518777701359E-3</v>
+        <v>2.6101182829738698E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -10354,131 +10325,131 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!E8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!F8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!G8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!H8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!I8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!J8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!K8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!L8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!M8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!N8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!O8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!P8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!Q8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!R8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!S8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!T8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!U8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!V8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!W8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!X8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!Y8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!Z8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AA8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AB8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AC8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AD8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AE8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AF8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AG8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AH8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AI8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AG5" s="4">
         <f>Extrapolations!AJ8</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -10691,131 +10662,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>2.0175605597964369E-3</v>
+        <v>2.4367252662957466E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -10826,7 +10797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11623,131 +11594,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>7.266015454415603E-3</v>
+        <v>8.7192185452987219E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>7.3306737458536664E-3</v>
+        <v>8.7968084950243979E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>7.3953320372917124E-3</v>
+        <v>8.8743984447500531E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>7.4599903287297757E-3</v>
+        <v>8.9519883944757291E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>7.5246486201678391E-3</v>
+        <v>9.0295783442014051E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>7.5893069116059024E-3</v>
+        <v>9.1071682939270811E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>7.6539652030439657E-3</v>
+        <v>9.1847582436527572E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>7.7186234944820117E-3</v>
+        <v>9.2623481933784124E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>7.7832817859200751E-3</v>
+        <v>9.3399381431040884E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>7.8479400773581384E-3</v>
+        <v>9.4175280928297644E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>7.9125983687962018E-3</v>
+        <v>9.4951180425554404E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>7.9772566602342478E-3</v>
+        <v>9.5727079922810956E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>8.0419149516723111E-3</v>
+        <v>9.6502979420067716E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>8.1065732431103744E-3</v>
+        <v>9.7278878917324476E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>8.1712315345484378E-3</v>
+        <v>9.8054778414581236E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>8.2358898259864838E-3</v>
+        <v>9.8830677911837788E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>8.3005481174245471E-3</v>
+        <v>9.9606577409094548E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>8.3652064088626105E-3</v>
+        <v>1.0038247690635131E-2</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>8.4298647003006738E-3</v>
+        <v>1.0115837640360807E-2</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>8.4945229917387198E-3</v>
+        <v>1.0193427590086462E-2</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>8.5591812831767831E-3</v>
+        <v>1.0271017539812138E-2</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>8.6238395746148465E-3</v>
+        <v>1.0348607489537814E-2</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>8.6884978660529098E-3</v>
+        <v>1.042619743926349E-2</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>8.7531561574909558E-3</v>
+        <v>1.0503787388989145E-2</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>8.8178144489290192E-3</v>
+        <v>1.0581377338714821E-2</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>8.8824727403670825E-3</v>
+        <v>1.0658967288440497E-2</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>8.9471310318051459E-3</v>
+        <v>1.0736557238166173E-2</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>9.0117893232432092E-3</v>
+        <v>1.0814147187891849E-2</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>9.0764476146812552E-3</v>
+        <v>1.0891737137617504E-2</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>9.1411059061193185E-3</v>
+        <v>1.0969327087343181E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>9.2057641975573819E-3</v>
+        <v>1.1046917037068857E-2</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>9.2704224889954452E-3</v>
+        <v>1.1124506986794533E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -11758,7 +11729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12555,131 +12526,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>2.5123529962890107E-5</v>
+        <v>3.0148235955468123E-5</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -12690,7 +12661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13487,131 +13458,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.0463060748209536E-2</v>
+        <v>1.2555672897851441E-2</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.0544362764739312E-2</v>
+        <v>1.2653235317687172E-2</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.0625664781269122E-2</v>
+        <v>1.2750797737522945E-2</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.0706966797798933E-2</v>
+        <v>1.2848360157358718E-2</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.0788268814328709E-2</v>
+        <v>1.2945922577194449E-2</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.0869570830858519E-2</v>
+        <v>1.3043484997030222E-2</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.095087284738833E-2</v>
+        <v>1.3141047416865994E-2</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.1032174863918141E-2</v>
+        <v>1.3238609836701767E-2</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.1113476880447917E-2</v>
+        <v>1.3336172256537498E-2</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.1194778896977727E-2</v>
+        <v>1.3433734676373271E-2</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.1276080913507538E-2</v>
+        <v>1.3531297096209044E-2</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.1357382930037314E-2</v>
+        <v>1.3628859516044775E-2</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.1438684946567124E-2</v>
+        <v>1.3726421935880547E-2</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.1519986963096935E-2</v>
+        <v>1.382398435571632E-2</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.1601288979626746E-2</v>
+        <v>1.3921546775552093E-2</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.1682590996156521E-2</v>
+        <v>1.4019109195387824E-2</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.1763893012686332E-2</v>
+        <v>1.4116671615223597E-2</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.1845195029216143E-2</v>
+        <v>1.421423403505937E-2</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.1926497045745919E-2</v>
+        <v>1.4311796454895101E-2</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.2007799062275729E-2</v>
+        <v>1.4409358874730873E-2</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.208910107880554E-2</v>
+        <v>1.4506921294566646E-2</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.2170403095335351E-2</v>
+        <v>1.4604483714402419E-2</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.2251705111865126E-2</v>
+        <v>1.470204613423815E-2</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.2333007128394937E-2</v>
+        <v>1.4799608554073923E-2</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.2414309144924748E-2</v>
+        <v>1.4897170973909695E-2</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.2495611161454524E-2</v>
+        <v>1.4994733393745427E-2</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.2576913177984334E-2</v>
+        <v>1.5092295813581199E-2</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.2658215194514145E-2</v>
+        <v>1.5189858233416972E-2</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.2739517211043955E-2</v>
+        <v>1.5287420653252745E-2</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.2820819227573731E-2</v>
+        <v>1.5384983073088476E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.2902121244103542E-2</v>
+        <v>1.5482545492924249E-2</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*Calculations!$B$27</f>
-        <v>1.2983423260633353E-2</v>
+        <v>1.5580107912760021E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -13622,7 +13593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13879,7 +13850,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:AI3" si="0">B$4</f>
+        <f t="shared" ref="B3:AG3" si="0">B$4</f>
         <v>1.1107105081407272E-3</v>
       </c>
       <c r="C3" s="4">
@@ -14149,7 +14120,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:AI5" si="1">B$4</f>
+        <f t="shared" ref="B5:AG5" si="1">B$4</f>
         <v>1.1107105081407272E-3</v>
       </c>
       <c r="C5" s="4">
@@ -14555,131 +14526,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.7767762703518181E-3</v>
+        <v>3.3321315244221809E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -14690,13 +14661,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -15520,10 +15491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:AI14"/>
+    </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16372,100 +16345,100 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="G14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="I14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="J14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="M14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="N14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="O14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="P14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="R14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="S14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="T14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="U14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="V14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="W14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="X14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="Y14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="Z14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AA14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AB14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AC14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AD14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AE14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AF14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AG14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AH14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AI14" s="4">
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -17024,7 +16997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17132,11 +17105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -17372,7 +17345,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -17382,7 +17355,7 @@
       </c>
       <c r="B27" s="8">
         <f>B26/B25</f>
-        <v>2.5</v>
+        <v>2.9999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -17422,7 +17395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -19090,267 +19063,267 @@
       <c r="D8" s="11"/>
       <c r="E8" s="4">
         <f t="shared" ref="E8:AL12" si="8">TREND($AM8:$BR8,$AM$1:$BR$1,E$1)</f>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AK8" s="33">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AL8" s="34">
         <f t="shared" si="8"/>
-        <v>8.070242239185747E-4</v>
+        <v>8.122417554319157E-4</v>
       </c>
       <c r="AM8" s="14">
         <f>BNVFE!D14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AN8" s="15">
         <f>BNVFE!E14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AO8" s="15">
         <f>BNVFE!F14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AP8" s="15">
         <f>BNVFE!G14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AQ8" s="15">
         <f>BNVFE!H14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AR8" s="15">
         <f>BNVFE!I14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AS8" s="15">
         <f>BNVFE!J14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AT8" s="15">
         <f>BNVFE!K14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AU8" s="15">
         <f>BNVFE!L14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AV8" s="15">
         <f>BNVFE!M14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AW8" s="15">
         <f>BNVFE!N14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AX8" s="15">
         <f>BNVFE!O14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AY8" s="15">
         <f>BNVFE!P14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="AZ8" s="15">
         <f>BNVFE!Q14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BA8" s="15">
         <f>BNVFE!R14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BB8" s="15">
         <f>BNVFE!S14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BC8" s="15">
         <f>BNVFE!T14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BD8" s="15">
         <f>BNVFE!U14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BE8" s="15">
         <f>BNVFE!V14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BF8" s="15">
         <f>BNVFE!W14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BG8" s="15">
         <f>BNVFE!X14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BH8" s="15">
         <f>BNVFE!Y14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BI8" s="15">
         <f>BNVFE!Z14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BJ8" s="15">
         <f>BNVFE!AA14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BK8" s="15">
         <f>BNVFE!AB14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BL8" s="15">
         <f>BNVFE!AC14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BM8" s="15">
         <f>BNVFE!AD14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BN8" s="15">
         <f>BNVFE!AE14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BO8" s="15">
         <f>BNVFE!AF14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BP8" s="15">
         <f>BNVFE!AG14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BQ8" s="15">
         <f>BNVFE!AH14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BR8" s="15">
         <f>BNVFE!AI14</f>
-        <v>8.0702422391857502E-4</v>
+        <v>8.1224175543191505E-4</v>
       </c>
       <c r="BS8" s="15"/>
       <c r="BT8" s="4"/>
@@ -19935,7 +19908,7 @@
         <v>4.3153075257314835E-3</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" ref="D11:AF12" si="9">TREND($AM11:$BR11,$AM$1:$BR$1,K$1)</f>
+        <f t="shared" ref="K11:AF12" si="9">TREND($AM11:$BR11,$AM$1:$BR$1,K$1)</f>
         <v>4.3478283323434078E-3</v>
       </c>
       <c r="L11" s="29">
@@ -20637,7 +20610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20894,7 +20867,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:AI5" si="0">B$4</f>
+        <f t="shared" ref="B3:AG5" si="0">B$4</f>
         <v>3.0748825560000803E-4</v>
       </c>
       <c r="C3" s="4">
@@ -21570,131 +21543,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>7.6872063900002008E-4</v>
+        <v>9.2246476680002399E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>7.8562465408047886E-4</v>
+        <v>9.4274958489657453E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>8.0252866916093765E-4</v>
+        <v>9.6303440299312507E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>8.1943268424139644E-4</v>
+        <v>9.8331922108967551E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>8.3633669932185522E-4</v>
+        <v>1.0036040391862261E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>8.5324071440231401E-4</v>
+        <v>1.0238888572827766E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>8.7014472948277279E-4</v>
+        <v>1.0441736753793271E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>8.8704874456323158E-4</v>
+        <v>1.0644584934758777E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>9.0395275964369037E-4</v>
+        <v>1.0847433115724282E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>9.2085677472414915E-4</v>
+        <v>1.1050281296689788E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>9.3776078980460794E-4</v>
+        <v>1.1253129477655293E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>9.5466480488506672E-4</v>
+        <v>1.1455977658620799E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>9.7156881996552551E-4</v>
+        <v>1.1658825839586304E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>9.8847283504598419E-4</v>
+        <v>1.1861674020551807E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>1.0200149884624322E-3</v>
+        <v>1.2240179861549186E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>1.0596934640509314E-3</v>
+        <v>1.2716321568611174E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>1.1076483687622431E-3</v>
+        <v>1.3291780425146915E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>1.1479243868073308E-3</v>
+        <v>1.3775092641687967E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>1.1966396740844649E-3</v>
+        <v>1.4359676089013577E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>1.2556893304475579E-3</v>
+        <v>1.5068271965370693E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>1.2619822221853316E-3</v>
+        <v>1.5143786666223975E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>1.2653284668730702E-3</v>
+        <v>1.518394160247684E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>1.2685621200488062E-3</v>
+        <v>1.5222745440585672E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>1.2726358258076298E-3</v>
+        <v>1.5271629909691554E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>1.279494655367044E-3</v>
+        <v>1.5353935864404525E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>1.2861787237707094E-3</v>
+        <v>1.5434144685248512E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>1.291913197649324E-3</v>
+        <v>1.5502958371791885E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>1.2982639965636309E-3</v>
+        <v>1.5579167958763567E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>1.3043571414638603E-3</v>
+        <v>1.565228569756632E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>1.3095804658189182E-3</v>
+        <v>1.5714965589827016E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>1.3138723197981339E-3</v>
+        <v>1.5766467837577606E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>1.3168481456887677E-3</v>
+        <v>1.5802177748265212E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -21705,7 +21678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21962,7 +21935,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:AI3" si="0">B$4</f>
+        <f t="shared" ref="B3:AG3" si="0">B$4</f>
         <v>1.169525976045652E-4</v>
       </c>
       <c r="C3" s="4">
@@ -22232,7 +22205,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:AI5" si="1">B$4</f>
+        <f t="shared" ref="B5:AG5" si="1">B$4</f>
         <v>1.169525976045652E-4</v>
       </c>
       <c r="C5" s="4">
@@ -22638,131 +22611,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.9238149401141303E-4</v>
+        <v>3.5085779281369554E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.9382293085211219E-4</v>
+        <v>3.5258751702253456E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.9526436769281136E-4</v>
+        <v>3.5431724123137362E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.9670580453351059E-4</v>
+        <v>3.5604696544021264E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.9814724137420975E-4</v>
+        <v>3.5777668964905165E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.9958867821490892E-4</v>
+        <v>3.5950641385789066E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>3.0103011505560814E-4</v>
+        <v>3.6123613806672973E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>3.0247155189630731E-4</v>
+        <v>3.6296586227556869E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>3.0391298873700648E-4</v>
+        <v>3.646955864844077E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>3.0535442557770565E-4</v>
+        <v>3.6642531069324671E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>3.0679586241840487E-4</v>
+        <v>3.6815503490208578E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>3.0823729925910404E-4</v>
+        <v>3.6988475911092479E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>3.0967873609980321E-4</v>
+        <v>3.7161448331976375E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>3.1256160978120122E-4</v>
+        <v>3.750739317374414E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>3.1434287741956897E-4</v>
+        <v>3.7721145290348275E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>3.1868729041468845E-4</v>
+        <v>3.8242474849762605E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>3.2203835203692025E-4</v>
+        <v>3.8644602244430421E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>3.264251593678409E-4</v>
+        <v>3.9171019124140902E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>3.316866222318138E-4</v>
+        <v>3.980239466781765E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>3.3797409857564992E-4</v>
+        <v>4.0556891829077982E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>3.4420870131810481E-4</v>
+        <v>4.130504415817257E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>3.4939541900461503E-4</v>
+        <v>4.1927450280553795E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>3.4952864055911551E-4</v>
+        <v>4.1943436867093855E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>3.5136620571732131E-4</v>
+        <v>4.2163944686078548E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>3.5264604568544775E-4</v>
+        <v>4.2317525482253723E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>3.5327444885288356E-4</v>
+        <v>4.2392933862346019E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>3.5291946113748794E-4</v>
+        <v>4.2350335336498543E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>3.5237655217636708E-4</v>
+        <v>4.228518626116404E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>3.518375651582058E-4</v>
+        <v>4.2220507818984689E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>3.5118695839835316E-4</v>
+        <v>4.2142435007802369E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>3.5082800723795613E-4</v>
+        <v>4.2099360868554726E-4</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>3.50443615325874E-4</v>
+        <v>4.2053233839104873E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -22773,7 +22746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23030,7 +23003,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:AI4" si="0">B$5</f>
+        <f t="shared" ref="B3:AG4" si="0">B$5</f>
         <v>8.2962674808847244E-4</v>
       </c>
       <c r="C3" s="4">
@@ -23706,131 +23679,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.074066870221181E-3</v>
+        <v>2.4888802442654171E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.0844976872009461E-3</v>
+        <v>2.5013972246411349E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.0949285041807113E-3</v>
+        <v>2.5139142050168532E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.1053593211604765E-3</v>
+        <v>2.5264311853925715E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.1157901381402416E-3</v>
+        <v>2.5389481657682898E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.1262209551200072E-3</v>
+        <v>2.5514651461440081E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.1366517720997724E-3</v>
+        <v>2.5639821265197264E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.1470825890795371E-3</v>
+        <v>2.5764991068954442E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.1575134060593023E-3</v>
+        <v>2.5890160872711625E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.1679442230390679E-3</v>
+        <v>2.6015330676468808E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.1783750400188326E-3</v>
+        <v>2.6140500480225991E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.1888058569985978E-3</v>
+        <v>2.6265670283983169E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.1992366739783629E-3</v>
+        <v>2.6390840087740352E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.2096674909581281E-3</v>
+        <v>2.6516009891497535E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.2200983079378933E-3</v>
+        <v>2.6641179695254718E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.2305291249176584E-3</v>
+        <v>2.67663494990119E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.2409599418974236E-3</v>
+        <v>2.6891519302769079E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.2618215758569513E-3</v>
+        <v>2.7141858910283414E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.2763608733602607E-3</v>
+        <v>2.7316330480323127E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.3131504377265758E-3</v>
+        <v>2.7757805252718905E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.3124895490410548E-3</v>
+        <v>2.7749874588492655E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -23841,7 +23814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24098,7 +24071,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:AI4" si="0">B$5</f>
+        <f t="shared" ref="B3:AG4" si="0">B$5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="C3" s="4">
@@ -24774,131 +24747,131 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>1.9510119300066835E-3</v>
+        <v>2.34121431600802E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>1.9608238838348972E-3</v>
+        <v>2.3529886606018765E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>1.9706358376631113E-3</v>
+        <v>2.3647630051957329E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>1.9804477914913249E-3</v>
+        <v>2.3765373497895898E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>1.990259745319539E-3</v>
+        <v>2.3883116943834463E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.0000716991477527E-3</v>
+        <v>2.4000860389773028E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.0098836529759663E-3</v>
+        <v>2.4118603835711593E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.0196956068041804E-3</v>
+        <v>2.4236347281650162E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.0295075606323941E-3</v>
+        <v>2.4354090727588726E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.0393195144606082E-3</v>
+        <v>2.4471834173527291E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.0491314682888218E-3</v>
+        <v>2.4589577619465856E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.0589434221170355E-3</v>
+        <v>2.4707321065404425E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.0687553759452496E-3</v>
+        <v>2.482506451134299E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.0785673297734632E-3</v>
+        <v>2.4942807957281554E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.0883792836016769E-3</v>
+        <v>2.5060551403220119E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.098191237429891E-3</v>
+        <v>2.5178294849158688E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.1080031912581046E-3</v>
+        <v>2.5296038295097253E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.1276270989145302E-3</v>
+        <v>2.5531525186974356E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.1590641096528242E-3</v>
+        <v>2.5908769315833888E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.2163451968687251E-3</v>
+        <v>2.6596142362424698E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$4*Calculations!$B$27</f>
-        <v>2.2402453220033178E-3</v>
+        <v>2.6882943864039808E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38483CC7-12F5-4D51-83F4-E2640ADD5B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,14 +57,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -370,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1327,162 +1326,162 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1763,133 +1762,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.207320075161445E-4</c:v>
+                  <c:v>3.2092630056054029E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.272141534000967E-4</c:v>
+                  <c:v>3.2760273948888828E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.336962992840489E-4</c:v>
+                  <c:v>3.3427917841723627E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.401784451680011E-4</c:v>
+                  <c:v>3.4095561734558426E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.466605910519533E-4</c:v>
+                  <c:v>3.4763205627393225E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.531427369359055E-4</c:v>
+                  <c:v>3.5430849520228023E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.596248828198577E-4</c:v>
+                  <c:v>3.6098493413062822E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.661070287038099E-4</c:v>
+                  <c:v>3.6766137305897621E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.725891745877621E-4</c:v>
+                  <c:v>3.743378119873242E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.790713204717143E-4</c:v>
+                  <c:v>3.8101425091567219E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.855534663556665E-4</c:v>
+                  <c:v>3.8769068984402017E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.920356122396187E-4</c:v>
+                  <c:v>3.9436712877236816E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.9851775812357079E-4</c:v>
+                  <c:v>4.010435677007162E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.1245238248791824E-4</c:v>
+                  <c:v>4.1543936179917892E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.1996419698319429E-4</c:v>
+                  <c:v>4.232456921304615E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.2487319850780349E-4</c:v>
+                  <c:v>4.284224989356039E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.284100729130481E-4</c:v>
+                  <c:v>4.3223887309206766E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.3229475648161309E-4</c:v>
+                  <c:v>4.3661930301858122E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.3562407119964938E-4</c:v>
+                  <c:v>4.4073837767711228E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.3560812002075292E-4</c:v>
+                  <c:v>4.4130433819121803E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.3525902639902458E-4</c:v>
+                  <c:v>4.4139330713525239E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.3494323063744613E-4</c:v>
+                  <c:v>4.4143859386227608E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.3556364713577859E-4</c:v>
+                  <c:v>4.4252278985937798E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.3522567663302421E-4</c:v>
+                  <c:v>4.4258101673758966E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.3485093567965249E-4</c:v>
+                  <c:v>4.4262644410952699E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.3444409287052158E-4</c:v>
+                  <c:v>4.4263525674443374E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.3426236094515938E-4</c:v>
+                  <c:v>4.428907913418545E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.3334550299972978E-4</c:v>
+                  <c:v>4.4235185104972023E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.3240292886877814E-4</c:v>
+                  <c:v>4.4180682000362565E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.3170566760387615E-4</c:v>
+                  <c:v>4.415169210975881E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.3118788640723155E-4</c:v>
+                  <c:v>4.4141525513386555E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.3031928754038741E-4</c:v>
+                  <c:v>4.4094858868260617E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.2960602061293765E-4</c:v>
+                  <c:v>4.406528424788466E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.2897495422723389E-4</c:v>
+                  <c:v>4.4046477188487546E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.2827390653701544E-4</c:v>
+                  <c:v>4.4016736396697124E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.2760003777643344E-4</c:v>
+                  <c:v>4.3991921468742256E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.2704184487275684E-4</c:v>
+                  <c:v>4.3980677282836695E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.2657106481093477E-4</c:v>
+                  <c:v>4.3981133028276362E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.2590283562668826E-4</c:v>
+                  <c:v>4.3960459654073496E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.2527588921106548E-4</c:v>
+                  <c:v>4.3945697770705547E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.2453197785940827E-4</c:v>
+                  <c:v>4.3919624527100954E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2394708700212782E-4</c:v>
+                  <c:v>4.3913823303573507E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.233617188619921E-4</c:v>
+                  <c:v>4.3909651675542918E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,136 +3221,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.6229391725409031E-5</c:v>
+                  <c:v>9.9488487363379261E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>9.5931375498007091E-5</c:v>
+                  <c:v>1.0061932431139125E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.5633359270605152E-5</c:v>
+                  <c:v>1.0175016125940324E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.5335343043203105E-5</c:v>
+                  <c:v>1.0288099820741567E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.5037326815801165E-5</c:v>
+                  <c:v>1.0401183515542766E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.4739310588399226E-5</c:v>
+                  <c:v>1.0514267210343965E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>9.4441294360997179E-5</c:v>
+                  <c:v>1.0627350905145164E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.4143278133595239E-5</c:v>
+                  <c:v>1.0740434599946407E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.38452619061933E-5</c:v>
+                  <c:v>1.0853518294747606E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.3547245678791253E-5</c:v>
+                  <c:v>1.0966601989548805E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.3249229451389313E-5</c:v>
+                  <c:v>1.1079685684350004E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.2951213223987374E-5</c:v>
+                  <c:v>1.1192769379151203E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.2653196996585327E-5</c:v>
+                  <c:v>1.1305853073952446E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2380125600871724E-5</c:v>
+                  <c:v>1.1428113993556423E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.219309829263994E-5</c:v>
+                  <c:v>1.1543951081357006E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.1559103172633992E-5</c:v>
+                  <c:v>1.1615065927168361E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.1353641791139538E-5</c:v>
+                  <c:v>1.1745763562914827E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.1309772714612039E-5</c:v>
+                  <c:v>1.1892626226783556E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.1727283528872551E-5</c:v>
+                  <c:v>1.2060861313415234E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.2100032073698612E-5</c:v>
+                  <c:v>1.2229627966320515E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.2305136532437853E-5</c:v>
+                  <c:v>1.2380516849984347E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.1620615504101768E-5</c:v>
+                  <c:v>1.2403672688873158E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.1326863616208426E-5</c:v>
+                  <c:v>1.2478325796188853E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.0946057693078308E-5</c:v>
+                  <c:v>1.2531868128638651E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.0400981470945208E-5</c:v>
+                  <c:v>1.2554866076555104E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.9778862849115799E-5</c:v>
+                  <c:v>1.2553974368492176E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.9156599246297398E-5</c:v>
+                  <c:v>1.2540736338252702E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.8631662360611819E-5</c:v>
+                  <c:v>1.2528291522183882E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.7943084749779726E-5</c:v>
+                  <c:v>1.2482945234922957E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.7573294998797346E-5</c:v>
+                  <c:v>1.2473995072375635E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.7069226169957413E-5</c:v>
+                  <c:v>1.2431563753209131E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.6871435981294458E-5</c:v>
+                  <c:v>1.2431163762745826E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.6747571549133394E-5</c:v>
+                  <c:v>1.2439527473110106E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.6669857452234005E-5</c:v>
+                  <c:v>1.2452266267132223E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.662306841739351E-5</c:v>
+                  <c:v>1.2467128318801655E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.6546781831867863E-5</c:v>
+                  <c:v>1.2482706894740875E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.6512992189387129E-5</c:v>
+                  <c:v>1.2497576465028037E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.6486778796134947E-5</c:v>
+                  <c:v>1.2511225763657408E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6441703335980475E-5</c:v>
+                  <c:v>1.252179092529341E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.6431601732089286E-5</c:v>
+                  <c:v>1.252201422824003E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.6243095042905357E-5</c:v>
+                  <c:v>1.2511409969791825E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.6035767614588875E-5</c:v>
+                  <c:v>1.2499254620505659E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.5821368562436881E-5</c:v>
+                  <c:v>1.2484804589087901E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.559520997794513E-5</c:v>
+                  <c:v>1.246658923391032E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,88 +3684,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>7.9335142026587188E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8513065209783318E-4</c:v>
+                  <c:v>7.9987322341375754E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.924714869854924E-4</c:v>
+                  <c:v>8.0639502656164319E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.9981232187315162E-4</c:v>
+                  <c:v>8.1291682970952885E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0715315676081084E-4</c:v>
+                  <c:v>8.1943863285741439E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1449399164846995E-4</c:v>
+                  <c:v>8.2596043600529994E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2183482653612906E-4</c:v>
+                  <c:v>8.3248223915318559E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.2917566142378827E-4</c:v>
+                  <c:v>8.3900404230107125E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3651649631144749E-4</c:v>
+                  <c:v>8.455258454489569E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4385733119910671E-4</c:v>
+                  <c:v>8.5204764859684256E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.5119816608676593E-4</c:v>
+                  <c:v>8.5856945174472821E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.5853900097442514E-4</c:v>
+                  <c:v>8.6509125489261387E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6587983586208436E-4</c:v>
+                  <c:v>8.7161305804049952E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7322067074974358E-4</c:v>
+                  <c:v>8.7813486118838518E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.805615056374028E-4</c:v>
+                  <c:v>8.8465666433627083E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.8790234052506202E-4</c:v>
+                  <c:v>8.9117846748415638E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9524317541272123E-4</c:v>
+                  <c:v>8.9770027063204203E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.0258401030038045E-4</c:v>
+                  <c:v>9.0422207377992758E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>9.1726568007569835E-4</c:v>
@@ -4226,148 +4225,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8777028701720712E-4</c:v>
+                  <c:v>7.8682014628531647E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.9513580203174081E-4</c:v>
+                  <c:v>7.932355205679595E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.0250131704627449E-4</c:v>
+                  <c:v>7.9965089485060253E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0986683206080818E-4</c:v>
+                  <c:v>8.0606626913324556E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1723234707534187E-4</c:v>
+                  <c:v>8.1248164341588859E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2459786208987555E-4</c:v>
+                  <c:v>8.1889701769853162E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.3196337710440924E-4</c:v>
+                  <c:v>8.2531239198117465E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3932889211894293E-4</c:v>
+                  <c:v>8.3172776626381768E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4669440713347661E-4</c:v>
+                  <c:v>8.3814314054646072E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.540599221480103E-4</c:v>
+                  <c:v>8.4455851482910375E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.6142543716254398E-4</c:v>
+                  <c:v>8.5097388911174678E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6879095217707767E-4</c:v>
+                  <c:v>8.5738926339438981E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7615646719161136E-4</c:v>
+                  <c:v>8.6380463767703284E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.8352198220614504E-4</c:v>
+                  <c:v>8.7022001195967587E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.9088749722067873E-4</c:v>
+                  <c:v>8.766353862423189E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9825301223521242E-4</c:v>
+                  <c:v>8.8305076052496193E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.056185272497461E-4</c:v>
+                  <c:v>8.8946613480760496E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2034955727881304E-4</c:v>
+                  <c:v>9.0229688337289059E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.3794857137722578E-4</c:v>
+                  <c:v>9.194224215971678E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.3500204338529676E-4</c:v>
+                  <c:v>9.2578647664525555E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.4450518097673522E-4</c:v>
+                  <c:v>9.4070594049707682E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.6553094726227289E-4</c:v>
+                  <c:v>9.6401936122632586E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.9202472083761615E-4</c:v>
+                  <c:v>9.9193665486297495E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.0204549915404683E-3</c:v>
+                  <c:v>1.0222592260576244E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0517667621207619E-3</c:v>
+                  <c:v>1.0561910788077697E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.0714253139951938E-3</c:v>
+                  <c:v>1.0765532532958707E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.0927335887791732E-3</c:v>
+                  <c:v>1.1021456391937165E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1084724701472082E-3</c:v>
+                  <c:v>1.1228840204130406E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212183953006243E-3</c:v>
+                  <c:v>1.141209051478048E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1265509849157651E-3</c:v>
+                  <c:v>1.1515245237078177E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1262441806540653E-3</c:v>
+                  <c:v>1.1538951365875237E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1263184748685799E-3</c:v>
+                  <c:v>1.1562949532715463E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1257669710917103E-3</c:v>
+                  <c:v>1.1574993134129965E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1240566768554406E-3</c:v>
+                  <c:v>1.1581073698589805E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1231142484226817E-3</c:v>
+                  <c:v>1.1594799486618827E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1241515401583754E-3</c:v>
+                  <c:v>1.1619257079161116E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1224282188798294E-3</c:v>
+                  <c:v>1.1622655879639156E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.119439944891256E-3</c:v>
+                  <c:v>1.1617215187151955E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1180165169692845E-3</c:v>
+                  <c:v>1.1625051541310368E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.118177323275613E-3</c:v>
+                  <c:v>1.1644962362692725E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1185238583405013E-3</c:v>
+                  <c:v>1.1662990369699189E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1197710010246366E-3</c:v>
+                  <c:v>1.1688486715443814E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1216340297167265E-3</c:v>
+                  <c:v>1.1720159784516151E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1220820780488356E-3</c:v>
+                  <c:v>1.1739609993049926E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.1245809182148494E-3</c:v>
+                  <c:v>1.1777096518615791E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.1271758246963568E-3</c:v>
+                  <c:v>1.1816583386062719E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1260899004142818E-3</c:v>
+                  <c:v>1.1829041301611636E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1259813441496596E-3</c:v>
+                  <c:v>1.1849134943557602E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7564,23 +7563,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7616,23 +7598,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7808,15 +7773,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8029,7 +7994,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8037,7 +8002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8047,12 +8012,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -8941,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8951,12 +8916,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -9845,7 +9810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9855,14 +9820,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -10785,7 +10750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10795,12 +10760,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -11689,7 +11654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11699,12 +11664,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -12593,7 +12558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12603,12 +12568,12 @@
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13497,7 +13462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13507,12 +13472,12 @@
       <selection activeCell="B1" sqref="B1:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13746,127 +13711,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH3" s="4"/>
@@ -14008,127 +13973,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH5" s="4"/>
@@ -14533,7 +14498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14543,12 +14508,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30">
+    <row r="1" spans="1:33">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -15362,18 +15327,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A8" sqref="A8:AH20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -15550,97 +15515,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.3118788640723155E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.3031928754038741E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.2960602061293765E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.2897495422723389E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.2827390653701544E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.2760003777643344E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.2704184487275684E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.2657106481093477E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.2590283562668826E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.2527588921106548E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.2453197785940827E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.2394708700212782E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.233617188619921E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -15658,97 +15623,97 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>9.2380125600871724E-5</v>
+        <v>1.1428113993556423E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>9.219309829263994E-5</v>
+        <v>1.1543951081357006E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>9.1559103172633992E-5</v>
+        <v>1.1615065927168361E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>9.1353641791139538E-5</v>
+        <v>1.1745763562914827E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>9.1309772714612039E-5</v>
+        <v>1.1892626226783556E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>9.1727283528872551E-5</v>
+        <v>1.2060861313415234E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>9.2100032073698612E-5</v>
+        <v>1.2229627966320515E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>9.2305136532437853E-5</v>
+        <v>1.2380516849984347E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>9.1620615504101768E-5</v>
+        <v>1.2403672688873158E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>9.1326863616208426E-5</v>
+        <v>1.2478325796188853E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>9.0946057693078308E-5</v>
+        <v>1.2531868128638651E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>9.0400981470945208E-5</v>
+        <v>1.2554866076555104E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>8.9778862849115799E-5</v>
+        <v>1.2553974368492176E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>8.9156599246297398E-5</v>
+        <v>1.2540736338252702E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>8.8631662360611819E-5</v>
+        <v>1.2528291522183882E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>8.7943084749779726E-5</v>
+        <v>1.2482945234922957E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>8.7573294998797346E-5</v>
+        <v>1.2473995072375635E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>8.7069226169957413E-5</v>
+        <v>1.2431563753209131E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>8.6871435981294458E-5</v>
+        <v>1.2431163762745826E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>8.6747571549133394E-5</v>
+        <v>1.2439527473110106E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>8.6669857452234005E-5</v>
+        <v>1.2452266267132223E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>8.662306841739351E-5</v>
+        <v>1.2467128318801655E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>8.6546781831867863E-5</v>
+        <v>1.2482706894740875E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>8.6512992189387129E-5</v>
+        <v>1.2497576465028037E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>8.6486778796134947E-5</v>
+        <v>1.2511225763657408E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>8.6441703335980475E-5</v>
+        <v>1.252179092529341E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>8.6431601732089286E-5</v>
+        <v>1.252201422824003E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>8.6243095042905357E-5</v>
+        <v>1.2511409969791825E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>8.6035767614588875E-5</v>
+        <v>1.2499254620505659E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>8.5821368562436881E-5</v>
+        <v>1.2484804589087901E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>8.559520997794513E-5</v>
+        <v>1.246658923391032E-4</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -15874,97 +15839,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>9.2034955727881304E-4</v>
+        <v>9.0229688337289059E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>9.3794857137722578E-4</v>
+        <v>9.194224215971678E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>9.3500204338529676E-4</v>
+        <v>9.2578647664525555E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>9.4450518097673522E-4</v>
+        <v>9.4070594049707682E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>9.6553094726227289E-4</v>
+        <v>9.6401936122632586E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>9.9202472083761615E-4</v>
+        <v>9.9193665486297495E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>1.0204549915404683E-3</v>
+        <v>1.0222592260576244E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>1.0517667621207619E-3</v>
+        <v>1.0561910788077697E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0714253139951938E-3</v>
+        <v>1.0765532532958707E-3</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0927335887791732E-3</v>
+        <v>1.1021456391937165E-3</v>
       </c>
       <c r="N11" s="4">
-        <v>1.1084724701472082E-3</v>
+        <v>1.1228840204130406E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>1.1212183953006243E-3</v>
+        <v>1.141209051478048E-3</v>
       </c>
       <c r="P11" s="4">
-        <v>1.1265509849157651E-3</v>
+        <v>1.1515245237078177E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.1262441806540653E-3</v>
+        <v>1.1538951365875237E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1263184748685799E-3</v>
+        <v>1.1562949532715463E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>1.1257669710917103E-3</v>
+        <v>1.1574993134129965E-3</v>
       </c>
       <c r="T11" s="4">
-        <v>1.1240566768554406E-3</v>
+        <v>1.1581073698589805E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>1.1231142484226817E-3</v>
+        <v>1.1594799486618827E-3</v>
       </c>
       <c r="V11" s="4">
-        <v>1.1241515401583754E-3</v>
+        <v>1.1619257079161116E-3</v>
       </c>
       <c r="W11" s="4">
-        <v>1.1224282188798294E-3</v>
+        <v>1.1622655879639156E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>1.119439944891256E-3</v>
+        <v>1.1617215187151955E-3</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.1180165169692845E-3</v>
+        <v>1.1625051541310368E-3</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.118177323275613E-3</v>
+        <v>1.1644962362692725E-3</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.1185238583405013E-3</v>
+        <v>1.1662990369699189E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.1197710010246366E-3</v>
+        <v>1.1688486715443814E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.1216340297167265E-3</v>
+        <v>1.1720159784516151E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.1220820780488356E-3</v>
+        <v>1.1739609993049926E-3</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.1245809182148494E-3</v>
+        <v>1.1777096518615791E-3</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.1271758246963568E-3</v>
+        <v>1.1816583386062719E-3</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.1260899004142818E-3</v>
+        <v>1.1829041301611636E-3</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.1259813441496596E-3</v>
+        <v>1.1849134943557602E-3</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -16945,14 +16910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17052,18 +17017,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -17213,7 +17178,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.142498616321935E-4</v>
+        <v>3.1424986163219176E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -17221,7 +17186,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17239,7 +17204,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="22" t="s">
         <v>72</v>
       </c>
@@ -17257,7 +17222,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="28.5">
       <c r="A22" s="22" t="s">
         <v>74</v>
       </c>
@@ -17341,19 +17306,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="13"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -17599,175 +17564,175 @@
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.207320075161445E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.272141534000967E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.336962992840489E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.401784451680011E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.466605910519533E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.531427369359055E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.596248828198577E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.661070287038099E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.725891745877621E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.790713204717143E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.855534663556665E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.920356122396187E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="AO2" s="15">
         <f>BNVFE!E8</f>
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="AP2" s="15">
         <f>BNVFE!F8</f>
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="AQ2" s="15">
         <f>BNVFE!G8</f>
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="AR2" s="15">
         <f>BNVFE!H8</f>
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="AS2" s="15">
         <f>BNVFE!I8</f>
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="AT2" s="15">
         <f>BNVFE!J8</f>
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="AU2" s="15">
         <f>BNVFE!K8</f>
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="AV2" s="15">
         <f>BNVFE!L8</f>
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="AW2" s="15">
         <f>BNVFE!M8</f>
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="AX2" s="15">
         <f>BNVFE!N8</f>
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="AY2" s="15">
         <f>BNVFE!O8</f>
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AZ2" s="15">
         <f>BNVFE!P8</f>
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="BA2" s="15">
         <f>BNVFE!Q8</f>
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="BB2" s="15">
         <f>BNVFE!R8</f>
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="BC2" s="15">
         <f>BNVFE!S8</f>
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="BD2" s="15">
         <f>BNVFE!T8</f>
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="BE2" s="15">
         <f>BNVFE!U8</f>
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="BF2" s="15">
         <f>BNVFE!V8</f>
-        <v>4.3118788640723155E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="BG2" s="15">
         <f>BNVFE!W8</f>
-        <v>4.3031928754038741E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="BH2" s="15">
         <f>BNVFE!X8</f>
-        <v>4.2960602061293765E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="BI2" s="15">
         <f>BNVFE!Y8</f>
-        <v>4.2897495422723389E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="BJ2" s="15">
         <f>BNVFE!Z8</f>
-        <v>4.2827390653701544E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="BK2" s="15">
         <f>BNVFE!AA8</f>
-        <v>4.2760003777643344E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="BL2" s="15">
         <f>BNVFE!AB8</f>
-        <v>4.2704184487275684E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="BM2" s="15">
         <f>BNVFE!AC8</f>
-        <v>4.2657106481093477E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="BN2" s="15">
         <f>BNVFE!AD8</f>
-        <v>4.2590283562668826E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="BO2" s="15">
         <f>BNVFE!AE8</f>
-        <v>4.2527588921106548E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="BP2" s="15">
         <f>BNVFE!AF8</f>
-        <v>4.2453197785940827E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="BQ2" s="15">
         <f>BNVFE!AG8</f>
-        <v>4.2394708700212782E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="BR2" s="15">
         <f>BNVFE!AH8</f>
-        <v>4.233617188619921E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="4"/>
@@ -17805,179 +17770,179 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="17" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
-        <v>9.6229391725409031E-5</v>
+        <v>9.9488487363379261E-5</v>
       </c>
       <c r="AB3" s="17" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
-        <v>9.5931375498007091E-5</v>
+        <v>1.0061932431139125E-4</v>
       </c>
       <c r="AC3" s="17" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
-        <v>9.5633359270605152E-5</v>
+        <v>1.0175016125940324E-4</v>
       </c>
       <c r="AD3" s="17" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
-        <v>9.5335343043203105E-5</v>
+        <v>1.0288099820741567E-4</v>
       </c>
       <c r="AE3" s="17" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
-        <v>9.5037326815801165E-5</v>
+        <v>1.0401183515542766E-4</v>
       </c>
       <c r="AF3" s="17" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
-        <v>9.4739310588399226E-5</v>
+        <v>1.0514267210343965E-4</v>
       </c>
       <c r="AG3" s="17" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
-        <v>9.4441294360997179E-5</v>
+        <v>1.0627350905145164E-4</v>
       </c>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
-        <v>9.4143278133595239E-5</v>
+        <v>1.0740434599946407E-4</v>
       </c>
       <c r="AI3" s="17" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
-        <v>9.38452619061933E-5</v>
+        <v>1.0853518294747606E-4</v>
       </c>
       <c r="AJ3" s="17" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
-        <v>9.3547245678791253E-5</v>
+        <v>1.0966601989548805E-4</v>
       </c>
       <c r="AK3" s="17" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
-        <v>9.3249229451389313E-5</v>
+        <v>1.1079685684350004E-4</v>
       </c>
       <c r="AL3" s="17" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
-        <v>9.2951213223987374E-5</v>
+        <v>1.1192769379151203E-4</v>
       </c>
       <c r="AM3" s="41" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
-        <v>9.2653196996585327E-5</v>
+        <v>1.1305853073952446E-4</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!D9</f>
-        <v>9.2380125600871724E-5</v>
+        <v>1.1428113993556423E-4</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!E9</f>
-        <v>9.219309829263994E-5</v>
+        <v>1.1543951081357006E-4</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!F9</f>
-        <v>9.1559103172633992E-5</v>
+        <v>1.1615065927168361E-4</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!G9</f>
-        <v>9.1353641791139538E-5</v>
+        <v>1.1745763562914827E-4</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!H9</f>
-        <v>9.1309772714612039E-5</v>
+        <v>1.1892626226783556E-4</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!I9</f>
-        <v>9.1727283528872551E-5</v>
+        <v>1.2060861313415234E-4</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!J9</f>
-        <v>9.2100032073698612E-5</v>
+        <v>1.2229627966320515E-4</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!K9</f>
-        <v>9.2305136532437853E-5</v>
+        <v>1.2380516849984347E-4</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!L9</f>
-        <v>9.1620615504101768E-5</v>
+        <v>1.2403672688873158E-4</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!M9</f>
-        <v>9.1326863616208426E-5</v>
+        <v>1.2478325796188853E-4</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!N9</f>
-        <v>9.0946057693078308E-5</v>
+        <v>1.2531868128638651E-4</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!O9</f>
-        <v>9.0400981470945208E-5</v>
+        <v>1.2554866076555104E-4</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!P9</f>
-        <v>8.9778862849115799E-5</v>
+        <v>1.2553974368492176E-4</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!Q9</f>
-        <v>8.9156599246297398E-5</v>
+        <v>1.2540736338252702E-4</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!R9</f>
-        <v>8.8631662360611819E-5</v>
+        <v>1.2528291522183882E-4</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!S9</f>
-        <v>8.7943084749779726E-5</v>
+        <v>1.2482945234922957E-4</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!T9</f>
-        <v>8.7573294998797346E-5</v>
+        <v>1.2473995072375635E-4</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!U9</f>
-        <v>8.7069226169957413E-5</v>
+        <v>1.2431563753209131E-4</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!V9</f>
-        <v>8.6871435981294458E-5</v>
+        <v>1.2431163762745826E-4</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!W9</f>
-        <v>8.6747571549133394E-5</v>
+        <v>1.2439527473110106E-4</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!X9</f>
-        <v>8.6669857452234005E-5</v>
+        <v>1.2452266267132223E-4</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Y9</f>
-        <v>8.662306841739351E-5</v>
+        <v>1.2467128318801655E-4</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!Z9</f>
-        <v>8.6546781831867863E-5</v>
+        <v>1.2482706894740875E-4</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AA9</f>
-        <v>8.6512992189387129E-5</v>
+        <v>1.2497576465028037E-4</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AB9</f>
-        <v>8.6486778796134947E-5</v>
+        <v>1.2511225763657408E-4</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AC9</f>
-        <v>8.6441703335980475E-5</v>
+        <v>1.252179092529341E-4</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AD9</f>
-        <v>8.6431601732089286E-5</v>
+        <v>1.252201422824003E-4</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AE9</f>
-        <v>8.6243095042905357E-5</v>
+        <v>1.2511409969791825E-4</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AF9</f>
-        <v>8.6035767614588875E-5</v>
+        <v>1.2499254620505659E-4</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AG9</f>
-        <v>8.5821368562436881E-5</v>
+        <v>1.2484804589087901E-4</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AH9</f>
-        <v>8.559520997794513E-5</v>
+        <v>1.246658923391032E-4</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -18000,115 +17965,115 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" ref="L4:AI4" si="1">M5/N5*N4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>7.8513065209783318E-4</v>
+        <v>7.9987322341375754E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>7.924714869854924E-4</v>
+        <v>8.0639502656164319E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>7.9981232187315162E-4</v>
+        <v>8.1291682970952885E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>8.0715315676081084E-4</v>
+        <v>8.1943863285741439E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>8.1449399164846995E-4</v>
+        <v>8.2596043600529994E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2183482653612906E-4</v>
+        <v>8.3248223915318559E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2917566142378827E-4</v>
+        <v>8.3900404230107125E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>8.3651649631144749E-4</v>
+        <v>8.455258454489569E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>8.4385733119910671E-4</v>
+        <v>8.5204764859684256E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>8.5119816608676593E-4</v>
+        <v>8.5856945174472821E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>8.5853900097442514E-4</v>
+        <v>8.6509125489261387E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>8.6587983586208436E-4</v>
+        <v>8.7161305804049952E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>8.7322067074974358E-4</v>
+        <v>8.7813486118838518E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>8.805615056374028E-4</v>
+        <v>8.8465666433627083E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>8.8790234052506202E-4</v>
+        <v>8.9117846748415638E-4</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>8.9524317541272123E-4</v>
+        <v>8.9770027063204203E-4</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.0258401030038045E-4</v>
+        <v>9.0422207377992758E-4</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
@@ -18258,7 +18223,7 @@
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="L5:T5" si="2">N5</f>
+        <f t="shared" ref="M5:T5" si="2">N5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="N5" s="17">
@@ -18299,195 +18264,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.8777028701720712E-4</v>
+        <v>7.8682014628531647E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.9513580203174081E-4</v>
+        <v>7.932355205679595E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0250131704627449E-4</v>
+        <v>7.9965089485060253E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0986683206080818E-4</v>
+        <v>8.0606626913324556E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>8.1723234707534187E-4</v>
+        <v>8.1248164341588859E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>8.2459786208987555E-4</v>
+        <v>8.1889701769853162E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3196337710440924E-4</v>
+        <v>8.2531239198117465E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3932889211894293E-4</v>
+        <v>8.3172776626381768E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>8.4669440713347661E-4</v>
+        <v>8.3814314054646072E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>8.540599221480103E-4</v>
+        <v>8.4455851482910375E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6142543716254398E-4</v>
+        <v>8.5097388911174678E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6879095217707767E-4</v>
+        <v>8.5738926339438981E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>8.7615646719161136E-4</v>
+        <v>8.6380463767703284E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>8.8352198220614504E-4</v>
+        <v>8.7022001195967587E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9088749722067873E-4</v>
+        <v>8.766353862423189E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9825301223521242E-4</v>
+        <v>8.8305076052496193E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>9.056185272497461E-4</v>
+        <v>8.8946613480760496E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
-        <v>9.2034955727881304E-4</v>
+        <v>9.0229688337289059E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!E11</f>
-        <v>9.3794857137722578E-4</v>
+        <v>9.194224215971678E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!F11</f>
-        <v>9.3500204338529676E-4</v>
+        <v>9.2578647664525555E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!G11</f>
-        <v>9.4450518097673522E-4</v>
+        <v>9.4070594049707682E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!H11</f>
-        <v>9.6553094726227289E-4</v>
+        <v>9.6401936122632586E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.9202472083761615E-4</v>
+        <v>9.9193665486297495E-4</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!J11</f>
-        <v>1.0204549915404683E-3</v>
+        <v>1.0222592260576244E-3</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!K11</f>
-        <v>1.0517667621207619E-3</v>
+        <v>1.0561910788077697E-3</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!L11</f>
-        <v>1.0714253139951938E-3</v>
+        <v>1.0765532532958707E-3</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!M11</f>
-        <v>1.0927335887791732E-3</v>
+        <v>1.1021456391937165E-3</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.1084724701472082E-3</v>
+        <v>1.1228840204130406E-3</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.1212183953006243E-3</v>
+        <v>1.141209051478048E-3</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.1265509849157651E-3</v>
+        <v>1.1515245237078177E-3</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.1262441806540653E-3</v>
+        <v>1.1538951365875237E-3</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.1263184748685799E-3</v>
+        <v>1.1562949532715463E-3</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.1257669710917103E-3</v>
+        <v>1.1574993134129965E-3</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.1240566768554406E-3</v>
+        <v>1.1581073698589805E-3</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.1231142484226817E-3</v>
+        <v>1.1594799486618827E-3</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.1241515401583754E-3</v>
+        <v>1.1619257079161116E-3</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.1224282188798294E-3</v>
+        <v>1.1622655879639156E-3</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.119439944891256E-3</v>
+        <v>1.1617215187151955E-3</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.1180165169692845E-3</v>
+        <v>1.1625051541310368E-3</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.118177323275613E-3</v>
+        <v>1.1644962362692725E-3</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.1185238583405013E-3</v>
+        <v>1.1662990369699189E-3</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.1197710010246366E-3</v>
+        <v>1.1688486715443814E-3</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.1216340297167265E-3</v>
+        <v>1.1720159784516151E-3</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.1220820780488356E-3</v>
+        <v>1.1739609993049926E-3</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.1245809182148494E-3</v>
+        <v>1.1777096518615791E-3</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.1271758246963568E-3</v>
+        <v>1.1816583386062719E-3</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.1260899004142818E-3</v>
+        <v>1.1829041301611636E-3</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.1259813441496596E-3</v>
+        <v>1.1849134943557602E-3</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -18760,7 +18725,7 @@
         <v>9.5187813128868486E-5</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7:AM7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
+        <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
         <v>9.5449046418027842E-5</v>
       </c>
       <c r="R7" s="29">
@@ -20792,7 +20757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20802,12 +20767,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -20915,123 +20880,123 @@
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>1.021278234459302E-3</v>
+        <v>1.0218969044164571E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0419187516160972E-3</v>
+        <v>1.0431560915304071E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0625592687728924E-3</v>
+        <v>1.0644152786443573E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0831997859296874E-3</v>
+        <v>1.0856744657583076E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1038403030864826E-3</v>
+        <v>1.1069336528722576E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1244808202432778E-3</v>
+        <v>1.1281928399862078E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>1.145121337400073E-3</v>
+        <v>1.1494520271001581E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1657618545568682E-3</v>
+        <v>1.1707112142141083E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1864023717136634E-3</v>
+        <v>1.1919704013280583E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2070428888704585E-3</v>
+        <v>1.2132295884420086E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2276834060272535E-3</v>
+        <v>1.2344887755559588E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2483239231840487E-3</v>
+        <v>1.2557479626699088E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2689644403408437E-3</v>
+        <v>1.2770071497838593E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3133352179220551E-3</v>
+        <v>1.3228463888868588E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3372544167096446E-3</v>
+        <v>1.3477033880996271E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3528857110380057E-3</v>
+        <v>1.3641874308212647E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3641478637494424E-3</v>
+        <v>1.3763395695826361E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3765175140598731E-3</v>
+        <v>1.3902877806644294E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3871187530304623E-3</v>
+        <v>1.4034037815508047E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3870679611187129E-3</v>
+        <v>1.4052059189772993E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3859563735337359E-3</v>
+        <v>1.4054892148254085E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>1.384950813345552E-3</v>
+        <v>1.4056334172983E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3869263500902421E-3</v>
+        <v>1.4090857256048612E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3858501808577874E-3</v>
+        <v>1.4092711322433774E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3846569267694194E-3</v>
+        <v>1.409415782559283E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>1.383361453614029E-3</v>
+        <v>1.4094438438441177E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3827827809043229E-3</v>
+        <v>1.4102575197990628E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3798633121833498E-3</v>
+        <v>1.408541420447793E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3768619577137406E-3</v>
+        <v>1.4068059268536497E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3746417310544475E-3</v>
+        <v>1.4058828277054775E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -21041,128 +21006,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -21177,123 +21142,123 @@
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.207320075161445E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.272141534000967E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.336962992840489E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.401784451680011E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.466605910519533E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.531427369359055E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.596248828198577E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.661070287038099E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.725891745877621E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.790713204717143E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.855534663556665E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.920356122396187E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P4" s="29">
         <f>Extrapolations!AO2</f>
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q4" s="29">
         <f>Extrapolations!AP2</f>
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R4" s="29">
         <f>Extrapolations!AQ2</f>
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S4" s="29">
         <f>Extrapolations!AR2</f>
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T4" s="29">
         <f>Extrapolations!AS2</f>
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U4" s="29">
         <f>Extrapolations!AT2</f>
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V4" s="29">
         <f>Extrapolations!AU2</f>
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W4" s="29">
         <f>Extrapolations!AV2</f>
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X4" s="29">
         <f>Extrapolations!AW2</f>
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y4" s="29">
         <f>Extrapolations!AX2</f>
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z4" s="29">
         <f>Extrapolations!AY2</f>
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA4" s="29">
         <f>Extrapolations!AZ2</f>
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB4" s="29">
         <f>Extrapolations!BA2</f>
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC4" s="29">
         <f>Extrapolations!BB2</f>
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD4" s="29">
         <f>Extrapolations!BC2</f>
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE4" s="29">
         <f>Extrapolations!BD2</f>
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF4" s="29">
         <f>Extrapolations!BE2</f>
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -21303,128 +21268,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -21439,123 +21404,123 @@
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>7.0603243233488121E-4</v>
+        <v>7.0646013268129456E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>7.2030168241889701E-4</v>
+        <v>7.2115708311172361E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>7.3457093250291292E-4</v>
+        <v>7.3585403354215287E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>7.4884018258692862E-4</v>
+        <v>7.5055098397258223E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>7.6310943267094452E-4</v>
+        <v>7.6524793440301128E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>7.7737868275496033E-4</v>
+        <v>7.7994488483344054E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>7.9164793283897613E-4</v>
+        <v>7.9464183526386969E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>8.0591718292299204E-4</v>
+        <v>8.0933878569429895E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>8.2018643300700784E-4</v>
+        <v>8.2403573612472799E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>8.3445568309102364E-4</v>
+        <v>8.3873268655515725E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4872493317503933E-4</v>
+        <v>8.5342963698558651E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>8.6299418325905524E-4</v>
+        <v>8.6812658741601556E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>8.7726343334307093E-4</v>
+        <v>8.8282353784644493E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>9.0793794197669352E-4</v>
+        <v>9.1451322669740286E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>9.2447381783274205E-4</v>
+        <v>9.3169742491350271E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>9.352800803994147E-4</v>
+        <v>9.4309321147271737E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>9.43065857873065E-4</v>
+        <v>9.5149425616188033E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5161727314965619E-4</v>
+        <v>9.6113696572379783E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5894614620659654E-4</v>
+        <v>9.7020434980764315E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5891103262463098E-4</v>
+        <v>9.7145020762356288E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5814256732311583E-4</v>
+        <v>9.7164605636483831E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5744740112690442E-4</v>
+        <v>9.717457467520893E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5881313376073348E-4</v>
+        <v>9.7413240451939373E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5806915395664396E-4</v>
+        <v>9.7426058026577294E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5724423077902425E-4</v>
+        <v>9.7436058025689284E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5634864127945064E-4</v>
+        <v>9.7437997964925998E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5594859192269931E-4</v>
+        <v>9.7494249199331904E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5393029805072079E-4</v>
+        <v>9.7375611421866035E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5185539473350753E-4</v>
+        <v>9.7255632877113886E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5032050250169037E-4</v>
+        <v>9.719181697319273E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -21570,123 +21535,123 @@
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>2.4856730582501201E-4</v>
+        <v>2.4871788293441874E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>2.5359096888507497E-4</v>
+        <v>2.5389212310388844E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>2.5861463194513793E-4</v>
+        <v>2.5906636327335813E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>2.6363829500520084E-4</v>
+        <v>2.6424060344282783E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>2.686619580652638E-4</v>
+        <v>2.6941484361229752E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>2.7368562112532676E-4</v>
+        <v>2.7458908378176716E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>2.7870928418538972E-4</v>
+        <v>2.7976332395123686E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>2.8373294724545268E-4</v>
+        <v>2.8493756412070655E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>2.8875661030551564E-4</v>
+        <v>2.9011180429017625E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>2.937802733655786E-4</v>
+        <v>2.9528604445964594E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>2.9880393642564156E-4</v>
+        <v>3.0046028462911564E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>3.0382759948570452E-4</v>
+        <v>3.0563452479858533E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>3.0885126254576737E-4</v>
+        <v>3.1080876496805508E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>3.1965059642813663E-4</v>
+        <v>3.2196550539436369E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>3.2547225266197559E-4</v>
+        <v>3.2801541140110765E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>3.2927672884354773E-4</v>
+        <v>3.3202743667509304E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>3.3201780650761231E-4</v>
+        <v>3.3498512664635247E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>3.3502843627325013E-4</v>
+        <v>3.3837995983940043E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>3.3760865517972827E-4</v>
+        <v>3.4157224269976204E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>3.3759629301608352E-4</v>
+        <v>3.4201086209819401E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>3.3732574545924406E-4</v>
+        <v>3.4207981302982062E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>3.3708100374402075E-4</v>
+        <v>3.4211491024326398E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>3.3756182653022843E-4</v>
+        <v>3.4295516214101794E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>3.3729989939059379E-4</v>
+        <v>3.4300028797163199E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>3.3700947515173072E-4</v>
+        <v>3.4303549418488344E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>3.3669417197465426E-4</v>
+        <v>3.4304232397693615E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>3.3655332973249854E-4</v>
+        <v>3.4324036328993722E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>3.3584276482479056E-4</v>
+        <v>3.428226845635332E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>3.3511226987330305E-4</v>
+        <v>3.424002855028099E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>3.3457189239300404E-4</v>
+        <v>3.4217561385063076E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -21701,123 +21666,123 @@
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>9.621960225484334E-4</v>
+        <v>9.6277890168162072E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>9.8164246020029E-4</v>
+        <v>9.8280821846666463E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>1.0010888978521466E-3</v>
+        <v>1.0028375352517088E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>1.0205353355040032E-3</v>
+        <v>1.0228668520367527E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>1.0399817731558598E-3</v>
+        <v>1.0428961688217966E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>1.0594282108077164E-3</v>
+        <v>1.0629254856068405E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>1.078874648459573E-3</v>
+        <v>1.0829548023918846E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>1.0983210861114296E-3</v>
+        <v>1.1029841191769285E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>1.1177675237632862E-3</v>
+        <v>1.1230134359619724E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>1.1372139614151428E-3</v>
+        <v>1.1430427527470163E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>1.1566603990669994E-3</v>
+        <v>1.1630720695320603E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>1.176106836718856E-3</v>
+        <v>1.1831013863171044E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>1.1955532743707122E-3</v>
+        <v>1.2031307031021485E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>1.2373571474637544E-3</v>
+        <v>1.2463180853975366E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>1.2598925909495828E-3</v>
+        <v>1.2697370763913843E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>1.2746195955234104E-3</v>
+        <v>1.2852674968068115E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>1.285230218739144E-3</v>
+        <v>1.2967166192762029E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>1.2968842694448392E-3</v>
+        <v>1.3098579090557434E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>1.3068722135989479E-3</v>
+        <v>1.3222151330313367E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>1.3068243600622585E-3</v>
+        <v>1.3239130145736538E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>1.3057770791970735E-3</v>
+        <v>1.324179921405757E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>1.3048296919123382E-3</v>
+        <v>1.324315781586828E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>1.3066909414073357E-3</v>
+        <v>1.3275683695781338E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>1.3056770298990725E-3</v>
+        <v>1.3277430502127688E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>1.3045528070389572E-3</v>
+        <v>1.3278793323285808E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>1.3033322786115645E-3</v>
+        <v>1.3279057702333011E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>1.302787082835478E-3</v>
+        <v>1.3286723740255633E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>1.3000365089991892E-3</v>
+        <v>1.3270555531491605E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>1.2972087866063343E-3</v>
+        <v>1.3254204600108767E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>1.2951170028116282E-3</v>
+        <v>1.3245507632927641E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -21828,7 +21793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21838,12 +21803,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -21947,127 +21912,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0641464207301289E-4</v>
+        <v>3.167922887097076E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0546569566470671E-4</v>
+        <v>3.2039311162311416E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0451674925640053E-4</v>
+        <v>3.2399393453652077E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0356780284809402E-4</v>
+        <v>3.275947574499288E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0261885643978784E-4</v>
+        <v>3.3119558036333535E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0166991003148166E-4</v>
+        <v>3.3479640327674197E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0072096362317516E-4</v>
+        <v>3.3839722619014858E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9977201721486898E-4</v>
+        <v>3.4199804910355655E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.988230708065628E-4</v>
+        <v>3.4559887201696316E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9787412439825629E-4</v>
+        <v>3.4919969493036977E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9692517798995011E-4</v>
+        <v>3.5280051784377639E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9597623158164393E-4</v>
+        <v>3.56401340757183E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9502728517333742E-4</v>
+        <v>3.6000216367059097E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9415776836067041E-4</v>
+        <v>3.6389520874219132E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9356223403709025E-4</v>
+        <v>3.6758370548531513E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.915434601023345E-4</v>
+        <v>3.698481518914135E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9088922780862847E-4</v>
+        <v>3.7400983976649838E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9074953943336986E-4</v>
+        <v>3.786862561686342E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9207898176298886E-4</v>
+        <v>3.8404321550611662E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9326589160309292E-4</v>
+        <v>3.8941710103283734E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9391898737960467E-4</v>
+        <v>3.9422172074950152E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>2.917393283156924E-4</v>
+        <v>3.9495905140885575E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>2.908039604621373E-4</v>
+        <v>3.9733616351022395E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8959139423322296E-4</v>
+        <v>3.9904106409612537E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>2.878557567890623E-4</v>
+        <v>3.997733671745177E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8587480012481605E-4</v>
+        <v>3.9974497331251392E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>2.838933818105785E-4</v>
+        <v>3.9932344656015174E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8222187225352704E-4</v>
+        <v>3.9892717741690775E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8002929617693015E-4</v>
+        <v>3.9748325616465201E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7885180775932833E-4</v>
+        <v>3.9719826414669776E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7724674648854853E-4</v>
+        <v>3.9584716161534329E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -22077,128 +22042,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
+        <v>9.9488487363379261E-5</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0061932431139125E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0175016125940324E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0288099820741567E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0401183515542766E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0514267210343965E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0627350905145164E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0740434599946407E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0853518294747606E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.0966601989548805E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1079685684350004E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1192769379151203E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1305853073952446E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1428113993556423E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1543951081357006E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1615065927168361E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1745763562914827E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1892626226783556E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2060861313415234E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2229627966320515E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2380516849984347E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2403672688873158E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2478325796188853E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2531868128638651E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2554866076555104E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2553974368492176E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2540736338252702E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2528291522183882E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2482945234922957E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2473995072375635E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.2431563753209131E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -22209,127 +22174,127 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>9.6229391725409031E-5</v>
+        <v>9.9488487363379261E-5</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>9.5931375498007091E-5</v>
+        <v>1.0061932431139125E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>9.5633359270605152E-5</v>
+        <v>1.0175016125940324E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>9.5335343043203105E-5</v>
+        <v>1.0288099820741567E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>9.5037326815801165E-5</v>
+        <v>1.0401183515542766E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>9.4739310588399226E-5</v>
+        <v>1.0514267210343965E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>9.4441294360997179E-5</v>
+        <v>1.0627350905145164E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>9.4143278133595239E-5</v>
+        <v>1.0740434599946407E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>9.38452619061933E-5</v>
+        <v>1.0853518294747606E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>9.3547245678791253E-5</v>
+        <v>1.0966601989548805E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AK3</f>
-        <v>9.3249229451389313E-5</v>
+        <v>1.1079685684350004E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AL3</f>
-        <v>9.2951213223987374E-5</v>
+        <v>1.1192769379151203E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AM3</f>
-        <v>9.2653196996585327E-5</v>
+        <v>1.1305853073952446E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AN3</f>
-        <v>9.2380125600871724E-5</v>
+        <v>1.1428113993556423E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AO3</f>
-        <v>9.219309829263994E-5</v>
+        <v>1.1543951081357006E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AP3</f>
-        <v>9.1559103172633992E-5</v>
+        <v>1.1615065927168361E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AQ3</f>
-        <v>9.1353641791139538E-5</v>
+        <v>1.1745763562914827E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AR3</f>
-        <v>9.1309772714612039E-5</v>
+        <v>1.1892626226783556E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AS3</f>
-        <v>9.1727283528872551E-5</v>
+        <v>1.2060861313415234E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AT3</f>
-        <v>9.2100032073698612E-5</v>
+        <v>1.2229627966320515E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AU3</f>
-        <v>9.2305136532437853E-5</v>
+        <v>1.2380516849984347E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AV3</f>
-        <v>9.1620615504101768E-5</v>
+        <v>1.2403672688873158E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AW3</f>
-        <v>9.1326863616208426E-5</v>
+        <v>1.2478325796188853E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AX3</f>
-        <v>9.0946057693078308E-5</v>
+        <v>1.2531868128638651E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AY3</f>
-        <v>9.0400981470945208E-5</v>
+        <v>1.2554866076555104E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AZ3</f>
-        <v>8.9778862849115799E-5</v>
+        <v>1.2553974368492176E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BA3</f>
-        <v>8.9156599246297398E-5</v>
+        <v>1.2540736338252702E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BB3</f>
-        <v>8.8631662360611819E-5</v>
+        <v>1.2528291522183882E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BC3</f>
-        <v>8.7943084749779726E-5</v>
+        <v>1.2482945234922957E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BD3</f>
-        <v>8.7573294998797346E-5</v>
+        <v>1.2473995072375635E-4</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BE3</f>
-        <v>8.7069226169957413E-5</v>
+        <v>1.2431563753209131E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -22339,128 +22304,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
+        <v>9.9488487363379261E-5</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0061932431139125E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0175016125940324E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0288099820741567E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0401183515542766E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0514267210343965E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0627350905145164E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0740434599946407E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0853518294747606E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.0966601989548805E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1079685684350004E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1192769379151203E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1305853073952446E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1428113993556423E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1543951081357006E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1615065927168361E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1745763562914827E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.1892626226783556E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2060861313415234E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2229627966320515E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2380516849984347E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2403672688873158E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2478325796188853E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2531868128638651E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2554866076555104E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2553974368492176E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2540736338252702E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2528291522183882E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2482945234922957E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2473995072375635E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.2431563753209131E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -22471,127 +22436,127 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1183127941659115E-4</v>
+        <v>2.1900557810385985E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1117525158969189E-4</v>
+        <v>2.2149490733283886E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1051922376279263E-4</v>
+        <v>2.2398423656181789E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0986319593589313E-4</v>
+        <v>2.2647356579079791E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0920716810899384E-4</v>
+        <v>2.2896289501977691E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0855114028209458E-4</v>
+        <v>2.3145222424875595E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.078951124551951E-4</v>
+        <v>2.3394155347773499E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0723908462829581E-4</v>
+        <v>2.3643088270671494E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0658305680139655E-4</v>
+        <v>2.3892021193569398E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0592702897449702E-4</v>
+        <v>2.4140954116467302E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0527100114759776E-4</v>
+        <v>2.4389887039365205E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.046149733206985E-4</v>
+        <v>2.4638819962263109E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0395894549379899E-4</v>
+        <v>2.4887752885161105E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0335782911876102E-4</v>
+        <v>2.5156887777920916E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0294612295208763E-4</v>
+        <v>2.5411881788302987E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0155049948396926E-4</v>
+        <v>2.5568428021253509E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0109821410075848E-4</v>
+        <v>2.5856134790469088E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0100164440992884E-4</v>
+        <v>2.6179425891327481E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0192071755763654E-4</v>
+        <v>2.6549764443873269E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0274125481486549E-4</v>
+        <v>2.6921273141650284E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0319275449837962E-4</v>
+        <v>2.725342722371554E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0168590755047661E-4</v>
+        <v>2.730440053747999E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0103926688146931E-4</v>
+        <v>2.7468735601347301E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0020099279015788E-4</v>
+        <v>2.758659918317429E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9900110789590963E-4</v>
+        <v>2.7637224929048272E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9763162835075097E-4</v>
+        <v>2.7635261998009748E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9626182965665201E-4</v>
+        <v>2.7606120913022065E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9510627780171521E-4</v>
+        <v>2.7578725942912678E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9359050103471247E-4</v>
+        <v>2.7478904444771195E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>1.927764770170894E-4</v>
+        <v>2.7459202310637412E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9166686234518252E-4</v>
+        <v>2.736579757778799E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -22602,127 +22567,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>7.4577778587192007E-5</v>
+        <v>7.7103577706618936E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>7.4346816010955499E-5</v>
+        <v>7.7979976341328226E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>7.411585343471899E-5</v>
+        <v>7.8856374976037517E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>7.3884890858482414E-5</v>
+        <v>7.9732773610747146E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>7.3653928282245906E-5</v>
+        <v>8.0609172245456437E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>7.3422965706009398E-5</v>
+        <v>8.1485570880165728E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>7.3192003129772822E-5</v>
+        <v>8.2361969514875032E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>7.2961040553536313E-5</v>
+        <v>8.3238368149584661E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>7.2730077977299805E-5</v>
+        <v>8.4114766784293952E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>7.2499115401063229E-5</v>
+        <v>8.4991165419003243E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>7.2268152824826721E-5</v>
+        <v>8.5867564053712534E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>7.2037190248590212E-5</v>
+        <v>8.6743962688421824E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>7.1806227672353636E-5</v>
+        <v>8.7620361323131454E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>7.1594597340675587E-5</v>
+        <v>8.8567883450062286E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>7.1449651176795956E-5</v>
+        <v>8.9465620880516797E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>7.0958304958791341E-5</v>
+        <v>9.0016760935554801E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>7.0799072388133137E-5</v>
+        <v>9.1029667612589911E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>7.0765073853824333E-5</v>
+        <v>9.2167853257572562E-5</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>7.1088644734876226E-5</v>
+        <v>9.3471675178968073E-5</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>7.1377524857116432E-5</v>
+        <v>9.4779616738983988E-5</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>7.1536480812639338E-5</v>
+        <v>9.594900558737869E-5</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>7.1005977015678866E-5</v>
+        <v>9.6128463338766983E-5</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>7.0778319302561529E-5</v>
+        <v>9.6707024920463609E-5</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>7.0483194712135693E-5</v>
+        <v>9.7121977996949546E-5</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>7.0060760639982536E-5</v>
+        <v>9.7300212093302062E-5</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9578618708064752E-5</v>
+        <v>9.7293301355814358E-5</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9096364415880491E-5</v>
+        <v>9.7190706621458445E-5</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.8689538329474157E-5</v>
+        <v>9.7094259296925093E-5</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>6.8155890681079293E-5</v>
+        <v>9.6742825570652927E-5</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>6.7869303624067942E-5</v>
+        <v>9.6673461810911182E-5</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>6.747865028171699E-5</v>
+        <v>9.6344619087370762E-5</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -22733,127 +22698,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.8868817517622704E-4</v>
+        <v>2.9846546209013773E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.8779412649402122E-4</v>
+        <v>3.018579729341737E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.869000778118154E-4</v>
+        <v>3.0525048377820968E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.8600602912960926E-4</v>
+        <v>3.0864299462224695E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.8511198044740344E-4</v>
+        <v>3.1203550546628293E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.8421793176519762E-4</v>
+        <v>3.154280163103189E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.8332388308299148E-4</v>
+        <v>3.1882052715435488E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.8242983440078566E-4</v>
+        <v>3.2221303799839215E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.8153578571857985E-4</v>
+        <v>3.2560554884242813E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.806417370363737E-4</v>
+        <v>3.289980596864641E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.7974768835416789E-4</v>
+        <v>3.3239057053050008E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.7885363967196207E-4</v>
+        <v>3.3578308137453605E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.7795959098975593E-4</v>
+        <v>3.3917559221857333E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.7714037680261514E-4</v>
+        <v>3.4284341980669267E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.7657929487791977E-4</v>
+        <v>3.4631853244071015E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.7467730951790195E-4</v>
+        <v>3.4845197781505077E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.7406092537341859E-4</v>
+        <v>3.5237290688744475E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.739293181438361E-4</v>
+        <v>3.5677878680350666E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.7518185058661763E-4</v>
+        <v>3.6182583940245697E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.7630009622109581E-4</v>
+        <v>3.6688883898961536E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.7691540959731351E-4</v>
+        <v>3.7141550549953036E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.7486184651230524E-4</v>
+        <v>3.7211018066619466E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.7398059084862524E-4</v>
+        <v>3.7434977388566551E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.7283817307923488E-4</v>
+        <v>3.7595604385915946E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.712029444128356E-4</v>
+        <v>3.7664598229665303E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6933658854734737E-4</v>
+        <v>3.7661923105476519E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6746979773889214E-4</v>
+        <v>3.7622209014758097E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.658949870818354E-4</v>
+        <v>3.7584874566551639E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.6382925424933912E-4</v>
+        <v>3.7448835704768864E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.62719884996392E-4</v>
+        <v>3.7421985217126901E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.6120767850987221E-4</v>
+        <v>3.7294691259627386E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -22864,7 +22829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22874,12 +22839,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -22983,115 +22948,115 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>2.5494146699686798E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5229974399358832E-3</v>
+        <v>2.5703723189942473E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5465870266869152E-3</v>
+        <v>2.5913299680198148E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5701766134379475E-3</v>
+        <v>2.6122876170453823E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5937662001889795E-3</v>
+        <v>2.6332452660709493E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.617355786940011E-3</v>
+        <v>2.6542029150965164E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.640945373691043E-3</v>
+        <v>2.6751605641220839E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6645349604420749E-3</v>
+        <v>2.6961182131476514E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6881245471931069E-3</v>
+        <v>2.7170758621732189E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7117141339441393E-3</v>
+        <v>2.738033511198786E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7353037206951712E-3</v>
+        <v>2.7589911602243535E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7588933074462032E-3</v>
+        <v>2.7799488092499209E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7824828941972355E-3</v>
+        <v>2.8009064582754884E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8060724809482675E-3</v>
+        <v>2.8218641073010559E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8296620676992994E-3</v>
+        <v>2.8428217563266234E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8532516544503318E-3</v>
+        <v>2.8637794053521905E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8768412412013638E-3</v>
+        <v>2.884737054377758E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9004308279523957E-3</v>
+        <v>2.9056947034033251E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
@@ -23113,127 +23078,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9987322341375754E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0639502656164319E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1291682970952885E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1943863285741439E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2596043600529994E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3248223915318559E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3900404230107125E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.455258454489569E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.5204764859684256E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>8.5856945174472821E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.6509125489261387E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7161305804049952E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7813486118838518E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8465666433627083E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9117846748415638E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9770027063204203E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.0422207377992758E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
+        <f t="shared" si="2"/>
         <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
+        <f t="shared" si="2"/>
         <v>9.171943323501193E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
+        <f t="shared" si="2"/>
         <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH3" s="4"/>
@@ -23244,127 +23209,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9987322341375754E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0639502656164319E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1291682970952885E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1943863285741439E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2596043600529994E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3248223915318559E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3900404230107125E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.455258454489569E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.5204764859684256E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5856945174472821E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.6509125489261387E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7161305804049952E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7813486118838518E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8465666433627083E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9117846748415638E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9770027063204203E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.0422207377992758E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
+        <f t="shared" si="2"/>
         <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
+        <f t="shared" si="2"/>
         <v>9.171943323501193E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
+        <f t="shared" si="2"/>
         <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH4" s="4"/>
@@ -23376,115 +23341,115 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!L4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!M4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!N4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!O4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!P4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!Q4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!R4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!S4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!T4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!U4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!V4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>7.9335142026587188E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!W4</f>
-        <v>7.8513065209783318E-4</v>
+        <v>7.9987322341375754E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!X4</f>
-        <v>7.924714869854924E-4</v>
+        <v>8.0639502656164319E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!Y4</f>
-        <v>7.9981232187315162E-4</v>
+        <v>8.1291682970952885E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Z4</f>
-        <v>8.0715315676081084E-4</v>
+        <v>8.1943863285741439E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AA4</f>
-        <v>8.1449399164846995E-4</v>
+        <v>8.2596043600529994E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AB4</f>
-        <v>8.2183482653612906E-4</v>
+        <v>8.3248223915318559E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AC4</f>
-        <v>8.2917566142378827E-4</v>
+        <v>8.3900404230107125E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AD4</f>
-        <v>8.3651649631144749E-4</v>
+        <v>8.455258454489569E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AE4</f>
-        <v>8.4385733119910671E-4</v>
+        <v>8.5204764859684256E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AF4</f>
-        <v>8.5119816608676593E-4</v>
+        <v>8.5856945174472821E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AG4</f>
-        <v>8.5853900097442514E-4</v>
+        <v>8.6509125489261387E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AH4</f>
-        <v>8.6587983586208436E-4</v>
+        <v>8.7161305804049952E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AI4</f>
-        <v>8.7322067074974358E-4</v>
+        <v>8.7813486118838518E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AJ4</f>
-        <v>8.805615056374028E-4</v>
+        <v>8.8465666433627083E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AK4</f>
-        <v>8.8790234052506202E-4</v>
+        <v>8.9117846748415638E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AL4</f>
-        <v>8.9524317541272123E-4</v>
+        <v>8.9770027063204203E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AM4</f>
-        <v>9.0258401030038045E-4</v>
+        <v>9.0422207377992758E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AN4</f>
@@ -23507,115 +23472,115 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>1.7591862076024162E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7409573854087609E-3</v>
+        <v>1.7736477259830269E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.757235033821275E-3</v>
+        <v>1.7881092443636376E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7735126822337895E-3</v>
+        <v>1.8025707627442483E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7897903306463036E-3</v>
+        <v>1.8170322811248587E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8060679790588177E-3</v>
+        <v>1.8314937995054692E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8223456274713318E-3</v>
+        <v>1.8459553178860797E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8386232758838459E-3</v>
+        <v>1.8604168362666904E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8549009242963604E-3</v>
+        <v>1.8748783546473011E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8711785727088747E-3</v>
+        <v>1.8893398730279115E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8874562211213888E-3</v>
+        <v>1.9038013914085222E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9037338695339031E-3</v>
+        <v>1.9182629097891329E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9200115179464176E-3</v>
+        <v>1.9327244281697436E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9362891663589317E-3</v>
+        <v>1.9471859465503543E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.952566814771446E-3</v>
+        <v>1.9616474649309648E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9688444631839603E-3</v>
+        <v>1.9761089833115753E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9851221115964749E-3</v>
+        <v>1.9905705016921857E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.001399760008989E-3</v>
+        <v>2.0050320200727962E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
@@ -23638,115 +23603,115 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>6.1484735070605075E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.0847625537582069E-4</v>
+        <v>6.1990174814566213E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1416540241375668E-4</v>
+        <v>6.2495614558527352E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1985454945169256E-4</v>
+        <v>6.300105430248849E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2554369648962845E-4</v>
+        <v>6.3506494046449617E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3123284352756422E-4</v>
+        <v>6.4011933790410745E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.369219905655E-4</v>
+        <v>6.4517373534371883E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4261113760343588E-4</v>
+        <v>6.5022813278333021E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.4830028464137187E-4</v>
+        <v>6.5528253022294159E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.5398943167930775E-4</v>
+        <v>6.6033692766255298E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.5967857871724364E-4</v>
+        <v>6.6539132510216436E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6536772575517952E-4</v>
+        <v>6.7044572254177574E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.710568727931154E-4</v>
+        <v>6.7550011998138712E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7674601983105129E-4</v>
+        <v>6.8055451742099851E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8243516686898717E-4</v>
+        <v>6.8560891486060989E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8812431390692305E-4</v>
+        <v>6.9066331230022116E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9381346094485893E-4</v>
+        <v>6.9571770973983255E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.9950260798279482E-4</v>
+        <v>7.0077210717944393E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
@@ -23769,115 +23734,115 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.3800542607976152E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.3553919562934993E-3</v>
+        <v>2.3996196702412722E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.377414460956477E-3</v>
+        <v>2.4191850796849291E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3994369656194546E-3</v>
+        <v>2.4387504891285861E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4214594702824323E-3</v>
+        <v>2.4583158985722426E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4434819749454095E-3</v>
+        <v>2.4778813080158996E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4655044796083867E-3</v>
+        <v>2.4974467174595566E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4875269842713644E-3</v>
+        <v>2.5170121269032135E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.509549488934342E-3</v>
+        <v>2.5365775363468705E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5315719935973197E-3</v>
+        <v>2.5561429457905275E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5535944982602973E-3</v>
+        <v>2.5757083552341844E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.575617002923275E-3</v>
+        <v>2.5952737646778414E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.5976395075862527E-3</v>
+        <v>2.6148391741214983E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6196620122492303E-3</v>
+        <v>2.6344045835651553E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.641684516912208E-3</v>
+        <v>2.6539699930088123E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6637070215751856E-3</v>
+        <v>2.6735354024524688E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6857295262381633E-3</v>
+        <v>2.6931008118961258E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.7077520309011409E-3</v>
+        <v>2.7126662213397823E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
@@ -23900,7 +23865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23908,12 +23873,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -24061,83 +24026,83 @@
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5314798398092687E-3</v>
+        <v>2.5284265866625045E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5551487355221342E-3</v>
+        <v>2.5490422292286053E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5788176312350002E-3</v>
+        <v>2.5696578717947067E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6024865269478658E-3</v>
+        <v>2.590273514360808E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6261554226607313E-3</v>
+        <v>2.6108891569269093E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6498243183735969E-3</v>
+        <v>2.6315047994930102E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6734932140864624E-3</v>
+        <v>2.6521204420591115E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6971621097993284E-3</v>
+        <v>2.6727360846252129E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7208310055121939E-3</v>
+        <v>2.6933517271913138E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7444999012250595E-3</v>
+        <v>2.7139673697574151E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.768168796937925E-3</v>
+        <v>2.7345830123235164E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7918376926507906E-3</v>
+        <v>2.7551986548896173E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8155065883636566E-3</v>
+        <v>2.7758142974557186E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8391754840765221E-3</v>
+        <v>2.7964299400218199E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8628443797893877E-3</v>
+        <v>2.8170455825879208E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8865132755022532E-3</v>
+        <v>2.8376612251540222E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9101821712151188E-3</v>
+        <v>2.8582768677201235E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9575199626408486E-3</v>
+        <v>2.8995081528523244E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0140739481425614E-3</v>
+        <v>2.9545406356396497E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0046053551631979E-3</v>
+        <v>2.9749913651469415E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24147,128 +24112,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8682014628531647E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.932355205679595E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9965089485060253E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0606626913324556E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1248164341588859E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1889701769853162E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2531239198117465E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3172776626381768E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3814314054646072E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>8.4455851482910375E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5097388911174678E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5738926339438981E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.6380463767703284E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7022001195967587E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.766353862423189E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8305076052496193E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8946613480760496E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.0229688337289059E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.194224215971678E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2578647664525555E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24278,128 +24243,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
+        <f t="shared" si="1"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.8682014628531647E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.932355205679595E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.9965089485060253E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.0606626913324556E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1248164341588859E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.1889701769853162E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.2531239198117465E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3172776626381768E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3814314054646072E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.4455851482910375E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5097388911174678E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5738926339438981E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.6380463767703284E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7022001195967587E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.766353862423189E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8305076052496193E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8946613480760496E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.0229688337289059E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.194224215971678E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2578647664525555E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24454,83 +24419,83 @@
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!W5</f>
-        <v>7.8777028701720712E-4</v>
+        <v>7.8682014628531647E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!X5</f>
-        <v>7.9513580203174081E-4</v>
+        <v>7.932355205679595E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!Y5</f>
-        <v>8.0250131704627449E-4</v>
+        <v>7.9965089485060253E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Z5</f>
-        <v>8.0986683206080818E-4</v>
+        <v>8.0606626913324556E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AA5</f>
-        <v>8.1723234707534187E-4</v>
+        <v>8.1248164341588859E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AB5</f>
-        <v>8.2459786208987555E-4</v>
+        <v>8.1889701769853162E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AC5</f>
-        <v>8.3196337710440924E-4</v>
+        <v>8.2531239198117465E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AD5</f>
-        <v>8.3932889211894293E-4</v>
+        <v>8.3172776626381768E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AE5</f>
-        <v>8.4669440713347661E-4</v>
+        <v>8.3814314054646072E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AF5</f>
-        <v>8.540599221480103E-4</v>
+        <v>8.4455851482910375E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AG5</f>
-        <v>8.6142543716254398E-4</v>
+        <v>8.5097388911174678E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AH5</f>
-        <v>8.6879095217707767E-4</v>
+        <v>8.5738926339438981E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AI5</f>
-        <v>8.7615646719161136E-4</v>
+        <v>8.6380463767703284E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AJ5</f>
-        <v>8.8352198220614504E-4</v>
+        <v>8.7022001195967587E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AK5</f>
-        <v>8.9088749722067873E-4</v>
+        <v>8.766353862423189E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AL5</f>
-        <v>8.9825301223521242E-4</v>
+        <v>8.8305076052496193E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AM5</f>
-        <v>9.056185272497461E-4</v>
+        <v>8.8946613480760496E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AN5</f>
-        <v>9.2034955727881304E-4</v>
+        <v>9.0229688337289059E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AO5</f>
-        <v>9.3794857137722578E-4</v>
+        <v>9.194224215971678E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AP5</f>
-        <v>9.3500204338529676E-4</v>
+        <v>9.2578647664525555E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24585,83 +24550,83 @@
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7468105410528411E-3</v>
+        <v>1.74470368849277E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7631429154514574E-3</v>
+        <v>1.7589292103313149E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7794752898500738E-3</v>
+        <v>1.77315473216986E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7958076642486899E-3</v>
+        <v>1.7873802540084049E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8121400386473061E-3</v>
+        <v>1.80160577584695E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8284724130459224E-3</v>
+        <v>1.8158312976854951E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8448047874445384E-3</v>
+        <v>1.83005681952404E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8611371618431549E-3</v>
+        <v>1.8442823413625849E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8774695362417711E-3</v>
+        <v>1.8585078632011298E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8938019106403874E-3</v>
+        <v>1.8727333850396752E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9101342850390036E-3</v>
+        <v>1.8869589068782201E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9264666594376199E-3</v>
+        <v>1.901184428716765E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9427990338362364E-3</v>
+        <v>1.9154099505553101E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9591314082348524E-3</v>
+        <v>1.9296354723938552E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9754637826334687E-3</v>
+        <v>1.9438609942323999E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9917961570320849E-3</v>
+        <v>1.958086516070945E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0081285314307012E-3</v>
+        <v>1.9723120379094902E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0407932802279328E-3</v>
+        <v>2.0007630815865795E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0798175285981603E-3</v>
+        <v>2.0387374393205332E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0732838648631425E-3</v>
+        <v>2.0528491653211832E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -24716,83 +24681,83 @@
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.1052197243833552E-4</v>
+        <v>6.0978561337112023E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1623024657459912E-4</v>
+        <v>6.1475752844016864E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.2193852071086271E-4</v>
+        <v>6.1972944350921694E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2764679484712631E-4</v>
+        <v>6.2470135857826535E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3335506898339001E-4</v>
+        <v>6.2967327364731366E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.3906334311965361E-4</v>
+        <v>6.3464518871636207E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4477161725591721E-4</v>
+        <v>6.3961710378541037E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.504798913921808E-4</v>
+        <v>6.4458901885445868E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.561881655284444E-4</v>
+        <v>6.4956093392350709E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.6189643966470799E-4</v>
+        <v>6.5453284899255539E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6760471380097159E-4</v>
+        <v>6.595047640616038E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.7331298793723519E-4</v>
+        <v>6.644766791306521E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7902126207349878E-4</v>
+        <v>6.6944859419970052E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8472953620976238E-4</v>
+        <v>6.7442050926874882E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9043781034602608E-4</v>
+        <v>6.7939242433779712E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9614608448228968E-4</v>
+        <v>6.8436433940684553E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>7.0185435861855328E-4</v>
+        <v>6.8933625447589384E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1327090689108014E-4</v>
+        <v>6.9928008461399023E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.2691014281734995E-4</v>
+        <v>7.125523767378051E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.2462658362360498E-4</v>
+        <v>7.1748451940007309E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24847,83 +24812,83 @@
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.363310861051621E-3</v>
+        <v>2.360460438855949E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3854074060952221E-3</v>
+        <v>2.379706561703878E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.4075039511388232E-3</v>
+        <v>2.3989526845518074E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4296004961824242E-3</v>
+        <v>2.4181988073997364E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4516970412260253E-3</v>
+        <v>2.4374449302476653E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4737935862696263E-3</v>
+        <v>2.4566910530955943E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4958901313132274E-3</v>
+        <v>2.4759371759435237E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5179866763568285E-3</v>
+        <v>2.4951832987914527E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5400832214004295E-3</v>
+        <v>2.5144294216393817E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5621797664440306E-3</v>
+        <v>2.5336755444873107E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5842763114876316E-3</v>
+        <v>2.5529216673352401E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.6063728565312327E-3</v>
+        <v>2.5721677901831691E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6284694015748337E-3</v>
+        <v>2.5914139130310981E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6505659466184348E-3</v>
+        <v>2.6106600358790271E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6726624916620359E-3</v>
+        <v>2.6299061587269565E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6947590367056369E-3</v>
+        <v>2.6491522815748855E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.716855581749238E-3</v>
+        <v>2.6683984044228145E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7610486718364388E-3</v>
+        <v>2.7068906501186716E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.8138457141316771E-3</v>
+        <v>2.758267264791503E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.8050061301558901E-3</v>
+        <v>2.7773594299357663E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38483CC7-12F5-4D51-83F4-E2640ADD5B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,14 +57,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -370,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1327,162 +1326,162 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1763,133 +1762,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.207320075161445E-4</c:v>
+                  <c:v>3.2092630056054029E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.272141534000967E-4</c:v>
+                  <c:v>3.2760273948888828E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.336962992840489E-4</c:v>
+                  <c:v>3.3427917841723627E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.401784451680011E-4</c:v>
+                  <c:v>3.4095561734558426E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.466605910519533E-4</c:v>
+                  <c:v>3.4763205627393225E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.531427369359055E-4</c:v>
+                  <c:v>3.5430849520228023E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.596248828198577E-4</c:v>
+                  <c:v>3.6098493413062822E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.661070287038099E-4</c:v>
+                  <c:v>3.6766137305897621E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.725891745877621E-4</c:v>
+                  <c:v>3.743378119873242E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.790713204717143E-4</c:v>
+                  <c:v>3.8101425091567219E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.855534663556665E-4</c:v>
+                  <c:v>3.8769068984402017E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.920356122396187E-4</c:v>
+                  <c:v>3.9436712877236816E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.9851775812357079E-4</c:v>
+                  <c:v>4.010435677007162E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.1245238248791824E-4</c:v>
+                  <c:v>4.1543936179917892E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.1996419698319429E-4</c:v>
+                  <c:v>4.232456921304615E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.2487319850780349E-4</c:v>
+                  <c:v>4.284224989356039E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.284100729130481E-4</c:v>
+                  <c:v>4.3223887309206766E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.3229475648161309E-4</c:v>
+                  <c:v>4.3661930301858122E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.3562407119964938E-4</c:v>
+                  <c:v>4.4073837767711228E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.3560812002075292E-4</c:v>
+                  <c:v>4.4130433819121803E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.3525902639902458E-4</c:v>
+                  <c:v>4.4139330713525239E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.3494323063744613E-4</c:v>
+                  <c:v>4.4143859386227608E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.3556364713577859E-4</c:v>
+                  <c:v>4.4252278985937798E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.3522567663302421E-4</c:v>
+                  <c:v>4.4258101673758966E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.3485093567965249E-4</c:v>
+                  <c:v>4.4262644410952699E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.3444409287052158E-4</c:v>
+                  <c:v>4.4263525674443374E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.3426236094515938E-4</c:v>
+                  <c:v>4.428907913418545E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.3334550299972978E-4</c:v>
+                  <c:v>4.4235185104972023E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.3240292886877814E-4</c:v>
+                  <c:v>4.4180682000362565E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.3170566760387615E-4</c:v>
+                  <c:v>4.415169210975881E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.3118788640723155E-4</c:v>
+                  <c:v>4.4141525513386555E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.3031928754038741E-4</c:v>
+                  <c:v>4.4094858868260617E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.2960602061293765E-4</c:v>
+                  <c:v>4.406528424788466E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.2897495422723389E-4</c:v>
+                  <c:v>4.4046477188487546E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.2827390653701544E-4</c:v>
+                  <c:v>4.4016736396697124E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.2760003777643344E-4</c:v>
+                  <c:v>4.3991921468742256E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.2704184487275684E-4</c:v>
+                  <c:v>4.3980677282836695E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.2657106481093477E-4</c:v>
+                  <c:v>4.3981133028276362E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.2590283562668826E-4</c:v>
+                  <c:v>4.3960459654073496E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.2527588921106548E-4</c:v>
+                  <c:v>4.3945697770705547E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.2453197785940827E-4</c:v>
+                  <c:v>4.3919624527100954E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.2394708700212782E-4</c:v>
+                  <c:v>4.3913823303573507E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.233617188619921E-4</c:v>
+                  <c:v>4.3909651675542918E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,136 +3221,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.6229391725409031E-5</c:v>
+                  <c:v>9.5419899559225573E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>9.5931375498007091E-5</c:v>
+                  <c:v>9.5338287913139552E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.5633359270605152E-5</c:v>
+                  <c:v>9.525667626705353E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.5335343043203105E-5</c:v>
+                  <c:v>9.5175064620967536E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.5037326815801165E-5</c:v>
+                  <c:v>9.5093452974881514E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.4739310588399226E-5</c:v>
+                  <c:v>9.5011841328795492E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>9.4441294360997179E-5</c:v>
+                  <c:v>9.4930229682709498E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.4143278133595239E-5</c:v>
+                  <c:v>9.4848618036623476E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.38452619061933E-5</c:v>
+                  <c:v>9.4767006390537455E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.3547245678791253E-5</c:v>
+                  <c:v>9.4685394744451433E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.3249229451389313E-5</c:v>
+                  <c:v>9.4603783098365439E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.2951213223987374E-5</c:v>
+                  <c:v>9.4522171452279417E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.2653196996585327E-5</c:v>
+                  <c:v>9.4440559806193396E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2380125600871724E-5</c:v>
+                  <c:v>9.4350108767282131E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.219309829263994E-5</c:v>
+                  <c:v>9.4442077706421838E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.1559103172633992E-5</c:v>
+                  <c:v>9.402333061423738E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.1353641791139538E-5</c:v>
+                  <c:v>9.4000035723344863E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.1309772714612039E-5</c:v>
+                  <c:v>9.4163071528390551E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.1727283528872551E-5</c:v>
+                  <c:v>9.4682668707178754E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.2100032073698612E-5</c:v>
+                  <c:v>9.5142476955989736E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.2305136532437853E-5</c:v>
+                  <c:v>9.541131267705505E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.1620615504101768E-5</c:v>
+                  <c:v>9.4667458005091786E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.1326863616208426E-5</c:v>
+                  <c:v>9.4453546781783382E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>9.0946057693078308E-5</c:v>
+                  <c:v>9.4148040334670371E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.0400981470945208E-5</c:v>
+                  <c:v>9.3683509343310548E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.9778862849115799E-5</c:v>
+                  <c:v>9.3039347753126793E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.9156599246297398E-5</c:v>
+                  <c:v>9.2251758056217267E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.8631662360611819E-5</c:v>
+                  <c:v>9.1557322121853094E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.7943084749779726E-5</c:v>
+                  <c:v>9.07736483022394E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.7573294998797346E-5</c:v>
+                  <c:v>9.0234607523885478E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.7069226169957413E-5</c:v>
+                  <c:v>8.9596824843155042E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.6871435981294458E-5</c:v>
+                  <c:v>8.9217589135059106E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.6747571549133394E-5</c:v>
+                  <c:v>8.8930292295351582E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.6669857452234005E-5</c:v>
+                  <c:v>8.8691790967907879E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.662306841739351E-5</c:v>
+                  <c:v>8.8488812756253477E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.6546781831867863E-5</c:v>
+                  <c:v>8.8285866185381517E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.6512992189387129E-5</c:v>
+                  <c:v>8.8132645190235536E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.6486778796134947E-5</c:v>
+                  <c:v>8.800435074604288E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6441703335980475E-5</c:v>
+                  <c:v>8.7877545398491763E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.6431601732089286E-5</c:v>
+                  <c:v>8.7780587958798052E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.6243095042905357E-5</c:v>
+                  <c:v>8.7591370413128998E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.6035767614588875E-5</c:v>
+                  <c:v>8.7400404460879553E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.5821368562436881E-5</c:v>
+                  <c:v>8.7223890439640155E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.559520997794513E-5</c:v>
+                  <c:v>8.704990116460202E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,88 +3684,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>7.7778981721017396E-4</c:v>
+                  <c:v>9.755891165750619E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8513065209783318E-4</c:v>
+                  <c:v>9.7251946202246372E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.924714869854924E-4</c:v>
+                  <c:v>9.6944980746986554E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.9981232187315162E-4</c:v>
+                  <c:v>9.6638015291726747E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0715315676081084E-4</c:v>
+                  <c:v>9.6331049836466951E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1449399164846995E-4</c:v>
+                  <c:v>9.6024084381207144E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2183482653612906E-4</c:v>
+                  <c:v>9.5717118925947337E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.2917566142378827E-4</c:v>
+                  <c:v>9.5410153470687519E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3651649631144749E-4</c:v>
+                  <c:v>9.5103188015427712E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4385733119910671E-4</c:v>
+                  <c:v>9.4796222560167894E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.5119816608676593E-4</c:v>
+                  <c:v>9.4489257104908098E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.5853900097442514E-4</c:v>
+                  <c:v>9.4182291649648291E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6587983586208436E-4</c:v>
+                  <c:v>9.3875326194388484E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7322067074974358E-4</c:v>
+                  <c:v>9.3568360739128688E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.805615056374028E-4</c:v>
+                  <c:v>9.326139528386887E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.8790234052506202E-4</c:v>
+                  <c:v>9.2954429828609052E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9524317541272123E-4</c:v>
+                  <c:v>9.2647464373349245E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.0258401030038045E-4</c:v>
+                  <c:v>9.2340498918089438E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>9.1726568007569835E-4</c:v>
@@ -4226,148 +4225,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8777028701720712E-4</c:v>
+                  <c:v>7.7794925766723553E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.9513580203174081E-4</c:v>
+                  <c:v>7.7549374333179763E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>8.0250131704627449E-4</c:v>
+                  <c:v>7.7303822899635972E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>8.0986683206080818E-4</c:v>
+                  <c:v>7.7058271466092182E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>8.1723234707534187E-4</c:v>
+                  <c:v>7.6812720032548392E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.2459786208987555E-4</c:v>
+                  <c:v>7.6567168599004601E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.3196337710440924E-4</c:v>
+                  <c:v>7.6321617165460811E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.3932889211894293E-4</c:v>
+                  <c:v>7.607606573191702E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4669440713347661E-4</c:v>
+                  <c:v>7.583051429837323E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.540599221480103E-4</c:v>
+                  <c:v>7.558496286482944E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.6142543716254398E-4</c:v>
+                  <c:v>7.5339411431285649E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.6879095217707767E-4</c:v>
+                  <c:v>7.5093859997741859E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.7615646719161136E-4</c:v>
+                  <c:v>7.4848308564198069E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.8352198220614504E-4</c:v>
+                  <c:v>7.4602757130654278E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.9088749722067873E-4</c:v>
+                  <c:v>7.4357205697110488E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.9825301223521242E-4</c:v>
+                  <c:v>7.4111654263566697E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.056185272497461E-4</c:v>
+                  <c:v>7.3866102830022907E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.2034955727881304E-4</c:v>
+                  <c:v>7.3374999962935326E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.3794857137722578E-4</c:v>
+                  <c:v>7.4377889012979068E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.3500204338529676E-4</c:v>
+                  <c:v>7.5546237635728934E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.4450518097673522E-4</c:v>
+                  <c:v>7.6988855141967331E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>9.6553094726227289E-4</c:v>
+                  <c:v>7.877489214120865E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.9202472083761615E-4</c:v>
+                  <c:v>8.083822343639478E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.0204549915404683E-3</c:v>
+                  <c:v>8.3067541992506142E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0517667621207619E-3</c:v>
+                  <c:v>8.5371534294825346E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.0714253139951938E-3</c:v>
+                  <c:v>8.6545312243029688E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.0927335887791732E-3</c:v>
+                  <c:v>8.8261166709128146E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1084724701472082E-3</c:v>
+                  <c:v>8.9716073487669588E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1212183953006243E-3</c:v>
+                  <c:v>9.100855783236607E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1265509849157651E-3</c:v>
+                  <c:v>9.1776051031063088E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1262441806540653E-3</c:v>
+                  <c:v>9.1871457061079879E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1263184748685799E-3</c:v>
+                  <c:v>9.1944324940937828E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1257669710917103E-3</c:v>
+                  <c:v>9.1951994009722364E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1240566768554406E-3</c:v>
+                  <c:v>9.1988814921012039E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1231142484226817E-3</c:v>
+                  <c:v>9.201924494164792E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1241515401583754E-3</c:v>
+                  <c:v>9.2027113359315245E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1224282188798294E-3</c:v>
+                  <c:v>9.2016254708406249E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.119439944891256E-3</c:v>
+                  <c:v>9.2015656661757913E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1180165169692845E-3</c:v>
+                  <c:v>9.2016289887620847E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.118177323275613E-3</c:v>
+                  <c:v>9.2017063830342226E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1185238583405013E-3</c:v>
+                  <c:v>9.2011552420053649E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1197710010246366E-3</c:v>
+                  <c:v>9.2017216273605534E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1216340297167265E-3</c:v>
+                  <c:v>9.2031827374072707E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1220820780488356E-3</c:v>
+                  <c:v>9.203098307292211E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.1245809182148494E-3</c:v>
+                  <c:v>9.2055796145625588E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.1271758246963568E-3</c:v>
+                  <c:v>9.2094669177767384E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1260899004142818E-3</c:v>
+                  <c:v>9.2138514205573777E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1259813441496596E-3</c:v>
+                  <c:v>9.2188163803790478E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7564,23 +7563,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7616,23 +7598,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7808,15 +7773,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8029,7 +7994,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8037,7 +8002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8047,12 +8012,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -8941,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8951,12 +8916,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -9845,7 +9810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9855,14 +9820,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -10785,7 +10750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10795,12 +10760,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -11689,7 +11654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11699,12 +11664,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -12593,7 +12558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12603,12 +12568,12 @@
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13497,7 +13462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13507,12 +13472,12 @@
       <selection activeCell="B1" sqref="B1:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -13746,127 +13711,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="0"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH3" s="4"/>
@@ -14008,127 +13973,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320363E-3</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
+        <f t="shared" si="1"/>
         <v>1.4016911849320359E-3</v>
       </c>
       <c r="AH5" s="4"/>
@@ -14533,7 +14498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14543,12 +14508,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30">
+    <row r="1" spans="1:33">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -15362,18 +15327,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -15550,97 +15515,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.3118788640723155E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.3031928754038741E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.2960602061293765E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.2897495422723389E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.2827390653701544E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.2760003777643344E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.2704184487275684E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.2657106481093477E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.2590283562668826E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.2527588921106548E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.2453197785940827E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.2394708700212782E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.233617188619921E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -15658,97 +15623,97 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>9.2380125600871724E-5</v>
+        <v>9.4350108767282131E-5</v>
       </c>
       <c r="E9" s="4">
-        <v>9.219309829263994E-5</v>
+        <v>9.4442077706421838E-5</v>
       </c>
       <c r="F9" s="4">
-        <v>9.1559103172633992E-5</v>
+        <v>9.402333061423738E-5</v>
       </c>
       <c r="G9" s="4">
-        <v>9.1353641791139538E-5</v>
+        <v>9.4000035723344863E-5</v>
       </c>
       <c r="H9" s="4">
-        <v>9.1309772714612039E-5</v>
+        <v>9.4163071528390551E-5</v>
       </c>
       <c r="I9" s="4">
-        <v>9.1727283528872551E-5</v>
+        <v>9.4682668707178754E-5</v>
       </c>
       <c r="J9" s="4">
-        <v>9.2100032073698612E-5</v>
+        <v>9.5142476955989736E-5</v>
       </c>
       <c r="K9" s="4">
-        <v>9.2305136532437853E-5</v>
+        <v>9.541131267705505E-5</v>
       </c>
       <c r="L9" s="4">
-        <v>9.1620615504101768E-5</v>
+        <v>9.4667458005091786E-5</v>
       </c>
       <c r="M9" s="4">
-        <v>9.1326863616208426E-5</v>
+        <v>9.4453546781783382E-5</v>
       </c>
       <c r="N9" s="4">
-        <v>9.0946057693078308E-5</v>
+        <v>9.4148040334670371E-5</v>
       </c>
       <c r="O9" s="4">
-        <v>9.0400981470945208E-5</v>
+        <v>9.3683509343310548E-5</v>
       </c>
       <c r="P9" s="4">
-        <v>8.9778862849115799E-5</v>
+        <v>9.3039347753126793E-5</v>
       </c>
       <c r="Q9" s="4">
-        <v>8.9156599246297398E-5</v>
+        <v>9.2251758056217267E-5</v>
       </c>
       <c r="R9" s="4">
-        <v>8.8631662360611819E-5</v>
+        <v>9.1557322121853094E-5</v>
       </c>
       <c r="S9" s="4">
-        <v>8.7943084749779726E-5</v>
+        <v>9.07736483022394E-5</v>
       </c>
       <c r="T9" s="4">
-        <v>8.7573294998797346E-5</v>
+        <v>9.0234607523885478E-5</v>
       </c>
       <c r="U9" s="4">
-        <v>8.7069226169957413E-5</v>
+        <v>8.9596824843155042E-5</v>
       </c>
       <c r="V9" s="4">
-        <v>8.6871435981294458E-5</v>
+        <v>8.9217589135059106E-5</v>
       </c>
       <c r="W9" s="4">
-        <v>8.6747571549133394E-5</v>
+        <v>8.8930292295351582E-5</v>
       </c>
       <c r="X9" s="4">
-        <v>8.6669857452234005E-5</v>
+        <v>8.8691790967907879E-5</v>
       </c>
       <c r="Y9" s="4">
-        <v>8.662306841739351E-5</v>
+        <v>8.8488812756253477E-5</v>
       </c>
       <c r="Z9" s="4">
-        <v>8.6546781831867863E-5</v>
+        <v>8.8285866185381517E-5</v>
       </c>
       <c r="AA9" s="4">
-        <v>8.6512992189387129E-5</v>
+        <v>8.8132645190235536E-5</v>
       </c>
       <c r="AB9" s="4">
-        <v>8.6486778796134947E-5</v>
+        <v>8.800435074604288E-5</v>
       </c>
       <c r="AC9" s="4">
-        <v>8.6441703335980475E-5</v>
+        <v>8.7877545398491763E-5</v>
       </c>
       <c r="AD9" s="4">
-        <v>8.6431601732089286E-5</v>
+        <v>8.7780587958798052E-5</v>
       </c>
       <c r="AE9" s="4">
-        <v>8.6243095042905357E-5</v>
+        <v>8.7591370413128998E-5</v>
       </c>
       <c r="AF9" s="4">
-        <v>8.6035767614588875E-5</v>
+        <v>8.7400404460879553E-5</v>
       </c>
       <c r="AG9" s="4">
-        <v>8.5821368562436881E-5</v>
+        <v>8.7223890439640155E-5</v>
       </c>
       <c r="AH9" s="4">
-        <v>8.559520997794513E-5</v>
+        <v>8.704990116460202E-5</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -15874,97 +15839,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>9.2034955727881304E-4</v>
+        <v>7.3374999962935326E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>9.3794857137722578E-4</v>
+        <v>7.4377889012979068E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>9.3500204338529676E-4</v>
+        <v>7.5546237635728934E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>9.4450518097673522E-4</v>
+        <v>7.6988855141967331E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>9.6553094726227289E-4</v>
+        <v>7.877489214120865E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>9.9202472083761615E-4</v>
+        <v>8.083822343639478E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>1.0204549915404683E-3</v>
+        <v>8.3067541992506142E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>1.0517667621207619E-3</v>
+        <v>8.5371534294825346E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0714253139951938E-3</v>
+        <v>8.6545312243029688E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0927335887791732E-3</v>
+        <v>8.8261166709128146E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>1.1084724701472082E-3</v>
+        <v>8.9716073487669588E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>1.1212183953006243E-3</v>
+        <v>9.100855783236607E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>1.1265509849157651E-3</v>
+        <v>9.1776051031063088E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.1262441806540653E-3</v>
+        <v>9.1871457061079879E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>1.1263184748685799E-3</v>
+        <v>9.1944324940937828E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>1.1257669710917103E-3</v>
+        <v>9.1951994009722364E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>1.1240566768554406E-3</v>
+        <v>9.1988814921012039E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>1.1231142484226817E-3</v>
+        <v>9.201924494164792E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>1.1241515401583754E-3</v>
+        <v>9.2027113359315245E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>1.1224282188798294E-3</v>
+        <v>9.2016254708406249E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>1.119439944891256E-3</v>
+        <v>9.2015656661757913E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.1180165169692845E-3</v>
+        <v>9.2016289887620847E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.118177323275613E-3</v>
+        <v>9.2017063830342226E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.1185238583405013E-3</v>
+        <v>9.2011552420053649E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.1197710010246366E-3</v>
+        <v>9.2017216273605534E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.1216340297167265E-3</v>
+        <v>9.2031827374072707E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.1220820780488356E-3</v>
+        <v>9.203098307292211E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.1245809182148494E-3</v>
+        <v>9.2055796145625588E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.1271758246963568E-3</v>
+        <v>9.2094669177767384E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.1260899004142818E-3</v>
+        <v>9.2138514205573777E-4</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.1259813441496596E-3</v>
+        <v>9.2188163803790478E-4</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -16945,14 +16910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -17052,18 +17017,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -17213,7 +17178,7 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.142498616321935E-4</v>
+        <v>3.1424986163219176E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
@@ -17221,7 +17186,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17239,7 +17204,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="22" t="s">
         <v>72</v>
       </c>
@@ -17257,7 +17222,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="28.5">
       <c r="A22" s="22" t="s">
         <v>74</v>
       </c>
@@ -17341,19 +17306,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="13"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -17599,175 +17564,175 @@
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.207320075161445E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.272141534000967E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.336962992840489E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.401784451680011E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.466605910519533E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.531427369359055E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.596248828198577E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.661070287038099E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.725891745877621E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.790713204717143E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.855534663556665E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.920356122396187E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="AO2" s="15">
         <f>BNVFE!E8</f>
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="AP2" s="15">
         <f>BNVFE!F8</f>
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="AQ2" s="15">
         <f>BNVFE!G8</f>
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="AR2" s="15">
         <f>BNVFE!H8</f>
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="AS2" s="15">
         <f>BNVFE!I8</f>
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="AT2" s="15">
         <f>BNVFE!J8</f>
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="AU2" s="15">
         <f>BNVFE!K8</f>
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="AV2" s="15">
         <f>BNVFE!L8</f>
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="AW2" s="15">
         <f>BNVFE!M8</f>
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="AX2" s="15">
         <f>BNVFE!N8</f>
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="AY2" s="15">
         <f>BNVFE!O8</f>
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AZ2" s="15">
         <f>BNVFE!P8</f>
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="BA2" s="15">
         <f>BNVFE!Q8</f>
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="BB2" s="15">
         <f>BNVFE!R8</f>
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="BC2" s="15">
         <f>BNVFE!S8</f>
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="BD2" s="15">
         <f>BNVFE!T8</f>
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="BE2" s="15">
         <f>BNVFE!U8</f>
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="BF2" s="15">
         <f>BNVFE!V8</f>
-        <v>4.3118788640723155E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="BG2" s="15">
         <f>BNVFE!W8</f>
-        <v>4.3031928754038741E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="BH2" s="15">
         <f>BNVFE!X8</f>
-        <v>4.2960602061293765E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="BI2" s="15">
         <f>BNVFE!Y8</f>
-        <v>4.2897495422723389E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="BJ2" s="15">
         <f>BNVFE!Z8</f>
-        <v>4.2827390653701544E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="BK2" s="15">
         <f>BNVFE!AA8</f>
-        <v>4.2760003777643344E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="BL2" s="15">
         <f>BNVFE!AB8</f>
-        <v>4.2704184487275684E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="BM2" s="15">
         <f>BNVFE!AC8</f>
-        <v>4.2657106481093477E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="BN2" s="15">
         <f>BNVFE!AD8</f>
-        <v>4.2590283562668826E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="BO2" s="15">
         <f>BNVFE!AE8</f>
-        <v>4.2527588921106548E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="BP2" s="15">
         <f>BNVFE!AF8</f>
-        <v>4.2453197785940827E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="BQ2" s="15">
         <f>BNVFE!AG8</f>
-        <v>4.2394708700212782E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="BR2" s="15">
         <f>BNVFE!AH8</f>
-        <v>4.233617188619921E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="4"/>
@@ -17805,179 +17770,179 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="17" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
-        <v>9.6229391725409031E-5</v>
+        <v>9.5419899559225573E-5</v>
       </c>
       <c r="AB3" s="17" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
-        <v>9.5931375498007091E-5</v>
+        <v>9.5338287913139552E-5</v>
       </c>
       <c r="AC3" s="17" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
-        <v>9.5633359270605152E-5</v>
+        <v>9.525667626705353E-5</v>
       </c>
       <c r="AD3" s="17" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
-        <v>9.5335343043203105E-5</v>
+        <v>9.5175064620967536E-5</v>
       </c>
       <c r="AE3" s="17" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
-        <v>9.5037326815801165E-5</v>
+        <v>9.5093452974881514E-5</v>
       </c>
       <c r="AF3" s="17" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
-        <v>9.4739310588399226E-5</v>
+        <v>9.5011841328795492E-5</v>
       </c>
       <c r="AG3" s="17" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
-        <v>9.4441294360997179E-5</v>
+        <v>9.4930229682709498E-5</v>
       </c>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
-        <v>9.4143278133595239E-5</v>
+        <v>9.4848618036623476E-5</v>
       </c>
       <c r="AI3" s="17" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
-        <v>9.38452619061933E-5</v>
+        <v>9.4767006390537455E-5</v>
       </c>
       <c r="AJ3" s="17" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
-        <v>9.3547245678791253E-5</v>
+        <v>9.4685394744451433E-5</v>
       </c>
       <c r="AK3" s="17" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
-        <v>9.3249229451389313E-5</v>
+        <v>9.4603783098365439E-5</v>
       </c>
       <c r="AL3" s="17" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
-        <v>9.2951213223987374E-5</v>
+        <v>9.4522171452279417E-5</v>
       </c>
       <c r="AM3" s="41" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
-        <v>9.2653196996585327E-5</v>
+        <v>9.4440559806193396E-5</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!D9</f>
-        <v>9.2380125600871724E-5</v>
+        <v>9.4350108767282131E-5</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!E9</f>
-        <v>9.219309829263994E-5</v>
+        <v>9.4442077706421838E-5</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!F9</f>
-        <v>9.1559103172633992E-5</v>
+        <v>9.402333061423738E-5</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!G9</f>
-        <v>9.1353641791139538E-5</v>
+        <v>9.4000035723344863E-5</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!H9</f>
-        <v>9.1309772714612039E-5</v>
+        <v>9.4163071528390551E-5</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!I9</f>
-        <v>9.1727283528872551E-5</v>
+        <v>9.4682668707178754E-5</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!J9</f>
-        <v>9.2100032073698612E-5</v>
+        <v>9.5142476955989736E-5</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!K9</f>
-        <v>9.2305136532437853E-5</v>
+        <v>9.541131267705505E-5</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!L9</f>
-        <v>9.1620615504101768E-5</v>
+        <v>9.4667458005091786E-5</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!M9</f>
-        <v>9.1326863616208426E-5</v>
+        <v>9.4453546781783382E-5</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!N9</f>
-        <v>9.0946057693078308E-5</v>
+        <v>9.4148040334670371E-5</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!O9</f>
-        <v>9.0400981470945208E-5</v>
+        <v>9.3683509343310548E-5</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!P9</f>
-        <v>8.9778862849115799E-5</v>
+        <v>9.3039347753126793E-5</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!Q9</f>
-        <v>8.9156599246297398E-5</v>
+        <v>9.2251758056217267E-5</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!R9</f>
-        <v>8.8631662360611819E-5</v>
+        <v>9.1557322121853094E-5</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!S9</f>
-        <v>8.7943084749779726E-5</v>
+        <v>9.07736483022394E-5</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!T9</f>
-        <v>8.7573294998797346E-5</v>
+        <v>9.0234607523885478E-5</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!U9</f>
-        <v>8.7069226169957413E-5</v>
+        <v>8.9596824843155042E-5</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!V9</f>
-        <v>8.6871435981294458E-5</v>
+        <v>8.9217589135059106E-5</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!W9</f>
-        <v>8.6747571549133394E-5</v>
+        <v>8.8930292295351582E-5</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!X9</f>
-        <v>8.6669857452234005E-5</v>
+        <v>8.8691790967907879E-5</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Y9</f>
-        <v>8.662306841739351E-5</v>
+        <v>8.8488812756253477E-5</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!Z9</f>
-        <v>8.6546781831867863E-5</v>
+        <v>8.8285866185381517E-5</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AA9</f>
-        <v>8.6512992189387129E-5</v>
+        <v>8.8132645190235536E-5</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AB9</f>
-        <v>8.6486778796134947E-5</v>
+        <v>8.800435074604288E-5</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AC9</f>
-        <v>8.6441703335980475E-5</v>
+        <v>8.7877545398491763E-5</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AD9</f>
-        <v>8.6431601732089286E-5</v>
+        <v>8.7780587958798052E-5</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AE9</f>
-        <v>8.6243095042905357E-5</v>
+        <v>8.7591370413128998E-5</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AF9</f>
-        <v>8.6035767614588875E-5</v>
+        <v>8.7400404460879553E-5</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AG9</f>
-        <v>8.5821368562436881E-5</v>
+        <v>8.7223890439640155E-5</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AH9</f>
-        <v>8.559520997794513E-5</v>
+        <v>8.704990116460202E-5</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -18000,115 +17965,115 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" ref="L4:AI4" si="1">M5/N5*N4</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>7.8513065209783318E-4</v>
+        <v>9.7251946202246372E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>7.924714869854924E-4</v>
+        <v>9.6944980746986554E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>7.9981232187315162E-4</v>
+        <v>9.6638015291726747E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>8.0715315676081084E-4</v>
+        <v>9.6331049836466951E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>8.1449399164846995E-4</v>
+        <v>9.6024084381207144E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2183482653612906E-4</v>
+        <v>9.5717118925947337E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2917566142378827E-4</v>
+        <v>9.5410153470687519E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>8.3651649631144749E-4</v>
+        <v>9.5103188015427712E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>8.4385733119910671E-4</v>
+        <v>9.4796222560167894E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>8.5119816608676593E-4</v>
+        <v>9.4489257104908098E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>8.5853900097442514E-4</v>
+        <v>9.4182291649648291E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>8.6587983586208436E-4</v>
+        <v>9.3875326194388484E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>8.7322067074974358E-4</v>
+        <v>9.3568360739128688E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>8.805615056374028E-4</v>
+        <v>9.326139528386887E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>8.8790234052506202E-4</v>
+        <v>9.2954429828609052E-4</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>8.9524317541272123E-4</v>
+        <v>9.2647464373349245E-4</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.0258401030038045E-4</v>
+        <v>9.2340498918089438E-4</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
@@ -18258,7 +18223,7 @@
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" ref="L5:T5" si="2">N5</f>
+        <f t="shared" ref="M5:T5" si="2">N5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="N5" s="17">
@@ -18299,195 +18264,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.8777028701720712E-4</v>
+        <v>7.7794925766723553E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.9513580203174081E-4</v>
+        <v>7.7549374333179763E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0250131704627449E-4</v>
+        <v>7.7303822899635972E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0986683206080818E-4</v>
+        <v>7.7058271466092182E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>8.1723234707534187E-4</v>
+        <v>7.6812720032548392E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>8.2459786208987555E-4</v>
+        <v>7.6567168599004601E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3196337710440924E-4</v>
+        <v>7.6321617165460811E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>8.3932889211894293E-4</v>
+        <v>7.607606573191702E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>8.4669440713347661E-4</v>
+        <v>7.583051429837323E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>8.540599221480103E-4</v>
+        <v>7.558496286482944E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6142543716254398E-4</v>
+        <v>7.5339411431285649E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>8.6879095217707767E-4</v>
+        <v>7.5093859997741859E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>8.7615646719161136E-4</v>
+        <v>7.4848308564198069E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>8.8352198220614504E-4</v>
+        <v>7.4602757130654278E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9088749722067873E-4</v>
+        <v>7.4357205697110488E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>8.9825301223521242E-4</v>
+        <v>7.4111654263566697E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>9.056185272497461E-4</v>
+        <v>7.3866102830022907E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
-        <v>9.2034955727881304E-4</v>
+        <v>7.3374999962935326E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!E11</f>
-        <v>9.3794857137722578E-4</v>
+        <v>7.4377889012979068E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!F11</f>
-        <v>9.3500204338529676E-4</v>
+        <v>7.5546237635728934E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!G11</f>
-        <v>9.4450518097673522E-4</v>
+        <v>7.6988855141967331E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!H11</f>
-        <v>9.6553094726227289E-4</v>
+        <v>7.877489214120865E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.9202472083761615E-4</v>
+        <v>8.083822343639478E-4</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!J11</f>
-        <v>1.0204549915404683E-3</v>
+        <v>8.3067541992506142E-4</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!K11</f>
-        <v>1.0517667621207619E-3</v>
+        <v>8.5371534294825346E-4</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!L11</f>
-        <v>1.0714253139951938E-3</v>
+        <v>8.6545312243029688E-4</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!M11</f>
-        <v>1.0927335887791732E-3</v>
+        <v>8.8261166709128146E-4</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.1084724701472082E-3</v>
+        <v>8.9716073487669588E-4</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.1212183953006243E-3</v>
+        <v>9.100855783236607E-4</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.1265509849157651E-3</v>
+        <v>9.1776051031063088E-4</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.1262441806540653E-3</v>
+        <v>9.1871457061079879E-4</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.1263184748685799E-3</v>
+        <v>9.1944324940937828E-4</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.1257669710917103E-3</v>
+        <v>9.1951994009722364E-4</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.1240566768554406E-3</v>
+        <v>9.1988814921012039E-4</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.1231142484226817E-3</v>
+        <v>9.201924494164792E-4</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.1241515401583754E-3</v>
+        <v>9.2027113359315245E-4</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.1224282188798294E-3</v>
+        <v>9.2016254708406249E-4</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.119439944891256E-3</v>
+        <v>9.2015656661757913E-4</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.1180165169692845E-3</v>
+        <v>9.2016289887620847E-4</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.118177323275613E-3</v>
+        <v>9.2017063830342226E-4</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.1185238583405013E-3</v>
+        <v>9.2011552420053649E-4</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.1197710010246366E-3</v>
+        <v>9.2017216273605534E-4</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.1216340297167265E-3</v>
+        <v>9.2031827374072707E-4</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.1220820780488356E-3</v>
+        <v>9.203098307292211E-4</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.1245809182148494E-3</v>
+        <v>9.2055796145625588E-4</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.1271758246963568E-3</v>
+        <v>9.2094669177767384E-4</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.1260899004142818E-3</v>
+        <v>9.2138514205573777E-4</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.1259813441496596E-3</v>
+        <v>9.2188163803790478E-4</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -18760,7 +18725,7 @@
         <v>9.5187813128868486E-5</v>
       </c>
       <c r="Q7" s="29">
-        <f t="shared" ref="Q7:AM7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
+        <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
         <v>9.5449046418027842E-5</v>
       </c>
       <c r="R7" s="29">
@@ -20792,7 +20757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20802,12 +20767,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -20915,123 +20880,123 @@
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>1.021278234459302E-3</v>
+        <v>1.0218969044164571E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0419187516160972E-3</v>
+        <v>1.0431560915304071E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0625592687728924E-3</v>
+        <v>1.0644152786443573E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>1.0831997859296874E-3</v>
+        <v>1.0856744657583076E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1038403030864826E-3</v>
+        <v>1.1069336528722576E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1244808202432778E-3</v>
+        <v>1.1281928399862078E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>1.145121337400073E-3</v>
+        <v>1.1494520271001581E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1657618545568682E-3</v>
+        <v>1.1707112142141083E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>1.1864023717136634E-3</v>
+        <v>1.1919704013280583E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2070428888704585E-3</v>
+        <v>1.2132295884420086E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2276834060272535E-3</v>
+        <v>1.2344887755559588E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2483239231840487E-3</v>
+        <v>1.2557479626699088E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>1.2689644403408437E-3</v>
+        <v>1.2770071497838593E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3133352179220551E-3</v>
+        <v>1.3228463888868588E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3372544167096446E-3</v>
+        <v>1.3477033880996271E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3528857110380057E-3</v>
+        <v>1.3641874308212647E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3641478637494424E-3</v>
+        <v>1.3763395695826361E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3765175140598731E-3</v>
+        <v>1.3902877806644294E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3871187530304623E-3</v>
+        <v>1.4034037815508047E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3870679611187129E-3</v>
+        <v>1.4052059189772993E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3859563735337359E-3</v>
+        <v>1.4054892148254085E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>1.384950813345552E-3</v>
+        <v>1.4056334172983E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3869263500902421E-3</v>
+        <v>1.4090857256048612E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3858501808577874E-3</v>
+        <v>1.4092711322433774E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3846569267694194E-3</v>
+        <v>1.409415782559283E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>1.383361453614029E-3</v>
+        <v>1.4094438438441177E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3827827809043229E-3</v>
+        <v>1.4102575197990628E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3798633121833498E-3</v>
+        <v>1.408541420447793E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3768619577137406E-3</v>
+        <v>1.4068059268536497E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>1.3746417310544475E-3</v>
+        <v>1.4058828277054775E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -21041,128 +21006,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -21177,123 +21142,123 @@
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.207320075161445E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.272141534000967E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.336962992840489E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.401784451680011E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.466605910519533E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.531427369359055E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.596248828198577E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.661070287038099E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.725891745877621E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.790713204717143E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.855534663556665E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.920356122396187E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
-        <v>3.9851775812357079E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P4" s="29">
         <f>Extrapolations!AO2</f>
-        <v>4.1245238248791824E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q4" s="29">
         <f>Extrapolations!AP2</f>
-        <v>4.1996419698319429E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R4" s="29">
         <f>Extrapolations!AQ2</f>
-        <v>4.2487319850780349E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S4" s="29">
         <f>Extrapolations!AR2</f>
-        <v>4.284100729130481E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T4" s="29">
         <f>Extrapolations!AS2</f>
-        <v>4.3229475648161309E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U4" s="29">
         <f>Extrapolations!AT2</f>
-        <v>4.3562407119964938E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V4" s="29">
         <f>Extrapolations!AU2</f>
-        <v>4.3560812002075292E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W4" s="29">
         <f>Extrapolations!AV2</f>
-        <v>4.3525902639902458E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X4" s="29">
         <f>Extrapolations!AW2</f>
-        <v>4.3494323063744613E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y4" s="29">
         <f>Extrapolations!AX2</f>
-        <v>4.3556364713577859E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z4" s="29">
         <f>Extrapolations!AY2</f>
-        <v>4.3522567663302421E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA4" s="29">
         <f>Extrapolations!AZ2</f>
-        <v>4.3485093567965249E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB4" s="29">
         <f>Extrapolations!BA2</f>
-        <v>4.3444409287052158E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC4" s="29">
         <f>Extrapolations!BB2</f>
-        <v>4.3426236094515938E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD4" s="29">
         <f>Extrapolations!BC2</f>
-        <v>4.3334550299972978E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE4" s="29">
         <f>Extrapolations!BD2</f>
-        <v>4.3240292886877814E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF4" s="29">
         <f>Extrapolations!BE2</f>
-        <v>4.3170566760387615E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -21303,128 +21268,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
         <v>3.142498616321923E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
-        <v>3.207320075161445E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
-        <v>3.272141534000967E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
-        <v>3.336962992840489E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
-        <v>3.401784451680011E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
-        <v>3.466605910519533E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
-        <v>3.531427369359055E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
-        <v>3.596248828198577E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
-        <v>3.661070287038099E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
-        <v>3.725891745877621E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
-        <v>3.790713204717143E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
-        <v>3.855534663556665E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
-        <v>3.920356122396187E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
-        <v>3.9851775812357079E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
-        <v>4.1245238248791824E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>4.1996419698319429E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
-        <v>4.2487319850780349E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
-        <v>4.284100729130481E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
-        <v>4.3229475648161309E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
-        <v>4.3562407119964938E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
-        <v>4.3560812002075292E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
-        <v>4.3525902639902458E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
-        <v>4.3494323063744613E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>4.3556364713577859E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>4.3522567663302421E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>4.3485093567965249E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>4.3444409287052158E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>4.3426236094515938E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>4.3334550299972978E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>4.3240292886877814E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>4.3170566760387615E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -21439,123 +21404,123 @@
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>7.0603243233488121E-4</v>
+        <v>7.0646013268129456E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>7.2030168241889701E-4</v>
+        <v>7.2115708311172361E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>7.3457093250291292E-4</v>
+        <v>7.3585403354215287E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>7.4884018258692862E-4</v>
+        <v>7.5055098397258223E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>7.6310943267094452E-4</v>
+        <v>7.6524793440301128E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>7.7737868275496033E-4</v>
+        <v>7.7994488483344054E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>7.9164793283897613E-4</v>
+        <v>7.9464183526386969E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>8.0591718292299204E-4</v>
+        <v>8.0933878569429895E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>8.2018643300700784E-4</v>
+        <v>8.2403573612472799E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>8.3445568309102364E-4</v>
+        <v>8.3873268655515725E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>8.4872493317503933E-4</v>
+        <v>8.5342963698558651E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>8.6299418325905524E-4</v>
+        <v>8.6812658741601556E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>8.7726343334307093E-4</v>
+        <v>8.8282353784644493E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>9.0793794197669352E-4</v>
+        <v>9.1451322669740286E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>9.2447381783274205E-4</v>
+        <v>9.3169742491350271E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>9.352800803994147E-4</v>
+        <v>9.4309321147271737E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>9.43065857873065E-4</v>
+        <v>9.5149425616188033E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5161727314965619E-4</v>
+        <v>9.6113696572379783E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5894614620659654E-4</v>
+        <v>9.7020434980764315E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5891103262463098E-4</v>
+        <v>9.7145020762356288E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5814256732311583E-4</v>
+        <v>9.7164605636483831E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5744740112690442E-4</v>
+        <v>9.717457467520893E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5881313376073348E-4</v>
+        <v>9.7413240451939373E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5806915395664396E-4</v>
+        <v>9.7426058026577294E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5724423077902425E-4</v>
+        <v>9.7436058025689284E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5634864127945064E-4</v>
+        <v>9.7437997964925998E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5594859192269931E-4</v>
+        <v>9.7494249199331904E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5393029805072079E-4</v>
+        <v>9.7375611421866035E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5185539473350753E-4</v>
+        <v>9.7255632877113886E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>9.5032050250169037E-4</v>
+        <v>9.719181697319273E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -21570,123 +21535,123 @@
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>2.4856730582501201E-4</v>
+        <v>2.4871788293441874E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>2.5359096888507497E-4</v>
+        <v>2.5389212310388844E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>2.5861463194513793E-4</v>
+        <v>2.5906636327335813E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>2.6363829500520084E-4</v>
+        <v>2.6424060344282783E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>2.686619580652638E-4</v>
+        <v>2.6941484361229752E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>2.7368562112532676E-4</v>
+        <v>2.7458908378176716E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>2.7870928418538972E-4</v>
+        <v>2.7976332395123686E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>2.8373294724545268E-4</v>
+        <v>2.8493756412070655E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>2.8875661030551564E-4</v>
+        <v>2.9011180429017625E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>2.937802733655786E-4</v>
+        <v>2.9528604445964594E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>2.9880393642564156E-4</v>
+        <v>3.0046028462911564E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>3.0382759948570452E-4</v>
+        <v>3.0563452479858533E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>3.0885126254576737E-4</v>
+        <v>3.1080876496805508E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>3.1965059642813663E-4</v>
+        <v>3.2196550539436369E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>3.2547225266197559E-4</v>
+        <v>3.2801541140110765E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>3.2927672884354773E-4</v>
+        <v>3.3202743667509304E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>3.3201780650761231E-4</v>
+        <v>3.3498512664635247E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>3.3502843627325013E-4</v>
+        <v>3.3837995983940043E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>3.3760865517972827E-4</v>
+        <v>3.4157224269976204E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>3.3759629301608352E-4</v>
+        <v>3.4201086209819401E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>3.3732574545924406E-4</v>
+        <v>3.4207981302982062E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>3.3708100374402075E-4</v>
+        <v>3.4211491024326398E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>3.3756182653022843E-4</v>
+        <v>3.4295516214101794E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>3.3729989939059379E-4</v>
+        <v>3.4300028797163199E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>3.3700947515173072E-4</v>
+        <v>3.4303549418488344E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>3.3669417197465426E-4</v>
+        <v>3.4304232397693615E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>3.3655332973249854E-4</v>
+        <v>3.4324036328993722E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>3.3584276482479056E-4</v>
+        <v>3.428226845635332E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>3.3511226987330305E-4</v>
+        <v>3.424002855028099E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>3.3457189239300404E-4</v>
+        <v>3.4217561385063076E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -21701,123 +21666,123 @@
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>9.621960225484334E-4</v>
+        <v>9.6277890168162072E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>9.8164246020029E-4</v>
+        <v>9.8280821846666463E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>1.0010888978521466E-3</v>
+        <v>1.0028375352517088E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>1.0205353355040032E-3</v>
+        <v>1.0228668520367527E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>1.0399817731558598E-3</v>
+        <v>1.0428961688217966E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>1.0594282108077164E-3</v>
+        <v>1.0629254856068405E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>1.078874648459573E-3</v>
+        <v>1.0829548023918846E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>1.0983210861114296E-3</v>
+        <v>1.1029841191769285E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>1.1177675237632862E-3</v>
+        <v>1.1230134359619724E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>1.1372139614151428E-3</v>
+        <v>1.1430427527470163E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>1.1566603990669994E-3</v>
+        <v>1.1630720695320603E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>1.176106836718856E-3</v>
+        <v>1.1831013863171044E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>1.1955532743707122E-3</v>
+        <v>1.2031307031021485E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>1.2373571474637544E-3</v>
+        <v>1.2463180853975366E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>1.2598925909495828E-3</v>
+        <v>1.2697370763913843E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>1.2746195955234104E-3</v>
+        <v>1.2852674968068115E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>1.285230218739144E-3</v>
+        <v>1.2967166192762029E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>1.2968842694448392E-3</v>
+        <v>1.3098579090557434E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>1.3068722135989479E-3</v>
+        <v>1.3222151330313367E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>1.3068243600622585E-3</v>
+        <v>1.3239130145736538E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>1.3057770791970735E-3</v>
+        <v>1.324179921405757E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>1.3048296919123382E-3</v>
+        <v>1.324315781586828E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>1.3066909414073357E-3</v>
+        <v>1.3275683695781338E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>1.3056770298990725E-3</v>
+        <v>1.3277430502127688E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>1.3045528070389572E-3</v>
+        <v>1.3278793323285808E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>1.3033322786115645E-3</v>
+        <v>1.3279057702333011E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>1.302787082835478E-3</v>
+        <v>1.3286723740255633E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>1.3000365089991892E-3</v>
+        <v>1.3270555531491605E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>1.2972087866063343E-3</v>
+        <v>1.3254204600108767E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>1.2951170028116282E-3</v>
+        <v>1.3245507632927641E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -21828,7 +21793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21838,12 +21803,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -21947,127 +21912,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0641464207301289E-4</v>
+        <v>3.0383704859648138E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0546569566470671E-4</v>
+        <v>3.0357717993394429E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0451674925640053E-4</v>
+        <v>3.0331731127140725E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0356780284809402E-4</v>
+        <v>3.0305744260887026E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0261885643978784E-4</v>
+        <v>3.0279757394633316E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0166991003148166E-4</v>
+        <v>3.0253770528379612E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$4/(1-'Other Values'!$B$2)</f>
-        <v>3.0072096362317516E-4</v>
+        <v>3.0227783662125913E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9977201721486898E-4</v>
+        <v>3.0201796795872204E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$4/(1-'Other Values'!$B$2)</f>
-        <v>2.988230708065628E-4</v>
+        <v>3.01758099296185E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9787412439825629E-4</v>
+        <v>3.014982306336479E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9692517798995011E-4</v>
+        <v>3.0123836197111097E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9597623158164393E-4</v>
+        <v>3.0097849330857387E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9502728517333742E-4</v>
+        <v>3.0071862464603683E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9415776836067041E-4</v>
+        <v>3.0043060949581934E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9356223403709025E-4</v>
+        <v>3.0072345795992213E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)</f>
-        <v>2.915434601023345E-4</v>
+        <v>2.993900790611242E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9088922780862847E-4</v>
+        <v>2.9931590322433487E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9074953943336986E-4</v>
+        <v>2.9983504355092776E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9207898176298886E-4</v>
+        <v>3.0148955035706911E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9326589160309292E-4</v>
+        <v>3.0295367662301989E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$4/(1-'Other Values'!$B$2)</f>
-        <v>2.9391898737960467E-4</v>
+        <v>3.0380970615588576E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$4/(1-'Other Values'!$B$2)</f>
-        <v>2.917393283156924E-4</v>
+        <v>3.0144111627937117E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$4/(1-'Other Values'!$B$2)</f>
-        <v>2.908039604621373E-4</v>
+        <v>3.0075997791041546E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8959139423322296E-4</v>
+        <v>2.9978718106566087E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)</f>
-        <v>2.878557567890623E-4</v>
+        <v>2.9830801659317302E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8587480012481605E-4</v>
+        <v>2.9625687047706158E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)</f>
-        <v>2.838933818105785E-4</v>
+        <v>2.9374901907374437E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8222187225352704E-4</v>
+        <v>2.9153778886169008E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)</f>
-        <v>2.8002929617693015E-4</v>
+        <v>2.8904240643607803E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7885180775932833E-4</v>
+        <v>2.8732598711553E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)</f>
-        <v>2.7724674648854853E-4</v>
+        <v>2.8529515279004627E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -22077,128 +22042,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
+        <f t="shared" ref="B3:AF3" si="0">B$4</f>
+        <v>9.5419899559225573E-5</v>
       </c>
       <c r="C3" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.5338287913139552E-5</v>
       </c>
       <c r="D3" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.525667626705353E-5</v>
       </c>
       <c r="E3" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.5175064620967536E-5</v>
       </c>
       <c r="F3" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.5093452974881514E-5</v>
       </c>
       <c r="G3" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.5011841328795492E-5</v>
       </c>
       <c r="H3" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4930229682709498E-5</v>
       </c>
       <c r="I3" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4848618036623476E-5</v>
       </c>
       <c r="J3" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4767006390537455E-5</v>
       </c>
       <c r="K3" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4685394744451433E-5</v>
       </c>
       <c r="L3" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4603783098365439E-5</v>
       </c>
       <c r="M3" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4522171452279417E-5</v>
       </c>
       <c r="N3" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4440559806193396E-5</v>
       </c>
       <c r="O3" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4350108767282131E-5</v>
       </c>
       <c r="P3" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4442077706421838E-5</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.402333061423738E-5</v>
       </c>
       <c r="R3" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4000035723344863E-5</v>
       </c>
       <c r="S3" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4163071528390551E-5</v>
       </c>
       <c r="T3" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4682668707178754E-5</v>
       </c>
       <c r="U3" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.5142476955989736E-5</v>
       </c>
       <c r="V3" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.541131267705505E-5</v>
       </c>
       <c r="W3" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4667458005091786E-5</v>
       </c>
       <c r="X3" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4453546781783382E-5</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.4148040334670371E-5</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.3683509343310548E-5</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.3039347753126793E-5</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.2251758056217267E-5</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.1557322121853094E-5</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.07736483022394E-5</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.0234607523885478E-5</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
+        <f t="shared" si="0"/>
+        <v>8.9596824843155042E-5</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -22209,127 +22174,127 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AA3</f>
-        <v>9.6229391725409031E-5</v>
+        <v>9.5419899559225573E-5</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AB3</f>
-        <v>9.5931375498007091E-5</v>
+        <v>9.5338287913139552E-5</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AC3</f>
-        <v>9.5633359270605152E-5</v>
+        <v>9.525667626705353E-5</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AD3</f>
-        <v>9.5335343043203105E-5</v>
+        <v>9.5175064620967536E-5</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AE3</f>
-        <v>9.5037326815801165E-5</v>
+        <v>9.5093452974881514E-5</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AF3</f>
-        <v>9.4739310588399226E-5</v>
+        <v>9.5011841328795492E-5</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AG3</f>
-        <v>9.4441294360997179E-5</v>
+        <v>9.4930229682709498E-5</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AH3</f>
-        <v>9.4143278133595239E-5</v>
+        <v>9.4848618036623476E-5</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AI3</f>
-        <v>9.38452619061933E-5</v>
+        <v>9.4767006390537455E-5</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AJ3</f>
-        <v>9.3547245678791253E-5</v>
+        <v>9.4685394744451433E-5</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AK3</f>
-        <v>9.3249229451389313E-5</v>
+        <v>9.4603783098365439E-5</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AL3</f>
-        <v>9.2951213223987374E-5</v>
+        <v>9.4522171452279417E-5</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AM3</f>
-        <v>9.2653196996585327E-5</v>
+        <v>9.4440559806193396E-5</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AN3</f>
-        <v>9.2380125600871724E-5</v>
+        <v>9.4350108767282131E-5</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AO3</f>
-        <v>9.219309829263994E-5</v>
+        <v>9.4442077706421838E-5</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AP3</f>
-        <v>9.1559103172633992E-5</v>
+        <v>9.402333061423738E-5</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AQ3</f>
-        <v>9.1353641791139538E-5</v>
+        <v>9.4000035723344863E-5</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AR3</f>
-        <v>9.1309772714612039E-5</v>
+        <v>9.4163071528390551E-5</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AS3</f>
-        <v>9.1727283528872551E-5</v>
+        <v>9.4682668707178754E-5</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AT3</f>
-        <v>9.2100032073698612E-5</v>
+        <v>9.5142476955989736E-5</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AU3</f>
-        <v>9.2305136532437853E-5</v>
+        <v>9.541131267705505E-5</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AV3</f>
-        <v>9.1620615504101768E-5</v>
+        <v>9.4667458005091786E-5</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AW3</f>
-        <v>9.1326863616208426E-5</v>
+        <v>9.4453546781783382E-5</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AX3</f>
-        <v>9.0946057693078308E-5</v>
+        <v>9.4148040334670371E-5</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AY3</f>
-        <v>9.0400981470945208E-5</v>
+        <v>9.3683509343310548E-5</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!AZ3</f>
-        <v>8.9778862849115799E-5</v>
+        <v>9.3039347753126793E-5</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BA3</f>
-        <v>8.9156599246297398E-5</v>
+        <v>9.2251758056217267E-5</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BB3</f>
-        <v>8.8631662360611819E-5</v>
+        <v>9.1557322121853094E-5</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BC3</f>
-        <v>8.7943084749779726E-5</v>
+        <v>9.07736483022394E-5</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BD3</f>
-        <v>8.7573294998797346E-5</v>
+        <v>9.0234607523885478E-5</v>
       </c>
       <c r="AF4" s="4">
         <f>Extrapolations!BE3</f>
-        <v>8.7069226169957413E-5</v>
+        <v>8.9596824843155042E-5</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -22339,128 +22304,128 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <f>B$4</f>
-        <v>9.6229391725409031E-5</v>
+        <f t="shared" ref="B5:AF5" si="1">B$4</f>
+        <v>9.5419899559225573E-5</v>
       </c>
       <c r="C5" s="4">
-        <f>C$4</f>
-        <v>9.5931375498007091E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.5338287913139552E-5</v>
       </c>
       <c r="D5" s="4">
-        <f>D$4</f>
-        <v>9.5633359270605152E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.525667626705353E-5</v>
       </c>
       <c r="E5" s="4">
-        <f>E$4</f>
-        <v>9.5335343043203105E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.5175064620967536E-5</v>
       </c>
       <c r="F5" s="4">
-        <f>F$4</f>
-        <v>9.5037326815801165E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.5093452974881514E-5</v>
       </c>
       <c r="G5" s="4">
-        <f>G$4</f>
-        <v>9.4739310588399226E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.5011841328795492E-5</v>
       </c>
       <c r="H5" s="4">
-        <f>H$4</f>
-        <v>9.4441294360997179E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4930229682709498E-5</v>
       </c>
       <c r="I5" s="4">
-        <f>I$4</f>
-        <v>9.4143278133595239E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4848618036623476E-5</v>
       </c>
       <c r="J5" s="4">
-        <f>J$4</f>
-        <v>9.38452619061933E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4767006390537455E-5</v>
       </c>
       <c r="K5" s="4">
-        <f>K$4</f>
-        <v>9.3547245678791253E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4685394744451433E-5</v>
       </c>
       <c r="L5" s="4">
-        <f>L$4</f>
-        <v>9.3249229451389313E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4603783098365439E-5</v>
       </c>
       <c r="M5" s="4">
-        <f>M$4</f>
-        <v>9.2951213223987374E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4522171452279417E-5</v>
       </c>
       <c r="N5" s="4">
-        <f>N$4</f>
-        <v>9.2653196996585327E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4440559806193396E-5</v>
       </c>
       <c r="O5" s="4">
-        <f>O$4</f>
-        <v>9.2380125600871724E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4350108767282131E-5</v>
       </c>
       <c r="P5" s="4">
-        <f>P$4</f>
-        <v>9.219309829263994E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4442077706421838E-5</v>
       </c>
       <c r="Q5" s="4">
-        <f>Q$4</f>
-        <v>9.1559103172633992E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.402333061423738E-5</v>
       </c>
       <c r="R5" s="4">
-        <f>R$4</f>
-        <v>9.1353641791139538E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4000035723344863E-5</v>
       </c>
       <c r="S5" s="4">
-        <f>S$4</f>
-        <v>9.1309772714612039E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4163071528390551E-5</v>
       </c>
       <c r="T5" s="4">
-        <f>T$4</f>
-        <v>9.1727283528872551E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4682668707178754E-5</v>
       </c>
       <c r="U5" s="4">
-        <f>U$4</f>
-        <v>9.2100032073698612E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.5142476955989736E-5</v>
       </c>
       <c r="V5" s="4">
-        <f>V$4</f>
-        <v>9.2305136532437853E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.541131267705505E-5</v>
       </c>
       <c r="W5" s="4">
-        <f>W$4</f>
-        <v>9.1620615504101768E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4667458005091786E-5</v>
       </c>
       <c r="X5" s="4">
-        <f>X$4</f>
-        <v>9.1326863616208426E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4453546781783382E-5</v>
       </c>
       <c r="Y5" s="4">
-        <f>Y$4</f>
-        <v>9.0946057693078308E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.4148040334670371E-5</v>
       </c>
       <c r="Z5" s="4">
-        <f>Z$4</f>
-        <v>9.0400981470945208E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.3683509343310548E-5</v>
       </c>
       <c r="AA5" s="4">
-        <f>AA$4</f>
-        <v>8.9778862849115799E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.3039347753126793E-5</v>
       </c>
       <c r="AB5" s="4">
-        <f>AB$4</f>
-        <v>8.9156599246297398E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.2251758056217267E-5</v>
       </c>
       <c r="AC5" s="4">
-        <f>AC$4</f>
-        <v>8.8631662360611819E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.1557322121853094E-5</v>
       </c>
       <c r="AD5" s="4">
-        <f>AD$4</f>
-        <v>8.7943084749779726E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.07736483022394E-5</v>
       </c>
       <c r="AE5" s="4">
-        <f>AE$4</f>
-        <v>8.7573294998797346E-5</v>
+        <f t="shared" si="1"/>
+        <v>9.0234607523885478E-5</v>
       </c>
       <c r="AF5" s="4">
-        <f>AF$4</f>
-        <v>8.7069226169957413E-5</v>
+        <f t="shared" si="1"/>
+        <v>8.9596824843155042E-5</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -22471,127 +22436,127 @@
       </c>
       <c r="B6" s="4">
         <f>B$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+B$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1183127941659115E-4</v>
+        <v>2.1004933152971627E-4</v>
       </c>
       <c r="C6" s="4">
         <f>C$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+C$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1117525158969189E-4</v>
+        <v>2.0986967852458218E-4</v>
       </c>
       <c r="D6" s="4">
         <f>D$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+D$4*(1-'Other Values'!$B$6)</f>
-        <v>2.1051922376279263E-4</v>
+        <v>2.0969002551944808E-4</v>
       </c>
       <c r="E6" s="4">
         <f>E$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+E$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0986319593589313E-4</v>
+        <v>2.0951037251431404E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+F$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0920716810899384E-4</v>
+        <v>2.0933071950917994E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+G$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0855114028209458E-4</v>
+        <v>2.0915106650404585E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+H$4*(1-'Other Values'!$B$6)</f>
-        <v>2.078951124551951E-4</v>
+        <v>2.089714134989118E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+I$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0723908462829581E-4</v>
+        <v>2.0879176049377768E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+J$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0658305680139655E-4</v>
+        <v>2.0861210748864361E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+K$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0592702897449702E-4</v>
+        <v>2.0843245448350949E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+L$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0527100114759776E-4</v>
+        <v>2.082528014783755E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+M$4*(1-'Other Values'!$B$6)</f>
-        <v>2.046149733206985E-4</v>
+        <v>2.0807314847324138E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+N$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0395894549379899E-4</v>
+        <v>2.0789349546810728E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+O$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0335782911876102E-4</v>
+        <v>2.0769438416797762E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+P$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0294612295208763E-4</v>
+        <v>2.0789683684584702E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Q$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0155049948396926E-4</v>
+        <v>2.0697504226002513E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+R$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0109821410075848E-4</v>
+        <v>2.0692376284888939E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+S$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0100164440992884E-4</v>
+        <v>2.0728265614078603E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+T$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0192071755763654E-4</v>
+        <v>2.0842645361461847E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+U$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0274125481486549E-4</v>
+        <v>2.0943863677285634E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+V$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0319275449837962E-4</v>
+        <v>2.1003042909041196E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+W$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0168590755047661E-4</v>
+        <v>2.0839297005594546E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+X$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0103926688146931E-4</v>
+        <v>2.0792208390253103E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Y$4*(1-'Other Values'!$B$6)</f>
-        <v>2.0020099279015788E-4</v>
+        <v>2.0724956773671518E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+Z$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9900110789590963E-4</v>
+        <v>2.0622698833073491E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AA$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9763162835075097E-4</v>
+        <v>2.0480898525129093E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AB$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9626182965665201E-4</v>
+        <v>2.0307525161585718E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AC$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9510627780171521E-4</v>
+        <v>2.0154657882876344E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AD$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9359050103471247E-4</v>
+        <v>1.9982146527585065E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AE$4*(1-'Other Values'!$B$6)</f>
-        <v>1.927764770170894E-4</v>
+        <v>1.9863486629928995E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$4/(1-'Other Values'!$B$2)*'Other Values'!$B$6+AF$4*(1-'Other Values'!$B$6)</f>
-        <v>1.9166686234518252E-4</v>
+        <v>1.972309052139452E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -22602,127 +22567,127 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>7.4577778587192007E-5</v>
+        <v>7.3950422158399826E-5</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>7.4346816010955499E-5</v>
+        <v>7.388717313268315E-5</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>7.411585343471899E-5</v>
+        <v>7.3823924106966487E-5</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>7.3884890858482414E-5</v>
+        <v>7.3760675081249838E-5</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>7.3653928282245906E-5</v>
+        <v>7.3697426055533175E-5</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>7.3422965706009398E-5</v>
+        <v>7.3634177029816513E-5</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>7.3192003129772822E-5</v>
+        <v>7.3570928004099864E-5</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>7.2961040553536313E-5</v>
+        <v>7.3507678978383201E-5</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>7.2730077977299805E-5</v>
+        <v>7.3444429952666525E-5</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>7.2499115401063229E-5</v>
+        <v>7.3381180926949862E-5</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>7.2268152824826721E-5</v>
+        <v>7.3317931901233213E-5</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>7.2037190248590212E-5</v>
+        <v>7.325468287551655E-5</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>7.1806227672353636E-5</v>
+        <v>7.3191433849799888E-5</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>7.1594597340675587E-5</v>
+        <v>7.312133429464365E-5</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>7.1449651176795956E-5</v>
+        <v>7.3192610222476932E-5</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>7.0958304958791341E-5</v>
+        <v>7.2868081226033977E-5</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>7.0799072388133137E-5</v>
+        <v>7.2850027685592272E-5</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>7.0765073853824333E-5</v>
+        <v>7.2976380434502681E-5</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>7.1088644734876226E-5</v>
+        <v>7.3379068248063535E-5</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>7.1377524857116432E-5</v>
+        <v>7.3735419640892047E-5</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>7.1536480812639338E-5</v>
+        <v>7.3943767324717661E-5</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>7.1005977015678866E-5</v>
+        <v>7.3367279953946138E-5</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>7.0778319302561529E-5</v>
+        <v>7.3201498755882127E-5</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>7.0483194712135693E-5</v>
+        <v>7.2964731259369546E-5</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>7.0060760639982536E-5</v>
+        <v>7.2604719741065681E-5</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9578618708064752E-5</v>
+        <v>7.2105494508673269E-5</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9096364415880491E-5</v>
+        <v>7.1495112493568381E-5</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.8689538329474157E-5</v>
+        <v>7.0956924644436148E-5</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>6.8155890681079293E-5</v>
+        <v>7.0349577434235532E-5</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>6.7869303624067942E-5</v>
+        <v>6.9931820831011253E-5</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>6.747865028171699E-5</v>
+        <v>6.9437539253445154E-5</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -22733,127 +22698,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.8868817517622704E-4</v>
+        <v>2.8625969867767667E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.8779412649402122E-4</v>
+        <v>2.860148637394186E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.869000778118154E-4</v>
+        <v>2.8577002880116054E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.8600602912960926E-4</v>
+        <v>2.8552519386290258E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.8511198044740344E-4</v>
+        <v>2.8528035892464451E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.8421793176519762E-4</v>
+        <v>2.8503552398638645E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.8332388308299148E-4</v>
+        <v>2.8479068904812844E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.8242983440078566E-4</v>
+        <v>2.8454585410987037E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.8153578571857985E-4</v>
+        <v>2.8430101917161231E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.806417370363737E-4</v>
+        <v>2.8405618423335425E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.7974768835416789E-4</v>
+        <v>2.8381134929509629E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.7885363967196207E-4</v>
+        <v>2.8356651435683822E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.7795959098975593E-4</v>
+        <v>2.8332167941858016E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.7714037680261514E-4</v>
+        <v>2.8305032630184635E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.7657929487791977E-4</v>
+        <v>2.8332623311926546E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.7467730951790195E-4</v>
+        <v>2.820699918427121E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.7406092537341859E-4</v>
+        <v>2.8200010717003454E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.739293181438361E-4</v>
+        <v>2.824892145851716E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.7518185058661763E-4</v>
+        <v>2.8404800612153624E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.7630009622109581E-4</v>
+        <v>2.8542743086796917E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.7691540959731351E-4</v>
+        <v>2.8623393803116511E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.7486184651230524E-4</v>
+        <v>2.8400237401527529E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.7398059084862524E-4</v>
+        <v>2.8336064034535012E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.7283817307923488E-4</v>
+        <v>2.8244412100401109E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.712029444128356E-4</v>
+        <v>2.810505280299316E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6933658854734737E-4</v>
+        <v>2.7911804325938031E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6746979773889214E-4</v>
+        <v>2.7675527416865176E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.658949870818354E-4</v>
+        <v>2.7467196636555923E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.6382925424933912E-4</v>
+        <v>2.7232094490671819E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.62719884996392E-4</v>
+        <v>2.7070382257165642E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.6120767850987221E-4</v>
+        <v>2.6879047452946507E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -22864,7 +22829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22874,12 +22839,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -22983,115 +22948,115 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>2.4994078531848513E-3</v>
+        <v>3.1350308855875378E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5229974399358832E-3</v>
+        <v>3.125166628527902E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5465870266869152E-3</v>
+        <v>3.1153023714682658E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5701766134379475E-3</v>
+        <v>3.10543811440863E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5937662001889795E-3</v>
+        <v>3.0955738573489947E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.617355786940011E-3</v>
+        <v>3.0857096002893589E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.640945373691043E-3</v>
+        <v>3.0758453432297231E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6645349604420749E-3</v>
+        <v>3.0659810861700869E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6881245471931069E-3</v>
+        <v>3.0561168291104515E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7117141339441393E-3</v>
+        <v>3.0462525720508153E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7353037206951712E-3</v>
+        <v>3.0363883149911799E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7588933074462032E-3</v>
+        <v>3.0265240579315442E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7824828941972355E-3</v>
+        <v>3.0166598008719084E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8060724809482675E-3</v>
+        <v>3.006795543812273E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8296620676992994E-3</v>
+        <v>2.9969312867526368E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8532516544503318E-3</v>
+        <v>2.987067029693001E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8768412412013638E-3</v>
+        <v>2.9772027726333652E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9004308279523957E-3</v>
+        <v>2.9673385155737295E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
@@ -23113,127 +23078,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.7251946202246372E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6944980746986554E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6638015291726747E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6331049836466951E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6024084381207144E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5717118925947337E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5410153470687519E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5103188015427712E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.4796222560167894E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>9.4489257104908098E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.4182291649648291E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.3875326194388484E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.3568360739128688E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.326139528386887E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2954429828609052E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2647464373349245E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2340498918089438E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
+        <f t="shared" si="2"/>
         <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
+        <f t="shared" si="2"/>
         <v>9.171943323501193E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
+        <f t="shared" si="2"/>
         <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH3" s="4"/>
@@ -23244,127 +23209,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
-        <v>7.7778981721017396E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8513065209783318E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.7251946202246372E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.924714869854924E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6944980746986554E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>7.9981232187315162E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6638015291726747E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0715315676081084E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6331049836466951E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1449399164846995E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.6024084381207144E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2183482653612906E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5717118925947337E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.2917566142378827E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5410153470687519E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3651649631144749E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5103188015427712E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4385733119910671E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.4796222560167894E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.5119816608676593E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.4489257104908098E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.5853900097442514E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.4182291649648291E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6587983586208436E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.3875326194388484E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7322067074974358E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.3568360739128688E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.805615056374028E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.326139528386887E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.8790234052506202E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2954429828609052E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9524317541272123E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2647464373349245E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.0258401030038045E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.2340498918089438E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
+        <f t="shared" si="2"/>
         <v>9.1726568007569835E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
+        <f t="shared" si="2"/>
         <v>9.171943323501193E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
+        <f t="shared" si="2"/>
         <v>9.1377867605157937E-4</v>
       </c>
       <c r="AH4" s="4"/>
@@ -23376,115 +23341,115 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!L4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!M4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!N4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!O4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!P4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!Q4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!R4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!S4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!T4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!U4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!V4</f>
-        <v>7.7778981721017396E-4</v>
+        <v>9.755891165750619E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!W4</f>
-        <v>7.8513065209783318E-4</v>
+        <v>9.7251946202246372E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!X4</f>
-        <v>7.924714869854924E-4</v>
+        <v>9.6944980746986554E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!Y4</f>
-        <v>7.9981232187315162E-4</v>
+        <v>9.6638015291726747E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Z4</f>
-        <v>8.0715315676081084E-4</v>
+        <v>9.6331049836466951E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AA4</f>
-        <v>8.1449399164846995E-4</v>
+        <v>9.6024084381207144E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AB4</f>
-        <v>8.2183482653612906E-4</v>
+        <v>9.5717118925947337E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AC4</f>
-        <v>8.2917566142378827E-4</v>
+        <v>9.5410153470687519E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AD4</f>
-        <v>8.3651649631144749E-4</v>
+        <v>9.5103188015427712E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AE4</f>
-        <v>8.4385733119910671E-4</v>
+        <v>9.4796222560167894E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AF4</f>
-        <v>8.5119816608676593E-4</v>
+        <v>9.4489257104908098E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AG4</f>
-        <v>8.5853900097442514E-4</v>
+        <v>9.4182291649648291E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AH4</f>
-        <v>8.6587983586208436E-4</v>
+        <v>9.3875326194388484E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AI4</f>
-        <v>8.7322067074974358E-4</v>
+        <v>9.3568360739128688E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AJ4</f>
-        <v>8.805615056374028E-4</v>
+        <v>9.326139528386887E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AK4</f>
-        <v>8.8790234052506202E-4</v>
+        <v>9.2954429828609052E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AL4</f>
-        <v>8.9524317541272123E-4</v>
+        <v>9.2647464373349245E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AM4</f>
-        <v>9.0258401030038045E-4</v>
+        <v>9.2340498918089438E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AN4</f>
@@ -23507,115 +23472,115 @@
       </c>
       <c r="B6" s="4">
         <f>B$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+B$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+C$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="D6" s="4">
         <f>D$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+D$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="E6" s="4">
         <f>E$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+E$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="F6" s="4">
         <f>F$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+F$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="G6" s="4">
         <f>G$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+G$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="H6" s="4">
         <f>H$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+H$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="I6" s="4">
         <f>I$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+I$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="J6" s="4">
         <f>J$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+J$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="K6" s="4">
         <f>K$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+K$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="L6" s="4">
         <f>L$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+L$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7246797369962466E-3</v>
+        <v>2.1632820895319239E-3</v>
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7409573854087609E-3</v>
+        <v>2.1564754036004549E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.757235033821275E-3</v>
+        <v>2.1496687176689858E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7735126822337895E-3</v>
+        <v>2.1428620317375168E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7897903306463036E-3</v>
+        <v>2.1360553458060483E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8060679790588177E-3</v>
+        <v>2.1292486598745797E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8223456274713318E-3</v>
+        <v>2.1224419739431107E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8386232758838459E-3</v>
+        <v>2.1156352880116417E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8549009242963604E-3</v>
+        <v>2.1088286020801731E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8711785727088747E-3</v>
+        <v>2.1020219161487041E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8874562211213888E-3</v>
+        <v>2.0952152302172356E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9037338695339031E-3</v>
+        <v>2.0884085442857666E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9200115179464176E-3</v>
+        <v>2.081601858354298E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9362891663589317E-3</v>
+        <v>2.0747951724228294E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.952566814771446E-3</v>
+        <v>2.06798848649136E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9688444631839603E-3</v>
+        <v>2.0611818005598914E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9851221115964749E-3</v>
+        <v>2.0543751146284229E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.001399760008989E-3</v>
+        <v>2.0475684286969538E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
@@ -23638,115 +23603,115 @@
       </c>
       <c r="B7" s="4">
         <f>B$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="C7" s="4">
         <f>C$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="D7" s="4">
         <f>D$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="E7" s="4">
         <f>E$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="F7" s="4">
         <f>F$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="G7" s="4">
         <f>G$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="H7" s="4">
         <f>H$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="I7" s="4">
         <f>I$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="J7" s="4">
         <f>J$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="K7" s="4">
         <f>K$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="L7" s="4">
         <f>L$4*Calculations!$B$31</f>
-        <v>6.0278710833788481E-4</v>
+        <v>7.5608156534567297E-4</v>
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.0847625537582069E-4</v>
+        <v>7.5370258306740943E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1416540241375668E-4</v>
+        <v>7.5132360078914578E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.1985454945169256E-4</v>
+        <v>7.4894461851088235E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2554369648962845E-4</v>
+        <v>7.4656563623261892E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3123284352756422E-4</v>
+        <v>7.4418665395435538E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.369219905655E-4</v>
+        <v>7.4180767167609184E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4261113760343588E-4</v>
+        <v>7.394286893978283E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.4830028464137187E-4</v>
+        <v>7.3704970711956476E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.5398943167930775E-4</v>
+        <v>7.3467072484130122E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.5967857871724364E-4</v>
+        <v>7.3229174256303779E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6536772575517952E-4</v>
+        <v>7.2991276028477425E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.710568727931154E-4</v>
+        <v>7.2753377800651082E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7674601983105129E-4</v>
+        <v>7.2515479572824739E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8243516686898717E-4</v>
+        <v>7.2277581344998374E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.8812431390692305E-4</v>
+        <v>7.203968311717202E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9381346094485893E-4</v>
+        <v>7.1801784889345666E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>6.9950260798279482E-4</v>
+        <v>7.1563886661519312E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
@@ -23769,115 +23734,115 @@
       </c>
       <c r="B8" s="4">
         <f>B$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$4*Calculations!$B$27</f>
-        <v>2.3333694516305217E-3</v>
+        <v>2.9267673497251853E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.3553919562934993E-3</v>
+        <v>2.9175583860673909E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.377414460956477E-3</v>
+        <v>2.9083494224095962E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.3994369656194546E-3</v>
+        <v>2.8991404587518019E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4214594702824323E-3</v>
+        <v>2.889931495094008E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4434819749454095E-3</v>
+        <v>2.8807225314362141E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4655044796083867E-3</v>
+        <v>2.8715135677784198E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4875269842713644E-3</v>
+        <v>2.862304604120625E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.509549488934342E-3</v>
+        <v>2.8530956404628311E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5315719935973197E-3</v>
+        <v>2.8438866768050364E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5535944982602973E-3</v>
+        <v>2.8346777131472425E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.575617002923275E-3</v>
+        <v>2.8254687494894482E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.5976395075862527E-3</v>
+        <v>2.8162597858316543E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6196620122492303E-3</v>
+        <v>2.8070508221738604E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.641684516912208E-3</v>
+        <v>2.7978418585160657E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6637070215751856E-3</v>
+        <v>2.7886328948582713E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6857295262381633E-3</v>
+        <v>2.779423931200477E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.7077520309011409E-3</v>
+        <v>2.7702149675426827E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
@@ -23900,7 +23865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23908,12 +23873,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30">
+    <row r="1" spans="1:35">
       <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
@@ -24061,83 +24026,83 @@
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5314798398092687E-3</v>
+        <v>2.4999202110502759E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5551487355221342E-3</v>
+        <v>2.4920294780041491E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>2.5788176312350002E-3</v>
+        <v>2.4841387449580218E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6024865269478658E-3</v>
+        <v>2.476248011911895E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6261554226607313E-3</v>
+        <v>2.4683572788657677E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6498243183735969E-3</v>
+        <v>2.4604665458196405E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6734932140864624E-3</v>
+        <v>2.4525758127735137E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>2.6971621097993284E-3</v>
+        <v>2.4446850797273864E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7208310055121939E-3</v>
+        <v>2.4367943466812592E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7444999012250595E-3</v>
+        <v>2.4289036136351323E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>2.768168796937925E-3</v>
+        <v>2.4210128805890051E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>2.7918376926507906E-3</v>
+        <v>2.4131221475428778E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8155065883636566E-3</v>
+        <v>2.405231414496751E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8391754840765221E-3</v>
+        <v>2.3973406814506238E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8628443797893877E-3</v>
+        <v>2.3894499484044965E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>2.8865132755022532E-3</v>
+        <v>2.3815592153583697E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9101821712151188E-3</v>
+        <v>2.3736684823122424E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9575199626408486E-3</v>
+        <v>2.3578870162199884E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0140739481425614E-3</v>
+        <v>2.3901146015147322E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0046053551631979E-3</v>
+        <v>2.4276591882185414E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24147,128 +24112,128 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>B$5</f>
+        <f t="shared" ref="B3:K4" si="0">B$5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="C3" s="4">
-        <f>C$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="D3" s="4">
-        <f>D$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="E3" s="4">
-        <f>E$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="F3" s="4">
-        <f>F$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="G3" s="4">
-        <f>G$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="H3" s="4">
-        <f>H$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="I3" s="4">
-        <f>I$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="J3" s="4">
-        <f>J$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="K3" s="4">
-        <f>K$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="L3" s="4">
-        <f>L$5</f>
+        <f t="shared" ref="L3:U4" si="1">L$5</f>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M3" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7794925766723553E-4</v>
       </c>
       <c r="N3" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7549374333179763E-4</v>
       </c>
       <c r="O3" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7303822899635972E-4</v>
       </c>
       <c r="P3" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7058271466092182E-4</v>
       </c>
       <c r="Q3" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6812720032548392E-4</v>
       </c>
       <c r="R3" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6567168599004601E-4</v>
       </c>
       <c r="S3" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6321617165460811E-4</v>
       </c>
       <c r="T3" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.607606573191702E-4</v>
       </c>
       <c r="U3" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.583051429837323E-4</v>
       </c>
       <c r="V3" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" ref="V3:AF4" si="2">V$5</f>
+        <v>7.558496286482944E-4</v>
       </c>
       <c r="W3" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5339411431285649E-4</v>
       </c>
       <c r="X3" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5093859997741859E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4848308564198069E-4</v>
       </c>
       <c r="Z3" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4602757130654278E-4</v>
       </c>
       <c r="AA3" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4357205697110488E-4</v>
       </c>
       <c r="AB3" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4111654263566697E-4</v>
       </c>
       <c r="AC3" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.3866102830022907E-4</v>
       </c>
       <c r="AD3" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.3374999962935326E-4</v>
       </c>
       <c r="AE3" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4377889012979068E-4</v>
       </c>
       <c r="AF3" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5546237635728934E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24278,128 +24243,128 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>B$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="C4" s="4">
-        <f>C$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="D4" s="4">
-        <f>D$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="E4" s="4">
-        <f>E$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="F4" s="4">
-        <f>F$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>G$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="H4" s="4">
-        <f>H$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="I4" s="4">
-        <f>I$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="J4" s="4">
-        <f>J$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="K4" s="4">
-        <f>K$5</f>
+        <f t="shared" si="0"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="L4" s="4">
-        <f>L$5</f>
+        <f t="shared" si="1"/>
         <v>7.8040477200267344E-4</v>
       </c>
       <c r="M4" s="4">
-        <f>M$5</f>
-        <v>7.8777028701720712E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7794925766723553E-4</v>
       </c>
       <c r="N4" s="4">
-        <f>N$5</f>
-        <v>7.9513580203174081E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7549374333179763E-4</v>
       </c>
       <c r="O4" s="4">
-        <f>O$5</f>
-        <v>8.0250131704627449E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7303822899635972E-4</v>
       </c>
       <c r="P4" s="4">
-        <f>P$5</f>
-        <v>8.0986683206080818E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.7058271466092182E-4</v>
       </c>
       <c r="Q4" s="4">
-        <f>Q$5</f>
-        <v>8.1723234707534187E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6812720032548392E-4</v>
       </c>
       <c r="R4" s="4">
-        <f>R$5</f>
-        <v>8.2459786208987555E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6567168599004601E-4</v>
       </c>
       <c r="S4" s="4">
-        <f>S$5</f>
-        <v>8.3196337710440924E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6321617165460811E-4</v>
       </c>
       <c r="T4" s="4">
-        <f>T$5</f>
-        <v>8.3932889211894293E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.607606573191702E-4</v>
       </c>
       <c r="U4" s="4">
-        <f>U$5</f>
-        <v>8.4669440713347661E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.583051429837323E-4</v>
       </c>
       <c r="V4" s="4">
-        <f>V$5</f>
-        <v>8.540599221480103E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.558496286482944E-4</v>
       </c>
       <c r="W4" s="4">
-        <f>W$5</f>
-        <v>8.6142543716254398E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5339411431285649E-4</v>
       </c>
       <c r="X4" s="4">
-        <f>X$5</f>
-        <v>8.6879095217707767E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5093859997741859E-4</v>
       </c>
       <c r="Y4" s="4">
-        <f>Y$5</f>
-        <v>8.7615646719161136E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4848308564198069E-4</v>
       </c>
       <c r="Z4" s="4">
-        <f>Z$5</f>
-        <v>8.8352198220614504E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4602757130654278E-4</v>
       </c>
       <c r="AA4" s="4">
-        <f>AA$5</f>
-        <v>8.9088749722067873E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4357205697110488E-4</v>
       </c>
       <c r="AB4" s="4">
-        <f>AB$5</f>
-        <v>8.9825301223521242E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4111654263566697E-4</v>
       </c>
       <c r="AC4" s="4">
-        <f>AC$5</f>
-        <v>9.056185272497461E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.3866102830022907E-4</v>
       </c>
       <c r="AD4" s="4">
-        <f>AD$5</f>
-        <v>9.2034955727881304E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.3374999962935326E-4</v>
       </c>
       <c r="AE4" s="4">
-        <f>AE$5</f>
-        <v>9.3794857137722578E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.4377889012979068E-4</v>
       </c>
       <c r="AF4" s="4">
-        <f>AF$5</f>
-        <v>9.3500204338529676E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.5546237635728934E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24454,83 +24419,83 @@
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!W5</f>
-        <v>7.8777028701720712E-4</v>
+        <v>7.7794925766723553E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!X5</f>
-        <v>7.9513580203174081E-4</v>
+        <v>7.7549374333179763E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!Y5</f>
-        <v>8.0250131704627449E-4</v>
+        <v>7.7303822899635972E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!Z5</f>
-        <v>8.0986683206080818E-4</v>
+        <v>7.7058271466092182E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AA5</f>
-        <v>8.1723234707534187E-4</v>
+        <v>7.6812720032548392E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AB5</f>
-        <v>8.2459786208987555E-4</v>
+        <v>7.6567168599004601E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AC5</f>
-        <v>8.3196337710440924E-4</v>
+        <v>7.6321617165460811E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AD5</f>
-        <v>8.3932889211894293E-4</v>
+        <v>7.607606573191702E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AE5</f>
-        <v>8.4669440713347661E-4</v>
+        <v>7.583051429837323E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AF5</f>
-        <v>8.540599221480103E-4</v>
+        <v>7.558496286482944E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AG5</f>
-        <v>8.6142543716254398E-4</v>
+        <v>7.5339411431285649E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AH5</f>
-        <v>8.6879095217707767E-4</v>
+        <v>7.5093859997741859E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AI5</f>
-        <v>8.7615646719161136E-4</v>
+        <v>7.4848308564198069E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AJ5</f>
-        <v>8.8352198220614504E-4</v>
+        <v>7.4602757130654278E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AK5</f>
-        <v>8.9088749722067873E-4</v>
+        <v>7.4357205697110488E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AL5</f>
-        <v>8.9825301223521242E-4</v>
+        <v>7.4111654263566697E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AM5</f>
-        <v>9.056185272497461E-4</v>
+        <v>7.3866102830022907E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AN5</f>
-        <v>9.2034955727881304E-4</v>
+        <v>7.3374999962935326E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AO5</f>
-        <v>9.3794857137722578E-4</v>
+        <v>7.4377889012979068E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AP5</f>
-        <v>9.3500204338529676E-4</v>
+        <v>7.5546237635728934E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24585,83 +24550,83 @@
       </c>
       <c r="M6" s="4">
         <f>M$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+M$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7468105410528411E-3</v>
+        <v>1.7250332820279079E-3</v>
       </c>
       <c r="N6" s="4">
         <f>N$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+N$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7631429154514574E-3</v>
+        <v>1.719588397401591E-3</v>
       </c>
       <c r="O6" s="4">
         <f>O$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+O$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7794752898500738E-3</v>
+        <v>1.7141435127752741E-3</v>
       </c>
       <c r="P6" s="4">
         <f>P$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+P$5*(1-'Other Values'!$B$6)</f>
-        <v>1.7958076642486899E-3</v>
+        <v>1.7086986281489571E-3</v>
       </c>
       <c r="Q6" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Q$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8121400386473061E-3</v>
+        <v>1.70325374352264E-3</v>
       </c>
       <c r="R6" s="4">
         <f>R$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+R$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8284724130459224E-3</v>
+        <v>1.6978088588963231E-3</v>
       </c>
       <c r="S6" s="4">
         <f>S$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+S$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8448047874445384E-3</v>
+        <v>1.6923639742700064E-3</v>
       </c>
       <c r="T6" s="4">
         <f>T$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+T$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8611371618431549E-3</v>
+        <v>1.6869190896436892E-3</v>
       </c>
       <c r="U6" s="4">
         <f>U$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+U$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8774695362417711E-3</v>
+        <v>1.6814742050173721E-3</v>
       </c>
       <c r="V6" s="4">
         <f>V$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+V$5*(1-'Other Values'!$B$6)</f>
-        <v>1.8938019106403874E-3</v>
+        <v>1.6760293203910552E-3</v>
       </c>
       <c r="W6" s="4">
         <f>W$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+W$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9101342850390036E-3</v>
+        <v>1.6705844357647382E-3</v>
       </c>
       <c r="X6" s="4">
         <f>X$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+X$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9264666594376199E-3</v>
+        <v>1.6651395511384213E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Y$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9427990338362364E-3</v>
+        <v>1.6596946665121044E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+Z$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9591314082348524E-3</v>
+        <v>1.6542497818857874E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AA$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9754637826334687E-3</v>
+        <v>1.6488048972594703E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AB$5*(1-'Other Values'!$B$6)</f>
-        <v>1.9917961570320849E-3</v>
+        <v>1.6433600126331536E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AC$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0081285314307012E-3</v>
+        <v>1.6379151280068367E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AD$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0407932802279328E-3</v>
+        <v>1.6270253587542026E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AE$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0798175285981603E-3</v>
+        <v>1.6492635313915085E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)*'Other Values'!$B$6+AF$5*(1-'Other Values'!$B$6)</f>
-        <v>2.0732838648631425E-3</v>
+        <v>1.675170622880978E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -24716,83 +24681,83 @@
       </c>
       <c r="M7" s="4">
         <f>M$4*Calculations!$B$31</f>
-        <v>6.1052197243833552E-4</v>
+        <v>6.0291067469210753E-4</v>
       </c>
       <c r="N7" s="4">
         <f>N$4*Calculations!$B$31</f>
-        <v>6.1623024657459912E-4</v>
+        <v>6.0100765108214314E-4</v>
       </c>
       <c r="O7" s="4">
         <f>O$4*Calculations!$B$31</f>
-        <v>6.2193852071086271E-4</v>
+        <v>5.9910462747217875E-4</v>
       </c>
       <c r="P7" s="4">
         <f>P$4*Calculations!$B$31</f>
-        <v>6.2764679484712631E-4</v>
+        <v>5.9720160386221447E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>Q$4*Calculations!$B$31</f>
-        <v>6.3335506898339001E-4</v>
+        <v>5.9529858025225008E-4</v>
       </c>
       <c r="R7" s="4">
         <f>R$4*Calculations!$B$31</f>
-        <v>6.3906334311965361E-4</v>
+        <v>5.9339555664228568E-4</v>
       </c>
       <c r="S7" s="4">
         <f>S$4*Calculations!$B$31</f>
-        <v>6.4477161725591721E-4</v>
+        <v>5.9149253303232129E-4</v>
       </c>
       <c r="T7" s="4">
         <f>T$4*Calculations!$B$31</f>
-        <v>6.504798913921808E-4</v>
+        <v>5.895895094223569E-4</v>
       </c>
       <c r="U7" s="4">
         <f>U$4*Calculations!$B$31</f>
-        <v>6.561881655284444E-4</v>
+        <v>5.8768648581239251E-4</v>
       </c>
       <c r="V7" s="4">
         <f>V$4*Calculations!$B$31</f>
-        <v>6.6189643966470799E-4</v>
+        <v>5.8578346220242823E-4</v>
       </c>
       <c r="W7" s="4">
         <f>W$4*Calculations!$B$31</f>
-        <v>6.6760471380097159E-4</v>
+        <v>5.8388043859246383E-4</v>
       </c>
       <c r="X7" s="4">
         <f>X$4*Calculations!$B$31</f>
-        <v>6.7331298793723519E-4</v>
+        <v>5.8197741498249944E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>Y$4*Calculations!$B$31</f>
-        <v>6.7902126207349878E-4</v>
+        <v>5.8007439137253505E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>Z$4*Calculations!$B$31</f>
-        <v>6.8472953620976238E-4</v>
+        <v>5.7817136776257066E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>AA$4*Calculations!$B$31</f>
-        <v>6.9043781034602608E-4</v>
+        <v>5.7626834415260627E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>AB$4*Calculations!$B$31</f>
-        <v>6.9614608448228968E-4</v>
+        <v>5.7436532054264188E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>AC$4*Calculations!$B$31</f>
-        <v>7.0185435861855328E-4</v>
+        <v>5.7246229693267759E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>AD$4*Calculations!$B$31</f>
-        <v>7.1327090689108014E-4</v>
+        <v>5.6865624971274881E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>AE$4*Calculations!$B$31</f>
-        <v>7.2691014281734995E-4</v>
+        <v>5.764286398505878E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>AF$4*Calculations!$B$31</f>
-        <v>7.2462658362360498E-4</v>
+        <v>5.8548334167689926E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24847,83 +24812,83 @@
       </c>
       <c r="M8" s="4">
         <f>M$4*Calculations!$B$27</f>
-        <v>2.363310861051621E-3</v>
+        <v>2.3338477730017061E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$4*Calculations!$B$27</f>
-        <v>2.3854074060952221E-3</v>
+        <v>2.3264812299953926E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$4*Calculations!$B$27</f>
-        <v>2.4075039511388232E-3</v>
+        <v>2.3191146869890786E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$4*Calculations!$B$27</f>
-        <v>2.4296004961824242E-3</v>
+        <v>2.3117481439827651E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$4*Calculations!$B$27</f>
-        <v>2.4516970412260253E-3</v>
+        <v>2.3043816009764512E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$4*Calculations!$B$27</f>
-        <v>2.4737935862696263E-3</v>
+        <v>2.2970150579701377E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$4*Calculations!$B$27</f>
-        <v>2.4958901313132274E-3</v>
+        <v>2.2896485149638238E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$4*Calculations!$B$27</f>
-        <v>2.5179866763568285E-3</v>
+        <v>2.2822819719575103E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$4*Calculations!$B$27</f>
-        <v>2.5400832214004295E-3</v>
+        <v>2.2749154289511964E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$4*Calculations!$B$27</f>
-        <v>2.5621797664440306E-3</v>
+        <v>2.2675488859448829E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$4*Calculations!$B$27</f>
-        <v>2.5842763114876316E-3</v>
+        <v>2.2601823429385689E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$4*Calculations!$B$27</f>
-        <v>2.6063728565312327E-3</v>
+        <v>2.2528157999322554E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$4*Calculations!$B$27</f>
-        <v>2.6284694015748337E-3</v>
+        <v>2.2454492569259415E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$4*Calculations!$B$27</f>
-        <v>2.6505659466184348E-3</v>
+        <v>2.238082713919628E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$4*Calculations!$B$27</f>
-        <v>2.6726624916620359E-3</v>
+        <v>2.2307161709133141E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$4*Calculations!$B$27</f>
-        <v>2.6947590367056369E-3</v>
+        <v>2.2233496279070006E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$4*Calculations!$B$27</f>
-        <v>2.716855581749238E-3</v>
+        <v>2.2159830849006867E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$4*Calculations!$B$27</f>
-        <v>2.7610486718364388E-3</v>
+        <v>2.2012499988880592E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$4*Calculations!$B$27</f>
-        <v>2.8138457141316771E-3</v>
+        <v>2.2313366703893716E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$4*Calculations!$B$27</f>
-        <v>2.8050061301558901E-3</v>
+        <v>2.2663871290718677E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CCEDF0-B0E2-4AC5-A249-991C4C3060C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,6 +52,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,14 +60,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -382,7 +384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1339,162 +1341,162 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,7 +1526,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.2092630056054029E-4</c:v>
+                  <c:v>3.2103824262146724E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2760273948888828E-4</c:v>
+                  <c:v>3.2782662361074218E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.3427917841723627E-4</c:v>
+                  <c:v>3.3461500460001711E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.4095561734558426E-4</c:v>
+                  <c:v>3.4140338558929205E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.4763205627393225E-4</c:v>
+                  <c:v>3.4819176657856698E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.5430849520228023E-4</c:v>
+                  <c:v>3.5498014756784192E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.6098493413062822E-4</c:v>
+                  <c:v>3.6176852855711685E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6766137305897621E-4</c:v>
+                  <c:v>3.6855690954639179E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.743378119873242E-4</c:v>
+                  <c:v>3.7534529053566672E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8101425091567219E-4</c:v>
+                  <c:v>3.8213367152494166E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8769068984402017E-4</c:v>
+                  <c:v>3.889220525142166E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.9436712877236816E-4</c:v>
+                  <c:v>3.9571043350349153E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.010435677007162E-4</c:v>
+                  <c:v>4.024988144927663E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.1543936179917892E-4</c:v>
+                  <c:v>4.0796787215023562E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.232456921304615E-4</c:v>
+                  <c:v>4.4349306088874353E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.284224989356039E-4</c:v>
+                  <c:v>4.9179385282965761E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.3223887309206766E-4</c:v>
+                  <c:v>5.174051794644127E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.3661930301858122E-4</c:v>
+                  <c:v>5.5498219220506228E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.4073837767711228E-4</c:v>
+                  <c:v>6.1702942871432137E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.4130433819121803E-4</c:v>
+                  <c:v>6.1865450301759833E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.4139330713525239E-4</c:v>
+                  <c:v>6.2042514874960234E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.4143859386227608E-4</c:v>
+                  <c:v>6.2202007097467485E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.4252278985937798E-4</c:v>
+                  <c:v>6.2400919656171528E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.4258101673758966E-4</c:v>
+                  <c:v>6.2648275385172284E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.4262644410952699E-4</c:v>
+                  <c:v>6.2865303733188277E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.4263525674443374E-4</c:v>
+                  <c:v>6.3045798981798329E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.428907913418545E-4</c:v>
+                  <c:v>6.32149872010817E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.4235185104972023E-4</c:v>
+                  <c:v>6.338211561269702E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.4180682000362565E-4</c:v>
+                  <c:v>6.3569593171044787E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.415169210975881E-4</c:v>
+                  <c:v>6.3762434994468471E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.4141525513386555E-4</c:v>
+                  <c:v>6.394624697168103E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.4094858868260617E-4</c:v>
+                  <c:v>6.406181007048323E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.406528424788466E-4</c:v>
+                  <c:v>6.4209464096239596E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.4046477188487546E-4</c:v>
+                  <c:v>6.4337258070020452E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.4016736396697124E-4</c:v>
+                  <c:v>6.4434270628615663E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.3991921468742256E-4</c:v>
+                  <c:v>6.4571601073642603E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.3980677282836695E-4</c:v>
+                  <c:v>6.4710816023557315E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.3981133028276362E-4</c:v>
+                  <c:v>6.4804117422294469E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.3960459654073496E-4</c:v>
+                  <c:v>6.4919973276739693E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.3945697770705547E-4</c:v>
+                  <c:v>6.4990136461510475E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.3919624527100954E-4</c:v>
+                  <c:v>6.5029076468089368E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.3913823303573507E-4</c:v>
+                  <c:v>6.5073794454305572E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.3909651675542918E-4</c:v>
+                  <c:v>6.5120598543606876E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,7 +1989,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2237,196 +2237,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.971525705626559E-3</c:v>
+                  <c:v>5.2144482404601076E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.9715257056265547E-3</c:v>
+                  <c:v>5.2144482404601084E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +2988,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3237,136 +3236,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.1709920537385831E-4</c:v>
+                  <c:v>1.203379342864262E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.1699905164334643E-4</c:v>
+                  <c:v>1.2016088715049279E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1689889791283454E-4</c:v>
+                  <c:v>1.1998384001455937E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1679874418232269E-4</c:v>
+                  <c:v>1.1980679287862601E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.166985904518108E-4</c:v>
+                  <c:v>1.1962974574269259E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1659843672129892E-4</c:v>
+                  <c:v>1.1945269860675917E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.1649828299078704E-4</c:v>
+                  <c:v>1.1927565147082576E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1639812926027518E-4</c:v>
+                  <c:v>1.1909860433489239E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1629797552976329E-4</c:v>
+                  <c:v>1.1892155719895898E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1619782179925141E-4</c:v>
+                  <c:v>1.1874451006302556E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.1609766806873955E-4</c:v>
+                  <c:v>1.1856746292709215E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1599751433822767E-4</c:v>
+                  <c:v>1.1839041579115878E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1589736060771579E-4</c:v>
+                  <c:v>1.1821336865522537E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.157863591831631E-4</c:v>
+                  <c:v>1.1797797201017124E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.1589922337335911E-4</c:v>
+                  <c:v>1.1829846623500186E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1538533736033749E-4</c:v>
+                  <c:v>1.1729428078558663E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1535674989351573E-4</c:v>
+                  <c:v>1.1719689551672209E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1555682727052541E-4</c:v>
+                  <c:v>1.1764352168964412E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1619447640903485E-4</c:v>
+                  <c:v>1.1866120205476883E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1675875263243092E-4</c:v>
+                  <c:v>1.1959158500672709E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.170886675606406E-4</c:v>
+                  <c:v>1.2012295075743907E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1617580985063572E-4</c:v>
+                  <c:v>1.1891477439334622E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1591329821118029E-4</c:v>
+                  <c:v>1.184720637798503E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1553838100461461E-4</c:v>
+                  <c:v>1.1791912239365693E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1496830903628264E-4</c:v>
+                  <c:v>1.1726854759265854E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1417779457660161E-4</c:v>
+                  <c:v>1.163947280800766E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1321126528769265E-4</c:v>
+                  <c:v>1.1543036314509163E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1235905420307894E-4</c:v>
+                  <c:v>1.1452766973335742E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.113973304748738E-4</c:v>
+                  <c:v>1.1368570476708297E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1073582017040977E-4</c:v>
+                  <c:v>1.1294953379908579E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.099531339020346E-4</c:v>
+                  <c:v>1.1233567537117923E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0948773622007766E-4</c:v>
+                  <c:v>1.1173642803062577E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0913516582552083E-4</c:v>
+                  <c:v>1.1124100972467315E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0884247723484658E-4</c:v>
+                  <c:v>1.1075853315322957E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.085933825763662E-4</c:v>
+                  <c:v>1.1037521243170253E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.083443267474224E-4</c:v>
+                  <c:v>1.0991848018148144E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0815629409531245E-4</c:v>
+                  <c:v>1.0966775896786235E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0799885128162017E-4</c:v>
+                  <c:v>1.0946652790457937E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.078432358858381E-4</c:v>
+                  <c:v>1.093057513924758E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0772424981274788E-4</c:v>
+                  <c:v>1.0925596504686471E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.0749204222981193E-4</c:v>
+                  <c:v>1.0913422478199535E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.0725768900406794E-4</c:v>
+                  <c:v>1.0902511165204325E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.0704107117361582E-4</c:v>
+                  <c:v>1.088790399619601E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.0682755170917861E-4</c:v>
+                  <c:v>1.0882419661026466E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3451,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3701,181 +3699,181 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>9.5189169708960616E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.0507727694715886E-3</c:v>
+                  <c:v>9.5461686896994183E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0471373150185254E-3</c:v>
+                  <c:v>9.5734204085027739E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0435018605654625E-3</c:v>
+                  <c:v>9.6006721273061296E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0398664061123993E-3</c:v>
+                  <c:v>9.6279238461094863E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.0362309516593362E-3</c:v>
+                  <c:v>9.6551755649128431E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.032595497206273E-3</c:v>
+                  <c:v>9.6824272837161987E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0289600427532098E-3</c:v>
+                  <c:v>9.7096790025195544E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.0253245883001466E-3</c:v>
+                  <c:v>9.73693072132291E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.0216891338470835E-3</c:v>
+                  <c:v>9.7641824401262668E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.0180536793940205E-3</c:v>
+                  <c:v>9.7914341589296224E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.0144182249409574E-3</c:v>
+                  <c:v>9.8186858777329781E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.0107827704878942E-3</c:v>
+                  <c:v>9.8459375965363337E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.0071473160348312E-3</c:v>
+                  <c:v>9.8731893153396894E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.0035118615817681E-3</c:v>
+                  <c:v>9.900441034143045E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.998764071287049E-4</c:v>
+                  <c:v>9.9276927529464007E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.9624095267564173E-4</c:v>
+                  <c:v>9.9549444717497563E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.9260549822257856E-4</c:v>
+                  <c:v>9.982196190553112E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.8533458931645266E-4</c:v>
+                  <c:v>1.0036699628159823E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>9.988021364476826E-4</c:v>
+                  <c:v>1.0208853457654701E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.0144915989479513E-3</c:v>
+                  <c:v>1.0363125757886589E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.0338641499362739E-3</c:v>
+                  <c:v>1.0550551388611548E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.0578483957153595E-3</c:v>
+                  <c:v>1.0785940195513571E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.0855563574924357E-3</c:v>
+                  <c:v>1.1061013871046345E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1154933208321449E-3</c:v>
+                  <c:v>1.1357533191201131E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.146433059300843E-3</c:v>
+                  <c:v>1.1663973327510526E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.162195430859642E-3</c:v>
+                  <c:v>1.1820311595601288E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1852372128907688E-3</c:v>
+                  <c:v>1.2045176477719092E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.2047747934543398E-3</c:v>
+                  <c:v>1.2233355994231063E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.2221312436297778E-3</c:v>
+                  <c:v>1.2400654478455125E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.2324377185343545E-3</c:v>
+                  <c:v>1.2499350960073442E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.2337189023360906E-3</c:v>
+                  <c:v>1.2512540753321518E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.2346974269358923E-3</c:v>
+                  <c:v>1.2521553698507089E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.2348004129494538E-3</c:v>
+                  <c:v>1.252074367228913E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.2352948717913239E-3</c:v>
+                  <c:v>1.2523252347546336E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.2357035089552255E-3</c:v>
+                  <c:v>1.2527262378328314E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.2358091719752555E-3</c:v>
+                  <c:v>1.2526822878954607E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.2356633538581946E-3</c:v>
+                  <c:v>1.252281766020957E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.2356553228387885E-3</c:v>
+                  <c:v>1.2523305279952656E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.2356638262711007E-3</c:v>
+                  <c:v>1.2524525933322692E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.2356742193550382E-3</c:v>
+                  <c:v>1.2517309481927445E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.2356002079997265E-3</c:v>
+                  <c:v>1.2521125427219578E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.2356762664776318E-3</c:v>
+                  <c:v>1.2526240622485064E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.2358724753046924E-3</c:v>
+                  <c:v>1.2533139479442377E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.2358611373949426E-3</c:v>
+                  <c:v>1.2540837134531458E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.236194345964814E-3</c:v>
+                  <c:v>1.254924697108742E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.2367163622262144E-3</c:v>
+                  <c:v>1.2557445078018091E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.2373051461783645E-3</c:v>
+                  <c:v>1.2564741730028979E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.2379718782600448E-3</c:v>
+                  <c:v>1.2570591562933724E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,7 +3959,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4243,148 +4240,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.777140437446856E-4</c:v>
+                  <c:v>7.8263899375966939E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7502331548669776E-4</c:v>
+                  <c:v>7.8487321551666534E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7233258722870992E-4</c:v>
+                  <c:v>7.8710743727366129E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.6964185897072208E-4</c:v>
+                  <c:v>7.8934165903065724E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6695113071273424E-4</c:v>
+                  <c:v>7.9157588078765319E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.642604024547464E-4</c:v>
+                  <c:v>7.9381010254464914E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6156967419675856E-4</c:v>
+                  <c:v>7.9604432430164509E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.5887894593877072E-4</c:v>
+                  <c:v>7.9827854605864104E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.5618821768078288E-4</c:v>
+                  <c:v>8.0051276781563699E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5349748942279504E-4</c:v>
+                  <c:v>8.0274698957263294E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.508067611648072E-4</c:v>
+                  <c:v>8.049812113296289E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.4811603290681936E-4</c:v>
+                  <c:v>8.0721543308662485E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.4542530464883152E-4</c:v>
+                  <c:v>8.094496548436208E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4273457639084369E-4</c:v>
+                  <c:v>8.1168387660061675E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4004384813285585E-4</c:v>
+                  <c:v>8.139180983576127E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.3735311987486801E-4</c:v>
+                  <c:v>8.1615232011460865E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.3466239161688017E-4</c:v>
+                  <c:v>8.183865418716046E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.2928093510090471E-4</c:v>
+                  <c:v>8.228549853855965E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>7.3924874245474208E-4</c:v>
+                  <c:v>8.3696895134066358E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.508610678592162E-4</c:v>
+                  <c:v>8.4961690694915356E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>7.6519937715357957E-4</c:v>
+                  <c:v>8.6498292569483441E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>7.8295096466416878E-4</c:v>
+                  <c:v>8.8428118711932307E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.0345860591986078E-4</c:v>
+                  <c:v>9.0683299734042682E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.2561600996837806E-4</c:v>
+                  <c:v>9.3114302054446375E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>8.4851560331147032E-4</c:v>
+                  <c:v>9.5626639807157017E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>8.6018189128557194E-4</c:v>
+                  <c:v>9.6908373126585042E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>8.7723592808510082E-4</c:v>
+                  <c:v>9.875191927366351E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>8.9169638159754131E-4</c:v>
+                  <c:v>1.002947018520609E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>9.0454250346438524E-4</c:v>
+                  <c:v>1.0166629208482015E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>9.1217068960288046E-4</c:v>
+                  <c:v>1.02475451419546E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>9.1311893899054719E-4</c:v>
+                  <c:v>1.0258358743569153E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>9.1384317961185513E-4</c:v>
+                  <c:v>1.0265747972253597E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>9.1391940319832696E-4</c:v>
+                  <c:v>1.0265083875352788E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>9.1428536965325259E-4</c:v>
+                  <c:v>1.0267140603180244E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>9.1458781645278495E-4</c:v>
+                  <c:v>1.0270428211600088E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>9.1466602138630556E-4</c:v>
+                  <c:v>1.0270067889717274E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>9.1455809624705047E-4</c:v>
+                  <c:v>1.0266784226427533E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>9.145521522059036E-4</c:v>
+                  <c:v>1.0267183999611385E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>9.1455844589652965E-4</c:v>
+                  <c:v>1.0268184747614386E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>9.1456613818507277E-4</c:v>
+                  <c:v>1.0262268367502033E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.1451135976666027E-4</c:v>
+                  <c:v>1.0265396855674359E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.1456765333281604E-4</c:v>
+                  <c:v>1.0269590528974712E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.1471287441652219E-4</c:v>
+                  <c:v>1.0275246530500213E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.147044828290207E-4</c:v>
+                  <c:v>1.0281557423622947E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.1495110226170301E-4</c:v>
+                  <c:v>1.0288452196001046E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.153374649362501E-4</c:v>
+                  <c:v>1.0295173382654575E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.1577324473719485E-4</c:v>
+                  <c:v>1.0301155514935325E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.1626671670221223E-4</c:v>
+                  <c:v>1.0305951478098193E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,7 +4467,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4719,169 +4715,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.7813606358617479E-4</c:v>
+                  <c:v>3.6906560650609363E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.8189121028656993E-4</c:v>
+                  <c:v>3.7357279953911977E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.8564635698696507E-4</c:v>
+                  <c:v>3.7807999257214418E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.8940150368736021E-4</c:v>
+                  <c:v>3.8258718560517033E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.9315665038775535E-4</c:v>
+                  <c:v>3.8709437863819647E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9691179708815135E-4</c:v>
+                  <c:v>3.9160157167122261E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.0066694378854649E-4</c:v>
+                  <c:v>3.9610876470424702E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.0442209048894163E-4</c:v>
+                  <c:v>4.0061595773727317E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.0817723718933677E-4</c:v>
+                  <c:v>4.0512315077029931E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.1193238388973191E-4</c:v>
+                  <c:v>4.0963034380332546E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.1568753059012791E-4</c:v>
+                  <c:v>4.1413753683634986E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.1944267729052305E-4</c:v>
+                  <c:v>4.1864472986937601E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2319782399091819E-4</c:v>
+                  <c:v>4.2315192290240215E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.2695297069131333E-4</c:v>
+                  <c:v>4.2765911593542656E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.3070811739170847E-4</c:v>
+                  <c:v>4.3216630896845271E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.344632640921036E-4</c:v>
+                  <c:v>4.3667350200147885E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.3821841079249961E-4</c:v>
+                  <c:v>4.4118069503450499E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.4197355749289475E-4</c:v>
+                  <c:v>4.456878880675294E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.4572870419328989E-4</c:v>
+                  <c:v>4.5019508110055555E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.4948385089368503E-4</c:v>
+                  <c:v>4.5470227413358169E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.5323899759408016E-4</c:v>
+                  <c:v>4.5920946716660783E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.569941442944753E-4</c:v>
+                  <c:v>4.6371666019963224E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.6074929099487131E-4</c:v>
+                  <c:v>4.6822385323265839E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.6450443769526645E-4</c:v>
+                  <c:v>4.7273104626568453E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.6616941125958422E-4</c:v>
+                  <c:v>4.8894774164554196E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.7399299019600609E-4</c:v>
+                  <c:v>4.8894774164554196E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.7625318028902199E-4</c:v>
+                  <c:v>4.9240286762932642E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.7962763511951036E-4</c:v>
+                  <c:v>4.9585023884870984E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.8472425299335046E-4</c:v>
+                  <c:v>4.9875024852121853E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.8856488811023198E-4</c:v>
+                  <c:v>5.018272899043342E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.9188761878420821E-4</c:v>
+                  <c:v>5.0373766416369245E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.9507465640706257E-4</c:v>
+                  <c:v>5.066390880184078E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.9827927013588579E-4</c:v>
+                  <c:v>5.0991211646518261E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.0141938782536798E-4</c:v>
+                  <c:v>5.1327626339366984E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.0473115148176617E-4</c:v>
+                  <c:v>5.1691521314626535E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.0816899974300608E-4</c:v>
+                  <c:v>5.2075410037760446E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.1181801067543291E-4</c:v>
+                  <c:v>5.2535208476499069E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.1566570773780435E-4</c:v>
+                  <c:v>5.2977090620943002E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.1961420160206843E-4</c:v>
+                  <c:v>5.3454572976618399E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.2372057195217224E-4</c:v>
+                  <c:v>5.3940037826505566E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.2782108797571725E-4</c:v>
+                  <c:v>5.4434109269794312E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.3191930033488766E-4</c:v>
+                  <c:v>5.4947146025164869E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.3596468592895642E-4</c:v>
+                  <c:v>5.5468408275070034E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.3988919149325191E-4</c:v>
+                  <c:v>5.5982954155396364E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.4375065803669985E-4</c:v>
+                  <c:v>5.651055366781933E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.4758253135318239E-4</c:v>
+                  <c:v>5.7049849064633434E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.5141485752676429E-4</c:v>
+                  <c:v>5.7612541541712304E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.5528893843752823E-4</c:v>
+                  <c:v>5.8166977983232354E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.5903874617184749E-4</c:v>
+                  <c:v>5.8703254466199587E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.6267984194975651E-4</c:v>
+                  <c:v>5.9249002650275126E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.6625804309603806E-4</c:v>
+                  <c:v>5.979148958411626E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>5.6976670114342325E-4</c:v>
+                  <c:v>6.0325745048005013E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>5.7342146795521316E-4</c:v>
+                  <c:v>6.085097364744201E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>5.770408790975283E-4</c:v>
+                  <c:v>6.1361963490257044E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>5.8064146713606509E-4</c:v>
+                  <c:v>6.1865081716056805E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4967,7 +4963,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5216,169 +5211,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.258175624649735E-5</c:v>
+                  <c:v>9.2499848982648922E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.3548597825973844E-5</c:v>
+                  <c:v>9.3660320724165048E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.4515439405450121E-5</c:v>
+                  <c:v>9.482079246568074E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.5482280984926615E-5</c:v>
+                  <c:v>9.5981264207196866E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.6449122564402893E-5</c:v>
+                  <c:v>9.7141735948712992E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.7415964143879387E-5</c:v>
+                  <c:v>9.8302207690228685E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>9.8382805723355664E-5</c:v>
+                  <c:v>9.9462679431744811E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>9.9349647302832158E-5</c:v>
+                  <c:v>1.006231511732605E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0031648888230865E-4</c:v>
+                  <c:v>1.0178362291477663E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0128333046178493E-4</c:v>
+                  <c:v>1.0294409465629232E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0225017204126142E-4</c:v>
+                  <c:v>1.0410456639780845E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.032170136207377E-4</c:v>
+                  <c:v>1.0526503813932457E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.0418385520021419E-4</c:v>
+                  <c:v>1.0642550988084027E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0515069677969047E-4</c:v>
+                  <c:v>1.0758598162235639E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.0611753835916697E-4</c:v>
+                  <c:v>1.0874645336387208E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.0708437993864324E-4</c:v>
+                  <c:v>1.0990692510538821E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.0805122151811974E-4</c:v>
+                  <c:v>1.110673968469039E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.0901806309759623E-4</c:v>
+                  <c:v>1.1222786858842003E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.0998490467707251E-4</c:v>
+                  <c:v>1.1338834032993615E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.10951746256549E-4</c:v>
+                  <c:v>1.1454881207145185E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1191858783602528E-4</c:v>
+                  <c:v>1.1570928381296797E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.1288542941550177E-4</c:v>
+                  <c:v>1.1686975555448367E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1385227099497805E-4</c:v>
+                  <c:v>1.1803022729599979E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1481911257445455E-4</c:v>
+                  <c:v>1.1919069903751548E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.2002512973417359E-4</c:v>
+                  <c:v>1.2588989047065195E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.2203947485023846E-4</c:v>
+                  <c:v>1.2588989047065195E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.2262140837608938E-4</c:v>
+                  <c:v>1.267794853999527E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.2349023281851067E-4</c:v>
+                  <c:v>1.2766708370188837E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.2480246439513921E-4</c:v>
+                  <c:v>1.2841375224934351E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.2579131676732679E-4</c:v>
+                  <c:v>1.292060013379484E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.2664682373664536E-4</c:v>
+                  <c:v>1.2969786741234555E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.2746739367304943E-4</c:v>
+                  <c:v>1.3044490007078425E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.282924889479853E-4</c:v>
+                  <c:v>1.3128761015527118E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.2910097835968289E-4</c:v>
+                  <c:v>1.3215378061129805E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.2995366163942465E-4</c:v>
+                  <c:v>1.3309070484013427E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.3083880805528838E-4</c:v>
+                  <c:v>1.3407910718238873E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.3177832274670185E-4</c:v>
+                  <c:v>1.3526295506962046E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.3276899336543915E-4</c:v>
+                  <c:v>1.3640067368506529E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.3378561624301569E-4</c:v>
+                  <c:v>1.3763005253965096E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.3484288774582846E-4</c:v>
+                  <c:v>1.3887998400623192E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.3589865192901079E-4</c:v>
+                  <c:v>1.4015207495957123E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.3695382298529812E-4</c:v>
+                  <c:v>1.4147299610185228E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.3799539267868687E-4</c:v>
+                  <c:v>1.428150955116215E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.3900583926338301E-4</c:v>
+                  <c:v>1.4413990221383478E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4000005512492829E-4</c:v>
+                  <c:v>1.4549831824021349E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.409866515871308E-4</c:v>
+                  <c:v>1.4688684778342735E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.4197336464692809E-4</c:v>
+                  <c:v>1.4833561803584159E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4297082834292379E-4</c:v>
+                  <c:v>1.4976313138647074E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.4393629529317647E-4</c:v>
+                  <c:v>1.5114388810037889E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.4487377206141239E-4</c:v>
+                  <c:v>1.5254903170297749E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.4579505528254221E-4</c:v>
+                  <c:v>1.5394577853021879E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.4669843316868957E-4</c:v>
+                  <c:v>1.553213317050008E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.4763942983243028E-4</c:v>
+                  <c:v>1.5667364331672129E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.4857132343468077E-4</c:v>
+                  <c:v>1.5798929425166793E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.494983706325589E-4</c:v>
+                  <c:v>1.5928467805130587E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,7 +5459,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5713,199 +5707,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.952522554130269E-4</c:v>
+                  <c:v>4.1829670106003714E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.9505622007027588E-4</c:v>
+                  <c:v>4.1733940481981967E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>3.9486018472752486E-4</c:v>
+                  <c:v>4.163821085796022E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3.9466414938477384E-4</c:v>
+                  <c:v>4.1542481233938474E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.9446811404202282E-4</c:v>
+                  <c:v>4.1446751609916727E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.942720786992718E-4</c:v>
+                  <c:v>4.135102198589498E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>3.9407604335652078E-4</c:v>
+                  <c:v>4.1255292361873233E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>3.9388000801376976E-4</c:v>
+                  <c:v>4.1159562737851487E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.9368397267101874E-4</c:v>
+                  <c:v>4.106383311382974E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>3.9348793732826772E-4</c:v>
+                  <c:v>4.0968103489807993E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.9329190198551675E-4</c:v>
+                  <c:v>4.0872373865786247E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.9309586664276573E-4</c:v>
+                  <c:v>4.07766442417645E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.9289983130001471E-4</c:v>
+                  <c:v>4.0680914617742753E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.9270379595726369E-4</c:v>
+                  <c:v>4.0585184993721006E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.9250776061451267E-4</c:v>
+                  <c:v>4.0489455369699238E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9231172527176165E-4</c:v>
+                  <c:v>4.0393725745677491E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9211568992901063E-4</c:v>
+                  <c:v>4.0297996121655744E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.9191965458625961E-4</c:v>
+                  <c:v>4.0202266497633998E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.9172361924350859E-4</c:v>
+                  <c:v>4.0106536873612251E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.9152758390075757E-4</c:v>
+                  <c:v>4.0010807249590504E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.9133154855800655E-4</c:v>
+                  <c:v>3.9915077625568758E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.9113551321525553E-4</c:v>
+                  <c:v>3.9819348001547011E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.9093947787250451E-4</c:v>
+                  <c:v>3.9723618377525264E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.9074344252975349E-4</c:v>
+                  <c:v>3.9627888753503517E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.9054740718700247E-4</c:v>
+                  <c:v>3.9532159129481771E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.9035137184425145E-4</c:v>
+                  <c:v>3.9436429505460024E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.9015533650150043E-4</c:v>
+                  <c:v>3.9340699881438277E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.8995930115874941E-4</c:v>
+                  <c:v>3.924497025741653E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8976326581599839E-4</c:v>
+                  <c:v>3.9149240633394762E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8956723047324737E-4</c:v>
+                  <c:v>3.9053511009373015E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8937119513049635E-4</c:v>
+                  <c:v>3.8957781385351269E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8917515978774533E-4</c:v>
+                  <c:v>3.8862051761329522E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8897912444499431E-4</c:v>
+                  <c:v>3.8766322137307775E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8878308910224329E-4</c:v>
+                  <c:v>3.8670592513286028E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8868922094850749E-4</c:v>
+                  <c:v>3.8854771216578971E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8835964956971156E-4</c:v>
+                  <c:v>3.8258341226368855E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8810530909215343E-4</c:v>
+                  <c:v>3.8242214049766438E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8794345419032003E-4</c:v>
+                  <c:v>3.8228038455163064E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8779756085887974E-4</c:v>
+                  <c:v>3.8218410810533679E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8768659775611613E-4</c:v>
+                  <c:v>3.8211457216848514E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8756372155893972E-4</c:v>
+                  <c:v>3.8200426469163777E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8743413448561116E-4</c:v>
+                  <c:v>3.8189581833152308E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8741625203614658E-4</c:v>
+                  <c:v>3.8183411054494749E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.8738694289951122E-4</c:v>
+                  <c:v>3.817880596463697E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8727323156960051E-4</c:v>
+                  <c:v>3.8171848967811172E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.872801832305252E-4</c:v>
+                  <c:v>3.815957033545058E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8723285633958973E-4</c:v>
+                  <c:v>3.8154719842170315E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8719654146009873E-4</c:v>
+                  <c:v>3.8151706680653578E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8712836957078314E-4</c:v>
+                  <c:v>3.8148461516232849E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8710174375942578E-4</c:v>
+                  <c:v>3.8143890029675929E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8701959513390749E-4</c:v>
+                  <c:v>3.8136061348433399E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8693459130790495E-4</c:v>
+                  <c:v>3.8128611338859555E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8684314096127021E-4</c:v>
+                  <c:v>3.8118445087418999E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8675224209457141E-4</c:v>
+                  <c:v>3.8109366744518982E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.8662639724460569E-4</c:v>
+                  <c:v>3.809728174627515E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8650753548999096E-4</c:v>
+                  <c:v>3.8085823235152255E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8637937383671609E-4</c:v>
+                  <c:v>3.8073193315627202E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8623677194928995E-4</c:v>
+                  <c:v>3.8058075386159586E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8608334518532407E-4</c:v>
+                  <c:v>3.8041414660484408E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8590701122559256E-4</c:v>
+                  <c:v>3.8023685995295948E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8573556454320505E-4</c:v>
+                  <c:v>3.8003008428330864E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.8555651429608934E-4</c:v>
+                  <c:v>3.7983159458155041E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.8536129241038667E-4</c:v>
+                  <c:v>3.796309792403681E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.8512787391125356E-4</c:v>
+                  <c:v>3.7940476062466651E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.8487689875144672E-4</c:v>
+                  <c:v>3.7914941421427883E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5992,7 +5986,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6519,7 +6512,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7586,6 +7578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7621,6 +7630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7796,17 +7822,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="107.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8016,7 +8042,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8024,7 +8050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8034,9 +8060,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9054,7 +9080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9064,9 +9090,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9173,127 +9199,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2151306509639E-3</v>
+        <v>1.1859829671600057E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2271977196566914E-3</v>
+        <v>1.2004667176711305E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2392647883494826E-3</v>
+        <v>1.2149504681822497E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.251331857042274E-3</v>
+        <v>1.2294342186933748E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2633989257350654E-3</v>
+        <v>1.2439179692044996E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2754659944278594E-3</v>
+        <v>1.2584017197156245E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2875330631206508E-3</v>
+        <v>1.2728854702267437E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2996001318134423E-3</v>
+        <v>1.2873692207378688E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3116672005062334E-3</v>
+        <v>1.3018529712489936E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3237342691990249E-3</v>
+        <v>1.3163367217601185E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3358013378918191E-3</v>
+        <v>1.3308204722712379E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3478684065846103E-3</v>
+        <v>1.3453042227823627E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3599354752774017E-3</v>
+        <v>1.3597879732934876E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3720025439701931E-3</v>
+        <v>1.3742717238046068E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3840696126629843E-3</v>
+        <v>1.3887554743157319E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3961366813557757E-3</v>
+        <v>1.4032392248268567E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4082037500485699E-3</v>
+        <v>1.4177229753379816E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4202708187413611E-3</v>
+        <v>1.4322067258491008E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4323378874341525E-3</v>
+        <v>1.4466904763602258E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4444049561269439E-3</v>
+        <v>1.4611742268713507E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4564720248197351E-3</v>
+        <v>1.4756579773824755E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4685390935125265E-3</v>
+        <v>1.490141727893595E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4806061622053208E-3</v>
+        <v>1.5046254784047198E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.492673230898112E-3</v>
+        <v>1.5191092289158447E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4980235812240234E-3</v>
+        <v>1.5712211682704963E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5231644537335698E-3</v>
+        <v>1.5712211682704963E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5304275172800137E-3</v>
+        <v>1.5823241279988574E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5412712423030443E-3</v>
+        <v>1.5934021679884732E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5576490945925607E-3</v>
+        <v>1.602721275528064E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5699908781437811E-3</v>
+        <v>1.6126092699802412E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5806683889015623E-3</v>
+        <v>1.6187482092164076E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -9500,127 +9526,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!P6</f>
-        <v>3.7813606358617479E-4</v>
+        <v>3.6906560650609363E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>3.8189121028656993E-4</v>
+        <v>3.7357279953911977E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!R6</f>
-        <v>3.8564635698696507E-4</v>
+        <v>3.7807999257214418E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!S6</f>
-        <v>3.8940150368736021E-4</v>
+        <v>3.8258718560517033E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!T6</f>
-        <v>3.9315665038775535E-4</v>
+        <v>3.8709437863819647E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!U6</f>
-        <v>3.9691179708815135E-4</v>
+        <v>3.9160157167122261E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!V6</f>
-        <v>4.0066694378854649E-4</v>
+        <v>3.9610876470424702E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!W6</f>
-        <v>4.0442209048894163E-4</v>
+        <v>4.0061595773727317E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.0817723718933677E-4</v>
+        <v>4.0512315077029931E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.1193238388973191E-4</v>
+        <v>4.0963034380332546E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.1568753059012791E-4</v>
+        <v>4.1413753683634986E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.1944267729052305E-4</v>
+        <v>4.1864472986937601E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.2319782399091819E-4</v>
+        <v>4.2315192290240215E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.2695297069131333E-4</v>
+        <v>4.2765911593542656E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.3070811739170847E-4</v>
+        <v>4.3216630896845271E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>4.344632640921036E-4</v>
+        <v>4.3667350200147885E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>4.3821841079249961E-4</v>
+        <v>4.4118069503450499E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>4.4197355749289475E-4</v>
+        <v>4.456878880675294E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>4.4572870419328989E-4</v>
+        <v>4.5019508110055555E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>4.4948385089368503E-4</v>
+        <v>4.5470227413358169E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>4.5323899759408016E-4</v>
+        <v>4.5920946716660783E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>4.569941442944753E-4</v>
+        <v>4.6371666019963224E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>4.6074929099487131E-4</v>
+        <v>4.6822385323265839E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>4.6450443769526645E-4</v>
+        <v>4.7273104626568453E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>4.6616941125958422E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AO6</f>
-        <v>4.7399299019600609E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>4.7625318028902199E-4</v>
+        <v>4.9240286762932642E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>4.7962763511951036E-4</v>
+        <v>4.9585023884870984E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>4.8472425299335046E-4</v>
+        <v>4.9875024852121853E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>4.8856488811023198E-4</v>
+        <v>5.018272899043342E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>4.9188761878420821E-4</v>
+        <v>5.0373766416369245E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -9827,127 +9853,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1344081907585242E-3</v>
+        <v>1.1071968195182807E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1456736308597096E-3</v>
+        <v>1.1207183986173591E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.156939070960895E-3</v>
+        <v>1.1342399777164323E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1682045110620804E-3</v>
+        <v>1.1477615568155108E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1794699511632658E-3</v>
+        <v>1.1612831359145892E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1907353912644538E-3</v>
+        <v>1.1748047150136676E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.2020008313656393E-3</v>
+        <v>1.1883262941127409E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2132662714668247E-3</v>
+        <v>1.2018478732118193E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.2245317115680101E-3</v>
+        <v>1.2153694523108977E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2357971516691955E-3</v>
+        <v>1.2288910314099762E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2470625917703835E-3</v>
+        <v>1.2424126105090494E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2583280318715689E-3</v>
+        <v>1.2559341896081278E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2695934719727543E-3</v>
+        <v>1.2694557687072062E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2808589120739398E-3</v>
+        <v>1.2829773478062795E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2921243521751252E-3</v>
+        <v>1.2964989269053579E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3033897922763106E-3</v>
+        <v>1.3100205060044363E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3146552323774986E-3</v>
+        <v>1.3235420851035148E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.325920672478684E-3</v>
+        <v>1.337063664202588E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.3371861125798694E-3</v>
+        <v>1.3505852433016664E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3484515526810549E-3</v>
+        <v>1.3641068224007449E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3597169927822403E-3</v>
+        <v>1.3776284014998233E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3709824328834257E-3</v>
+        <v>1.3911499805988965E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.3822478729846137E-3</v>
+        <v>1.4046715596979749E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.3935133130857991E-3</v>
+        <v>1.4181931387970534E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.3985082337787526E-3</v>
+        <v>1.4668432249366255E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.4219789705880181E-3</v>
+        <v>1.4668432249366255E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4287595408670657E-3</v>
+        <v>1.4772086028879789E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4388829053585308E-3</v>
+        <v>1.4875507165461293E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4541727589800512E-3</v>
+        <v>1.4962507455636553E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.4656946643306957E-3</v>
+        <v>1.5054818697130023E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.4756628563526244E-3</v>
+        <v>1.511212992491077E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -9958,7 +9984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9968,9 +9994,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -10077,127 +10103,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9750912586402818E-4</v>
+        <v>2.9724591894878476E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0061604676098329E-4</v>
+        <v>3.009750654610754E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0372296765793775E-4</v>
+        <v>3.0470421197336468E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0682988855489286E-4</v>
+        <v>3.0843335848565532E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0993680945184726E-4</v>
+        <v>3.1216250499794596E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1304373034880242E-4</v>
+        <v>3.1589165151023525E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1615065124575683E-4</v>
+        <v>3.1962079802252589E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1925757214271193E-4</v>
+        <v>3.2334994453481517E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.223644930396671E-4</v>
+        <v>3.2707909104710581E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.254714139366215E-4</v>
+        <v>3.3080823755939504E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2857833483357661E-4</v>
+        <v>3.3453738407168574E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3168525573053106E-4</v>
+        <v>3.3826653058397638E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3479217662748617E-4</v>
+        <v>3.4199567709626566E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3789909752444063E-4</v>
+        <v>3.457248236085563E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4100601842139574E-4</v>
+        <v>3.4945397012084553E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4411293931835014E-4</v>
+        <v>3.5318311663313622E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4721986021530525E-4</v>
+        <v>3.5691226314542545E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5032678111226041E-4</v>
+        <v>3.6064140965771615E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5343370200921481E-4</v>
+        <v>3.6437055617000679E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5654062290616992E-4</v>
+        <v>3.6809970268229602E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5964754380312438E-4</v>
+        <v>3.7182884919458671E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6275446470007949E-4</v>
+        <v>3.7555799570687594E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6586138559703394E-4</v>
+        <v>3.7928714221916664E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6896830649398905E-4</v>
+        <v>3.8301628873145587E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8569771061435794E-4</v>
+        <v>4.0454397051318511E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9217075756189419E-4</v>
+        <v>4.0454397051318511E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9404078618962861E-4</v>
+        <v>4.0740266125874276E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9683273150232986E-4</v>
+        <v>4.1025493589289636E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0104955439618917E-4</v>
+        <v>4.1265433633494561E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0422720641733706E-4</v>
+        <v>4.1520020869007641E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>4.069763563679482E-4</v>
+        <v>4.1678080784663654E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -10404,127 +10430,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!P7</f>
-        <v>9.258175624649735E-5</v>
+        <v>9.2499848982648922E-5</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>9.3548597825973844E-5</v>
+        <v>9.3660320724165048E-5</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!R7</f>
-        <v>9.4515439405450121E-5</v>
+        <v>9.482079246568074E-5</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!S7</f>
-        <v>9.5482280984926615E-5</v>
+        <v>9.5981264207196866E-5</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!T7</f>
-        <v>9.6449122564402893E-5</v>
+        <v>9.7141735948712992E-5</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!U7</f>
-        <v>9.7415964143879387E-5</v>
+        <v>9.8302207690228685E-5</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!V7</f>
-        <v>9.8382805723355664E-5</v>
+        <v>9.9462679431744811E-5</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!W7</f>
-        <v>9.9349647302832158E-5</v>
+        <v>1.006231511732605E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!X7</f>
-        <v>1.0031648888230865E-4</v>
+        <v>1.0178362291477663E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>1.0128333046178493E-4</v>
+        <v>1.0294409465629232E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>1.0225017204126142E-4</v>
+        <v>1.0410456639780845E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>1.032170136207377E-4</v>
+        <v>1.0526503813932457E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>1.0418385520021419E-4</v>
+        <v>1.0642550988084027E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>1.0515069677969047E-4</v>
+        <v>1.0758598162235639E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>1.0611753835916697E-4</v>
+        <v>1.0874645336387208E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>1.0708437993864324E-4</v>
+        <v>1.0990692510538821E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>1.0805122151811974E-4</v>
+        <v>1.110673968469039E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>1.0901806309759623E-4</v>
+        <v>1.1222786858842003E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>1.0998490467707251E-4</v>
+        <v>1.1338834032993615E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>1.10951746256549E-4</v>
+        <v>1.1454881207145185E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>1.1191858783602528E-4</v>
+        <v>1.1570928381296797E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AK7</f>
-        <v>1.1288542941550177E-4</v>
+        <v>1.1686975555448367E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AL7</f>
-        <v>1.1385227099497805E-4</v>
+        <v>1.1803022729599979E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AM7</f>
-        <v>1.1481911257445455E-4</v>
+        <v>1.1919069903751548E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AN7</f>
-        <v>1.2002512973417359E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AO7</f>
-        <v>1.2203947485023846E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AP7</f>
-        <v>1.2262140837608938E-4</v>
+        <v>1.267794853999527E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AQ7</f>
-        <v>1.2349023281851067E-4</v>
+        <v>1.2766708370188837E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AR7</f>
-        <v>1.2480246439513921E-4</v>
+        <v>1.2841375224934351E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AS7</f>
-        <v>1.2579131676732679E-4</v>
+        <v>1.292060013379484E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AT7</f>
-        <v>1.2664682373664536E-4</v>
+        <v>1.2969786741234555E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -10731,127 +10757,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.7774526873949201E-4</v>
+        <v>2.7749954694794674E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.8064579347792149E-4</v>
+        <v>2.8098096217249512E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.8354631821635032E-4</v>
+        <v>2.8446237739704219E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.8644684295477981E-4</v>
+        <v>2.8794379262159057E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.8934736769320864E-4</v>
+        <v>2.9142520784613895E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.9224789243163812E-4</v>
+        <v>2.9490662307068603E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.9514841717006695E-4</v>
+        <v>2.9838803829523441E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>2.9804894190849643E-4</v>
+        <v>3.0186945351978148E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>3.0094946664692592E-4</v>
+        <v>3.0535086874432986E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>3.0384999138535475E-4</v>
+        <v>3.0883228396887694E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>3.0675051612378423E-4</v>
+        <v>3.1231369919342531E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>3.0965104086221306E-4</v>
+        <v>3.1579511441797369E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>3.1255156560064254E-4</v>
+        <v>3.1927652964252077E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>3.1545209033907138E-4</v>
+        <v>3.2275794486706915E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>3.1835261507750086E-4</v>
+        <v>3.2623936009161622E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>3.2125313981592969E-4</v>
+        <v>3.297207753161646E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>3.2415366455435917E-4</v>
+        <v>3.3320219054071168E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>3.2705418929278865E-4</v>
+        <v>3.3668360576526006E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>3.2995471403121749E-4</v>
+        <v>3.4016502098980844E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>3.3285523876964697E-4</v>
+        <v>3.4364643621435551E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.357557635080758E-4</v>
+        <v>3.4712785143890389E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.3865628824650528E-4</v>
+        <v>3.5060926666345097E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.4155681298493411E-4</v>
+        <v>3.5409068188799935E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.444573377233636E-4</v>
+        <v>3.5757209711254642E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>3.600753892025207E-4</v>
+        <v>3.7766967141195578E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>3.6611842455071535E-4</v>
+        <v>3.7766967141195578E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>3.6786422512826805E-4</v>
+        <v>3.8033845619985803E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>3.7047069845553193E-4</v>
+        <v>3.8300125110566502E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>3.7440739318541754E-4</v>
+        <v>3.8524125674803048E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>3.773739503019803E-4</v>
+        <v>3.8761800401384514E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>3.7994047120993603E-4</v>
+        <v>3.8909360223703658E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -10862,7 +10888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10872,11 +10898,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -10983,127 +11009,127 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!F9</f>
-        <v>1.2701330993401204E-3</v>
+        <v>1.3441858410294183E-3</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.2695031447375632E-3</v>
+        <v>1.3411095938381055E-3</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.2688731901350058E-3</v>
+        <v>1.3380333466467935E-3</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.2682432355324486E-3</v>
+        <v>1.3349570994554815E-3</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.2676132809298914E-3</v>
+        <v>1.3318808522641695E-3</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.2669833263273342E-3</v>
+        <v>1.3288046050728575E-3</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.2663533717247771E-3</v>
+        <v>1.3257283578815456E-3</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.2657234171222199E-3</v>
+        <v>1.3226521106902336E-3</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.2650934625196627E-3</v>
+        <v>1.3195758634989216E-3</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.2644635079171055E-3</v>
+        <v>1.3164996163076087E-3</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.2638335533145483E-3</v>
+        <v>1.3134233691162968E-3</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.2632035987119911E-3</v>
+        <v>1.3103471219249848E-3</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.2625736441094339E-3</v>
+        <v>1.3072708747336728E-3</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.2619436895068767E-3</v>
+        <v>1.3041946275423608E-3</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.2613137349043195E-3</v>
+        <v>1.3011183803510488E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.2606837803017623E-3</v>
+        <v>1.2980421331597368E-3</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.2600538256992051E-3</v>
+        <v>1.2949658859684248E-3</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.2594238710966479E-3</v>
+        <v>1.291889638777112E-3</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.2587939164940907E-3</v>
+        <v>1.2888133915858E-3</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.2581639618915333E-3</v>
+        <v>1.285737144394488E-3</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.2575340072889761E-3</v>
+        <v>1.282660897203176E-3</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.2569040526864189E-3</v>
+        <v>1.2795846500118641E-3</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.2562740980838617E-3</v>
+        <v>1.2765084028205521E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.2556441434813045E-3</v>
+        <v>1.2734321556292401E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.2550141888787473E-3</v>
+        <v>1.2703559084379281E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.2543842342761901E-3</v>
+        <v>1.2672796612466153E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2537542796736329E-3</v>
+        <v>1.2642034140553033E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2531243250710757E-3</v>
+        <v>1.2611271668639913E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2524943704685185E-3</v>
+        <v>1.2580509196726793E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2518644158659613E-3</v>
+        <v>1.2549746724813673E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2512344612634041E-3</v>
+        <v>1.2518984252900553E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -11310,127 +11336,127 @@
       </c>
       <c r="B5" s="36">
         <f>Extrapolations!P6</f>
-        <v>3.7813606358617479E-4</v>
+        <v>3.6906560650609363E-4</v>
       </c>
       <c r="C5" s="36">
         <f>Extrapolations!Q6</f>
-        <v>3.8189121028656993E-4</v>
+        <v>3.7357279953911977E-4</v>
       </c>
       <c r="D5" s="36">
         <f>Extrapolations!R6</f>
-        <v>3.8564635698696507E-4</v>
+        <v>3.7807999257214418E-4</v>
       </c>
       <c r="E5" s="36">
         <f>Extrapolations!S6</f>
-        <v>3.8940150368736021E-4</v>
+        <v>3.8258718560517033E-4</v>
       </c>
       <c r="F5" s="36">
         <f>Extrapolations!T6</f>
-        <v>3.9315665038775535E-4</v>
+        <v>3.8709437863819647E-4</v>
       </c>
       <c r="G5" s="36">
         <f>Extrapolations!U6</f>
-        <v>3.9691179708815135E-4</v>
+        <v>3.9160157167122261E-4</v>
       </c>
       <c r="H5" s="36">
         <f>Extrapolations!V6</f>
-        <v>4.0066694378854649E-4</v>
+        <v>3.9610876470424702E-4</v>
       </c>
       <c r="I5" s="36">
         <f>Extrapolations!W6</f>
-        <v>4.0442209048894163E-4</v>
+        <v>4.0061595773727317E-4</v>
       </c>
       <c r="J5" s="36">
         <f>Extrapolations!X6</f>
-        <v>4.0817723718933677E-4</v>
+        <v>4.0512315077029931E-4</v>
       </c>
       <c r="K5" s="36">
         <f>Extrapolations!Y6</f>
-        <v>4.1193238388973191E-4</v>
+        <v>4.0963034380332546E-4</v>
       </c>
       <c r="L5" s="36">
         <f>Extrapolations!Z6</f>
-        <v>4.1568753059012791E-4</v>
+        <v>4.1413753683634986E-4</v>
       </c>
       <c r="M5" s="36">
         <f>Extrapolations!AA6</f>
-        <v>4.1944267729052305E-4</v>
+        <v>4.1864472986937601E-4</v>
       </c>
       <c r="N5" s="36">
         <f>Extrapolations!AB6</f>
-        <v>4.2319782399091819E-4</v>
+        <v>4.2315192290240215E-4</v>
       </c>
       <c r="O5" s="36">
         <f>Extrapolations!AC6</f>
-        <v>4.2695297069131333E-4</v>
+        <v>4.2765911593542656E-4</v>
       </c>
       <c r="P5" s="36">
         <f>Extrapolations!AD6</f>
-        <v>4.3070811739170847E-4</v>
+        <v>4.3216630896845271E-4</v>
       </c>
       <c r="Q5" s="36">
         <f>Extrapolations!AE6</f>
-        <v>4.344632640921036E-4</v>
+        <v>4.3667350200147885E-4</v>
       </c>
       <c r="R5" s="36">
         <f>Extrapolations!AF6</f>
-        <v>4.3821841079249961E-4</v>
+        <v>4.4118069503450499E-4</v>
       </c>
       <c r="S5" s="36">
         <f>Extrapolations!AG6</f>
-        <v>4.4197355749289475E-4</v>
+        <v>4.456878880675294E-4</v>
       </c>
       <c r="T5" s="36">
         <f>Extrapolations!AH6</f>
-        <v>4.4572870419328989E-4</v>
+        <v>4.5019508110055555E-4</v>
       </c>
       <c r="U5" s="36">
         <f>Extrapolations!AI6</f>
-        <v>4.4948385089368503E-4</v>
+        <v>4.5470227413358169E-4</v>
       </c>
       <c r="V5" s="36">
         <f>Extrapolations!AJ6</f>
-        <v>4.5323899759408016E-4</v>
+        <v>4.5920946716660783E-4</v>
       </c>
       <c r="W5" s="36">
         <f>Extrapolations!AK6</f>
-        <v>4.569941442944753E-4</v>
+        <v>4.6371666019963224E-4</v>
       </c>
       <c r="X5" s="36">
         <f>Extrapolations!AL6</f>
-        <v>4.6074929099487131E-4</v>
+        <v>4.6822385323265839E-4</v>
       </c>
       <c r="Y5" s="36">
         <f>Extrapolations!AM6</f>
-        <v>4.6450443769526645E-4</v>
+        <v>4.7273104626568453E-4</v>
       </c>
       <c r="Z5" s="36">
         <f>Extrapolations!AN6</f>
-        <v>4.6616941125958422E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AA5" s="36">
         <f>Extrapolations!AO6</f>
-        <v>4.7399299019600609E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AB5" s="36">
         <f>Extrapolations!AP6</f>
-        <v>4.7625318028902199E-4</v>
+        <v>4.9240286762932642E-4</v>
       </c>
       <c r="AC5" s="36">
         <f>Extrapolations!AQ6</f>
-        <v>4.7962763511951036E-4</v>
+        <v>4.9585023884870984E-4</v>
       </c>
       <c r="AD5" s="36">
         <f>Extrapolations!AR6</f>
-        <v>4.8472425299335046E-4</v>
+        <v>4.9875024852121853E-4</v>
       </c>
       <c r="AE5" s="36">
         <f>Extrapolations!AS6</f>
-        <v>4.8856488811023198E-4</v>
+        <v>5.018272899043342E-4</v>
       </c>
       <c r="AF5" s="36">
         <f>Extrapolations!AT6</f>
-        <v>4.9188761878420821E-4</v>
+        <v>5.0373766416369245E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -11637,127 +11663,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1344081907585242E-3</v>
+        <v>1.1071968195182807E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1456736308597096E-3</v>
+        <v>1.1207183986173591E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.156939070960895E-3</v>
+        <v>1.1342399777164323E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1682045110620804E-3</v>
+        <v>1.1477615568155108E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1794699511632658E-3</v>
+        <v>1.1612831359145892E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1907353912644538E-3</v>
+        <v>1.1748047150136676E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.2020008313656393E-3</v>
+        <v>1.1883262941127409E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2132662714668247E-3</v>
+        <v>1.2018478732118193E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.2245317115680101E-3</v>
+        <v>1.2153694523108977E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2357971516691955E-3</v>
+        <v>1.2288910314099762E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2470625917703835E-3</v>
+        <v>1.2424126105090494E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2583280318715689E-3</v>
+        <v>1.2559341896081278E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2695934719727543E-3</v>
+        <v>1.2694557687072062E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2808589120739398E-3</v>
+        <v>1.2829773478062795E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2921243521751252E-3</v>
+        <v>1.2964989269053579E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3033897922763106E-3</v>
+        <v>1.3100205060044363E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3146552323774986E-3</v>
+        <v>1.3235420851035148E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.325920672478684E-3</v>
+        <v>1.337063664202588E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.3371861125798694E-3</v>
+        <v>1.3505852433016664E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3484515526810549E-3</v>
+        <v>1.3641068224007449E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3597169927822403E-3</v>
+        <v>1.3776284014998233E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3709824328834257E-3</v>
+        <v>1.3911499805988965E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.3822478729846137E-3</v>
+        <v>1.4046715596979749E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.3935133130857991E-3</v>
+        <v>1.4181931387970534E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.3985082337787526E-3</v>
+        <v>1.4668432249366255E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.4219789705880181E-3</v>
+        <v>1.4668432249366255E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4287595408670657E-3</v>
+        <v>1.4772086028879789E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4388829053585308E-3</v>
+        <v>1.4875507165461293E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4541727589800512E-3</v>
+        <v>1.4962507455636553E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.4656946643306957E-3</v>
+        <v>1.5054818697130023E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.4756628563526244E-3</v>
+        <v>1.511212992491077E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -11802,7 +11828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11812,9 +11838,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -12706,7 +12732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12716,10 +12742,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -13729,7 +13755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13739,9 +13765,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -13848,127 +13874,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5975871779246587E-2</v>
+        <v>1.6756497184521692E-2</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -14175,127 +14201,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!G12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!H12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!I12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!J12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!K12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!L12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!M12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!N12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!O12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!P12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Q12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!R12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!S12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!T12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!U12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!V12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!W12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!X12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!Y12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!Z12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AA12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AB12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AC12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AD12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AE12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AF12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AG12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AH12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AI12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AJ12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AK12</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -14502,127 +14528,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.4914577116879674E-2</v>
+        <v>1.564334472138032E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -14633,7 +14659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14643,9 +14669,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -15663,7 +15689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15673,9 +15699,9 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16492,18 +16518,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AH20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -16680,97 +16706,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>4.010435677007162E-4</v>
+        <v>4.024988144927663E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.1543936179917892E-4</v>
+        <v>4.0796787215023562E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.232456921304615E-4</v>
+        <v>4.4349306088874353E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.284224989356039E-4</v>
+        <v>4.9179385282965761E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>4.3223887309206766E-4</v>
+        <v>5.174051794644127E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3661930301858122E-4</v>
+        <v>5.5498219220506228E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.4073837767711228E-4</v>
+        <v>6.1702942871432137E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.4130433819121803E-4</v>
+        <v>6.1865450301759833E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.4139330713525239E-4</v>
+        <v>6.2042514874960234E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.4143859386227608E-4</v>
+        <v>6.2202007097467485E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.4252278985937798E-4</v>
+        <v>6.2400919656171528E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.4258101673758966E-4</v>
+        <v>6.2648275385172284E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.4262644410952699E-4</v>
+        <v>6.2865303733188277E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.4263525674443374E-4</v>
+        <v>6.3045798981798329E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.428907913418545E-4</v>
+        <v>6.32149872010817E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.4235185104972023E-4</v>
+        <v>6.338211561269702E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.4180682000362565E-4</v>
+        <v>6.3569593171044787E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.415169210975881E-4</v>
+        <v>6.3762434994468471E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.4141525513386555E-4</v>
+        <v>6.394624697168103E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.4094858868260617E-4</v>
+        <v>6.406181007048323E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.406528424788466E-4</v>
+        <v>6.4209464096239596E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.4046477188487546E-4</v>
+        <v>6.4337258070020452E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.4016736396697124E-4</v>
+        <v>6.4434270628615663E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.3991921468742256E-4</v>
+        <v>6.4571601073642603E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.3980677282836695E-4</v>
+        <v>6.4710816023557315E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.3981133028276362E-4</v>
+        <v>6.4804117422294469E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.3960459654073496E-4</v>
+        <v>6.4919973276739693E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.3945697770705547E-4</v>
+        <v>6.4990136461510475E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.3919624527100954E-4</v>
+        <v>6.5029076468089368E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.3913823303573507E-4</v>
+        <v>6.5073794454305572E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.3909651675542918E-4</v>
+        <v>6.5120598543606876E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -16788,97 +16814,97 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.157863591831631E-4</v>
+        <v>1.1797797201017124E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1589922337335911E-4</v>
+        <v>1.1829846623500186E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1538533736033749E-4</v>
+        <v>1.1729428078558663E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1535674989351573E-4</v>
+        <v>1.1719689551672209E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1555682727052541E-4</v>
+        <v>1.1764352168964412E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1619447640903485E-4</v>
+        <v>1.1866120205476883E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1675875263243092E-4</v>
+        <v>1.1959158500672709E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.170886675606406E-4</v>
+        <v>1.2012295075743907E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1617580985063572E-4</v>
+        <v>1.1891477439334622E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.1591329821118029E-4</v>
+        <v>1.184720637798503E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1553838100461461E-4</v>
+        <v>1.1791912239365693E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1496830903628264E-4</v>
+        <v>1.1726854759265854E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.1417779457660161E-4</v>
+        <v>1.163947280800766E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.1321126528769265E-4</v>
+        <v>1.1543036314509163E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.1235905420307894E-4</v>
+        <v>1.1452766973335742E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.113973304748738E-4</v>
+        <v>1.1368570476708297E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.1073582017040977E-4</v>
+        <v>1.1294953379908579E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.099531339020346E-4</v>
+        <v>1.1233567537117923E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0948773622007766E-4</v>
+        <v>1.1173642803062577E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0913516582552083E-4</v>
+        <v>1.1124100972467315E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.0884247723484658E-4</v>
+        <v>1.1075853315322957E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.085933825763662E-4</v>
+        <v>1.1037521243170253E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.083443267474224E-4</v>
+        <v>1.0991848018148144E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0815629409531245E-4</v>
+        <v>1.0966775896786235E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0799885128162017E-4</v>
+        <v>1.0946652790457937E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.078432358858381E-4</v>
+        <v>1.093057513924758E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.0772424981274788E-4</v>
+        <v>1.0925596504686471E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>1.0749204222981193E-4</v>
+        <v>1.0913422478199535E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.0725768900406794E-4</v>
+        <v>1.0902511165204325E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>1.0704107117361582E-4</v>
+        <v>1.088790399619601E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.0682755170917861E-4</v>
+        <v>1.0882419661026466E-4</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -16896,97 +16922,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>9.8533458931645266E-4</v>
+        <v>1.0036699628159823E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>9.988021364476826E-4</v>
+        <v>1.0208853457654701E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0144915989479513E-3</v>
+        <v>1.0363125757886589E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>1.0338641499362739E-3</v>
+        <v>1.0550551388611548E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>1.0578483957153595E-3</v>
+        <v>1.0785940195513571E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.0855563574924357E-3</v>
+        <v>1.1061013871046345E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>1.1154933208321449E-3</v>
+        <v>1.1357533191201131E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.146433059300843E-3</v>
+        <v>1.1663973327510526E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>1.162195430859642E-3</v>
+        <v>1.1820311595601288E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.1852372128907688E-3</v>
+        <v>1.2045176477719092E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.2047747934543398E-3</v>
+        <v>1.2233355994231063E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>1.2221312436297778E-3</v>
+        <v>1.2400654478455125E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.2324377185343545E-3</v>
+        <v>1.2499350960073442E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.2337189023360906E-3</v>
+        <v>1.2512540753321518E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.2346974269358923E-3</v>
+        <v>1.2521553698507089E-3</v>
       </c>
       <c r="S10" s="4">
-        <v>1.2348004129494538E-3</v>
+        <v>1.252074367228913E-3</v>
       </c>
       <c r="T10" s="4">
-        <v>1.2352948717913239E-3</v>
+        <v>1.2523252347546336E-3</v>
       </c>
       <c r="U10" s="4">
-        <v>1.2357035089552255E-3</v>
+        <v>1.2527262378328314E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.2358091719752555E-3</v>
+        <v>1.2526822878954607E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.2356633538581946E-3</v>
+        <v>1.252281766020957E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>1.2356553228387885E-3</v>
+        <v>1.2523305279952656E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.2356638262711007E-3</v>
+        <v>1.2524525933322692E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.2356742193550382E-3</v>
+        <v>1.2517309481927445E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.2356002079997265E-3</v>
+        <v>1.2521125427219578E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>1.2356762664776318E-3</v>
+        <v>1.2526240622485064E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.2358724753046924E-3</v>
+        <v>1.2533139479442377E-3</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.2358611373949426E-3</v>
+        <v>1.2540837134531458E-3</v>
       </c>
       <c r="AE10" s="4">
-        <v>1.236194345964814E-3</v>
+        <v>1.254924697108742E-3</v>
       </c>
       <c r="AF10" s="4">
-        <v>1.2367163622262144E-3</v>
+        <v>1.2557445078018091E-3</v>
       </c>
       <c r="AG10" s="4">
-        <v>1.2373051461783645E-3</v>
+        <v>1.2564741730028979E-3</v>
       </c>
       <c r="AH10" s="4">
-        <v>1.2379718782600448E-3</v>
+        <v>1.2570591562933724E-3</v>
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -17004,97 +17030,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>7.2928093510090471E-4</v>
+        <v>8.228549853855965E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.3924874245474208E-4</v>
+        <v>8.3696895134066358E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>7.508610678592162E-4</v>
+        <v>8.4961690694915356E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>7.6519937715357957E-4</v>
+        <v>8.6498292569483441E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>7.8295096466416878E-4</v>
+        <v>8.8428118711932307E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>8.0345860591986078E-4</v>
+        <v>9.0683299734042682E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>8.2561600996837806E-4</v>
+        <v>9.3114302054446375E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>8.4851560331147032E-4</v>
+        <v>9.5626639807157017E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>8.6018189128557194E-4</v>
+        <v>9.6908373126585042E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>8.7723592808510082E-4</v>
+        <v>9.875191927366351E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>8.9169638159754131E-4</v>
+        <v>1.002947018520609E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>9.0454250346438524E-4</v>
+        <v>1.0166629208482015E-3</v>
       </c>
       <c r="P11" s="4">
-        <v>9.1217068960288046E-4</v>
+        <v>1.02475451419546E-3</v>
       </c>
       <c r="Q11" s="4">
-        <v>9.1311893899054719E-4</v>
+        <v>1.0258358743569153E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>9.1384317961185513E-4</v>
+        <v>1.0265747972253597E-3</v>
       </c>
       <c r="S11" s="4">
-        <v>9.1391940319832696E-4</v>
+        <v>1.0265083875352788E-3</v>
       </c>
       <c r="T11" s="4">
-        <v>9.1428536965325259E-4</v>
+        <v>1.0267140603180244E-3</v>
       </c>
       <c r="U11" s="4">
-        <v>9.1458781645278495E-4</v>
+        <v>1.0270428211600088E-3</v>
       </c>
       <c r="V11" s="4">
-        <v>9.1466602138630556E-4</v>
+        <v>1.0270067889717274E-3</v>
       </c>
       <c r="W11" s="4">
-        <v>9.1455809624705047E-4</v>
+        <v>1.0266784226427533E-3</v>
       </c>
       <c r="X11" s="4">
-        <v>9.145521522059036E-4</v>
+        <v>1.0267183999611385E-3</v>
       </c>
       <c r="Y11" s="4">
-        <v>9.1455844589652965E-4</v>
+        <v>1.0268184747614386E-3</v>
       </c>
       <c r="Z11" s="4">
-        <v>9.1456613818507277E-4</v>
+        <v>1.0262268367502033E-3</v>
       </c>
       <c r="AA11" s="4">
-        <v>9.1451135976666027E-4</v>
+        <v>1.0265396855674359E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>9.1456765333281604E-4</v>
+        <v>1.0269590528974712E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.1471287441652219E-4</v>
+        <v>1.0275246530500213E-3</v>
       </c>
       <c r="AD11" s="4">
-        <v>9.147044828290207E-4</v>
+        <v>1.0281557423622947E-3</v>
       </c>
       <c r="AE11" s="4">
-        <v>9.1495110226170301E-4</v>
+        <v>1.0288452196001046E-3</v>
       </c>
       <c r="AF11" s="4">
-        <v>9.153374649362501E-4</v>
+        <v>1.0295173382654575E-3</v>
       </c>
       <c r="AG11" s="4">
-        <v>9.1577324473719485E-4</v>
+        <v>1.0301155514935325E-3</v>
       </c>
       <c r="AH11" s="4">
-        <v>9.1626671670221223E-4</v>
+        <v>1.0305951478098193E-3</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -17112,97 +17138,97 @@
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <v>4.6616941125958422E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>4.7399299019600609E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>4.7625318028902199E-4</v>
+        <v>4.9240286762932642E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>4.7962763511951036E-4</v>
+        <v>4.9585023884870984E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>4.8472425299335046E-4</v>
+        <v>4.9875024852121853E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>4.8856488811023198E-4</v>
+        <v>5.018272899043342E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>4.9188761878420821E-4</v>
+        <v>5.0373766416369245E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>4.9507465640706257E-4</v>
+        <v>5.066390880184078E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>4.9827927013588579E-4</v>
+        <v>5.0991211646518261E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.0141938782536798E-4</v>
+        <v>5.1327626339366984E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.0473115148176617E-4</v>
+        <v>5.1691521314626535E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>5.0816899974300608E-4</v>
+        <v>5.2075410037760446E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>5.1181801067543291E-4</v>
+        <v>5.2535208476499069E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>5.1566570773780435E-4</v>
+        <v>5.2977090620943002E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>5.1961420160206843E-4</v>
+        <v>5.3454572976618399E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>5.2372057195217224E-4</v>
+        <v>5.3940037826505566E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>5.2782108797571725E-4</v>
+        <v>5.4434109269794312E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>5.3191930033488766E-4</v>
+        <v>5.4947146025164869E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>5.3596468592895642E-4</v>
+        <v>5.5468408275070034E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>5.3988919149325191E-4</v>
+        <v>5.5982954155396364E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>5.4375065803669985E-4</v>
+        <v>5.651055366781933E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>5.4758253135318239E-4</v>
+        <v>5.7049849064633434E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>5.5141485752676429E-4</v>
+        <v>5.7612541541712304E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>5.5528893843752823E-4</v>
+        <v>5.8166977983232354E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>5.5903874617184749E-4</v>
+        <v>5.8703254466199587E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>5.6267984194975651E-4</v>
+        <v>5.9249002650275126E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>5.6625804309603806E-4</v>
+        <v>5.979148958411626E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>5.6976670114342325E-4</v>
+        <v>6.0325745048005013E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>5.7342146795521316E-4</v>
+        <v>6.085097364744201E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>5.770408790975283E-4</v>
+        <v>6.1361963490257044E-4</v>
       </c>
       <c r="AH12" s="4">
-        <v>5.8064146713606509E-4</v>
+        <v>6.1865081716056805E-4</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -17220,97 +17246,97 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>1.2002512973417359E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="E13" s="4">
-        <v>1.2203947485023846E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="F13" s="4">
-        <v>1.2262140837608938E-4</v>
+        <v>1.267794853999527E-4</v>
       </c>
       <c r="G13" s="4">
-        <v>1.2349023281851067E-4</v>
+        <v>1.2766708370188837E-4</v>
       </c>
       <c r="H13" s="4">
-        <v>1.2480246439513921E-4</v>
+        <v>1.2841375224934351E-4</v>
       </c>
       <c r="I13" s="4">
-        <v>1.2579131676732679E-4</v>
+        <v>1.292060013379484E-4</v>
       </c>
       <c r="J13" s="4">
-        <v>1.2664682373664536E-4</v>
+        <v>1.2969786741234555E-4</v>
       </c>
       <c r="K13" s="4">
-        <v>1.2746739367304943E-4</v>
+        <v>1.3044490007078425E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>1.282924889479853E-4</v>
+        <v>1.3128761015527118E-4</v>
       </c>
       <c r="M13" s="4">
-        <v>1.2910097835968289E-4</v>
+        <v>1.3215378061129805E-4</v>
       </c>
       <c r="N13" s="4">
-        <v>1.2995366163942465E-4</v>
+        <v>1.3309070484013427E-4</v>
       </c>
       <c r="O13" s="4">
-        <v>1.3083880805528838E-4</v>
+        <v>1.3407910718238873E-4</v>
       </c>
       <c r="P13" s="4">
-        <v>1.3177832274670185E-4</v>
+        <v>1.3526295506962046E-4</v>
       </c>
       <c r="Q13" s="4">
-        <v>1.3276899336543915E-4</v>
+        <v>1.3640067368506529E-4</v>
       </c>
       <c r="R13" s="4">
-        <v>1.3378561624301569E-4</v>
+        <v>1.3763005253965096E-4</v>
       </c>
       <c r="S13" s="4">
-        <v>1.3484288774582846E-4</v>
+        <v>1.3887998400623192E-4</v>
       </c>
       <c r="T13" s="4">
-        <v>1.3589865192901079E-4</v>
+        <v>1.4015207495957123E-4</v>
       </c>
       <c r="U13" s="4">
-        <v>1.3695382298529812E-4</v>
+        <v>1.4147299610185228E-4</v>
       </c>
       <c r="V13" s="4">
-        <v>1.3799539267868687E-4</v>
+        <v>1.428150955116215E-4</v>
       </c>
       <c r="W13" s="4">
-        <v>1.3900583926338301E-4</v>
+        <v>1.4413990221383478E-4</v>
       </c>
       <c r="X13" s="4">
-        <v>1.4000005512492829E-4</v>
+        <v>1.4549831824021349E-4</v>
       </c>
       <c r="Y13" s="4">
-        <v>1.409866515871308E-4</v>
+        <v>1.4688684778342735E-4</v>
       </c>
       <c r="Z13" s="4">
-        <v>1.4197336464692809E-4</v>
+        <v>1.4833561803584159E-4</v>
       </c>
       <c r="AA13" s="4">
-        <v>1.4297082834292379E-4</v>
+        <v>1.4976313138647074E-4</v>
       </c>
       <c r="AB13" s="4">
-        <v>1.4393629529317647E-4</v>
+        <v>1.5114388810037889E-4</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.4487377206141239E-4</v>
+        <v>1.5254903170297749E-4</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.4579505528254221E-4</v>
+        <v>1.5394577853021879E-4</v>
       </c>
       <c r="AE13" s="4">
-        <v>1.4669843316868957E-4</v>
+        <v>1.553213317050008E-4</v>
       </c>
       <c r="AF13" s="4">
-        <v>1.4763942983243028E-4</v>
+        <v>1.5667364331672129E-4</v>
       </c>
       <c r="AG13" s="4">
-        <v>1.4857132343468077E-4</v>
+        <v>1.5798929425166793E-4</v>
       </c>
       <c r="AH13" s="4">
-        <v>1.494983706325589E-4</v>
+        <v>1.5928467805130587E-4</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -17328,97 +17354,97 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8868922094850749E-4</v>
+        <v>3.8854771216578971E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>3.8835964956971156E-4</v>
+        <v>3.8258341226368855E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>3.8810530909215343E-4</v>
+        <v>3.8242214049766438E-4</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8794345419032003E-4</v>
+        <v>3.8228038455163064E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>3.8779756085887974E-4</v>
+        <v>3.8218410810533679E-4</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8768659775611613E-4</v>
+        <v>3.8211457216848514E-4</v>
       </c>
       <c r="J14" s="4">
-        <v>3.8756372155893972E-4</v>
+        <v>3.8200426469163777E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>3.8743413448561116E-4</v>
+        <v>3.8189581833152308E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>3.8741625203614658E-4</v>
+        <v>3.8183411054494749E-4</v>
       </c>
       <c r="M14" s="4">
-        <v>3.8738694289951122E-4</v>
+        <v>3.817880596463697E-4</v>
       </c>
       <c r="N14" s="4">
-        <v>3.8727323156960051E-4</v>
+        <v>3.8171848967811172E-4</v>
       </c>
       <c r="O14" s="4">
-        <v>3.872801832305252E-4</v>
+        <v>3.815957033545058E-4</v>
       </c>
       <c r="P14" s="4">
-        <v>3.8723285633958973E-4</v>
+        <v>3.8154719842170315E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.8719654146009873E-4</v>
+        <v>3.8151706680653578E-4</v>
       </c>
       <c r="R14" s="4">
-        <v>3.8712836957078314E-4</v>
+        <v>3.8148461516232849E-4</v>
       </c>
       <c r="S14" s="4">
-        <v>3.8710174375942578E-4</v>
+        <v>3.8143890029675929E-4</v>
       </c>
       <c r="T14" s="4">
-        <v>3.8701959513390749E-4</v>
+        <v>3.8136061348433399E-4</v>
       </c>
       <c r="U14" s="4">
-        <v>3.8693459130790495E-4</v>
+        <v>3.8128611338859555E-4</v>
       </c>
       <c r="V14" s="4">
-        <v>3.8684314096127021E-4</v>
+        <v>3.8118445087418999E-4</v>
       </c>
       <c r="W14" s="4">
-        <v>3.8675224209457141E-4</v>
+        <v>3.8109366744518982E-4</v>
       </c>
       <c r="X14" s="4">
-        <v>3.8662639724460569E-4</v>
+        <v>3.809728174627515E-4</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.8650753548999096E-4</v>
+        <v>3.8085823235152255E-4</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.8637937383671609E-4</v>
+        <v>3.8073193315627202E-4</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.8623677194928995E-4</v>
+        <v>3.8058075386159586E-4</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.8608334518532407E-4</v>
+        <v>3.8041414660484408E-4</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.8590701122559256E-4</v>
+        <v>3.8023685995295948E-4</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.8573556454320505E-4</v>
+        <v>3.8003008428330864E-4</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.8555651429608934E-4</v>
+        <v>3.7983159458155041E-4</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.8536129241038667E-4</v>
+        <v>3.796309792403681E-4</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.8512787391125356E-4</v>
+        <v>3.7940476062466651E-4</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.8487689875144672E-4</v>
+        <v>3.7914941421427883E-4</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -17436,97 +17462,97 @@
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.2490429545241593E-3</v>
+        <v>1.2485882196394983E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>1.2479838852561889E-3</v>
+        <v>1.2294220931562134E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>1.2471665685815224E-3</v>
+        <v>1.2289038504258785E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>1.2466464519590526E-3</v>
+        <v>1.2284483212881695E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>1.2461776274382624E-3</v>
+        <v>1.2281389393695341E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>1.2458210503215087E-3</v>
+        <v>1.2279154873998631E-3</v>
       </c>
       <c r="J15" s="4">
-        <v>1.2454261907779705E-3</v>
+        <v>1.2275610171203651E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>1.2450097660041024E-3</v>
+        <v>1.2272125274922902E-3</v>
       </c>
       <c r="L15" s="4">
-        <v>1.2449523012062393E-3</v>
+        <v>1.2270142310850131E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>1.2448581170389291E-3</v>
+        <v>1.2268662476902642E-3</v>
       </c>
       <c r="N15" s="4">
-        <v>1.244492708563932E-3</v>
+        <v>1.2266426863615321E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>1.2445150475500222E-3</v>
+        <v>1.2262481156244335E-3</v>
       </c>
       <c r="P15" s="4">
-        <v>1.244362963786191E-3</v>
+        <v>1.2260922462529371E-3</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.2442462668418766E-3</v>
+        <v>1.2259954190717215E-3</v>
       </c>
       <c r="R15" s="4">
-        <v>1.2440271982043711E-3</v>
+        <v>1.2258911365360214E-3</v>
       </c>
       <c r="S15" s="4">
-        <v>1.2439416368347936E-3</v>
+        <v>1.2257442329748247E-3</v>
       </c>
       <c r="T15" s="4">
-        <v>1.2436776543099449E-3</v>
+        <v>1.2254926602884161E-3</v>
       </c>
       <c r="U15" s="4">
-        <v>1.2434044966707469E-3</v>
+        <v>1.2252532561200515E-3</v>
       </c>
       <c r="V15" s="4">
-        <v>1.2431106233009778E-3</v>
+        <v>1.2249265662081276E-3</v>
       </c>
       <c r="W15" s="4">
-        <v>1.242818522097998E-3</v>
+        <v>1.2246348359612647E-3</v>
       </c>
       <c r="X15" s="4">
-        <v>1.2424141228640053E-3</v>
+        <v>1.2242464876074037E-3</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.2420321636298346E-3</v>
+        <v>1.2238782712582989E-3</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.241620319407161E-3</v>
+        <v>1.2234724119972555E-3</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.2411620718582406E-3</v>
+        <v>1.2229866011676566E-3</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.240669038843074E-3</v>
+        <v>1.2224512129731741E-3</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.2401023941352315E-3</v>
+        <v>1.2218815068132573E-3</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.2395514545691941E-3</v>
+        <v>1.2212170384425776E-3</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.2389760811407262E-3</v>
+        <v>1.2205791968195919E-3</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.2383487405617649E-3</v>
+        <v>1.2199345245082229E-3</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.2375986561341948E-3</v>
+        <v>1.219207576723474E-3</v>
       </c>
       <c r="AH15" s="4">
-        <v>1.236792153822779E-3</v>
+        <v>1.2183870275091699E-3</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
@@ -17760,97 +17786,97 @@
         <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="F18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="G18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="H18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="J18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="K18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="L18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="M18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="N18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="O18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="P18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="Q18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="R18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="S18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="T18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="U18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="V18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="W18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="X18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="Y18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="Z18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AA18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AB18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AC18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AD18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AE18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AF18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AG18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AH18" s="4">
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -18177,97 +18203,97 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.3016014821008825E-3</v>
+        <v>1.3021255715454198E-3</v>
       </c>
       <c r="C24">
-        <v>1.2926576980307788E-3</v>
+        <v>1.169954325310255E-3</v>
       </c>
       <c r="D24">
-        <v>1.2869318658566659E-3</v>
+        <v>1.1695874511106845E-3</v>
       </c>
       <c r="E24">
-        <v>1.2796983920849219E-3</v>
+        <v>1.1714444581553184E-3</v>
       </c>
       <c r="F24">
-        <v>1.2723109001949813E-3</v>
+        <v>1.1736056881641785E-3</v>
       </c>
       <c r="G24">
-        <v>1.2688722771223024E-3</v>
+        <v>1.1766438005710728E-3</v>
       </c>
       <c r="H24">
-        <v>1.265614096179496E-3</v>
+        <v>1.1818156289396381E-3</v>
       </c>
       <c r="I24">
-        <v>1.2602292006612041E-3</v>
+        <v>1.1775714637687652E-3</v>
       </c>
       <c r="J24">
-        <v>1.2562225179555552E-3</v>
+        <v>1.1741333102543584E-3</v>
       </c>
       <c r="K24">
-        <v>1.252664288663584E-3</v>
+        <v>1.1713843881320219E-3</v>
       </c>
       <c r="L24">
-        <v>1.2501277882015535E-3</v>
+        <v>1.1704182283066226E-3</v>
       </c>
       <c r="M24">
-        <v>1.2487082688849278E-3</v>
+        <v>1.1704199505647207E-3</v>
       </c>
       <c r="N24">
-        <v>1.2467654435390108E-3</v>
+        <v>1.170352842091237E-3</v>
       </c>
       <c r="O24">
-        <v>1.2459379766549955E-3</v>
+        <v>1.170240909437252E-3</v>
       </c>
       <c r="P24">
-        <v>1.2454911060033728E-3</v>
+        <v>1.1702111206802388E-3</v>
       </c>
       <c r="Q24">
-        <v>1.2451425075326549E-3</v>
+        <v>1.1701450745346985E-3</v>
       </c>
       <c r="R24">
-        <v>1.2441678168462235E-3</v>
+        <v>1.1700329362944644E-3</v>
       </c>
       <c r="S24">
-        <v>1.2437110831363233E-3</v>
+        <v>1.1699666622531036E-3</v>
       </c>
       <c r="T24">
-        <v>1.2434472289246487E-3</v>
+        <v>1.1699887022922578E-3</v>
       </c>
       <c r="U24">
-        <v>1.2431449346539255E-3</v>
+        <v>1.1697622226802106E-3</v>
       </c>
       <c r="V24">
-        <v>1.242749474488683E-3</v>
+        <v>1.1695911768768372E-3</v>
       </c>
       <c r="W24">
-        <v>1.2426414751633898E-3</v>
+        <v>1.1694515951262876E-3</v>
       </c>
       <c r="X24">
-        <v>1.2425270452057901E-3</v>
+        <v>1.1691752159346577E-3</v>
       </c>
       <c r="Y24">
-        <v>1.2423665768196443E-3</v>
+        <v>1.1690933199149677E-3</v>
       </c>
       <c r="Z24">
-        <v>1.2423661582493899E-3</v>
+        <v>1.1691104222233107E-3</v>
       </c>
       <c r="AA24">
-        <v>1.2424552878090294E-3</v>
+        <v>1.1689665413356766E-3</v>
       </c>
       <c r="AB24">
-        <v>1.2425304264301077E-3</v>
+        <v>1.1689157693136809E-3</v>
       </c>
       <c r="AC24">
-        <v>1.2424094170501326E-3</v>
+        <v>1.1686919708634384E-3</v>
       </c>
       <c r="AD24">
-        <v>1.2423079259541866E-3</v>
+        <v>1.1682544032094976E-3</v>
       </c>
       <c r="AE24">
-        <v>1.2421595174498235E-3</v>
+        <v>1.1678041756422416E-3</v>
       </c>
       <c r="AF24">
-        <v>1.242184730573649E-3</v>
+        <v>1.1673854075017747E-3</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -18275,97 +18301,97 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.8029529805498928E-4</v>
+        <v>3.8169021509677347E-4</v>
       </c>
       <c r="C25">
-        <v>3.9476635103339935E-4</v>
+        <v>3.8687653048079967E-4</v>
       </c>
       <c r="D25">
-        <v>4.0317709826518853E-4</v>
+        <v>4.2056511897525903E-4</v>
       </c>
       <c r="E25">
-        <v>4.0861194678683542E-4</v>
+        <v>4.663688306917896E-4</v>
       </c>
       <c r="F25">
-        <v>4.1215478728194431E-4</v>
+        <v>4.9065608923801098E-4</v>
       </c>
       <c r="G25">
-        <v>4.161380472574127E-4</v>
+        <v>5.2629042543785205E-4</v>
       </c>
       <c r="H25">
-        <v>4.1864713672164384E-4</v>
+        <v>5.8512991066521824E-4</v>
       </c>
       <c r="I25">
-        <v>4.1871977044755321E-4</v>
+        <v>5.8667097100634658E-4</v>
       </c>
       <c r="J25">
-        <v>4.1845993448607482E-4</v>
+        <v>5.8835007694647346E-4</v>
       </c>
       <c r="K25">
-        <v>4.1824574080425933E-4</v>
+        <v>5.898625440276939E-4</v>
       </c>
       <c r="L25">
-        <v>4.1892239620751885E-4</v>
+        <v>5.9174883473423606E-4</v>
       </c>
       <c r="M25">
-        <v>4.1874050147763098E-4</v>
+        <v>5.9409451273397624E-4</v>
       </c>
       <c r="N25">
-        <v>4.1850498686080801E-4</v>
+        <v>5.9615259573580365E-4</v>
       </c>
       <c r="O25">
-        <v>4.1826480772119918E-4</v>
+        <v>5.9786423482106985E-4</v>
       </c>
       <c r="P25">
-        <v>4.1829175912415644E-4</v>
+        <v>5.9946864918168088E-4</v>
       </c>
       <c r="Q25">
-        <v>4.1761857347733379E-4</v>
+        <v>6.0105353035601729E-4</v>
       </c>
       <c r="R25">
-        <v>4.1687945245925354E-4</v>
+        <v>6.028313827867569E-4</v>
       </c>
       <c r="S25">
-        <v>4.164113300533476E-4</v>
+        <v>6.0466010462175161E-4</v>
       </c>
       <c r="T25">
-        <v>4.1613449901969674E-4</v>
+        <v>6.0640319629291697E-4</v>
       </c>
       <c r="U25">
-        <v>4.1551323434343832E-4</v>
+        <v>6.0749908285085991E-4</v>
       </c>
       <c r="V25">
-        <v>4.1503634236097445E-4</v>
+        <v>6.0889928813896428E-4</v>
       </c>
       <c r="W25">
-        <v>4.1461933319641856E-4</v>
+        <v>6.101111602634067E-4</v>
       </c>
       <c r="X25">
-        <v>4.1413077690561246E-4</v>
+        <v>6.1103113177696147E-4</v>
       </c>
       <c r="Y25">
-        <v>4.1366186353318095E-4</v>
+        <v>6.1233343839785747E-4</v>
       </c>
       <c r="Z25">
-        <v>4.1331258589589651E-4</v>
+        <v>6.1365361580619578E-4</v>
       </c>
       <c r="AA25">
-        <v>4.1306480490411649E-4</v>
+        <v>6.1453839433648022E-4</v>
       </c>
       <c r="AB25">
-        <v>4.1264228513673742E-4</v>
+        <v>6.1563705710047229E-4</v>
       </c>
       <c r="AC25">
-        <v>4.1222664654626295E-4</v>
+        <v>6.1630241560893864E-4</v>
       </c>
       <c r="AD25">
-        <v>4.1170488758498282E-4</v>
+        <v>6.1667168426146114E-4</v>
       </c>
       <c r="AE25">
-        <v>4.1134544874802168E-4</v>
+        <v>6.1709574557948196E-4</v>
       </c>
       <c r="AF25">
-        <v>4.1101089728435994E-4</v>
+        <v>6.1753958944360196E-4</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -18373,97 +18399,97 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>4.010435677007162E-4</v>
+        <v>4.024988144927663E-4</v>
       </c>
       <c r="C26">
-        <v>4.1543936179917892E-4</v>
+        <v>4.0796787215023562E-4</v>
       </c>
       <c r="D26">
-        <v>4.232456921304615E-4</v>
+        <v>4.4349306088874353E-4</v>
       </c>
       <c r="E26">
-        <v>4.284224989356039E-4</v>
+        <v>4.9179385282965761E-4</v>
       </c>
       <c r="F26">
-        <v>4.3223887309206766E-4</v>
+        <v>5.174051794644127E-4</v>
       </c>
       <c r="G26">
-        <v>4.3661930301858122E-4</v>
+        <v>5.5498219220506228E-4</v>
       </c>
       <c r="H26">
-        <v>4.4073837767711228E-4</v>
+        <v>6.1702942871432137E-4</v>
       </c>
       <c r="I26">
-        <v>4.4130433819121803E-4</v>
+        <v>6.1865450301759833E-4</v>
       </c>
       <c r="J26">
-        <v>4.4139330713525239E-4</v>
+        <v>6.2042514874960234E-4</v>
       </c>
       <c r="K26">
-        <v>4.4143859386227608E-4</v>
+        <v>6.2202007097467485E-4</v>
       </c>
       <c r="L26">
-        <v>4.4252278985937798E-4</v>
+        <v>6.2400919656171528E-4</v>
       </c>
       <c r="M26">
-        <v>4.4258101673758966E-4</v>
+        <v>6.2648275385172284E-4</v>
       </c>
       <c r="N26">
-        <v>4.4262644410952699E-4</v>
+        <v>6.2865303733188277E-4</v>
       </c>
       <c r="O26">
-        <v>4.4263525674443374E-4</v>
+        <v>6.3045798981798329E-4</v>
       </c>
       <c r="P26">
-        <v>4.428907913418545E-4</v>
+        <v>6.32149872010817E-4</v>
       </c>
       <c r="Q26">
-        <v>4.4235185104972023E-4</v>
+        <v>6.338211561269702E-4</v>
       </c>
       <c r="R26">
-        <v>4.4180682000362565E-4</v>
+        <v>6.3569593171044787E-4</v>
       </c>
       <c r="S26">
-        <v>4.415169210975881E-4</v>
+        <v>6.3762434994468471E-4</v>
       </c>
       <c r="T26">
-        <v>4.4141525513386555E-4</v>
+        <v>6.394624697168103E-4</v>
       </c>
       <c r="U26">
-        <v>4.4094858868260617E-4</v>
+        <v>6.406181007048323E-4</v>
       </c>
       <c r="V26">
-        <v>4.406528424788466E-4</v>
+        <v>6.4209464096239596E-4</v>
       </c>
       <c r="W26">
-        <v>4.4046477188487546E-4</v>
+        <v>6.4337258070020452E-4</v>
       </c>
       <c r="X26">
-        <v>4.4016736396697124E-4</v>
+        <v>6.4434270628615663E-4</v>
       </c>
       <c r="Y26">
-        <v>4.3991921468742256E-4</v>
+        <v>6.4571601073642603E-4</v>
       </c>
       <c r="Z26">
-        <v>4.3980677282836695E-4</v>
+        <v>6.4710816023557315E-4</v>
       </c>
       <c r="AA26">
-        <v>4.3981133028276362E-4</v>
+        <v>6.4804117422294469E-4</v>
       </c>
       <c r="AB26">
-        <v>4.3960459654073496E-4</v>
+        <v>6.4919973276739693E-4</v>
       </c>
       <c r="AC26">
-        <v>4.3945697770705547E-4</v>
+        <v>6.4990136461510475E-4</v>
       </c>
       <c r="AD26">
-        <v>4.3919624527100954E-4</v>
+        <v>6.5029076468089368E-4</v>
       </c>
       <c r="AE26">
-        <v>4.3913823303573507E-4</v>
+        <v>6.5073794454305572E-4</v>
       </c>
       <c r="AF26">
-        <v>4.3909651675542918E-4</v>
+        <v>6.5120598543606876E-4</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -18471,97 +18497,97 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>4.2164836790723349E-4</v>
+        <v>3.6956326213252077E-4</v>
       </c>
       <c r="C27">
-        <v>4.3038372468941308E-4</v>
+        <v>3.7458479937911441E-4</v>
       </c>
       <c r="D27">
-        <v>4.3420465633630295E-4</v>
+        <v>4.0720304362070684E-4</v>
       </c>
       <c r="E27">
-        <v>4.3755646869858035E-4</v>
+        <v>4.5155149283480803E-4</v>
       </c>
       <c r="F27">
-        <v>4.3967943886681334E-4</v>
+        <v>4.7506710350961095E-4</v>
       </c>
       <c r="G27">
-        <v>4.4460624002269991E-4</v>
+        <v>5.0956927571384561E-4</v>
       </c>
       <c r="H27">
-        <v>4.4496012049244393E-4</v>
+        <v>5.6653932955007117E-4</v>
       </c>
       <c r="I27">
-        <v>4.4386794465270786E-4</v>
+        <v>5.6803142776030719E-4</v>
       </c>
       <c r="J27">
-        <v>4.4337540076502162E-4</v>
+        <v>5.6965718562402927E-4</v>
       </c>
       <c r="K27">
-        <v>4.4271108702653624E-4</v>
+        <v>5.7112159903127929E-4</v>
       </c>
       <c r="L27">
-        <v>4.4204868011526002E-4</v>
+        <v>5.7294795904593997E-4</v>
       </c>
       <c r="M27">
-        <v>4.4134700384785902E-4</v>
+        <v>5.7521911083136543E-4</v>
       </c>
       <c r="N27">
-        <v>4.4074150219218516E-4</v>
+        <v>5.7721180500536185E-4</v>
       </c>
       <c r="O27">
-        <v>4.4004989920049426E-4</v>
+        <v>5.7886906238038827E-4</v>
       </c>
       <c r="P27">
-        <v>4.3959873902550526E-4</v>
+        <v>5.8042250174421728E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3896791873294087E-4</v>
+        <v>5.8195702852461087E-4</v>
       </c>
       <c r="R27">
-        <v>4.3853822206515422E-4</v>
+        <v>5.8367839553352869E-4</v>
       </c>
       <c r="S27">
-        <v>4.380679289602619E-4</v>
+        <v>5.8544901573845658E-4</v>
       </c>
       <c r="T27">
-        <v>4.3761382373608021E-4</v>
+        <v>5.8713672639676775E-4</v>
       </c>
       <c r="U27">
-        <v>4.3728428606956427E-4</v>
+        <v>5.8819779475865358E-4</v>
       </c>
       <c r="V27">
-        <v>4.3676208341619235E-4</v>
+        <v>5.8955351312255208E-4</v>
       </c>
       <c r="W27">
-        <v>4.3641079058356913E-4</v>
+        <v>5.9072688199050382E-4</v>
       </c>
       <c r="X27">
-        <v>4.3601813064876686E-4</v>
+        <v>5.9161762443076297E-4</v>
       </c>
       <c r="Y27">
-        <v>4.3568341275915397E-4</v>
+        <v>5.9287855453606585E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3535955435881782E-4</v>
+        <v>5.941567876432349E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3509879831850481E-4</v>
+        <v>5.9501345524167956E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3470212020737582E-4</v>
+        <v>5.9607721160478554E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3438066023618842E-4</v>
+        <v>5.9672143053194357E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3404466716966903E-4</v>
+        <v>5.9707896688585547E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3370047683290603E-4</v>
+        <v>5.9748955504827978E-4</v>
       </c>
       <c r="AF27">
-        <v>4.3334687418764364E-4</v>
+        <v>5.9791929723137496E-4</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -18569,97 +18595,97 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.5738318568648571E-4</v>
+        <v>6.6065525897841826E-4</v>
       </c>
       <c r="C28">
-        <v>6.7868209237387732E-4</v>
+        <v>6.6963208468066697E-4</v>
       </c>
       <c r="D28">
-        <v>6.8605104499600824E-4</v>
+        <v>7.2794257385781682E-4</v>
       </c>
       <c r="E28">
-        <v>6.8995200477364748E-4</v>
+        <v>8.0722273831942124E-4</v>
       </c>
       <c r="F28">
-        <v>7.0255070116778152E-4</v>
+        <v>8.4926076929347041E-4</v>
       </c>
       <c r="G28">
-        <v>7.3075494105914415E-4</v>
+        <v>9.1093909029696081E-4</v>
       </c>
       <c r="H28">
-        <v>7.6511494750975708E-4</v>
+        <v>1.0127824538769955E-3</v>
       </c>
       <c r="I28">
-        <v>7.6729530817545215E-4</v>
+        <v>1.0154498254220361E-3</v>
       </c>
       <c r="J28">
-        <v>7.6615763729175437E-4</v>
+        <v>1.0183561356334346E-3</v>
       </c>
       <c r="K28">
-        <v>7.6497534983816374E-4</v>
+        <v>1.0209740160288929E-3</v>
       </c>
       <c r="L28">
-        <v>7.6434508106930723E-4</v>
+        <v>1.0242389356572967E-3</v>
       </c>
       <c r="M28">
-        <v>7.6297468642330408E-4</v>
+        <v>1.0282989939063808E-3</v>
       </c>
       <c r="N28">
-        <v>7.6220701719009081E-4</v>
+        <v>1.0318612632672199E-3</v>
       </c>
       <c r="O28">
-        <v>7.6135115263870209E-4</v>
+        <v>1.0348238840482307E-3</v>
       </c>
       <c r="P28">
-        <v>7.6059039236971756E-4</v>
+        <v>1.0376009130183064E-3</v>
       </c>
       <c r="Q28">
-        <v>7.5941521982376113E-4</v>
+        <v>1.0403441326274751E-3</v>
       </c>
       <c r="R28">
-        <v>7.5865921051893645E-4</v>
+        <v>1.0434213599484791E-3</v>
       </c>
       <c r="S28">
-        <v>7.5779553890121924E-4</v>
+        <v>1.0465866354774616E-3</v>
       </c>
       <c r="T28">
-        <v>7.5675471415846706E-4</v>
+        <v>1.0496036965230136E-3</v>
       </c>
       <c r="U28">
-        <v>7.5542246426100047E-4</v>
+        <v>1.0515005311525448E-3</v>
       </c>
       <c r="V28">
-        <v>7.5410270573479155E-4</v>
+        <v>1.0539241012380422E-3</v>
       </c>
       <c r="W28">
-        <v>7.5263393803100167E-4</v>
+        <v>1.0560216915365495E-3</v>
       </c>
       <c r="X28">
-        <v>7.5087688624492623E-4</v>
+        <v>1.0576140405004501E-3</v>
       </c>
       <c r="Y28">
-        <v>7.4906248631128583E-4</v>
+        <v>1.0598681609464752E-3</v>
       </c>
       <c r="Z28">
-        <v>7.470071968170176E-4</v>
+        <v>1.062153213360989E-3</v>
       </c>
       <c r="AA28">
-        <v>7.4466971736164859E-4</v>
+        <v>1.0636846479274093E-3</v>
       </c>
       <c r="AB28">
-        <v>7.4187742730834057E-4</v>
+        <v>1.0655862878022778E-3</v>
       </c>
       <c r="AC28">
-        <v>7.3887113076972523E-4</v>
+        <v>1.0667379353434987E-3</v>
       </c>
       <c r="AD28">
-        <v>7.3528955607294266E-4</v>
+        <v>1.0673770905212207E-3</v>
       </c>
       <c r="AE28">
-        <v>7.3158063579575828E-4</v>
+        <v>1.0681110845530265E-3</v>
       </c>
       <c r="AF28">
-        <v>7.2734242308217191E-4</v>
+        <v>1.0688793195546022E-3</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -18667,97 +18693,97 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.6368321172053488E-4</v>
+        <v>3.6460830594306704E-4</v>
       </c>
       <c r="C29">
-        <v>3.7519786349243767E-4</v>
+        <v>3.6956251642964399E-4</v>
       </c>
       <c r="D29">
-        <v>3.8292342231539014E-4</v>
+        <v>4.0174342831774068E-4</v>
       </c>
       <c r="E29">
-        <v>3.8737442480929154E-4</v>
+        <v>4.4549727128862903E-4</v>
       </c>
       <c r="F29">
-        <v>3.9018162646122461E-4</v>
+        <v>4.6869759407472367E-4</v>
       </c>
       <c r="G29">
-        <v>3.9393486543226201E-4</v>
+        <v>5.0273717497395021E-4</v>
       </c>
       <c r="H29">
-        <v>3.958081254319439E-4</v>
+        <v>5.5894339714779556E-4</v>
       </c>
       <c r="I29">
-        <v>3.958068662698271E-4</v>
+        <v>5.6041548990289135E-4</v>
       </c>
       <c r="J29">
-        <v>3.9568870081904033E-4</v>
+        <v>5.6201945025637675E-4</v>
       </c>
       <c r="K29">
-        <v>3.9552372368166668E-4</v>
+        <v>5.6346422939523573E-4</v>
       </c>
       <c r="L29">
-        <v>3.9593709557582721E-4</v>
+        <v>5.6526610230637163E-4</v>
       </c>
       <c r="M29">
-        <v>3.9597127514076109E-4</v>
+        <v>5.6750680339837198E-4</v>
       </c>
       <c r="N29">
-        <v>3.9568311316840501E-4</v>
+        <v>5.6947278032706068E-4</v>
       </c>
       <c r="O29">
-        <v>3.9545023752148126E-4</v>
+        <v>5.7110781785902004E-4</v>
       </c>
       <c r="P29">
-        <v>3.9533735885442279E-4</v>
+        <v>5.7264042933009168E-4</v>
       </c>
       <c r="Q29">
-        <v>3.9487850361981201E-4</v>
+        <v>5.7415438179007124E-4</v>
       </c>
       <c r="R29">
-        <v>3.9428117062173101E-4</v>
+        <v>5.758526693996302E-4</v>
       </c>
       <c r="S29">
-        <v>3.9378231845382995E-4</v>
+        <v>5.7759954983807539E-4</v>
       </c>
       <c r="T29">
-        <v>3.9349649872249946E-4</v>
+        <v>5.7926463234789531E-4</v>
       </c>
       <c r="U29">
-        <v>3.9297415036491852E-4</v>
+        <v>5.8031147433019786E-4</v>
       </c>
       <c r="V29">
-        <v>3.9250688719174123E-4</v>
+        <v>5.816490157653086E-4</v>
       </c>
       <c r="W29">
-        <v>3.9211185181415524E-4</v>
+        <v>5.8280665257347394E-4</v>
       </c>
       <c r="X29">
-        <v>3.9168760952964436E-4</v>
+        <v>5.8368545229588241E-4</v>
       </c>
       <c r="Y29">
-        <v>3.9122731880395569E-4</v>
+        <v>5.8492947635540129E-4</v>
       </c>
       <c r="Z29">
-        <v>3.9085142797907205E-4</v>
+        <v>5.8619057142506796E-4</v>
       </c>
       <c r="AA29">
-        <v>3.9051216876031034E-4</v>
+        <v>5.8703575316749231E-4</v>
       </c>
       <c r="AB29">
-        <v>3.9011492927727893E-4</v>
+        <v>5.8808524711137121E-4</v>
       </c>
       <c r="AC29">
-        <v>3.8968023550283847E-4</v>
+        <v>5.8872082860919703E-4</v>
       </c>
       <c r="AD29">
-        <v>3.8920742031412479E-4</v>
+        <v>5.8907357125888749E-4</v>
       </c>
       <c r="AE29">
-        <v>3.8876188063600889E-4</v>
+        <v>5.8947865441969188E-4</v>
       </c>
       <c r="AF29">
-        <v>3.883715712735463E-4</v>
+        <v>5.8990263479173004E-4</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -18765,97 +18791,97 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.8794415231938754E-4</v>
+        <v>5.8798995863315595E-4</v>
       </c>
       <c r="C30">
-        <v>5.859697075889746E-4</v>
+        <v>6.1696588368217011E-4</v>
       </c>
       <c r="D30">
-        <v>5.8487716230241557E-4</v>
+        <v>6.1615643563263075E-4</v>
       </c>
       <c r="E30">
-        <v>5.8450715864569842E-4</v>
+        <v>6.1491591896440637E-4</v>
       </c>
       <c r="F30">
-        <v>5.8509864619692446E-4</v>
+        <v>6.1377724637873168E-4</v>
       </c>
       <c r="G30">
-        <v>5.8547838832553585E-4</v>
+        <v>6.142470019361155E-4</v>
       </c>
       <c r="H30">
-        <v>5.8677369900367977E-4</v>
+        <v>6.1520024602288283E-4</v>
       </c>
       <c r="I30">
-        <v>5.8555189724455374E-4</v>
+        <v>6.1475914245497727E-4</v>
       </c>
       <c r="J30">
-        <v>5.848624993596127E-4</v>
+        <v>6.1453063795633529E-4</v>
       </c>
       <c r="K30">
-        <v>5.8392369578135807E-4</v>
+        <v>6.1421989789330099E-4</v>
       </c>
       <c r="L30">
-        <v>5.8323582222320433E-4</v>
+        <v>6.1395155199930678E-4</v>
       </c>
       <c r="M30">
-        <v>5.8232846507614633E-4</v>
+        <v>6.1371402100970397E-4</v>
       </c>
       <c r="N30">
-        <v>5.8140476063791701E-4</v>
+        <v>6.1333899411748923E-4</v>
       </c>
       <c r="O30">
-        <v>5.8053415348023238E-4</v>
+        <v>6.1302463445133575E-4</v>
       </c>
       <c r="P30">
-        <v>5.7985999357189376E-4</v>
+        <v>6.1281216683748763E-4</v>
       </c>
       <c r="Q30">
-        <v>5.790672010289583E-4</v>
+        <v>6.1258372063173461E-4</v>
       </c>
       <c r="R30">
-        <v>5.783038784646057E-4</v>
+        <v>6.123497042956693E-4</v>
       </c>
       <c r="S30">
-        <v>5.7772941074558763E-4</v>
+        <v>6.1209300817199994E-4</v>
       </c>
       <c r="T30">
-        <v>5.7728789584792482E-4</v>
+        <v>6.1191994813601343E-4</v>
       </c>
       <c r="U30">
-        <v>5.7687866477931793E-4</v>
+        <v>6.1168186180050551E-4</v>
       </c>
       <c r="V30">
-        <v>5.7657581365796442E-4</v>
+        <v>6.1149173815558823E-4</v>
       </c>
       <c r="W30">
-        <v>5.7638685408458411E-4</v>
+        <v>6.1127738738684983E-4</v>
       </c>
       <c r="X30">
-        <v>5.7622519119671751E-4</v>
+        <v>6.1103585054452642E-4</v>
       </c>
       <c r="Y30">
-        <v>5.7612076801724784E-4</v>
+        <v>6.1081633035104494E-4</v>
       </c>
       <c r="Z30">
-        <v>5.7610601336530144E-4</v>
+        <v>6.1057407505978978E-4</v>
       </c>
       <c r="AA30">
-        <v>5.7616718513728532E-4</v>
+        <v>6.1030878988926223E-4</v>
       </c>
       <c r="AB30">
-        <v>5.7619221096857649E-4</v>
+        <v>6.1005507469188698E-4</v>
       </c>
       <c r="AC30">
-        <v>5.7620061572155568E-4</v>
+        <v>6.0977962950897345E-4</v>
       </c>
       <c r="AD30">
-        <v>5.7622282038993897E-4</v>
+        <v>6.0948742530806332E-4</v>
       </c>
       <c r="AE30">
-        <v>5.7625953419671364E-4</v>
+        <v>6.091962063144654E-4</v>
       </c>
       <c r="AF30">
-        <v>5.7635527402379559E-4</v>
+        <v>6.0888183625194033E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18864,14 +18890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -19243,14 +19269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19350,18 +19376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19519,7 +19545,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
+        <v>4.024988144927663E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19537,7 +19563,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
+    <row r="20" spans="1:4" ht="29">
       <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
@@ -19555,7 +19581,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
@@ -19639,7 +19665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -19647,11 +19673,11 @@
       <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" style="13"/>
+    <col min="15" max="15" width="11.36328125" customWidth="1"/>
+    <col min="39" max="39" width="9.08984375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19897,175 +19923,175 @@
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>3.2103824262146724E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>3.2782662361074218E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.3427917841723627E-4</v>
+        <v>3.3461500460001711E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4095561734558426E-4</v>
+        <v>3.4140338558929205E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4763205627393225E-4</v>
+        <v>3.4819176657856698E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.5430849520228023E-4</v>
+        <v>3.5498014756784192E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6098493413062822E-4</v>
+        <v>3.6176852855711685E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6766137305897621E-4</v>
+        <v>3.6855690954639179E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.743378119873242E-4</v>
+        <v>3.7534529053566672E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8101425091567219E-4</v>
+        <v>3.8213367152494166E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8769068984402017E-4</v>
+        <v>3.889220525142166E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.9436712877236816E-4</v>
+        <v>3.9571043350349153E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
+        <v>4.024988144927663E-4</v>
       </c>
       <c r="AO2" s="15">
         <f>BNVFE!E8</f>
-        <v>4.1543936179917892E-4</v>
+        <v>4.0796787215023562E-4</v>
       </c>
       <c r="AP2" s="15">
         <f>BNVFE!F8</f>
-        <v>4.232456921304615E-4</v>
+        <v>4.4349306088874353E-4</v>
       </c>
       <c r="AQ2" s="15">
         <f>BNVFE!G8</f>
-        <v>4.284224989356039E-4</v>
+        <v>4.9179385282965761E-4</v>
       </c>
       <c r="AR2" s="15">
         <f>BNVFE!H8</f>
-        <v>4.3223887309206766E-4</v>
+        <v>5.174051794644127E-4</v>
       </c>
       <c r="AS2" s="15">
         <f>BNVFE!I8</f>
-        <v>4.3661930301858122E-4</v>
+        <v>5.5498219220506228E-4</v>
       </c>
       <c r="AT2" s="15">
         <f>BNVFE!J8</f>
-        <v>4.4073837767711228E-4</v>
+        <v>6.1702942871432137E-4</v>
       </c>
       <c r="AU2" s="15">
         <f>BNVFE!K8</f>
-        <v>4.4130433819121803E-4</v>
+        <v>6.1865450301759833E-4</v>
       </c>
       <c r="AV2" s="15">
         <f>BNVFE!L8</f>
-        <v>4.4139330713525239E-4</v>
+        <v>6.2042514874960234E-4</v>
       </c>
       <c r="AW2" s="15">
         <f>BNVFE!M8</f>
-        <v>4.4143859386227608E-4</v>
+        <v>6.2202007097467485E-4</v>
       </c>
       <c r="AX2" s="15">
         <f>BNVFE!N8</f>
-        <v>4.4252278985937798E-4</v>
+        <v>6.2400919656171528E-4</v>
       </c>
       <c r="AY2" s="15">
         <f>BNVFE!O8</f>
-        <v>4.4258101673758966E-4</v>
+        <v>6.2648275385172284E-4</v>
       </c>
       <c r="AZ2" s="15">
         <f>BNVFE!P8</f>
-        <v>4.4262644410952699E-4</v>
+        <v>6.2865303733188277E-4</v>
       </c>
       <c r="BA2" s="15">
         <f>BNVFE!Q8</f>
-        <v>4.4263525674443374E-4</v>
+        <v>6.3045798981798329E-4</v>
       </c>
       <c r="BB2" s="15">
         <f>BNVFE!R8</f>
-        <v>4.428907913418545E-4</v>
+        <v>6.32149872010817E-4</v>
       </c>
       <c r="BC2" s="15">
         <f>BNVFE!S8</f>
-        <v>4.4235185104972023E-4</v>
+        <v>6.338211561269702E-4</v>
       </c>
       <c r="BD2" s="15">
         <f>BNVFE!T8</f>
-        <v>4.4180682000362565E-4</v>
+        <v>6.3569593171044787E-4</v>
       </c>
       <c r="BE2" s="15">
         <f>BNVFE!U8</f>
-        <v>4.415169210975881E-4</v>
+        <v>6.3762434994468471E-4</v>
       </c>
       <c r="BF2" s="15">
         <f>BNVFE!V8</f>
-        <v>4.4141525513386555E-4</v>
+        <v>6.394624697168103E-4</v>
       </c>
       <c r="BG2" s="15">
         <f>BNVFE!W8</f>
-        <v>4.4094858868260617E-4</v>
+        <v>6.406181007048323E-4</v>
       </c>
       <c r="BH2" s="15">
         <f>BNVFE!X8</f>
-        <v>4.406528424788466E-4</v>
+        <v>6.4209464096239596E-4</v>
       </c>
       <c r="BI2" s="15">
         <f>BNVFE!Y8</f>
-        <v>4.4046477188487546E-4</v>
+        <v>6.4337258070020452E-4</v>
       </c>
       <c r="BJ2" s="15">
         <f>BNVFE!Z8</f>
-        <v>4.4016736396697124E-4</v>
+        <v>6.4434270628615663E-4</v>
       </c>
       <c r="BK2" s="15">
         <f>BNVFE!AA8</f>
-        <v>4.3991921468742256E-4</v>
+        <v>6.4571601073642603E-4</v>
       </c>
       <c r="BL2" s="15">
         <f>BNVFE!AB8</f>
-        <v>4.3980677282836695E-4</v>
+        <v>6.4710816023557315E-4</v>
       </c>
       <c r="BM2" s="15">
         <f>BNVFE!AC8</f>
-        <v>4.3981133028276362E-4</v>
+        <v>6.4804117422294469E-4</v>
       </c>
       <c r="BN2" s="15">
         <f>BNVFE!AD8</f>
-        <v>4.3960459654073496E-4</v>
+        <v>6.4919973276739693E-4</v>
       </c>
       <c r="BO2" s="15">
         <f>BNVFE!AE8</f>
-        <v>4.3945697770705547E-4</v>
+        <v>6.4990136461510475E-4</v>
       </c>
       <c r="BP2" s="15">
         <f>BNVFE!AF8</f>
-        <v>4.3919624527100954E-4</v>
+        <v>6.5029076468089368E-4</v>
       </c>
       <c r="BQ2" s="15">
         <f>BNVFE!AG8</f>
-        <v>4.3913823303573507E-4</v>
+        <v>6.5073794454305572E-4</v>
       </c>
       <c r="BR2" s="15">
         <f>BNVFE!AH8</f>
-        <v>4.3909651675542918E-4</v>
+        <v>6.5120598543606876E-4</v>
       </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="4"/>
@@ -20103,179 +20129,179 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="17" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
-        <v>1.1709920537385831E-4</v>
+        <v>1.203379342864262E-4</v>
       </c>
       <c r="AB3" s="17" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
-        <v>1.1699905164334643E-4</v>
+        <v>1.2016088715049279E-4</v>
       </c>
       <c r="AC3" s="17" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
-        <v>1.1689889791283454E-4</v>
+        <v>1.1998384001455937E-4</v>
       </c>
       <c r="AD3" s="17" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
-        <v>1.1679874418232269E-4</v>
+        <v>1.1980679287862601E-4</v>
       </c>
       <c r="AE3" s="17" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
-        <v>1.166985904518108E-4</v>
+        <v>1.1962974574269259E-4</v>
       </c>
       <c r="AF3" s="17" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
-        <v>1.1659843672129892E-4</v>
+        <v>1.1945269860675917E-4</v>
       </c>
       <c r="AG3" s="17" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
-        <v>1.1649828299078704E-4</v>
+        <v>1.1927565147082576E-4</v>
       </c>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
-        <v>1.1639812926027518E-4</v>
+        <v>1.1909860433489239E-4</v>
       </c>
       <c r="AI3" s="17" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
-        <v>1.1629797552976329E-4</v>
+        <v>1.1892155719895898E-4</v>
       </c>
       <c r="AJ3" s="17" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
-        <v>1.1619782179925141E-4</v>
+        <v>1.1874451006302556E-4</v>
       </c>
       <c r="AK3" s="17" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
-        <v>1.1609766806873955E-4</v>
+        <v>1.1856746292709215E-4</v>
       </c>
       <c r="AL3" s="17" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
-        <v>1.1599751433822767E-4</v>
+        <v>1.1839041579115878E-4</v>
       </c>
       <c r="AM3" s="41" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
-        <v>1.1589736060771579E-4</v>
+        <v>1.1821336865522537E-4</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!D9</f>
-        <v>1.157863591831631E-4</v>
+        <v>1.1797797201017124E-4</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!E9</f>
-        <v>1.1589922337335911E-4</v>
+        <v>1.1829846623500186E-4</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!F9</f>
-        <v>1.1538533736033749E-4</v>
+        <v>1.1729428078558663E-4</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!G9</f>
-        <v>1.1535674989351573E-4</v>
+        <v>1.1719689551672209E-4</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!H9</f>
-        <v>1.1555682727052541E-4</v>
+        <v>1.1764352168964412E-4</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!I9</f>
-        <v>1.1619447640903485E-4</v>
+        <v>1.1866120205476883E-4</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!J9</f>
-        <v>1.1675875263243092E-4</v>
+        <v>1.1959158500672709E-4</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!K9</f>
-        <v>1.170886675606406E-4</v>
+        <v>1.2012295075743907E-4</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!L9</f>
-        <v>1.1617580985063572E-4</v>
+        <v>1.1891477439334622E-4</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!M9</f>
-        <v>1.1591329821118029E-4</v>
+        <v>1.184720637798503E-4</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!N9</f>
-        <v>1.1553838100461461E-4</v>
+        <v>1.1791912239365693E-4</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!O9</f>
-        <v>1.1496830903628264E-4</v>
+        <v>1.1726854759265854E-4</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!P9</f>
-        <v>1.1417779457660161E-4</v>
+        <v>1.163947280800766E-4</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!Q9</f>
-        <v>1.1321126528769265E-4</v>
+        <v>1.1543036314509163E-4</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!R9</f>
-        <v>1.1235905420307894E-4</v>
+        <v>1.1452766973335742E-4</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!S9</f>
-        <v>1.113973304748738E-4</v>
+        <v>1.1368570476708297E-4</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!T9</f>
-        <v>1.1073582017040977E-4</v>
+        <v>1.1294953379908579E-4</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!U9</f>
-        <v>1.099531339020346E-4</v>
+        <v>1.1233567537117923E-4</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!V9</f>
-        <v>1.0948773622007766E-4</v>
+        <v>1.1173642803062577E-4</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!W9</f>
-        <v>1.0913516582552083E-4</v>
+        <v>1.1124100972467315E-4</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!X9</f>
-        <v>1.0884247723484658E-4</v>
+        <v>1.1075853315322957E-4</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Y9</f>
-        <v>1.085933825763662E-4</v>
+        <v>1.1037521243170253E-4</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!Z9</f>
-        <v>1.083443267474224E-4</v>
+        <v>1.0991848018148144E-4</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AA9</f>
-        <v>1.0815629409531245E-4</v>
+        <v>1.0966775896786235E-4</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AB9</f>
-        <v>1.0799885128162017E-4</v>
+        <v>1.0946652790457937E-4</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AC9</f>
-        <v>1.078432358858381E-4</v>
+        <v>1.093057513924758E-4</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AD9</f>
-        <v>1.0772424981274788E-4</v>
+        <v>1.0925596504686471E-4</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AE9</f>
-        <v>1.0749204222981193E-4</v>
+        <v>1.0913422478199535E-4</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AF9</f>
-        <v>1.0725768900406794E-4</v>
+        <v>1.0902511165204325E-4</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AG9</f>
-        <v>1.0704107117361582E-4</v>
+        <v>1.088790399619601E-4</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AH9</f>
-        <v>1.0682755170917861E-4</v>
+        <v>1.0882419661026466E-4</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -20298,239 +20324,239 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>9.5189169708960616E-4</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0507727694715886E-3</v>
+        <v>9.5461686896994183E-4</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0471373150185254E-3</v>
+        <v>9.5734204085027739E-4</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0435018605654625E-3</v>
+        <v>9.6006721273061296E-4</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0398664061123993E-3</v>
+        <v>9.6279238461094863E-4</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0362309516593362E-3</v>
+        <v>9.6551755649128431E-4</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>1.032595497206273E-3</v>
+        <v>9.6824272837161987E-4</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0289600427532098E-3</v>
+        <v>9.7096790025195544E-4</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0253245883001466E-3</v>
+        <v>9.73693072132291E-4</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0216891338470835E-3</v>
+        <v>9.7641824401262668E-4</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0180536793940205E-3</v>
+        <v>9.7914341589296224E-4</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>1.0144182249409574E-3</v>
+        <v>9.8186858777329781E-4</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0107827704878942E-3</v>
+        <v>9.8459375965363337E-4</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0071473160348312E-3</v>
+        <v>9.8731893153396894E-4</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>1.0035118615817681E-3</v>
+        <v>9.900441034143045E-4</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>9.998764071287049E-4</v>
+        <v>9.9276927529464007E-4</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>9.9624095267564173E-4</v>
+        <v>9.9549444717497563E-4</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.9260549822257856E-4</v>
+        <v>9.982196190553112E-4</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
-        <v>9.8533458931645266E-4</v>
+        <v>1.0036699628159823E-3</v>
       </c>
       <c r="AO4" s="15">
         <f>BNVFE!E10</f>
-        <v>9.988021364476826E-4</v>
+        <v>1.0208853457654701E-3</v>
       </c>
       <c r="AP4" s="15">
         <f>BNVFE!F10</f>
-        <v>1.0144915989479513E-3</v>
+        <v>1.0363125757886589E-3</v>
       </c>
       <c r="AQ4" s="15">
         <f>BNVFE!G10</f>
-        <v>1.0338641499362739E-3</v>
+        <v>1.0550551388611548E-3</v>
       </c>
       <c r="AR4" s="15">
         <f>BNVFE!H10</f>
-        <v>1.0578483957153595E-3</v>
+        <v>1.0785940195513571E-3</v>
       </c>
       <c r="AS4" s="15">
         <f>BNVFE!I10</f>
-        <v>1.0855563574924357E-3</v>
+        <v>1.1061013871046345E-3</v>
       </c>
       <c r="AT4" s="15">
         <f>BNVFE!J10</f>
-        <v>1.1154933208321449E-3</v>
+        <v>1.1357533191201131E-3</v>
       </c>
       <c r="AU4" s="15">
         <f>BNVFE!K10</f>
-        <v>1.146433059300843E-3</v>
+        <v>1.1663973327510526E-3</v>
       </c>
       <c r="AV4" s="15">
         <f>BNVFE!L10</f>
-        <v>1.162195430859642E-3</v>
+        <v>1.1820311595601288E-3</v>
       </c>
       <c r="AW4" s="15">
         <f>BNVFE!M10</f>
-        <v>1.1852372128907688E-3</v>
+        <v>1.2045176477719092E-3</v>
       </c>
       <c r="AX4" s="15">
         <f>BNVFE!N10</f>
-        <v>1.2047747934543398E-3</v>
+        <v>1.2233355994231063E-3</v>
       </c>
       <c r="AY4" s="15">
         <f>BNVFE!O10</f>
-        <v>1.2221312436297778E-3</v>
+        <v>1.2400654478455125E-3</v>
       </c>
       <c r="AZ4" s="15">
         <f>BNVFE!P10</f>
-        <v>1.2324377185343545E-3</v>
+        <v>1.2499350960073442E-3</v>
       </c>
       <c r="BA4" s="15">
         <f>BNVFE!Q10</f>
-        <v>1.2337189023360906E-3</v>
+        <v>1.2512540753321518E-3</v>
       </c>
       <c r="BB4" s="15">
         <f>BNVFE!R10</f>
-        <v>1.2346974269358923E-3</v>
+        <v>1.2521553698507089E-3</v>
       </c>
       <c r="BC4" s="15">
         <f>BNVFE!S10</f>
-        <v>1.2348004129494538E-3</v>
+        <v>1.252074367228913E-3</v>
       </c>
       <c r="BD4" s="15">
         <f>BNVFE!T10</f>
-        <v>1.2352948717913239E-3</v>
+        <v>1.2523252347546336E-3</v>
       </c>
       <c r="BE4" s="15">
         <f>BNVFE!U10</f>
-        <v>1.2357035089552255E-3</v>
+        <v>1.2527262378328314E-3</v>
       </c>
       <c r="BF4" s="15">
         <f>BNVFE!V10</f>
-        <v>1.2358091719752555E-3</v>
+        <v>1.2526822878954607E-3</v>
       </c>
       <c r="BG4" s="15">
         <f>BNVFE!W10</f>
-        <v>1.2356633538581946E-3</v>
+        <v>1.252281766020957E-3</v>
       </c>
       <c r="BH4" s="15">
         <f>BNVFE!X10</f>
-        <v>1.2356553228387885E-3</v>
+        <v>1.2523305279952656E-3</v>
       </c>
       <c r="BI4" s="15">
         <f>BNVFE!Y10</f>
-        <v>1.2356638262711007E-3</v>
+        <v>1.2524525933322692E-3</v>
       </c>
       <c r="BJ4" s="15">
         <f>BNVFE!Z10</f>
-        <v>1.2356742193550382E-3</v>
+        <v>1.2517309481927445E-3</v>
       </c>
       <c r="BK4" s="15">
         <f>BNVFE!AA10</f>
-        <v>1.2356002079997265E-3</v>
+        <v>1.2521125427219578E-3</v>
       </c>
       <c r="BL4" s="15">
         <f>BNVFE!AB10</f>
-        <v>1.2356762664776318E-3</v>
+        <v>1.2526240622485064E-3</v>
       </c>
       <c r="BM4" s="15">
         <f>BNVFE!AC10</f>
-        <v>1.2358724753046924E-3</v>
+        <v>1.2533139479442377E-3</v>
       </c>
       <c r="BN4" s="15">
         <f>BNVFE!AD10</f>
-        <v>1.2358611373949426E-3</v>
+        <v>1.2540837134531458E-3</v>
       </c>
       <c r="BO4" s="15">
         <f>BNVFE!AE10</f>
-        <v>1.236194345964814E-3</v>
+        <v>1.254924697108742E-3</v>
       </c>
       <c r="BP4" s="15">
         <f>BNVFE!AF10</f>
-        <v>1.2367163622262144E-3</v>
+        <v>1.2557445078018091E-3</v>
       </c>
       <c r="BQ4" s="15">
         <f>BNVFE!AG10</f>
-        <v>1.2373051461783645E-3</v>
+        <v>1.2564741730028979E-3</v>
       </c>
       <c r="BR4" s="15">
         <f>BNVFE!AH10</f>
-        <v>1.2379718782600448E-3</v>
+        <v>1.2570591562933724E-3</v>
       </c>
       <c r="BS4" s="15"/>
       <c r="BT4" s="4"/>
@@ -20597,195 +20623,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.777140437446856E-4</v>
+        <v>7.8263899375966939E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.7502331548669776E-4</v>
+        <v>7.8487321551666534E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>7.7233258722870992E-4</v>
+        <v>7.8710743727366129E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6964185897072208E-4</v>
+        <v>7.8934165903065724E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6695113071273424E-4</v>
+        <v>7.9157588078765319E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>7.642604024547464E-4</v>
+        <v>7.9381010254464914E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6156967419675856E-4</v>
+        <v>7.9604432430164509E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5887894593877072E-4</v>
+        <v>7.9827854605864104E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5618821768078288E-4</v>
+        <v>8.0051276781563699E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5349748942279504E-4</v>
+        <v>8.0274698957263294E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>7.508067611648072E-4</v>
+        <v>8.049812113296289E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4811603290681936E-4</v>
+        <v>8.0721543308662485E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4542530464883152E-4</v>
+        <v>8.094496548436208E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4273457639084369E-4</v>
+        <v>8.1168387660061675E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4004384813285585E-4</v>
+        <v>8.139180983576127E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>7.3735311987486801E-4</v>
+        <v>8.1615232011460865E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>7.3466239161688017E-4</v>
+        <v>8.183865418716046E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
-        <v>7.2928093510090471E-4</v>
+        <v>8.228549853855965E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!E11</f>
-        <v>7.3924874245474208E-4</v>
+        <v>8.3696895134066358E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!F11</f>
-        <v>7.508610678592162E-4</v>
+        <v>8.4961690694915356E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!G11</f>
-        <v>7.6519937715357957E-4</v>
+        <v>8.6498292569483441E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!H11</f>
-        <v>7.8295096466416878E-4</v>
+        <v>8.8428118711932307E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!I11</f>
-        <v>8.0345860591986078E-4</v>
+        <v>9.0683299734042682E-4</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!J11</f>
-        <v>8.2561600996837806E-4</v>
+        <v>9.3114302054446375E-4</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!K11</f>
-        <v>8.4851560331147032E-4</v>
+        <v>9.5626639807157017E-4</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!L11</f>
-        <v>8.6018189128557194E-4</v>
+        <v>9.6908373126585042E-4</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!M11</f>
-        <v>8.7723592808510082E-4</v>
+        <v>9.875191927366351E-4</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!N11</f>
-        <v>8.9169638159754131E-4</v>
+        <v>1.002947018520609E-3</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!O11</f>
-        <v>9.0454250346438524E-4</v>
+        <v>1.0166629208482015E-3</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!P11</f>
-        <v>9.1217068960288046E-4</v>
+        <v>1.02475451419546E-3</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!Q11</f>
-        <v>9.1311893899054719E-4</v>
+        <v>1.0258358743569153E-3</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!R11</f>
-        <v>9.1384317961185513E-4</v>
+        <v>1.0265747972253597E-3</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!S11</f>
-        <v>9.1391940319832696E-4</v>
+        <v>1.0265083875352788E-3</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!T11</f>
-        <v>9.1428536965325259E-4</v>
+        <v>1.0267140603180244E-3</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!U11</f>
-        <v>9.1458781645278495E-4</v>
+        <v>1.0270428211600088E-3</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!V11</f>
-        <v>9.1466602138630556E-4</v>
+        <v>1.0270067889717274E-3</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!W11</f>
-        <v>9.1455809624705047E-4</v>
+        <v>1.0266784226427533E-3</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!X11</f>
-        <v>9.145521522059036E-4</v>
+        <v>1.0267183999611385E-3</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Y11</f>
-        <v>9.1455844589652965E-4</v>
+        <v>1.0268184747614386E-3</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!Z11</f>
-        <v>9.1456613818507277E-4</v>
+        <v>1.0262268367502033E-3</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AA11</f>
-        <v>9.1451135976666027E-4</v>
+        <v>1.0265396855674359E-3</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AB11</f>
-        <v>9.1456765333281604E-4</v>
+        <v>1.0269590528974712E-3</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AC11</f>
-        <v>9.1471287441652219E-4</v>
+        <v>1.0275246530500213E-3</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AD11</f>
-        <v>9.147044828290207E-4</v>
+        <v>1.0281557423622947E-3</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AE11</f>
-        <v>9.1495110226170301E-4</v>
+        <v>1.0288452196001046E-3</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AF11</f>
-        <v>9.153374649362501E-4</v>
+        <v>1.0295173382654575E-3</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AG11</f>
-        <v>9.1577324473719485E-4</v>
+        <v>1.0301155514935325E-3</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AH11</f>
-        <v>9.1626671670221223E-4</v>
+        <v>1.0305951478098193E-3</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -20812,223 +20838,223 @@
       <c r="O6" s="11"/>
       <c r="P6" s="4">
         <f>TREND($AN6:$BR6,$AN$1:$BR$1,P$1)</f>
-        <v>3.7813606358617479E-4</v>
+        <v>3.6906560650609363E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:AM6" si="4">TREND($AN6:$BR6,$AN$1:$BR$1,Q$1)</f>
-        <v>3.8189121028656993E-4</v>
+        <v>3.7357279953911977E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8564635698696507E-4</v>
+        <v>3.7807999257214418E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8940150368736021E-4</v>
+        <v>3.8258718560517033E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9315665038775535E-4</v>
+        <v>3.8709437863819647E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9691179708815135E-4</v>
+        <v>3.9160157167122261E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0066694378854649E-4</v>
+        <v>3.9610876470424702E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0442209048894163E-4</v>
+        <v>4.0061595773727317E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0817723718933677E-4</v>
+        <v>4.0512315077029931E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1193238388973191E-4</v>
+        <v>4.0963034380332546E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1568753059012791E-4</v>
+        <v>4.1413753683634986E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1944267729052305E-4</v>
+        <v>4.1864472986937601E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="4"/>
-        <v>4.2319782399091819E-4</v>
+        <v>4.2315192290240215E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="4"/>
-        <v>4.2695297069131333E-4</v>
+        <v>4.2765911593542656E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3070811739170847E-4</v>
+        <v>4.3216630896845271E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="4"/>
-        <v>4.344632640921036E-4</v>
+        <v>4.3667350200147885E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3821841079249961E-4</v>
+        <v>4.4118069503450499E-4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4197355749289475E-4</v>
+        <v>4.456878880675294E-4</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4572870419328989E-4</v>
+        <v>4.5019508110055555E-4</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4948385089368503E-4</v>
+        <v>4.5470227413358169E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5323899759408016E-4</v>
+        <v>4.5920946716660783E-4</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
-        <v>4.569941442944753E-4</v>
+        <v>4.6371666019963224E-4</v>
       </c>
       <c r="AL6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6074929099487131E-4</v>
+        <v>4.6822385323265839E-4</v>
       </c>
       <c r="AM6" s="41">
         <f t="shared" si="4"/>
-        <v>4.6450443769526645E-4</v>
+        <v>4.7273104626568453E-4</v>
       </c>
       <c r="AN6" s="15">
         <f>BNVFE!D12</f>
-        <v>4.6616941125958422E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AO6" s="15">
         <f>BNVFE!E12</f>
-        <v>4.7399299019600609E-4</v>
+        <v>4.8894774164554196E-4</v>
       </c>
       <c r="AP6" s="15">
         <f>BNVFE!F12</f>
-        <v>4.7625318028902199E-4</v>
+        <v>4.9240286762932642E-4</v>
       </c>
       <c r="AQ6" s="15">
         <f>BNVFE!G12</f>
-        <v>4.7962763511951036E-4</v>
+        <v>4.9585023884870984E-4</v>
       </c>
       <c r="AR6" s="15">
         <f>BNVFE!H12</f>
-        <v>4.8472425299335046E-4</v>
+        <v>4.9875024852121853E-4</v>
       </c>
       <c r="AS6" s="15">
         <f>BNVFE!I12</f>
-        <v>4.8856488811023198E-4</v>
+        <v>5.018272899043342E-4</v>
       </c>
       <c r="AT6" s="15">
         <f>BNVFE!J12</f>
-        <v>4.9188761878420821E-4</v>
+        <v>5.0373766416369245E-4</v>
       </c>
       <c r="AU6" s="15">
         <f>BNVFE!K12</f>
-        <v>4.9507465640706257E-4</v>
+        <v>5.066390880184078E-4</v>
       </c>
       <c r="AV6" s="15">
         <f>BNVFE!L12</f>
-        <v>4.9827927013588579E-4</v>
+        <v>5.0991211646518261E-4</v>
       </c>
       <c r="AW6" s="15">
         <f>BNVFE!M12</f>
-        <v>5.0141938782536798E-4</v>
+        <v>5.1327626339366984E-4</v>
       </c>
       <c r="AX6" s="15">
         <f>BNVFE!N12</f>
-        <v>5.0473115148176617E-4</v>
+        <v>5.1691521314626535E-4</v>
       </c>
       <c r="AY6" s="15">
         <f>BNVFE!O12</f>
-        <v>5.0816899974300608E-4</v>
+        <v>5.2075410037760446E-4</v>
       </c>
       <c r="AZ6" s="15">
         <f>BNVFE!P12</f>
-        <v>5.1181801067543291E-4</v>
+        <v>5.2535208476499069E-4</v>
       </c>
       <c r="BA6" s="15">
         <f>BNVFE!Q12</f>
-        <v>5.1566570773780435E-4</v>
+        <v>5.2977090620943002E-4</v>
       </c>
       <c r="BB6" s="15">
         <f>BNVFE!R12</f>
-        <v>5.1961420160206843E-4</v>
+        <v>5.3454572976618399E-4</v>
       </c>
       <c r="BC6" s="15">
         <f>BNVFE!S12</f>
-        <v>5.2372057195217224E-4</v>
+        <v>5.3940037826505566E-4</v>
       </c>
       <c r="BD6" s="15">
         <f>BNVFE!T12</f>
-        <v>5.2782108797571725E-4</v>
+        <v>5.4434109269794312E-4</v>
       </c>
       <c r="BE6" s="15">
         <f>BNVFE!U12</f>
-        <v>5.3191930033488766E-4</v>
+        <v>5.4947146025164869E-4</v>
       </c>
       <c r="BF6" s="15">
         <f>BNVFE!V12</f>
-        <v>5.3596468592895642E-4</v>
+        <v>5.5468408275070034E-4</v>
       </c>
       <c r="BG6" s="15">
         <f>BNVFE!W12</f>
-        <v>5.3988919149325191E-4</v>
+        <v>5.5982954155396364E-4</v>
       </c>
       <c r="BH6" s="15">
         <f>BNVFE!X12</f>
-        <v>5.4375065803669985E-4</v>
+        <v>5.651055366781933E-4</v>
       </c>
       <c r="BI6" s="15">
         <f>BNVFE!Y12</f>
-        <v>5.4758253135318239E-4</v>
+        <v>5.7049849064633434E-4</v>
       </c>
       <c r="BJ6" s="15">
         <f>BNVFE!Z12</f>
-        <v>5.5141485752676429E-4</v>
+        <v>5.7612541541712304E-4</v>
       </c>
       <c r="BK6" s="15">
         <f>BNVFE!AA12</f>
-        <v>5.5528893843752823E-4</v>
+        <v>5.8166977983232354E-4</v>
       </c>
       <c r="BL6" s="15">
         <f>BNVFE!AB12</f>
-        <v>5.5903874617184749E-4</v>
+        <v>5.8703254466199587E-4</v>
       </c>
       <c r="BM6" s="15">
         <f>BNVFE!AC12</f>
-        <v>5.6267984194975651E-4</v>
+        <v>5.9249002650275126E-4</v>
       </c>
       <c r="BN6" s="15">
         <f>BNVFE!AD12</f>
-        <v>5.6625804309603806E-4</v>
+        <v>5.979148958411626E-4</v>
       </c>
       <c r="BO6" s="15">
         <f>BNVFE!AE12</f>
-        <v>5.6976670114342325E-4</v>
+        <v>6.0325745048005013E-4</v>
       </c>
       <c r="BP6" s="15">
         <f>BNVFE!AF12</f>
-        <v>5.7342146795521316E-4</v>
+        <v>6.085097364744201E-4</v>
       </c>
       <c r="BQ6" s="15">
         <f>BNVFE!AG12</f>
-        <v>5.770408790975283E-4</v>
+        <v>6.1361963490257044E-4</v>
       </c>
       <c r="BR6" s="15">
         <f>BNVFE!AH12</f>
-        <v>5.8064146713606509E-4</v>
+        <v>6.1865081716056805E-4</v>
       </c>
       <c r="BS6" s="15"/>
       <c r="BT6" s="4"/>
@@ -21055,223 +21081,223 @@
       <c r="O7" s="11"/>
       <c r="P7" s="29">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,P$1)-($AR7-$AN7)</f>
-        <v>9.258175624649735E-5</v>
+        <v>9.2499848982648922E-5</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
-        <v>9.3548597825973844E-5</v>
+        <v>9.3660320724165048E-5</v>
       </c>
       <c r="R7" s="29">
         <f t="shared" si="5"/>
-        <v>9.4515439405450121E-5</v>
+        <v>9.482079246568074E-5</v>
       </c>
       <c r="S7" s="29">
         <f t="shared" si="5"/>
-        <v>9.5482280984926615E-5</v>
+        <v>9.5981264207196866E-5</v>
       </c>
       <c r="T7" s="29">
         <f t="shared" si="5"/>
-        <v>9.6449122564402893E-5</v>
+        <v>9.7141735948712992E-5</v>
       </c>
       <c r="U7" s="29">
         <f t="shared" si="5"/>
-        <v>9.7415964143879387E-5</v>
+        <v>9.8302207690228685E-5</v>
       </c>
       <c r="V7" s="29">
         <f t="shared" si="5"/>
-        <v>9.8382805723355664E-5</v>
+        <v>9.9462679431744811E-5</v>
       </c>
       <c r="W7" s="29">
         <f t="shared" si="5"/>
-        <v>9.9349647302832158E-5</v>
+        <v>1.006231511732605E-4</v>
       </c>
       <c r="X7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0031648888230865E-4</v>
+        <v>1.0178362291477663E-4</v>
       </c>
       <c r="Y7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0128333046178493E-4</v>
+        <v>1.0294409465629232E-4</v>
       </c>
       <c r="Z7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0225017204126142E-4</v>
+        <v>1.0410456639780845E-4</v>
       </c>
       <c r="AA7" s="29">
         <f t="shared" si="5"/>
-        <v>1.032170136207377E-4</v>
+        <v>1.0526503813932457E-4</v>
       </c>
       <c r="AB7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0418385520021419E-4</v>
+        <v>1.0642550988084027E-4</v>
       </c>
       <c r="AC7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0515069677969047E-4</v>
+        <v>1.0758598162235639E-4</v>
       </c>
       <c r="AD7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0611753835916697E-4</v>
+        <v>1.0874645336387208E-4</v>
       </c>
       <c r="AE7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0708437993864324E-4</v>
+        <v>1.0990692510538821E-4</v>
       </c>
       <c r="AF7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0805122151811974E-4</v>
+        <v>1.110673968469039E-4</v>
       </c>
       <c r="AG7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0901806309759623E-4</v>
+        <v>1.1222786858842003E-4</v>
       </c>
       <c r="AH7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0998490467707251E-4</v>
+        <v>1.1338834032993615E-4</v>
       </c>
       <c r="AI7" s="29">
         <f t="shared" si="5"/>
-        <v>1.10951746256549E-4</v>
+        <v>1.1454881207145185E-4</v>
       </c>
       <c r="AJ7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1191858783602528E-4</v>
+        <v>1.1570928381296797E-4</v>
       </c>
       <c r="AK7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1288542941550177E-4</v>
+        <v>1.1686975555448367E-4</v>
       </c>
       <c r="AL7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1385227099497805E-4</v>
+        <v>1.1803022729599979E-4</v>
       </c>
       <c r="AM7" s="42">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,AM$1)-($AR7-$AN7)</f>
-        <v>1.1481911257445455E-4</v>
+        <v>1.1919069903751548E-4</v>
       </c>
       <c r="AN7" s="14">
         <f>BNVFE!D13</f>
-        <v>1.2002512973417359E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="AO7" s="14">
         <f>BNVFE!E13</f>
-        <v>1.2203947485023846E-4</v>
+        <v>1.2588989047065195E-4</v>
       </c>
       <c r="AP7" s="14">
         <f>BNVFE!F13</f>
-        <v>1.2262140837608938E-4</v>
+        <v>1.267794853999527E-4</v>
       </c>
       <c r="AQ7" s="14">
         <f>BNVFE!G13</f>
-        <v>1.2349023281851067E-4</v>
+        <v>1.2766708370188837E-4</v>
       </c>
       <c r="AR7" s="14">
         <f>BNVFE!H13</f>
-        <v>1.2480246439513921E-4</v>
+        <v>1.2841375224934351E-4</v>
       </c>
       <c r="AS7" s="14">
         <f>BNVFE!I13</f>
-        <v>1.2579131676732679E-4</v>
+        <v>1.292060013379484E-4</v>
       </c>
       <c r="AT7" s="14">
         <f>BNVFE!J13</f>
-        <v>1.2664682373664536E-4</v>
+        <v>1.2969786741234555E-4</v>
       </c>
       <c r="AU7" s="14">
         <f>BNVFE!K13</f>
-        <v>1.2746739367304943E-4</v>
+        <v>1.3044490007078425E-4</v>
       </c>
       <c r="AV7" s="14">
         <f>BNVFE!L13</f>
-        <v>1.282924889479853E-4</v>
+        <v>1.3128761015527118E-4</v>
       </c>
       <c r="AW7" s="14">
         <f>BNVFE!M13</f>
-        <v>1.2910097835968289E-4</v>
+        <v>1.3215378061129805E-4</v>
       </c>
       <c r="AX7" s="14">
         <f>BNVFE!N13</f>
-        <v>1.2995366163942465E-4</v>
+        <v>1.3309070484013427E-4</v>
       </c>
       <c r="AY7" s="14">
         <f>BNVFE!O13</f>
-        <v>1.3083880805528838E-4</v>
+        <v>1.3407910718238873E-4</v>
       </c>
       <c r="AZ7" s="14">
         <f>BNVFE!P13</f>
-        <v>1.3177832274670185E-4</v>
+        <v>1.3526295506962046E-4</v>
       </c>
       <c r="BA7" s="14">
         <f>BNVFE!Q13</f>
-        <v>1.3276899336543915E-4</v>
+        <v>1.3640067368506529E-4</v>
       </c>
       <c r="BB7" s="14">
         <f>BNVFE!R13</f>
-        <v>1.3378561624301569E-4</v>
+        <v>1.3763005253965096E-4</v>
       </c>
       <c r="BC7" s="14">
         <f>BNVFE!S13</f>
-        <v>1.3484288774582846E-4</v>
+        <v>1.3887998400623192E-4</v>
       </c>
       <c r="BD7" s="14">
         <f>BNVFE!T13</f>
-        <v>1.3589865192901079E-4</v>
+        <v>1.4015207495957123E-4</v>
       </c>
       <c r="BE7" s="14">
         <f>BNVFE!U13</f>
-        <v>1.3695382298529812E-4</v>
+        <v>1.4147299610185228E-4</v>
       </c>
       <c r="BF7" s="14">
         <f>BNVFE!V13</f>
-        <v>1.3799539267868687E-4</v>
+        <v>1.428150955116215E-4</v>
       </c>
       <c r="BG7" s="14">
         <f>BNVFE!W13</f>
-        <v>1.3900583926338301E-4</v>
+        <v>1.4413990221383478E-4</v>
       </c>
       <c r="BH7" s="14">
         <f>BNVFE!X13</f>
-        <v>1.4000005512492829E-4</v>
+        <v>1.4549831824021349E-4</v>
       </c>
       <c r="BI7" s="14">
         <f>BNVFE!Y13</f>
-        <v>1.409866515871308E-4</v>
+        <v>1.4688684778342735E-4</v>
       </c>
       <c r="BJ7" s="14">
         <f>BNVFE!Z13</f>
-        <v>1.4197336464692809E-4</v>
+        <v>1.4833561803584159E-4</v>
       </c>
       <c r="BK7" s="14">
         <f>BNVFE!AA13</f>
-        <v>1.4297082834292379E-4</v>
+        <v>1.4976313138647074E-4</v>
       </c>
       <c r="BL7" s="14">
         <f>BNVFE!AB13</f>
-        <v>1.4393629529317647E-4</v>
+        <v>1.5114388810037889E-4</v>
       </c>
       <c r="BM7" s="14">
         <f>BNVFE!AC13</f>
-        <v>1.4487377206141239E-4</v>
+        <v>1.5254903170297749E-4</v>
       </c>
       <c r="BN7" s="14">
         <f>BNVFE!AD13</f>
-        <v>1.4579505528254221E-4</v>
+        <v>1.5394577853021879E-4</v>
       </c>
       <c r="BO7" s="14">
         <f>BNVFE!AE13</f>
-        <v>1.4669843316868957E-4</v>
+        <v>1.553213317050008E-4</v>
       </c>
       <c r="BP7" s="14">
         <f>BNVFE!AF13</f>
-        <v>1.4763942983243028E-4</v>
+        <v>1.5667364331672129E-4</v>
       </c>
       <c r="BQ7" s="14">
         <f>BNVFE!AG13</f>
-        <v>1.4857132343468077E-4</v>
+        <v>1.5798929425166793E-4</v>
       </c>
       <c r="BR7" s="14">
         <f>BNVFE!AH13</f>
-        <v>1.494983706325589E-4</v>
+        <v>1.5928467805130587E-4</v>
       </c>
       <c r="BS7" s="14"/>
       <c r="BT7" s="29"/>
@@ -21288,263 +21314,263 @@
       <c r="E8" s="11"/>
       <c r="F8" s="4">
         <f>TREND($AN8:$AS8,$AN$1:$AS$1,F$1)</f>
-        <v>3.952522554130269E-4</v>
+        <v>4.1829670106003714E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AM9" si="6">TREND($AN8:$AS8,$AN$1:$AS$1,G$1)</f>
-        <v>3.9505622007027588E-4</v>
+        <v>4.1733940481981967E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9486018472752486E-4</v>
+        <v>4.163821085796022E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9466414938477384E-4</v>
+        <v>4.1542481233938474E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446811404202282E-4</v>
+        <v>4.1446751609916727E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>3.942720786992718E-4</v>
+        <v>4.135102198589498E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9407604335652078E-4</v>
+        <v>4.1255292361873233E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9388000801376976E-4</v>
+        <v>4.1159562737851487E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9368397267101874E-4</v>
+        <v>4.106383311382974E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9348793732826772E-4</v>
+        <v>4.0968103489807993E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9329190198551675E-4</v>
+        <v>4.0872373865786247E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9309586664276573E-4</v>
+        <v>4.07766442417645E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9289983130001471E-4</v>
+        <v>4.0680914617742753E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9270379595726369E-4</v>
+        <v>4.0585184993721006E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9250776061451267E-4</v>
+        <v>4.0489455369699238E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9231172527176165E-4</v>
+        <v>4.0393725745677491E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9211568992901063E-4</v>
+        <v>4.0297996121655744E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9191965458625961E-4</v>
+        <v>4.0202266497633998E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9172361924350859E-4</v>
+        <v>4.0106536873612251E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9152758390075757E-4</v>
+        <v>4.0010807249590504E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9133154855800655E-4</v>
+        <v>3.9915077625568758E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9113551321525553E-4</v>
+        <v>3.9819348001547011E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9093947787250451E-4</v>
+        <v>3.9723618377525264E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9074344252975349E-4</v>
+        <v>3.9627888753503517E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9054740718700247E-4</v>
+        <v>3.9532159129481771E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9035137184425145E-4</v>
+        <v>3.9436429505460024E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9015533650150043E-4</v>
+        <v>3.9340699881438277E-4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8995930115874941E-4</v>
+        <v>3.924497025741653E-4</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8976326581599839E-4</v>
+        <v>3.9149240633394762E-4</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8956723047324737E-4</v>
+        <v>3.9053511009373015E-4</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8937119513049635E-4</v>
+        <v>3.8957781385351269E-4</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8917515978774533E-4</v>
+        <v>3.8862051761329522E-4</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8897912444499431E-4</v>
+        <v>3.8766322137307775E-4</v>
       </c>
       <c r="AM8" s="41">
         <f t="shared" si="6"/>
-        <v>3.8878308910224329E-4</v>
+        <v>3.8670592513286028E-4</v>
       </c>
       <c r="AN8" s="15">
         <f>BNVFE!D14</f>
-        <v>3.8868922094850749E-4</v>
+        <v>3.8854771216578971E-4</v>
       </c>
       <c r="AO8" s="15">
         <f>BNVFE!E14</f>
-        <v>3.8835964956971156E-4</v>
+        <v>3.8258341226368855E-4</v>
       </c>
       <c r="AP8" s="15">
         <f>BNVFE!F14</f>
-        <v>3.8810530909215343E-4</v>
+        <v>3.8242214049766438E-4</v>
       </c>
       <c r="AQ8" s="15">
         <f>BNVFE!G14</f>
-        <v>3.8794345419032003E-4</v>
+        <v>3.8228038455163064E-4</v>
       </c>
       <c r="AR8" s="15">
         <f>BNVFE!H14</f>
-        <v>3.8779756085887974E-4</v>
+        <v>3.8218410810533679E-4</v>
       </c>
       <c r="AS8" s="15">
         <f>BNVFE!I14</f>
-        <v>3.8768659775611613E-4</v>
+        <v>3.8211457216848514E-4</v>
       </c>
       <c r="AT8" s="15">
         <f>BNVFE!J14</f>
-        <v>3.8756372155893972E-4</v>
+        <v>3.8200426469163777E-4</v>
       </c>
       <c r="AU8" s="15">
         <f>BNVFE!K14</f>
-        <v>3.8743413448561116E-4</v>
+        <v>3.8189581833152308E-4</v>
       </c>
       <c r="AV8" s="15">
         <f>BNVFE!L14</f>
-        <v>3.8741625203614658E-4</v>
+        <v>3.8183411054494749E-4</v>
       </c>
       <c r="AW8" s="15">
         <f>BNVFE!M14</f>
-        <v>3.8738694289951122E-4</v>
+        <v>3.817880596463697E-4</v>
       </c>
       <c r="AX8" s="15">
         <f>BNVFE!N14</f>
-        <v>3.8727323156960051E-4</v>
+        <v>3.8171848967811172E-4</v>
       </c>
       <c r="AY8" s="15">
         <f>BNVFE!O14</f>
-        <v>3.872801832305252E-4</v>
+        <v>3.815957033545058E-4</v>
       </c>
       <c r="AZ8" s="15">
         <f>BNVFE!P14</f>
-        <v>3.8723285633958973E-4</v>
+        <v>3.8154719842170315E-4</v>
       </c>
       <c r="BA8" s="15">
         <f>BNVFE!Q14</f>
-        <v>3.8719654146009873E-4</v>
+        <v>3.8151706680653578E-4</v>
       </c>
       <c r="BB8" s="15">
         <f>BNVFE!R14</f>
-        <v>3.8712836957078314E-4</v>
+        <v>3.8148461516232849E-4</v>
       </c>
       <c r="BC8" s="15">
         <f>BNVFE!S14</f>
-        <v>3.8710174375942578E-4</v>
+        <v>3.8143890029675929E-4</v>
       </c>
       <c r="BD8" s="15">
         <f>BNVFE!T14</f>
-        <v>3.8701959513390749E-4</v>
+        <v>3.8136061348433399E-4</v>
       </c>
       <c r="BE8" s="15">
         <f>BNVFE!U14</f>
-        <v>3.8693459130790495E-4</v>
+        <v>3.8128611338859555E-4</v>
       </c>
       <c r="BF8" s="15">
         <f>BNVFE!V14</f>
-        <v>3.8684314096127021E-4</v>
+        <v>3.8118445087418999E-4</v>
       </c>
       <c r="BG8" s="15">
         <f>BNVFE!W14</f>
-        <v>3.8675224209457141E-4</v>
+        <v>3.8109366744518982E-4</v>
       </c>
       <c r="BH8" s="15">
         <f>BNVFE!X14</f>
-        <v>3.8662639724460569E-4</v>
+        <v>3.809728174627515E-4</v>
       </c>
       <c r="BI8" s="15">
         <f>BNVFE!Y14</f>
-        <v>3.8650753548999096E-4</v>
+        <v>3.8085823235152255E-4</v>
       </c>
       <c r="BJ8" s="15">
         <f>BNVFE!Z14</f>
-        <v>3.8637937383671609E-4</v>
+        <v>3.8073193315627202E-4</v>
       </c>
       <c r="BK8" s="15">
         <f>BNVFE!AA14</f>
-        <v>3.8623677194928995E-4</v>
+        <v>3.8058075386159586E-4</v>
       </c>
       <c r="BL8" s="15">
         <f>BNVFE!AB14</f>
-        <v>3.8608334518532407E-4</v>
+        <v>3.8041414660484408E-4</v>
       </c>
       <c r="BM8" s="15">
         <f>BNVFE!AC14</f>
-        <v>3.8590701122559256E-4</v>
+        <v>3.8023685995295948E-4</v>
       </c>
       <c r="BN8" s="15">
         <f>BNVFE!AD14</f>
-        <v>3.8573556454320505E-4</v>
+        <v>3.8003008428330864E-4</v>
       </c>
       <c r="BO8" s="15">
         <f>BNVFE!AE14</f>
-        <v>3.8555651429608934E-4</v>
+        <v>3.7983159458155041E-4</v>
       </c>
       <c r="BP8" s="15">
         <f>BNVFE!AF14</f>
-        <v>3.8536129241038667E-4</v>
+        <v>3.796309792403681E-4</v>
       </c>
       <c r="BQ8" s="15">
         <f>BNVFE!AG14</f>
-        <v>3.8512787391125356E-4</v>
+        <v>3.7940476062466651E-4</v>
       </c>
       <c r="BR8" s="15">
         <f>BNVFE!AH14</f>
-        <v>3.8487689875144672E-4</v>
+        <v>3.7914941421427883E-4</v>
       </c>
       <c r="BS8" s="15"/>
       <c r="BT8" s="4"/>
@@ -21561,263 +21587,263 @@
       <c r="E9" s="11"/>
       <c r="F9" s="39">
         <f>TREND($AN9:$AS9,$AN$1:$AS$1,F$1)</f>
-        <v>1.2701330993401204E-3</v>
+        <v>1.3441858410294183E-3</v>
       </c>
       <c r="G9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2695031447375632E-3</v>
+        <v>1.3411095938381055E-3</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2688731901350058E-3</v>
+        <v>1.3380333466467935E-3</v>
       </c>
       <c r="I9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2682432355324486E-3</v>
+        <v>1.3349570994554815E-3</v>
       </c>
       <c r="J9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2676132809298914E-3</v>
+        <v>1.3318808522641695E-3</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2669833263273342E-3</v>
+        <v>1.3288046050728575E-3</v>
       </c>
       <c r="L9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2663533717247771E-3</v>
+        <v>1.3257283578815456E-3</v>
       </c>
       <c r="M9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2657234171222199E-3</v>
+        <v>1.3226521106902336E-3</v>
       </c>
       <c r="N9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2650934625196627E-3</v>
+        <v>1.3195758634989216E-3</v>
       </c>
       <c r="O9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2644635079171055E-3</v>
+        <v>1.3164996163076087E-3</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2638335533145483E-3</v>
+        <v>1.3134233691162968E-3</v>
       </c>
       <c r="Q9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2632035987119911E-3</v>
+        <v>1.3103471219249848E-3</v>
       </c>
       <c r="R9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2625736441094339E-3</v>
+        <v>1.3072708747336728E-3</v>
       </c>
       <c r="S9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2619436895068767E-3</v>
+        <v>1.3041946275423608E-3</v>
       </c>
       <c r="T9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2613137349043195E-3</v>
+        <v>1.3011183803510488E-3</v>
       </c>
       <c r="U9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2606837803017623E-3</v>
+        <v>1.2980421331597368E-3</v>
       </c>
       <c r="V9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2600538256992051E-3</v>
+        <v>1.2949658859684248E-3</v>
       </c>
       <c r="W9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2594238710966479E-3</v>
+        <v>1.291889638777112E-3</v>
       </c>
       <c r="X9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2587939164940907E-3</v>
+        <v>1.2888133915858E-3</v>
       </c>
       <c r="Y9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2581639618915333E-3</v>
+        <v>1.285737144394488E-3</v>
       </c>
       <c r="Z9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2575340072889761E-3</v>
+        <v>1.282660897203176E-3</v>
       </c>
       <c r="AA9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2569040526864189E-3</v>
+        <v>1.2795846500118641E-3</v>
       </c>
       <c r="AB9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2562740980838617E-3</v>
+        <v>1.2765084028205521E-3</v>
       </c>
       <c r="AC9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2556441434813045E-3</v>
+        <v>1.2734321556292401E-3</v>
       </c>
       <c r="AD9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2550141888787473E-3</v>
+        <v>1.2703559084379281E-3</v>
       </c>
       <c r="AE9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2543842342761901E-3</v>
+        <v>1.2672796612466153E-3</v>
       </c>
       <c r="AF9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2537542796736329E-3</v>
+        <v>1.2642034140553033E-3</v>
       </c>
       <c r="AG9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2531243250710757E-3</v>
+        <v>1.2611271668639913E-3</v>
       </c>
       <c r="AH9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2524943704685185E-3</v>
+        <v>1.2580509196726793E-3</v>
       </c>
       <c r="AI9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2518644158659613E-3</v>
+        <v>1.2549746724813673E-3</v>
       </c>
       <c r="AJ9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2512344612634041E-3</v>
+        <v>1.2518984252900553E-3</v>
       </c>
       <c r="AK9" s="39">
         <f t="shared" si="6"/>
-        <v>1.250604506660847E-3</v>
+        <v>1.2488221780987433E-3</v>
       </c>
       <c r="AL9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2499745520582898E-3</v>
+        <v>1.2457459309074314E-3</v>
       </c>
       <c r="AM9" s="32">
         <f t="shared" si="6"/>
-        <v>1.2493445974557326E-3</v>
+        <v>1.2426696837161194E-3</v>
       </c>
       <c r="AN9" s="14">
         <f>BNVFE!D15</f>
-        <v>1.2490429545241593E-3</v>
+        <v>1.2485882196394983E-3</v>
       </c>
       <c r="AO9" s="14">
         <f>BNVFE!E15</f>
-        <v>1.2479838852561889E-3</v>
+        <v>1.2294220931562134E-3</v>
       </c>
       <c r="AP9" s="14">
         <f>BNVFE!F15</f>
-        <v>1.2471665685815224E-3</v>
+        <v>1.2289038504258785E-3</v>
       </c>
       <c r="AQ9" s="14">
         <f>BNVFE!G15</f>
-        <v>1.2466464519590526E-3</v>
+        <v>1.2284483212881695E-3</v>
       </c>
       <c r="AR9" s="14">
         <f>BNVFE!H15</f>
-        <v>1.2461776274382624E-3</v>
+        <v>1.2281389393695341E-3</v>
       </c>
       <c r="AS9" s="14">
         <f>BNVFE!I15</f>
-        <v>1.2458210503215087E-3</v>
+        <v>1.2279154873998631E-3</v>
       </c>
       <c r="AT9" s="14">
         <f>BNVFE!J15</f>
-        <v>1.2454261907779705E-3</v>
+        <v>1.2275610171203651E-3</v>
       </c>
       <c r="AU9" s="14">
         <f>BNVFE!K15</f>
-        <v>1.2450097660041024E-3</v>
+        <v>1.2272125274922902E-3</v>
       </c>
       <c r="AV9" s="14">
         <f>BNVFE!L15</f>
-        <v>1.2449523012062393E-3</v>
+        <v>1.2270142310850131E-3</v>
       </c>
       <c r="AW9" s="14">
         <f>BNVFE!M15</f>
-        <v>1.2448581170389291E-3</v>
+        <v>1.2268662476902642E-3</v>
       </c>
       <c r="AX9" s="14">
         <f>BNVFE!N15</f>
-        <v>1.244492708563932E-3</v>
+        <v>1.2266426863615321E-3</v>
       </c>
       <c r="AY9" s="14">
         <f>BNVFE!O15</f>
-        <v>1.2445150475500222E-3</v>
+        <v>1.2262481156244335E-3</v>
       </c>
       <c r="AZ9" s="14">
         <f>BNVFE!P15</f>
-        <v>1.244362963786191E-3</v>
+        <v>1.2260922462529371E-3</v>
       </c>
       <c r="BA9" s="14">
         <f>BNVFE!Q15</f>
-        <v>1.2442462668418766E-3</v>
+        <v>1.2259954190717215E-3</v>
       </c>
       <c r="BB9" s="14">
         <f>BNVFE!R15</f>
-        <v>1.2440271982043711E-3</v>
+        <v>1.2258911365360214E-3</v>
       </c>
       <c r="BC9" s="14">
         <f>BNVFE!S15</f>
-        <v>1.2439416368347936E-3</v>
+        <v>1.2257442329748247E-3</v>
       </c>
       <c r="BD9" s="14">
         <f>BNVFE!T15</f>
-        <v>1.2436776543099449E-3</v>
+        <v>1.2254926602884161E-3</v>
       </c>
       <c r="BE9" s="14">
         <f>BNVFE!U15</f>
-        <v>1.2434044966707469E-3</v>
+        <v>1.2252532561200515E-3</v>
       </c>
       <c r="BF9" s="14">
         <f>BNVFE!V15</f>
-        <v>1.2431106233009778E-3</v>
+        <v>1.2249265662081276E-3</v>
       </c>
       <c r="BG9" s="14">
         <f>BNVFE!W15</f>
-        <v>1.242818522097998E-3</v>
+        <v>1.2246348359612647E-3</v>
       </c>
       <c r="BH9" s="14">
         <f>BNVFE!X15</f>
-        <v>1.2424141228640053E-3</v>
+        <v>1.2242464876074037E-3</v>
       </c>
       <c r="BI9" s="14">
         <f>BNVFE!Y15</f>
-        <v>1.2420321636298346E-3</v>
+        <v>1.2238782712582989E-3</v>
       </c>
       <c r="BJ9" s="14">
         <f>BNVFE!Z15</f>
-        <v>1.241620319407161E-3</v>
+        <v>1.2234724119972555E-3</v>
       </c>
       <c r="BK9" s="14">
         <f>BNVFE!AA15</f>
-        <v>1.2411620718582406E-3</v>
+        <v>1.2229866011676566E-3</v>
       </c>
       <c r="BL9" s="14">
         <f>BNVFE!AB15</f>
-        <v>1.240669038843074E-3</v>
+        <v>1.2224512129731741E-3</v>
       </c>
       <c r="BM9" s="14">
         <f>BNVFE!AC15</f>
-        <v>1.2401023941352315E-3</v>
+        <v>1.2218815068132573E-3</v>
       </c>
       <c r="BN9" s="14">
         <f>BNVFE!AD15</f>
-        <v>1.2395514545691941E-3</v>
+        <v>1.2212170384425776E-3</v>
       </c>
       <c r="BO9" s="14">
         <f>BNVFE!AE15</f>
-        <v>1.2389760811407262E-3</v>
+        <v>1.2205791968195919E-3</v>
       </c>
       <c r="BP9" s="14">
         <f>BNVFE!AF15</f>
-        <v>1.2383487405617649E-3</v>
+        <v>1.2199345245082229E-3</v>
       </c>
       <c r="BQ9" s="14">
         <f>BNVFE!AG15</f>
-        <v>1.2375986561341948E-3</v>
+        <v>1.219207576723474E-3</v>
       </c>
       <c r="BR9" s="14">
         <f>BNVFE!AH15</f>
-        <v>1.236792153822779E-3</v>
+        <v>1.2183870275091699E-3</v>
       </c>
       <c r="BS9" s="15"/>
       <c r="BT9" s="4"/>
@@ -22378,259 +22404,259 @@
       <c r="F12" s="11"/>
       <c r="G12" s="29">
         <f>TREND($AN12:$BR12,$AN$1:$BR$1,G$1)</f>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AM12" s="42">
         <f t="shared" si="7"/>
-        <v>4.971525705626559E-3</v>
+        <v>5.2144482404601076E-3</v>
       </c>
       <c r="AN12" s="15">
         <f>BNVFE!D18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AO12" s="15">
         <f>BNVFE!E18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AP12" s="15">
         <f>BNVFE!F18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AQ12" s="15">
         <f>BNVFE!G18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AR12" s="15">
         <f>BNVFE!H18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AS12" s="15">
         <f>BNVFE!I18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AT12" s="15">
         <f>BNVFE!J18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AU12" s="15">
         <f>BNVFE!K18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AV12" s="15">
         <f>BNVFE!L18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AW12" s="15">
         <f>BNVFE!M18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AX12" s="15">
         <f>BNVFE!N18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AY12" s="15">
         <f>BNVFE!O18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="AZ12" s="15">
         <f>BNVFE!P18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BA12" s="15">
         <f>BNVFE!Q18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BB12" s="15">
         <f>BNVFE!R18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BC12" s="15">
         <f>BNVFE!S18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BD12" s="15">
         <f>BNVFE!T18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BE12" s="15">
         <f>BNVFE!U18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BF12" s="15">
         <f>BNVFE!V18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BG12" s="15">
         <f>BNVFE!W18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BH12" s="15">
         <f>BNVFE!X18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BI12" s="15">
         <f>BNVFE!Y18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BJ12" s="15">
         <f>BNVFE!Z18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BK12" s="15">
         <f>BNVFE!AA18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BL12" s="15">
         <f>BNVFE!AB18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BM12" s="15">
         <f>BNVFE!AC18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BN12" s="15">
         <f>BNVFE!AD18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BO12" s="15">
         <f>BNVFE!AE18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BP12" s="15">
         <f>BNVFE!AF18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BQ12" s="15">
         <f>BNVFE!AG18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BR12" s="15">
         <f>BNVFE!AH18</f>
-        <v>4.9715257056265547E-3</v>
+        <v>5.2144482404601084E-3</v>
       </c>
       <c r="BS12" s="15"/>
       <c r="BT12" s="4"/>
@@ -23090,7 +23116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23100,9 +23126,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -23340,127 +23366,127 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.9799192511257997E-4</v>
+        <v>2.9800360389056117E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0495642992099084E-4</v>
+        <v>3.0444103552180828E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1206914647141513E-4</v>
+        <v>3.1087846715305539E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1882187840910213E-4</v>
+        <v>3.1731589878430244E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.2511303052032729E-4</v>
+        <v>3.237533304155496E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3132507899165593E-4</v>
+        <v>3.3019076204679666E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3654940106272427E-4</v>
+        <v>3.3662819367804382E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4251086081258395E-4</v>
+        <v>3.4306562530929093E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4855887390285254E-4</v>
+        <v>3.4950305694053809E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.5467038374657962E-4</v>
+        <v>3.559404885717852E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.606941984468817E-4</v>
+        <v>3.6237792020303231E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.6680695227320973E-4</v>
+        <v>3.6881535183427941E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.7287562060881878E-4</v>
+        <v>3.7525278346552658E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.7896305858214533E-4</v>
+        <v>3.8169021509677352E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.9236503637815238E-4</v>
+        <v>3.8687653048079967E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.9958069974953693E-4</v>
+        <v>4.2056511897525898E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.0425029377326959E-4</v>
+        <v>4.663688306917896E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.0766085158771333E-4</v>
+        <v>4.9065608923801098E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.1161322090888235E-4</v>
+        <v>5.2629042543785216E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.1531514899510258E-4</v>
+        <v>5.8512991066521814E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.1564996463107134E-4</v>
+        <v>5.8667097100634669E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.1549338417832383E-4</v>
+        <v>5.8835007694647346E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.1532681156711845E-4</v>
+        <v>5.898625440276938E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.1611003974718208E-4</v>
+        <v>5.9174883473423606E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.159197079205367E-4</v>
+        <v>5.9409451273397624E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.1570872142824807E-4</v>
+        <v>5.9615259573580354E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.1548706556389424E-4</v>
+        <v>5.9786423482106974E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.1544768876733244E-4</v>
+        <v>5.9946864918168088E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.1466296916326439E-4</v>
+        <v>6.0105353035601729E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.1384514251470114E-4</v>
+        <v>6.0283138278675701E-4</v>
       </c>
       <c r="AF3" s="4">
         <f>BNVFE!AF25*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.1327648701805351E-4</v>
+        <v>6.0466010462175161E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23475,123 +23501,123 @@
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>3.2103824262146724E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>3.2782662361074218E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.3427917841723627E-4</v>
+        <v>3.3461500460001711E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.4095561734558426E-4</v>
+        <v>3.4140338558929205E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.4763205627393225E-4</v>
+        <v>3.4819176657856698E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.5430849520228023E-4</v>
+        <v>3.5498014756784192E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.6098493413062822E-4</v>
+        <v>3.6176852855711685E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.6766137305897621E-4</v>
+        <v>3.6855690954639179E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.743378119873242E-4</v>
+        <v>3.7534529053566672E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.8101425091567219E-4</v>
+        <v>3.8213367152494166E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.8769068984402017E-4</v>
+        <v>3.889220525142166E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.9436712877236816E-4</v>
+        <v>3.9571043350349153E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
-        <v>4.010435677007162E-4</v>
+        <v>4.024988144927663E-4</v>
       </c>
       <c r="P4" s="29">
         <f>Extrapolations!AO2</f>
-        <v>4.1543936179917892E-4</v>
+        <v>4.0796787215023562E-4</v>
       </c>
       <c r="Q4" s="29">
         <f>Extrapolations!AP2</f>
-        <v>4.232456921304615E-4</v>
+        <v>4.4349306088874353E-4</v>
       </c>
       <c r="R4" s="29">
         <f>Extrapolations!AQ2</f>
-        <v>4.284224989356039E-4</v>
+        <v>4.9179385282965761E-4</v>
       </c>
       <c r="S4" s="29">
         <f>Extrapolations!AR2</f>
-        <v>4.3223887309206766E-4</v>
+        <v>5.174051794644127E-4</v>
       </c>
       <c r="T4" s="29">
         <f>Extrapolations!AS2</f>
-        <v>4.3661930301858122E-4</v>
+        <v>5.5498219220506228E-4</v>
       </c>
       <c r="U4" s="29">
         <f>Extrapolations!AT2</f>
-        <v>4.4073837767711228E-4</v>
+        <v>6.1702942871432137E-4</v>
       </c>
       <c r="V4" s="29">
         <f>Extrapolations!AU2</f>
-        <v>4.4130433819121803E-4</v>
+        <v>6.1865450301759833E-4</v>
       </c>
       <c r="W4" s="29">
         <f>Extrapolations!AV2</f>
-        <v>4.4139330713525239E-4</v>
+        <v>6.2042514874960234E-4</v>
       </c>
       <c r="X4" s="29">
         <f>Extrapolations!AW2</f>
-        <v>4.4143859386227608E-4</v>
+        <v>6.2202007097467485E-4</v>
       </c>
       <c r="Y4" s="29">
         <f>Extrapolations!AX2</f>
-        <v>4.4252278985937798E-4</v>
+        <v>6.2400919656171528E-4</v>
       </c>
       <c r="Z4" s="29">
         <f>Extrapolations!AY2</f>
-        <v>4.4258101673758966E-4</v>
+        <v>6.2648275385172284E-4</v>
       </c>
       <c r="AA4" s="29">
         <f>Extrapolations!AZ2</f>
-        <v>4.4262644410952699E-4</v>
+        <v>6.2865303733188277E-4</v>
       </c>
       <c r="AB4" s="29">
         <f>Extrapolations!BA2</f>
-        <v>4.4263525674443374E-4</v>
+        <v>6.3045798981798329E-4</v>
       </c>
       <c r="AC4" s="29">
         <f>Extrapolations!BB2</f>
-        <v>4.428907913418545E-4</v>
+        <v>6.32149872010817E-4</v>
       </c>
       <c r="AD4" s="29">
         <f>Extrapolations!BC2</f>
-        <v>4.4235185104972023E-4</v>
+        <v>6.338211561269702E-4</v>
       </c>
       <c r="AE4" s="29">
         <f>Extrapolations!BD2</f>
-        <v>4.4180682000362565E-4</v>
+        <v>6.3569593171044787E-4</v>
       </c>
       <c r="AF4" s="29">
         <f>Extrapolations!BE2</f>
-        <v>4.415169210975881E-4</v>
+        <v>6.3762434994468471E-4</v>
       </c>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -23602,127 +23628,127 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.3039537831752443E-4</v>
+        <v>2.8853551813771478E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.3247079907851041E-4</v>
+        <v>2.9476842152193064E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.3608525156768267E-4</v>
+        <v>3.0100132490614649E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.4140601212844754E-4</v>
+        <v>3.0723422829036234E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4682483192820804E-4</v>
+        <v>3.134671316745782E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.5399117808755025E-4</v>
+        <v>3.1970003505879399E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.5770234384308779E-4</v>
+        <v>3.259329384430099E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.6308195251352201E-4</v>
+        <v>3.3216584182722581E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.6931237060169403E-4</v>
+        <v>3.3839874521144166E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.7541688009215464E-4</v>
+        <v>3.4463164859565752E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.8060604014518434E-4</v>
+        <v>3.5086455197987337E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.8660972321779061E-4</v>
+        <v>3.5709745536408922E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.926877010252523E-4</v>
+        <v>3.6333035874830502E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.9870114016606978E-4</v>
+        <v>3.6956326213252077E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.1235135875181372E-4</v>
+        <v>3.7458479937911446E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.2000791936622607E-4</v>
+        <v>4.0720304362070684E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.2525292156963163E-4</v>
+        <v>4.5155149283480797E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.2886235816476826E-4</v>
+        <v>4.7506710350961095E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.3285917396080627E-4</v>
+        <v>5.0956927571384572E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.3707582192698479E-4</v>
+        <v>5.6653932955007117E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.3740782672530476E-4</v>
+        <v>5.6803142776030719E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.3733077971452199E-4</v>
+        <v>5.6965718562402917E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.3727737730799265E-4</v>
+        <v>5.7112159903127929E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.3826191917219735E-4</v>
+        <v>5.7294795904593997E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.381057457924663E-4</v>
+        <v>5.7521911083136532E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.3788374849786256E-4</v>
+        <v>5.7721180500536196E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.3769898244799599E-4</v>
+        <v>5.7886906238038837E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.3777480871824145E-4</v>
+        <v>5.8042250174421717E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.3716325908544007E-4</v>
+        <v>5.8195702852461087E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.363360192507078E-4</v>
+        <v>5.8367839553352869E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>BNVFE!AF27*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.3573558513369061E-4</v>
+        <v>5.8544901573845658E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23733,127 +23759,127 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.1511255080264186E-4</v>
+        <v>5.1580480797733946E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2428092566616732E-4</v>
+        <v>5.2694715036203787E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.3102064816912329E-4</v>
+        <v>5.3808949274673627E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.3833911588692471E-4</v>
+        <v>5.4923183513143467E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.5418108584188324E-4</v>
+        <v>5.6037417751613307E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>5.8181999979491409E-4</v>
+        <v>5.7151651990083136E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>6.1507401996100622E-4</v>
+        <v>5.8265886228552977E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>6.2764405946183748E-4</v>
+        <v>5.9380120467022817E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>6.3817589517729746E-4</v>
+        <v>6.0494354705492646E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>6.4869543049513468E-4</v>
+        <v>6.1608588943962508E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>6.581047918396357E-4</v>
+        <v>6.2722823182432337E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>6.6834810198910361E-4</v>
+        <v>6.3837057420902178E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>6.7910400948621805E-4</v>
+        <v>6.4951291659372007E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>6.8981170811608045E-4</v>
+        <v>6.6065525897841826E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>7.1344718240657083E-4</v>
+        <v>6.6963208468066697E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>7.2661438980298719E-4</v>
+        <v>7.2794257385781682E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>7.356760015799844E-4</v>
+        <v>8.0722273831942124E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>7.4187120383651457E-4</v>
+        <v>8.4926076929347041E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>7.4853261641737515E-4</v>
+        <v>9.1093909029696071E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>7.5506233584725639E-4</v>
+        <v>1.0127824538769953E-3</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>7.5521763030150985E-4</v>
+        <v>1.0154498254220361E-3</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>7.5422055105138291E-4</v>
+        <v>1.0183561356334346E-3</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>7.5304546398064301E-4</v>
+        <v>1.0209740160288929E-3</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>7.5349566500976337E-4</v>
+        <v>1.0242389356572969E-3</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>7.5171922103753558E-4</v>
+        <v>1.0282989939063808E-3</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>7.4943614758610189E-4</v>
+        <v>1.0318612632672197E-3</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>7.4699197436416847E-4</v>
+        <v>1.0348238840482305E-3</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>7.4464449629104302E-4</v>
+        <v>1.0376009130183062E-3</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>7.4057257931631681E-4</v>
+        <v>1.0403441326274751E-3</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>7.3602635790278052E-4</v>
+        <v>1.0434213599484791E-3</v>
       </c>
       <c r="AF6" s="4">
         <f>BNVFE!AF28*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>7.3135170735541761E-4</v>
+        <v>1.0465866354774616E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23864,127 +23890,127 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.8497502058533896E-4</v>
+        <v>2.8466694948393705E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.898398018603075E-4</v>
+        <v>2.9081628459617784E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>2.9639229529668671E-4</v>
+        <v>2.9696561970841864E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0225117678650028E-4</v>
+        <v>3.0311495482065939E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0778031687736323E-4</v>
+        <v>3.0926428993290018E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1364712087038462E-4</v>
+        <v>3.1541362504514093E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1818917619505965E-4</v>
+        <v>3.2156296015738172E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2376820979030025E-4</v>
+        <v>3.2771229526962258E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2959142944700965E-4</v>
+        <v>3.3386163038186327E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.3540222212257912E-4</v>
+        <v>3.4001096549410406E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4090374402748674E-4</v>
+        <v>3.4616030060634486E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4686163891380382E-4</v>
+        <v>3.5230963571858566E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.5254200312831522E-4</v>
+        <v>3.584589708308264E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.582922320064483E-4</v>
+        <v>3.6460830594306704E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.7083340468707854E-4</v>
+        <v>3.6956251642964399E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.7782282401531729E-4</v>
+        <v>4.0174342831774063E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.8233661580785696E-4</v>
+        <v>4.4549727128862909E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.8550736662354158E-4</v>
+        <v>4.6869759407472367E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.8922118122167398E-4</v>
+        <v>5.027371749739501E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.9278680995063548E-4</v>
+        <v>5.5894339714779556E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.9308720014886002E-4</v>
+        <v>5.6041548990289124E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.9293845521070378E-4</v>
+        <v>5.6201945025637686E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.9281882697013573E-4</v>
+        <v>5.6346422939523573E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.9354272058642249E-4</v>
+        <v>5.6526610230637163E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.9331686794151E-4</v>
+        <v>5.6750680339837198E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.930117319368427E-4</v>
+        <v>5.6947278032706068E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.9280440477488073E-4</v>
+        <v>5.7110781785902015E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.9272510536214313E-4</v>
+        <v>5.7264042933009168E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.9200385857580093E-4</v>
+        <v>5.7415438179007124E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.9112433694300379E-4</v>
+        <v>5.758526693996302E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>BNVFE!AF29*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>3.9051236766252144E-4</v>
+        <v>5.7759954983807539E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24161,7 +24187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24171,9 +24197,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -25191,7 +25217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25201,9 +25227,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CCEDF0-B0E2-4AC5-A249-991C4C3060C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,7 +51,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,14 +58,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -384,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1341,162 +1339,162 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1526,6 +1524,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1777,133 +1776,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.2103824262146724E-4</c:v>
+                  <c:v>3.2092630056054029E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2782662361074218E-4</c:v>
+                  <c:v>3.2760273948888828E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.3461500460001711E-4</c:v>
+                  <c:v>3.3427917841723627E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.4140338558929205E-4</c:v>
+                  <c:v>3.4095561734558426E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.4819176657856698E-4</c:v>
+                  <c:v>3.4763205627393225E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.5498014756784192E-4</c:v>
+                  <c:v>3.5430849520228023E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.6176852855711685E-4</c:v>
+                  <c:v>3.6098493413062822E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6855690954639179E-4</c:v>
+                  <c:v>3.6766137305897621E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7534529053566672E-4</c:v>
+                  <c:v>3.743378119873242E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8213367152494166E-4</c:v>
+                  <c:v>3.8101425091567219E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.889220525142166E-4</c:v>
+                  <c:v>3.8769068984402017E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.9571043350349153E-4</c:v>
+                  <c:v>3.9436712877236816E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.024988144927663E-4</c:v>
+                  <c:v>4.010435677007162E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.0796787215023562E-4</c:v>
+                  <c:v>4.1543936179917892E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.4349306088874353E-4</c:v>
+                  <c:v>4.232456921304615E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.9179385282965761E-4</c:v>
+                  <c:v>4.284224989356039E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.174051794644127E-4</c:v>
+                  <c:v>4.3223887309206766E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.5498219220506228E-4</c:v>
+                  <c:v>4.3661930301858122E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>6.1702942871432137E-4</c:v>
+                  <c:v>4.4073837767711228E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>6.1865450301759833E-4</c:v>
+                  <c:v>4.4130433819121803E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>6.2042514874960234E-4</c:v>
+                  <c:v>4.4139330713525239E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>6.2202007097467485E-4</c:v>
+                  <c:v>4.4143859386227608E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>6.2400919656171528E-4</c:v>
+                  <c:v>4.4252278985937798E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>6.2648275385172284E-4</c:v>
+                  <c:v>4.4258101673758966E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>6.2865303733188277E-4</c:v>
+                  <c:v>4.4262644410952699E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>6.3045798981798329E-4</c:v>
+                  <c:v>4.4263525674443374E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>6.32149872010817E-4</c:v>
+                  <c:v>4.428907913418545E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>6.338211561269702E-4</c:v>
+                  <c:v>4.4235185104972023E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>6.3569593171044787E-4</c:v>
+                  <c:v>4.4180682000362565E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>6.3762434994468471E-4</c:v>
+                  <c:v>4.415169210975881E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>6.394624697168103E-4</c:v>
+                  <c:v>4.4141525513386555E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>6.406181007048323E-4</c:v>
+                  <c:v>4.4094858868260617E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>6.4209464096239596E-4</c:v>
+                  <c:v>4.406528424788466E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>6.4337258070020452E-4</c:v>
+                  <c:v>4.4046477188487546E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>6.4434270628615663E-4</c:v>
+                  <c:v>4.4016736396697124E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>6.4571601073642603E-4</c:v>
+                  <c:v>4.3991921468742256E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>6.4710816023557315E-4</c:v>
+                  <c:v>4.3980677282836695E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>6.4804117422294469E-4</c:v>
+                  <c:v>4.3981133028276362E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>6.4919973276739693E-4</c:v>
+                  <c:v>4.3960459654073496E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.4990136461510475E-4</c:v>
+                  <c:v>4.3945697770705547E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.5029076468089368E-4</c:v>
+                  <c:v>4.3919624527100954E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>6.5073794454305572E-4</c:v>
+                  <c:v>4.3913823303573507E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>6.5120598543606876E-4</c:v>
+                  <c:v>4.3909651675542918E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,6 +1988,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2237,196 +2237,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>5.2144482404601076E-3</c:v>
+                  <c:v>4.971525705626559E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>5.2144482404601084E-3</c:v>
+                  <c:v>4.9715257056265547E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,6 +2988,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3236,136 +3237,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.203379342864262E-4</c:v>
+                  <c:v>1.1709920537385831E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.2016088715049279E-4</c:v>
+                  <c:v>1.1699905164334643E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.1998384001455937E-4</c:v>
+                  <c:v>1.1689889791283454E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1980679287862601E-4</c:v>
+                  <c:v>1.1679874418232269E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1962974574269259E-4</c:v>
+                  <c:v>1.166985904518108E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1945269860675917E-4</c:v>
+                  <c:v>1.1659843672129892E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.1927565147082576E-4</c:v>
+                  <c:v>1.1649828299078704E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1909860433489239E-4</c:v>
+                  <c:v>1.1639812926027518E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1892155719895898E-4</c:v>
+                  <c:v>1.1629797552976329E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1874451006302556E-4</c:v>
+                  <c:v>1.1619782179925141E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.1856746292709215E-4</c:v>
+                  <c:v>1.1609766806873955E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1839041579115878E-4</c:v>
+                  <c:v>1.1599751433822767E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1821336865522537E-4</c:v>
+                  <c:v>1.1589736060771579E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.1797797201017124E-4</c:v>
+                  <c:v>1.157863591831631E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.1829846623500186E-4</c:v>
+                  <c:v>1.1589922337335911E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1729428078558663E-4</c:v>
+                  <c:v>1.1538533736033749E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1719689551672209E-4</c:v>
+                  <c:v>1.1535674989351573E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1764352168964412E-4</c:v>
+                  <c:v>1.1555682727052541E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1866120205476883E-4</c:v>
+                  <c:v>1.1619447640903485E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1959158500672709E-4</c:v>
+                  <c:v>1.1675875263243092E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.2012295075743907E-4</c:v>
+                  <c:v>1.170886675606406E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1891477439334622E-4</c:v>
+                  <c:v>1.1617580985063572E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.184720637798503E-4</c:v>
+                  <c:v>1.1591329821118029E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1791912239365693E-4</c:v>
+                  <c:v>1.1553838100461461E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.1726854759265854E-4</c:v>
+                  <c:v>1.1496830903628264E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.163947280800766E-4</c:v>
+                  <c:v>1.1417779457660161E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1543036314509163E-4</c:v>
+                  <c:v>1.1321126528769265E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.1452766973335742E-4</c:v>
+                  <c:v>1.1235905420307894E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1368570476708297E-4</c:v>
+                  <c:v>1.113973304748738E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.1294953379908579E-4</c:v>
+                  <c:v>1.1073582017040977E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1233567537117923E-4</c:v>
+                  <c:v>1.099531339020346E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1173642803062577E-4</c:v>
+                  <c:v>1.0948773622007766E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1124100972467315E-4</c:v>
+                  <c:v>1.0913516582552083E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.1075853315322957E-4</c:v>
+                  <c:v>1.0884247723484658E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1037521243170253E-4</c:v>
+                  <c:v>1.085933825763662E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0991848018148144E-4</c:v>
+                  <c:v>1.083443267474224E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0966775896786235E-4</c:v>
+                  <c:v>1.0815629409531245E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0946652790457937E-4</c:v>
+                  <c:v>1.0799885128162017E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.093057513924758E-4</c:v>
+                  <c:v>1.078432358858381E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0925596504686471E-4</c:v>
+                  <c:v>1.0772424981274788E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.0913422478199535E-4</c:v>
+                  <c:v>1.0749204222981193E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.0902511165204325E-4</c:v>
+                  <c:v>1.0725768900406794E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.088790399619601E-4</c:v>
+                  <c:v>1.0704107117361582E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.0882419661026466E-4</c:v>
+                  <c:v>1.0682755170917861E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,6 +3452,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3699,181 +3701,181 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>9.5189169708960616E-4</c:v>
+                  <c:v>1.0544082239246518E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>9.5461686896994183E-4</c:v>
+                  <c:v>1.0507727694715886E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>9.5734204085027739E-4</c:v>
+                  <c:v>1.0471373150185254E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>9.6006721273061296E-4</c:v>
+                  <c:v>1.0435018605654625E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>9.6279238461094863E-4</c:v>
+                  <c:v>1.0398664061123993E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.6551755649128431E-4</c:v>
+                  <c:v>1.0362309516593362E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>9.6824272837161987E-4</c:v>
+                  <c:v>1.032595497206273E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.7096790025195544E-4</c:v>
+                  <c:v>1.0289600427532098E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.73693072132291E-4</c:v>
+                  <c:v>1.0253245883001466E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.7641824401262668E-4</c:v>
+                  <c:v>1.0216891338470835E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.7914341589296224E-4</c:v>
+                  <c:v>1.0180536793940205E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>9.8186858777329781E-4</c:v>
+                  <c:v>1.0144182249409574E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.8459375965363337E-4</c:v>
+                  <c:v>1.0107827704878942E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.8731893153396894E-4</c:v>
+                  <c:v>1.0071473160348312E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.900441034143045E-4</c:v>
+                  <c:v>1.0035118615817681E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.9276927529464007E-4</c:v>
+                  <c:v>9.998764071287049E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.9549444717497563E-4</c:v>
+                  <c:v>9.9624095267564173E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.982196190553112E-4</c:v>
+                  <c:v>9.9260549822257856E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0036699628159823E-3</c:v>
+                  <c:v>9.8533458931645266E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0208853457654701E-3</c:v>
+                  <c:v>9.988021364476826E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.0363125757886589E-3</c:v>
+                  <c:v>1.0144915989479513E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.0550551388611548E-3</c:v>
+                  <c:v>1.0338641499362739E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.0785940195513571E-3</c:v>
+                  <c:v>1.0578483957153595E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1061013871046345E-3</c:v>
+                  <c:v>1.0855563574924357E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1357533191201131E-3</c:v>
+                  <c:v>1.1154933208321449E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1663973327510526E-3</c:v>
+                  <c:v>1.146433059300843E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1820311595601288E-3</c:v>
+                  <c:v>1.162195430859642E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.2045176477719092E-3</c:v>
+                  <c:v>1.1852372128907688E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.2233355994231063E-3</c:v>
+                  <c:v>1.2047747934543398E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.2400654478455125E-3</c:v>
+                  <c:v>1.2221312436297778E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.2499350960073442E-3</c:v>
+                  <c:v>1.2324377185343545E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.2512540753321518E-3</c:v>
+                  <c:v>1.2337189023360906E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.2521553698507089E-3</c:v>
+                  <c:v>1.2346974269358923E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.252074367228913E-3</c:v>
+                  <c:v>1.2348004129494538E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.2523252347546336E-3</c:v>
+                  <c:v>1.2352948717913239E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.2527262378328314E-3</c:v>
+                  <c:v>1.2357035089552255E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.2526822878954607E-3</c:v>
+                  <c:v>1.2358091719752555E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.252281766020957E-3</c:v>
+                  <c:v>1.2356633538581946E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.2523305279952656E-3</c:v>
+                  <c:v>1.2356553228387885E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.2524525933322692E-3</c:v>
+                  <c:v>1.2356638262711007E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.2517309481927445E-3</c:v>
+                  <c:v>1.2356742193550382E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.2521125427219578E-3</c:v>
+                  <c:v>1.2356002079997265E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.2526240622485064E-3</c:v>
+                  <c:v>1.2356762664776318E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.2533139479442377E-3</c:v>
+                  <c:v>1.2358724753046924E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.2540837134531458E-3</c:v>
+                  <c:v>1.2358611373949426E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.254924697108742E-3</c:v>
+                  <c:v>1.236194345964814E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.2557445078018091E-3</c:v>
+                  <c:v>1.2367163622262144E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.2564741730028979E-3</c:v>
+                  <c:v>1.2373051461783645E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.2570591562933724E-3</c:v>
+                  <c:v>1.2379718782600448E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,6 +3961,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4240,148 +4243,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.8263899375966939E-4</c:v>
+                  <c:v>7.777140437446856E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.8487321551666534E-4</c:v>
+                  <c:v>7.7502331548669776E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.8710743727366129E-4</c:v>
+                  <c:v>7.7233258722870992E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.8934165903065724E-4</c:v>
+                  <c:v>7.6964185897072208E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.9157588078765319E-4</c:v>
+                  <c:v>7.6695113071273424E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.9381010254464914E-4</c:v>
+                  <c:v>7.642604024547464E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.9604432430164509E-4</c:v>
+                  <c:v>7.6156967419675856E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.9827854605864104E-4</c:v>
+                  <c:v>7.5887894593877072E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.0051276781563699E-4</c:v>
+                  <c:v>7.5618821768078288E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.0274698957263294E-4</c:v>
+                  <c:v>7.5349748942279504E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.049812113296289E-4</c:v>
+                  <c:v>7.508067611648072E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>8.0721543308662485E-4</c:v>
+                  <c:v>7.4811603290681936E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>8.094496548436208E-4</c:v>
+                  <c:v>7.4542530464883152E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>8.1168387660061675E-4</c:v>
+                  <c:v>7.4273457639084369E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>8.139180983576127E-4</c:v>
+                  <c:v>7.4004384813285585E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>8.1615232011460865E-4</c:v>
+                  <c:v>7.3735311987486801E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>8.183865418716046E-4</c:v>
+                  <c:v>7.3466239161688017E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>8.228549853855965E-4</c:v>
+                  <c:v>7.2928093510090471E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>8.3696895134066358E-4</c:v>
+                  <c:v>7.3924874245474208E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>8.4961690694915356E-4</c:v>
+                  <c:v>7.508610678592162E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.6498292569483441E-4</c:v>
+                  <c:v>7.6519937715357957E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.8428118711932307E-4</c:v>
+                  <c:v>7.8295096466416878E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>9.0683299734042682E-4</c:v>
+                  <c:v>8.0345860591986078E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>9.3114302054446375E-4</c:v>
+                  <c:v>8.2561600996837806E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>9.5626639807157017E-4</c:v>
+                  <c:v>8.4851560331147032E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>9.6908373126585042E-4</c:v>
+                  <c:v>8.6018189128557194E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>9.875191927366351E-4</c:v>
+                  <c:v>8.7723592808510082E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.002947018520609E-3</c:v>
+                  <c:v>8.9169638159754131E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.0166629208482015E-3</c:v>
+                  <c:v>9.0454250346438524E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.02475451419546E-3</c:v>
+                  <c:v>9.1217068960288046E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0258358743569153E-3</c:v>
+                  <c:v>9.1311893899054719E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0265747972253597E-3</c:v>
+                  <c:v>9.1384317961185513E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.0265083875352788E-3</c:v>
+                  <c:v>9.1391940319832696E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0267140603180244E-3</c:v>
+                  <c:v>9.1428536965325259E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.0270428211600088E-3</c:v>
+                  <c:v>9.1458781645278495E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.0270067889717274E-3</c:v>
+                  <c:v>9.1466602138630556E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0266784226427533E-3</c:v>
+                  <c:v>9.1455809624705047E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0267183999611385E-3</c:v>
+                  <c:v>9.145521522059036E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.0268184747614386E-3</c:v>
+                  <c:v>9.1455844589652965E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.0262268367502033E-3</c:v>
+                  <c:v>9.1456613818507277E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.0265396855674359E-3</c:v>
+                  <c:v>9.1451135976666027E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.0269590528974712E-3</c:v>
+                  <c:v>9.1456765333281604E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.0275246530500213E-3</c:v>
+                  <c:v>9.1471287441652219E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.0281557423622947E-3</c:v>
+                  <c:v>9.147044828290207E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.0288452196001046E-3</c:v>
+                  <c:v>9.1495110226170301E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.0295173382654575E-3</c:v>
+                  <c:v>9.153374649362501E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.0301155514935325E-3</c:v>
+                  <c:v>9.1577324473719485E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.0305951478098193E-3</c:v>
+                  <c:v>9.1626671670221223E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,6 +4470,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4715,169 +4719,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.6906560650609363E-4</c:v>
+                  <c:v>3.7813606358617479E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.7357279953911977E-4</c:v>
+                  <c:v>3.8189121028656993E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.7807999257214418E-4</c:v>
+                  <c:v>3.8564635698696507E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.8258718560517033E-4</c:v>
+                  <c:v>3.8940150368736021E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.8709437863819647E-4</c:v>
+                  <c:v>3.9315665038775535E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.9160157167122261E-4</c:v>
+                  <c:v>3.9691179708815135E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9610876470424702E-4</c:v>
+                  <c:v>4.0066694378854649E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.0061595773727317E-4</c:v>
+                  <c:v>4.0442209048894163E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.0512315077029931E-4</c:v>
+                  <c:v>4.0817723718933677E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.0963034380332546E-4</c:v>
+                  <c:v>4.1193238388973191E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.1413753683634986E-4</c:v>
+                  <c:v>4.1568753059012791E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.1864472986937601E-4</c:v>
+                  <c:v>4.1944267729052305E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2315192290240215E-4</c:v>
+                  <c:v>4.2319782399091819E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.2765911593542656E-4</c:v>
+                  <c:v>4.2695297069131333E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.3216630896845271E-4</c:v>
+                  <c:v>4.3070811739170847E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.3667350200147885E-4</c:v>
+                  <c:v>4.344632640921036E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.4118069503450499E-4</c:v>
+                  <c:v>4.3821841079249961E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.456878880675294E-4</c:v>
+                  <c:v>4.4197355749289475E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.5019508110055555E-4</c:v>
+                  <c:v>4.4572870419328989E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.5470227413358169E-4</c:v>
+                  <c:v>4.4948385089368503E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.5920946716660783E-4</c:v>
+                  <c:v>4.5323899759408016E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.6371666019963224E-4</c:v>
+                  <c:v>4.569941442944753E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.6822385323265839E-4</c:v>
+                  <c:v>4.6074929099487131E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.7273104626568453E-4</c:v>
+                  <c:v>4.6450443769526645E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.8894774164554196E-4</c:v>
+                  <c:v>4.6616941125958422E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.8894774164554196E-4</c:v>
+                  <c:v>4.7399299019600609E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.9240286762932642E-4</c:v>
+                  <c:v>4.7625318028902199E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.9585023884870984E-4</c:v>
+                  <c:v>4.7962763511951036E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.9875024852121853E-4</c:v>
+                  <c:v>4.8472425299335046E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.018272899043342E-4</c:v>
+                  <c:v>4.8856488811023198E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.0373766416369245E-4</c:v>
+                  <c:v>4.9188761878420821E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.066390880184078E-4</c:v>
+                  <c:v>4.9507465640706257E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.0991211646518261E-4</c:v>
+                  <c:v>4.9827927013588579E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.1327626339366984E-4</c:v>
+                  <c:v>5.0141938782536798E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.1691521314626535E-4</c:v>
+                  <c:v>5.0473115148176617E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.2075410037760446E-4</c:v>
+                  <c:v>5.0816899974300608E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.2535208476499069E-4</c:v>
+                  <c:v>5.1181801067543291E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.2977090620943002E-4</c:v>
+                  <c:v>5.1566570773780435E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.3454572976618399E-4</c:v>
+                  <c:v>5.1961420160206843E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.3940037826505566E-4</c:v>
+                  <c:v>5.2372057195217224E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.4434109269794312E-4</c:v>
+                  <c:v>5.2782108797571725E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.4947146025164869E-4</c:v>
+                  <c:v>5.3191930033488766E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.5468408275070034E-4</c:v>
+                  <c:v>5.3596468592895642E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.5982954155396364E-4</c:v>
+                  <c:v>5.3988919149325191E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.651055366781933E-4</c:v>
+                  <c:v>5.4375065803669985E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.7049849064633434E-4</c:v>
+                  <c:v>5.4758253135318239E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.7612541541712304E-4</c:v>
+                  <c:v>5.5141485752676429E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.8166977983232354E-4</c:v>
+                  <c:v>5.5528893843752823E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.8703254466199587E-4</c:v>
+                  <c:v>5.5903874617184749E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.9249002650275126E-4</c:v>
+                  <c:v>5.6267984194975651E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.979148958411626E-4</c:v>
+                  <c:v>5.6625804309603806E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.0325745048005013E-4</c:v>
+                  <c:v>5.6976670114342325E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.085097364744201E-4</c:v>
+                  <c:v>5.7342146795521316E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>6.1361963490257044E-4</c:v>
+                  <c:v>5.770408790975283E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>6.1865081716056805E-4</c:v>
+                  <c:v>5.8064146713606509E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4963,6 +4967,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5211,169 +5216,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.2499848982648922E-5</c:v>
+                  <c:v>9.258175624649735E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.3660320724165048E-5</c:v>
+                  <c:v>9.3548597825973844E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.482079246568074E-5</c:v>
+                  <c:v>9.4515439405450121E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.5981264207196866E-5</c:v>
+                  <c:v>9.5482280984926615E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.7141735948712992E-5</c:v>
+                  <c:v>9.6449122564402893E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.8302207690228685E-5</c:v>
+                  <c:v>9.7415964143879387E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>9.9462679431744811E-5</c:v>
+                  <c:v>9.8382805723355664E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.006231511732605E-4</c:v>
+                  <c:v>9.9349647302832158E-5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0178362291477663E-4</c:v>
+                  <c:v>1.0031648888230865E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0294409465629232E-4</c:v>
+                  <c:v>1.0128333046178493E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0410456639780845E-4</c:v>
+                  <c:v>1.0225017204126142E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.0526503813932457E-4</c:v>
+                  <c:v>1.032170136207377E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.0642550988084027E-4</c:v>
+                  <c:v>1.0418385520021419E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0758598162235639E-4</c:v>
+                  <c:v>1.0515069677969047E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.0874645336387208E-4</c:v>
+                  <c:v>1.0611753835916697E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.0990692510538821E-4</c:v>
+                  <c:v>1.0708437993864324E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.110673968469039E-4</c:v>
+                  <c:v>1.0805122151811974E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.1222786858842003E-4</c:v>
+                  <c:v>1.0901806309759623E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.1338834032993615E-4</c:v>
+                  <c:v>1.0998490467707251E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1454881207145185E-4</c:v>
+                  <c:v>1.10951746256549E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1570928381296797E-4</c:v>
+                  <c:v>1.1191858783602528E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.1686975555448367E-4</c:v>
+                  <c:v>1.1288542941550177E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1803022729599979E-4</c:v>
+                  <c:v>1.1385227099497805E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.1919069903751548E-4</c:v>
+                  <c:v>1.1481911257445455E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.2588989047065195E-4</c:v>
+                  <c:v>1.2002512973417359E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.2588989047065195E-4</c:v>
+                  <c:v>1.2203947485023846E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.267794853999527E-4</c:v>
+                  <c:v>1.2262140837608938E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.2766708370188837E-4</c:v>
+                  <c:v>1.2349023281851067E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.2841375224934351E-4</c:v>
+                  <c:v>1.2480246439513921E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.292060013379484E-4</c:v>
+                  <c:v>1.2579131676732679E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.2969786741234555E-4</c:v>
+                  <c:v>1.2664682373664536E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.3044490007078425E-4</c:v>
+                  <c:v>1.2746739367304943E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3128761015527118E-4</c:v>
+                  <c:v>1.282924889479853E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.3215378061129805E-4</c:v>
+                  <c:v>1.2910097835968289E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.3309070484013427E-4</c:v>
+                  <c:v>1.2995366163942465E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.3407910718238873E-4</c:v>
+                  <c:v>1.3083880805528838E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.3526295506962046E-4</c:v>
+                  <c:v>1.3177832274670185E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.3640067368506529E-4</c:v>
+                  <c:v>1.3276899336543915E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.3763005253965096E-4</c:v>
+                  <c:v>1.3378561624301569E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.3887998400623192E-4</c:v>
+                  <c:v>1.3484288774582846E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.4015207495957123E-4</c:v>
+                  <c:v>1.3589865192901079E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.4147299610185228E-4</c:v>
+                  <c:v>1.3695382298529812E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.428150955116215E-4</c:v>
+                  <c:v>1.3799539267868687E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4413990221383478E-4</c:v>
+                  <c:v>1.3900583926338301E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4549831824021349E-4</c:v>
+                  <c:v>1.4000005512492829E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.4688684778342735E-4</c:v>
+                  <c:v>1.409866515871308E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.4833561803584159E-4</c:v>
+                  <c:v>1.4197336464692809E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.4976313138647074E-4</c:v>
+                  <c:v>1.4297082834292379E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.5114388810037889E-4</c:v>
+                  <c:v>1.4393629529317647E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.5254903170297749E-4</c:v>
+                  <c:v>1.4487377206141239E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.5394577853021879E-4</c:v>
+                  <c:v>1.4579505528254221E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.553213317050008E-4</c:v>
+                  <c:v>1.4669843316868957E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.5667364331672129E-4</c:v>
+                  <c:v>1.4763942983243028E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.5798929425166793E-4</c:v>
+                  <c:v>1.4857132343468077E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.5928467805130587E-4</c:v>
+                  <c:v>1.494983706325589E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5459,6 +5464,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5707,199 +5713,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>4.1829670106003714E-4</c:v>
+                  <c:v>3.952522554130269E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>4.1733940481981967E-4</c:v>
+                  <c:v>3.9505622007027588E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.163821085796022E-4</c:v>
+                  <c:v>3.9486018472752486E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.1542481233938474E-4</c:v>
+                  <c:v>3.9466414938477384E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4.1446751609916727E-4</c:v>
+                  <c:v>3.9446811404202282E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.135102198589498E-4</c:v>
+                  <c:v>3.942720786992718E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>4.1255292361873233E-4</c:v>
+                  <c:v>3.9407604335652078E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>4.1159562737851487E-4</c:v>
+                  <c:v>3.9388000801376976E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>4.106383311382974E-4</c:v>
+                  <c:v>3.9368397267101874E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>4.0968103489807993E-4</c:v>
+                  <c:v>3.9348793732826772E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.0872373865786247E-4</c:v>
+                  <c:v>3.9329190198551675E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.07766442417645E-4</c:v>
+                  <c:v>3.9309586664276573E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.0680914617742753E-4</c:v>
+                  <c:v>3.9289983130001471E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.0585184993721006E-4</c:v>
+                  <c:v>3.9270379595726369E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.0489455369699238E-4</c:v>
+                  <c:v>3.9250776061451267E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.0393725745677491E-4</c:v>
+                  <c:v>3.9231172527176165E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.0297996121655744E-4</c:v>
+                  <c:v>3.9211568992901063E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.0202266497633998E-4</c:v>
+                  <c:v>3.9191965458625961E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.0106536873612251E-4</c:v>
+                  <c:v>3.9172361924350859E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.0010807249590504E-4</c:v>
+                  <c:v>3.9152758390075757E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.9915077625568758E-4</c:v>
+                  <c:v>3.9133154855800655E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.9819348001547011E-4</c:v>
+                  <c:v>3.9113551321525553E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.9723618377525264E-4</c:v>
+                  <c:v>3.9093947787250451E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.9627888753503517E-4</c:v>
+                  <c:v>3.9074344252975349E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.9532159129481771E-4</c:v>
+                  <c:v>3.9054740718700247E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.9436429505460024E-4</c:v>
+                  <c:v>3.9035137184425145E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.9340699881438277E-4</c:v>
+                  <c:v>3.9015533650150043E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.924497025741653E-4</c:v>
+                  <c:v>3.8995930115874941E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.9149240633394762E-4</c:v>
+                  <c:v>3.8976326581599839E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.9053511009373015E-4</c:v>
+                  <c:v>3.8956723047324737E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.8957781385351269E-4</c:v>
+                  <c:v>3.8937119513049635E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8862051761329522E-4</c:v>
+                  <c:v>3.8917515978774533E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8766322137307775E-4</c:v>
+                  <c:v>3.8897912444499431E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.8670592513286028E-4</c:v>
+                  <c:v>3.8878308910224329E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.8854771216578971E-4</c:v>
+                  <c:v>3.8868922094850749E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.8258341226368855E-4</c:v>
+                  <c:v>3.8835964956971156E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.8242214049766438E-4</c:v>
+                  <c:v>3.8810530909215343E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.8228038455163064E-4</c:v>
+                  <c:v>3.8794345419032003E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.8218410810533679E-4</c:v>
+                  <c:v>3.8779756085887974E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8211457216848514E-4</c:v>
+                  <c:v>3.8768659775611613E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.8200426469163777E-4</c:v>
+                  <c:v>3.8756372155893972E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.8189581833152308E-4</c:v>
+                  <c:v>3.8743413448561116E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.8183411054494749E-4</c:v>
+                  <c:v>3.8741625203614658E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.817880596463697E-4</c:v>
+                  <c:v>3.8738694289951122E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.8171848967811172E-4</c:v>
+                  <c:v>3.8727323156960051E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.815957033545058E-4</c:v>
+                  <c:v>3.872801832305252E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.8154719842170315E-4</c:v>
+                  <c:v>3.8723285633958973E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.8151706680653578E-4</c:v>
+                  <c:v>3.8719654146009873E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.8148461516232849E-4</c:v>
+                  <c:v>3.8712836957078314E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.8143890029675929E-4</c:v>
+                  <c:v>3.8710174375942578E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.8136061348433399E-4</c:v>
+                  <c:v>3.8701959513390749E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.8128611338859555E-4</c:v>
+                  <c:v>3.8693459130790495E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.8118445087418999E-4</c:v>
+                  <c:v>3.8684314096127021E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.8109366744518982E-4</c:v>
+                  <c:v>3.8675224209457141E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.809728174627515E-4</c:v>
+                  <c:v>3.8662639724460569E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.8085823235152255E-4</c:v>
+                  <c:v>3.8650753548999096E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.8073193315627202E-4</c:v>
+                  <c:v>3.8637937383671609E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.8058075386159586E-4</c:v>
+                  <c:v>3.8623677194928995E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.8041414660484408E-4</c:v>
+                  <c:v>3.8608334518532407E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.8023685995295948E-4</c:v>
+                  <c:v>3.8590701122559256E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.8003008428330864E-4</c:v>
+                  <c:v>3.8573556454320505E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.7983159458155041E-4</c:v>
+                  <c:v>3.8555651429608934E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.796309792403681E-4</c:v>
+                  <c:v>3.8536129241038667E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.7940476062466651E-4</c:v>
+                  <c:v>3.8512787391125356E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.7914941421427883E-4</c:v>
+                  <c:v>3.8487689875144672E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5986,6 +5992,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6512,6 +6519,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7578,23 +7586,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7630,23 +7621,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7822,17 +7796,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="107.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8042,7 +8016,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8050,7 +8024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8060,9 +8034,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9080,7 +9054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9090,9 +9064,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9199,127 +9173,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.1859829671600057E-3</v>
+        <v>1.2151306509639E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2004667176711305E-3</v>
+        <v>1.2271977196566914E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2149504681822497E-3</v>
+        <v>1.2392647883494826E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2294342186933748E-3</v>
+        <v>1.251331857042274E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2439179692044996E-3</v>
+        <v>1.2633989257350654E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2584017197156245E-3</v>
+        <v>1.2754659944278594E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2728854702267437E-3</v>
+        <v>1.2875330631206508E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2873692207378688E-3</v>
+        <v>1.2996001318134423E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3018529712489936E-3</v>
+        <v>1.3116672005062334E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3163367217601185E-3</v>
+        <v>1.3237342691990249E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3308204722712379E-3</v>
+        <v>1.3358013378918191E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3453042227823627E-3</v>
+        <v>1.3478684065846103E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3597879732934876E-3</v>
+        <v>1.3599354752774017E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3742717238046068E-3</v>
+        <v>1.3720025439701931E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3887554743157319E-3</v>
+        <v>1.3840696126629843E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4032392248268567E-3</v>
+        <v>1.3961366813557757E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4177229753379816E-3</v>
+        <v>1.4082037500485699E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4322067258491008E-3</v>
+        <v>1.4202708187413611E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4466904763602258E-3</v>
+        <v>1.4323378874341525E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4611742268713507E-3</v>
+        <v>1.4444049561269439E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4756579773824755E-3</v>
+        <v>1.4564720248197351E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.490141727893595E-3</v>
+        <v>1.4685390935125265E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5046254784047198E-3</v>
+        <v>1.4806061622053208E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5191092289158447E-3</v>
+        <v>1.492673230898112E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5712211682704963E-3</v>
+        <v>1.4980235812240234E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5712211682704963E-3</v>
+        <v>1.5231644537335698E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5823241279988574E-3</v>
+        <v>1.5304275172800137E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5934021679884732E-3</v>
+        <v>1.5412712423030443E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.602721275528064E-3</v>
+        <v>1.5576490945925607E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6126092699802412E-3</v>
+        <v>1.5699908781437811E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6187482092164076E-3</v>
+        <v>1.5806683889015623E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -9526,127 +9500,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!P6</f>
-        <v>3.6906560650609363E-4</v>
+        <v>3.7813606358617479E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>3.7357279953911977E-4</v>
+        <v>3.8189121028656993E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!R6</f>
-        <v>3.7807999257214418E-4</v>
+        <v>3.8564635698696507E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!S6</f>
-        <v>3.8258718560517033E-4</v>
+        <v>3.8940150368736021E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!T6</f>
-        <v>3.8709437863819647E-4</v>
+        <v>3.9315665038775535E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!U6</f>
-        <v>3.9160157167122261E-4</v>
+        <v>3.9691179708815135E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!V6</f>
-        <v>3.9610876470424702E-4</v>
+        <v>4.0066694378854649E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!W6</f>
-        <v>4.0061595773727317E-4</v>
+        <v>4.0442209048894163E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.0512315077029931E-4</v>
+        <v>4.0817723718933677E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.0963034380332546E-4</v>
+        <v>4.1193238388973191E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.1413753683634986E-4</v>
+        <v>4.1568753059012791E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.1864472986937601E-4</v>
+        <v>4.1944267729052305E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.2315192290240215E-4</v>
+        <v>4.2319782399091819E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.2765911593542656E-4</v>
+        <v>4.2695297069131333E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.3216630896845271E-4</v>
+        <v>4.3070811739170847E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>4.3667350200147885E-4</v>
+        <v>4.344632640921036E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>4.4118069503450499E-4</v>
+        <v>4.3821841079249961E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>4.456878880675294E-4</v>
+        <v>4.4197355749289475E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>4.5019508110055555E-4</v>
+        <v>4.4572870419328989E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>4.5470227413358169E-4</v>
+        <v>4.4948385089368503E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>4.5920946716660783E-4</v>
+        <v>4.5323899759408016E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>4.6371666019963224E-4</v>
+        <v>4.569941442944753E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>4.6822385323265839E-4</v>
+        <v>4.6074929099487131E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>4.7273104626568453E-4</v>
+        <v>4.6450443769526645E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.6616941125958422E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AO6</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.7399299019600609E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AP6</f>
-        <v>4.9240286762932642E-4</v>
+        <v>4.7625318028902199E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>4.9585023884870984E-4</v>
+        <v>4.7962763511951036E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>4.9875024852121853E-4</v>
+        <v>4.8472425299335046E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>5.018272899043342E-4</v>
+        <v>4.8856488811023198E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>5.0373766416369245E-4</v>
+        <v>4.9188761878420821E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -9853,127 +9827,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1071968195182807E-3</v>
+        <v>1.1344081907585242E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1207183986173591E-3</v>
+        <v>1.1456736308597096E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.1342399777164323E-3</v>
+        <v>1.156939070960895E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1477615568155108E-3</v>
+        <v>1.1682045110620804E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1612831359145892E-3</v>
+        <v>1.1794699511632658E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1748047150136676E-3</v>
+        <v>1.1907353912644538E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.1883262941127409E-3</v>
+        <v>1.2020008313656393E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2018478732118193E-3</v>
+        <v>1.2132662714668247E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.2153694523108977E-3</v>
+        <v>1.2245317115680101E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2288910314099762E-3</v>
+        <v>1.2357971516691955E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2424126105090494E-3</v>
+        <v>1.2470625917703835E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2559341896081278E-3</v>
+        <v>1.2583280318715689E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2694557687072062E-3</v>
+        <v>1.2695934719727543E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2829773478062795E-3</v>
+        <v>1.2808589120739398E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2964989269053579E-3</v>
+        <v>1.2921243521751252E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3100205060044363E-3</v>
+        <v>1.3033897922763106E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3235420851035148E-3</v>
+        <v>1.3146552323774986E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.337063664202588E-3</v>
+        <v>1.325920672478684E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.3505852433016664E-3</v>
+        <v>1.3371861125798694E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3641068224007449E-3</v>
+        <v>1.3484515526810549E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3776284014998233E-3</v>
+        <v>1.3597169927822403E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3911499805988965E-3</v>
+        <v>1.3709824328834257E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.4046715596979749E-3</v>
+        <v>1.3822478729846137E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.4181931387970534E-3</v>
+        <v>1.3935133130857991E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.4668432249366255E-3</v>
+        <v>1.3985082337787526E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.4668432249366255E-3</v>
+        <v>1.4219789705880181E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4772086028879789E-3</v>
+        <v>1.4287595408670657E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4875507165461293E-3</v>
+        <v>1.4388829053585308E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4962507455636553E-3</v>
+        <v>1.4541727589800512E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.5054818697130023E-3</v>
+        <v>1.4656946643306957E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.511212992491077E-3</v>
+        <v>1.4756628563526244E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -9984,7 +9958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9994,9 +9968,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -10103,127 +10077,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>2.9724591894878476E-4</v>
+        <v>2.9750912586402818E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>3.009750654610754E-4</v>
+        <v>3.0061604676098329E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0470421197336468E-4</v>
+        <v>3.0372296765793775E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0843335848565532E-4</v>
+        <v>3.0682988855489286E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1216250499794596E-4</v>
+        <v>3.0993680945184726E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1589165151023525E-4</v>
+        <v>3.1304373034880242E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1962079802252589E-4</v>
+        <v>3.1615065124575683E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2334994453481517E-4</v>
+        <v>3.1925757214271193E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2707909104710581E-4</v>
+        <v>3.223644930396671E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3080823755939504E-4</v>
+        <v>3.254714139366215E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3453738407168574E-4</v>
+        <v>3.2857833483357661E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3826653058397638E-4</v>
+        <v>3.3168525573053106E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4199567709626566E-4</v>
+        <v>3.3479217662748617E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.457248236085563E-4</v>
+        <v>3.3789909752444063E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4945397012084553E-4</v>
+        <v>3.4100601842139574E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5318311663313622E-4</v>
+        <v>3.4411293931835014E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5691226314542545E-4</v>
+        <v>3.4721986021530525E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6064140965771615E-4</v>
+        <v>3.5032678111226041E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6437055617000679E-4</v>
+        <v>3.5343370200921481E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6809970268229602E-4</v>
+        <v>3.5654062290616992E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7182884919458671E-4</v>
+        <v>3.5964754380312438E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7555799570687594E-4</v>
+        <v>3.6275446470007949E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7928714221916664E-4</v>
+        <v>3.6586138559703394E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8301628873145587E-4</v>
+        <v>3.6896830649398905E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0454397051318511E-4</v>
+        <v>3.8569771061435794E-4</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0454397051318511E-4</v>
+        <v>3.9217075756189419E-4</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0740266125874276E-4</v>
+        <v>3.9404078618962861E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1025493589289636E-4</v>
+        <v>3.9683273150232986E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1265433633494561E-4</v>
+        <v>4.0104955439618917E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1520020869007641E-4</v>
+        <v>4.0422720641733706E-4</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>4.1678080784663654E-4</v>
+        <v>4.069763563679482E-4</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -10430,127 +10404,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!P7</f>
-        <v>9.2499848982648922E-5</v>
+        <v>9.258175624649735E-5</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>9.3660320724165048E-5</v>
+        <v>9.3548597825973844E-5</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!R7</f>
-        <v>9.482079246568074E-5</v>
+        <v>9.4515439405450121E-5</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!S7</f>
-        <v>9.5981264207196866E-5</v>
+        <v>9.5482280984926615E-5</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!T7</f>
-        <v>9.7141735948712992E-5</v>
+        <v>9.6449122564402893E-5</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!U7</f>
-        <v>9.8302207690228685E-5</v>
+        <v>9.7415964143879387E-5</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!V7</f>
-        <v>9.9462679431744811E-5</v>
+        <v>9.8382805723355664E-5</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!W7</f>
-        <v>1.006231511732605E-4</v>
+        <v>9.9349647302832158E-5</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!X7</f>
-        <v>1.0178362291477663E-4</v>
+        <v>1.0031648888230865E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>1.0294409465629232E-4</v>
+        <v>1.0128333046178493E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>1.0410456639780845E-4</v>
+        <v>1.0225017204126142E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>1.0526503813932457E-4</v>
+        <v>1.032170136207377E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>1.0642550988084027E-4</v>
+        <v>1.0418385520021419E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>1.0758598162235639E-4</v>
+        <v>1.0515069677969047E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>1.0874645336387208E-4</v>
+        <v>1.0611753835916697E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>1.0990692510538821E-4</v>
+        <v>1.0708437993864324E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>1.110673968469039E-4</v>
+        <v>1.0805122151811974E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>1.1222786858842003E-4</v>
+        <v>1.0901806309759623E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>1.1338834032993615E-4</v>
+        <v>1.0998490467707251E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>1.1454881207145185E-4</v>
+        <v>1.10951746256549E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>1.1570928381296797E-4</v>
+        <v>1.1191858783602528E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AK7</f>
-        <v>1.1686975555448367E-4</v>
+        <v>1.1288542941550177E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AL7</f>
-        <v>1.1803022729599979E-4</v>
+        <v>1.1385227099497805E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AM7</f>
-        <v>1.1919069903751548E-4</v>
+        <v>1.1481911257445455E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AN7</f>
-        <v>1.2588989047065195E-4</v>
+        <v>1.2002512973417359E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AO7</f>
-        <v>1.2588989047065195E-4</v>
+        <v>1.2203947485023846E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AP7</f>
-        <v>1.267794853999527E-4</v>
+        <v>1.2262140837608938E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AQ7</f>
-        <v>1.2766708370188837E-4</v>
+        <v>1.2349023281851067E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AR7</f>
-        <v>1.2841375224934351E-4</v>
+        <v>1.2480246439513921E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AS7</f>
-        <v>1.292060013379484E-4</v>
+        <v>1.2579131676732679E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AT7</f>
-        <v>1.2969786741234555E-4</v>
+        <v>1.2664682373664536E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -10757,127 +10731,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.7749954694794674E-4</v>
+        <v>2.7774526873949201E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.8098096217249512E-4</v>
+        <v>2.8064579347792149E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.8446237739704219E-4</v>
+        <v>2.8354631821635032E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.8794379262159057E-4</v>
+        <v>2.8644684295477981E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.9142520784613895E-4</v>
+        <v>2.8934736769320864E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>2.9490662307068603E-4</v>
+        <v>2.9224789243163812E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>2.9838803829523441E-4</v>
+        <v>2.9514841717006695E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>3.0186945351978148E-4</v>
+        <v>2.9804894190849643E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>3.0535086874432986E-4</v>
+        <v>3.0094946664692592E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>3.0883228396887694E-4</v>
+        <v>3.0384999138535475E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>3.1231369919342531E-4</v>
+        <v>3.0675051612378423E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>3.1579511441797369E-4</v>
+        <v>3.0965104086221306E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>3.1927652964252077E-4</v>
+        <v>3.1255156560064254E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>3.2275794486706915E-4</v>
+        <v>3.1545209033907138E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>3.2623936009161622E-4</v>
+        <v>3.1835261507750086E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>3.297207753161646E-4</v>
+        <v>3.2125313981592969E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>3.3320219054071168E-4</v>
+        <v>3.2415366455435917E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>3.3668360576526006E-4</v>
+        <v>3.2705418929278865E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>3.4016502098980844E-4</v>
+        <v>3.2995471403121749E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>3.4364643621435551E-4</v>
+        <v>3.3285523876964697E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.4712785143890389E-4</v>
+        <v>3.357557635080758E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.5060926666345097E-4</v>
+        <v>3.3865628824650528E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.5409068188799935E-4</v>
+        <v>3.4155681298493411E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.5757209711254642E-4</v>
+        <v>3.444573377233636E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>3.7766967141195578E-4</v>
+        <v>3.600753892025207E-4</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>3.7766967141195578E-4</v>
+        <v>3.6611842455071535E-4</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>3.8033845619985803E-4</v>
+        <v>3.6786422512826805E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>3.8300125110566502E-4</v>
+        <v>3.7047069845553193E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>3.8524125674803048E-4</v>
+        <v>3.7440739318541754E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>3.8761800401384514E-4</v>
+        <v>3.773739503019803E-4</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>3.8909360223703658E-4</v>
+        <v>3.7994047120993603E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -10888,7 +10862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10898,11 +10872,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -11009,127 +10983,127 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!F9</f>
-        <v>1.3441858410294183E-3</v>
+        <v>1.2701330993401204E-3</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.3411095938381055E-3</v>
+        <v>1.2695031447375632E-3</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.3380333466467935E-3</v>
+        <v>1.2688731901350058E-3</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.3349570994554815E-3</v>
+        <v>1.2682432355324486E-3</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.3318808522641695E-3</v>
+        <v>1.2676132809298914E-3</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.3288046050728575E-3</v>
+        <v>1.2669833263273342E-3</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.3257283578815456E-3</v>
+        <v>1.2663533717247771E-3</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.3226521106902336E-3</v>
+        <v>1.2657234171222199E-3</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.3195758634989216E-3</v>
+        <v>1.2650934625196627E-3</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.3164996163076087E-3</v>
+        <v>1.2644635079171055E-3</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.3134233691162968E-3</v>
+        <v>1.2638335533145483E-3</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.3103471219249848E-3</v>
+        <v>1.2632035987119911E-3</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.3072708747336728E-3</v>
+        <v>1.2625736441094339E-3</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.3041946275423608E-3</v>
+        <v>1.2619436895068767E-3</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.3011183803510488E-3</v>
+        <v>1.2613137349043195E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.2980421331597368E-3</v>
+        <v>1.2606837803017623E-3</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.2949658859684248E-3</v>
+        <v>1.2600538256992051E-3</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.291889638777112E-3</v>
+        <v>1.2594238710966479E-3</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.2888133915858E-3</v>
+        <v>1.2587939164940907E-3</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.285737144394488E-3</v>
+        <v>1.2581639618915333E-3</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.282660897203176E-3</v>
+        <v>1.2575340072889761E-3</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.2795846500118641E-3</v>
+        <v>1.2569040526864189E-3</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.2765084028205521E-3</v>
+        <v>1.2562740980838617E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.2734321556292401E-3</v>
+        <v>1.2556441434813045E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.2703559084379281E-3</v>
+        <v>1.2550141888787473E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.2672796612466153E-3</v>
+        <v>1.2543842342761901E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2642034140553033E-3</v>
+        <v>1.2537542796736329E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2611271668639913E-3</v>
+        <v>1.2531243250710757E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2580509196726793E-3</v>
+        <v>1.2524943704685185E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2549746724813673E-3</v>
+        <v>1.2518644158659613E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2518984252900553E-3</v>
+        <v>1.2512344612634041E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -11336,127 +11310,127 @@
       </c>
       <c r="B5" s="36">
         <f>Extrapolations!P6</f>
-        <v>3.6906560650609363E-4</v>
+        <v>3.7813606358617479E-4</v>
       </c>
       <c r="C5" s="36">
         <f>Extrapolations!Q6</f>
-        <v>3.7357279953911977E-4</v>
+        <v>3.8189121028656993E-4</v>
       </c>
       <c r="D5" s="36">
         <f>Extrapolations!R6</f>
-        <v>3.7807999257214418E-4</v>
+        <v>3.8564635698696507E-4</v>
       </c>
       <c r="E5" s="36">
         <f>Extrapolations!S6</f>
-        <v>3.8258718560517033E-4</v>
+        <v>3.8940150368736021E-4</v>
       </c>
       <c r="F5" s="36">
         <f>Extrapolations!T6</f>
-        <v>3.8709437863819647E-4</v>
+        <v>3.9315665038775535E-4</v>
       </c>
       <c r="G5" s="36">
         <f>Extrapolations!U6</f>
-        <v>3.9160157167122261E-4</v>
+        <v>3.9691179708815135E-4</v>
       </c>
       <c r="H5" s="36">
         <f>Extrapolations!V6</f>
-        <v>3.9610876470424702E-4</v>
+        <v>4.0066694378854649E-4</v>
       </c>
       <c r="I5" s="36">
         <f>Extrapolations!W6</f>
-        <v>4.0061595773727317E-4</v>
+        <v>4.0442209048894163E-4</v>
       </c>
       <c r="J5" s="36">
         <f>Extrapolations!X6</f>
-        <v>4.0512315077029931E-4</v>
+        <v>4.0817723718933677E-4</v>
       </c>
       <c r="K5" s="36">
         <f>Extrapolations!Y6</f>
-        <v>4.0963034380332546E-4</v>
+        <v>4.1193238388973191E-4</v>
       </c>
       <c r="L5" s="36">
         <f>Extrapolations!Z6</f>
-        <v>4.1413753683634986E-4</v>
+        <v>4.1568753059012791E-4</v>
       </c>
       <c r="M5" s="36">
         <f>Extrapolations!AA6</f>
-        <v>4.1864472986937601E-4</v>
+        <v>4.1944267729052305E-4</v>
       </c>
       <c r="N5" s="36">
         <f>Extrapolations!AB6</f>
-        <v>4.2315192290240215E-4</v>
+        <v>4.2319782399091819E-4</v>
       </c>
       <c r="O5" s="36">
         <f>Extrapolations!AC6</f>
-        <v>4.2765911593542656E-4</v>
+        <v>4.2695297069131333E-4</v>
       </c>
       <c r="P5" s="36">
         <f>Extrapolations!AD6</f>
-        <v>4.3216630896845271E-4</v>
+        <v>4.3070811739170847E-4</v>
       </c>
       <c r="Q5" s="36">
         <f>Extrapolations!AE6</f>
-        <v>4.3667350200147885E-4</v>
+        <v>4.344632640921036E-4</v>
       </c>
       <c r="R5" s="36">
         <f>Extrapolations!AF6</f>
-        <v>4.4118069503450499E-4</v>
+        <v>4.3821841079249961E-4</v>
       </c>
       <c r="S5" s="36">
         <f>Extrapolations!AG6</f>
-        <v>4.456878880675294E-4</v>
+        <v>4.4197355749289475E-4</v>
       </c>
       <c r="T5" s="36">
         <f>Extrapolations!AH6</f>
-        <v>4.5019508110055555E-4</v>
+        <v>4.4572870419328989E-4</v>
       </c>
       <c r="U5" s="36">
         <f>Extrapolations!AI6</f>
-        <v>4.5470227413358169E-4</v>
+        <v>4.4948385089368503E-4</v>
       </c>
       <c r="V5" s="36">
         <f>Extrapolations!AJ6</f>
-        <v>4.5920946716660783E-4</v>
+        <v>4.5323899759408016E-4</v>
       </c>
       <c r="W5" s="36">
         <f>Extrapolations!AK6</f>
-        <v>4.6371666019963224E-4</v>
+        <v>4.569941442944753E-4</v>
       </c>
       <c r="X5" s="36">
         <f>Extrapolations!AL6</f>
-        <v>4.6822385323265839E-4</v>
+        <v>4.6074929099487131E-4</v>
       </c>
       <c r="Y5" s="36">
         <f>Extrapolations!AM6</f>
-        <v>4.7273104626568453E-4</v>
+        <v>4.6450443769526645E-4</v>
       </c>
       <c r="Z5" s="36">
         <f>Extrapolations!AN6</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.6616941125958422E-4</v>
       </c>
       <c r="AA5" s="36">
         <f>Extrapolations!AO6</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.7399299019600609E-4</v>
       </c>
       <c r="AB5" s="36">
         <f>Extrapolations!AP6</f>
-        <v>4.9240286762932642E-4</v>
+        <v>4.7625318028902199E-4</v>
       </c>
       <c r="AC5" s="36">
         <f>Extrapolations!AQ6</f>
-        <v>4.9585023884870984E-4</v>
+        <v>4.7962763511951036E-4</v>
       </c>
       <c r="AD5" s="36">
         <f>Extrapolations!AR6</f>
-        <v>4.9875024852121853E-4</v>
+        <v>4.8472425299335046E-4</v>
       </c>
       <c r="AE5" s="36">
         <f>Extrapolations!AS6</f>
-        <v>5.018272899043342E-4</v>
+        <v>4.8856488811023198E-4</v>
       </c>
       <c r="AF5" s="36">
         <f>Extrapolations!AT6</f>
-        <v>5.0373766416369245E-4</v>
+        <v>4.9188761878420821E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -11663,127 +11637,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1071968195182807E-3</v>
+        <v>1.1344081907585242E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1207183986173591E-3</v>
+        <v>1.1456736308597096E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.1342399777164323E-3</v>
+        <v>1.156939070960895E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1477615568155108E-3</v>
+        <v>1.1682045110620804E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1612831359145892E-3</v>
+        <v>1.1794699511632658E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1748047150136676E-3</v>
+        <v>1.1907353912644538E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.1883262941127409E-3</v>
+        <v>1.2020008313656393E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2018478732118193E-3</v>
+        <v>1.2132662714668247E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.2153694523108977E-3</v>
+        <v>1.2245317115680101E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2288910314099762E-3</v>
+        <v>1.2357971516691955E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2424126105090494E-3</v>
+        <v>1.2470625917703835E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2559341896081278E-3</v>
+        <v>1.2583280318715689E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2694557687072062E-3</v>
+        <v>1.2695934719727543E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2829773478062795E-3</v>
+        <v>1.2808589120739398E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2964989269053579E-3</v>
+        <v>1.2921243521751252E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3100205060044363E-3</v>
+        <v>1.3033897922763106E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3235420851035148E-3</v>
+        <v>1.3146552323774986E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.337063664202588E-3</v>
+        <v>1.325920672478684E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.3505852433016664E-3</v>
+        <v>1.3371861125798694E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3641068224007449E-3</v>
+        <v>1.3484515526810549E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3776284014998233E-3</v>
+        <v>1.3597169927822403E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3911499805988965E-3</v>
+        <v>1.3709824328834257E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.4046715596979749E-3</v>
+        <v>1.3822478729846137E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.4181931387970534E-3</v>
+        <v>1.3935133130857991E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.4668432249366255E-3</v>
+        <v>1.3985082337787526E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.4668432249366255E-3</v>
+        <v>1.4219789705880181E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4772086028879789E-3</v>
+        <v>1.4287595408670657E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4875507165461293E-3</v>
+        <v>1.4388829053585308E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4962507455636553E-3</v>
+        <v>1.4541727589800512E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.5054818697130023E-3</v>
+        <v>1.4656946643306957E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.511212992491077E-3</v>
+        <v>1.4756628563526244E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -11828,7 +11802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11838,9 +11812,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -12732,7 +12706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12742,10 +12716,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -13755,7 +13729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13765,9 +13739,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -13874,127 +13848,127 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>AA$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>AF$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6756497184521692E-2</v>
+        <v>1.5975871779246587E-2</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -14201,127 +14175,127 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!G12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!H12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!I12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!J12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!K12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!L12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!M12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!N12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!O12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!P12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!Q12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!R12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!S12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!T12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!U12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!V12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!W12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!X12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!Y12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!Z12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AA12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AB12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AC12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AD12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AE12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AA5" s="4">
         <f>Extrapolations!AF12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AG12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AH12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AI12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AJ12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AF5" s="4">
         <f>Extrapolations!AK12</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -14528,127 +14502,127 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*Calculations!$B$27</f>
-        <v>1.564334472138032E-2</v>
+        <v>1.4914577116879674E-2</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -14659,7 +14633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14669,9 +14643,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -15689,7 +15663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15699,9 +15673,9 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16518,18 +16492,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8:AH20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -16706,97 +16680,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>4.024988144927663E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.0796787215023562E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.4349306088874353E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.9179385282965761E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>5.174051794644127E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>5.5498219220506228E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>6.1702942871432137E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>6.1865450301759833E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>6.2042514874960234E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>6.2202007097467485E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>6.2400919656171528E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>6.2648275385172284E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>6.2865303733188277E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>6.3045798981798329E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>6.32149872010817E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>6.338211561269702E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>6.3569593171044787E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>6.3762434994468471E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>6.394624697168103E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>6.406181007048323E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>6.4209464096239596E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>6.4337258070020452E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>6.4434270628615663E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>6.4571601073642603E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>6.4710816023557315E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>6.4804117422294469E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>6.4919973276739693E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>6.4990136461510475E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>6.5029076468089368E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>6.5073794454305572E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>6.5120598543606876E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -16814,97 +16788,97 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.1797797201017124E-4</v>
+        <v>1.157863591831631E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1829846623500186E-4</v>
+        <v>1.1589922337335911E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1729428078558663E-4</v>
+        <v>1.1538533736033749E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1719689551672209E-4</v>
+        <v>1.1535674989351573E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1764352168964412E-4</v>
+        <v>1.1555682727052541E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1866120205476883E-4</v>
+        <v>1.1619447640903485E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1959158500672709E-4</v>
+        <v>1.1675875263243092E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.2012295075743907E-4</v>
+        <v>1.170886675606406E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1891477439334622E-4</v>
+        <v>1.1617580985063572E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.184720637798503E-4</v>
+        <v>1.1591329821118029E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.1791912239365693E-4</v>
+        <v>1.1553838100461461E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.1726854759265854E-4</v>
+        <v>1.1496830903628264E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.163947280800766E-4</v>
+        <v>1.1417779457660161E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.1543036314509163E-4</v>
+        <v>1.1321126528769265E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.1452766973335742E-4</v>
+        <v>1.1235905420307894E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.1368570476708297E-4</v>
+        <v>1.113973304748738E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.1294953379908579E-4</v>
+        <v>1.1073582017040977E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.1233567537117923E-4</v>
+        <v>1.099531339020346E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.1173642803062577E-4</v>
+        <v>1.0948773622007766E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.1124100972467315E-4</v>
+        <v>1.0913516582552083E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.1075853315322957E-4</v>
+        <v>1.0884247723484658E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.1037521243170253E-4</v>
+        <v>1.085933825763662E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>1.0991848018148144E-4</v>
+        <v>1.083443267474224E-4</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.0966775896786235E-4</v>
+        <v>1.0815629409531245E-4</v>
       </c>
       <c r="AB9" s="4">
-        <v>1.0946652790457937E-4</v>
+        <v>1.0799885128162017E-4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.093057513924758E-4</v>
+        <v>1.078432358858381E-4</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.0925596504686471E-4</v>
+        <v>1.0772424981274788E-4</v>
       </c>
       <c r="AE9" s="4">
-        <v>1.0913422478199535E-4</v>
+        <v>1.0749204222981193E-4</v>
       </c>
       <c r="AF9" s="4">
-        <v>1.0902511165204325E-4</v>
+        <v>1.0725768900406794E-4</v>
       </c>
       <c r="AG9" s="4">
-        <v>1.088790399619601E-4</v>
+        <v>1.0704107117361582E-4</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.0882419661026466E-4</v>
+        <v>1.0682755170917861E-4</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -16922,97 +16896,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>1.0036699628159823E-3</v>
+        <v>9.8533458931645266E-4</v>
       </c>
       <c r="E10" s="4">
-        <v>1.0208853457654701E-3</v>
+        <v>9.988021364476826E-4</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0363125757886589E-3</v>
+        <v>1.0144915989479513E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>1.0550551388611548E-3</v>
+        <v>1.0338641499362739E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>1.0785940195513571E-3</v>
+        <v>1.0578483957153595E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.1061013871046345E-3</v>
+        <v>1.0855563574924357E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>1.1357533191201131E-3</v>
+        <v>1.1154933208321449E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.1663973327510526E-3</v>
+        <v>1.146433059300843E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>1.1820311595601288E-3</v>
+        <v>1.162195430859642E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.2045176477719092E-3</v>
+        <v>1.1852372128907688E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.2233355994231063E-3</v>
+        <v>1.2047747934543398E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>1.2400654478455125E-3</v>
+        <v>1.2221312436297778E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.2499350960073442E-3</v>
+        <v>1.2324377185343545E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.2512540753321518E-3</v>
+        <v>1.2337189023360906E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.2521553698507089E-3</v>
+        <v>1.2346974269358923E-3</v>
       </c>
       <c r="S10" s="4">
-        <v>1.252074367228913E-3</v>
+        <v>1.2348004129494538E-3</v>
       </c>
       <c r="T10" s="4">
-        <v>1.2523252347546336E-3</v>
+        <v>1.2352948717913239E-3</v>
       </c>
       <c r="U10" s="4">
-        <v>1.2527262378328314E-3</v>
+        <v>1.2357035089552255E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.2526822878954607E-3</v>
+        <v>1.2358091719752555E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.252281766020957E-3</v>
+        <v>1.2356633538581946E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>1.2523305279952656E-3</v>
+        <v>1.2356553228387885E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.2524525933322692E-3</v>
+        <v>1.2356638262711007E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.2517309481927445E-3</v>
+        <v>1.2356742193550382E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.2521125427219578E-3</v>
+        <v>1.2356002079997265E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>1.2526240622485064E-3</v>
+        <v>1.2356762664776318E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.2533139479442377E-3</v>
+        <v>1.2358724753046924E-3</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.2540837134531458E-3</v>
+        <v>1.2358611373949426E-3</v>
       </c>
       <c r="AE10" s="4">
-        <v>1.254924697108742E-3</v>
+        <v>1.236194345964814E-3</v>
       </c>
       <c r="AF10" s="4">
-        <v>1.2557445078018091E-3</v>
+        <v>1.2367163622262144E-3</v>
       </c>
       <c r="AG10" s="4">
-        <v>1.2564741730028979E-3</v>
+        <v>1.2373051461783645E-3</v>
       </c>
       <c r="AH10" s="4">
-        <v>1.2570591562933724E-3</v>
+        <v>1.2379718782600448E-3</v>
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -17030,97 +17004,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>8.228549853855965E-4</v>
+        <v>7.2928093510090471E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>8.3696895134066358E-4</v>
+        <v>7.3924874245474208E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>8.4961690694915356E-4</v>
+        <v>7.508610678592162E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>8.6498292569483441E-4</v>
+        <v>7.6519937715357957E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>8.8428118711932307E-4</v>
+        <v>7.8295096466416878E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>9.0683299734042682E-4</v>
+        <v>8.0345860591986078E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>9.3114302054446375E-4</v>
+        <v>8.2561600996837806E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>9.5626639807157017E-4</v>
+        <v>8.4851560331147032E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>9.6908373126585042E-4</v>
+        <v>8.6018189128557194E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>9.875191927366351E-4</v>
+        <v>8.7723592808510082E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>1.002947018520609E-3</v>
+        <v>8.9169638159754131E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>1.0166629208482015E-3</v>
+        <v>9.0454250346438524E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>1.02475451419546E-3</v>
+        <v>9.1217068960288046E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>1.0258358743569153E-3</v>
+        <v>9.1311893899054719E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>1.0265747972253597E-3</v>
+        <v>9.1384317961185513E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>1.0265083875352788E-3</v>
+        <v>9.1391940319832696E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>1.0267140603180244E-3</v>
+        <v>9.1428536965325259E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>1.0270428211600088E-3</v>
+        <v>9.1458781645278495E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>1.0270067889717274E-3</v>
+        <v>9.1466602138630556E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>1.0266784226427533E-3</v>
+        <v>9.1455809624705047E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>1.0267183999611385E-3</v>
+        <v>9.145521522059036E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>1.0268184747614386E-3</v>
+        <v>9.1455844589652965E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>1.0262268367502033E-3</v>
+        <v>9.1456613818507277E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>1.0265396855674359E-3</v>
+        <v>9.1451135976666027E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.0269590528974712E-3</v>
+        <v>9.1456765333281604E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>1.0275246530500213E-3</v>
+        <v>9.1471287441652219E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.0281557423622947E-3</v>
+        <v>9.147044828290207E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.0288452196001046E-3</v>
+        <v>9.1495110226170301E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.0295173382654575E-3</v>
+        <v>9.153374649362501E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>1.0301155514935325E-3</v>
+        <v>9.1577324473719485E-4</v>
       </c>
       <c r="AH11" s="4">
-        <v>1.0305951478098193E-3</v>
+        <v>9.1626671670221223E-4</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -17138,97 +17112,97 @@
         <v>5</v>
       </c>
       <c r="D12" s="4">
-        <v>4.8894774164554196E-4</v>
+        <v>4.6616941125958422E-4</v>
       </c>
       <c r="E12" s="4">
-        <v>4.8894774164554196E-4</v>
+        <v>4.7399299019600609E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>4.9240286762932642E-4</v>
+        <v>4.7625318028902199E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>4.9585023884870984E-4</v>
+        <v>4.7962763511951036E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>4.9875024852121853E-4</v>
+        <v>4.8472425299335046E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.018272899043342E-4</v>
+        <v>4.8856488811023198E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.0373766416369245E-4</v>
+        <v>4.9188761878420821E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.066390880184078E-4</v>
+        <v>4.9507465640706257E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.0991211646518261E-4</v>
+        <v>4.9827927013588579E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.1327626339366984E-4</v>
+        <v>5.0141938782536798E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.1691521314626535E-4</v>
+        <v>5.0473115148176617E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>5.2075410037760446E-4</v>
+        <v>5.0816899974300608E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>5.2535208476499069E-4</v>
+        <v>5.1181801067543291E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>5.2977090620943002E-4</v>
+        <v>5.1566570773780435E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>5.3454572976618399E-4</v>
+        <v>5.1961420160206843E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>5.3940037826505566E-4</v>
+        <v>5.2372057195217224E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>5.4434109269794312E-4</v>
+        <v>5.2782108797571725E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>5.4947146025164869E-4</v>
+        <v>5.3191930033488766E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>5.5468408275070034E-4</v>
+        <v>5.3596468592895642E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>5.5982954155396364E-4</v>
+        <v>5.3988919149325191E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>5.651055366781933E-4</v>
+        <v>5.4375065803669985E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>5.7049849064633434E-4</v>
+        <v>5.4758253135318239E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>5.7612541541712304E-4</v>
+        <v>5.5141485752676429E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>5.8166977983232354E-4</v>
+        <v>5.5528893843752823E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>5.8703254466199587E-4</v>
+        <v>5.5903874617184749E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>5.9249002650275126E-4</v>
+        <v>5.6267984194975651E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>5.979148958411626E-4</v>
+        <v>5.6625804309603806E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>6.0325745048005013E-4</v>
+        <v>5.6976670114342325E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>6.085097364744201E-4</v>
+        <v>5.7342146795521316E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>6.1361963490257044E-4</v>
+        <v>5.770408790975283E-4</v>
       </c>
       <c r="AH12" s="4">
-        <v>6.1865081716056805E-4</v>
+        <v>5.8064146713606509E-4</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -17246,97 +17220,97 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>1.2588989047065195E-4</v>
+        <v>1.2002512973417359E-4</v>
       </c>
       <c r="E13" s="4">
-        <v>1.2588989047065195E-4</v>
+        <v>1.2203947485023846E-4</v>
       </c>
       <c r="F13" s="4">
-        <v>1.267794853999527E-4</v>
+        <v>1.2262140837608938E-4</v>
       </c>
       <c r="G13" s="4">
-        <v>1.2766708370188837E-4</v>
+        <v>1.2349023281851067E-4</v>
       </c>
       <c r="H13" s="4">
-        <v>1.2841375224934351E-4</v>
+        <v>1.2480246439513921E-4</v>
       </c>
       <c r="I13" s="4">
-        <v>1.292060013379484E-4</v>
+        <v>1.2579131676732679E-4</v>
       </c>
       <c r="J13" s="4">
-        <v>1.2969786741234555E-4</v>
+        <v>1.2664682373664536E-4</v>
       </c>
       <c r="K13" s="4">
-        <v>1.3044490007078425E-4</v>
+        <v>1.2746739367304943E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>1.3128761015527118E-4</v>
+        <v>1.282924889479853E-4</v>
       </c>
       <c r="M13" s="4">
-        <v>1.3215378061129805E-4</v>
+        <v>1.2910097835968289E-4</v>
       </c>
       <c r="N13" s="4">
-        <v>1.3309070484013427E-4</v>
+        <v>1.2995366163942465E-4</v>
       </c>
       <c r="O13" s="4">
-        <v>1.3407910718238873E-4</v>
+        <v>1.3083880805528838E-4</v>
       </c>
       <c r="P13" s="4">
-        <v>1.3526295506962046E-4</v>
+        <v>1.3177832274670185E-4</v>
       </c>
       <c r="Q13" s="4">
-        <v>1.3640067368506529E-4</v>
+        <v>1.3276899336543915E-4</v>
       </c>
       <c r="R13" s="4">
-        <v>1.3763005253965096E-4</v>
+        <v>1.3378561624301569E-4</v>
       </c>
       <c r="S13" s="4">
-        <v>1.3887998400623192E-4</v>
+        <v>1.3484288774582846E-4</v>
       </c>
       <c r="T13" s="4">
-        <v>1.4015207495957123E-4</v>
+        <v>1.3589865192901079E-4</v>
       </c>
       <c r="U13" s="4">
-        <v>1.4147299610185228E-4</v>
+        <v>1.3695382298529812E-4</v>
       </c>
       <c r="V13" s="4">
-        <v>1.428150955116215E-4</v>
+        <v>1.3799539267868687E-4</v>
       </c>
       <c r="W13" s="4">
-        <v>1.4413990221383478E-4</v>
+        <v>1.3900583926338301E-4</v>
       </c>
       <c r="X13" s="4">
-        <v>1.4549831824021349E-4</v>
+        <v>1.4000005512492829E-4</v>
       </c>
       <c r="Y13" s="4">
-        <v>1.4688684778342735E-4</v>
+        <v>1.409866515871308E-4</v>
       </c>
       <c r="Z13" s="4">
-        <v>1.4833561803584159E-4</v>
+        <v>1.4197336464692809E-4</v>
       </c>
       <c r="AA13" s="4">
-        <v>1.4976313138647074E-4</v>
+        <v>1.4297082834292379E-4</v>
       </c>
       <c r="AB13" s="4">
-        <v>1.5114388810037889E-4</v>
+        <v>1.4393629529317647E-4</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.5254903170297749E-4</v>
+        <v>1.4487377206141239E-4</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.5394577853021879E-4</v>
+        <v>1.4579505528254221E-4</v>
       </c>
       <c r="AE13" s="4">
-        <v>1.553213317050008E-4</v>
+        <v>1.4669843316868957E-4</v>
       </c>
       <c r="AF13" s="4">
-        <v>1.5667364331672129E-4</v>
+        <v>1.4763942983243028E-4</v>
       </c>
       <c r="AG13" s="4">
-        <v>1.5798929425166793E-4</v>
+        <v>1.4857132343468077E-4</v>
       </c>
       <c r="AH13" s="4">
-        <v>1.5928467805130587E-4</v>
+        <v>1.494983706325589E-4</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -17354,97 +17328,97 @@
         <v>5</v>
       </c>
       <c r="D14" s="4">
-        <v>3.8854771216578971E-4</v>
+        <v>3.8868922094850749E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>3.8258341226368855E-4</v>
+        <v>3.8835964956971156E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>3.8242214049766438E-4</v>
+        <v>3.8810530909215343E-4</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8228038455163064E-4</v>
+        <v>3.8794345419032003E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>3.8218410810533679E-4</v>
+        <v>3.8779756085887974E-4</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8211457216848514E-4</v>
+        <v>3.8768659775611613E-4</v>
       </c>
       <c r="J14" s="4">
-        <v>3.8200426469163777E-4</v>
+        <v>3.8756372155893972E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>3.8189581833152308E-4</v>
+        <v>3.8743413448561116E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>3.8183411054494749E-4</v>
+        <v>3.8741625203614658E-4</v>
       </c>
       <c r="M14" s="4">
-        <v>3.817880596463697E-4</v>
+        <v>3.8738694289951122E-4</v>
       </c>
       <c r="N14" s="4">
-        <v>3.8171848967811172E-4</v>
+        <v>3.8727323156960051E-4</v>
       </c>
       <c r="O14" s="4">
-        <v>3.815957033545058E-4</v>
+        <v>3.872801832305252E-4</v>
       </c>
       <c r="P14" s="4">
-        <v>3.8154719842170315E-4</v>
+        <v>3.8723285633958973E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.8151706680653578E-4</v>
+        <v>3.8719654146009873E-4</v>
       </c>
       <c r="R14" s="4">
-        <v>3.8148461516232849E-4</v>
+        <v>3.8712836957078314E-4</v>
       </c>
       <c r="S14" s="4">
-        <v>3.8143890029675929E-4</v>
+        <v>3.8710174375942578E-4</v>
       </c>
       <c r="T14" s="4">
-        <v>3.8136061348433399E-4</v>
+        <v>3.8701959513390749E-4</v>
       </c>
       <c r="U14" s="4">
-        <v>3.8128611338859555E-4</v>
+        <v>3.8693459130790495E-4</v>
       </c>
       <c r="V14" s="4">
-        <v>3.8118445087418999E-4</v>
+        <v>3.8684314096127021E-4</v>
       </c>
       <c r="W14" s="4">
-        <v>3.8109366744518982E-4</v>
+        <v>3.8675224209457141E-4</v>
       </c>
       <c r="X14" s="4">
-        <v>3.809728174627515E-4</v>
+        <v>3.8662639724460569E-4</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.8085823235152255E-4</v>
+        <v>3.8650753548999096E-4</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.8073193315627202E-4</v>
+        <v>3.8637937383671609E-4</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.8058075386159586E-4</v>
+        <v>3.8623677194928995E-4</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.8041414660484408E-4</v>
+        <v>3.8608334518532407E-4</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.8023685995295948E-4</v>
+        <v>3.8590701122559256E-4</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.8003008428330864E-4</v>
+        <v>3.8573556454320505E-4</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.7983159458155041E-4</v>
+        <v>3.8555651429608934E-4</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.796309792403681E-4</v>
+        <v>3.8536129241038667E-4</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.7940476062466651E-4</v>
+        <v>3.8512787391125356E-4</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.7914941421427883E-4</v>
+        <v>3.8487689875144672E-4</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -17462,97 +17436,97 @@
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.2485882196394983E-3</v>
+        <v>1.2490429545241593E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>1.2294220931562134E-3</v>
+        <v>1.2479838852561889E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>1.2289038504258785E-3</v>
+        <v>1.2471665685815224E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>1.2284483212881695E-3</v>
+        <v>1.2466464519590526E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>1.2281389393695341E-3</v>
+        <v>1.2461776274382624E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>1.2279154873998631E-3</v>
+        <v>1.2458210503215087E-3</v>
       </c>
       <c r="J15" s="4">
-        <v>1.2275610171203651E-3</v>
+        <v>1.2454261907779705E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>1.2272125274922902E-3</v>
+        <v>1.2450097660041024E-3</v>
       </c>
       <c r="L15" s="4">
-        <v>1.2270142310850131E-3</v>
+        <v>1.2449523012062393E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>1.2268662476902642E-3</v>
+        <v>1.2448581170389291E-3</v>
       </c>
       <c r="N15" s="4">
-        <v>1.2266426863615321E-3</v>
+        <v>1.244492708563932E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>1.2262481156244335E-3</v>
+        <v>1.2445150475500222E-3</v>
       </c>
       <c r="P15" s="4">
-        <v>1.2260922462529371E-3</v>
+        <v>1.244362963786191E-3</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.2259954190717215E-3</v>
+        <v>1.2442462668418766E-3</v>
       </c>
       <c r="R15" s="4">
-        <v>1.2258911365360214E-3</v>
+        <v>1.2440271982043711E-3</v>
       </c>
       <c r="S15" s="4">
-        <v>1.2257442329748247E-3</v>
+        <v>1.2439416368347936E-3</v>
       </c>
       <c r="T15" s="4">
-        <v>1.2254926602884161E-3</v>
+        <v>1.2436776543099449E-3</v>
       </c>
       <c r="U15" s="4">
-        <v>1.2252532561200515E-3</v>
+        <v>1.2434044966707469E-3</v>
       </c>
       <c r="V15" s="4">
-        <v>1.2249265662081276E-3</v>
+        <v>1.2431106233009778E-3</v>
       </c>
       <c r="W15" s="4">
-        <v>1.2246348359612647E-3</v>
+        <v>1.242818522097998E-3</v>
       </c>
       <c r="X15" s="4">
-        <v>1.2242464876074037E-3</v>
+        <v>1.2424141228640053E-3</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.2238782712582989E-3</v>
+        <v>1.2420321636298346E-3</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.2234724119972555E-3</v>
+        <v>1.241620319407161E-3</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.2229866011676566E-3</v>
+        <v>1.2411620718582406E-3</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.2224512129731741E-3</v>
+        <v>1.240669038843074E-3</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.2218815068132573E-3</v>
+        <v>1.2401023941352315E-3</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.2212170384425776E-3</v>
+        <v>1.2395514545691941E-3</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.2205791968195919E-3</v>
+        <v>1.2389760811407262E-3</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.2199345245082229E-3</v>
+        <v>1.2383487405617649E-3</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.219207576723474E-3</v>
+        <v>1.2375986561341948E-3</v>
       </c>
       <c r="AH15" s="4">
-        <v>1.2183870275091699E-3</v>
+        <v>1.236792153822779E-3</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
@@ -17786,97 +17760,97 @@
         <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="E18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="F18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="G18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="H18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="J18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="K18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="L18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="M18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="N18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="O18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="P18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="Q18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="R18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="S18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="T18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="U18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="V18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="W18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="X18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="Y18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="Z18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AA18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AB18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AC18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AD18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AE18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AF18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AG18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AH18" s="4">
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -18203,97 +18177,97 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.3021255715454198E-3</v>
+        <v>1.3016014821008825E-3</v>
       </c>
       <c r="C24">
-        <v>1.169954325310255E-3</v>
+        <v>1.2926576980307788E-3</v>
       </c>
       <c r="D24">
-        <v>1.1695874511106845E-3</v>
+        <v>1.2869318658566659E-3</v>
       </c>
       <c r="E24">
-        <v>1.1714444581553184E-3</v>
+        <v>1.2796983920849219E-3</v>
       </c>
       <c r="F24">
-        <v>1.1736056881641785E-3</v>
+        <v>1.2723109001949813E-3</v>
       </c>
       <c r="G24">
-        <v>1.1766438005710728E-3</v>
+        <v>1.2688722771223024E-3</v>
       </c>
       <c r="H24">
-        <v>1.1818156289396381E-3</v>
+        <v>1.265614096179496E-3</v>
       </c>
       <c r="I24">
-        <v>1.1775714637687652E-3</v>
+        <v>1.2602292006612041E-3</v>
       </c>
       <c r="J24">
-        <v>1.1741333102543584E-3</v>
+        <v>1.2562225179555552E-3</v>
       </c>
       <c r="K24">
-        <v>1.1713843881320219E-3</v>
+        <v>1.252664288663584E-3</v>
       </c>
       <c r="L24">
-        <v>1.1704182283066226E-3</v>
+        <v>1.2501277882015535E-3</v>
       </c>
       <c r="M24">
-        <v>1.1704199505647207E-3</v>
+        <v>1.2487082688849278E-3</v>
       </c>
       <c r="N24">
-        <v>1.170352842091237E-3</v>
+        <v>1.2467654435390108E-3</v>
       </c>
       <c r="O24">
-        <v>1.170240909437252E-3</v>
+        <v>1.2459379766549955E-3</v>
       </c>
       <c r="P24">
-        <v>1.1702111206802388E-3</v>
+        <v>1.2454911060033728E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1701450745346985E-3</v>
+        <v>1.2451425075326549E-3</v>
       </c>
       <c r="R24">
-        <v>1.1700329362944644E-3</v>
+        <v>1.2441678168462235E-3</v>
       </c>
       <c r="S24">
-        <v>1.1699666622531036E-3</v>
+        <v>1.2437110831363233E-3</v>
       </c>
       <c r="T24">
-        <v>1.1699887022922578E-3</v>
+        <v>1.2434472289246487E-3</v>
       </c>
       <c r="U24">
-        <v>1.1697622226802106E-3</v>
+        <v>1.2431449346539255E-3</v>
       </c>
       <c r="V24">
-        <v>1.1695911768768372E-3</v>
+        <v>1.242749474488683E-3</v>
       </c>
       <c r="W24">
-        <v>1.1694515951262876E-3</v>
+        <v>1.2426414751633898E-3</v>
       </c>
       <c r="X24">
-        <v>1.1691752159346577E-3</v>
+        <v>1.2425270452057901E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1690933199149677E-3</v>
+        <v>1.2423665768196443E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1691104222233107E-3</v>
+        <v>1.2423661582493899E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1689665413356766E-3</v>
+        <v>1.2424552878090294E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1689157693136809E-3</v>
+        <v>1.2425304264301077E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1686919708634384E-3</v>
+        <v>1.2424094170501326E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1682544032094976E-3</v>
+        <v>1.2423079259541866E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1678041756422416E-3</v>
+        <v>1.2421595174498235E-3</v>
       </c>
       <c r="AF24">
-        <v>1.1673854075017747E-3</v>
+        <v>1.242184730573649E-3</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -18301,97 +18275,97 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.8169021509677347E-4</v>
+        <v>3.8029529805498928E-4</v>
       </c>
       <c r="C25">
-        <v>3.8687653048079967E-4</v>
+        <v>3.9476635103339935E-4</v>
       </c>
       <c r="D25">
-        <v>4.2056511897525903E-4</v>
+        <v>4.0317709826518853E-4</v>
       </c>
       <c r="E25">
-        <v>4.663688306917896E-4</v>
+        <v>4.0861194678683542E-4</v>
       </c>
       <c r="F25">
-        <v>4.9065608923801098E-4</v>
+        <v>4.1215478728194431E-4</v>
       </c>
       <c r="G25">
-        <v>5.2629042543785205E-4</v>
+        <v>4.161380472574127E-4</v>
       </c>
       <c r="H25">
-        <v>5.8512991066521824E-4</v>
+        <v>4.1864713672164384E-4</v>
       </c>
       <c r="I25">
-        <v>5.8667097100634658E-4</v>
+        <v>4.1871977044755321E-4</v>
       </c>
       <c r="J25">
-        <v>5.8835007694647346E-4</v>
+        <v>4.1845993448607482E-4</v>
       </c>
       <c r="K25">
-        <v>5.898625440276939E-4</v>
+        <v>4.1824574080425933E-4</v>
       </c>
       <c r="L25">
-        <v>5.9174883473423606E-4</v>
+        <v>4.1892239620751885E-4</v>
       </c>
       <c r="M25">
-        <v>5.9409451273397624E-4</v>
+        <v>4.1874050147763098E-4</v>
       </c>
       <c r="N25">
-        <v>5.9615259573580365E-4</v>
+        <v>4.1850498686080801E-4</v>
       </c>
       <c r="O25">
-        <v>5.9786423482106985E-4</v>
+        <v>4.1826480772119918E-4</v>
       </c>
       <c r="P25">
-        <v>5.9946864918168088E-4</v>
+        <v>4.1829175912415644E-4</v>
       </c>
       <c r="Q25">
-        <v>6.0105353035601729E-4</v>
+        <v>4.1761857347733379E-4</v>
       </c>
       <c r="R25">
-        <v>6.028313827867569E-4</v>
+        <v>4.1687945245925354E-4</v>
       </c>
       <c r="S25">
-        <v>6.0466010462175161E-4</v>
+        <v>4.164113300533476E-4</v>
       </c>
       <c r="T25">
-        <v>6.0640319629291697E-4</v>
+        <v>4.1613449901969674E-4</v>
       </c>
       <c r="U25">
-        <v>6.0749908285085991E-4</v>
+        <v>4.1551323434343832E-4</v>
       </c>
       <c r="V25">
-        <v>6.0889928813896428E-4</v>
+        <v>4.1503634236097445E-4</v>
       </c>
       <c r="W25">
-        <v>6.101111602634067E-4</v>
+        <v>4.1461933319641856E-4</v>
       </c>
       <c r="X25">
-        <v>6.1103113177696147E-4</v>
+        <v>4.1413077690561246E-4</v>
       </c>
       <c r="Y25">
-        <v>6.1233343839785747E-4</v>
+        <v>4.1366186353318095E-4</v>
       </c>
       <c r="Z25">
-        <v>6.1365361580619578E-4</v>
+        <v>4.1331258589589651E-4</v>
       </c>
       <c r="AA25">
-        <v>6.1453839433648022E-4</v>
+        <v>4.1306480490411649E-4</v>
       </c>
       <c r="AB25">
-        <v>6.1563705710047229E-4</v>
+        <v>4.1264228513673742E-4</v>
       </c>
       <c r="AC25">
-        <v>6.1630241560893864E-4</v>
+        <v>4.1222664654626295E-4</v>
       </c>
       <c r="AD25">
-        <v>6.1667168426146114E-4</v>
+        <v>4.1170488758498282E-4</v>
       </c>
       <c r="AE25">
-        <v>6.1709574557948196E-4</v>
+        <v>4.1134544874802168E-4</v>
       </c>
       <c r="AF25">
-        <v>6.1753958944360196E-4</v>
+        <v>4.1101089728435994E-4</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -18399,97 +18373,97 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>4.024988144927663E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="C26">
-        <v>4.0796787215023562E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="D26">
-        <v>4.4349306088874353E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="E26">
-        <v>4.9179385282965761E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="F26">
-        <v>5.174051794644127E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="G26">
-        <v>5.5498219220506228E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="H26">
-        <v>6.1702942871432137E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="I26">
-        <v>6.1865450301759833E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="J26">
-        <v>6.2042514874960234E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="K26">
-        <v>6.2202007097467485E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="L26">
-        <v>6.2400919656171528E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="M26">
-        <v>6.2648275385172284E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="N26">
-        <v>6.2865303733188277E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="O26">
-        <v>6.3045798981798329E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="P26">
-        <v>6.32149872010817E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="Q26">
-        <v>6.338211561269702E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="R26">
-        <v>6.3569593171044787E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="S26">
-        <v>6.3762434994468471E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="T26">
-        <v>6.394624697168103E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="U26">
-        <v>6.406181007048323E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="V26">
-        <v>6.4209464096239596E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="W26">
-        <v>6.4337258070020452E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="X26">
-        <v>6.4434270628615663E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="Y26">
-        <v>6.4571601073642603E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="Z26">
-        <v>6.4710816023557315E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="AA26">
-        <v>6.4804117422294469E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="AB26">
-        <v>6.4919973276739693E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="AC26">
-        <v>6.4990136461510475E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="AD26">
-        <v>6.5029076468089368E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="AE26">
-        <v>6.5073794454305572E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="AF26">
-        <v>6.5120598543606876E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -18497,97 +18471,97 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.6956326213252077E-4</v>
+        <v>4.2164836790723349E-4</v>
       </c>
       <c r="C27">
-        <v>3.7458479937911441E-4</v>
+        <v>4.3038372468941308E-4</v>
       </c>
       <c r="D27">
-        <v>4.0720304362070684E-4</v>
+        <v>4.3420465633630295E-4</v>
       </c>
       <c r="E27">
-        <v>4.5155149283480803E-4</v>
+        <v>4.3755646869858035E-4</v>
       </c>
       <c r="F27">
-        <v>4.7506710350961095E-4</v>
+        <v>4.3967943886681334E-4</v>
       </c>
       <c r="G27">
-        <v>5.0956927571384561E-4</v>
+        <v>4.4460624002269991E-4</v>
       </c>
       <c r="H27">
-        <v>5.6653932955007117E-4</v>
+        <v>4.4496012049244393E-4</v>
       </c>
       <c r="I27">
-        <v>5.6803142776030719E-4</v>
+        <v>4.4386794465270786E-4</v>
       </c>
       <c r="J27">
-        <v>5.6965718562402927E-4</v>
+        <v>4.4337540076502162E-4</v>
       </c>
       <c r="K27">
-        <v>5.7112159903127929E-4</v>
+        <v>4.4271108702653624E-4</v>
       </c>
       <c r="L27">
-        <v>5.7294795904593997E-4</v>
+        <v>4.4204868011526002E-4</v>
       </c>
       <c r="M27">
-        <v>5.7521911083136543E-4</v>
+        <v>4.4134700384785902E-4</v>
       </c>
       <c r="N27">
-        <v>5.7721180500536185E-4</v>
+        <v>4.4074150219218516E-4</v>
       </c>
       <c r="O27">
-        <v>5.7886906238038827E-4</v>
+        <v>4.4004989920049426E-4</v>
       </c>
       <c r="P27">
-        <v>5.8042250174421728E-4</v>
+        <v>4.3959873902550526E-4</v>
       </c>
       <c r="Q27">
-        <v>5.8195702852461087E-4</v>
+        <v>4.3896791873294087E-4</v>
       </c>
       <c r="R27">
-        <v>5.8367839553352869E-4</v>
+        <v>4.3853822206515422E-4</v>
       </c>
       <c r="S27">
-        <v>5.8544901573845658E-4</v>
+        <v>4.380679289602619E-4</v>
       </c>
       <c r="T27">
-        <v>5.8713672639676775E-4</v>
+        <v>4.3761382373608021E-4</v>
       </c>
       <c r="U27">
-        <v>5.8819779475865358E-4</v>
+        <v>4.3728428606956427E-4</v>
       </c>
       <c r="V27">
-        <v>5.8955351312255208E-4</v>
+        <v>4.3676208341619235E-4</v>
       </c>
       <c r="W27">
-        <v>5.9072688199050382E-4</v>
+        <v>4.3641079058356913E-4</v>
       </c>
       <c r="X27">
-        <v>5.9161762443076297E-4</v>
+        <v>4.3601813064876686E-4</v>
       </c>
       <c r="Y27">
-        <v>5.9287855453606585E-4</v>
+        <v>4.3568341275915397E-4</v>
       </c>
       <c r="Z27">
-        <v>5.941567876432349E-4</v>
+        <v>4.3535955435881782E-4</v>
       </c>
       <c r="AA27">
-        <v>5.9501345524167956E-4</v>
+        <v>4.3509879831850481E-4</v>
       </c>
       <c r="AB27">
-        <v>5.9607721160478554E-4</v>
+        <v>4.3470212020737582E-4</v>
       </c>
       <c r="AC27">
-        <v>5.9672143053194357E-4</v>
+        <v>4.3438066023618842E-4</v>
       </c>
       <c r="AD27">
-        <v>5.9707896688585547E-4</v>
+        <v>4.3404466716966903E-4</v>
       </c>
       <c r="AE27">
-        <v>5.9748955504827978E-4</v>
+        <v>4.3370047683290603E-4</v>
       </c>
       <c r="AF27">
-        <v>5.9791929723137496E-4</v>
+        <v>4.3334687418764364E-4</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -18595,97 +18569,97 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.6065525897841826E-4</v>
+        <v>6.5738318568648571E-4</v>
       </c>
       <c r="C28">
-        <v>6.6963208468066697E-4</v>
+        <v>6.7868209237387732E-4</v>
       </c>
       <c r="D28">
-        <v>7.2794257385781682E-4</v>
+        <v>6.8605104499600824E-4</v>
       </c>
       <c r="E28">
-        <v>8.0722273831942124E-4</v>
+        <v>6.8995200477364748E-4</v>
       </c>
       <c r="F28">
-        <v>8.4926076929347041E-4</v>
+        <v>7.0255070116778152E-4</v>
       </c>
       <c r="G28">
-        <v>9.1093909029696081E-4</v>
+        <v>7.3075494105914415E-4</v>
       </c>
       <c r="H28">
-        <v>1.0127824538769955E-3</v>
+        <v>7.6511494750975708E-4</v>
       </c>
       <c r="I28">
-        <v>1.0154498254220361E-3</v>
+        <v>7.6729530817545215E-4</v>
       </c>
       <c r="J28">
-        <v>1.0183561356334346E-3</v>
+        <v>7.6615763729175437E-4</v>
       </c>
       <c r="K28">
-        <v>1.0209740160288929E-3</v>
+        <v>7.6497534983816374E-4</v>
       </c>
       <c r="L28">
-        <v>1.0242389356572967E-3</v>
+        <v>7.6434508106930723E-4</v>
       </c>
       <c r="M28">
-        <v>1.0282989939063808E-3</v>
+        <v>7.6297468642330408E-4</v>
       </c>
       <c r="N28">
-        <v>1.0318612632672199E-3</v>
+        <v>7.6220701719009081E-4</v>
       </c>
       <c r="O28">
-        <v>1.0348238840482307E-3</v>
+        <v>7.6135115263870209E-4</v>
       </c>
       <c r="P28">
-        <v>1.0376009130183064E-3</v>
+        <v>7.6059039236971756E-4</v>
       </c>
       <c r="Q28">
-        <v>1.0403441326274751E-3</v>
+        <v>7.5941521982376113E-4</v>
       </c>
       <c r="R28">
-        <v>1.0434213599484791E-3</v>
+        <v>7.5865921051893645E-4</v>
       </c>
       <c r="S28">
-        <v>1.0465866354774616E-3</v>
+        <v>7.5779553890121924E-4</v>
       </c>
       <c r="T28">
-        <v>1.0496036965230136E-3</v>
+        <v>7.5675471415846706E-4</v>
       </c>
       <c r="U28">
-        <v>1.0515005311525448E-3</v>
+        <v>7.5542246426100047E-4</v>
       </c>
       <c r="V28">
-        <v>1.0539241012380422E-3</v>
+        <v>7.5410270573479155E-4</v>
       </c>
       <c r="W28">
-        <v>1.0560216915365495E-3</v>
+        <v>7.5263393803100167E-4</v>
       </c>
       <c r="X28">
-        <v>1.0576140405004501E-3</v>
+        <v>7.5087688624492623E-4</v>
       </c>
       <c r="Y28">
-        <v>1.0598681609464752E-3</v>
+        <v>7.4906248631128583E-4</v>
       </c>
       <c r="Z28">
-        <v>1.062153213360989E-3</v>
+        <v>7.470071968170176E-4</v>
       </c>
       <c r="AA28">
-        <v>1.0636846479274093E-3</v>
+        <v>7.4466971736164859E-4</v>
       </c>
       <c r="AB28">
-        <v>1.0655862878022778E-3</v>
+        <v>7.4187742730834057E-4</v>
       </c>
       <c r="AC28">
-        <v>1.0667379353434987E-3</v>
+        <v>7.3887113076972523E-4</v>
       </c>
       <c r="AD28">
-        <v>1.0673770905212207E-3</v>
+        <v>7.3528955607294266E-4</v>
       </c>
       <c r="AE28">
-        <v>1.0681110845530265E-3</v>
+        <v>7.3158063579575828E-4</v>
       </c>
       <c r="AF28">
-        <v>1.0688793195546022E-3</v>
+        <v>7.2734242308217191E-4</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -18693,97 +18667,97 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.6460830594306704E-4</v>
+        <v>3.6368321172053488E-4</v>
       </c>
       <c r="C29">
-        <v>3.6956251642964399E-4</v>
+        <v>3.7519786349243767E-4</v>
       </c>
       <c r="D29">
-        <v>4.0174342831774068E-4</v>
+        <v>3.8292342231539014E-4</v>
       </c>
       <c r="E29">
-        <v>4.4549727128862903E-4</v>
+        <v>3.8737442480929154E-4</v>
       </c>
       <c r="F29">
-        <v>4.6869759407472367E-4</v>
+        <v>3.9018162646122461E-4</v>
       </c>
       <c r="G29">
-        <v>5.0273717497395021E-4</v>
+        <v>3.9393486543226201E-4</v>
       </c>
       <c r="H29">
-        <v>5.5894339714779556E-4</v>
+        <v>3.958081254319439E-4</v>
       </c>
       <c r="I29">
-        <v>5.6041548990289135E-4</v>
+        <v>3.958068662698271E-4</v>
       </c>
       <c r="J29">
-        <v>5.6201945025637675E-4</v>
+        <v>3.9568870081904033E-4</v>
       </c>
       <c r="K29">
-        <v>5.6346422939523573E-4</v>
+        <v>3.9552372368166668E-4</v>
       </c>
       <c r="L29">
-        <v>5.6526610230637163E-4</v>
+        <v>3.9593709557582721E-4</v>
       </c>
       <c r="M29">
-        <v>5.6750680339837198E-4</v>
+        <v>3.9597127514076109E-4</v>
       </c>
       <c r="N29">
-        <v>5.6947278032706068E-4</v>
+        <v>3.9568311316840501E-4</v>
       </c>
       <c r="O29">
-        <v>5.7110781785902004E-4</v>
+        <v>3.9545023752148126E-4</v>
       </c>
       <c r="P29">
-        <v>5.7264042933009168E-4</v>
+        <v>3.9533735885442279E-4</v>
       </c>
       <c r="Q29">
-        <v>5.7415438179007124E-4</v>
+        <v>3.9487850361981201E-4</v>
       </c>
       <c r="R29">
-        <v>5.758526693996302E-4</v>
+        <v>3.9428117062173101E-4</v>
       </c>
       <c r="S29">
-        <v>5.7759954983807539E-4</v>
+        <v>3.9378231845382995E-4</v>
       </c>
       <c r="T29">
-        <v>5.7926463234789531E-4</v>
+        <v>3.9349649872249946E-4</v>
       </c>
       <c r="U29">
-        <v>5.8031147433019786E-4</v>
+        <v>3.9297415036491852E-4</v>
       </c>
       <c r="V29">
-        <v>5.816490157653086E-4</v>
+        <v>3.9250688719174123E-4</v>
       </c>
       <c r="W29">
-        <v>5.8280665257347394E-4</v>
+        <v>3.9211185181415524E-4</v>
       </c>
       <c r="X29">
-        <v>5.8368545229588241E-4</v>
+        <v>3.9168760952964436E-4</v>
       </c>
       <c r="Y29">
-        <v>5.8492947635540129E-4</v>
+        <v>3.9122731880395569E-4</v>
       </c>
       <c r="Z29">
-        <v>5.8619057142506796E-4</v>
+        <v>3.9085142797907205E-4</v>
       </c>
       <c r="AA29">
-        <v>5.8703575316749231E-4</v>
+        <v>3.9051216876031034E-4</v>
       </c>
       <c r="AB29">
-        <v>5.8808524711137121E-4</v>
+        <v>3.9011492927727893E-4</v>
       </c>
       <c r="AC29">
-        <v>5.8872082860919703E-4</v>
+        <v>3.8968023550283847E-4</v>
       </c>
       <c r="AD29">
-        <v>5.8907357125888749E-4</v>
+        <v>3.8920742031412479E-4</v>
       </c>
       <c r="AE29">
-        <v>5.8947865441969188E-4</v>
+        <v>3.8876188063600889E-4</v>
       </c>
       <c r="AF29">
-        <v>5.8990263479173004E-4</v>
+        <v>3.883715712735463E-4</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -18791,97 +18765,97 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.8798995863315595E-4</v>
+        <v>5.8794415231938754E-4</v>
       </c>
       <c r="C30">
-        <v>6.1696588368217011E-4</v>
+        <v>5.859697075889746E-4</v>
       </c>
       <c r="D30">
-        <v>6.1615643563263075E-4</v>
+        <v>5.8487716230241557E-4</v>
       </c>
       <c r="E30">
-        <v>6.1491591896440637E-4</v>
+        <v>5.8450715864569842E-4</v>
       </c>
       <c r="F30">
-        <v>6.1377724637873168E-4</v>
+        <v>5.8509864619692446E-4</v>
       </c>
       <c r="G30">
-        <v>6.142470019361155E-4</v>
+        <v>5.8547838832553585E-4</v>
       </c>
       <c r="H30">
-        <v>6.1520024602288283E-4</v>
+        <v>5.8677369900367977E-4</v>
       </c>
       <c r="I30">
-        <v>6.1475914245497727E-4</v>
+        <v>5.8555189724455374E-4</v>
       </c>
       <c r="J30">
-        <v>6.1453063795633529E-4</v>
+        <v>5.848624993596127E-4</v>
       </c>
       <c r="K30">
-        <v>6.1421989789330099E-4</v>
+        <v>5.8392369578135807E-4</v>
       </c>
       <c r="L30">
-        <v>6.1395155199930678E-4</v>
+        <v>5.8323582222320433E-4</v>
       </c>
       <c r="M30">
-        <v>6.1371402100970397E-4</v>
+        <v>5.8232846507614633E-4</v>
       </c>
       <c r="N30">
-        <v>6.1333899411748923E-4</v>
+        <v>5.8140476063791701E-4</v>
       </c>
       <c r="O30">
-        <v>6.1302463445133575E-4</v>
+        <v>5.8053415348023238E-4</v>
       </c>
       <c r="P30">
-        <v>6.1281216683748763E-4</v>
+        <v>5.7985999357189376E-4</v>
       </c>
       <c r="Q30">
-        <v>6.1258372063173461E-4</v>
+        <v>5.790672010289583E-4</v>
       </c>
       <c r="R30">
-        <v>6.123497042956693E-4</v>
+        <v>5.783038784646057E-4</v>
       </c>
       <c r="S30">
-        <v>6.1209300817199994E-4</v>
+        <v>5.7772941074558763E-4</v>
       </c>
       <c r="T30">
-        <v>6.1191994813601343E-4</v>
+        <v>5.7728789584792482E-4</v>
       </c>
       <c r="U30">
-        <v>6.1168186180050551E-4</v>
+        <v>5.7687866477931793E-4</v>
       </c>
       <c r="V30">
-        <v>6.1149173815558823E-4</v>
+        <v>5.7657581365796442E-4</v>
       </c>
       <c r="W30">
-        <v>6.1127738738684983E-4</v>
+        <v>5.7638685408458411E-4</v>
       </c>
       <c r="X30">
-        <v>6.1103585054452642E-4</v>
+        <v>5.7622519119671751E-4</v>
       </c>
       <c r="Y30">
-        <v>6.1081633035104494E-4</v>
+        <v>5.7612076801724784E-4</v>
       </c>
       <c r="Z30">
-        <v>6.1057407505978978E-4</v>
+        <v>5.7610601336530144E-4</v>
       </c>
       <c r="AA30">
-        <v>6.1030878988926223E-4</v>
+        <v>5.7616718513728532E-4</v>
       </c>
       <c r="AB30">
-        <v>6.1005507469188698E-4</v>
+        <v>5.7619221096857649E-4</v>
       </c>
       <c r="AC30">
-        <v>6.0977962950897345E-4</v>
+        <v>5.7620061572155568E-4</v>
       </c>
       <c r="AD30">
-        <v>6.0948742530806332E-4</v>
+        <v>5.7622282038993897E-4</v>
       </c>
       <c r="AE30">
-        <v>6.091962063144654E-4</v>
+        <v>5.7625953419671364E-4</v>
       </c>
       <c r="AF30">
-        <v>6.0888183625194033E-4</v>
+        <v>5.7635527402379559E-4</v>
       </c>
     </row>
   </sheetData>
@@ -18890,14 +18864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -19269,14 +19243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="50.36328125" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19376,18 +19350,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19545,7 +19519,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>4.024988144927663E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19563,7 +19537,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29">
+    <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
@@ -19581,7 +19555,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29">
+    <row r="22" spans="1:4" ht="28.5">
       <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
@@ -19665,7 +19639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -19673,11 +19647,11 @@
       <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.36328125" customWidth="1"/>
-    <col min="39" max="39" width="9.08984375" style="13"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="39" max="39" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19923,175 +19897,175 @@
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.2103824262146724E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.2782662361074218E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.3461500460001711E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4140338558929205E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4819176657856698E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.5498014756784192E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6176852855711685E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6855690954639179E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.7534529053566672E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8213367152494166E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.889220525142166E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.9571043350349153E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
-        <v>4.024988144927663E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="AO2" s="15">
         <f>BNVFE!E8</f>
-        <v>4.0796787215023562E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="AP2" s="15">
         <f>BNVFE!F8</f>
-        <v>4.4349306088874353E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="AQ2" s="15">
         <f>BNVFE!G8</f>
-        <v>4.9179385282965761E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="AR2" s="15">
         <f>BNVFE!H8</f>
-        <v>5.174051794644127E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="AS2" s="15">
         <f>BNVFE!I8</f>
-        <v>5.5498219220506228E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="AT2" s="15">
         <f>BNVFE!J8</f>
-        <v>6.1702942871432137E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="AU2" s="15">
         <f>BNVFE!K8</f>
-        <v>6.1865450301759833E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="AV2" s="15">
         <f>BNVFE!L8</f>
-        <v>6.2042514874960234E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="AW2" s="15">
         <f>BNVFE!M8</f>
-        <v>6.2202007097467485E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="AX2" s="15">
         <f>BNVFE!N8</f>
-        <v>6.2400919656171528E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="AY2" s="15">
         <f>BNVFE!O8</f>
-        <v>6.2648275385172284E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AZ2" s="15">
         <f>BNVFE!P8</f>
-        <v>6.2865303733188277E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="BA2" s="15">
         <f>BNVFE!Q8</f>
-        <v>6.3045798981798329E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="BB2" s="15">
         <f>BNVFE!R8</f>
-        <v>6.32149872010817E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="BC2" s="15">
         <f>BNVFE!S8</f>
-        <v>6.338211561269702E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="BD2" s="15">
         <f>BNVFE!T8</f>
-        <v>6.3569593171044787E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="BE2" s="15">
         <f>BNVFE!U8</f>
-        <v>6.3762434994468471E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="BF2" s="15">
         <f>BNVFE!V8</f>
-        <v>6.394624697168103E-4</v>
+        <v>4.4141525513386555E-4</v>
       </c>
       <c r="BG2" s="15">
         <f>BNVFE!W8</f>
-        <v>6.406181007048323E-4</v>
+        <v>4.4094858868260617E-4</v>
       </c>
       <c r="BH2" s="15">
         <f>BNVFE!X8</f>
-        <v>6.4209464096239596E-4</v>
+        <v>4.406528424788466E-4</v>
       </c>
       <c r="BI2" s="15">
         <f>BNVFE!Y8</f>
-        <v>6.4337258070020452E-4</v>
+        <v>4.4046477188487546E-4</v>
       </c>
       <c r="BJ2" s="15">
         <f>BNVFE!Z8</f>
-        <v>6.4434270628615663E-4</v>
+        <v>4.4016736396697124E-4</v>
       </c>
       <c r="BK2" s="15">
         <f>BNVFE!AA8</f>
-        <v>6.4571601073642603E-4</v>
+        <v>4.3991921468742256E-4</v>
       </c>
       <c r="BL2" s="15">
         <f>BNVFE!AB8</f>
-        <v>6.4710816023557315E-4</v>
+        <v>4.3980677282836695E-4</v>
       </c>
       <c r="BM2" s="15">
         <f>BNVFE!AC8</f>
-        <v>6.4804117422294469E-4</v>
+        <v>4.3981133028276362E-4</v>
       </c>
       <c r="BN2" s="15">
         <f>BNVFE!AD8</f>
-        <v>6.4919973276739693E-4</v>
+        <v>4.3960459654073496E-4</v>
       </c>
       <c r="BO2" s="15">
         <f>BNVFE!AE8</f>
-        <v>6.4990136461510475E-4</v>
+        <v>4.3945697770705547E-4</v>
       </c>
       <c r="BP2" s="15">
         <f>BNVFE!AF8</f>
-        <v>6.5029076468089368E-4</v>
+        <v>4.3919624527100954E-4</v>
       </c>
       <c r="BQ2" s="15">
         <f>BNVFE!AG8</f>
-        <v>6.5073794454305572E-4</v>
+        <v>4.3913823303573507E-4</v>
       </c>
       <c r="BR2" s="15">
         <f>BNVFE!AH8</f>
-        <v>6.5120598543606876E-4</v>
+        <v>4.3909651675542918E-4</v>
       </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="4"/>
@@ -20129,179 +20103,179 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="17" cm="1">
         <f t="array" ref="AA3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AA1)</f>
-        <v>1.203379342864262E-4</v>
+        <v>1.1709920537385831E-4</v>
       </c>
       <c r="AB3" s="17" cm="1">
         <f t="array" ref="AB3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AB1)</f>
-        <v>1.2016088715049279E-4</v>
+        <v>1.1699905164334643E-4</v>
       </c>
       <c r="AC3" s="17" cm="1">
         <f t="array" ref="AC3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AC1)</f>
-        <v>1.1998384001455937E-4</v>
+        <v>1.1689889791283454E-4</v>
       </c>
       <c r="AD3" s="17" cm="1">
         <f t="array" ref="AD3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AD1)</f>
-        <v>1.1980679287862601E-4</v>
+        <v>1.1679874418232269E-4</v>
       </c>
       <c r="AE3" s="17" cm="1">
         <f t="array" ref="AE3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AE1)</f>
-        <v>1.1962974574269259E-4</v>
+        <v>1.166985904518108E-4</v>
       </c>
       <c r="AF3" s="17" cm="1">
         <f t="array" ref="AF3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AF1)</f>
-        <v>1.1945269860675917E-4</v>
+        <v>1.1659843672129892E-4</v>
       </c>
       <c r="AG3" s="17" cm="1">
         <f t="array" ref="AG3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AG1)</f>
-        <v>1.1927565147082576E-4</v>
+        <v>1.1649828299078704E-4</v>
       </c>
       <c r="AH3" s="17" cm="1">
         <f t="array" ref="AH3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AH1)</f>
-        <v>1.1909860433489239E-4</v>
+        <v>1.1639812926027518E-4</v>
       </c>
       <c r="AI3" s="17" cm="1">
         <f t="array" ref="AI3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AI1)</f>
-        <v>1.1892155719895898E-4</v>
+        <v>1.1629797552976329E-4</v>
       </c>
       <c r="AJ3" s="17" cm="1">
         <f t="array" ref="AJ3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AJ1)</f>
-        <v>1.1874451006302556E-4</v>
+        <v>1.1619782179925141E-4</v>
       </c>
       <c r="AK3" s="17" cm="1">
         <f t="array" ref="AK3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AK1)</f>
-        <v>1.1856746292709215E-4</v>
+        <v>1.1609766806873955E-4</v>
       </c>
       <c r="AL3" s="17" cm="1">
         <f t="array" ref="AL3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AL1)</f>
-        <v>1.1839041579115878E-4</v>
+        <v>1.1599751433822767E-4</v>
       </c>
       <c r="AM3" s="41" cm="1">
         <f t="array" ref="AM3">TREND($AN$3:$AR$3,$AN$1:$AR$1,AM1)</f>
-        <v>1.1821336865522537E-4</v>
+        <v>1.1589736060771579E-4</v>
       </c>
       <c r="AN3" s="15">
         <f>BNVFE!D9</f>
-        <v>1.1797797201017124E-4</v>
+        <v>1.157863591831631E-4</v>
       </c>
       <c r="AO3" s="15">
         <f>BNVFE!E9</f>
-        <v>1.1829846623500186E-4</v>
+        <v>1.1589922337335911E-4</v>
       </c>
       <c r="AP3" s="15">
         <f>BNVFE!F9</f>
-        <v>1.1729428078558663E-4</v>
+        <v>1.1538533736033749E-4</v>
       </c>
       <c r="AQ3" s="15">
         <f>BNVFE!G9</f>
-        <v>1.1719689551672209E-4</v>
+        <v>1.1535674989351573E-4</v>
       </c>
       <c r="AR3" s="15">
         <f>BNVFE!H9</f>
-        <v>1.1764352168964412E-4</v>
+        <v>1.1555682727052541E-4</v>
       </c>
       <c r="AS3" s="15">
         <f>BNVFE!I9</f>
-        <v>1.1866120205476883E-4</v>
+        <v>1.1619447640903485E-4</v>
       </c>
       <c r="AT3" s="15">
         <f>BNVFE!J9</f>
-        <v>1.1959158500672709E-4</v>
+        <v>1.1675875263243092E-4</v>
       </c>
       <c r="AU3" s="15">
         <f>BNVFE!K9</f>
-        <v>1.2012295075743907E-4</v>
+        <v>1.170886675606406E-4</v>
       </c>
       <c r="AV3" s="15">
         <f>BNVFE!L9</f>
-        <v>1.1891477439334622E-4</v>
+        <v>1.1617580985063572E-4</v>
       </c>
       <c r="AW3" s="15">
         <f>BNVFE!M9</f>
-        <v>1.184720637798503E-4</v>
+        <v>1.1591329821118029E-4</v>
       </c>
       <c r="AX3" s="15">
         <f>BNVFE!N9</f>
-        <v>1.1791912239365693E-4</v>
+        <v>1.1553838100461461E-4</v>
       </c>
       <c r="AY3" s="15">
         <f>BNVFE!O9</f>
-        <v>1.1726854759265854E-4</v>
+        <v>1.1496830903628264E-4</v>
       </c>
       <c r="AZ3" s="15">
         <f>BNVFE!P9</f>
-        <v>1.163947280800766E-4</v>
+        <v>1.1417779457660161E-4</v>
       </c>
       <c r="BA3" s="15">
         <f>BNVFE!Q9</f>
-        <v>1.1543036314509163E-4</v>
+        <v>1.1321126528769265E-4</v>
       </c>
       <c r="BB3" s="15">
         <f>BNVFE!R9</f>
-        <v>1.1452766973335742E-4</v>
+        <v>1.1235905420307894E-4</v>
       </c>
       <c r="BC3" s="15">
         <f>BNVFE!S9</f>
-        <v>1.1368570476708297E-4</v>
+        <v>1.113973304748738E-4</v>
       </c>
       <c r="BD3" s="15">
         <f>BNVFE!T9</f>
-        <v>1.1294953379908579E-4</v>
+        <v>1.1073582017040977E-4</v>
       </c>
       <c r="BE3" s="15">
         <f>BNVFE!U9</f>
-        <v>1.1233567537117923E-4</v>
+        <v>1.099531339020346E-4</v>
       </c>
       <c r="BF3" s="15">
         <f>BNVFE!V9</f>
-        <v>1.1173642803062577E-4</v>
+        <v>1.0948773622007766E-4</v>
       </c>
       <c r="BG3" s="15">
         <f>BNVFE!W9</f>
-        <v>1.1124100972467315E-4</v>
+        <v>1.0913516582552083E-4</v>
       </c>
       <c r="BH3" s="15">
         <f>BNVFE!X9</f>
-        <v>1.1075853315322957E-4</v>
+        <v>1.0884247723484658E-4</v>
       </c>
       <c r="BI3" s="15">
         <f>BNVFE!Y9</f>
-        <v>1.1037521243170253E-4</v>
+        <v>1.085933825763662E-4</v>
       </c>
       <c r="BJ3" s="15">
         <f>BNVFE!Z9</f>
-        <v>1.0991848018148144E-4</v>
+        <v>1.083443267474224E-4</v>
       </c>
       <c r="BK3" s="15">
         <f>BNVFE!AA9</f>
-        <v>1.0966775896786235E-4</v>
+        <v>1.0815629409531245E-4</v>
       </c>
       <c r="BL3" s="15">
         <f>BNVFE!AB9</f>
-        <v>1.0946652790457937E-4</v>
+        <v>1.0799885128162017E-4</v>
       </c>
       <c r="BM3" s="15">
         <f>BNVFE!AC9</f>
-        <v>1.093057513924758E-4</v>
+        <v>1.078432358858381E-4</v>
       </c>
       <c r="BN3" s="15">
         <f>BNVFE!AD9</f>
-        <v>1.0925596504686471E-4</v>
+        <v>1.0772424981274788E-4</v>
       </c>
       <c r="BO3" s="15">
         <f>BNVFE!AE9</f>
-        <v>1.0913422478199535E-4</v>
+        <v>1.0749204222981193E-4</v>
       </c>
       <c r="BP3" s="15">
         <f>BNVFE!AF9</f>
-        <v>1.0902511165204325E-4</v>
+        <v>1.0725768900406794E-4</v>
       </c>
       <c r="BQ3" s="15">
         <f>BNVFE!AG9</f>
-        <v>1.088790399619601E-4</v>
+        <v>1.0704107117361582E-4</v>
       </c>
       <c r="BR3" s="15">
         <f>BNVFE!AH9</f>
-        <v>1.0882419661026466E-4</v>
+        <v>1.0682755170917861E-4</v>
       </c>
       <c r="BS3" s="15"/>
       <c r="BT3" s="4"/>
@@ -20324,239 +20298,239 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5189169708960616E-4</v>
+        <v>1.0544082239246518E-3</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5461686896994183E-4</v>
+        <v>1.0507727694715886E-3</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>9.5734204085027739E-4</v>
+        <v>1.0471373150185254E-3</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>9.6006721273061296E-4</v>
+        <v>1.0435018605654625E-3</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>9.6279238461094863E-4</v>
+        <v>1.0398664061123993E-3</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>9.6551755649128431E-4</v>
+        <v>1.0362309516593362E-3</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>9.6824272837161987E-4</v>
+        <v>1.032595497206273E-3</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>9.7096790025195544E-4</v>
+        <v>1.0289600427532098E-3</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>9.73693072132291E-4</v>
+        <v>1.0253245883001466E-3</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>9.7641824401262668E-4</v>
+        <v>1.0216891338470835E-3</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>9.7914341589296224E-4</v>
+        <v>1.0180536793940205E-3</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>9.8186858777329781E-4</v>
+        <v>1.0144182249409574E-3</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>9.8459375965363337E-4</v>
+        <v>1.0107827704878942E-3</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>9.8731893153396894E-4</v>
+        <v>1.0071473160348312E-3</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>9.900441034143045E-4</v>
+        <v>1.0035118615817681E-3</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>9.9276927529464007E-4</v>
+        <v>9.998764071287049E-4</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>9.9549444717497563E-4</v>
+        <v>9.9624095267564173E-4</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.982196190553112E-4</v>
+        <v>9.9260549822257856E-4</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
-        <v>1.0036699628159823E-3</v>
+        <v>9.8533458931645266E-4</v>
       </c>
       <c r="AO4" s="15">
         <f>BNVFE!E10</f>
-        <v>1.0208853457654701E-3</v>
+        <v>9.988021364476826E-4</v>
       </c>
       <c r="AP4" s="15">
         <f>BNVFE!F10</f>
-        <v>1.0363125757886589E-3</v>
+        <v>1.0144915989479513E-3</v>
       </c>
       <c r="AQ4" s="15">
         <f>BNVFE!G10</f>
-        <v>1.0550551388611548E-3</v>
+        <v>1.0338641499362739E-3</v>
       </c>
       <c r="AR4" s="15">
         <f>BNVFE!H10</f>
-        <v>1.0785940195513571E-3</v>
+        <v>1.0578483957153595E-3</v>
       </c>
       <c r="AS4" s="15">
         <f>BNVFE!I10</f>
-        <v>1.1061013871046345E-3</v>
+        <v>1.0855563574924357E-3</v>
       </c>
       <c r="AT4" s="15">
         <f>BNVFE!J10</f>
-        <v>1.1357533191201131E-3</v>
+        <v>1.1154933208321449E-3</v>
       </c>
       <c r="AU4" s="15">
         <f>BNVFE!K10</f>
-        <v>1.1663973327510526E-3</v>
+        <v>1.146433059300843E-3</v>
       </c>
       <c r="AV4" s="15">
         <f>BNVFE!L10</f>
-        <v>1.1820311595601288E-3</v>
+        <v>1.162195430859642E-3</v>
       </c>
       <c r="AW4" s="15">
         <f>BNVFE!M10</f>
-        <v>1.2045176477719092E-3</v>
+        <v>1.1852372128907688E-3</v>
       </c>
       <c r="AX4" s="15">
         <f>BNVFE!N10</f>
-        <v>1.2233355994231063E-3</v>
+        <v>1.2047747934543398E-3</v>
       </c>
       <c r="AY4" s="15">
         <f>BNVFE!O10</f>
-        <v>1.2400654478455125E-3</v>
+        <v>1.2221312436297778E-3</v>
       </c>
       <c r="AZ4" s="15">
         <f>BNVFE!P10</f>
-        <v>1.2499350960073442E-3</v>
+        <v>1.2324377185343545E-3</v>
       </c>
       <c r="BA4" s="15">
         <f>BNVFE!Q10</f>
-        <v>1.2512540753321518E-3</v>
+        <v>1.2337189023360906E-3</v>
       </c>
       <c r="BB4" s="15">
         <f>BNVFE!R10</f>
-        <v>1.2521553698507089E-3</v>
+        <v>1.2346974269358923E-3</v>
       </c>
       <c r="BC4" s="15">
         <f>BNVFE!S10</f>
-        <v>1.252074367228913E-3</v>
+        <v>1.2348004129494538E-3</v>
       </c>
       <c r="BD4" s="15">
         <f>BNVFE!T10</f>
-        <v>1.2523252347546336E-3</v>
+        <v>1.2352948717913239E-3</v>
       </c>
       <c r="BE4" s="15">
         <f>BNVFE!U10</f>
-        <v>1.2527262378328314E-3</v>
+        <v>1.2357035089552255E-3</v>
       </c>
       <c r="BF4" s="15">
         <f>BNVFE!V10</f>
-        <v>1.2526822878954607E-3</v>
+        <v>1.2358091719752555E-3</v>
       </c>
       <c r="BG4" s="15">
         <f>BNVFE!W10</f>
-        <v>1.252281766020957E-3</v>
+        <v>1.2356633538581946E-3</v>
       </c>
       <c r="BH4" s="15">
         <f>BNVFE!X10</f>
-        <v>1.2523305279952656E-3</v>
+        <v>1.2356553228387885E-3</v>
       </c>
       <c r="BI4" s="15">
         <f>BNVFE!Y10</f>
-        <v>1.2524525933322692E-3</v>
+        <v>1.2356638262711007E-3</v>
       </c>
       <c r="BJ4" s="15">
         <f>BNVFE!Z10</f>
-        <v>1.2517309481927445E-3</v>
+        <v>1.2356742193550382E-3</v>
       </c>
       <c r="BK4" s="15">
         <f>BNVFE!AA10</f>
-        <v>1.2521125427219578E-3</v>
+        <v>1.2356002079997265E-3</v>
       </c>
       <c r="BL4" s="15">
         <f>BNVFE!AB10</f>
-        <v>1.2526240622485064E-3</v>
+        <v>1.2356762664776318E-3</v>
       </c>
       <c r="BM4" s="15">
         <f>BNVFE!AC10</f>
-        <v>1.2533139479442377E-3</v>
+        <v>1.2358724753046924E-3</v>
       </c>
       <c r="BN4" s="15">
         <f>BNVFE!AD10</f>
-        <v>1.2540837134531458E-3</v>
+        <v>1.2358611373949426E-3</v>
       </c>
       <c r="BO4" s="15">
         <f>BNVFE!AE10</f>
-        <v>1.254924697108742E-3</v>
+        <v>1.236194345964814E-3</v>
       </c>
       <c r="BP4" s="15">
         <f>BNVFE!AF10</f>
-        <v>1.2557445078018091E-3</v>
+        <v>1.2367163622262144E-3</v>
       </c>
       <c r="BQ4" s="15">
         <f>BNVFE!AG10</f>
-        <v>1.2564741730028979E-3</v>
+        <v>1.2373051461783645E-3</v>
       </c>
       <c r="BR4" s="15">
         <f>BNVFE!AH10</f>
-        <v>1.2570591562933724E-3</v>
+        <v>1.2379718782600448E-3</v>
       </c>
       <c r="BS4" s="15"/>
       <c r="BT4" s="4"/>
@@ -20623,195 +20597,195 @@
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.8263899375966939E-4</v>
+        <v>7.777140437446856E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.8487321551666534E-4</v>
+        <v>7.7502331548669776E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>7.8710743727366129E-4</v>
+        <v>7.7233258722870992E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>7.8934165903065724E-4</v>
+        <v>7.6964185897072208E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>7.9157588078765319E-4</v>
+        <v>7.6695113071273424E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>7.9381010254464914E-4</v>
+        <v>7.642604024547464E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>7.9604432430164509E-4</v>
+        <v>7.6156967419675856E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>7.9827854605864104E-4</v>
+        <v>7.5887894593877072E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0051276781563699E-4</v>
+        <v>7.5618821768078288E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0274698957263294E-4</v>
+        <v>7.5349748942279504E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>8.049812113296289E-4</v>
+        <v>7.508067611648072E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>8.0721543308662485E-4</v>
+        <v>7.4811603290681936E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>8.094496548436208E-4</v>
+        <v>7.4542530464883152E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>8.1168387660061675E-4</v>
+        <v>7.4273457639084369E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>8.139180983576127E-4</v>
+        <v>7.4004384813285585E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>8.1615232011460865E-4</v>
+        <v>7.3735311987486801E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>8.183865418716046E-4</v>
+        <v>7.3466239161688017E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
-        <v>8.228549853855965E-4</v>
+        <v>7.2928093510090471E-4</v>
       </c>
       <c r="AO5" s="15">
         <f>BNVFE!E11</f>
-        <v>8.3696895134066358E-4</v>
+        <v>7.3924874245474208E-4</v>
       </c>
       <c r="AP5" s="15">
         <f>BNVFE!F11</f>
-        <v>8.4961690694915356E-4</v>
+        <v>7.508610678592162E-4</v>
       </c>
       <c r="AQ5" s="15">
         <f>BNVFE!G11</f>
-        <v>8.6498292569483441E-4</v>
+        <v>7.6519937715357957E-4</v>
       </c>
       <c r="AR5" s="15">
         <f>BNVFE!H11</f>
-        <v>8.8428118711932307E-4</v>
+        <v>7.8295096466416878E-4</v>
       </c>
       <c r="AS5" s="15">
         <f>BNVFE!I11</f>
-        <v>9.0683299734042682E-4</v>
+        <v>8.0345860591986078E-4</v>
       </c>
       <c r="AT5" s="15">
         <f>BNVFE!J11</f>
-        <v>9.3114302054446375E-4</v>
+        <v>8.2561600996837806E-4</v>
       </c>
       <c r="AU5" s="15">
         <f>BNVFE!K11</f>
-        <v>9.5626639807157017E-4</v>
+        <v>8.4851560331147032E-4</v>
       </c>
       <c r="AV5" s="15">
         <f>BNVFE!L11</f>
-        <v>9.6908373126585042E-4</v>
+        <v>8.6018189128557194E-4</v>
       </c>
       <c r="AW5" s="15">
         <f>BNVFE!M11</f>
-        <v>9.875191927366351E-4</v>
+        <v>8.7723592808510082E-4</v>
       </c>
       <c r="AX5" s="15">
         <f>BNVFE!N11</f>
-        <v>1.002947018520609E-3</v>
+        <v>8.9169638159754131E-4</v>
       </c>
       <c r="AY5" s="15">
         <f>BNVFE!O11</f>
-        <v>1.0166629208482015E-3</v>
+        <v>9.0454250346438524E-4</v>
       </c>
       <c r="AZ5" s="15">
         <f>BNVFE!P11</f>
-        <v>1.02475451419546E-3</v>
+        <v>9.1217068960288046E-4</v>
       </c>
       <c r="BA5" s="15">
         <f>BNVFE!Q11</f>
-        <v>1.0258358743569153E-3</v>
+        <v>9.1311893899054719E-4</v>
       </c>
       <c r="BB5" s="15">
         <f>BNVFE!R11</f>
-        <v>1.0265747972253597E-3</v>
+        <v>9.1384317961185513E-4</v>
       </c>
       <c r="BC5" s="15">
         <f>BNVFE!S11</f>
-        <v>1.0265083875352788E-3</v>
+        <v>9.1391940319832696E-4</v>
       </c>
       <c r="BD5" s="15">
         <f>BNVFE!T11</f>
-        <v>1.0267140603180244E-3</v>
+        <v>9.1428536965325259E-4</v>
       </c>
       <c r="BE5" s="15">
         <f>BNVFE!U11</f>
-        <v>1.0270428211600088E-3</v>
+        <v>9.1458781645278495E-4</v>
       </c>
       <c r="BF5" s="15">
         <f>BNVFE!V11</f>
-        <v>1.0270067889717274E-3</v>
+        <v>9.1466602138630556E-4</v>
       </c>
       <c r="BG5" s="15">
         <f>BNVFE!W11</f>
-        <v>1.0266784226427533E-3</v>
+        <v>9.1455809624705047E-4</v>
       </c>
       <c r="BH5" s="15">
         <f>BNVFE!X11</f>
-        <v>1.0267183999611385E-3</v>
+        <v>9.145521522059036E-4</v>
       </c>
       <c r="BI5" s="15">
         <f>BNVFE!Y11</f>
-        <v>1.0268184747614386E-3</v>
+        <v>9.1455844589652965E-4</v>
       </c>
       <c r="BJ5" s="15">
         <f>BNVFE!Z11</f>
-        <v>1.0262268367502033E-3</v>
+        <v>9.1456613818507277E-4</v>
       </c>
       <c r="BK5" s="15">
         <f>BNVFE!AA11</f>
-        <v>1.0265396855674359E-3</v>
+        <v>9.1451135976666027E-4</v>
       </c>
       <c r="BL5" s="15">
         <f>BNVFE!AB11</f>
-        <v>1.0269590528974712E-3</v>
+        <v>9.1456765333281604E-4</v>
       </c>
       <c r="BM5" s="15">
         <f>BNVFE!AC11</f>
-        <v>1.0275246530500213E-3</v>
+        <v>9.1471287441652219E-4</v>
       </c>
       <c r="BN5" s="15">
         <f>BNVFE!AD11</f>
-        <v>1.0281557423622947E-3</v>
+        <v>9.147044828290207E-4</v>
       </c>
       <c r="BO5" s="15">
         <f>BNVFE!AE11</f>
-        <v>1.0288452196001046E-3</v>
+        <v>9.1495110226170301E-4</v>
       </c>
       <c r="BP5" s="15">
         <f>BNVFE!AF11</f>
-        <v>1.0295173382654575E-3</v>
+        <v>9.153374649362501E-4</v>
       </c>
       <c r="BQ5" s="15">
         <f>BNVFE!AG11</f>
-        <v>1.0301155514935325E-3</v>
+        <v>9.1577324473719485E-4</v>
       </c>
       <c r="BR5" s="15">
         <f>BNVFE!AH11</f>
-        <v>1.0305951478098193E-3</v>
+        <v>9.1626671670221223E-4</v>
       </c>
       <c r="BS5" s="15"/>
       <c r="BT5" s="4"/>
@@ -20838,223 +20812,223 @@
       <c r="O6" s="11"/>
       <c r="P6" s="4">
         <f>TREND($AN6:$BR6,$AN$1:$BR$1,P$1)</f>
-        <v>3.6906560650609363E-4</v>
+        <v>3.7813606358617479E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:AM6" si="4">TREND($AN6:$BR6,$AN$1:$BR$1,Q$1)</f>
-        <v>3.7357279953911977E-4</v>
+        <v>3.8189121028656993E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>3.7807999257214418E-4</v>
+        <v>3.8564635698696507E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8258718560517033E-4</v>
+        <v>3.8940150368736021E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8709437863819647E-4</v>
+        <v>3.9315665038775535E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9160157167122261E-4</v>
+        <v>3.9691179708815135E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9610876470424702E-4</v>
+        <v>4.0066694378854649E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0061595773727317E-4</v>
+        <v>4.0442209048894163E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0512315077029931E-4</v>
+        <v>4.0817723718933677E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0963034380332546E-4</v>
+        <v>4.1193238388973191E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1413753683634986E-4</v>
+        <v>4.1568753059012791E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1864472986937601E-4</v>
+        <v>4.1944267729052305E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="4"/>
-        <v>4.2315192290240215E-4</v>
+        <v>4.2319782399091819E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="4"/>
-        <v>4.2765911593542656E-4</v>
+        <v>4.2695297069131333E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3216630896845271E-4</v>
+        <v>4.3070811739170847E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3667350200147885E-4</v>
+        <v>4.344632640921036E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4118069503450499E-4</v>
+        <v>4.3821841079249961E-4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="4"/>
-        <v>4.456878880675294E-4</v>
+        <v>4.4197355749289475E-4</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5019508110055555E-4</v>
+        <v>4.4572870419328989E-4</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5470227413358169E-4</v>
+        <v>4.4948385089368503E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5920946716660783E-4</v>
+        <v>4.5323899759408016E-4</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6371666019963224E-4</v>
+        <v>4.569941442944753E-4</v>
       </c>
       <c r="AL6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6822385323265839E-4</v>
+        <v>4.6074929099487131E-4</v>
       </c>
       <c r="AM6" s="41">
         <f t="shared" si="4"/>
-        <v>4.7273104626568453E-4</v>
+        <v>4.6450443769526645E-4</v>
       </c>
       <c r="AN6" s="15">
         <f>BNVFE!D12</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.6616941125958422E-4</v>
       </c>
       <c r="AO6" s="15">
         <f>BNVFE!E12</f>
-        <v>4.8894774164554196E-4</v>
+        <v>4.7399299019600609E-4</v>
       </c>
       <c r="AP6" s="15">
         <f>BNVFE!F12</f>
-        <v>4.9240286762932642E-4</v>
+        <v>4.7625318028902199E-4</v>
       </c>
       <c r="AQ6" s="15">
         <f>BNVFE!G12</f>
-        <v>4.9585023884870984E-4</v>
+        <v>4.7962763511951036E-4</v>
       </c>
       <c r="AR6" s="15">
         <f>BNVFE!H12</f>
-        <v>4.9875024852121853E-4</v>
+        <v>4.8472425299335046E-4</v>
       </c>
       <c r="AS6" s="15">
         <f>BNVFE!I12</f>
-        <v>5.018272899043342E-4</v>
+        <v>4.8856488811023198E-4</v>
       </c>
       <c r="AT6" s="15">
         <f>BNVFE!J12</f>
-        <v>5.0373766416369245E-4</v>
+        <v>4.9188761878420821E-4</v>
       </c>
       <c r="AU6" s="15">
         <f>BNVFE!K12</f>
-        <v>5.066390880184078E-4</v>
+        <v>4.9507465640706257E-4</v>
       </c>
       <c r="AV6" s="15">
         <f>BNVFE!L12</f>
-        <v>5.0991211646518261E-4</v>
+        <v>4.9827927013588579E-4</v>
       </c>
       <c r="AW6" s="15">
         <f>BNVFE!M12</f>
-        <v>5.1327626339366984E-4</v>
+        <v>5.0141938782536798E-4</v>
       </c>
       <c r="AX6" s="15">
         <f>BNVFE!N12</f>
-        <v>5.1691521314626535E-4</v>
+        <v>5.0473115148176617E-4</v>
       </c>
       <c r="AY6" s="15">
         <f>BNVFE!O12</f>
-        <v>5.2075410037760446E-4</v>
+        <v>5.0816899974300608E-4</v>
       </c>
       <c r="AZ6" s="15">
         <f>BNVFE!P12</f>
-        <v>5.2535208476499069E-4</v>
+        <v>5.1181801067543291E-4</v>
       </c>
       <c r="BA6" s="15">
         <f>BNVFE!Q12</f>
-        <v>5.2977090620943002E-4</v>
+        <v>5.1566570773780435E-4</v>
       </c>
       <c r="BB6" s="15">
         <f>BNVFE!R12</f>
-        <v>5.3454572976618399E-4</v>
+        <v>5.1961420160206843E-4</v>
       </c>
       <c r="BC6" s="15">
         <f>BNVFE!S12</f>
-        <v>5.3940037826505566E-4</v>
+        <v>5.2372057195217224E-4</v>
       </c>
       <c r="BD6" s="15">
         <f>BNVFE!T12</f>
-        <v>5.4434109269794312E-4</v>
+        <v>5.2782108797571725E-4</v>
       </c>
       <c r="BE6" s="15">
         <f>BNVFE!U12</f>
-        <v>5.4947146025164869E-4</v>
+        <v>5.3191930033488766E-4</v>
       </c>
       <c r="BF6" s="15">
         <f>BNVFE!V12</f>
-        <v>5.5468408275070034E-4</v>
+        <v>5.3596468592895642E-4</v>
       </c>
       <c r="BG6" s="15">
         <f>BNVFE!W12</f>
-        <v>5.5982954155396364E-4</v>
+        <v>5.3988919149325191E-4</v>
       </c>
       <c r="BH6" s="15">
         <f>BNVFE!X12</f>
-        <v>5.651055366781933E-4</v>
+        <v>5.4375065803669985E-4</v>
       </c>
       <c r="BI6" s="15">
         <f>BNVFE!Y12</f>
-        <v>5.7049849064633434E-4</v>
+        <v>5.4758253135318239E-4</v>
       </c>
       <c r="BJ6" s="15">
         <f>BNVFE!Z12</f>
-        <v>5.7612541541712304E-4</v>
+        <v>5.5141485752676429E-4</v>
       </c>
       <c r="BK6" s="15">
         <f>BNVFE!AA12</f>
-        <v>5.8166977983232354E-4</v>
+        <v>5.5528893843752823E-4</v>
       </c>
       <c r="BL6" s="15">
         <f>BNVFE!AB12</f>
-        <v>5.8703254466199587E-4</v>
+        <v>5.5903874617184749E-4</v>
       </c>
       <c r="BM6" s="15">
         <f>BNVFE!AC12</f>
-        <v>5.9249002650275126E-4</v>
+        <v>5.6267984194975651E-4</v>
       </c>
       <c r="BN6" s="15">
         <f>BNVFE!AD12</f>
-        <v>5.979148958411626E-4</v>
+        <v>5.6625804309603806E-4</v>
       </c>
       <c r="BO6" s="15">
         <f>BNVFE!AE12</f>
-        <v>6.0325745048005013E-4</v>
+        <v>5.6976670114342325E-4</v>
       </c>
       <c r="BP6" s="15">
         <f>BNVFE!AF12</f>
-        <v>6.085097364744201E-4</v>
+        <v>5.7342146795521316E-4</v>
       </c>
       <c r="BQ6" s="15">
         <f>BNVFE!AG12</f>
-        <v>6.1361963490257044E-4</v>
+        <v>5.770408790975283E-4</v>
       </c>
       <c r="BR6" s="15">
         <f>BNVFE!AH12</f>
-        <v>6.1865081716056805E-4</v>
+        <v>5.8064146713606509E-4</v>
       </c>
       <c r="BS6" s="15"/>
       <c r="BT6" s="4"/>
@@ -21081,223 +21055,223 @@
       <c r="O7" s="11"/>
       <c r="P7" s="29">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,P$1)-($AR7-$AN7)</f>
-        <v>9.2499848982648922E-5</v>
+        <v>9.258175624649735E-5</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:AL7" si="5">TREND($AN7:$BR7,$AN$1:$BR$1,Q$1)-($AR7-$AN7)</f>
-        <v>9.3660320724165048E-5</v>
+        <v>9.3548597825973844E-5</v>
       </c>
       <c r="R7" s="29">
         <f t="shared" si="5"/>
-        <v>9.482079246568074E-5</v>
+        <v>9.4515439405450121E-5</v>
       </c>
       <c r="S7" s="29">
         <f t="shared" si="5"/>
-        <v>9.5981264207196866E-5</v>
+        <v>9.5482280984926615E-5</v>
       </c>
       <c r="T7" s="29">
         <f t="shared" si="5"/>
-        <v>9.7141735948712992E-5</v>
+        <v>9.6449122564402893E-5</v>
       </c>
       <c r="U7" s="29">
         <f t="shared" si="5"/>
-        <v>9.8302207690228685E-5</v>
+        <v>9.7415964143879387E-5</v>
       </c>
       <c r="V7" s="29">
         <f t="shared" si="5"/>
-        <v>9.9462679431744811E-5</v>
+        <v>9.8382805723355664E-5</v>
       </c>
       <c r="W7" s="29">
         <f t="shared" si="5"/>
-        <v>1.006231511732605E-4</v>
+        <v>9.9349647302832158E-5</v>
       </c>
       <c r="X7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0178362291477663E-4</v>
+        <v>1.0031648888230865E-4</v>
       </c>
       <c r="Y7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0294409465629232E-4</v>
+        <v>1.0128333046178493E-4</v>
       </c>
       <c r="Z7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0410456639780845E-4</v>
+        <v>1.0225017204126142E-4</v>
       </c>
       <c r="AA7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0526503813932457E-4</v>
+        <v>1.032170136207377E-4</v>
       </c>
       <c r="AB7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0642550988084027E-4</v>
+        <v>1.0418385520021419E-4</v>
       </c>
       <c r="AC7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0758598162235639E-4</v>
+        <v>1.0515069677969047E-4</v>
       </c>
       <c r="AD7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0874645336387208E-4</v>
+        <v>1.0611753835916697E-4</v>
       </c>
       <c r="AE7" s="29">
         <f t="shared" si="5"/>
-        <v>1.0990692510538821E-4</v>
+        <v>1.0708437993864324E-4</v>
       </c>
       <c r="AF7" s="29">
         <f t="shared" si="5"/>
-        <v>1.110673968469039E-4</v>
+        <v>1.0805122151811974E-4</v>
       </c>
       <c r="AG7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1222786858842003E-4</v>
+        <v>1.0901806309759623E-4</v>
       </c>
       <c r="AH7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1338834032993615E-4</v>
+        <v>1.0998490467707251E-4</v>
       </c>
       <c r="AI7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1454881207145185E-4</v>
+        <v>1.10951746256549E-4</v>
       </c>
       <c r="AJ7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1570928381296797E-4</v>
+        <v>1.1191858783602528E-4</v>
       </c>
       <c r="AK7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1686975555448367E-4</v>
+        <v>1.1288542941550177E-4</v>
       </c>
       <c r="AL7" s="29">
         <f t="shared" si="5"/>
-        <v>1.1803022729599979E-4</v>
+        <v>1.1385227099497805E-4</v>
       </c>
       <c r="AM7" s="42">
         <f>TREND($AN7:$BR7,$AN$1:$BR$1,AM$1)-($AR7-$AN7)</f>
-        <v>1.1919069903751548E-4</v>
+        <v>1.1481911257445455E-4</v>
       </c>
       <c r="AN7" s="14">
         <f>BNVFE!D13</f>
-        <v>1.2588989047065195E-4</v>
+        <v>1.2002512973417359E-4</v>
       </c>
       <c r="AO7" s="14">
         <f>BNVFE!E13</f>
-        <v>1.2588989047065195E-4</v>
+        <v>1.2203947485023846E-4</v>
       </c>
       <c r="AP7" s="14">
         <f>BNVFE!F13</f>
-        <v>1.267794853999527E-4</v>
+        <v>1.2262140837608938E-4</v>
       </c>
       <c r="AQ7" s="14">
         <f>BNVFE!G13</f>
-        <v>1.2766708370188837E-4</v>
+        <v>1.2349023281851067E-4</v>
       </c>
       <c r="AR7" s="14">
         <f>BNVFE!H13</f>
-        <v>1.2841375224934351E-4</v>
+        <v>1.2480246439513921E-4</v>
       </c>
       <c r="AS7" s="14">
         <f>BNVFE!I13</f>
-        <v>1.292060013379484E-4</v>
+        <v>1.2579131676732679E-4</v>
       </c>
       <c r="AT7" s="14">
         <f>BNVFE!J13</f>
-        <v>1.2969786741234555E-4</v>
+        <v>1.2664682373664536E-4</v>
       </c>
       <c r="AU7" s="14">
         <f>BNVFE!K13</f>
-        <v>1.3044490007078425E-4</v>
+        <v>1.2746739367304943E-4</v>
       </c>
       <c r="AV7" s="14">
         <f>BNVFE!L13</f>
-        <v>1.3128761015527118E-4</v>
+        <v>1.282924889479853E-4</v>
       </c>
       <c r="AW7" s="14">
         <f>BNVFE!M13</f>
-        <v>1.3215378061129805E-4</v>
+        <v>1.2910097835968289E-4</v>
       </c>
       <c r="AX7" s="14">
         <f>BNVFE!N13</f>
-        <v>1.3309070484013427E-4</v>
+        <v>1.2995366163942465E-4</v>
       </c>
       <c r="AY7" s="14">
         <f>BNVFE!O13</f>
-        <v>1.3407910718238873E-4</v>
+        <v>1.3083880805528838E-4</v>
       </c>
       <c r="AZ7" s="14">
         <f>BNVFE!P13</f>
-        <v>1.3526295506962046E-4</v>
+        <v>1.3177832274670185E-4</v>
       </c>
       <c r="BA7" s="14">
         <f>BNVFE!Q13</f>
-        <v>1.3640067368506529E-4</v>
+        <v>1.3276899336543915E-4</v>
       </c>
       <c r="BB7" s="14">
         <f>BNVFE!R13</f>
-        <v>1.3763005253965096E-4</v>
+        <v>1.3378561624301569E-4</v>
       </c>
       <c r="BC7" s="14">
         <f>BNVFE!S13</f>
-        <v>1.3887998400623192E-4</v>
+        <v>1.3484288774582846E-4</v>
       </c>
       <c r="BD7" s="14">
         <f>BNVFE!T13</f>
-        <v>1.4015207495957123E-4</v>
+        <v>1.3589865192901079E-4</v>
       </c>
       <c r="BE7" s="14">
         <f>BNVFE!U13</f>
-        <v>1.4147299610185228E-4</v>
+        <v>1.3695382298529812E-4</v>
       </c>
       <c r="BF7" s="14">
         <f>BNVFE!V13</f>
-        <v>1.428150955116215E-4</v>
+        <v>1.3799539267868687E-4</v>
       </c>
       <c r="BG7" s="14">
         <f>BNVFE!W13</f>
-        <v>1.4413990221383478E-4</v>
+        <v>1.3900583926338301E-4</v>
       </c>
       <c r="BH7" s="14">
         <f>BNVFE!X13</f>
-        <v>1.4549831824021349E-4</v>
+        <v>1.4000005512492829E-4</v>
       </c>
       <c r="BI7" s="14">
         <f>BNVFE!Y13</f>
-        <v>1.4688684778342735E-4</v>
+        <v>1.409866515871308E-4</v>
       </c>
       <c r="BJ7" s="14">
         <f>BNVFE!Z13</f>
-        <v>1.4833561803584159E-4</v>
+        <v>1.4197336464692809E-4</v>
       </c>
       <c r="BK7" s="14">
         <f>BNVFE!AA13</f>
-        <v>1.4976313138647074E-4</v>
+        <v>1.4297082834292379E-4</v>
       </c>
       <c r="BL7" s="14">
         <f>BNVFE!AB13</f>
-        <v>1.5114388810037889E-4</v>
+        <v>1.4393629529317647E-4</v>
       </c>
       <c r="BM7" s="14">
         <f>BNVFE!AC13</f>
-        <v>1.5254903170297749E-4</v>
+        <v>1.4487377206141239E-4</v>
       </c>
       <c r="BN7" s="14">
         <f>BNVFE!AD13</f>
-        <v>1.5394577853021879E-4</v>
+        <v>1.4579505528254221E-4</v>
       </c>
       <c r="BO7" s="14">
         <f>BNVFE!AE13</f>
-        <v>1.553213317050008E-4</v>
+        <v>1.4669843316868957E-4</v>
       </c>
       <c r="BP7" s="14">
         <f>BNVFE!AF13</f>
-        <v>1.5667364331672129E-4</v>
+        <v>1.4763942983243028E-4</v>
       </c>
       <c r="BQ7" s="14">
         <f>BNVFE!AG13</f>
-        <v>1.5798929425166793E-4</v>
+        <v>1.4857132343468077E-4</v>
       </c>
       <c r="BR7" s="14">
         <f>BNVFE!AH13</f>
-        <v>1.5928467805130587E-4</v>
+        <v>1.494983706325589E-4</v>
       </c>
       <c r="BS7" s="14"/>
       <c r="BT7" s="29"/>
@@ -21314,263 +21288,263 @@
       <c r="E8" s="11"/>
       <c r="F8" s="4">
         <f>TREND($AN8:$AS8,$AN$1:$AS$1,F$1)</f>
-        <v>4.1829670106003714E-4</v>
+        <v>3.952522554130269E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AM9" si="6">TREND($AN8:$AS8,$AN$1:$AS$1,G$1)</f>
-        <v>4.1733940481981967E-4</v>
+        <v>3.9505622007027588E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>4.163821085796022E-4</v>
+        <v>3.9486018472752486E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1542481233938474E-4</v>
+        <v>3.9466414938477384E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1446751609916727E-4</v>
+        <v>3.9446811404202282E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>4.135102198589498E-4</v>
+        <v>3.942720786992718E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1255292361873233E-4</v>
+        <v>3.9407604335652078E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1159562737851487E-4</v>
+        <v>3.9388000801376976E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>4.106383311382974E-4</v>
+        <v>3.9368397267101874E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0968103489807993E-4</v>
+        <v>3.9348793732826772E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0872373865786247E-4</v>
+        <v>3.9329190198551675E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>4.07766442417645E-4</v>
+        <v>3.9309586664276573E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0680914617742753E-4</v>
+        <v>3.9289983130001471E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0585184993721006E-4</v>
+        <v>3.9270379595726369E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0489455369699238E-4</v>
+        <v>3.9250776061451267E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0393725745677491E-4</v>
+        <v>3.9231172527176165E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0297996121655744E-4</v>
+        <v>3.9211568992901063E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0202266497633998E-4</v>
+        <v>3.9191965458625961E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0106536873612251E-4</v>
+        <v>3.9172361924350859E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0010807249590504E-4</v>
+        <v>3.9152758390075757E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9915077625568758E-4</v>
+        <v>3.9133154855800655E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9819348001547011E-4</v>
+        <v>3.9113551321525553E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9723618377525264E-4</v>
+        <v>3.9093947787250451E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9627888753503517E-4</v>
+        <v>3.9074344252975349E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9532159129481771E-4</v>
+        <v>3.9054740718700247E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9436429505460024E-4</v>
+        <v>3.9035137184425145E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9340699881438277E-4</v>
+        <v>3.9015533650150043E-4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.924497025741653E-4</v>
+        <v>3.8995930115874941E-4</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9149240633394762E-4</v>
+        <v>3.8976326581599839E-4</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9053511009373015E-4</v>
+        <v>3.8956723047324737E-4</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8957781385351269E-4</v>
+        <v>3.8937119513049635E-4</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8862051761329522E-4</v>
+        <v>3.8917515978774533E-4</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8766322137307775E-4</v>
+        <v>3.8897912444499431E-4</v>
       </c>
       <c r="AM8" s="41">
         <f t="shared" si="6"/>
-        <v>3.8670592513286028E-4</v>
+        <v>3.8878308910224329E-4</v>
       </c>
       <c r="AN8" s="15">
         <f>BNVFE!D14</f>
-        <v>3.8854771216578971E-4</v>
+        <v>3.8868922094850749E-4</v>
       </c>
       <c r="AO8" s="15">
         <f>BNVFE!E14</f>
-        <v>3.8258341226368855E-4</v>
+        <v>3.8835964956971156E-4</v>
       </c>
       <c r="AP8" s="15">
         <f>BNVFE!F14</f>
-        <v>3.8242214049766438E-4</v>
+        <v>3.8810530909215343E-4</v>
       </c>
       <c r="AQ8" s="15">
         <f>BNVFE!G14</f>
-        <v>3.8228038455163064E-4</v>
+        <v>3.8794345419032003E-4</v>
       </c>
       <c r="AR8" s="15">
         <f>BNVFE!H14</f>
-        <v>3.8218410810533679E-4</v>
+        <v>3.8779756085887974E-4</v>
       </c>
       <c r="AS8" s="15">
         <f>BNVFE!I14</f>
-        <v>3.8211457216848514E-4</v>
+        <v>3.8768659775611613E-4</v>
       </c>
       <c r="AT8" s="15">
         <f>BNVFE!J14</f>
-        <v>3.8200426469163777E-4</v>
+        <v>3.8756372155893972E-4</v>
       </c>
       <c r="AU8" s="15">
         <f>BNVFE!K14</f>
-        <v>3.8189581833152308E-4</v>
+        <v>3.8743413448561116E-4</v>
       </c>
       <c r="AV8" s="15">
         <f>BNVFE!L14</f>
-        <v>3.8183411054494749E-4</v>
+        <v>3.8741625203614658E-4</v>
       </c>
       <c r="AW8" s="15">
         <f>BNVFE!M14</f>
-        <v>3.817880596463697E-4</v>
+        <v>3.8738694289951122E-4</v>
       </c>
       <c r="AX8" s="15">
         <f>BNVFE!N14</f>
-        <v>3.8171848967811172E-4</v>
+        <v>3.8727323156960051E-4</v>
       </c>
       <c r="AY8" s="15">
         <f>BNVFE!O14</f>
-        <v>3.815957033545058E-4</v>
+        <v>3.872801832305252E-4</v>
       </c>
       <c r="AZ8" s="15">
         <f>BNVFE!P14</f>
-        <v>3.8154719842170315E-4</v>
+        <v>3.8723285633958973E-4</v>
       </c>
       <c r="BA8" s="15">
         <f>BNVFE!Q14</f>
-        <v>3.8151706680653578E-4</v>
+        <v>3.8719654146009873E-4</v>
       </c>
       <c r="BB8" s="15">
         <f>BNVFE!R14</f>
-        <v>3.8148461516232849E-4</v>
+        <v>3.8712836957078314E-4</v>
       </c>
       <c r="BC8" s="15">
         <f>BNVFE!S14</f>
-        <v>3.8143890029675929E-4</v>
+        <v>3.8710174375942578E-4</v>
       </c>
       <c r="BD8" s="15">
         <f>BNVFE!T14</f>
-        <v>3.8136061348433399E-4</v>
+        <v>3.8701959513390749E-4</v>
       </c>
       <c r="BE8" s="15">
         <f>BNVFE!U14</f>
-        <v>3.8128611338859555E-4</v>
+        <v>3.8693459130790495E-4</v>
       </c>
       <c r="BF8" s="15">
         <f>BNVFE!V14</f>
-        <v>3.8118445087418999E-4</v>
+        <v>3.8684314096127021E-4</v>
       </c>
       <c r="BG8" s="15">
         <f>BNVFE!W14</f>
-        <v>3.8109366744518982E-4</v>
+        <v>3.8675224209457141E-4</v>
       </c>
       <c r="BH8" s="15">
         <f>BNVFE!X14</f>
-        <v>3.809728174627515E-4</v>
+        <v>3.8662639724460569E-4</v>
       </c>
       <c r="BI8" s="15">
         <f>BNVFE!Y14</f>
-        <v>3.8085823235152255E-4</v>
+        <v>3.8650753548999096E-4</v>
       </c>
       <c r="BJ8" s="15">
         <f>BNVFE!Z14</f>
-        <v>3.8073193315627202E-4</v>
+        <v>3.8637937383671609E-4</v>
       </c>
       <c r="BK8" s="15">
         <f>BNVFE!AA14</f>
-        <v>3.8058075386159586E-4</v>
+        <v>3.8623677194928995E-4</v>
       </c>
       <c r="BL8" s="15">
         <f>BNVFE!AB14</f>
-        <v>3.8041414660484408E-4</v>
+        <v>3.8608334518532407E-4</v>
       </c>
       <c r="BM8" s="15">
         <f>BNVFE!AC14</f>
-        <v>3.8023685995295948E-4</v>
+        <v>3.8590701122559256E-4</v>
       </c>
       <c r="BN8" s="15">
         <f>BNVFE!AD14</f>
-        <v>3.8003008428330864E-4</v>
+        <v>3.8573556454320505E-4</v>
       </c>
       <c r="BO8" s="15">
         <f>BNVFE!AE14</f>
-        <v>3.7983159458155041E-4</v>
+        <v>3.8555651429608934E-4</v>
       </c>
       <c r="BP8" s="15">
         <f>BNVFE!AF14</f>
-        <v>3.796309792403681E-4</v>
+        <v>3.8536129241038667E-4</v>
       </c>
       <c r="BQ8" s="15">
         <f>BNVFE!AG14</f>
-        <v>3.7940476062466651E-4</v>
+        <v>3.8512787391125356E-4</v>
       </c>
       <c r="BR8" s="15">
         <f>BNVFE!AH14</f>
-        <v>3.7914941421427883E-4</v>
+        <v>3.8487689875144672E-4</v>
       </c>
       <c r="BS8" s="15"/>
       <c r="BT8" s="4"/>
@@ -21587,263 +21561,263 @@
       <c r="E9" s="11"/>
       <c r="F9" s="39">
         <f>TREND($AN9:$AS9,$AN$1:$AS$1,F$1)</f>
-        <v>1.3441858410294183E-3</v>
+        <v>1.2701330993401204E-3</v>
       </c>
       <c r="G9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3411095938381055E-3</v>
+        <v>1.2695031447375632E-3</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3380333466467935E-3</v>
+        <v>1.2688731901350058E-3</v>
       </c>
       <c r="I9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3349570994554815E-3</v>
+        <v>1.2682432355324486E-3</v>
       </c>
       <c r="J9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3318808522641695E-3</v>
+        <v>1.2676132809298914E-3</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3288046050728575E-3</v>
+        <v>1.2669833263273342E-3</v>
       </c>
       <c r="L9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3257283578815456E-3</v>
+        <v>1.2663533717247771E-3</v>
       </c>
       <c r="M9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3226521106902336E-3</v>
+        <v>1.2657234171222199E-3</v>
       </c>
       <c r="N9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3195758634989216E-3</v>
+        <v>1.2650934625196627E-3</v>
       </c>
       <c r="O9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3164996163076087E-3</v>
+        <v>1.2644635079171055E-3</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3134233691162968E-3</v>
+        <v>1.2638335533145483E-3</v>
       </c>
       <c r="Q9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3103471219249848E-3</v>
+        <v>1.2632035987119911E-3</v>
       </c>
       <c r="R9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3072708747336728E-3</v>
+        <v>1.2625736441094339E-3</v>
       </c>
       <c r="S9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3041946275423608E-3</v>
+        <v>1.2619436895068767E-3</v>
       </c>
       <c r="T9" s="39">
         <f t="shared" si="6"/>
-        <v>1.3011183803510488E-3</v>
+        <v>1.2613137349043195E-3</v>
       </c>
       <c r="U9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2980421331597368E-3</v>
+        <v>1.2606837803017623E-3</v>
       </c>
       <c r="V9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2949658859684248E-3</v>
+        <v>1.2600538256992051E-3</v>
       </c>
       <c r="W9" s="39">
         <f t="shared" si="6"/>
-        <v>1.291889638777112E-3</v>
+        <v>1.2594238710966479E-3</v>
       </c>
       <c r="X9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2888133915858E-3</v>
+        <v>1.2587939164940907E-3</v>
       </c>
       <c r="Y9" s="39">
         <f t="shared" si="6"/>
-        <v>1.285737144394488E-3</v>
+        <v>1.2581639618915333E-3</v>
       </c>
       <c r="Z9" s="39">
         <f t="shared" si="6"/>
-        <v>1.282660897203176E-3</v>
+        <v>1.2575340072889761E-3</v>
       </c>
       <c r="AA9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2795846500118641E-3</v>
+        <v>1.2569040526864189E-3</v>
       </c>
       <c r="AB9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2765084028205521E-3</v>
+        <v>1.2562740980838617E-3</v>
       </c>
       <c r="AC9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2734321556292401E-3</v>
+        <v>1.2556441434813045E-3</v>
       </c>
       <c r="AD9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2703559084379281E-3</v>
+        <v>1.2550141888787473E-3</v>
       </c>
       <c r="AE9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2672796612466153E-3</v>
+        <v>1.2543842342761901E-3</v>
       </c>
       <c r="AF9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2642034140553033E-3</v>
+        <v>1.2537542796736329E-3</v>
       </c>
       <c r="AG9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2611271668639913E-3</v>
+        <v>1.2531243250710757E-3</v>
       </c>
       <c r="AH9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2580509196726793E-3</v>
+        <v>1.2524943704685185E-3</v>
       </c>
       <c r="AI9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2549746724813673E-3</v>
+        <v>1.2518644158659613E-3</v>
       </c>
       <c r="AJ9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2518984252900553E-3</v>
+        <v>1.2512344612634041E-3</v>
       </c>
       <c r="AK9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2488221780987433E-3</v>
+        <v>1.250604506660847E-3</v>
       </c>
       <c r="AL9" s="39">
         <f t="shared" si="6"/>
-        <v>1.2457459309074314E-3</v>
+        <v>1.2499745520582898E-3</v>
       </c>
       <c r="AM9" s="32">
         <f t="shared" si="6"/>
-        <v>1.2426696837161194E-3</v>
+        <v>1.2493445974557326E-3</v>
       </c>
       <c r="AN9" s="14">
         <f>BNVFE!D15</f>
-        <v>1.2485882196394983E-3</v>
+        <v>1.2490429545241593E-3</v>
       </c>
       <c r="AO9" s="14">
         <f>BNVFE!E15</f>
-        <v>1.2294220931562134E-3</v>
+        <v>1.2479838852561889E-3</v>
       </c>
       <c r="AP9" s="14">
         <f>BNVFE!F15</f>
-        <v>1.2289038504258785E-3</v>
+        <v>1.2471665685815224E-3</v>
       </c>
       <c r="AQ9" s="14">
         <f>BNVFE!G15</f>
-        <v>1.2284483212881695E-3</v>
+        <v>1.2466464519590526E-3</v>
       </c>
       <c r="AR9" s="14">
         <f>BNVFE!H15</f>
-        <v>1.2281389393695341E-3</v>
+        <v>1.2461776274382624E-3</v>
       </c>
       <c r="AS9" s="14">
         <f>BNVFE!I15</f>
-        <v>1.2279154873998631E-3</v>
+        <v>1.2458210503215087E-3</v>
       </c>
       <c r="AT9" s="14">
         <f>BNVFE!J15</f>
-        <v>1.2275610171203651E-3</v>
+        <v>1.2454261907779705E-3</v>
       </c>
       <c r="AU9" s="14">
         <f>BNVFE!K15</f>
-        <v>1.2272125274922902E-3</v>
+        <v>1.2450097660041024E-3</v>
       </c>
       <c r="AV9" s="14">
         <f>BNVFE!L15</f>
-        <v>1.2270142310850131E-3</v>
+        <v>1.2449523012062393E-3</v>
       </c>
       <c r="AW9" s="14">
         <f>BNVFE!M15</f>
-        <v>1.2268662476902642E-3</v>
+        <v>1.2448581170389291E-3</v>
       </c>
       <c r="AX9" s="14">
         <f>BNVFE!N15</f>
-        <v>1.2266426863615321E-3</v>
+        <v>1.244492708563932E-3</v>
       </c>
       <c r="AY9" s="14">
         <f>BNVFE!O15</f>
-        <v>1.2262481156244335E-3</v>
+        <v>1.2445150475500222E-3</v>
       </c>
       <c r="AZ9" s="14">
         <f>BNVFE!P15</f>
-        <v>1.2260922462529371E-3</v>
+        <v>1.244362963786191E-3</v>
       </c>
       <c r="BA9" s="14">
         <f>BNVFE!Q15</f>
-        <v>1.2259954190717215E-3</v>
+        <v>1.2442462668418766E-3</v>
       </c>
       <c r="BB9" s="14">
         <f>BNVFE!R15</f>
-        <v>1.2258911365360214E-3</v>
+        <v>1.2440271982043711E-3</v>
       </c>
       <c r="BC9" s="14">
         <f>BNVFE!S15</f>
-        <v>1.2257442329748247E-3</v>
+        <v>1.2439416368347936E-3</v>
       </c>
       <c r="BD9" s="14">
         <f>BNVFE!T15</f>
-        <v>1.2254926602884161E-3</v>
+        <v>1.2436776543099449E-3</v>
       </c>
       <c r="BE9" s="14">
         <f>BNVFE!U15</f>
-        <v>1.2252532561200515E-3</v>
+        <v>1.2434044966707469E-3</v>
       </c>
       <c r="BF9" s="14">
         <f>BNVFE!V15</f>
-        <v>1.2249265662081276E-3</v>
+        <v>1.2431106233009778E-3</v>
       </c>
       <c r="BG9" s="14">
         <f>BNVFE!W15</f>
-        <v>1.2246348359612647E-3</v>
+        <v>1.242818522097998E-3</v>
       </c>
       <c r="BH9" s="14">
         <f>BNVFE!X15</f>
-        <v>1.2242464876074037E-3</v>
+        <v>1.2424141228640053E-3</v>
       </c>
       <c r="BI9" s="14">
         <f>BNVFE!Y15</f>
-        <v>1.2238782712582989E-3</v>
+        <v>1.2420321636298346E-3</v>
       </c>
       <c r="BJ9" s="14">
         <f>BNVFE!Z15</f>
-        <v>1.2234724119972555E-3</v>
+        <v>1.241620319407161E-3</v>
       </c>
       <c r="BK9" s="14">
         <f>BNVFE!AA15</f>
-        <v>1.2229866011676566E-3</v>
+        <v>1.2411620718582406E-3</v>
       </c>
       <c r="BL9" s="14">
         <f>BNVFE!AB15</f>
-        <v>1.2224512129731741E-3</v>
+        <v>1.240669038843074E-3</v>
       </c>
       <c r="BM9" s="14">
         <f>BNVFE!AC15</f>
-        <v>1.2218815068132573E-3</v>
+        <v>1.2401023941352315E-3</v>
       </c>
       <c r="BN9" s="14">
         <f>BNVFE!AD15</f>
-        <v>1.2212170384425776E-3</v>
+        <v>1.2395514545691941E-3</v>
       </c>
       <c r="BO9" s="14">
         <f>BNVFE!AE15</f>
-        <v>1.2205791968195919E-3</v>
+        <v>1.2389760811407262E-3</v>
       </c>
       <c r="BP9" s="14">
         <f>BNVFE!AF15</f>
-        <v>1.2199345245082229E-3</v>
+        <v>1.2383487405617649E-3</v>
       </c>
       <c r="BQ9" s="14">
         <f>BNVFE!AG15</f>
-        <v>1.219207576723474E-3</v>
+        <v>1.2375986561341948E-3</v>
       </c>
       <c r="BR9" s="14">
         <f>BNVFE!AH15</f>
-        <v>1.2183870275091699E-3</v>
+        <v>1.236792153822779E-3</v>
       </c>
       <c r="BS9" s="15"/>
       <c r="BT9" s="4"/>
@@ -22404,259 +22378,259 @@
       <c r="F12" s="11"/>
       <c r="G12" s="29">
         <f>TREND($AN12:$BR12,$AN$1:$BR$1,G$1)</f>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="L12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="P12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="S12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="T12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="U12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="X12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Y12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="Z12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AA12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AB12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AC12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AD12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AE12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AG12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AM12" s="42">
         <f t="shared" si="7"/>
-        <v>5.2144482404601076E-3</v>
+        <v>4.971525705626559E-3</v>
       </c>
       <c r="AN12" s="15">
         <f>BNVFE!D18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AO12" s="15">
         <f>BNVFE!E18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AP12" s="15">
         <f>BNVFE!F18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AQ12" s="15">
         <f>BNVFE!G18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AR12" s="15">
         <f>BNVFE!H18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AS12" s="15">
         <f>BNVFE!I18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AT12" s="15">
         <f>BNVFE!J18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AU12" s="15">
         <f>BNVFE!K18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AV12" s="15">
         <f>BNVFE!L18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AW12" s="15">
         <f>BNVFE!M18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AX12" s="15">
         <f>BNVFE!N18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AY12" s="15">
         <f>BNVFE!O18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="AZ12" s="15">
         <f>BNVFE!P18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BA12" s="15">
         <f>BNVFE!Q18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BB12" s="15">
         <f>BNVFE!R18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BC12" s="15">
         <f>BNVFE!S18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BD12" s="15">
         <f>BNVFE!T18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BE12" s="15">
         <f>BNVFE!U18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BF12" s="15">
         <f>BNVFE!V18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BG12" s="15">
         <f>BNVFE!W18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BH12" s="15">
         <f>BNVFE!X18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BI12" s="15">
         <f>BNVFE!Y18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BJ12" s="15">
         <f>BNVFE!Z18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BK12" s="15">
         <f>BNVFE!AA18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BL12" s="15">
         <f>BNVFE!AB18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BM12" s="15">
         <f>BNVFE!AC18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BN12" s="15">
         <f>BNVFE!AD18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BO12" s="15">
         <f>BNVFE!AE18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BP12" s="15">
         <f>BNVFE!AF18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BQ12" s="15">
         <f>BNVFE!AG18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BR12" s="15">
         <f>BNVFE!AH18</f>
-        <v>5.2144482404601084E-3</v>
+        <v>4.9715257056265547E-3</v>
       </c>
       <c r="BS12" s="15"/>
       <c r="BT12" s="4"/>
@@ -23116,7 +23090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23126,9 +23100,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -23366,127 +23340,127 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.9800360389056117E-4</v>
+        <v>2.9799192511257997E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0444103552180828E-4</v>
+        <v>3.0495642992099084E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1087846715305539E-4</v>
+        <v>3.1206914647141513E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1731589878430244E-4</v>
+        <v>3.1882187840910213E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.237533304155496E-4</v>
+        <v>3.2511303052032729E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3019076204679666E-4</v>
+        <v>3.3132507899165593E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3662819367804382E-4</v>
+        <v>3.3654940106272427E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4306562530929093E-4</v>
+        <v>3.4251086081258395E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4950305694053809E-4</v>
+        <v>3.4855887390285254E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.559404885717852E-4</v>
+        <v>3.5467038374657962E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.6237792020303231E-4</v>
+        <v>3.606941984468817E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.6881535183427941E-4</v>
+        <v>3.6680695227320973E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.7525278346552658E-4</v>
+        <v>3.7287562060881878E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.8169021509677352E-4</v>
+        <v>3.7896305858214533E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.8687653048079967E-4</v>
+        <v>3.9236503637815238E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.2056511897525898E-4</v>
+        <v>3.9958069974953693E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.663688306917896E-4</v>
+        <v>4.0425029377326959E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.9065608923801098E-4</v>
+        <v>4.0766085158771333E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.2629042543785216E-4</v>
+        <v>4.1161322090888235E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.8512991066521814E-4</v>
+        <v>4.1531514899510258E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.8667097100634669E-4</v>
+        <v>4.1564996463107134E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.8835007694647346E-4</v>
+        <v>4.1549338417832383E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.898625440276938E-4</v>
+        <v>4.1532681156711845E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.9174883473423606E-4</v>
+        <v>4.1611003974718208E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.9409451273397624E-4</v>
+        <v>4.159197079205367E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.9615259573580354E-4</v>
+        <v>4.1570872142824807E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.9786423482106974E-4</v>
+        <v>4.1548706556389424E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.9946864918168088E-4</v>
+        <v>4.1544768876733244E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>6.0105353035601729E-4</v>
+        <v>4.1466296916326439E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>6.0283138278675701E-4</v>
+        <v>4.1384514251470114E-4</v>
       </c>
       <c r="AF3" s="4">
         <f>BNVFE!AF25*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>6.0466010462175161E-4</v>
+        <v>4.1327648701805351E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23501,123 +23475,123 @@
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.2103824262146724E-4</v>
+        <v>3.2092630056054029E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.2782662361074218E-4</v>
+        <v>3.2760273948888828E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.3461500460001711E-4</v>
+        <v>3.3427917841723627E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.4140338558929205E-4</v>
+        <v>3.4095561734558426E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.4819176657856698E-4</v>
+        <v>3.4763205627393225E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.5498014756784192E-4</v>
+        <v>3.5430849520228023E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.6176852855711685E-4</v>
+        <v>3.6098493413062822E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.6855690954639179E-4</v>
+        <v>3.6766137305897621E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.7534529053566672E-4</v>
+        <v>3.743378119873242E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.8213367152494166E-4</v>
+        <v>3.8101425091567219E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.889220525142166E-4</v>
+        <v>3.8769068984402017E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.9571043350349153E-4</v>
+        <v>3.9436712877236816E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
-        <v>4.024988144927663E-4</v>
+        <v>4.010435677007162E-4</v>
       </c>
       <c r="P4" s="29">
         <f>Extrapolations!AO2</f>
-        <v>4.0796787215023562E-4</v>
+        <v>4.1543936179917892E-4</v>
       </c>
       <c r="Q4" s="29">
         <f>Extrapolations!AP2</f>
-        <v>4.4349306088874353E-4</v>
+        <v>4.232456921304615E-4</v>
       </c>
       <c r="R4" s="29">
         <f>Extrapolations!AQ2</f>
-        <v>4.9179385282965761E-4</v>
+        <v>4.284224989356039E-4</v>
       </c>
       <c r="S4" s="29">
         <f>Extrapolations!AR2</f>
-        <v>5.174051794644127E-4</v>
+        <v>4.3223887309206766E-4</v>
       </c>
       <c r="T4" s="29">
         <f>Extrapolations!AS2</f>
-        <v>5.5498219220506228E-4</v>
+        <v>4.3661930301858122E-4</v>
       </c>
       <c r="U4" s="29">
         <f>Extrapolations!AT2</f>
-        <v>6.1702942871432137E-4</v>
+        <v>4.4073837767711228E-4</v>
       </c>
       <c r="V4" s="29">
         <f>Extrapolations!AU2</f>
-        <v>6.1865450301759833E-4</v>
+        <v>4.4130433819121803E-4</v>
       </c>
       <c r="W4" s="29">
         <f>Extrapolations!AV2</f>
-        <v>6.2042514874960234E-4</v>
+        <v>4.4139330713525239E-4</v>
       </c>
       <c r="X4" s="29">
         <f>Extrapolations!AW2</f>
-        <v>6.2202007097467485E-4</v>
+        <v>4.4143859386227608E-4</v>
       </c>
       <c r="Y4" s="29">
         <f>Extrapolations!AX2</f>
-        <v>6.2400919656171528E-4</v>
+        <v>4.4252278985937798E-4</v>
       </c>
       <c r="Z4" s="29">
         <f>Extrapolations!AY2</f>
-        <v>6.2648275385172284E-4</v>
+        <v>4.4258101673758966E-4</v>
       </c>
       <c r="AA4" s="29">
         <f>Extrapolations!AZ2</f>
-        <v>6.2865303733188277E-4</v>
+        <v>4.4262644410952699E-4</v>
       </c>
       <c r="AB4" s="29">
         <f>Extrapolations!BA2</f>
-        <v>6.3045798981798329E-4</v>
+        <v>4.4263525674443374E-4</v>
       </c>
       <c r="AC4" s="29">
         <f>Extrapolations!BB2</f>
-        <v>6.32149872010817E-4</v>
+        <v>4.428907913418545E-4</v>
       </c>
       <c r="AD4" s="29">
         <f>Extrapolations!BC2</f>
-        <v>6.338211561269702E-4</v>
+        <v>4.4235185104972023E-4</v>
       </c>
       <c r="AE4" s="29">
         <f>Extrapolations!BD2</f>
-        <v>6.3569593171044787E-4</v>
+        <v>4.4180682000362565E-4</v>
       </c>
       <c r="AF4" s="29">
         <f>Extrapolations!BE2</f>
-        <v>6.3762434994468471E-4</v>
+        <v>4.415169210975881E-4</v>
       </c>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -23628,127 +23602,127 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.8853551813771478E-4</v>
+        <v>3.3039537831752443E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.9476842152193064E-4</v>
+        <v>3.3247079907851041E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.0100132490614649E-4</v>
+        <v>3.3608525156768267E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0723422829036234E-4</v>
+        <v>3.4140601212844754E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.134671316745782E-4</v>
+        <v>3.4682483192820804E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1970003505879399E-4</v>
+        <v>3.5399117808755025E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.259329384430099E-4</v>
+        <v>3.5770234384308779E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.3216584182722581E-4</v>
+        <v>3.6308195251352201E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.3839874521144166E-4</v>
+        <v>3.6931237060169403E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.4463164859565752E-4</v>
+        <v>3.7541688009215464E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.5086455197987337E-4</v>
+        <v>3.8060604014518434E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.5709745536408922E-4</v>
+        <v>3.8660972321779061E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.6333035874830502E-4</v>
+        <v>3.926877010252523E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.6956326213252077E-4</v>
+        <v>3.9870114016606978E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.7458479937911446E-4</v>
+        <v>4.1235135875181372E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.0720304362070684E-4</v>
+        <v>4.2000791936622607E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.5155149283480797E-4</v>
+        <v>4.2525292156963163E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.7506710350961095E-4</v>
+        <v>4.2886235816476826E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.0956927571384572E-4</v>
+        <v>4.3285917396080627E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.6653932955007117E-4</v>
+        <v>4.3707582192698479E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6803142776030719E-4</v>
+        <v>4.3740782672530476E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6965718562402917E-4</v>
+        <v>4.3733077971452199E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.7112159903127929E-4</v>
+        <v>4.3727737730799265E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.7294795904593997E-4</v>
+        <v>4.3826191917219735E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.7521911083136532E-4</v>
+        <v>4.381057457924663E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.7721180500536196E-4</v>
+        <v>4.3788374849786256E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.7886906238038837E-4</v>
+        <v>4.3769898244799599E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.8042250174421717E-4</v>
+        <v>4.3777480871824145E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.8195702852461087E-4</v>
+        <v>4.3716325908544007E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.8367839553352869E-4</v>
+        <v>4.363360192507078E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>BNVFE!AF27*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>5.8544901573845658E-4</v>
+        <v>4.3573558513369061E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23759,127 +23733,127 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.1580480797733946E-4</v>
+        <v>5.1511255080264186E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2694715036203787E-4</v>
+        <v>5.2428092566616732E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.3808949274673627E-4</v>
+        <v>5.3102064816912329E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.4923183513143467E-4</v>
+        <v>5.3833911588692471E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.6037417751613307E-4</v>
+        <v>5.5418108584188324E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>5.7151651990083136E-4</v>
+        <v>5.8181999979491409E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>5.8265886228552977E-4</v>
+        <v>6.1507401996100622E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>5.9380120467022817E-4</v>
+        <v>6.2764405946183748E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>6.0494354705492646E-4</v>
+        <v>6.3817589517729746E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>6.1608588943962508E-4</v>
+        <v>6.4869543049513468E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>6.2722823182432337E-4</v>
+        <v>6.581047918396357E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>6.3837057420902178E-4</v>
+        <v>6.6834810198910361E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>6.4951291659372007E-4</v>
+        <v>6.7910400948621805E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>6.6065525897841826E-4</v>
+        <v>6.8981170811608045E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>6.6963208468066697E-4</v>
+        <v>7.1344718240657083E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>7.2794257385781682E-4</v>
+        <v>7.2661438980298719E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>8.0722273831942124E-4</v>
+        <v>7.356760015799844E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>8.4926076929347041E-4</v>
+        <v>7.4187120383651457E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>9.1093909029696071E-4</v>
+        <v>7.4853261641737515E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>1.0127824538769953E-3</v>
+        <v>7.5506233584725639E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>1.0154498254220361E-3</v>
+        <v>7.5521763030150985E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>1.0183561356334346E-3</v>
+        <v>7.5422055105138291E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>1.0209740160288929E-3</v>
+        <v>7.5304546398064301E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>1.0242389356572969E-3</v>
+        <v>7.5349566500976337E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>1.0282989939063808E-3</v>
+        <v>7.5171922103753558E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>1.0318612632672197E-3</v>
+        <v>7.4943614758610189E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>1.0348238840482305E-3</v>
+        <v>7.4699197436416847E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>1.0376009130183062E-3</v>
+        <v>7.4464449629104302E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>1.0403441326274751E-3</v>
+        <v>7.4057257931631681E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>1.0434213599484791E-3</v>
+        <v>7.3602635790278052E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>BNVFE!AF28*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>1.0465866354774616E-3</v>
+        <v>7.3135170735541761E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23890,127 +23864,127 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.8466694948393705E-4</v>
+        <v>2.8497502058533896E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.9081628459617784E-4</v>
+        <v>2.898398018603075E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>2.9696561970841864E-4</v>
+        <v>2.9639229529668671E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0311495482065939E-4</v>
+        <v>3.0225117678650028E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0926428993290018E-4</v>
+        <v>3.0778031687736323E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1541362504514093E-4</v>
+        <v>3.1364712087038462E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.2156296015738172E-4</v>
+        <v>3.1818917619505965E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2771229526962258E-4</v>
+        <v>3.2376820979030025E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.3386163038186327E-4</v>
+        <v>3.2959142944700965E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.4001096549410406E-4</v>
+        <v>3.3540222212257912E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4616030060634486E-4</v>
+        <v>3.4090374402748674E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.5230963571858566E-4</v>
+        <v>3.4686163891380382E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.584589708308264E-4</v>
+        <v>3.5254200312831522E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.6460830594306704E-4</v>
+        <v>3.582922320064483E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.6956251642964399E-4</v>
+        <v>3.7083340468707854E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.0174342831774063E-4</v>
+        <v>3.7782282401531729E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.4549727128862909E-4</v>
+        <v>3.8233661580785696E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.6869759407472367E-4</v>
+        <v>3.8550736662354158E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.027371749739501E-4</v>
+        <v>3.8922118122167398E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>5.5894339714779556E-4</v>
+        <v>3.9278680995063548E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>5.6041548990289124E-4</v>
+        <v>3.9308720014886002E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>5.6201945025637686E-4</v>
+        <v>3.9293845521070378E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>5.6346422939523573E-4</v>
+        <v>3.9281882697013573E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>5.6526610230637163E-4</v>
+        <v>3.9354272058642249E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>5.6750680339837198E-4</v>
+        <v>3.9331686794151E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>5.6947278032706068E-4</v>
+        <v>3.930117319368427E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>5.7110781785902015E-4</v>
+        <v>3.9280440477488073E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>5.7264042933009168E-4</v>
+        <v>3.9272510536214313E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>5.7415438179007124E-4</v>
+        <v>3.9200385857580093E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>5.758526693996302E-4</v>
+        <v>3.9112433694300379E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>BNVFE!AF29*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>5.7759954983807539E-4</v>
+        <v>3.9051236766252144E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24187,7 +24161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24197,9 +24171,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -25217,7 +25191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25227,9 +25201,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78CAB1-BDD5-494D-8736-28569A4DDA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F729FC19-DF2F-4415-8CFD-712CAB2432B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1294,7 +1294,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1331,10 +1331,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1778,133 +1774,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.1646485830016252E-4</c:v>
+                  <c:v>3.1668250541564883E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.1867985496813274E-4</c:v>
+                  <c:v>3.1911514919910535E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.2089485163610296E-4</c:v>
+                  <c:v>3.2154779298256187E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.2310984830407317E-4</c:v>
+                  <c:v>3.239804367660184E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.2532484497204339E-4</c:v>
+                  <c:v>3.2641308054947492E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.2753984164001361E-4</c:v>
+                  <c:v>3.2884572433293144E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.2975483830798382E-4</c:v>
+                  <c:v>3.3127836811638797E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.3196983497595404E-4</c:v>
+                  <c:v>3.3371101189984449E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.3418483164392426E-4</c:v>
+                  <c:v>3.3614365568330101E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.3639982831189447E-4</c:v>
+                  <c:v>3.3857629946675754E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.3861482497986469E-4</c:v>
+                  <c:v>3.4100894325021406E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.4082982164783491E-4</c:v>
+                  <c:v>3.4344158703367058E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.4304481831580512E-4</c:v>
+                  <c:v>3.4587423081712711E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>3.4525981498377545E-4</c:v>
+                  <c:v>3.4830687460058363E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.5982944807231638E-4</c:v>
+                  <c:v>3.6160214167983712E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6710644959195353E-4</c:v>
+                  <c:v>3.6858167190947932E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7373493890990666E-4</c:v>
+                  <c:v>3.7489066625736889E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.9582578415611009E-4</c:v>
+                  <c:v>3.9695913315051362E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.3494713071778808E-4</c:v>
+                  <c:v>4.3612233844583575E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.4227847691112512E-4</c:v>
+                  <c:v>4.4500041757942137E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.5901794912486538E-4</c:v>
+                  <c:v>4.5879226158980447E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.6412939868974872E-4</c:v>
+                  <c:v>4.6314681421182177E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.6774364798041294E-4</c:v>
+                  <c:v>4.6660066344185382E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.6966309910348734E-4</c:v>
+                  <c:v>4.6854272330465251E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.7260846794834008E-4</c:v>
+                  <c:v>4.7105754355615585E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.7526441798452414E-4</c:v>
+                  <c:v>4.7415254961591819E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.7788153153438258E-4</c:v>
+                  <c:v>4.7723628727582983E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.8072409114320114E-4</c:v>
+                  <c:v>4.802527271858826E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.8317943716800202E-4</c:v>
+                  <c:v>4.8416028257775874E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.8470967915637789E-4</c:v>
+                  <c:v>4.8665502814236058E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.8594611468298545E-4</c:v>
+                  <c:v>4.8861382776678702E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.8792763254902827E-4</c:v>
+                  <c:v>4.9338841162161525E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.8771717870415681E-4</c:v>
+                  <c:v>4.9426973076044714E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.8811136392356582E-4</c:v>
+                  <c:v>4.9538139423009706E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.8843918429084768E-4</c:v>
+                  <c:v>4.9737647419392675E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.8810682276656785E-4</c:v>
+                  <c:v>4.9800654058372086E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.8747689393500613E-4</c:v>
+                  <c:v>4.9689106018787883E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.8672999513277174E-4</c:v>
+                  <c:v>4.9648933196291757E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.8843454079791745E-4</c:v>
+                  <c:v>4.9590478209228864E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.8748772875184347E-4</c:v>
+                  <c:v>4.9516368613957394E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.8711906355556337E-4</c:v>
+                  <c:v>4.9444704196318246E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.8876138897384217E-4</c:v>
+                  <c:v>4.9407115940909227E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.8839502633604009E-4</c:v>
+                  <c:v>4.93783574212444E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,136 +3233,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.3575373200645937E-5</c:v>
+                  <c:v>7.6652414119346424E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.5969911473123923E-5</c:v>
+                  <c:v>7.8854781968962402E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.8364449745602777E-5</c:v>
+                  <c:v>8.1057149818577513E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.0758988018080763E-5</c:v>
+                  <c:v>8.3259517668192624E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.3153526290558749E-5</c:v>
+                  <c:v>8.5461885517807736E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.5548064563036735E-5</c:v>
+                  <c:v>8.7664253367423714E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.7942602835515589E-5</c:v>
+                  <c:v>8.9866621217038825E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.0337141107993575E-5</c:v>
+                  <c:v>9.2068989066653936E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.2731679380471561E-5</c:v>
+                  <c:v>9.4271356916269047E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.5126217652950415E-5</c:v>
+                  <c:v>9.6473724765885026E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.7520755925428401E-5</c:v>
+                  <c:v>9.8676092615500137E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.9915294197906387E-5</c:v>
+                  <c:v>1.0087846046511525E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.0230983247038524E-4</c:v>
+                  <c:v>1.0308082831473036E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.0470437074286323E-4</c:v>
+                  <c:v>1.0528319616434634E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>1.0529501805499055E-4</c:v>
+                  <c:v>1.0570354312598104E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>1.1144423550851376E-4</c:v>
+                  <c:v>1.1151821777353393E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.1252624988260881E-4</c:v>
+                  <c:v>1.1272384639783163E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.1436919436747496E-4</c:v>
+                  <c:v>1.1406280001558269E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.1580522998790115E-4</c:v>
+                  <c:v>1.1544309125303334E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.1529086528558249E-4</c:v>
+                  <c:v>1.1565634494376903E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.1501098830414369E-4</c:v>
+                  <c:v>1.1575112135735473E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1315384464245806E-4</c:v>
+                  <c:v>1.1388555713902243E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.1216087457402847E-4</c:v>
+                  <c:v>1.1244961636238372E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1097506551069121E-4</c:v>
+                  <c:v>1.1150667111195052E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.0983553102881708E-4</c:v>
+                  <c:v>1.103320813633094E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.0850113384225401E-4</c:v>
+                  <c:v>1.0882449127149132E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.0724235631077596E-4</c:v>
+                  <c:v>1.0748860772417935E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.0612536727802149E-4</c:v>
+                  <c:v>1.062886246945594E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.050634808536377E-4</c:v>
+                  <c:v>1.0545396634254317E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.0410327800869383E-4</c:v>
+                  <c:v>1.0430981720917382E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.032361899593437E-4</c:v>
+                  <c:v>1.0339985361922795E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.024363463286552E-4</c:v>
+                  <c:v>1.0251605894253303E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.0170865606461284E-4</c:v>
+                  <c:v>1.0184812914206304E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.0106965036059089E-4</c:v>
+                  <c:v>1.01388283796425E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.005123319830317E-4</c:v>
+                  <c:v>1.0083050459953973E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.000375741870971E-4</c:v>
+                  <c:v>1.0047938671642447E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>9.9568102999683008E-5</c:v>
+                  <c:v>9.9934408455342122E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>9.9140546156358924E-5</c:v>
+                  <c:v>9.955140044451973E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>9.8807453359239314E-5</c:v>
+                  <c:v>9.9238534560627426E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>9.8490058732321348E-5</c:v>
+                  <c:v>9.9078621665242005E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>9.781265991059014E-5</c:v>
+                  <c:v>9.8451458036568441E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>9.7588616277155286E-5</c:v>
+                  <c:v>9.8359346860691412E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>9.7453217349190637E-5</c:v>
+                  <c:v>9.8169947612884335E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>9.7355430800053337E-5</c:v>
+                  <c:v>9.7981650932638814E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,181 +3696,181 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.052889605102206E-3</c:v>
+                  <c:v>1.0528896051022064E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.0451332581922484E-3</c:v>
+                  <c:v>1.045307415794386E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0373769112822907E-3</c:v>
+                  <c:v>1.0377252264865658E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0296205643723331E-3</c:v>
+                  <c:v>1.0301430371787454E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0218642174623755E-3</c:v>
+                  <c:v>1.022560847870925E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.0141078705524179E-3</c:v>
+                  <c:v>1.0149786585631048E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.0063515236424603E-3</c:v>
+                  <c:v>1.0073964692552844E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>9.9859517673250267E-4</c:v>
+                  <c:v>9.9981427994746421E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>9.9083882982254506E-4</c:v>
+                  <c:v>9.9223209063964402E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>9.8308248291258745E-4</c:v>
+                  <c:v>9.8464990133182361E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>9.7532613600262994E-4</c:v>
+                  <c:v>9.7706771202400343E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>9.6756978909267222E-4</c:v>
+                  <c:v>9.6948552271618313E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>9.598134421827146E-4</c:v>
+                  <c:v>9.6190333340836283E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>9.5205709527275688E-4</c:v>
+                  <c:v>9.5432114410054253E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>9.4430074836279916E-4</c:v>
+                  <c:v>9.4673895479272224E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.3654440145284144E-4</c:v>
+                  <c:v>9.3915676548490194E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.2878805454288383E-4</c:v>
+                  <c:v>9.3157457617708175E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.210317076329261E-4</c:v>
+                  <c:v>9.2399238686926145E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>9.1327536072296849E-4</c:v>
+                  <c:v>9.1641019756144115E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>8.9776266690305456E-4</c:v>
+                  <c:v>9.0124581894580023E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>9.5673289585827825E-4</c:v>
+                  <c:v>9.650167161298855E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>9.8680726498129984E-4</c:v>
+                  <c:v>9.9382318526809103E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.0176904065504315E-3</c:v>
+                  <c:v>1.0226296544062967E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.0466752213084077E-3</c:v>
+                  <c:v>1.0514361235445021E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.0741412024466357E-3</c:v>
+                  <c:v>1.0802425926827077E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.0983268989591029E-3</c:v>
+                  <c:v>1.1090490618209132E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.1086185534440985E-3</c:v>
+                  <c:v>1.1090490618209132E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.124229712490382E-3</c:v>
+                  <c:v>1.1234522963900159E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.1403265367362543E-3</c:v>
+                  <c:v>1.1378555309591186E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.155452604485696E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.1644587168175703E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.1652597415765967E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.16535443552984E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.1653409488152869E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.165355439859647E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.1653168448999163E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.1652422375428154E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.1649634642834944E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.1648623139243481E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.1646699130284403E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.1638663057070523E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.1633489323806957E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.1633911142325949E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.1635189510694735E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.1638059024429383E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.164147948480108E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.1645869840815088E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.1649339082920275E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.1653449661345157E-3</c:v>
+                  <c:v>1.1666620000973242E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4241,148 +4237,148 @@
                   <c:v>7.8040477200267344E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.7465574559714486E-4</c:v>
+                  <c:v>7.747848317075309E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.6890671919161628E-4</c:v>
+                  <c:v>7.6916489141238837E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.631576927860877E-4</c:v>
+                  <c:v>7.6354495111724584E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.5740866638055913E-4</c:v>
+                  <c:v>7.5792501082210331E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.5165963997503055E-4</c:v>
+                  <c:v>7.5230507052696078E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.4591061356950197E-4</c:v>
+                  <c:v>7.4668513023181825E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.401615871639734E-4</c:v>
+                  <c:v>7.4106518993667572E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.3441256075844482E-4</c:v>
+                  <c:v>7.3544524964153318E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.2866353435291624E-4</c:v>
+                  <c:v>7.2982530934639065E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.2291450794738767E-4</c:v>
+                  <c:v>7.2420536905124812E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.1716548154185909E-4</c:v>
+                  <c:v>7.1858542875610559E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.1141645513633051E-4</c:v>
+                  <c:v>7.1296548846096306E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.0566742873080194E-4</c:v>
+                  <c:v>7.0734554816582053E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>6.9991840232527336E-4</c:v>
+                  <c:v>7.01725607870678E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>6.9416937591974478E-4</c:v>
+                  <c:v>6.9610566757553546E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>6.8842034951421621E-4</c:v>
+                  <c:v>6.9048572728039293E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>6.8267132310868763E-4</c:v>
+                  <c:v>6.848657869852504E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>6.7692229670315905E-4</c:v>
+                  <c:v>6.7924584669010787E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>6.6542424389210287E-4</c:v>
+                  <c:v>6.6800596609982259E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.0913314543290544E-4</c:v>
+                  <c:v>7.1527313659536663E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>7.3142435342360217E-4</c:v>
+                  <c:v>7.366245735086612E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>7.543150258532582E-4</c:v>
+                  <c:v>7.5797601042195567E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>7.7579865304752845E-4</c:v>
+                  <c:v>7.7932744733525013E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>7.9615651643998519E-4</c:v>
+                  <c:v>8.006788842485447E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>8.1408302353158624E-4</c:v>
+                  <c:v>8.2203032116183927E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>8.2171122712764496E-4</c:v>
+                  <c:v>8.2203032116183927E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>8.3328226264473481E-4</c:v>
+                  <c:v>8.3270603961848645E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>8.4521327459004475E-4</c:v>
+                  <c:v>8.4338175807513373E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>8.5642475905726393E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.6310011515055977E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.6369383698180137E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.6376402440946029E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.6375402801824809E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.6376476882157177E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.637361621275715E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.6368086294214322E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.6347423540889901E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.6339926247480886E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.6325665438315657E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.6266101834934225E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.6227753976731521E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.6230880507599957E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6240355810333913E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.6261624727806301E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.6286977277433372E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.631951872116613E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.6345232842390234E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.6375700566669437E-4</c:v>
+                  <c:v>8.6473319498842831E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4716,79 +4712,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.6477582444760862E-4</c:v>
+                  <c:v>3.6476611443946733E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.6924210537594114E-4</c:v>
+                  <c:v>3.6923310839950818E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.7370838630427367E-4</c:v>
+                  <c:v>3.7370010235954904E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.7817466723260619E-4</c:v>
+                  <c:v>3.7816709631958989E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.8264094816093872E-4</c:v>
+                  <c:v>3.8263409027963075E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.8710722908927124E-4</c:v>
+                  <c:v>3.871010842396716E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.9157351001760377E-4</c:v>
+                  <c:v>3.9156807819971245E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.9603979094593629E-4</c:v>
+                  <c:v>3.9603507215975331E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.0050607187427055E-4</c:v>
+                  <c:v>4.0050206611979416E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.0497235280260307E-4</c:v>
+                  <c:v>4.0496906007983502E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.094386337309356E-4</c:v>
+                  <c:v>4.0943605403987414E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.1390491465926812E-4</c:v>
+                  <c:v>4.1390304799991499E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.1837119558760065E-4</c:v>
+                  <c:v>4.1837004195995585E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.2283747651593317E-4</c:v>
+                  <c:v>4.228370359199967E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.273037574442657E-4</c:v>
+                  <c:v>4.2730402988003756E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.3177003837259822E-4</c:v>
+                  <c:v>4.3177102384007841E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.3623631930093248E-4</c:v>
+                  <c:v>4.3623801780011927E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.4070260022926501E-4</c:v>
+                  <c:v>4.4070501176016012E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.4516888115759753E-4</c:v>
+                  <c:v>4.4517200572020098E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.4963516208593006E-4</c:v>
+                  <c:v>4.4963899968024183E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.5410144301426258E-4</c:v>
+                  <c:v>4.5410599364028269E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.5856772394259511E-4</c:v>
+                  <c:v>4.5857298760032354E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.6303400487092763E-4</c:v>
+                  <c:v>4.630399815603644E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.6750028579926016E-4</c:v>
+                  <c:v>4.6750697552040525E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.7196656672759442E-4</c:v>
+                  <c:v>4.7197396948044611E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>4.9291404385323897E-4</c:v>
@@ -4797,88 +4793,88 @@
                   <c:v>4.8671080272067938E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.8921998710643375E-4</c:v>
+                  <c:v>4.8922014105028545E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.9190101299003374E-4</c:v>
+                  <c:v>4.9189284057946775E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.9542113995717802E-4</c:v>
+                  <c:v>4.9539892519004575E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.9986988301106759E-4</c:v>
+                  <c:v>4.9987723215668713E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.0287276532946161E-4</c:v>
+                  <c:v>5.0289880861325534E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.0595413893262775E-4</c:v>
+                  <c:v>5.0598569742224141E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.0884478279665643E-4</c:v>
+                  <c:v>5.0887098002430175E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.119795213707006E-4</c:v>
+                  <c:v>5.1198437394863697E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.1547238019644789E-4</c:v>
+                  <c:v>5.1546436172973371E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.1939959494658151E-4</c:v>
+                  <c:v>5.1938723258596303E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.2385538595159798E-4</c:v>
+                  <c:v>5.238518117769525E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.2863988054620715E-4</c:v>
+                  <c:v>5.2865755062310644E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.3365366446821735E-4</c:v>
+                  <c:v>5.3369727073753512E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.3873132839550293E-4</c:v>
+                  <c:v>5.3878310707538668E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.4389687418251878E-4</c:v>
+                  <c:v>5.4394645748921189E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.4916761047277285E-4</c:v>
+                  <c:v>5.4921959664219581E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.5429541993647113E-4</c:v>
+                  <c:v>5.5434066604247091E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.5951744303745529E-4</c:v>
+                  <c:v>5.5956396754674575E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.6478859430678801E-4</c:v>
+                  <c:v>5.6485819700742275E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.7006883495658647E-4</c:v>
+                  <c:v>5.7013628913650722E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.754422651823958E-4</c:v>
+                  <c:v>5.7549052323332159E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.8073000892166549E-4</c:v>
+                  <c:v>5.807540107761204E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.8599012977935815E-4</c:v>
+                  <c:v>5.8599666235324222E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.9115169310586062E-4</c:v>
+                  <c:v>5.9115000641670205E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>5.9630590059353268E-4</c:v>
+                  <c:v>5.9628981680762768E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.0138341057696656E-4</c:v>
+                  <c:v>6.0137391291063304E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>6.063605759418874E-4</c:v>
+                  <c:v>6.0636869480676565E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>6.1127855993561744E-4</c:v>
+                  <c:v>6.1128729457590291E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,79 +5208,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.4180042176871583E-5</c:v>
+                  <c:v>9.4179646290003293E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.5329980235664321E-5</c:v>
+                  <c:v>9.5329767933821684E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.6479918294457059E-5</c:v>
+                  <c:v>9.6479889577639642E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.7629856353249796E-5</c:v>
+                  <c:v>9.7630011221458033E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.8779794412042534E-5</c:v>
+                  <c:v>9.8780132865276425E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.9929732470835272E-5</c:v>
+                  <c:v>9.9930254509094816E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.0107967052962801E-4</c:v>
+                  <c:v>1.0108037615291277E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.0222960858842075E-4</c:v>
+                  <c:v>1.0223049779673117E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0337954664721348E-4</c:v>
+                  <c:v>1.0338061944054956E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0452948470600622E-4</c:v>
+                  <c:v>1.0453074108436751E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0567942276479896E-4</c:v>
+                  <c:v>1.0568086272818591E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.068293608235917E-4</c:v>
+                  <c:v>1.068309843720043E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.0797929888238444E-4</c:v>
+                  <c:v>1.0798110601582269E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0912923694117717E-4</c:v>
+                  <c:v>1.0913122765964065E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.1027917499996991E-4</c:v>
+                  <c:v>1.1028134930345904E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.1142911305876265E-4</c:v>
+                  <c:v>1.1143147094727743E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.1257905111755582E-4</c:v>
+                  <c:v>1.1258159259109582E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.1372898917634856E-4</c:v>
+                  <c:v>1.1373171423491378E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.148789272351413E-4</c:v>
+                  <c:v>1.1488183587873217E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.1602886529393403E-4</c:v>
+                  <c:v>1.1603195752255056E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.1717880335272677E-4</c:v>
+                  <c:v>1.1718207916636895E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>1.1832874141151951E-4</c:v>
+                  <c:v>1.1833220081018691E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>1.1947867947031225E-4</c:v>
+                  <c:v>1.194823224540053E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>1.2062861752910498E-4</c:v>
+                  <c:v>1.2063244409782369E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>1.2177855558789772E-4</c:v>
+                  <c:v>1.2178256574164165E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>1.2691109848118502E-4</c:v>
@@ -5293,88 +5289,88 @@
                   <c:v>1.2531394344757595E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>1.2595998579645803E-4</c:v>
+                  <c:v>1.2596002543254384E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>1.2665027235693891E-4</c:v>
+                  <c:v>1.2664816819777546E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>1.2755660315794673E-4</c:v>
+                  <c:v>1.2755088349843531E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>1.2870202572171891E-4</c:v>
+                  <c:v>1.2870391791398872E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>1.2947518099775437E-4</c:v>
+                  <c:v>1.2948188638948652E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>1.3026854550762248E-4</c:v>
+                  <c:v>1.3027667090521102E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>1.3101280263049523E-4</c:v>
+                  <c:v>1.3101954765831314E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1.3181990707567052E-4</c:v>
+                  <c:v>1.3182115647402719E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>1.3271921711956793E-4</c:v>
+                  <c:v>1.3271715259649026E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>1.3373036124119772E-4</c:v>
+                  <c:v>1.3372717829117736E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>1.3487759844837616E-4</c:v>
+                  <c:v>1.3487667820186243E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>1.3610946731527324E-4</c:v>
+                  <c:v>1.3611401684859956E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>1.3740037154700389E-4</c:v>
+                  <c:v>1.3741159889913313E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>1.3870772303103255E-4</c:v>
+                  <c:v>1.3872105454232523E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>1.4003770155012751E-4</c:v>
+                  <c:v>1.4005046781637054E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>1.4139476357897884E-4</c:v>
+                  <c:v>1.414081485128219E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>1.4271502608712908E-4</c:v>
+                  <c:v>1.4272667564973747E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>1.4405954587978759E-4</c:v>
+                  <c:v>1.4407152459423888E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>1.4541671475373977E-4</c:v>
+                  <c:v>1.4543463543444457E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>1.467762238800621E-4</c:v>
+                  <c:v>1.4679359137887381E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>1.481597266247567E-4</c:v>
+                  <c:v>1.4817215167600025E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>1.4952116757943466E-4</c:v>
+                  <c:v>1.4952734736220293E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>1.5087549644167401E-4</c:v>
+                  <c:v>1.5087717839035834E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>1.5220444959246246E-4</c:v>
+                  <c:v>1.5220401531882677E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>1.5353150882767299E-4</c:v>
+                  <c:v>1.5352736771836114E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>1.5483882067561587E-4</c:v>
+                  <c:v>1.5483637530145294E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>1.5612029668885091E-4</c:v>
+                  <c:v>1.5612238706154969E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>1.5738653521205881E-4</c:v>
+                  <c:v>1.5738878412910082E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5708,199 +5704,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>5.6550914138770239E-4</c:v>
+                  <c:v>5.6455812757791844E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.5917423769000218E-4</c:v>
+                  <c:v>5.5821399807796067E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.5283933399230198E-4</c:v>
+                  <c:v>5.5186986857800116E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.4650443029460177E-4</c:v>
+                  <c:v>5.4552573907804339E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.401695265969033E-4</c:v>
+                  <c:v>5.3918160957808561E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.338346228992031E-4</c:v>
+                  <c:v>5.3283748007812784E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.2749971920150289E-4</c:v>
+                  <c:v>5.2649335057816833E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>5.2116481550380268E-4</c:v>
+                  <c:v>5.2014922107821056E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.1482991180610421E-4</c:v>
+                  <c:v>5.1380509157825278E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.0849500810840401E-4</c:v>
+                  <c:v>5.0746096207829501E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.021601044107038E-4</c:v>
+                  <c:v>5.011168325783355E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.9582520071300533E-4</c:v>
+                  <c:v>4.9477270307837773E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.8949029701530512E-4</c:v>
+                  <c:v>4.8842857357841996E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.8315539331760492E-4</c:v>
+                  <c:v>4.8208444407846218E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.7682048961990471E-4</c:v>
+                  <c:v>4.7574031457850441E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.7048558592220624E-4</c:v>
+                  <c:v>4.693961850785449E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.6415068222450603E-4</c:v>
+                  <c:v>4.6305205557858713E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5781577852680583E-4</c:v>
+                  <c:v>4.5670792607862935E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.5148087482910562E-4</c:v>
+                  <c:v>4.5036379657867158E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.4514597113140715E-4</c:v>
+                  <c:v>4.4401966707871207E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.3881106743370694E-4</c:v>
+                  <c:v>4.376755375787543E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.3247616373600674E-4</c:v>
+                  <c:v>4.3133140807879652E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2614126003830653E-4</c:v>
+                  <c:v>4.2498727857883875E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.1980635634060806E-4</c:v>
+                  <c:v>4.1864314907887924E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.1347145264290786E-4</c:v>
+                  <c:v>4.1229901957892147E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.0713654894520765E-4</c:v>
+                  <c:v>4.059548900789637E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.0080164524750744E-4</c:v>
+                  <c:v>3.9961076057900592E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.9446674154980897E-4</c:v>
+                  <c:v>3.9326663107904641E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8813183785210877E-4</c:v>
+                  <c:v>3.8692250157908864E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8179693415440856E-4</c:v>
+                  <c:v>3.8057837207913087E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7546203045671009E-4</c:v>
+                  <c:v>3.7423424257917309E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.6912712675900988E-4</c:v>
+                  <c:v>3.6789011307921358E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.6279222306130968E-4</c:v>
+                  <c:v>3.6154598357925581E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.5645731936360947E-4</c:v>
+                  <c:v>3.5520185407929804E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.50122415665911E-4</c:v>
+                  <c:v>3.4885772457934026E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>3.8258341226368855E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.0425177990638558E-4</c:v>
+                  <c:v>3.0142368171836523E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.1369602145278982E-4</c:v>
+                  <c:v>3.1172129818271576E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.1866725580745358E-4</c:v>
+                  <c:v>3.1835363985033353E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.2176784865192677E-4</c:v>
+                  <c:v>3.2033837375084818E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.2673519826153288E-4</c:v>
+                  <c:v>3.2549922221096792E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.3038240919707824E-4</c:v>
+                  <c:v>3.295473722969369E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.3340389823551702E-4</c:v>
+                  <c:v>3.3241740025221218E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.3475402773417714E-4</c:v>
+                  <c:v>3.3370677288845042E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.3555107094994109E-4</c:v>
+                  <c:v>3.3440244871008089E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.3533649804280095E-4</c:v>
+                  <c:v>3.3395051987863093E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.3530916094466514E-4</c:v>
+                  <c:v>3.3383141706516711E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.3543094523282268E-4</c:v>
+                  <c:v>3.3408465327594978E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.3562165718775656E-4</c:v>
+                  <c:v>3.345595858643791E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.3577393040427292E-4</c:v>
+                  <c:v>3.348966694935667E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.3592389782957394E-4</c:v>
+                  <c:v>3.3557366647309609E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.3615828155893885E-4</c:v>
+                  <c:v>3.3602582523573836E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.3637923107499002E-4</c:v>
+                  <c:v>3.3666388698891467E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.3656727929620473E-4</c:v>
+                  <c:v>3.3732068502989658E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.3676884833871952E-4</c:v>
+                  <c:v>3.3746813050975096E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.3691991114356807E-4</c:v>
+                  <c:v>3.3798885189704824E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.3705013729136348E-4</c:v>
+                  <c:v>3.3847429687946325E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.3713686099786852E-4</c:v>
+                  <c:v>3.3878069228597074E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.3722694633495147E-4</c:v>
+                  <c:v>3.3797080438273381E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.3729739602263772E-4</c:v>
+                  <c:v>3.376429310092252E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.3742953237129352E-4</c:v>
+                  <c:v>3.363987260823569E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.3751721202413692E-4</c:v>
+                  <c:v>3.3642665619027667E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.3760101841942016E-4</c:v>
+                  <c:v>3.3643494547201083E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.3764787130259203E-4</c:v>
+                  <c:v>3.3709147044773473E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.3772719520374359E-4</c:v>
+                  <c:v>3.3698146219063557E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,9 +7500,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7544,9 +7540,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7579,26 +7575,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7631,26 +7610,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8174,7 +8136,7 @@
         <v>2.2211467051641521E-3</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="C2:AE8" si="0">C2</f>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>2.2211467051641521E-3</v>
       </c>
       <c r="E2" s="4">
@@ -9166,99 +9128,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.186550141802324E-3</v>
+        <v>1.1865212302467163E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2009024223025295E-3</v>
+        <v>1.2008758020562343E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2152547028027353E-3</v>
+        <v>1.2152303738657525E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2296069833029409E-3</v>
+        <v>1.2295849456752707E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2439592638031464E-3</v>
+        <v>1.2439395174847886E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.258311544303352E-3</v>
+        <v>1.2582940892943068E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2726638248035575E-3</v>
+        <v>1.272648661103825E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2870161053037687E-3</v>
+        <v>1.287003232913343E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3013683858039743E-3</v>
+        <v>1.3013578047228612E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3157206663041798E-3</v>
+        <v>1.3157123765323738E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3300729468043854E-3</v>
+        <v>1.3300669483418918E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.344425227304591E-3</v>
+        <v>1.3444215201514099E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3587775078047965E-3</v>
+        <v>1.3587760919609279E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3731297883050021E-3</v>
+        <v>1.3731306637704461E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3874820688052076E-3</v>
+        <v>1.3874852355799643E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4018343493054188E-3</v>
+        <v>1.4018398073894823E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4161866298056244E-3</v>
+        <v>1.4161943791990005E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4305389103058299E-3</v>
+        <v>1.4305489510085187E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4448911908060357E-3</v>
+        <v>1.4449035228180367E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4592434713062413E-3</v>
+        <v>1.4592580946275549E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4735957518064468E-3</v>
+        <v>1.4736126664370729E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4879480323066524E-3</v>
+        <v>1.4879672382465911E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5023003128068579E-3</v>
+        <v>1.5023218100561093E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5166525933070691E-3</v>
+        <v>1.5166763818656272E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -9270,19 +9232,19 @@
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5720960221550426E-3</v>
+        <v>1.5720965168497061E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5807114308423113E-3</v>
+        <v>1.5806851690082064E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5920232695823017E-3</v>
+        <v>1.5919518829914793E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6063191925677379E-3</v>
+        <v>1.6063428088608151E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -9483,99 +9445,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>3.6924210537594114E-4</v>
+        <v>3.6923310839950818E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R6</f>
-        <v>3.7370838630427367E-4</v>
+        <v>3.7370010235954904E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S6</f>
-        <v>3.7817466723260619E-4</v>
+        <v>3.7816709631958989E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T6</f>
-        <v>3.8264094816093872E-4</v>
+        <v>3.8263409027963075E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U6</f>
-        <v>3.8710722908927124E-4</v>
+        <v>3.871010842396716E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V6</f>
-        <v>3.9157351001760377E-4</v>
+        <v>3.9156807819971245E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W6</f>
-        <v>3.9603979094593629E-4</v>
+        <v>3.9603507215975331E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.0050607187427055E-4</v>
+        <v>4.0050206611979416E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.0497235280260307E-4</v>
+        <v>4.0496906007983502E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.094386337309356E-4</v>
+        <v>4.0943605403987414E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.1390491465926812E-4</v>
+        <v>4.1390304799991499E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.1837119558760065E-4</v>
+        <v>4.1837004195995585E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.2283747651593317E-4</v>
+        <v>4.228370359199967E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.273037574442657E-4</v>
+        <v>4.2730402988003756E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>4.3177003837259822E-4</v>
+        <v>4.3177102384007841E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>4.3623631930093248E-4</v>
+        <v>4.3623801780011927E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>4.4070260022926501E-4</v>
+        <v>4.4070501176016012E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>4.4516888115759753E-4</v>
+        <v>4.4517200572020098E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>4.4963516208593006E-4</v>
+        <v>4.4963899968024183E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>4.5410144301426258E-4</v>
+        <v>4.5410599364028269E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>4.5856772394259511E-4</v>
+        <v>4.5857298760032354E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>4.6303400487092763E-4</v>
+        <v>4.630399815603644E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>4.6750028579926016E-4</v>
+        <v>4.6750697552040525E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>4.7196656672759442E-4</v>
+        <v>4.7197396948044611E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO6</f>
@@ -9587,19 +9549,19 @@
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>4.8921998710643375E-4</v>
+        <v>4.8922014105028545E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>4.9190101299003374E-4</v>
+        <v>4.9189284057946775E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>4.9542113995717802E-4</v>
+        <v>4.9539892519004575E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>4.9986988301106759E-4</v>
+        <v>4.9987723215668713E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -9800,99 +9762,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1077263161278232E-3</v>
+        <v>1.1076993251985243E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1211251589128208E-3</v>
+        <v>1.1211003070786469E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.1345240016978184E-3</v>
+        <v>1.1345012889587695E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1479228444828159E-3</v>
+        <v>1.147902270838892E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1613216872678135E-3</v>
+        <v>1.1613032527190146E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1747205300528111E-3</v>
+        <v>1.1747042345991371E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.1881193728378087E-3</v>
+        <v>1.1881052164792597E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2015182156228114E-3</v>
+        <v>1.2015061983593823E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.214917058407809E-3</v>
+        <v>1.2149071802395048E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2283159011928066E-3</v>
+        <v>1.2283081621196222E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2417147439778042E-3</v>
+        <v>1.2417091439997448E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2551135867628017E-3</v>
+        <v>1.2551101258798673E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2685124295477993E-3</v>
+        <v>1.2685111077599899E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2819112723327969E-3</v>
+        <v>1.2819120896401125E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2953101151177945E-3</v>
+        <v>1.295313071520235E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3087089579027972E-3</v>
+        <v>1.3087140534003576E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3221078006877948E-3</v>
+        <v>1.3221150352804802E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.3355066434727924E-3</v>
+        <v>1.3355160171606027E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.34890548625779E-3</v>
+        <v>1.3489169990407253E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3623043290427875E-3</v>
+        <v>1.3623179809208478E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3757031718277851E-3</v>
+        <v>1.3757189628009704E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3891020146127827E-3</v>
+        <v>1.389119944681093E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.4025008573977803E-3</v>
+        <v>1.4025209265612155E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.415899700182783E-3</v>
+        <v>1.4159219084413381E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -9904,19 +9866,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4676599613193009E-3</v>
+        <v>1.4676604231508561E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4757030389701009E-3</v>
+        <v>1.4756785217384029E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4862634198715338E-3</v>
+        <v>1.4861967755701369E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.4996096490332025E-3</v>
+        <v>1.4996316964700611E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10043,99 +10005,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>3.0634047395942092E-4</v>
+        <v>3.0633979173283346E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1003577074940967E-4</v>
+        <v>3.1003567846864515E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1373106753939848E-4</v>
+        <v>3.1373156520445825E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>3.1742636432938724E-4</v>
+        <v>3.1742745194027129E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2112166111937599E-4</v>
+        <v>3.2112333867608439E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>3.248169579093648E-4</v>
+        <v>3.2481922541189608E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>3.2851225469935356E-4</v>
+        <v>3.2851511214770912E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3220755148934231E-4</v>
+        <v>3.3221099888352222E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3590284827933112E-4</v>
+        <v>3.3590688561933391E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>3.3959814506931988E-4</v>
+        <v>3.3960277235514695E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4329344185930868E-4</v>
+        <v>3.4329865909096005E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>3.4698873864929744E-4</v>
+        <v>3.4699454582677315E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>3.506840354392862E-4</v>
+        <v>3.5069043256258478E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>3.54379332229275E-4</v>
+        <v>3.5438631929839788E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>3.5807462901926376E-4</v>
+        <v>3.5808220603421098E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6176992580925392E-4</v>
+        <v>3.6177809277002402E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6546522259924268E-4</v>
+        <v>3.6547397950583571E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>3.6916051938923149E-4</v>
+        <v>3.6916986624164881E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>3.7285581617922024E-4</v>
+        <v>3.7286575297746185E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>3.76551112969209E-4</v>
+        <v>3.7656163971327495E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8024640975919781E-4</v>
+        <v>3.8025752644908664E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8394170654918656E-4</v>
+        <v>3.8395341318489968E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>3.8763700333917537E-4</v>
+        <v>3.8764929992071278E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>3.9133230012916413E-4</v>
+        <v>3.9134518665652447E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -10147,19 +10109,19 @@
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0476922006507519E-4</v>
+        <v>4.0476934743463176E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0698743842180595E-4</v>
+        <v>4.0698067675969476E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>4.0989990946667967E-4</v>
+        <v>4.0988152948588788E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>4.135806958279309E-4</v>
+        <v>4.1358677633980475E-4</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -10360,99 +10322,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>9.5329980235664321E-5</v>
+        <v>9.5329767933821684E-5</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R7</f>
-        <v>9.6479918294457059E-5</v>
+        <v>9.6479889577639642E-5</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S7</f>
-        <v>9.7629856353249796E-5</v>
+        <v>9.7630011221458033E-5</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T7</f>
-        <v>9.8779794412042534E-5</v>
+        <v>9.8780132865276425E-5</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U7</f>
-        <v>9.9929732470835272E-5</v>
+        <v>9.9930254509094816E-5</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V7</f>
-        <v>1.0107967052962801E-4</v>
+        <v>1.0108037615291277E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W7</f>
-        <v>1.0222960858842075E-4</v>
+        <v>1.0223049779673117E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X7</f>
-        <v>1.0337954664721348E-4</v>
+        <v>1.0338061944054956E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>1.0452948470600622E-4</v>
+        <v>1.0453074108436751E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>1.0567942276479896E-4</v>
+        <v>1.0568086272818591E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>1.068293608235917E-4</v>
+        <v>1.068309843720043E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>1.0797929888238444E-4</v>
+        <v>1.0798110601582269E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>1.0912923694117717E-4</v>
+        <v>1.0913122765964065E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>1.1027917499996991E-4</v>
+        <v>1.1028134930345904E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>1.1142911305876265E-4</v>
+        <v>1.1143147094727743E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>1.1257905111755582E-4</v>
+        <v>1.1258159259109582E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>1.1372898917634856E-4</v>
+        <v>1.1373171423491378E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>1.148789272351413E-4</v>
+        <v>1.1488183587873217E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>1.1602886529393403E-4</v>
+        <v>1.1603195752255056E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>1.1717880335272677E-4</v>
+        <v>1.1718207916636895E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK7</f>
-        <v>1.1832874141151951E-4</v>
+        <v>1.1833220081018691E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL7</f>
-        <v>1.1947867947031225E-4</v>
+        <v>1.194823224540053E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM7</f>
-        <v>1.2062861752910498E-4</v>
+        <v>1.2063244409782369E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN7</f>
-        <v>1.2177855558789772E-4</v>
+        <v>1.2178256574164165E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO7</f>
@@ -10464,19 +10426,19 @@
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ7</f>
-        <v>1.2595998579645803E-4</v>
+        <v>1.2596002543254384E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR7</f>
-        <v>1.2665027235693891E-4</v>
+        <v>1.2664816819777546E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS7</f>
-        <v>1.2755660315794673E-4</v>
+        <v>1.2755088349843531E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT7</f>
-        <v>1.2870202572171891E-4</v>
+        <v>1.2870391791398872E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -10677,99 +10639,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>2.8598994070699294E-4</v>
+        <v>2.85989303801465E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>2.8943975488337115E-4</v>
+        <v>2.8943966873291887E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>2.9288956905974936E-4</v>
+        <v>2.9289003366437405E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>2.9633938323612758E-4</v>
+        <v>2.9634039859582922E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>2.9978919741250579E-4</v>
+        <v>2.9979076352728439E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>3.03239011588884E-4</v>
+        <v>3.0324112845873827E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>3.0668882576526221E-4</v>
+        <v>3.0669149339019344E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>3.1013863994164043E-4</v>
+        <v>3.1014185832164862E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>3.1358845411801864E-4</v>
+        <v>3.1359222325310249E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>3.1703826829439685E-4</v>
+        <v>3.1704258818455766E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>3.2048808247077507E-4</v>
+        <v>3.2049295311601284E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>3.2393789664715328E-4</v>
+        <v>3.2394331804746801E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>3.2738771082353149E-4</v>
+        <v>3.2739368297892189E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>3.3083752499990971E-4</v>
+        <v>3.3084404791037706E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>3.3428733917628792E-4</v>
+        <v>3.3429441284183223E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>3.3773715335266743E-4</v>
+        <v>3.3774477777328741E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>3.4118696752904565E-4</v>
+        <v>3.4119514270474128E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>3.4463678170542386E-4</v>
+        <v>3.4464550763619646E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>3.4808659588180207E-4</v>
+        <v>3.4809587256765163E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>3.5153641005818029E-4</v>
+        <v>3.5154623749910681E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>3.549862242345585E-4</v>
+        <v>3.5499660243056068E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>3.5843603841093671E-4</v>
+        <v>3.5844696736201585E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>3.6188585258731493E-4</v>
+        <v>3.6189733229347103E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>3.6533566676369314E-4</v>
+        <v>3.653476972249249E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -10781,19 +10743,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>3.7787995738937402E-4</v>
+        <v>3.7788007629763144E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>3.7995081707081665E-4</v>
+        <v>3.7994450459332633E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>3.8266980947384015E-4</v>
+        <v>3.8265265049530588E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>3.8610607716515664E-4</v>
+        <v>3.861117537419661E-4</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10922,123 +10884,123 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.7968922323952086E-3</v>
+        <v>1.7938065267531708E-3</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.7765351800131182E-3</v>
+        <v>1.7734198274894919E-3</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.7561781276310348E-3</v>
+        <v>1.753033128225806E-3</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.7358210752489514E-3</v>
+        <v>1.7326464289621271E-3</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.7154640228668611E-3</v>
+        <v>1.7122597296984482E-3</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.6951069704847777E-3</v>
+        <v>1.6918730304347623E-3</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.6747499181026873E-3</v>
+        <v>1.6714863311710834E-3</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.6543928657206039E-3</v>
+        <v>1.6510996319074045E-3</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.6340358133385205E-3</v>
+        <v>1.6307129326437256E-3</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.6136787609564301E-3</v>
+        <v>1.6103262333800397E-3</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.5933217085743467E-3</v>
+        <v>1.5899395341163608E-3</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.5729646561922633E-3</v>
+        <v>1.5695528348526819E-3</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.552607603810173E-3</v>
+        <v>1.549166135588996E-3</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.5322505514280896E-3</v>
+        <v>1.5287794363253171E-3</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.5118934990460062E-3</v>
+        <v>1.5083927370616382E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.4915364466639158E-3</v>
+        <v>1.4880060377979523E-3</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.4711793942818324E-3</v>
+        <v>1.4676193385342734E-3</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.450822341899749E-3</v>
+        <v>1.4472326392705945E-3</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.4304652895176587E-3</v>
+        <v>1.4268459400069156E-3</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.4101082371355753E-3</v>
+        <v>1.4064592407432297E-3</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.3897511847534849E-3</v>
+        <v>1.3860725414795508E-3</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.3693941323714015E-3</v>
+        <v>1.3656858422158719E-3</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.3490370799893181E-3</v>
+        <v>1.345299142952186E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.3286800276072278E-3</v>
+        <v>1.3249124436885071E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.3083229752251443E-3</v>
+        <v>1.3045257444248282E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2879659228430609E-3</v>
+        <v>1.2841390451611492E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2676088704609706E-3</v>
+        <v>1.2637523458974634E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2472518180788872E-3</v>
+        <v>1.2433656466337845E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2268947656968038E-3</v>
+        <v>1.2229789473701055E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2065377133147134E-3</v>
+        <v>1.2025922481064197E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -11239,99 +11201,99 @@
       </c>
       <c r="B5" s="22">
         <f>Extrapolations!Q6</f>
-        <v>3.6924210537594114E-4</v>
+        <v>3.6923310839950818E-4</v>
       </c>
       <c r="C5" s="22">
         <f>Extrapolations!R6</f>
-        <v>3.7370838630427367E-4</v>
+        <v>3.7370010235954904E-4</v>
       </c>
       <c r="D5" s="22">
         <f>Extrapolations!S6</f>
-        <v>3.7817466723260619E-4</v>
+        <v>3.7816709631958989E-4</v>
       </c>
       <c r="E5" s="22">
         <f>Extrapolations!T6</f>
-        <v>3.8264094816093872E-4</v>
+        <v>3.8263409027963075E-4</v>
       </c>
       <c r="F5" s="22">
         <f>Extrapolations!U6</f>
-        <v>3.8710722908927124E-4</v>
+        <v>3.871010842396716E-4</v>
       </c>
       <c r="G5" s="22">
         <f>Extrapolations!V6</f>
-        <v>3.9157351001760377E-4</v>
+        <v>3.9156807819971245E-4</v>
       </c>
       <c r="H5" s="22">
         <f>Extrapolations!W6</f>
-        <v>3.9603979094593629E-4</v>
+        <v>3.9603507215975331E-4</v>
       </c>
       <c r="I5" s="22">
         <f>Extrapolations!X6</f>
-        <v>4.0050607187427055E-4</v>
+        <v>4.0050206611979416E-4</v>
       </c>
       <c r="J5" s="22">
         <f>Extrapolations!Y6</f>
-        <v>4.0497235280260307E-4</v>
+        <v>4.0496906007983502E-4</v>
       </c>
       <c r="K5" s="22">
         <f>Extrapolations!Z6</f>
-        <v>4.094386337309356E-4</v>
+        <v>4.0943605403987414E-4</v>
       </c>
       <c r="L5" s="22">
         <f>Extrapolations!AA6</f>
-        <v>4.1390491465926812E-4</v>
+        <v>4.1390304799991499E-4</v>
       </c>
       <c r="M5" s="22">
         <f>Extrapolations!AB6</f>
-        <v>4.1837119558760065E-4</v>
+        <v>4.1837004195995585E-4</v>
       </c>
       <c r="N5" s="22">
         <f>Extrapolations!AC6</f>
-        <v>4.2283747651593317E-4</v>
+        <v>4.228370359199967E-4</v>
       </c>
       <c r="O5" s="22">
         <f>Extrapolations!AD6</f>
-        <v>4.273037574442657E-4</v>
+        <v>4.2730402988003756E-4</v>
       </c>
       <c r="P5" s="22">
         <f>Extrapolations!AE6</f>
-        <v>4.3177003837259822E-4</v>
+        <v>4.3177102384007841E-4</v>
       </c>
       <c r="Q5" s="22">
         <f>Extrapolations!AF6</f>
-        <v>4.3623631930093248E-4</v>
+        <v>4.3623801780011927E-4</v>
       </c>
       <c r="R5" s="22">
         <f>Extrapolations!AG6</f>
-        <v>4.4070260022926501E-4</v>
+        <v>4.4070501176016012E-4</v>
       </c>
       <c r="S5" s="22">
         <f>Extrapolations!AH6</f>
-        <v>4.4516888115759753E-4</v>
+        <v>4.4517200572020098E-4</v>
       </c>
       <c r="T5" s="22">
         <f>Extrapolations!AI6</f>
-        <v>4.4963516208593006E-4</v>
+        <v>4.4963899968024183E-4</v>
       </c>
       <c r="U5" s="22">
         <f>Extrapolations!AJ6</f>
-        <v>4.5410144301426258E-4</v>
+        <v>4.5410599364028269E-4</v>
       </c>
       <c r="V5" s="22">
         <f>Extrapolations!AK6</f>
-        <v>4.5856772394259511E-4</v>
+        <v>4.5857298760032354E-4</v>
       </c>
       <c r="W5" s="22">
         <f>Extrapolations!AL6</f>
-        <v>4.6303400487092763E-4</v>
+        <v>4.630399815603644E-4</v>
       </c>
       <c r="X5" s="22">
         <f>Extrapolations!AM6</f>
-        <v>4.6750028579926016E-4</v>
+        <v>4.6750697552040525E-4</v>
       </c>
       <c r="Y5" s="22">
         <f>Extrapolations!AN6</f>
-        <v>4.7196656672759442E-4</v>
+        <v>4.7197396948044611E-4</v>
       </c>
       <c r="Z5" s="22">
         <f>Extrapolations!AO6</f>
@@ -11343,19 +11305,19 @@
       </c>
       <c r="AB5" s="22">
         <f>Extrapolations!AQ6</f>
-        <v>4.8921998710643375E-4</v>
+        <v>4.8922014105028545E-4</v>
       </c>
       <c r="AC5" s="22">
         <f>Extrapolations!AR6</f>
-        <v>4.9190101299003374E-4</v>
+        <v>4.9189284057946775E-4</v>
       </c>
       <c r="AD5" s="22">
         <f>Extrapolations!AS6</f>
-        <v>4.9542113995717802E-4</v>
+        <v>4.9539892519004575E-4</v>
       </c>
       <c r="AE5" s="22">
         <f>Extrapolations!AT6</f>
-        <v>4.9986988301106759E-4</v>
+        <v>4.9987723215668713E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -11556,99 +11518,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.1077263161278232E-3</v>
+        <v>1.1076993251985243E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1211251589128208E-3</v>
+        <v>1.1211003070786469E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.1345240016978184E-3</v>
+        <v>1.1345012889587695E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1479228444828159E-3</v>
+        <v>1.147902270838892E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1613216872678135E-3</v>
+        <v>1.1613032527190146E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.1747205300528111E-3</v>
+        <v>1.1747042345991371E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.1881193728378087E-3</v>
+        <v>1.1881052164792597E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.2015182156228114E-3</v>
+        <v>1.2015061983593823E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.214917058407809E-3</v>
+        <v>1.2149071802395048E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2283159011928066E-3</v>
+        <v>1.2283081621196222E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2417147439778042E-3</v>
+        <v>1.2417091439997448E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2551135867628017E-3</v>
+        <v>1.2551101258798673E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2685124295477993E-3</v>
+        <v>1.2685111077599899E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2819112723327969E-3</v>
+        <v>1.2819120896401125E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.2953101151177945E-3</v>
+        <v>1.295313071520235E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.3087089579027972E-3</v>
+        <v>1.3087140534003576E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3221078006877948E-3</v>
+        <v>1.3221150352804802E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.3355066434727924E-3</v>
+        <v>1.3355160171606027E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.34890548625779E-3</v>
+        <v>1.3489169990407253E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3623043290427875E-3</v>
+        <v>1.3623179809208478E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3757031718277851E-3</v>
+        <v>1.3757189628009704E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3891020146127827E-3</v>
+        <v>1.389119944681093E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.4025008573977803E-3</v>
+        <v>1.4025209265612155E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.415899700182783E-3</v>
+        <v>1.4159219084413381E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -11660,19 +11622,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4676599613193009E-3</v>
+        <v>1.4676604231508561E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4757030389701009E-3</v>
+        <v>1.4756785217384029E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.4862634198715338E-3</v>
+        <v>1.4861967755701369E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.4996096490332025E-3</v>
+        <v>1.4996316964700611E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -12716,7 +12678,7 @@
         <v>3.2293482418666772E-5</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="C2:AE8" si="0">C2</f>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>3.2293482418666772E-5</v>
       </c>
       <c r="E2" s="4">
@@ -14584,7 +14546,7 @@
         <v>3.5367364645723983E-3</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="C2:AE8" si="0">C2</f>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>3.5367364645723983E-3</v>
       </c>
       <c r="E2" s="4">
@@ -15466,7 +15428,7 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -16244,13 +16206,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
@@ -16426,94 +16388,94 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>3.4525981498377545E-4</v>
+        <v>3.4830687460058363E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.5982944807231638E-4</v>
+        <v>3.6160214167983712E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6710644959195353E-4</v>
+        <v>3.6858167190947932E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7373493890990666E-4</v>
+        <v>3.7489066625736889E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.9582578415611009E-4</v>
+        <v>3.9695913315051362E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3494713071778808E-4</v>
+        <v>4.3612233844583575E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.4227847691112512E-4</v>
+        <v>4.4500041757942137E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.5901794912486538E-4</v>
+        <v>4.5879226158980447E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.6412939868974872E-4</v>
+        <v>4.6314681421182177E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.6774364798041294E-4</v>
+        <v>4.6660066344185382E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.6966309910348734E-4</v>
+        <v>4.6854272330465251E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.7260846794834008E-4</v>
+        <v>4.7105754355615585E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.7526441798452414E-4</v>
+        <v>4.7415254961591819E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.7788153153438258E-4</v>
+        <v>4.7723628727582983E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.8072409114320114E-4</v>
+        <v>4.802527271858826E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.8317943716800202E-4</v>
+        <v>4.8416028257775874E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.8470967915637789E-4</v>
+        <v>4.8665502814236058E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.8594611468298545E-4</v>
+        <v>4.8861382776678702E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.8792763254902827E-4</v>
+        <v>4.9338841162161525E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.8771717870415681E-4</v>
+        <v>4.9426973076044714E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.8811136392356582E-4</v>
+        <v>4.9538139423009706E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.8843918429084768E-4</v>
+        <v>4.9737647419392675E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.8810682276656785E-4</v>
+        <v>4.9800654058372086E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.8747689393500613E-4</v>
+        <v>4.9689106018787883E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.8672999513277174E-4</v>
+        <v>4.9648933196291757E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.8843454079791745E-4</v>
+        <v>4.9590478209228864E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.8748772875184347E-4</v>
+        <v>4.9516368613957394E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.8711906355556337E-4</v>
+        <v>4.9444704196318246E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.8876138897384217E-4</v>
+        <v>4.9407115940909227E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.8839502633604009E-4</v>
+        <v>4.93783574212444E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16531,94 +16493,94 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>1.0529501805499055E-4</v>
+        <v>1.0570354312598104E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1144423550851376E-4</v>
+        <v>1.1151821777353393E-4</v>
       </c>
       <c r="F9" s="4">
-        <v>1.1252624988260881E-4</v>
+        <v>1.1272384639783163E-4</v>
       </c>
       <c r="G9" s="4">
-        <v>1.1436919436747496E-4</v>
+        <v>1.1406280001558269E-4</v>
       </c>
       <c r="H9" s="4">
-        <v>1.1580522998790115E-4</v>
+        <v>1.1544309125303334E-4</v>
       </c>
       <c r="I9" s="4">
-        <v>1.1529086528558249E-4</v>
+        <v>1.1565634494376903E-4</v>
       </c>
       <c r="J9" s="4">
-        <v>1.1501098830414369E-4</v>
+        <v>1.1575112135735473E-4</v>
       </c>
       <c r="K9" s="4">
-        <v>1.1315384464245806E-4</v>
+        <v>1.1388555713902243E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>1.1216087457402847E-4</v>
+        <v>1.1244961636238372E-4</v>
       </c>
       <c r="M9" s="4">
-        <v>1.1097506551069121E-4</v>
+        <v>1.1150667111195052E-4</v>
       </c>
       <c r="N9" s="4">
-        <v>1.0983553102881708E-4</v>
+        <v>1.103320813633094E-4</v>
       </c>
       <c r="O9" s="4">
-        <v>1.0850113384225401E-4</v>
+        <v>1.0882449127149132E-4</v>
       </c>
       <c r="P9" s="4">
-        <v>1.0724235631077596E-4</v>
+        <v>1.0748860772417935E-4</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.0612536727802149E-4</v>
+        <v>1.062886246945594E-4</v>
       </c>
       <c r="R9" s="4">
-        <v>1.050634808536377E-4</v>
+        <v>1.0545396634254317E-4</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0410327800869383E-4</v>
+        <v>1.0430981720917382E-4</v>
       </c>
       <c r="T9" s="4">
-        <v>1.032361899593437E-4</v>
+        <v>1.0339985361922795E-4</v>
       </c>
       <c r="U9" s="4">
-        <v>1.024363463286552E-4</v>
+        <v>1.0251605894253303E-4</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0170865606461284E-4</v>
+        <v>1.0184812914206304E-4</v>
       </c>
       <c r="W9" s="4">
-        <v>1.0106965036059089E-4</v>
+        <v>1.01388283796425E-4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.005123319830317E-4</v>
+        <v>1.0083050459953973E-4</v>
       </c>
       <c r="Y9" s="4">
-        <v>1.000375741870971E-4</v>
+        <v>1.0047938671642447E-4</v>
       </c>
       <c r="Z9" s="4">
-        <v>9.9568102999683008E-5</v>
+        <v>9.9934408455342122E-5</v>
       </c>
       <c r="AA9" s="4">
-        <v>9.9140546156358924E-5</v>
+        <v>9.955140044451973E-5</v>
       </c>
       <c r="AB9" s="4">
-        <v>9.8807453359239314E-5</v>
+        <v>9.9238534560627426E-5</v>
       </c>
       <c r="AC9" s="4">
-        <v>9.8490058732321348E-5</v>
+        <v>9.9078621665242005E-5</v>
       </c>
       <c r="AD9" s="4">
-        <v>9.781265991059014E-5</v>
+        <v>9.8451458036568441E-5</v>
       </c>
       <c r="AE9" s="4">
-        <v>9.7588616277155286E-5</v>
+        <v>9.8359346860691412E-5</v>
       </c>
       <c r="AF9" s="4">
-        <v>9.7453217349190637E-5</v>
+        <v>9.8169947612884335E-5</v>
       </c>
       <c r="AG9" s="4">
-        <v>9.7355430800053337E-5</v>
+        <v>9.7981650932638814E-5</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16636,94 +16598,94 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>8.9776266690305456E-4</v>
+        <v>9.0124581894580023E-4</v>
       </c>
       <c r="E10" s="4">
-        <v>9.5673289585827825E-4</v>
+        <v>9.650167161298855E-4</v>
       </c>
       <c r="F10" s="4">
-        <v>9.8680726498129984E-4</v>
+        <v>9.9382318526809103E-4</v>
       </c>
       <c r="G10" s="4">
-        <v>1.0176904065504315E-3</v>
+        <v>1.0226296544062967E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>1.0466752213084077E-3</v>
+        <v>1.0514361235445021E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>1.0741412024466357E-3</v>
+        <v>1.0802425926827077E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>1.0983268989591029E-3</v>
+        <v>1.1090490618209132E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>1.1086185534440985E-3</v>
+        <v>1.1090490618209132E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>1.124229712490382E-3</v>
+        <v>1.1234522963900159E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>1.1403265367362543E-3</v>
+        <v>1.1378555309591186E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>1.155452604485696E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>1.1644587168175703E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>1.1652597415765967E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.16535443552984E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>1.1653409488152869E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="S10" s="4">
-        <v>1.165355439859647E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="T10" s="4">
-        <v>1.1653168448999163E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="U10" s="4">
-        <v>1.1652422375428154E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>1.1649634642834944E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>1.1648623139243481E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>1.1646699130284403E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>1.1638663057070523E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>1.1633489323806957E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.1633911142325949E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>1.1635189510694735E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.1638059024429383E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.164147948480108E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AE10" s="4">
-        <v>1.1645869840815088E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AF10" s="4">
-        <v>1.1649339082920275E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AG10" s="4">
-        <v>1.1653449661345157E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -16741,94 +16703,94 @@
         <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>6.6542424389210287E-4</v>
+        <v>6.6800596609982259E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>7.0913314543290544E-4</v>
+        <v>7.1527313659536663E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>7.3142435342360217E-4</v>
+        <v>7.366245735086612E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>7.543150258532582E-4</v>
+        <v>7.5797601042195567E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>7.7579865304752845E-4</v>
+        <v>7.7932744733525013E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>7.9615651643998519E-4</v>
+        <v>8.006788842485447E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>8.1408302353158624E-4</v>
+        <v>8.2203032116183927E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>8.2171122712764496E-4</v>
+        <v>8.2203032116183927E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>8.3328226264473481E-4</v>
+        <v>8.3270603961848645E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>8.4521327459004475E-4</v>
+        <v>8.4338175807513373E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>8.5642475905726393E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>8.6310011515055977E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>8.6369383698180137E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>8.6376402440946029E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>8.6375402801824809E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>8.6376476882157177E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>8.637361621275715E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>8.6368086294214322E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>8.6347423540889901E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>8.6339926247480886E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>8.6325665438315657E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>8.6266101834934225E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>8.6227753976731521E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>8.6230880507599957E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>8.6240355810333913E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>8.6261624727806301E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>8.6286977277433372E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>8.631951872116613E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>8.6345232842390234E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>8.6375700566669437E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -16852,88 +16814,88 @@
         <v>4.8671080272067938E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>4.8921998710643375E-4</v>
+        <v>4.8922014105028545E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>4.9190101299003374E-4</v>
+        <v>4.9189284057946775E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>4.9542113995717802E-4</v>
+        <v>4.9539892519004575E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>4.9986988301106759E-4</v>
+        <v>4.9987723215668713E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.0287276532946161E-4</v>
+        <v>5.0289880861325534E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.0595413893262775E-4</v>
+        <v>5.0598569742224141E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.0884478279665643E-4</v>
+        <v>5.0887098002430175E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.119795213707006E-4</v>
+        <v>5.1198437394863697E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.1547238019644789E-4</v>
+        <v>5.1546436172973371E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>5.1939959494658151E-4</v>
+        <v>5.1938723258596303E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>5.2385538595159798E-4</v>
+        <v>5.238518117769525E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>5.2863988054620715E-4</v>
+        <v>5.2865755062310644E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>5.3365366446821735E-4</v>
+        <v>5.3369727073753512E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>5.3873132839550293E-4</v>
+        <v>5.3878310707538668E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>5.4389687418251878E-4</v>
+        <v>5.4394645748921189E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>5.4916761047277285E-4</v>
+        <v>5.4921959664219581E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>5.5429541993647113E-4</v>
+        <v>5.5434066604247091E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>5.5951744303745529E-4</v>
+        <v>5.5956396754674575E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>5.6478859430678801E-4</v>
+        <v>5.6485819700742275E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>5.7006883495658647E-4</v>
+        <v>5.7013628913650722E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>5.754422651823958E-4</v>
+        <v>5.7549052323332159E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>5.8073000892166549E-4</v>
+        <v>5.807540107761204E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>5.8599012977935815E-4</v>
+        <v>5.8599666235324222E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>5.9115169310586062E-4</v>
+        <v>5.9115000641670205E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>5.9630590059353268E-4</v>
+        <v>5.9628981680762768E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>6.0138341057696656E-4</v>
+        <v>6.0137391291063304E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>6.063605759418874E-4</v>
+        <v>6.0636869480676565E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>6.1127855993561744E-4</v>
+        <v>6.1128729457590291E-4</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -16957,88 +16919,88 @@
         <v>1.2531394344757595E-4</v>
       </c>
       <c r="F13" s="4">
-        <v>1.2595998579645803E-4</v>
+        <v>1.2596002543254384E-4</v>
       </c>
       <c r="G13" s="4">
-        <v>1.2665027235693891E-4</v>
+        <v>1.2664816819777546E-4</v>
       </c>
       <c r="H13" s="4">
-        <v>1.2755660315794673E-4</v>
+        <v>1.2755088349843531E-4</v>
       </c>
       <c r="I13" s="4">
-        <v>1.2870202572171891E-4</v>
+        <v>1.2870391791398872E-4</v>
       </c>
       <c r="J13" s="4">
-        <v>1.2947518099775437E-4</v>
+        <v>1.2948188638948652E-4</v>
       </c>
       <c r="K13" s="4">
-        <v>1.3026854550762248E-4</v>
+        <v>1.3027667090521102E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>1.3101280263049523E-4</v>
+        <v>1.3101954765831314E-4</v>
       </c>
       <c r="M13" s="4">
-        <v>1.3181990707567052E-4</v>
+        <v>1.3182115647402719E-4</v>
       </c>
       <c r="N13" s="4">
-        <v>1.3271921711956793E-4</v>
+        <v>1.3271715259649026E-4</v>
       </c>
       <c r="O13" s="4">
-        <v>1.3373036124119772E-4</v>
+        <v>1.3372717829117736E-4</v>
       </c>
       <c r="P13" s="4">
-        <v>1.3487759844837616E-4</v>
+        <v>1.3487667820186243E-4</v>
       </c>
       <c r="Q13" s="4">
-        <v>1.3610946731527324E-4</v>
+        <v>1.3611401684859956E-4</v>
       </c>
       <c r="R13" s="4">
-        <v>1.3740037154700389E-4</v>
+        <v>1.3741159889913313E-4</v>
       </c>
       <c r="S13" s="4">
-        <v>1.3870772303103255E-4</v>
+        <v>1.3872105454232523E-4</v>
       </c>
       <c r="T13" s="4">
-        <v>1.4003770155012751E-4</v>
+        <v>1.4005046781637054E-4</v>
       </c>
       <c r="U13" s="4">
-        <v>1.4139476357897884E-4</v>
+        <v>1.414081485128219E-4</v>
       </c>
       <c r="V13" s="4">
-        <v>1.4271502608712908E-4</v>
+        <v>1.4272667564973747E-4</v>
       </c>
       <c r="W13" s="4">
-        <v>1.4405954587978759E-4</v>
+        <v>1.4407152459423888E-4</v>
       </c>
       <c r="X13" s="4">
-        <v>1.4541671475373977E-4</v>
+        <v>1.4543463543444457E-4</v>
       </c>
       <c r="Y13" s="4">
-        <v>1.467762238800621E-4</v>
+        <v>1.4679359137887381E-4</v>
       </c>
       <c r="Z13" s="4">
-        <v>1.481597266247567E-4</v>
+        <v>1.4817215167600025E-4</v>
       </c>
       <c r="AA13" s="4">
-        <v>1.4952116757943466E-4</v>
+        <v>1.4952734736220293E-4</v>
       </c>
       <c r="AB13" s="4">
-        <v>1.5087549644167401E-4</v>
+        <v>1.5087717839035834E-4</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.5220444959246246E-4</v>
+        <v>1.5220401531882677E-4</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.5353150882767299E-4</v>
+        <v>1.5352736771836114E-4</v>
       </c>
       <c r="AE13" s="4">
-        <v>1.5483882067561587E-4</v>
+        <v>1.5483637530145294E-4</v>
       </c>
       <c r="AF13" s="4">
-        <v>1.5612029668885091E-4</v>
+        <v>1.5612238706154969E-4</v>
       </c>
       <c r="AG13" s="4">
-        <v>1.5738653521205881E-4</v>
+        <v>1.5738878412910082E-4</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -17059,91 +17021,91 @@
         <v>3.8258341226368855E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>3.0425177990638558E-4</v>
+        <v>3.0142368171836523E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>3.1369602145278982E-4</v>
+        <v>3.1172129818271576E-4</v>
       </c>
       <c r="G14" s="4">
-        <v>3.1866725580745358E-4</v>
+        <v>3.1835363985033353E-4</v>
       </c>
       <c r="H14" s="4">
-        <v>3.2176784865192677E-4</v>
+        <v>3.2033837375084818E-4</v>
       </c>
       <c r="I14" s="4">
-        <v>3.2673519826153288E-4</v>
+        <v>3.2549922221096792E-4</v>
       </c>
       <c r="J14" s="4">
-        <v>3.3038240919707824E-4</v>
+        <v>3.295473722969369E-4</v>
       </c>
       <c r="K14" s="4">
-        <v>3.3340389823551702E-4</v>
+        <v>3.3241740025221218E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>3.3475402773417714E-4</v>
+        <v>3.3370677288845042E-4</v>
       </c>
       <c r="M14" s="4">
-        <v>3.3555107094994109E-4</v>
+        <v>3.3440244871008089E-4</v>
       </c>
       <c r="N14" s="4">
-        <v>3.3533649804280095E-4</v>
+        <v>3.3395051987863093E-4</v>
       </c>
       <c r="O14" s="4">
-        <v>3.3530916094466514E-4</v>
+        <v>3.3383141706516711E-4</v>
       </c>
       <c r="P14" s="4">
-        <v>3.3543094523282268E-4</v>
+        <v>3.3408465327594978E-4</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.3562165718775656E-4</v>
+        <v>3.345595858643791E-4</v>
       </c>
       <c r="R14" s="4">
-        <v>3.3577393040427292E-4</v>
+        <v>3.348966694935667E-4</v>
       </c>
       <c r="S14" s="4">
-        <v>3.3592389782957394E-4</v>
+        <v>3.3557366647309609E-4</v>
       </c>
       <c r="T14" s="4">
-        <v>3.3615828155893885E-4</v>
+        <v>3.3602582523573836E-4</v>
       </c>
       <c r="U14" s="4">
-        <v>3.3637923107499002E-4</v>
+        <v>3.3666388698891467E-4</v>
       </c>
       <c r="V14" s="4">
-        <v>3.3656727929620473E-4</v>
+        <v>3.3732068502989658E-4</v>
       </c>
       <c r="W14" s="4">
-        <v>3.3676884833871952E-4</v>
+        <v>3.3746813050975096E-4</v>
       </c>
       <c r="X14" s="4">
-        <v>3.3691991114356807E-4</v>
+        <v>3.3798885189704824E-4</v>
       </c>
       <c r="Y14" s="4">
-        <v>3.3705013729136348E-4</v>
+        <v>3.3847429687946325E-4</v>
       </c>
       <c r="Z14" s="4">
-        <v>3.3713686099786852E-4</v>
+        <v>3.3878069228597074E-4</v>
       </c>
       <c r="AA14" s="4">
-        <v>3.3722694633495147E-4</v>
+        <v>3.3797080438273381E-4</v>
       </c>
       <c r="AB14" s="4">
-        <v>3.3729739602263772E-4</v>
+        <v>3.376429310092252E-4</v>
       </c>
       <c r="AC14" s="4">
-        <v>3.3742953237129352E-4</v>
+        <v>3.363987260823569E-4</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.3751721202413692E-4</v>
+        <v>3.3642665619027667E-4</v>
       </c>
       <c r="AE14" s="4">
-        <v>3.3760101841942016E-4</v>
+        <v>3.3643494547201083E-4</v>
       </c>
       <c r="AF14" s="4">
-        <v>3.3764787130259203E-4</v>
+        <v>3.3709147044773473E-4</v>
       </c>
       <c r="AG14" s="4">
-        <v>3.3772719520374359E-4</v>
+        <v>3.3698146219063557E-4</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -17164,91 +17126,91 @@
         <v>1.2294220931562134E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>9.7770537903301043E-4</v>
+        <v>9.6861735722517832E-4</v>
       </c>
       <c r="F15" s="4">
-        <v>1.0080542097404184E-3</v>
+        <v>1.0017084865901805E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0240291452707345E-3</v>
+        <v>1.0230213483456969E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0339928217467291E-3</v>
+        <v>1.0293992404029906E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>1.049955273747318E-3</v>
+        <v>1.0459834960526561E-3</v>
       </c>
       <c r="J15" s="4">
-        <v>1.0616754935969699E-3</v>
+        <v>1.0589921236945474E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>1.0713849719983116E-3</v>
+        <v>1.0682148857461323E-3</v>
       </c>
       <c r="L15" s="4">
-        <v>1.0757235789035442E-3</v>
+        <v>1.0723582520147403E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0782848570647235E-3</v>
+        <v>1.074593788625506E-3</v>
       </c>
       <c r="N15" s="4">
-        <v>1.0775953324691067E-3</v>
+        <v>1.0731415267863651E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>1.0775074853975044E-3</v>
+        <v>1.072758792915696E-3</v>
       </c>
       <c r="P15" s="4">
-        <v>1.0778988361191009E-3</v>
+        <v>1.073572561057083E-3</v>
       </c>
       <c r="Q15" s="4">
-        <v>1.0785116841499065E-3</v>
+        <v>1.0750987448859117E-3</v>
       </c>
       <c r="R15" s="4">
-        <v>1.0790010102695979E-3</v>
+        <v>1.076181954580008E-3</v>
       </c>
       <c r="S15" s="4">
-        <v>1.0794829267876918E-3</v>
+        <v>1.0783574672053691E-3</v>
       </c>
       <c r="T15" s="4">
-        <v>1.0802361129581342E-3</v>
+        <v>1.0798104679225658E-3</v>
       </c>
       <c r="U15" s="4">
-        <v>1.0809461286247785E-3</v>
+        <v>1.0818608631854223E-3</v>
       </c>
       <c r="V15" s="4">
-        <v>1.0815504168148291E-3</v>
+        <v>1.0839714670339978E-3</v>
       </c>
       <c r="W15" s="4">
-        <v>1.0821981538212447E-3</v>
+        <v>1.0844452793443548E-3</v>
       </c>
       <c r="X15" s="4">
-        <v>1.0826835903137368E-3</v>
+        <v>1.0861186043171608E-3</v>
       </c>
       <c r="Y15" s="4">
-        <v>1.0831020687371974E-3</v>
+        <v>1.0876785694574726E-3</v>
       </c>
       <c r="Z15" s="4">
-        <v>1.0833807531687749E-3</v>
+        <v>1.0886631633262268E-3</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.0836702401149649E-3</v>
+        <v>1.086060609087589E-3</v>
       </c>
       <c r="AB15" s="4">
-        <v>1.0838966283997708E-3</v>
+        <v>1.0850069963165487E-3</v>
       </c>
       <c r="AC15" s="4">
-        <v>1.0843212452052544E-3</v>
+        <v>1.0810087753365671E-3</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.0846030015461477E-3</v>
+        <v>1.0810985280300714E-3</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.0848723112720957E-3</v>
+        <v>1.0811251654267114E-3</v>
       </c>
       <c r="AF15" s="4">
-        <v>1.0850228718239992E-3</v>
+        <v>1.0832348917870053E-3</v>
       </c>
       <c r="AG15" s="4">
-        <v>1.0852777771687293E-3</v>
+        <v>1.0828813830425798E-3</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -17881,94 +17843,94 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.0610370953958444E-3</v>
+        <v>1.0651537218300956E-3</v>
       </c>
       <c r="C24">
-        <v>1.1182929641066262E-3</v>
+        <v>1.1224284019762929E-3</v>
       </c>
       <c r="D24">
-        <v>1.1230378075595187E-3</v>
+        <v>1.1269455513578351E-3</v>
       </c>
       <c r="E24">
-        <v>1.1207737467721995E-3</v>
+        <v>1.1242245308637738E-3</v>
       </c>
       <c r="F24">
-        <v>1.1241462933302886E-3</v>
+        <v>1.1268894721575904E-3</v>
       </c>
       <c r="G24">
-        <v>1.1243227034620279E-3</v>
+        <v>1.1267424992084272E-3</v>
       </c>
       <c r="H24">
-        <v>1.1197764855285623E-3</v>
+        <v>1.1230574456002193E-3</v>
       </c>
       <c r="I24">
-        <v>1.1191149559385343E-3</v>
+        <v>1.1224533696127202E-3</v>
       </c>
       <c r="J24">
-        <v>1.1130469624480827E-3</v>
+        <v>1.1166120189157924E-3</v>
       </c>
       <c r="K24">
-        <v>1.1088287076252618E-3</v>
+        <v>1.1127144698319794E-3</v>
       </c>
       <c r="L24">
-        <v>1.1076057889551705E-3</v>
+        <v>1.1115719086369678E-3</v>
       </c>
       <c r="M24">
-        <v>1.1071053032327867E-3</v>
+        <v>1.1112409819840985E-3</v>
       </c>
       <c r="N24">
-        <v>1.1067724143381994E-3</v>
+        <v>1.1111210750704369E-3</v>
       </c>
       <c r="O24">
-        <v>1.1066615139372906E-3</v>
+        <v>1.1111357062600132E-3</v>
       </c>
       <c r="P24">
-        <v>1.1066769292084788E-3</v>
+        <v>1.1110156139927754E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1066795967218581E-3</v>
+        <v>1.1112370971387039E-3</v>
       </c>
       <c r="R24">
-        <v>1.1064406824033406E-3</v>
+        <v>1.1109920646012478E-3</v>
       </c>
       <c r="S24">
-        <v>1.10616658964172E-3</v>
+        <v>1.110899564488414E-3</v>
       </c>
       <c r="T24">
-        <v>1.1060290826740075E-3</v>
+        <v>1.1115462176818545E-3</v>
       </c>
       <c r="U24">
-        <v>1.1055011555537056E-3</v>
+        <v>1.1109319580601127E-3</v>
       </c>
       <c r="V24">
-        <v>1.1050415873555949E-3</v>
+        <v>1.1106256828595543E-3</v>
       </c>
       <c r="W24">
-        <v>1.1045586465345543E-3</v>
+        <v>1.1106130681957952E-3</v>
       </c>
       <c r="X24">
-        <v>1.1038843213708662E-3</v>
+        <v>1.1102624456593719E-3</v>
       </c>
       <c r="Y24">
-        <v>1.1032661366839319E-3</v>
+        <v>1.1095440922558747E-3</v>
       </c>
       <c r="Z24">
-        <v>1.1026899310228654E-3</v>
+        <v>1.1091261805682786E-3</v>
       </c>
       <c r="AA24">
-        <v>1.1033241851303997E-3</v>
+        <v>1.1086288650314837E-3</v>
       </c>
       <c r="AB24">
-        <v>1.1025809057094401E-3</v>
+        <v>1.1080487569819371E-3</v>
       </c>
       <c r="AC24">
-        <v>1.1023701654874632E-3</v>
+        <v>1.1075457897227266E-3</v>
       </c>
       <c r="AD24">
-        <v>1.1025099635140992E-3</v>
+        <v>1.1072147306811096E-3</v>
       </c>
       <c r="AE24">
-        <v>1.1022449653531074E-3</v>
+        <v>1.1069702209669486E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37">
@@ -17976,94 +17938,94 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3.9757641638912632E-4</v>
+        <v>3.9911893888192545E-4</v>
       </c>
       <c r="C25">
-        <v>3.9900747239960505E-4</v>
+        <v>4.0411098714493692E-4</v>
       </c>
       <c r="D25">
-        <v>4.094728037527083E-4</v>
+        <v>4.2748709843156167E-4</v>
       </c>
       <c r="E25">
-        <v>4.1042134222259559E-4</v>
+        <v>4.1956304445033325E-4</v>
       </c>
       <c r="F25">
-        <v>4.2303467685595353E-4</v>
+        <v>4.2990601499772905E-4</v>
       </c>
       <c r="G25">
-        <v>4.2712563186039055E-4</v>
+        <v>4.366631911511573E-4</v>
       </c>
       <c r="H25">
-        <v>4.2901230740863917E-4</v>
+        <v>4.4265102624425575E-4</v>
       </c>
       <c r="I25">
-        <v>4.4013468861937947E-4</v>
+        <v>4.5519306048749734E-4</v>
       </c>
       <c r="J25">
-        <v>4.4145313646605977E-4</v>
+        <v>4.5713245211688393E-4</v>
       </c>
       <c r="K25">
-        <v>4.4134933786440692E-4</v>
+        <v>4.584574763841331E-4</v>
       </c>
       <c r="L25">
-        <v>4.4091962109341271E-4</v>
+        <v>4.585093073682667E-4</v>
       </c>
       <c r="M25">
-        <v>4.4021823423990848E-4</v>
+        <v>4.5842412213073893E-4</v>
       </c>
       <c r="N25">
-        <v>4.4027827540505136E-4</v>
+        <v>4.4327458206099891E-4</v>
       </c>
       <c r="O25">
-        <v>4.4040955993276986E-4</v>
+        <v>4.437905067498901E-4</v>
       </c>
       <c r="P25">
-        <v>4.4116372836744042E-4</v>
+        <v>4.4457158874632984E-4</v>
       </c>
       <c r="Q25">
-        <v>4.4149861084351322E-4</v>
+        <v>4.4601147350991374E-4</v>
       </c>
       <c r="R25">
-        <v>4.4225600784943527E-4</v>
+        <v>4.4675208199797169E-4</v>
       </c>
       <c r="S25">
-        <v>4.4285604557792939E-4</v>
+        <v>4.4693702279476077E-4</v>
       </c>
       <c r="T25">
-        <v>4.4414588143789507E-4</v>
+        <v>4.4936531407190414E-4</v>
       </c>
       <c r="U25">
-        <v>4.4411604405746724E-4</v>
+        <v>4.4963232155542844E-4</v>
       </c>
       <c r="V25">
-        <v>4.4420971921594975E-4</v>
+        <v>4.5043469014192049E-4</v>
       </c>
       <c r="W25">
-        <v>4.4397500702864155E-4</v>
+        <v>4.5177198381203217E-4</v>
       </c>
       <c r="X25">
-        <v>4.4370861117360116E-4</v>
+        <v>4.5212133310713621E-4</v>
       </c>
       <c r="Y25">
-        <v>4.424879140459794E-4</v>
+        <v>4.5140021462886337E-4</v>
       </c>
       <c r="Z25">
-        <v>4.4177355237873966E-4</v>
+        <v>4.509472086354011E-4</v>
       </c>
       <c r="AA25">
-        <v>4.4054153352135982E-4</v>
+        <v>4.5030810702326109E-4</v>
       </c>
       <c r="AB25">
-        <v>4.3982519474178468E-4</v>
+        <v>4.496691798538764E-4</v>
       </c>
       <c r="AC25">
-        <v>4.3880580213641828E-4</v>
+        <v>4.4898867782469448E-4</v>
       </c>
       <c r="AD25">
-        <v>4.4035893908705087E-4</v>
+        <v>4.4843223503428345E-4</v>
       </c>
       <c r="AE25">
-        <v>4.3940968502460365E-4</v>
+        <v>4.4779345412842788E-4</v>
       </c>
     </row>
     <row r="26" spans="1:37">
@@ -18071,94 +18033,94 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>3.4525981498377545E-4</v>
+        <v>3.4830687460058363E-4</v>
       </c>
       <c r="C26">
-        <v>3.5982944807231638E-4</v>
+        <v>3.6160214167983712E-4</v>
       </c>
       <c r="D26">
-        <v>3.6710644959195353E-4</v>
+        <v>3.6858167190947932E-4</v>
       </c>
       <c r="E26">
-        <v>3.7373493890990666E-4</v>
+        <v>3.7489066625736889E-4</v>
       </c>
       <c r="F26">
-        <v>3.9582578415611009E-4</v>
+        <v>3.9695913315051362E-4</v>
       </c>
       <c r="G26">
-        <v>4.3494713071778808E-4</v>
+        <v>4.3612233844583575E-4</v>
       </c>
       <c r="H26">
-        <v>4.4227847691112512E-4</v>
+        <v>4.4500041757942137E-4</v>
       </c>
       <c r="I26">
-        <v>4.5901794912486538E-4</v>
+        <v>4.5879226158980447E-4</v>
       </c>
       <c r="J26">
-        <v>4.6412939868974872E-4</v>
+        <v>4.6314681421182177E-4</v>
       </c>
       <c r="K26">
-        <v>4.6774364798041294E-4</v>
+        <v>4.6660066344185382E-4</v>
       </c>
       <c r="L26">
-        <v>4.6966309910348734E-4</v>
+        <v>4.6854272330465251E-4</v>
       </c>
       <c r="M26">
-        <v>4.7260846794834008E-4</v>
+        <v>4.7105754355615585E-4</v>
       </c>
       <c r="N26">
-        <v>4.7526441798452414E-4</v>
+        <v>4.7415254961591819E-4</v>
       </c>
       <c r="O26">
-        <v>4.7788153153438258E-4</v>
+        <v>4.7723628727582983E-4</v>
       </c>
       <c r="P26">
-        <v>4.8072409114320114E-4</v>
+        <v>4.802527271858826E-4</v>
       </c>
       <c r="Q26">
-        <v>4.8317943716800202E-4</v>
+        <v>4.8416028257775874E-4</v>
       </c>
       <c r="R26">
-        <v>4.8470967915637789E-4</v>
+        <v>4.8665502814236058E-4</v>
       </c>
       <c r="S26">
-        <v>4.8594611468298545E-4</v>
+        <v>4.8861382776678702E-4</v>
       </c>
       <c r="T26">
-        <v>4.8792763254902827E-4</v>
+        <v>4.9338841162161525E-4</v>
       </c>
       <c r="U26">
-        <v>4.8771717870415681E-4</v>
+        <v>4.9426973076044714E-4</v>
       </c>
       <c r="V26">
-        <v>4.8811136392356582E-4</v>
+        <v>4.9538139423009706E-4</v>
       </c>
       <c r="W26">
-        <v>4.8843918429084768E-4</v>
+        <v>4.9737647419392675E-4</v>
       </c>
       <c r="X26">
-        <v>4.8810682276656785E-4</v>
+        <v>4.9800654058372086E-4</v>
       </c>
       <c r="Y26">
-        <v>4.8747689393500613E-4</v>
+        <v>4.9689106018787883E-4</v>
       </c>
       <c r="Z26">
-        <v>4.8672999513277174E-4</v>
+        <v>4.9648933196291757E-4</v>
       </c>
       <c r="AA26">
-        <v>4.8843454079791745E-4</v>
+        <v>4.9590478209228864E-4</v>
       </c>
       <c r="AB26">
-        <v>4.8748772875184347E-4</v>
+        <v>4.9516368613957394E-4</v>
       </c>
       <c r="AC26">
-        <v>4.8711906355556337E-4</v>
+        <v>4.9444704196318246E-4</v>
       </c>
       <c r="AD26">
-        <v>4.8876138897384217E-4</v>
+        <v>4.9407115940909227E-4</v>
       </c>
       <c r="AE26">
-        <v>4.8839502633604009E-4</v>
+        <v>4.93783574212444E-4</v>
       </c>
     </row>
     <row r="27" spans="1:37">
@@ -18166,94 +18128,94 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>3.8826950759574409E-4</v>
+        <v>3.897759210147641E-4</v>
       </c>
       <c r="C27">
-        <v>3.989339915927411E-4</v>
+        <v>4.0158883221306802E-4</v>
       </c>
       <c r="D27">
-        <v>4.0175941665032688E-4</v>
+        <v>4.0426283185010417E-4</v>
       </c>
       <c r="E27">
-        <v>4.046076403132251E-4</v>
+        <v>4.061117715768132E-4</v>
       </c>
       <c r="F27">
-        <v>4.1514273478187707E-4</v>
+        <v>4.1578570329468671E-4</v>
       </c>
       <c r="G27">
-        <v>4.1963901427461011E-4</v>
+        <v>4.2237139757805961E-4</v>
       </c>
       <c r="H27">
-        <v>4.2143164929997338E-4</v>
+        <v>4.2535675359099174E-4</v>
       </c>
       <c r="I27">
-        <v>4.2796953665692094E-4</v>
+        <v>4.3040115771698613E-4</v>
       </c>
       <c r="J27">
-        <v>4.2869137838688967E-4</v>
+        <v>4.3143119054688342E-4</v>
       </c>
       <c r="K27">
-        <v>4.2889294118354267E-4</v>
+        <v>4.3194960613176663E-4</v>
       </c>
       <c r="L27">
-        <v>4.2958514978309507E-4</v>
+        <v>4.3318526389889232E-4</v>
       </c>
       <c r="M27">
-        <v>4.3016225956684587E-4</v>
+        <v>4.3390643544617653E-4</v>
       </c>
       <c r="N27">
-        <v>4.314632453320266E-4</v>
+        <v>4.3514204792657744E-4</v>
       </c>
       <c r="O27">
-        <v>4.3270248083989658E-4</v>
+        <v>4.3627561299142533E-4</v>
       </c>
       <c r="P27">
-        <v>4.3430279078009501E-4</v>
+        <v>4.3792144179291597E-4</v>
       </c>
       <c r="Q27">
-        <v>4.3530324098676928E-4</v>
+        <v>4.3905251685357112E-4</v>
       </c>
       <c r="R27">
-        <v>4.3666804491927715E-4</v>
+        <v>4.4018431785412387E-4</v>
       </c>
       <c r="S27">
-        <v>4.3784695384923824E-4</v>
+        <v>4.4090456712501388E-4</v>
       </c>
       <c r="T27">
-        <v>4.3919387063071915E-4</v>
+        <v>4.424475670945303E-4</v>
       </c>
       <c r="U27">
-        <v>4.3965998782187011E-4</v>
+        <v>4.4296164651609708E-4</v>
       </c>
       <c r="V27">
-        <v>4.4023054662472997E-4</v>
+        <v>4.4368166983080668E-4</v>
       </c>
       <c r="W27">
-        <v>4.4040065556194612E-4</v>
+        <v>4.4429838265796167E-4</v>
       </c>
       <c r="X27">
-        <v>4.4071018775672388E-4</v>
+        <v>4.4460656595849752E-4</v>
       </c>
       <c r="Y27">
-        <v>4.4012557028617579E-4</v>
+        <v>4.4440016569049107E-4</v>
       </c>
       <c r="Z27">
-        <v>4.3984103857540357E-4</v>
+        <v>4.4398833740685862E-4</v>
       </c>
       <c r="AA27">
-        <v>4.3927502996579274E-4</v>
+        <v>4.4357572082188003E-4</v>
       </c>
       <c r="AB27">
-        <v>4.3896293494925283E-4</v>
+        <v>4.4316327532414667E-4</v>
       </c>
       <c r="AC27">
-        <v>4.3836887632577525E-4</v>
+        <v>4.4264749510413304E-4</v>
       </c>
       <c r="AD27">
-        <v>4.3967475364455565E-4</v>
+        <v>4.420292955413462E-4</v>
       </c>
       <c r="AE27">
-        <v>4.3902895392029714E-4</v>
+        <v>4.4161699269217362E-4</v>
       </c>
     </row>
     <row r="28" spans="1:37">
@@ -18261,94 +18223,94 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.2864085446168573E-4</v>
+        <v>6.3107986396508285E-4</v>
       </c>
       <c r="C28">
-        <v>5.8065173143116884E-4</v>
+        <v>5.8195533448245258E-4</v>
       </c>
       <c r="D28">
-        <v>5.7715727565658991E-4</v>
+        <v>5.7795438430723045E-4</v>
       </c>
       <c r="E28">
-        <v>5.8939802003144003E-4</v>
+        <v>5.9028583640553388E-4</v>
       </c>
       <c r="F28">
-        <v>6.1132283966645277E-4</v>
+        <v>6.0885514534785316E-4</v>
       </c>
       <c r="G28">
-        <v>6.2116495269514782E-4</v>
+        <v>6.193688365057642E-4</v>
       </c>
       <c r="H28">
-        <v>6.2859863293007745E-4</v>
+        <v>6.2848265606978257E-4</v>
       </c>
       <c r="I28">
-        <v>6.4471041145104213E-4</v>
+        <v>6.4262136468067846E-4</v>
       </c>
       <c r="J28">
-        <v>6.4840312593372079E-4</v>
+        <v>6.4660199890959936E-4</v>
       </c>
       <c r="K28">
-        <v>6.5182617183108646E-4</v>
+        <v>6.5040512299063141E-4</v>
       </c>
       <c r="L28">
-        <v>6.5274851137244263E-4</v>
+        <v>6.5154679247221049E-4</v>
       </c>
       <c r="M28">
-        <v>6.5479808482626608E-4</v>
+        <v>6.5356363394089752E-4</v>
       </c>
       <c r="N28">
-        <v>6.5728685533569657E-4</v>
+        <v>6.5617792072208525E-4</v>
       </c>
       <c r="O28">
-        <v>6.599953694386326E-4</v>
+        <v>6.5898389518843047E-4</v>
       </c>
       <c r="P28">
-        <v>6.6271823685959863E-4</v>
+        <v>6.6161226903322333E-4</v>
       </c>
       <c r="Q28">
-        <v>6.6541147575940635E-4</v>
+        <v>6.6513781034130751E-4</v>
       </c>
       <c r="R28">
-        <v>6.6758238321629323E-4</v>
+        <v>6.6742814064002401E-4</v>
       </c>
       <c r="S28">
-        <v>6.695223998790733E-4</v>
+        <v>6.6896355314557032E-4</v>
       </c>
       <c r="T28">
-        <v>6.7209439570581602E-4</v>
+        <v>6.7263798287110137E-4</v>
       </c>
       <c r="U28">
-        <v>6.7286737744009942E-4</v>
+        <v>6.7378445635127716E-4</v>
       </c>
       <c r="V28">
-        <v>6.7344823507195376E-4</v>
+        <v>6.7492423507937863E-4</v>
       </c>
       <c r="W28">
-        <v>6.73909086850441E-4</v>
+        <v>6.7658946051958461E-4</v>
       </c>
       <c r="X28">
-        <v>6.740064696202369E-4</v>
+        <v>6.7716704526480612E-4</v>
       </c>
       <c r="Y28">
-        <v>6.7364356730673243E-4</v>
+        <v>6.7658459082745731E-4</v>
       </c>
       <c r="Z28">
-        <v>6.7322262507433497E-4</v>
+        <v>6.7632437097835129E-4</v>
       </c>
       <c r="AA28">
-        <v>6.7344500418278937E-4</v>
+        <v>6.7585448203087185E-4</v>
       </c>
       <c r="AB28">
-        <v>6.7281217685356582E-4</v>
+        <v>6.7536924988515574E-4</v>
       </c>
       <c r="AC28">
-        <v>6.7245517568083519E-4</v>
+        <v>6.748680621729285E-4</v>
       </c>
       <c r="AD28">
-        <v>6.7397575425436052E-4</v>
+        <v>6.7449757807139753E-4</v>
       </c>
       <c r="AE28">
-        <v>6.7349435170381685E-4</v>
+        <v>6.739502087484572E-4</v>
       </c>
     </row>
     <row r="29" spans="1:37">
@@ -18356,94 +18318,94 @@
         <v>84</v>
       </c>
       <c r="B29">
-        <v>3.4585801076062443E-4</v>
+        <v>3.4719987546617798E-4</v>
       </c>
       <c r="C29">
-        <v>3.4495574783075341E-4</v>
+        <v>3.2777719604368331E-4</v>
       </c>
       <c r="D29">
-        <v>3.6039991749266362E-4</v>
+        <v>3.6214384787765339E-4</v>
       </c>
       <c r="E29">
-        <v>3.6434083049787565E-4</v>
+        <v>3.6461270746606473E-4</v>
       </c>
       <c r="F29">
-        <v>3.7594665871961683E-4</v>
+        <v>3.747887594132535E-4</v>
       </c>
       <c r="G29">
-        <v>3.8265282942463545E-4</v>
+        <v>3.8239555240961062E-4</v>
       </c>
       <c r="H29">
-        <v>3.8491153807264589E-4</v>
+        <v>3.8753125116748399E-4</v>
       </c>
       <c r="I29">
-        <v>3.948653271158722E-4</v>
+        <v>3.9672763441530906E-4</v>
       </c>
       <c r="J29">
-        <v>3.9594612256427204E-4</v>
+        <v>3.9874129042803111E-4</v>
       </c>
       <c r="K29">
-        <v>3.9619175896624695E-4</v>
+        <v>3.994538739259529E-4</v>
       </c>
       <c r="L29">
-        <v>3.9654376773871745E-4</v>
+        <v>4.0022054245411495E-4</v>
       </c>
       <c r="M29">
-        <v>3.9707573055230652E-4</v>
+        <v>4.0101029973131684E-4</v>
       </c>
       <c r="N29">
-        <v>3.9834863581642401E-4</v>
+        <v>4.0217726118198851E-4</v>
       </c>
       <c r="O29">
-        <v>3.9959695124185265E-4</v>
+        <v>4.0208799357791593E-4</v>
       </c>
       <c r="P29">
-        <v>4.0092020917552979E-4</v>
+        <v>4.0335303084931915E-4</v>
       </c>
       <c r="Q29">
-        <v>4.0164593001903277E-4</v>
+        <v>4.0455626869468915E-4</v>
       </c>
       <c r="R29">
-        <v>4.025864972614837E-4</v>
+        <v>4.0459411118690656E-4</v>
       </c>
       <c r="S29">
-        <v>4.0337312378417004E-4</v>
+        <v>4.0474352351982943E-4</v>
       </c>
       <c r="T29">
-        <v>4.0442495213179318E-4</v>
+        <v>4.0635212595311986E-4</v>
       </c>
       <c r="U29">
-        <v>4.0454932437130627E-4</v>
+        <v>4.0584229094101093E-4</v>
       </c>
       <c r="V29">
-        <v>4.0464803339247029E-4</v>
+        <v>4.0621064249474778E-4</v>
       </c>
       <c r="W29">
-        <v>4.0439328301694171E-4</v>
+        <v>4.0594846700934628E-4</v>
       </c>
       <c r="X29">
-        <v>4.040545754555679E-4</v>
+        <v>4.0589244942562674E-4</v>
       </c>
       <c r="Y29">
-        <v>4.0293590438237893E-4</v>
+        <v>4.0455429888687787E-4</v>
       </c>
       <c r="Z29">
-        <v>4.0211529090881346E-4</v>
+        <v>4.0383365040445965E-4</v>
       </c>
       <c r="AA29">
-        <v>4.0078697353040108E-4</v>
+        <v>4.0258434184038249E-4</v>
       </c>
       <c r="AB29">
-        <v>4.0014215791000135E-4</v>
+        <v>4.0185627177515644E-4</v>
       </c>
       <c r="AC29">
-        <v>3.9916649340924858E-4</v>
+        <v>4.0048017413156782E-4</v>
       </c>
       <c r="AD29">
-        <v>3.9985648048380197E-4</v>
+        <v>3.9916338985711942E-4</v>
       </c>
       <c r="AE29">
-        <v>3.9882869849444967E-4</v>
+        <v>3.9808437745813028E-4</v>
       </c>
     </row>
     <row r="30" spans="1:37">
@@ -18451,94 +18413,94 @@
         <v>85</v>
       </c>
       <c r="B30">
-        <v>5.5949994465194052E-4</v>
+        <v>5.6167070029480241E-4</v>
       </c>
       <c r="C30">
-        <v>5.490709016341414E-4</v>
+        <v>5.5168278693407634E-4</v>
       </c>
       <c r="D30">
-        <v>5.4591562691943185E-4</v>
+        <v>5.4900272020794627E-4</v>
       </c>
       <c r="E30">
-        <v>5.4428202142592678E-4</v>
+        <v>5.4786485382301642E-4</v>
       </c>
       <c r="F30">
-        <v>5.4687829275625965E-4</v>
+        <v>5.502289141149048E-4</v>
       </c>
       <c r="G30">
-        <v>5.4645085655929157E-4</v>
+        <v>5.5043135823784649E-4</v>
       </c>
       <c r="H30">
-        <v>5.4701855850944456E-4</v>
+        <v>5.5218141971492731E-4</v>
       </c>
       <c r="I30">
-        <v>5.5159545353608997E-4</v>
+        <v>5.566082419937202E-4</v>
       </c>
       <c r="J30">
-        <v>5.5116986450326347E-4</v>
+        <v>5.565060883074331E-4</v>
       </c>
       <c r="K30">
-        <v>5.5082515994957833E-4</v>
+        <v>5.5630497415063557E-4</v>
       </c>
       <c r="L30">
-        <v>5.5045116908780244E-4</v>
+        <v>5.5609952366488023E-4</v>
       </c>
       <c r="M30">
-        <v>5.5016894781847396E-4</v>
+        <v>5.5610025249827892E-4</v>
       </c>
       <c r="N30">
-        <v>5.5030632856499669E-4</v>
+        <v>5.5651239912256388E-4</v>
       </c>
       <c r="O30">
-        <v>5.5080345075069956E-4</v>
+        <v>5.5723451937767464E-4</v>
       </c>
       <c r="P30">
-        <v>5.5167571643641449E-4</v>
+        <v>5.5826233635237045E-4</v>
       </c>
       <c r="Q30">
-        <v>5.5236107717376317E-4</v>
+        <v>5.5949599744411702E-4</v>
       </c>
       <c r="R30">
-        <v>5.5273978734272802E-4</v>
+        <v>5.6011292643692423E-4</v>
       </c>
       <c r="S30">
-        <v>5.5274410279881891E-4</v>
+        <v>5.6052425122477261E-4</v>
       </c>
       <c r="T30">
-        <v>5.5289670193281145E-4</v>
+        <v>5.614492859314956E-4</v>
       </c>
       <c r="U30">
-        <v>5.5265714178147211E-4</v>
+        <v>5.616543675091392E-4</v>
       </c>
       <c r="V30">
-        <v>5.5244896195009953E-4</v>
+        <v>5.6206541004088248E-4</v>
       </c>
       <c r="W30">
-        <v>5.5221137170350255E-4</v>
+        <v>5.4895792391519216E-4</v>
       </c>
       <c r="X30">
-        <v>5.5188530920952062E-4</v>
+        <v>5.4891513695215261E-4</v>
       </c>
       <c r="Y30">
-        <v>5.5130828970691593E-4</v>
+        <v>5.489144993067554E-4</v>
       </c>
       <c r="Z30">
-        <v>5.5089526377585969E-4</v>
+        <v>5.4875413847349443E-4</v>
       </c>
       <c r="AA30">
-        <v>5.5094868459087108E-4</v>
+        <v>5.4875308809484741E-4</v>
       </c>
       <c r="AB30">
-        <v>5.5070873103541993E-4</v>
+        <v>5.4875224761511332E-4</v>
       </c>
       <c r="AC30">
-        <v>5.5038144396247959E-4</v>
+        <v>5.4847112881740024E-4</v>
       </c>
       <c r="AD30">
-        <v>5.5068737415113456E-4</v>
+        <v>5.4857067619700785E-4</v>
       </c>
       <c r="AE30">
-        <v>5.5020714130888889E-4</v>
+        <v>5.4867023963861789E-4</v>
       </c>
     </row>
   </sheetData>
@@ -19196,7 +19158,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>3.4525981498377545E-4</v>
+        <v>3.4830687460058363E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19328,8 +19290,8 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="15" max="15" width="11.36328125" customWidth="1"/>
-    <col min="39" max="39" width="9.08984375" style="26"/>
-    <col min="40" max="40" width="8.7265625" style="30"/>
+    <col min="39" max="39" width="9.08984375"/>
+    <col min="40" max="40" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19441,10 +19403,10 @@
       <c r="AL1">
         <v>2018</v>
       </c>
-      <c r="AM1" s="26">
+      <c r="AM1">
         <v>2019</v>
       </c>
-      <c r="AN1" s="31">
+      <c r="AN1" s="27">
         <v>2020</v>
       </c>
       <c r="AO1">
@@ -19575,175 +19537,175 @@
       </c>
       <c r="AB2" s="4">
         <f>($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AA2</f>
-        <v>3.1646485830016252E-4</v>
+        <v>3.1668250541564883E-4</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" ref="AC2:AN2" si="0">($AO$2-$AA$2)/COUNT($AB$1:$AO$1)+AB2</f>
-        <v>3.1867985496813274E-4</v>
+        <v>3.1911514919910535E-4</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2089485163610296E-4</v>
+        <v>3.2154779298256187E-4</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2310984830407317E-4</v>
+        <v>3.239804367660184E-4</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2532484497204339E-4</v>
+        <v>3.2641308054947492E-4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2753984164001361E-4</v>
+        <v>3.2884572433293144E-4</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2975483830798382E-4</v>
+        <v>3.3127836811638797E-4</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3196983497595404E-4</v>
+        <v>3.3371101189984449E-4</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3418483164392426E-4</v>
+        <v>3.3614365568330101E-4</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3639982831189447E-4</v>
+        <v>3.3857629946675754E-4</v>
       </c>
       <c r="AL2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3861482497986469E-4</v>
+        <v>3.4100894325021406E-4</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" si="0"/>
-        <v>3.4082982164783491E-4</v>
-      </c>
-      <c r="AN2" s="32">
-        <f t="shared" si="0"/>
-        <v>3.4304481831580512E-4</v>
+        <v>3.4344158703367058E-4</v>
+      </c>
+      <c r="AN2" s="28">
+        <f t="shared" si="0"/>
+        <v>3.4587423081712711E-4</v>
       </c>
       <c r="AO2" s="10">
         <f>BNVFE!D8</f>
-        <v>3.4525981498377545E-4</v>
+        <v>3.4830687460058363E-4</v>
       </c>
       <c r="AP2" s="10">
         <f>BNVFE!E8</f>
-        <v>3.5982944807231638E-4</v>
+        <v>3.6160214167983712E-4</v>
       </c>
       <c r="AQ2" s="10">
         <f>BNVFE!F8</f>
-        <v>3.6710644959195353E-4</v>
+        <v>3.6858167190947932E-4</v>
       </c>
       <c r="AR2" s="10">
         <f>BNVFE!G8</f>
-        <v>3.7373493890990666E-4</v>
+        <v>3.7489066625736889E-4</v>
       </c>
       <c r="AS2" s="10">
         <f>BNVFE!H8</f>
-        <v>3.9582578415611009E-4</v>
+        <v>3.9695913315051362E-4</v>
       </c>
       <c r="AT2" s="10">
         <f>BNVFE!I8</f>
-        <v>4.3494713071778808E-4</v>
+        <v>4.3612233844583575E-4</v>
       </c>
       <c r="AU2" s="10">
         <f>BNVFE!J8</f>
-        <v>4.4227847691112512E-4</v>
+        <v>4.4500041757942137E-4</v>
       </c>
       <c r="AV2" s="10">
         <f>BNVFE!K8</f>
-        <v>4.5901794912486538E-4</v>
+        <v>4.5879226158980447E-4</v>
       </c>
       <c r="AW2" s="10">
         <f>BNVFE!L8</f>
-        <v>4.6412939868974872E-4</v>
+        <v>4.6314681421182177E-4</v>
       </c>
       <c r="AX2" s="10">
         <f>BNVFE!M8</f>
-        <v>4.6774364798041294E-4</v>
+        <v>4.6660066344185382E-4</v>
       </c>
       <c r="AY2" s="10">
         <f>BNVFE!N8</f>
-        <v>4.6966309910348734E-4</v>
+        <v>4.6854272330465251E-4</v>
       </c>
       <c r="AZ2" s="10">
         <f>BNVFE!O8</f>
-        <v>4.7260846794834008E-4</v>
+        <v>4.7105754355615585E-4</v>
       </c>
       <c r="BA2" s="10">
         <f>BNVFE!P8</f>
-        <v>4.7526441798452414E-4</v>
+        <v>4.7415254961591819E-4</v>
       </c>
       <c r="BB2" s="10">
         <f>BNVFE!Q8</f>
-        <v>4.7788153153438258E-4</v>
+        <v>4.7723628727582983E-4</v>
       </c>
       <c r="BC2" s="10">
         <f>BNVFE!R8</f>
-        <v>4.8072409114320114E-4</v>
+        <v>4.802527271858826E-4</v>
       </c>
       <c r="BD2" s="10">
         <f>BNVFE!S8</f>
-        <v>4.8317943716800202E-4</v>
+        <v>4.8416028257775874E-4</v>
       </c>
       <c r="BE2" s="10">
         <f>BNVFE!T8</f>
-        <v>4.8470967915637789E-4</v>
+        <v>4.8665502814236058E-4</v>
       </c>
       <c r="BF2" s="10">
         <f>BNVFE!U8</f>
-        <v>4.8594611468298545E-4</v>
+        <v>4.8861382776678702E-4</v>
       </c>
       <c r="BG2" s="10">
         <f>BNVFE!V8</f>
-        <v>4.8792763254902827E-4</v>
+        <v>4.9338841162161525E-4</v>
       </c>
       <c r="BH2" s="10">
         <f>BNVFE!W8</f>
-        <v>4.8771717870415681E-4</v>
+        <v>4.9426973076044714E-4</v>
       </c>
       <c r="BI2" s="10">
         <f>BNVFE!X8</f>
-        <v>4.8811136392356582E-4</v>
+        <v>4.9538139423009706E-4</v>
       </c>
       <c r="BJ2" s="10">
         <f>BNVFE!Y8</f>
-        <v>4.8843918429084768E-4</v>
+        <v>4.9737647419392675E-4</v>
       </c>
       <c r="BK2" s="10">
         <f>BNVFE!Z8</f>
-        <v>4.8810682276656785E-4</v>
+        <v>4.9800654058372086E-4</v>
       </c>
       <c r="BL2" s="10">
         <f>BNVFE!AA8</f>
-        <v>4.8747689393500613E-4</v>
+        <v>4.9689106018787883E-4</v>
       </c>
       <c r="BM2" s="10">
         <f>BNVFE!AB8</f>
-        <v>4.8672999513277174E-4</v>
+        <v>4.9648933196291757E-4</v>
       </c>
       <c r="BN2" s="10">
         <f>BNVFE!AC8</f>
-        <v>4.8843454079791745E-4</v>
+        <v>4.9590478209228864E-4</v>
       </c>
       <c r="BO2" s="10">
         <f>BNVFE!AD8</f>
-        <v>4.8748772875184347E-4</v>
+        <v>4.9516368613957394E-4</v>
       </c>
       <c r="BP2" s="10">
         <f>BNVFE!AE8</f>
-        <v>4.8711906355556337E-4</v>
+        <v>4.9444704196318246E-4</v>
       </c>
       <c r="BQ2" s="10">
         <f>BNVFE!AF8</f>
-        <v>4.8876138897384217E-4</v>
+        <v>4.9407115940909227E-4</v>
       </c>
       <c r="BR2" s="10">
         <f>BNVFE!AG8</f>
-        <v>4.8839502633604009E-4</v>
+        <v>4.93783574212444E-4</v>
       </c>
       <c r="BS2" s="10"/>
       <c r="BT2" s="4"/>
@@ -19781,179 +19743,179 @@
       <c r="Z3" s="9"/>
       <c r="AA3" s="4" cm="1">
         <f t="array" ref="AA3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AA1)</f>
-        <v>7.3575373200645937E-5</v>
+        <v>7.6652414119346424E-5</v>
       </c>
       <c r="AB3" s="4" cm="1">
         <f t="array" ref="AB3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AB1)</f>
-        <v>7.5969911473123923E-5</v>
+        <v>7.8854781968962402E-5</v>
       </c>
       <c r="AC3" s="4" cm="1">
         <f t="array" ref="AC3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AC1)</f>
-        <v>7.8364449745602777E-5</v>
+        <v>8.1057149818577513E-5</v>
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" ref="AD3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AD1)</f>
-        <v>8.0758988018080763E-5</v>
+        <v>8.3259517668192624E-5</v>
       </c>
       <c r="AE3" s="4" cm="1">
         <f t="array" ref="AE3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AE1)</f>
-        <v>8.3153526290558749E-5</v>
+        <v>8.5461885517807736E-5</v>
       </c>
       <c r="AF3" s="4" cm="1">
         <f t="array" ref="AF3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AF1)</f>
-        <v>8.5548064563036735E-5</v>
+        <v>8.7664253367423714E-5</v>
       </c>
       <c r="AG3" s="4" cm="1">
         <f t="array" ref="AG3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AG1)</f>
-        <v>8.7942602835515589E-5</v>
+        <v>8.9866621217038825E-5</v>
       </c>
       <c r="AH3" s="4" cm="1">
         <f t="array" ref="AH3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AH1)</f>
-        <v>9.0337141107993575E-5</v>
+        <v>9.2068989066653936E-5</v>
       </c>
       <c r="AI3" s="4" cm="1">
         <f t="array" ref="AI3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AI1)</f>
-        <v>9.2731679380471561E-5</v>
+        <v>9.4271356916269047E-5</v>
       </c>
       <c r="AJ3" s="4" cm="1">
         <f t="array" ref="AJ3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AJ1)</f>
-        <v>9.5126217652950415E-5</v>
+        <v>9.6473724765885026E-5</v>
       </c>
       <c r="AK3" s="4" cm="1">
         <f t="array" ref="AK3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AK1)</f>
-        <v>9.7520755925428401E-5</v>
+        <v>9.8676092615500137E-5</v>
       </c>
       <c r="AL3" s="4" cm="1">
         <f t="array" ref="AL3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AL1)</f>
-        <v>9.9915294197906387E-5</v>
-      </c>
-      <c r="AM3" s="28" cm="1">
+        <v>1.0087846046511525E-4</v>
+      </c>
+      <c r="AM3" s="4" cm="1">
         <f t="array" ref="AM3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AM1)</f>
-        <v>1.0230983247038524E-4</v>
-      </c>
-      <c r="AN3" s="32" cm="1">
+        <v>1.0308082831473036E-4</v>
+      </c>
+      <c r="AN3" s="28" cm="1">
         <f t="array" ref="AN3">TREND($AO$3:$AS$3,$AO$1:$AS$1,AN1)</f>
-        <v>1.0470437074286323E-4</v>
+        <v>1.0528319616434634E-4</v>
       </c>
       <c r="AO3" s="10">
         <f>BNVFE!D9</f>
-        <v>1.0529501805499055E-4</v>
+        <v>1.0570354312598104E-4</v>
       </c>
       <c r="AP3" s="10">
         <f>BNVFE!E9</f>
-        <v>1.1144423550851376E-4</v>
+        <v>1.1151821777353393E-4</v>
       </c>
       <c r="AQ3" s="10">
         <f>BNVFE!F9</f>
-        <v>1.1252624988260881E-4</v>
+        <v>1.1272384639783163E-4</v>
       </c>
       <c r="AR3" s="10">
         <f>BNVFE!G9</f>
-        <v>1.1436919436747496E-4</v>
+        <v>1.1406280001558269E-4</v>
       </c>
       <c r="AS3" s="10">
         <f>BNVFE!H9</f>
-        <v>1.1580522998790115E-4</v>
+        <v>1.1544309125303334E-4</v>
       </c>
       <c r="AT3" s="10">
         <f>BNVFE!I9</f>
-        <v>1.1529086528558249E-4</v>
+        <v>1.1565634494376903E-4</v>
       </c>
       <c r="AU3" s="10">
         <f>BNVFE!J9</f>
-        <v>1.1501098830414369E-4</v>
+        <v>1.1575112135735473E-4</v>
       </c>
       <c r="AV3" s="10">
         <f>BNVFE!K9</f>
-        <v>1.1315384464245806E-4</v>
+        <v>1.1388555713902243E-4</v>
       </c>
       <c r="AW3" s="10">
         <f>BNVFE!L9</f>
-        <v>1.1216087457402847E-4</v>
+        <v>1.1244961636238372E-4</v>
       </c>
       <c r="AX3" s="10">
         <f>BNVFE!M9</f>
-        <v>1.1097506551069121E-4</v>
+        <v>1.1150667111195052E-4</v>
       </c>
       <c r="AY3" s="10">
         <f>BNVFE!N9</f>
-        <v>1.0983553102881708E-4</v>
+        <v>1.103320813633094E-4</v>
       </c>
       <c r="AZ3" s="10">
         <f>BNVFE!O9</f>
-        <v>1.0850113384225401E-4</v>
+        <v>1.0882449127149132E-4</v>
       </c>
       <c r="BA3" s="10">
         <f>BNVFE!P9</f>
-        <v>1.0724235631077596E-4</v>
+        <v>1.0748860772417935E-4</v>
       </c>
       <c r="BB3" s="10">
         <f>BNVFE!Q9</f>
-        <v>1.0612536727802149E-4</v>
+        <v>1.062886246945594E-4</v>
       </c>
       <c r="BC3" s="10">
         <f>BNVFE!R9</f>
-        <v>1.050634808536377E-4</v>
+        <v>1.0545396634254317E-4</v>
       </c>
       <c r="BD3" s="10">
         <f>BNVFE!S9</f>
-        <v>1.0410327800869383E-4</v>
+        <v>1.0430981720917382E-4</v>
       </c>
       <c r="BE3" s="10">
         <f>BNVFE!T9</f>
-        <v>1.032361899593437E-4</v>
+        <v>1.0339985361922795E-4</v>
       </c>
       <c r="BF3" s="10">
         <f>BNVFE!U9</f>
-        <v>1.024363463286552E-4</v>
+        <v>1.0251605894253303E-4</v>
       </c>
       <c r="BG3" s="10">
         <f>BNVFE!V9</f>
-        <v>1.0170865606461284E-4</v>
+        <v>1.0184812914206304E-4</v>
       </c>
       <c r="BH3" s="10">
         <f>BNVFE!W9</f>
-        <v>1.0106965036059089E-4</v>
+        <v>1.01388283796425E-4</v>
       </c>
       <c r="BI3" s="10">
         <f>BNVFE!X9</f>
-        <v>1.005123319830317E-4</v>
+        <v>1.0083050459953973E-4</v>
       </c>
       <c r="BJ3" s="10">
         <f>BNVFE!Y9</f>
-        <v>1.000375741870971E-4</v>
+        <v>1.0047938671642447E-4</v>
       </c>
       <c r="BK3" s="10">
         <f>BNVFE!Z9</f>
-        <v>9.9568102999683008E-5</v>
+        <v>9.9934408455342122E-5</v>
       </c>
       <c r="BL3" s="10">
         <f>BNVFE!AA9</f>
-        <v>9.9140546156358924E-5</v>
+        <v>9.955140044451973E-5</v>
       </c>
       <c r="BM3" s="10">
         <f>BNVFE!AB9</f>
-        <v>9.8807453359239314E-5</v>
+        <v>9.9238534560627426E-5</v>
       </c>
       <c r="BN3" s="10">
         <f>BNVFE!AC9</f>
-        <v>9.8490058732321348E-5</v>
+        <v>9.9078621665242005E-5</v>
       </c>
       <c r="BO3" s="10">
         <f>BNVFE!AD9</f>
-        <v>9.781265991059014E-5</v>
+        <v>9.8451458036568441E-5</v>
       </c>
       <c r="BP3" s="10">
         <f>BNVFE!AE9</f>
-        <v>9.7588616277155286E-5</v>
+        <v>9.8359346860691412E-5</v>
       </c>
       <c r="BQ3" s="10">
         <f>BNVFE!AF9</f>
-        <v>9.7453217349190637E-5</v>
+        <v>9.8169947612884335E-5</v>
       </c>
       <c r="BR3" s="10">
         <f>BNVFE!AG9</f>
-        <v>9.7355430800053337E-5</v>
+        <v>9.7981650932638814E-5</v>
       </c>
       <c r="BS3" s="10"/>
       <c r="BT3" s="4"/>
@@ -19976,239 +19938,239 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>1.052889605102206E-3</v>
+        <v>1.0528896051022064E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0451332581922484E-3</v>
+        <v>1.045307415794386E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0373769112822907E-3</v>
+        <v>1.0377252264865658E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0296205643723331E-3</v>
+        <v>1.0301430371787454E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0218642174623755E-3</v>
+        <v>1.022560847870925E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0141078705524179E-3</v>
+        <v>1.0149786585631048E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0063515236424603E-3</v>
+        <v>1.0073964692552844E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9859517673250267E-4</v>
+        <v>9.9981427994746421E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9083882982254506E-4</v>
+        <v>9.9223209063964402E-4</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>9.8308248291258745E-4</v>
+        <v>9.8464990133182361E-4</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>9.7532613600262994E-4</v>
+        <v>9.7706771202400343E-4</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>9.6756978909267222E-4</v>
+        <v>9.6948552271618313E-4</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>9.598134421827146E-4</v>
+        <v>9.6190333340836283E-4</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>9.5205709527275688E-4</v>
+        <v>9.5432114410054253E-4</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>9.4430074836279916E-4</v>
+        <v>9.4673895479272224E-4</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>9.3654440145284144E-4</v>
+        <v>9.3915676548490194E-4</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>9.2878805454288383E-4</v>
-      </c>
-      <c r="AM4" s="27">
+        <v>9.3157457617708175E-4</v>
+      </c>
+      <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>9.210317076329261E-4</v>
-      </c>
-      <c r="AN4" s="33">
+        <v>9.2399238686926145E-4</v>
+      </c>
+      <c r="AN4" s="29">
         <f>AN5/AO5*AO4</f>
-        <v>9.1327536072296849E-4</v>
+        <v>9.1641019756144115E-4</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
-        <v>8.9776266690305456E-4</v>
+        <v>9.0124581894580023E-4</v>
       </c>
       <c r="AP4" s="10">
         <f>BNVFE!E10</f>
-        <v>9.5673289585827825E-4</v>
+        <v>9.650167161298855E-4</v>
       </c>
       <c r="AQ4" s="10">
         <f>BNVFE!F10</f>
-        <v>9.8680726498129984E-4</v>
+        <v>9.9382318526809103E-4</v>
       </c>
       <c r="AR4" s="10">
         <f>BNVFE!G10</f>
-        <v>1.0176904065504315E-3</v>
+        <v>1.0226296544062967E-3</v>
       </c>
       <c r="AS4" s="10">
         <f>BNVFE!H10</f>
-        <v>1.0466752213084077E-3</v>
+        <v>1.0514361235445021E-3</v>
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>1.0741412024466357E-3</v>
+        <v>1.0802425926827077E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
-        <v>1.0983268989591029E-3</v>
+        <v>1.1090490618209132E-3</v>
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>1.1086185534440985E-3</v>
+        <v>1.1090490618209132E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
-        <v>1.124229712490382E-3</v>
+        <v>1.1234522963900159E-3</v>
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>1.1403265367362543E-3</v>
+        <v>1.1378555309591186E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>1.155452604485696E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
-        <v>1.1644587168175703E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>1.1652597415765967E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>1.16535443552984E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>1.1653409488152869E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
-        <v>1.165355439859647E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BE4" s="10">
         <f>BNVFE!T10</f>
-        <v>1.1653168448999163E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BF4" s="10">
         <f>BNVFE!U10</f>
-        <v>1.1652422375428154E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>1.1649634642834944E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>1.1648623139243481E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
-        <v>1.1646699130284403E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>1.1638663057070523E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>1.1633489323806957E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>1.1633911142325949E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
-        <v>1.1635189510694735E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BN4" s="10">
         <f>BNVFE!AC10</f>
-        <v>1.1638059024429383E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BO4" s="10">
         <f>BNVFE!AD10</f>
-        <v>1.164147948480108E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BP4" s="10">
         <f>BNVFE!AE10</f>
-        <v>1.1645869840815088E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BQ4" s="10">
         <f>BNVFE!AF10</f>
-        <v>1.1649339082920275E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BR4" s="10">
         <f>BNVFE!AG10</f>
-        <v>1.1653449661345157E-3</v>
+        <v>1.1666620000973242E-3</v>
       </c>
       <c r="BS4" s="10"/>
       <c r="BT4" s="4"/>
@@ -20275,195 +20237,195 @@
       </c>
       <c r="W5" s="4">
         <f>($AO$5-$V$5)/COUNT($V$1:$AO$1)+V5</f>
-        <v>7.7465574559714486E-4</v>
+        <v>7.747848317075309E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AN5" si="3">($AO$5-$V$5)/COUNT($V$1:$AO$1)+W5</f>
-        <v>7.6890671919161628E-4</v>
+        <v>7.6916489141238837E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="3"/>
-        <v>7.631576927860877E-4</v>
+        <v>7.6354495111724584E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5740866638055913E-4</v>
+        <v>7.5792501082210331E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="3"/>
-        <v>7.5165963997503055E-4</v>
+        <v>7.5230507052696078E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="3"/>
-        <v>7.4591061356950197E-4</v>
+        <v>7.4668513023181825E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="3"/>
-        <v>7.401615871639734E-4</v>
+        <v>7.4106518993667572E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="3"/>
-        <v>7.3441256075844482E-4</v>
+        <v>7.3544524964153318E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="3"/>
-        <v>7.2866353435291624E-4</v>
+        <v>7.2982530934639065E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="3"/>
-        <v>7.2291450794738767E-4</v>
+        <v>7.2420536905124812E-4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="3"/>
-        <v>7.1716548154185909E-4</v>
+        <v>7.1858542875610559E-4</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="3"/>
-        <v>7.1141645513633051E-4</v>
+        <v>7.1296548846096306E-4</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="3"/>
-        <v>7.0566742873080194E-4</v>
+        <v>7.0734554816582053E-4</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>6.9991840232527336E-4</v>
+        <v>7.01725607870678E-4</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="3"/>
-        <v>6.9416937591974478E-4</v>
+        <v>6.9610566757553546E-4</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="3"/>
-        <v>6.8842034951421621E-4</v>
+        <v>6.9048572728039293E-4</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>6.8267132310868763E-4</v>
-      </c>
-      <c r="AN5" s="32">
+        <v>6.848657869852504E-4</v>
+      </c>
+      <c r="AN5" s="28">
         <f t="shared" si="3"/>
-        <v>6.7692229670315905E-4</v>
+        <v>6.7924584669010787E-4</v>
       </c>
       <c r="AO5" s="10">
         <f>BNVFE!D11</f>
-        <v>6.6542424389210287E-4</v>
+        <v>6.6800596609982259E-4</v>
       </c>
       <c r="AP5" s="10">
         <f>BNVFE!E11</f>
-        <v>7.0913314543290544E-4</v>
+        <v>7.1527313659536663E-4</v>
       </c>
       <c r="AQ5" s="10">
         <f>BNVFE!F11</f>
-        <v>7.3142435342360217E-4</v>
+        <v>7.366245735086612E-4</v>
       </c>
       <c r="AR5" s="10">
         <f>BNVFE!G11</f>
-        <v>7.543150258532582E-4</v>
+        <v>7.5797601042195567E-4</v>
       </c>
       <c r="AS5" s="10">
         <f>BNVFE!H11</f>
-        <v>7.7579865304752845E-4</v>
+        <v>7.7932744733525013E-4</v>
       </c>
       <c r="AT5" s="10">
         <f>BNVFE!I11</f>
-        <v>7.9615651643998519E-4</v>
+        <v>8.006788842485447E-4</v>
       </c>
       <c r="AU5" s="10">
         <f>BNVFE!J11</f>
-        <v>8.1408302353158624E-4</v>
+        <v>8.2203032116183927E-4</v>
       </c>
       <c r="AV5" s="10">
         <f>BNVFE!K11</f>
-        <v>8.2171122712764496E-4</v>
+        <v>8.2203032116183927E-4</v>
       </c>
       <c r="AW5" s="10">
         <f>BNVFE!L11</f>
-        <v>8.3328226264473481E-4</v>
+        <v>8.3270603961848645E-4</v>
       </c>
       <c r="AX5" s="10">
         <f>BNVFE!M11</f>
-        <v>8.4521327459004475E-4</v>
+        <v>8.4338175807513373E-4</v>
       </c>
       <c r="AY5" s="10">
         <f>BNVFE!N11</f>
-        <v>8.5642475905726393E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="AZ5" s="10">
         <f>BNVFE!O11</f>
-        <v>8.6310011515055977E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BA5" s="10">
         <f>BNVFE!P11</f>
-        <v>8.6369383698180137E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BB5" s="10">
         <f>BNVFE!Q11</f>
-        <v>8.6376402440946029E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BC5" s="10">
         <f>BNVFE!R11</f>
-        <v>8.6375402801824809E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BD5" s="10">
         <f>BNVFE!S11</f>
-        <v>8.6376476882157177E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BE5" s="10">
         <f>BNVFE!T11</f>
-        <v>8.637361621275715E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BF5" s="10">
         <f>BNVFE!U11</f>
-        <v>8.6368086294214322E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BG5" s="10">
         <f>BNVFE!V11</f>
-        <v>8.6347423540889901E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BH5" s="10">
         <f>BNVFE!W11</f>
-        <v>8.6339926247480886E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BI5" s="10">
         <f>BNVFE!X11</f>
-        <v>8.6325665438315657E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BJ5" s="10">
         <f>BNVFE!Y11</f>
-        <v>8.6266101834934225E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BK5" s="10">
         <f>BNVFE!Z11</f>
-        <v>8.6227753976731521E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BL5" s="10">
         <f>BNVFE!AA11</f>
-        <v>8.6230880507599957E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BM5" s="10">
         <f>BNVFE!AB11</f>
-        <v>8.6240355810333913E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BN5" s="10">
         <f>BNVFE!AC11</f>
-        <v>8.6261624727806301E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BO5" s="10">
         <f>BNVFE!AD11</f>
-        <v>8.6286977277433372E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BP5" s="10">
         <f>BNVFE!AE11</f>
-        <v>8.631951872116613E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BQ5" s="10">
         <f>BNVFE!AF11</f>
-        <v>8.6345232842390234E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BR5" s="10">
         <f>BNVFE!AG11</f>
-        <v>8.6375700566669437E-4</v>
+        <v>8.6473319498842831E-4</v>
       </c>
       <c r="BS5" s="10"/>
       <c r="BT5" s="4"/>
@@ -20490,103 +20452,103 @@
       <c r="O6" s="9"/>
       <c r="P6" s="4">
         <f>TREND($AO6:$BR6,$AO$1:$BR$1,P$1)</f>
-        <v>3.6477582444760862E-4</v>
+        <v>3.6476611443946733E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:AN6" si="4">TREND($AO6:$BR6,$AO$1:$BR$1,Q$1)</f>
-        <v>3.6924210537594114E-4</v>
+        <v>3.6923310839950818E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="4"/>
-        <v>3.7370838630427367E-4</v>
+        <v>3.7370010235954904E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>3.7817466723260619E-4</v>
+        <v>3.7816709631958989E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8264094816093872E-4</v>
+        <v>3.8263409027963075E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="4"/>
-        <v>3.8710722908927124E-4</v>
+        <v>3.871010842396716E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9157351001760377E-4</v>
+        <v>3.9156807819971245E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9603979094593629E-4</v>
+        <v>3.9603507215975331E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0050607187427055E-4</v>
+        <v>4.0050206611979416E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="4"/>
-        <v>4.0497235280260307E-4</v>
+        <v>4.0496906007983502E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>4.094386337309356E-4</v>
+        <v>4.0943605403987414E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1390491465926812E-4</v>
+        <v>4.1390304799991499E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="4"/>
-        <v>4.1837119558760065E-4</v>
+        <v>4.1837004195995585E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="4"/>
-        <v>4.2283747651593317E-4</v>
+        <v>4.228370359199967E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="4"/>
-        <v>4.273037574442657E-4</v>
+        <v>4.2730402988003756E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3177003837259822E-4</v>
+        <v>4.3177102384007841E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="4"/>
-        <v>4.3623631930093248E-4</v>
+        <v>4.3623801780011927E-4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4070260022926501E-4</v>
+        <v>4.4070501176016012E-4</v>
       </c>
       <c r="AH6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4516888115759753E-4</v>
+        <v>4.4517200572020098E-4</v>
       </c>
       <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>4.4963516208593006E-4</v>
+        <v>4.4963899968024183E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5410144301426258E-4</v>
+        <v>4.5410599364028269E-4</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
-        <v>4.5856772394259511E-4</v>
+        <v>4.5857298760032354E-4</v>
       </c>
       <c r="AL6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6303400487092763E-4</v>
+        <v>4.630399815603644E-4</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="4"/>
-        <v>4.6750028579926016E-4</v>
-      </c>
-      <c r="AN6" s="32">
+        <v>4.6750697552040525E-4</v>
+      </c>
+      <c r="AN6" s="28">
         <f t="shared" si="4"/>
-        <v>4.7196656672759442E-4</v>
+        <v>4.7197396948044611E-4</v>
       </c>
       <c r="AO6" s="10">
         <f>BNVFE!D12</f>
@@ -20598,115 +20560,115 @@
       </c>
       <c r="AQ6" s="10">
         <f>BNVFE!F12</f>
-        <v>4.8921998710643375E-4</v>
+        <v>4.8922014105028545E-4</v>
       </c>
       <c r="AR6" s="10">
         <f>BNVFE!G12</f>
-        <v>4.9190101299003374E-4</v>
+        <v>4.9189284057946775E-4</v>
       </c>
       <c r="AS6" s="10">
         <f>BNVFE!H12</f>
-        <v>4.9542113995717802E-4</v>
+        <v>4.9539892519004575E-4</v>
       </c>
       <c r="AT6" s="10">
         <f>BNVFE!I12</f>
-        <v>4.9986988301106759E-4</v>
+        <v>4.9987723215668713E-4</v>
       </c>
       <c r="AU6" s="10">
         <f>BNVFE!J12</f>
-        <v>5.0287276532946161E-4</v>
+        <v>5.0289880861325534E-4</v>
       </c>
       <c r="AV6" s="10">
         <f>BNVFE!K12</f>
-        <v>5.0595413893262775E-4</v>
+        <v>5.0598569742224141E-4</v>
       </c>
       <c r="AW6" s="10">
         <f>BNVFE!L12</f>
-        <v>5.0884478279665643E-4</v>
+        <v>5.0887098002430175E-4</v>
       </c>
       <c r="AX6" s="10">
         <f>BNVFE!M12</f>
-        <v>5.119795213707006E-4</v>
+        <v>5.1198437394863697E-4</v>
       </c>
       <c r="AY6" s="10">
         <f>BNVFE!N12</f>
-        <v>5.1547238019644789E-4</v>
+        <v>5.1546436172973371E-4</v>
       </c>
       <c r="AZ6" s="10">
         <f>BNVFE!O12</f>
-        <v>5.1939959494658151E-4</v>
+        <v>5.1938723258596303E-4</v>
       </c>
       <c r="BA6" s="10">
         <f>BNVFE!P12</f>
-        <v>5.2385538595159798E-4</v>
+        <v>5.238518117769525E-4</v>
       </c>
       <c r="BB6" s="10">
         <f>BNVFE!Q12</f>
-        <v>5.2863988054620715E-4</v>
+        <v>5.2865755062310644E-4</v>
       </c>
       <c r="BC6" s="10">
         <f>BNVFE!R12</f>
-        <v>5.3365366446821735E-4</v>
+        <v>5.3369727073753512E-4</v>
       </c>
       <c r="BD6" s="10">
         <f>BNVFE!S12</f>
-        <v>5.3873132839550293E-4</v>
+        <v>5.3878310707538668E-4</v>
       </c>
       <c r="BE6" s="10">
         <f>BNVFE!T12</f>
-        <v>5.4389687418251878E-4</v>
+        <v>5.4394645748921189E-4</v>
       </c>
       <c r="BF6" s="10">
         <f>BNVFE!U12</f>
-        <v>5.4916761047277285E-4</v>
+        <v>5.4921959664219581E-4</v>
       </c>
       <c r="BG6" s="10">
         <f>BNVFE!V12</f>
-        <v>5.5429541993647113E-4</v>
+        <v>5.5434066604247091E-4</v>
       </c>
       <c r="BH6" s="10">
         <f>BNVFE!W12</f>
-        <v>5.5951744303745529E-4</v>
+        <v>5.5956396754674575E-4</v>
       </c>
       <c r="BI6" s="10">
         <f>BNVFE!X12</f>
-        <v>5.6478859430678801E-4</v>
+        <v>5.6485819700742275E-4</v>
       </c>
       <c r="BJ6" s="10">
         <f>BNVFE!Y12</f>
-        <v>5.7006883495658647E-4</v>
+        <v>5.7013628913650722E-4</v>
       </c>
       <c r="BK6" s="10">
         <f>BNVFE!Z12</f>
-        <v>5.754422651823958E-4</v>
+        <v>5.7549052323332159E-4</v>
       </c>
       <c r="BL6" s="10">
         <f>BNVFE!AA12</f>
-        <v>5.8073000892166549E-4</v>
+        <v>5.807540107761204E-4</v>
       </c>
       <c r="BM6" s="10">
         <f>BNVFE!AB12</f>
-        <v>5.8599012977935815E-4</v>
+        <v>5.8599666235324222E-4</v>
       </c>
       <c r="BN6" s="10">
         <f>BNVFE!AC12</f>
-        <v>5.9115169310586062E-4</v>
+        <v>5.9115000641670205E-4</v>
       </c>
       <c r="BO6" s="10">
         <f>BNVFE!AD12</f>
-        <v>5.9630590059353268E-4</v>
+        <v>5.9628981680762768E-4</v>
       </c>
       <c r="BP6" s="10">
         <f>BNVFE!AE12</f>
-        <v>6.0138341057696656E-4</v>
+        <v>6.0137391291063304E-4</v>
       </c>
       <c r="BQ6" s="10">
         <f>BNVFE!AF12</f>
-        <v>6.063605759418874E-4</v>
+        <v>6.0636869480676565E-4</v>
       </c>
       <c r="BR6" s="10">
         <f>BNVFE!AG12</f>
-        <v>6.1127855993561744E-4</v>
+        <v>6.1128729457590291E-4</v>
       </c>
       <c r="BS6" s="10"/>
       <c r="BT6" s="4"/>
@@ -20733,103 +20695,103 @@
       <c r="O7" s="9"/>
       <c r="P7" s="4">
         <f>TREND($AO7:$BR7,$AO$1:$BR$1,P$1)-($AR7-$AO7)</f>
-        <v>9.4180042176871583E-5</v>
+        <v>9.4179646290003293E-5</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" ref="Q7:AN7" si="5">TREND($AO7:$BR7,$AO$1:$BR$1,Q$1)-($AR7-$AO7)</f>
-        <v>9.5329980235664321E-5</v>
+        <v>9.5329767933821684E-5</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="5"/>
-        <v>9.6479918294457059E-5</v>
+        <v>9.6479889577639642E-5</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="5"/>
-        <v>9.7629856353249796E-5</v>
+        <v>9.7630011221458033E-5</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="5"/>
-        <v>9.8779794412042534E-5</v>
+        <v>9.8780132865276425E-5</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="5"/>
-        <v>9.9929732470835272E-5</v>
+        <v>9.9930254509094816E-5</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0107967052962801E-4</v>
+        <v>1.0108037615291277E-4</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0222960858842075E-4</v>
+        <v>1.0223049779673117E-4</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0337954664721348E-4</v>
+        <v>1.0338061944054956E-4</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0452948470600622E-4</v>
+        <v>1.0453074108436751E-4</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0567942276479896E-4</v>
+        <v>1.0568086272818591E-4</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="5"/>
-        <v>1.068293608235917E-4</v>
+        <v>1.068309843720043E-4</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0797929888238444E-4</v>
+        <v>1.0798110601582269E-4</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="5"/>
-        <v>1.0912923694117717E-4</v>
+        <v>1.0913122765964065E-4</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1027917499996991E-4</v>
+        <v>1.1028134930345904E-4</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1142911305876265E-4</v>
+        <v>1.1143147094727743E-4</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1257905111755582E-4</v>
+        <v>1.1258159259109582E-4</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1372898917634856E-4</v>
+        <v>1.1373171423491378E-4</v>
       </c>
       <c r="AH7" s="4">
         <f t="shared" si="5"/>
-        <v>1.148789272351413E-4</v>
+        <v>1.1488183587873217E-4</v>
       </c>
       <c r="AI7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1602886529393403E-4</v>
+        <v>1.1603195752255056E-4</v>
       </c>
       <c r="AJ7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1717880335272677E-4</v>
+        <v>1.1718207916636895E-4</v>
       </c>
       <c r="AK7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1832874141151951E-4</v>
+        <v>1.1833220081018691E-4</v>
       </c>
       <c r="AL7" s="4">
         <f t="shared" si="5"/>
-        <v>1.1947867947031225E-4</v>
+        <v>1.194823224540053E-4</v>
       </c>
       <c r="AM7" s="4">
         <f t="shared" si="5"/>
-        <v>1.2062861752910498E-4</v>
-      </c>
-      <c r="AN7" s="32">
+        <v>1.2063244409782369E-4</v>
+      </c>
+      <c r="AN7" s="28">
         <f t="shared" si="5"/>
-        <v>1.2177855558789772E-4</v>
+        <v>1.2178256574164165E-4</v>
       </c>
       <c r="AO7" s="10">
         <f>BNVFE!D13</f>
@@ -20841,115 +20803,115 @@
       </c>
       <c r="AQ7" s="10">
         <f>BNVFE!F13</f>
-        <v>1.2595998579645803E-4</v>
+        <v>1.2596002543254384E-4</v>
       </c>
       <c r="AR7" s="10">
         <f>BNVFE!G13</f>
-        <v>1.2665027235693891E-4</v>
+        <v>1.2664816819777546E-4</v>
       </c>
       <c r="AS7" s="10">
         <f>BNVFE!H13</f>
-        <v>1.2755660315794673E-4</v>
+        <v>1.2755088349843531E-4</v>
       </c>
       <c r="AT7" s="10">
         <f>BNVFE!I13</f>
-        <v>1.2870202572171891E-4</v>
+        <v>1.2870391791398872E-4</v>
       </c>
       <c r="AU7" s="10">
         <f>BNVFE!J13</f>
-        <v>1.2947518099775437E-4</v>
+        <v>1.2948188638948652E-4</v>
       </c>
       <c r="AV7" s="10">
         <f>BNVFE!K13</f>
-        <v>1.3026854550762248E-4</v>
+        <v>1.3027667090521102E-4</v>
       </c>
       <c r="AW7" s="10">
         <f>BNVFE!L13</f>
-        <v>1.3101280263049523E-4</v>
+        <v>1.3101954765831314E-4</v>
       </c>
       <c r="AX7" s="10">
         <f>BNVFE!M13</f>
-        <v>1.3181990707567052E-4</v>
+        <v>1.3182115647402719E-4</v>
       </c>
       <c r="AY7" s="10">
         <f>BNVFE!N13</f>
-        <v>1.3271921711956793E-4</v>
+        <v>1.3271715259649026E-4</v>
       </c>
       <c r="AZ7" s="10">
         <f>BNVFE!O13</f>
-        <v>1.3373036124119772E-4</v>
+        <v>1.3372717829117736E-4</v>
       </c>
       <c r="BA7" s="10">
         <f>BNVFE!P13</f>
-        <v>1.3487759844837616E-4</v>
+        <v>1.3487667820186243E-4</v>
       </c>
       <c r="BB7" s="10">
         <f>BNVFE!Q13</f>
-        <v>1.3610946731527324E-4</v>
+        <v>1.3611401684859956E-4</v>
       </c>
       <c r="BC7" s="10">
         <f>BNVFE!R13</f>
-        <v>1.3740037154700389E-4</v>
+        <v>1.3741159889913313E-4</v>
       </c>
       <c r="BD7" s="10">
         <f>BNVFE!S13</f>
-        <v>1.3870772303103255E-4</v>
+        <v>1.3872105454232523E-4</v>
       </c>
       <c r="BE7" s="10">
         <f>BNVFE!T13</f>
-        <v>1.4003770155012751E-4</v>
+        <v>1.4005046781637054E-4</v>
       </c>
       <c r="BF7" s="10">
         <f>BNVFE!U13</f>
-        <v>1.4139476357897884E-4</v>
+        <v>1.414081485128219E-4</v>
       </c>
       <c r="BG7" s="10">
         <f>BNVFE!V13</f>
-        <v>1.4271502608712908E-4</v>
+        <v>1.4272667564973747E-4</v>
       </c>
       <c r="BH7" s="10">
         <f>BNVFE!W13</f>
-        <v>1.4405954587978759E-4</v>
+        <v>1.4407152459423888E-4</v>
       </c>
       <c r="BI7" s="10">
         <f>BNVFE!X13</f>
-        <v>1.4541671475373977E-4</v>
+        <v>1.4543463543444457E-4</v>
       </c>
       <c r="BJ7" s="10">
         <f>BNVFE!Y13</f>
-        <v>1.467762238800621E-4</v>
+        <v>1.4679359137887381E-4</v>
       </c>
       <c r="BK7" s="10">
         <f>BNVFE!Z13</f>
-        <v>1.481597266247567E-4</v>
+        <v>1.4817215167600025E-4</v>
       </c>
       <c r="BL7" s="10">
         <f>BNVFE!AA13</f>
-        <v>1.4952116757943466E-4</v>
+        <v>1.4952734736220293E-4</v>
       </c>
       <c r="BM7" s="10">
         <f>BNVFE!AB13</f>
-        <v>1.5087549644167401E-4</v>
+        <v>1.5087717839035834E-4</v>
       </c>
       <c r="BN7" s="10">
         <f>BNVFE!AC13</f>
-        <v>1.5220444959246246E-4</v>
+        <v>1.5220401531882677E-4</v>
       </c>
       <c r="BO7" s="10">
         <f>BNVFE!AD13</f>
-        <v>1.5353150882767299E-4</v>
+        <v>1.5352736771836114E-4</v>
       </c>
       <c r="BP7" s="10">
         <f>BNVFE!AE13</f>
-        <v>1.5483882067561587E-4</v>
+        <v>1.5483637530145294E-4</v>
       </c>
       <c r="BQ7" s="10">
         <f>BNVFE!AF13</f>
-        <v>1.5612029668885091E-4</v>
+        <v>1.5612238706154969E-4</v>
       </c>
       <c r="BR7" s="10">
         <f>BNVFE!AG13</f>
-        <v>1.5738653521205881E-4</v>
+        <v>1.5738878412910082E-4</v>
       </c>
       <c r="BS7" s="10"/>
       <c r="BT7" s="4"/>
@@ -20966,143 +20928,143 @@
       <c r="E8" s="9"/>
       <c r="F8" s="4">
         <f>TREND($AO8:$AT8,$AO$1:$AT$1,F$1)</f>
-        <v>5.6550914138770239E-4</v>
+        <v>5.6455812757791844E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:AN9" si="6">TREND($AO8:$AT8,$AO$1:$AT$1,G$1)</f>
-        <v>5.5917423769000218E-4</v>
+        <v>5.5821399807796067E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>5.5283933399230198E-4</v>
+        <v>5.5186986857800116E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="6"/>
-        <v>5.4650443029460177E-4</v>
+        <v>5.4552573907804339E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="6"/>
-        <v>5.401695265969033E-4</v>
+        <v>5.3918160957808561E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="6"/>
-        <v>5.338346228992031E-4</v>
+        <v>5.3283748007812784E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2749971920150289E-4</v>
+        <v>5.2649335057816833E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>5.2116481550380268E-4</v>
+        <v>5.2014922107821056E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>5.1482991180610421E-4</v>
+        <v>5.1380509157825278E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>5.0849500810840401E-4</v>
+        <v>5.0746096207829501E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
-        <v>5.021601044107038E-4</v>
+        <v>5.011168325783355E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="6"/>
-        <v>4.9582520071300533E-4</v>
+        <v>4.9477270307837773E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8949029701530512E-4</v>
+        <v>4.8842857357841996E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>4.8315539331760492E-4</v>
+        <v>4.8208444407846218E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7682048961990471E-4</v>
+        <v>4.7574031457850441E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>4.7048558592220624E-4</v>
+        <v>4.693961850785449E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="6"/>
-        <v>4.6415068222450603E-4</v>
+        <v>4.6305205557858713E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5781577852680583E-4</v>
+        <v>4.5670792607862935E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>4.5148087482910562E-4</v>
+        <v>4.5036379657867158E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="6"/>
-        <v>4.4514597113140715E-4</v>
+        <v>4.4401966707871207E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3881106743370694E-4</v>
+        <v>4.376755375787543E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="6"/>
-        <v>4.3247616373600674E-4</v>
+        <v>4.3133140807879652E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="6"/>
-        <v>4.2614126003830653E-4</v>
+        <v>4.2498727857883875E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1980635634060806E-4</v>
+        <v>4.1864314907887924E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="6"/>
-        <v>4.1347145264290786E-4</v>
+        <v>4.1229901957892147E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0713654894520765E-4</v>
+        <v>4.059548900789637E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="6"/>
-        <v>4.0080164524750744E-4</v>
+        <v>3.9961076057900592E-4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="6"/>
-        <v>3.9446674154980897E-4</v>
+        <v>3.9326663107904641E-4</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8813183785210877E-4</v>
+        <v>3.8692250157908864E-4</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" si="6"/>
-        <v>3.8179693415440856E-4</v>
+        <v>3.8057837207913087E-4</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="6"/>
-        <v>3.7546203045671009E-4</v>
+        <v>3.7423424257917309E-4</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6912712675900988E-4</v>
+        <v>3.6789011307921358E-4</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" si="6"/>
-        <v>3.6279222306130968E-4</v>
+        <v>3.6154598357925581E-4</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="6"/>
-        <v>3.5645731936360947E-4</v>
-      </c>
-      <c r="AN8" s="32">
+        <v>3.5520185407929804E-4</v>
+      </c>
+      <c r="AN8" s="28">
         <f t="shared" si="6"/>
-        <v>3.50122415665911E-4</v>
+        <v>3.4885772457934026E-4</v>
       </c>
       <c r="AO8" s="10">
         <f>BNVFE!D14</f>
@@ -21110,119 +21072,119 @@
       </c>
       <c r="AP8" s="10">
         <f>BNVFE!E14</f>
-        <v>3.0425177990638558E-4</v>
+        <v>3.0142368171836523E-4</v>
       </c>
       <c r="AQ8" s="10">
         <f>BNVFE!F14</f>
-        <v>3.1369602145278982E-4</v>
+        <v>3.1172129818271576E-4</v>
       </c>
       <c r="AR8" s="10">
         <f>BNVFE!G14</f>
-        <v>3.1866725580745358E-4</v>
+        <v>3.1835363985033353E-4</v>
       </c>
       <c r="AS8" s="10">
         <f>BNVFE!H14</f>
-        <v>3.2176784865192677E-4</v>
+        <v>3.2033837375084818E-4</v>
       </c>
       <c r="AT8" s="10">
         <f>BNVFE!I14</f>
-        <v>3.2673519826153288E-4</v>
+        <v>3.2549922221096792E-4</v>
       </c>
       <c r="AU8" s="10">
         <f>BNVFE!J14</f>
-        <v>3.3038240919707824E-4</v>
+        <v>3.295473722969369E-4</v>
       </c>
       <c r="AV8" s="10">
         <f>BNVFE!K14</f>
-        <v>3.3340389823551702E-4</v>
+        <v>3.3241740025221218E-4</v>
       </c>
       <c r="AW8" s="10">
         <f>BNVFE!L14</f>
-        <v>3.3475402773417714E-4</v>
+        <v>3.3370677288845042E-4</v>
       </c>
       <c r="AX8" s="10">
         <f>BNVFE!M14</f>
-        <v>3.3555107094994109E-4</v>
+        <v>3.3440244871008089E-4</v>
       </c>
       <c r="AY8" s="10">
         <f>BNVFE!N14</f>
-        <v>3.3533649804280095E-4</v>
+        <v>3.3395051987863093E-4</v>
       </c>
       <c r="AZ8" s="10">
         <f>BNVFE!O14</f>
-        <v>3.3530916094466514E-4</v>
+        <v>3.3383141706516711E-4</v>
       </c>
       <c r="BA8" s="10">
         <f>BNVFE!P14</f>
-        <v>3.3543094523282268E-4</v>
+        <v>3.3408465327594978E-4</v>
       </c>
       <c r="BB8" s="10">
         <f>BNVFE!Q14</f>
-        <v>3.3562165718775656E-4</v>
+        <v>3.345595858643791E-4</v>
       </c>
       <c r="BC8" s="10">
         <f>BNVFE!R14</f>
-        <v>3.3577393040427292E-4</v>
+        <v>3.348966694935667E-4</v>
       </c>
       <c r="BD8" s="10">
         <f>BNVFE!S14</f>
-        <v>3.3592389782957394E-4</v>
+        <v>3.3557366647309609E-4</v>
       </c>
       <c r="BE8" s="10">
         <f>BNVFE!T14</f>
-        <v>3.3615828155893885E-4</v>
+        <v>3.3602582523573836E-4</v>
       </c>
       <c r="BF8" s="10">
         <f>BNVFE!U14</f>
-        <v>3.3637923107499002E-4</v>
+        <v>3.3666388698891467E-4</v>
       </c>
       <c r="BG8" s="10">
         <f>BNVFE!V14</f>
-        <v>3.3656727929620473E-4</v>
+        <v>3.3732068502989658E-4</v>
       </c>
       <c r="BH8" s="10">
         <f>BNVFE!W14</f>
-        <v>3.3676884833871952E-4</v>
+        <v>3.3746813050975096E-4</v>
       </c>
       <c r="BI8" s="10">
         <f>BNVFE!X14</f>
-        <v>3.3691991114356807E-4</v>
+        <v>3.3798885189704824E-4</v>
       </c>
       <c r="BJ8" s="10">
         <f>BNVFE!Y14</f>
-        <v>3.3705013729136348E-4</v>
+        <v>3.3847429687946325E-4</v>
       </c>
       <c r="BK8" s="10">
         <f>BNVFE!Z14</f>
-        <v>3.3713686099786852E-4</v>
+        <v>3.3878069228597074E-4</v>
       </c>
       <c r="BL8" s="10">
         <f>BNVFE!AA14</f>
-        <v>3.3722694633495147E-4</v>
+        <v>3.3797080438273381E-4</v>
       </c>
       <c r="BM8" s="10">
         <f>BNVFE!AB14</f>
-        <v>3.3729739602263772E-4</v>
+        <v>3.376429310092252E-4</v>
       </c>
       <c r="BN8" s="10">
         <f>BNVFE!AC14</f>
-        <v>3.3742953237129352E-4</v>
+        <v>3.363987260823569E-4</v>
       </c>
       <c r="BO8" s="10">
         <f>BNVFE!AD14</f>
-        <v>3.3751721202413692E-4</v>
+        <v>3.3642665619027667E-4</v>
       </c>
       <c r="BP8" s="10">
         <f>BNVFE!AE14</f>
-        <v>3.3760101841942016E-4</v>
+        <v>3.3643494547201083E-4</v>
       </c>
       <c r="BQ8" s="10">
         <f>BNVFE!AF14</f>
-        <v>3.3764787130259203E-4</v>
+        <v>3.3709147044773473E-4</v>
       </c>
       <c r="BR8" s="10">
         <f>BNVFE!AG14</f>
-        <v>3.3772719520374359E-4</v>
+        <v>3.3698146219063557E-4</v>
       </c>
       <c r="BS8" s="10"/>
       <c r="BT8" s="4"/>
@@ -21239,143 +21201,143 @@
       <c r="E9" s="9"/>
       <c r="F9" s="19">
         <f>TREND($AO9:$AT9,$AO$1:$AT$1,F$1)</f>
-        <v>1.817249284777292E-3</v>
+        <v>1.8141932260168497E-3</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="6"/>
-        <v>1.7968922323952086E-3</v>
+        <v>1.7938065267531708E-3</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="6"/>
-        <v>1.7765351800131182E-3</v>
+        <v>1.7734198274894919E-3</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="6"/>
-        <v>1.7561781276310348E-3</v>
+        <v>1.753033128225806E-3</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="6"/>
-        <v>1.7358210752489514E-3</v>
+        <v>1.7326464289621271E-3</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" si="6"/>
-        <v>1.7154640228668611E-3</v>
+        <v>1.7122597296984482E-3</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="6"/>
-        <v>1.6951069704847777E-3</v>
+        <v>1.6918730304347623E-3</v>
       </c>
       <c r="M9" s="19">
         <f t="shared" si="6"/>
-        <v>1.6747499181026873E-3</v>
+        <v>1.6714863311710834E-3</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="6"/>
-        <v>1.6543928657206039E-3</v>
+        <v>1.6510996319074045E-3</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="6"/>
-        <v>1.6340358133385205E-3</v>
+        <v>1.6307129326437256E-3</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="6"/>
-        <v>1.6136787609564301E-3</v>
+        <v>1.6103262333800397E-3</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="6"/>
-        <v>1.5933217085743467E-3</v>
+        <v>1.5899395341163608E-3</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="6"/>
-        <v>1.5729646561922633E-3</v>
+        <v>1.5695528348526819E-3</v>
       </c>
       <c r="S9" s="19">
         <f t="shared" si="6"/>
-        <v>1.552607603810173E-3</v>
+        <v>1.549166135588996E-3</v>
       </c>
       <c r="T9" s="19">
         <f t="shared" si="6"/>
-        <v>1.5322505514280896E-3</v>
+        <v>1.5287794363253171E-3</v>
       </c>
       <c r="U9" s="19">
         <f t="shared" si="6"/>
-        <v>1.5118934990460062E-3</v>
+        <v>1.5083927370616382E-3</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" si="6"/>
-        <v>1.4915364466639158E-3</v>
+        <v>1.4880060377979523E-3</v>
       </c>
       <c r="W9" s="19">
         <f t="shared" si="6"/>
-        <v>1.4711793942818324E-3</v>
+        <v>1.4676193385342734E-3</v>
       </c>
       <c r="X9" s="19">
         <f t="shared" si="6"/>
-        <v>1.450822341899749E-3</v>
+        <v>1.4472326392705945E-3</v>
       </c>
       <c r="Y9" s="19">
         <f t="shared" si="6"/>
-        <v>1.4304652895176587E-3</v>
+        <v>1.4268459400069156E-3</v>
       </c>
       <c r="Z9" s="19">
         <f t="shared" si="6"/>
-        <v>1.4101082371355753E-3</v>
+        <v>1.4064592407432297E-3</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" si="6"/>
-        <v>1.3897511847534849E-3</v>
+        <v>1.3860725414795508E-3</v>
       </c>
       <c r="AB9" s="19">
         <f t="shared" si="6"/>
-        <v>1.3693941323714015E-3</v>
+        <v>1.3656858422158719E-3</v>
       </c>
       <c r="AC9" s="19">
         <f t="shared" si="6"/>
-        <v>1.3490370799893181E-3</v>
+        <v>1.345299142952186E-3</v>
       </c>
       <c r="AD9" s="19">
         <f t="shared" si="6"/>
-        <v>1.3286800276072278E-3</v>
+        <v>1.3249124436885071E-3</v>
       </c>
       <c r="AE9" s="19">
         <f t="shared" si="6"/>
-        <v>1.3083229752251443E-3</v>
+        <v>1.3045257444248282E-3</v>
       </c>
       <c r="AF9" s="19">
         <f t="shared" si="6"/>
-        <v>1.2879659228430609E-3</v>
+        <v>1.2841390451611492E-3</v>
       </c>
       <c r="AG9" s="19">
         <f t="shared" si="6"/>
-        <v>1.2676088704609706E-3</v>
+        <v>1.2637523458974634E-3</v>
       </c>
       <c r="AH9" s="19">
         <f t="shared" si="6"/>
-        <v>1.2472518180788872E-3</v>
+        <v>1.2433656466337845E-3</v>
       </c>
       <c r="AI9" s="19">
         <f t="shared" si="6"/>
-        <v>1.2268947656968038E-3</v>
+        <v>1.2229789473701055E-3</v>
       </c>
       <c r="AJ9" s="19">
         <f t="shared" si="6"/>
-        <v>1.2065377133147134E-3</v>
+        <v>1.2025922481064197E-3</v>
       </c>
       <c r="AK9" s="19">
         <f t="shared" si="6"/>
-        <v>1.18618066093263E-3</v>
+        <v>1.1822055488427408E-3</v>
       </c>
       <c r="AL9" s="19">
         <f t="shared" si="6"/>
-        <v>1.1658236085505466E-3</v>
+        <v>1.1618188495790618E-3</v>
       </c>
       <c r="AM9" s="19">
         <f t="shared" si="6"/>
-        <v>1.1454665561684563E-3</v>
-      </c>
-      <c r="AN9" s="33">
+        <v>1.1414321503153829E-3</v>
+      </c>
+      <c r="AN9" s="29">
         <f t="shared" si="6"/>
-        <v>1.1251095037863729E-3</v>
+        <v>1.1210454510516971E-3</v>
       </c>
       <c r="AO9" s="10">
         <f>BNVFE!D15</f>
@@ -21383,119 +21345,119 @@
       </c>
       <c r="AP9" s="10">
         <f>BNVFE!E15</f>
-        <v>9.7770537903301043E-4</v>
+        <v>9.6861735722517832E-4</v>
       </c>
       <c r="AQ9" s="10">
         <f>BNVFE!F15</f>
-        <v>1.0080542097404184E-3</v>
+        <v>1.0017084865901805E-3</v>
       </c>
       <c r="AR9" s="10">
         <f>BNVFE!G15</f>
-        <v>1.0240291452707345E-3</v>
+        <v>1.0230213483456969E-3</v>
       </c>
       <c r="AS9" s="10">
         <f>BNVFE!H15</f>
-        <v>1.0339928217467291E-3</v>
+        <v>1.0293992404029906E-3</v>
       </c>
       <c r="AT9" s="10">
         <f>BNVFE!I15</f>
-        <v>1.049955273747318E-3</v>
+        <v>1.0459834960526561E-3</v>
       </c>
       <c r="AU9" s="10">
         <f>BNVFE!J15</f>
-        <v>1.0616754935969699E-3</v>
+        <v>1.0589921236945474E-3</v>
       </c>
       <c r="AV9" s="10">
         <f>BNVFE!K15</f>
-        <v>1.0713849719983116E-3</v>
+        <v>1.0682148857461323E-3</v>
       </c>
       <c r="AW9" s="10">
         <f>BNVFE!L15</f>
-        <v>1.0757235789035442E-3</v>
+        <v>1.0723582520147403E-3</v>
       </c>
       <c r="AX9" s="10">
         <f>BNVFE!M15</f>
-        <v>1.0782848570647235E-3</v>
+        <v>1.074593788625506E-3</v>
       </c>
       <c r="AY9" s="10">
         <f>BNVFE!N15</f>
-        <v>1.0775953324691067E-3</v>
+        <v>1.0731415267863651E-3</v>
       </c>
       <c r="AZ9" s="10">
         <f>BNVFE!O15</f>
-        <v>1.0775074853975044E-3</v>
+        <v>1.072758792915696E-3</v>
       </c>
       <c r="BA9" s="10">
         <f>BNVFE!P15</f>
-        <v>1.0778988361191009E-3</v>
+        <v>1.073572561057083E-3</v>
       </c>
       <c r="BB9" s="10">
         <f>BNVFE!Q15</f>
-        <v>1.0785116841499065E-3</v>
+        <v>1.0750987448859117E-3</v>
       </c>
       <c r="BC9" s="10">
         <f>BNVFE!R15</f>
-        <v>1.0790010102695979E-3</v>
+        <v>1.076181954580008E-3</v>
       </c>
       <c r="BD9" s="10">
         <f>BNVFE!S15</f>
-        <v>1.0794829267876918E-3</v>
+        <v>1.0783574672053691E-3</v>
       </c>
       <c r="BE9" s="10">
         <f>BNVFE!T15</f>
-        <v>1.0802361129581342E-3</v>
+        <v>1.0798104679225658E-3</v>
       </c>
       <c r="BF9" s="10">
         <f>BNVFE!U15</f>
-        <v>1.0809461286247785E-3</v>
+        <v>1.0818608631854223E-3</v>
       </c>
       <c r="BG9" s="10">
         <f>BNVFE!V15</f>
-        <v>1.0815504168148291E-3</v>
+        <v>1.0839714670339978E-3</v>
       </c>
       <c r="BH9" s="10">
         <f>BNVFE!W15</f>
-        <v>1.0821981538212447E-3</v>
+        <v>1.0844452793443548E-3</v>
       </c>
       <c r="BI9" s="10">
         <f>BNVFE!X15</f>
-        <v>1.0826835903137368E-3</v>
+        <v>1.0861186043171608E-3</v>
       </c>
       <c r="BJ9" s="10">
         <f>BNVFE!Y15</f>
-        <v>1.0831020687371974E-3</v>
+        <v>1.0876785694574726E-3</v>
       </c>
       <c r="BK9" s="10">
         <f>BNVFE!Z15</f>
-        <v>1.0833807531687749E-3</v>
+        <v>1.0886631633262268E-3</v>
       </c>
       <c r="BL9" s="10">
         <f>BNVFE!AA15</f>
-        <v>1.0836702401149649E-3</v>
+        <v>1.086060609087589E-3</v>
       </c>
       <c r="BM9" s="10">
         <f>BNVFE!AB15</f>
-        <v>1.0838966283997708E-3</v>
+        <v>1.0850069963165487E-3</v>
       </c>
       <c r="BN9" s="10">
         <f>BNVFE!AC15</f>
-        <v>1.0843212452052544E-3</v>
+        <v>1.0810087753365671E-3</v>
       </c>
       <c r="BO9" s="10">
         <f>BNVFE!AD15</f>
-        <v>1.0846030015461477E-3</v>
+        <v>1.0810985280300714E-3</v>
       </c>
       <c r="BP9" s="10">
         <f>BNVFE!AE15</f>
-        <v>1.0848723112720957E-3</v>
+        <v>1.0811251654267114E-3</v>
       </c>
       <c r="BQ9" s="10">
         <f>BNVFE!AF15</f>
-        <v>1.0850228718239992E-3</v>
+        <v>1.0832348917870053E-3</v>
       </c>
       <c r="BR9" s="10">
         <f>BNVFE!AG15</f>
-        <v>1.0852777771687293E-3</v>
+        <v>1.0828813830425798E-3</v>
       </c>
       <c r="BS9" s="10"/>
       <c r="BT9" s="4"/>
@@ -21646,7 +21608,7 @@
         <f t="shared" si="7"/>
         <v>3.3761888658509456E-3</v>
       </c>
-      <c r="AN10" s="32">
+      <c r="AN10" s="28">
         <f t="shared" si="7"/>
         <v>3.3788281103448278E-3</v>
       </c>
@@ -21916,7 +21878,7 @@
         <f t="shared" si="7"/>
         <v>1.0049397002369565E-5</v>
       </c>
-      <c r="AN11" s="32">
+      <c r="AN11" s="28">
         <f t="shared" si="7"/>
         <v>1.0049397002369565E-5</v>
       </c>
@@ -22186,7 +22148,7 @@
         <f t="shared" si="7"/>
         <v>5.2454271866069317E-3</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="28">
         <f t="shared" si="7"/>
         <v>5.2454271866069317E-3</v>
       </c>
@@ -22408,7 +22370,7 @@
         <f t="shared" si="7"/>
         <v>1.1107106252376128E-3</v>
       </c>
-      <c r="AN13" s="32">
+      <c r="AN13" s="28">
         <f t="shared" si="7"/>
         <v>1.1107106252376128E-3</v>
       </c>
@@ -22626,11 +22588,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="34">
+      <c r="AN14" s="30">
         <f>$AO14</f>
         <v>0</v>
       </c>
@@ -22760,7 +22722,7 @@
       <c r="E15" s="24"/>
       <c r="X15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AN15" s="31"/>
+      <c r="AN15" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23012,123 +22974,123 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.6441821149091385E-4</v>
+        <v>3.6288111071279897E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5337753515368866E-4</v>
+        <v>3.5662935334584875E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5792810165905756E-4</v>
+        <v>3.7293643039024008E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.5482681392617806E-4</v>
+        <v>3.6258629682335417E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4768753369458116E-4</v>
+        <v>3.5350476908903924E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.21649809688517E-4</v>
+        <v>3.2925353903068966E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1986382210974897E-4</v>
+        <v>3.2952937531360811E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.1831312964282802E-4</v>
+        <v>3.3109306660643453E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.178573529387828E-4</v>
+        <v>3.3177853948437831E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.1741711966417138E-4</v>
+        <v>3.3266741344089733E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.1789152822891129E-4</v>
+        <v>3.3370654712820219E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1747104090930795E-4</v>
+        <v>3.342307329387438E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1779189705642967E-4</v>
+        <v>3.2335005945939625E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.1818706760073653E-4</v>
+        <v>3.2389675409180078E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.3021790214523243E-4</v>
+        <v>3.3473633676724335E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3543850391585964E-4</v>
+        <v>3.3953973614242564E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.4100107586839182E-4</v>
+        <v>3.441517625152178E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.607269123316556E-4</v>
+        <v>3.6310010699525119E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.9591932054006823E-4</v>
+        <v>3.972088662264407E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.0273948942995608E-4</v>
+        <v>4.0481251105855057E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.1773302030265094E-4</v>
+        <v>4.171653449154895E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.2187821876874248E-4</v>
+        <v>4.2068084420719134E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.2519767139152987E-4</v>
+        <v>4.2360912315877553E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.2631814474140036E-4</v>
+        <v>4.2564719474434128E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.2895634922367713E-4</v>
+        <v>4.2784823499322034E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.2866279519257846E-4</v>
+        <v>4.3055591469989406E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.3115821234878066E-4</v>
+        <v>4.3338890937034822E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.3304509349454269E-4</v>
+        <v>4.3609935685882663E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.3532977264570098E-4</v>
+        <v>4.3943685741714057E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.3609397303717755E-4</v>
+        <v>4.413288481059867E-4</v>
       </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -23139,123 +23101,123 @@
       </c>
       <c r="B4" s="4">
         <f>Extrapolations!AB2</f>
-        <v>3.1646485830016252E-4</v>
+        <v>3.1668250541564883E-4</v>
       </c>
       <c r="C4" s="4">
         <f>Extrapolations!AC2</f>
-        <v>3.1867985496813274E-4</v>
+        <v>3.1911514919910535E-4</v>
       </c>
       <c r="D4" s="4">
         <f>Extrapolations!AD2</f>
-        <v>3.2089485163610296E-4</v>
+        <v>3.2154779298256187E-4</v>
       </c>
       <c r="E4" s="4">
         <f>Extrapolations!AE2</f>
-        <v>3.2310984830407317E-4</v>
+        <v>3.239804367660184E-4</v>
       </c>
       <c r="F4" s="4">
         <f>Extrapolations!AF2</f>
-        <v>3.2532484497204339E-4</v>
+        <v>3.2641308054947492E-4</v>
       </c>
       <c r="G4" s="4">
         <f>Extrapolations!AG2</f>
-        <v>3.2753984164001361E-4</v>
+        <v>3.2884572433293144E-4</v>
       </c>
       <c r="H4" s="4">
         <f>Extrapolations!AH2</f>
-        <v>3.2975483830798382E-4</v>
+        <v>3.3127836811638797E-4</v>
       </c>
       <c r="I4" s="4">
         <f>Extrapolations!AI2</f>
-        <v>3.3196983497595404E-4</v>
+        <v>3.3371101189984449E-4</v>
       </c>
       <c r="J4" s="4">
         <f>Extrapolations!AJ2</f>
-        <v>3.3418483164392426E-4</v>
+        <v>3.3614365568330101E-4</v>
       </c>
       <c r="K4" s="4">
         <f>Extrapolations!AK2</f>
-        <v>3.3639982831189447E-4</v>
+        <v>3.3857629946675754E-4</v>
       </c>
       <c r="L4" s="4">
         <f>Extrapolations!AL2</f>
-        <v>3.3861482497986469E-4</v>
+        <v>3.4100894325021406E-4</v>
       </c>
       <c r="M4" s="4">
         <f>Extrapolations!AM2</f>
-        <v>3.4082982164783491E-4</v>
+        <v>3.4344158703367058E-4</v>
       </c>
       <c r="N4" s="4">
         <f>Extrapolations!AN2</f>
-        <v>3.4304481831580512E-4</v>
+        <v>3.4587423081712711E-4</v>
       </c>
       <c r="O4" s="4">
         <f>Extrapolations!AO2</f>
-        <v>3.4525981498377545E-4</v>
+        <v>3.4830687460058363E-4</v>
       </c>
       <c r="P4" s="4">
         <f>Extrapolations!AP2</f>
-        <v>3.5982944807231638E-4</v>
+        <v>3.6160214167983712E-4</v>
       </c>
       <c r="Q4" s="4">
         <f>Extrapolations!AQ2</f>
-        <v>3.6710644959195353E-4</v>
+        <v>3.6858167190947932E-4</v>
       </c>
       <c r="R4" s="4">
         <f>Extrapolations!AR2</f>
-        <v>3.7373493890990666E-4</v>
+        <v>3.7489066625736889E-4</v>
       </c>
       <c r="S4" s="4">
         <f>Extrapolations!AS2</f>
-        <v>3.9582578415611009E-4</v>
+        <v>3.9695913315051362E-4</v>
       </c>
       <c r="T4" s="4">
         <f>Extrapolations!AT2</f>
-        <v>4.3494713071778808E-4</v>
+        <v>4.3612233844583575E-4</v>
       </c>
       <c r="U4" s="4">
         <f>Extrapolations!AU2</f>
-        <v>4.4227847691112512E-4</v>
+        <v>4.4500041757942137E-4</v>
       </c>
       <c r="V4" s="4">
         <f>Extrapolations!AV2</f>
-        <v>4.5901794912486538E-4</v>
+        <v>4.5879226158980447E-4</v>
       </c>
       <c r="W4" s="4">
         <f>Extrapolations!AW2</f>
-        <v>4.6412939868974872E-4</v>
+        <v>4.6314681421182177E-4</v>
       </c>
       <c r="X4" s="4">
         <f>Extrapolations!AX2</f>
-        <v>4.6774364798041294E-4</v>
+        <v>4.6660066344185382E-4</v>
       </c>
       <c r="Y4" s="4">
         <f>Extrapolations!AY2</f>
-        <v>4.6966309910348734E-4</v>
+        <v>4.6854272330465251E-4</v>
       </c>
       <c r="Z4" s="4">
         <f>Extrapolations!AZ2</f>
-        <v>4.7260846794834008E-4</v>
+        <v>4.7105754355615585E-4</v>
       </c>
       <c r="AA4" s="4">
         <f>Extrapolations!BA2</f>
-        <v>4.7526441798452414E-4</v>
+        <v>4.7415254961591819E-4</v>
       </c>
       <c r="AB4" s="4">
         <f>Extrapolations!BB2</f>
-        <v>4.7788153153438258E-4</v>
+        <v>4.7723628727582983E-4</v>
       </c>
       <c r="AC4" s="4">
         <f>Extrapolations!BC2</f>
-        <v>4.8072409114320114E-4</v>
+        <v>4.802527271858826E-4</v>
       </c>
       <c r="AD4" s="4">
         <f>Extrapolations!BD2</f>
-        <v>4.8317943716800202E-4</v>
+        <v>4.8416028257775874E-4</v>
       </c>
       <c r="AE4" s="4">
         <f>Extrapolations!BE2</f>
-        <v>4.8470967915637789E-4</v>
+        <v>4.8665502814236058E-4</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
@@ -23266,123 +23228,123 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.5588750665737089E-4</v>
+        <v>3.5438638803553696E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.5331245750926631E-4</v>
+        <v>3.5440354283585671E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.5118568072752194E-4</v>
+        <v>3.5267576028090176E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.4980061983391357E-4</v>
+        <v>3.5096170956934632E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4120123357330183E-4</v>
+        <v>3.4189386495206035E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1601196231516136E-4</v>
+        <v>3.1847721597805668E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1421182044249736E-4</v>
+        <v>3.1665473925484384E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.0951507828746327E-4</v>
+        <v>3.1306021894723219E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.0866856639087708E-4</v>
+        <v>3.1312502454114156E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.0845851654273882E-4</v>
+        <v>3.1343268593196481E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.0971967051577888E-4</v>
+        <v>3.1527551646059158E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.1021899976583497E-4</v>
+        <v>3.1635522422324315E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.1142922761302186E-4</v>
+        <v>3.1741771977121877E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.1261885764475222E-4</v>
+        <v>3.1841207233612896E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.2508238380779655E-4</v>
+        <v>3.2972916607415672E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.3073143226283421E-4</v>
+        <v>3.3424201972197883E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.3669248234501038E-4</v>
+        <v>3.3909233985784395E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.5664677339955914E-4</v>
+        <v>3.5819922569114168E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.9150501245791995E-4</v>
+        <v>3.9109404083231971E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.9869858652359012E-4</v>
+        <v>3.9880677574177922E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.1399102251887961E-4</v>
+        <v>4.1091110626788557E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.18481763999554E-4</v>
+        <v>4.1372157945546135E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.2232433825668283E-4</v>
+        <v>4.1656826113905995E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.2404212775437762E-4</v>
+        <v>4.1904650848604826E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.2707990356177675E-4</v>
+        <v>4.2124581964245975E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.2743044157109091E-4</v>
+        <v>4.2411883605565187E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.3031294383034913E-4</v>
+        <v>4.2711855108267676E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.3261390371173016E-4</v>
+        <v>4.2994021333752638E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.3465340101635143E-4</v>
+        <v>4.3316235841999926E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.3571611486610301E-4</v>
+        <v>4.3524155364935233E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -23393,123 +23355,123 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.7621168260852838E-4</v>
+        <v>5.7378124582527093E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.1424921042674476E-4</v>
+        <v>5.135776091586637E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.0450434349050537E-4</v>
+        <v>5.0420292402446462E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.0955981102154227E-4</v>
+        <v>5.1012489855954181E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.0243949738231852E-4</v>
+        <v>5.0065174725690497E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>4.6777241616086486E-4</v>
+        <v>4.6701756758391467E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>4.6867177894376825E-4</v>
+        <v>4.6787081644724917E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>4.6626588198724533E-4</v>
+        <v>4.6742249996313762E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>4.6686654646154108E-4</v>
+        <v>4.6929214023740703E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>4.6879142718440323E-4</v>
+        <v>4.7194909255381145E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>4.7061462430444045E-4</v>
+        <v>4.7420069105320113E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>4.7221903457530715E-4</v>
+        <v>4.7650427158777955E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>4.7442821582604382E-4</v>
+        <v>4.7865404033527891E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>4.7683340766672012E-4</v>
+        <v>4.8095383160279135E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.9605489258829842E-4</v>
+        <v>4.9815524181598609E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>5.0556134138391036E-4</v>
+        <v>5.0635629358225119E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>5.1473876412560246E-4</v>
+        <v>5.1414773474869175E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>5.4535723392932383E-4</v>
+        <v>5.4347866776439132E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>5.9911656869397886E-4</v>
+        <v>5.9456696409442586E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>6.1017895586144117E-4</v>
+        <v>6.0662093139618033E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>6.3330799188870111E-4</v>
+        <v>6.2507397294378258E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>6.4036840063430123E-4</v>
+        <v>6.3002628678163382E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>6.4588780602507572E-4</v>
+        <v>6.344627365961283E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>6.4902671172470253E-4</v>
+        <v>6.3798448418934538E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>6.5369037578575696E-4</v>
+        <v>6.4168085058476034E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>6.5528626913783467E-4</v>
+        <v>6.462089848624325E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>6.5955406576692827E-4</v>
+        <v>6.5091750945686828E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>6.6362708288224856E-4</v>
+        <v>6.5549431959860806E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>6.6627854194703984E-4</v>
+        <v>6.6096741689523528E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>6.6841227597468707E-4</v>
+        <v>6.6422067264619155E-4</v>
       </c>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
@@ -23520,123 +23482,123 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.1701316405003717E-4</v>
+        <v>3.1567601577981108E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0550709031194998E-4</v>
+        <v>2.8926451689037882E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1503254214688942E-4</v>
+        <v>3.1593148520925481E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1498823957030943E-4</v>
+        <v>3.150982268899692E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0898641109615318E-4</v>
+        <v>3.0818274048631191E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>2.8815926879667179E-4</v>
+        <v>2.8833455966036759E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>2.8698308560361685E-4</v>
+        <v>2.8849573036176634E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>2.8557353308361356E-4</v>
+        <v>2.8856716081173425E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>2.8509115923866686E-4</v>
+        <v>2.8939928101298385E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>2.849399244015262E-4</v>
+        <v>2.8985302644852259E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>2.8589769723449173E-4</v>
+        <v>2.9128354248405413E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>2.8635807354941342E-4</v>
+        <v>2.9237110336213741E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>2.875271748293257E-4</v>
+        <v>2.9337130207596202E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>2.8870077697052939E-4</v>
+        <v>2.9346052697916132E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.0009500303094768E-4</v>
+        <v>3.037011797159758E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.0515953291919152E-4</v>
+        <v>3.079807065194384E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.1041393731160057E-4</v>
+        <v>3.1167571921664612E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.2856623029804249E-4</v>
+        <v>3.28821308596697E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.6051139715422242E-4</v>
+        <v>3.5918808636110146E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.6685904624839718E-4</v>
+        <v>3.6538751556216274E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.8052937123239606E-4</v>
+        <v>3.7620770889398522E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.8426649072663979E-4</v>
+        <v>3.7801092127297752E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.871979498986614E-4</v>
+        <v>3.8029557998585736E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.8821147821936744E-4</v>
+        <v>3.8147390466914663E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.9044869532475567E-4</v>
+        <v>3.8314798550202929E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.8998017502925357E-4</v>
+        <v>3.8492549177220775E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.9225715023248381E-4</v>
+        <v>3.8730706739755654E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.9392617558087363E-4</v>
+        <v>3.8898340871232074E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.952898767101293E-4</v>
+        <v>3.9115632626493784E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.958192038437946E-4</v>
+        <v>3.9233740049759281E-4</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
@@ -23931,7 +23893,7 @@
         <v>1.2098850095054675E-4</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="C2:AE8" si="0">C2</f>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>1.2098850095054675E-4</v>
       </c>
       <c r="E2" s="4">
@@ -24930,7 +24892,7 @@
         <v>2.8716216192227239E-3</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="C2:AE8" si="0">C2</f>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>2.8716216192227239E-3</v>
       </c>
       <c r="E2" s="4">

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17FBF5-61B1-42CE-BFD7-78CCBE086DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C752FB79-D71E-41B0-B3B0-DB2CFF5FF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2757,148 +2757,148 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="20">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2927707805913409E-3</c:v>
+                  <c:v>1.4345302324303025E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2927707805913415E-3</c:v>
+                  <c:v>1.4345302324303027E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,181 +3696,181 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>9.9669270072941653E-4</c:v>
+                  <c:v>3.4326338356696702E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>9.8012134365273E-4</c:v>
+                  <c:v>3.3755616799663441E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>9.6354998657604369E-4</c:v>
+                  <c:v>3.318489524263018E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>9.4697862949935717E-4</c:v>
+                  <c:v>3.2614173685596914E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>9.3040727242267075E-4</c:v>
+                  <c:v>3.2043452128563653E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>9.1383591534598423E-4</c:v>
+                  <c:v>3.1472730571530387E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>8.972645582692977E-4</c:v>
+                  <c:v>3.0902009014497122E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>8.8069320119261117E-4</c:v>
+                  <c:v>3.0331287457463856E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>8.6412184411592465E-4</c:v>
+                  <c:v>2.9760565900430595E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>8.4755048703923812E-4</c:v>
+                  <c:v>2.9189844343397329E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>8.309791299625516E-4</c:v>
+                  <c:v>2.8619122786364064E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>8.1440777288586507E-4</c:v>
+                  <c:v>2.8048401229330798E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.9783641580917855E-4</c:v>
+                  <c:v>2.7477679672297532E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.8126505873249213E-4</c:v>
+                  <c:v>2.6906958115264271E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.6469370165580561E-4</c:v>
+                  <c:v>2.6336236558231006E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4812234457911919E-4</c:v>
+                  <c:v>2.5765515001197744E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.3155098750243266E-4</c:v>
+                  <c:v>2.5194793444164483E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.1497963042574614E-4</c:v>
+                  <c:v>2.4624071887131217E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>6.9840827334905972E-4</c:v>
+                  <c:v>2.4053350330097956E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>6.6526555919568678E-4</c:v>
+                  <c:v>2.2911907216031429E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>7.0896403741056539E-4</c:v>
+                  <c:v>2.4416893404631888E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>7.3124992958416475E-4</c:v>
+                  <c:v>2.5184424936439019E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>7.5413514324155844E-4</c:v>
+                  <c:v>2.5972597245510895E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>7.7561364720370944E-4</c:v>
+                  <c:v>2.6712322131487161E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>7.9596665582659372E-4</c:v>
+                  <c:v>2.7413284684994969E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>8.1388888795772875E-4</c:v>
+                  <c:v>2.8030530706552449E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>8.2151527244487632E-4</c:v>
+                  <c:v>2.8293185238036926E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>8.3308354860013784E-4</c:v>
+                  <c:v>2.8691599474660314E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>8.4501171533951202E-4</c:v>
+                  <c:v>2.9102408430290473E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>8.5622052618756963E-4</c:v>
+                  <c:v>2.9488442594546977E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>8.628942903988971E-4</c:v>
+                  <c:v>2.9718288652678219E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>8.6348787064442192E-4</c:v>
+                  <c:v>2.973873170030446E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>8.6355804133438194E-4</c:v>
+                  <c:v>2.9741148395886286E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>8.6354804732702393E-4</c:v>
+                  <c:v>2.9740804199848872E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>8.6355878556897223E-4</c:v>
+                  <c:v>2.974117402750609E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>8.6353018569685237E-4</c:v>
+                  <c:v>2.9740189040973501E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>8.6347489969870197E-4</c:v>
+                  <c:v>2.9738284977787817E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>8.6326832144022908E-4</c:v>
+                  <c:v>2.9731170372461332E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>8.6319336638504465E-4</c:v>
+                  <c:v>2.9728588902180751E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>8.6305079230135329E-4</c:v>
+                  <c:v>2.9723678616157684E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>8.624552983097386E-4</c:v>
+                  <c:v>2.970316965865194E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>8.6207191117641205E-4</c:v>
+                  <c:v>2.9689965712791254E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>8.621031690292122E-4</c:v>
+                  <c:v>2.969104224082315E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>8.6219789946065818E-4</c:v>
+                  <c:v>2.9694304779858613E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>8.6241053791508225E-4</c:v>
+                  <c:v>2.9701628099803533E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>8.6266400295275595E-4</c:v>
+                  <c:v>2.9710357497177878E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>8.6298933978802453E-4</c:v>
+                  <c:v>2.9721562176693601E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>8.6324641967942351E-4</c:v>
+                  <c:v>2.973041607050701E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>8.6355102426538587E-4</c:v>
+                  <c:v>2.9740906726328101E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7789,7 +7789,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16207,7 +16207,7 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AG20"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16598,94 +16598,94 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>6.6526555919568678E-4</v>
+        <v>2.2911907216031429E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>7.0896403741056539E-4</v>
+        <v>2.4416893404631888E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>7.3124992958416475E-4</v>
+        <v>2.5184424936439019E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>7.5413514324155844E-4</v>
+        <v>2.5972597245510895E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>7.7561364720370944E-4</v>
+        <v>2.6712322131487161E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>7.9596665582659372E-4</v>
+        <v>2.7413284684994969E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>8.1388888795772875E-4</v>
+        <v>2.8030530706552449E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>8.2151527244487632E-4</v>
+        <v>2.8293185238036926E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>8.3308354860013784E-4</v>
+        <v>2.8691599474660314E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>8.4501171533951202E-4</v>
+        <v>2.9102408430290473E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>8.5622052618756963E-4</v>
+        <v>2.9488442594546977E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>8.628942903988971E-4</v>
+        <v>2.9718288652678219E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>8.6348787064442192E-4</v>
+        <v>2.973873170030446E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>8.6355804133438194E-4</v>
+        <v>2.9741148395886286E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>8.6354804732702393E-4</v>
+        <v>2.9740804199848872E-3</v>
       </c>
       <c r="S10" s="4">
-        <v>8.6355878556897223E-4</v>
+        <v>2.974117402750609E-3</v>
       </c>
       <c r="T10" s="4">
-        <v>8.6353018569685237E-4</v>
+        <v>2.9740189040973501E-3</v>
       </c>
       <c r="U10" s="4">
-        <v>8.6347489969870197E-4</v>
+        <v>2.9738284977787817E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>8.6326832144022908E-4</v>
+        <v>2.9731170372461332E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>8.6319336638504465E-4</v>
+        <v>2.9728588902180751E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>8.6305079230135329E-4</v>
+        <v>2.9723678616157684E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>8.624552983097386E-4</v>
+        <v>2.970316965865194E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>8.6207191117641205E-4</v>
+        <v>2.9689965712791254E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>8.621031690292122E-4</v>
+        <v>2.969104224082315E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>8.6219789946065818E-4</v>
+        <v>2.9694304779858613E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>8.6241053791508225E-4</v>
+        <v>2.9701628099803533E-3</v>
       </c>
       <c r="AD10" s="4">
-        <v>8.6266400295275595E-4</v>
+        <v>2.9710357497177878E-3</v>
       </c>
       <c r="AE10" s="4">
-        <v>8.6298933978802453E-4</v>
+        <v>2.9721562176693601E-3</v>
       </c>
       <c r="AF10" s="4">
-        <v>8.6324641967942351E-4</v>
+        <v>2.973041607050701E-3</v>
       </c>
       <c r="AG10" s="4">
-        <v>8.6355102426538587E-4</v>
+        <v>2.9740906726328101E-3</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -17543,94 +17543,94 @@
         <v>4</v>
       </c>
       <c r="D19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="E19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="F19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="G19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="H19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="I19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="J19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="K19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="L19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="M19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="N19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="O19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="P19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="Q19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="R19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="S19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="T19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="U19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="V19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="W19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="X19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="Y19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="Z19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AA19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AB19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AC19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AD19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AE19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AF19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AG19" s="4">
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
@@ -19937,239 +19937,239 @@
       <c r="K4" s="9"/>
       <c r="L4" s="4">
         <f>L5/M5*M4</f>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="1"/>
-        <v>9.9669270072941653E-4</v>
+        <v>3.4326338356696702E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="1"/>
-        <v>9.8012134365273E-4</v>
+        <v>3.3755616799663441E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="1"/>
-        <v>9.6354998657604369E-4</v>
+        <v>3.318489524263018E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="1"/>
-        <v>9.4697862949935717E-4</v>
+        <v>3.2614173685596914E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="1"/>
-        <v>9.3040727242267075E-4</v>
+        <v>3.2043452128563653E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="1"/>
-        <v>9.1383591534598423E-4</v>
+        <v>3.1472730571530387E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="1"/>
-        <v>8.972645582692977E-4</v>
+        <v>3.0902009014497122E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="1"/>
-        <v>8.8069320119261117E-4</v>
+        <v>3.0331287457463856E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="1"/>
-        <v>8.6412184411592465E-4</v>
+        <v>2.9760565900430595E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="1"/>
-        <v>8.4755048703923812E-4</v>
+        <v>2.9189844343397329E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="1"/>
-        <v>8.309791299625516E-4</v>
+        <v>2.8619122786364064E-3</v>
       </c>
       <c r="AG4" s="4">
         <f>AG5/AH5*AH4</f>
-        <v>8.1440777288586507E-4</v>
+        <v>2.8048401229330798E-3</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="1"/>
-        <v>7.9783641580917855E-4</v>
+        <v>2.7477679672297532E-3</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="1"/>
-        <v>7.8126505873249213E-4</v>
+        <v>2.6906958115264271E-3</v>
       </c>
       <c r="AJ4" s="4">
         <f>AJ5/AK5*AK4</f>
-        <v>7.6469370165580561E-4</v>
+        <v>2.6336236558231006E-3</v>
       </c>
       <c r="AK4" s="19">
         <f>AK5/AL5*AL4</f>
-        <v>7.4812234457911919E-4</v>
+        <v>2.5765515001197744E-3</v>
       </c>
       <c r="AL4" s="19">
         <f>AL5/AM5*AM4</f>
-        <v>7.3155098750243266E-4</v>
+        <v>2.5194793444164483E-3</v>
       </c>
       <c r="AM4" s="19">
         <f>AM5/AN5*AN4</f>
-        <v>7.1497963042574614E-4</v>
+        <v>2.4624071887131217E-3</v>
       </c>
       <c r="AN4" s="29">
         <f>AN5/AO5*AO4</f>
-        <v>6.9840827334905972E-4</v>
+        <v>2.4053350330097956E-3</v>
       </c>
       <c r="AO4" s="10">
         <f>BNVFE!D10</f>
-        <v>6.6526555919568678E-4</v>
+        <v>2.2911907216031429E-3</v>
       </c>
       <c r="AP4" s="10">
         <f>BNVFE!E10</f>
-        <v>7.0896403741056539E-4</v>
+        <v>2.4416893404631888E-3</v>
       </c>
       <c r="AQ4" s="10">
         <f>BNVFE!F10</f>
-        <v>7.3124992958416475E-4</v>
+        <v>2.5184424936439019E-3</v>
       </c>
       <c r="AR4" s="10">
         <f>BNVFE!G10</f>
-        <v>7.5413514324155844E-4</v>
+        <v>2.5972597245510895E-3</v>
       </c>
       <c r="AS4" s="10">
         <f>BNVFE!H10</f>
-        <v>7.7561364720370944E-4</v>
+        <v>2.6712322131487161E-3</v>
       </c>
       <c r="AT4" s="10">
         <f>BNVFE!I10</f>
-        <v>7.9596665582659372E-4</v>
+        <v>2.7413284684994969E-3</v>
       </c>
       <c r="AU4" s="10">
         <f>BNVFE!J10</f>
-        <v>8.1388888795772875E-4</v>
+        <v>2.8030530706552449E-3</v>
       </c>
       <c r="AV4" s="10">
         <f>BNVFE!K10</f>
-        <v>8.2151527244487632E-4</v>
+        <v>2.8293185238036926E-3</v>
       </c>
       <c r="AW4" s="10">
         <f>BNVFE!L10</f>
-        <v>8.3308354860013784E-4</v>
+        <v>2.8691599474660314E-3</v>
       </c>
       <c r="AX4" s="10">
         <f>BNVFE!M10</f>
-        <v>8.4501171533951202E-4</v>
+        <v>2.9102408430290473E-3</v>
       </c>
       <c r="AY4" s="10">
         <f>BNVFE!N10</f>
-        <v>8.5622052618756963E-4</v>
+        <v>2.9488442594546977E-3</v>
       </c>
       <c r="AZ4" s="10">
         <f>BNVFE!O10</f>
-        <v>8.628942903988971E-4</v>
+        <v>2.9718288652678219E-3</v>
       </c>
       <c r="BA4" s="10">
         <f>BNVFE!P10</f>
-        <v>8.6348787064442192E-4</v>
+        <v>2.973873170030446E-3</v>
       </c>
       <c r="BB4" s="10">
         <f>BNVFE!Q10</f>
-        <v>8.6355804133438194E-4</v>
+        <v>2.9741148395886286E-3</v>
       </c>
       <c r="BC4" s="10">
         <f>BNVFE!R10</f>
-        <v>8.6354804732702393E-4</v>
+        <v>2.9740804199848872E-3</v>
       </c>
       <c r="BD4" s="10">
         <f>BNVFE!S10</f>
-        <v>8.6355878556897223E-4</v>
+        <v>2.974117402750609E-3</v>
       </c>
       <c r="BE4" s="10">
         <f>BNVFE!T10</f>
-        <v>8.6353018569685237E-4</v>
+        <v>2.9740189040973501E-3</v>
       </c>
       <c r="BF4" s="10">
         <f>BNVFE!U10</f>
-        <v>8.6347489969870197E-4</v>
+        <v>2.9738284977787817E-3</v>
       </c>
       <c r="BG4" s="10">
         <f>BNVFE!V10</f>
-        <v>8.6326832144022908E-4</v>
+        <v>2.9731170372461332E-3</v>
       </c>
       <c r="BH4" s="10">
         <f>BNVFE!W10</f>
-        <v>8.6319336638504465E-4</v>
+        <v>2.9728588902180751E-3</v>
       </c>
       <c r="BI4" s="10">
         <f>BNVFE!X10</f>
-        <v>8.6305079230135329E-4</v>
+        <v>2.9723678616157684E-3</v>
       </c>
       <c r="BJ4" s="10">
         <f>BNVFE!Y10</f>
-        <v>8.624552983097386E-4</v>
+        <v>2.970316965865194E-3</v>
       </c>
       <c r="BK4" s="10">
         <f>BNVFE!Z10</f>
-        <v>8.6207191117641205E-4</v>
+        <v>2.9689965712791254E-3</v>
       </c>
       <c r="BL4" s="10">
         <f>BNVFE!AA10</f>
-        <v>8.621031690292122E-4</v>
+        <v>2.969104224082315E-3</v>
       </c>
       <c r="BM4" s="10">
         <f>BNVFE!AB10</f>
-        <v>8.6219789946065818E-4</v>
+        <v>2.9694304779858613E-3</v>
       </c>
       <c r="BN4" s="10">
         <f>BNVFE!AC10</f>
-        <v>8.6241053791508225E-4</v>
+        <v>2.9701628099803533E-3</v>
       </c>
       <c r="BO4" s="10">
         <f>BNVFE!AD10</f>
-        <v>8.6266400295275595E-4</v>
+        <v>2.9710357497177878E-3</v>
       </c>
       <c r="BP4" s="10">
         <f>BNVFE!AE10</f>
-        <v>8.6298933978802453E-4</v>
+        <v>2.9721562176693601E-3</v>
       </c>
       <c r="BQ4" s="10">
         <f>BNVFE!AF10</f>
-        <v>8.6324641967942351E-4</v>
+        <v>2.973041607050701E-3</v>
       </c>
       <c r="BR4" s="10">
         <f>BNVFE!AG10</f>
-        <v>8.6355102426538587E-4</v>
+        <v>2.9740906726328101E-3</v>
       </c>
       <c r="BS4" s="10"/>
       <c r="BT4" s="4"/>
@@ -22303,195 +22303,195 @@
       <c r="V13" s="8"/>
       <c r="W13" s="4">
         <f>TREND($AO13:$BR13,$AO$1:$BR$1,W$1)</f>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="Y13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AF13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AH13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AI13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AJ13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AK13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AL13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AN13" s="28">
         <f t="shared" si="7"/>
-        <v>1.2927707805913409E-3</v>
+        <v>1.4345302324303025E-3</v>
       </c>
       <c r="AO13" s="10">
         <f>BNVFE!D19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AP13" s="10">
         <f>BNVFE!E19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AQ13" s="10">
         <f>BNVFE!F19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AR13" s="10">
         <f>BNVFE!G19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AS13" s="10">
         <f>BNVFE!H19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AT13" s="10">
         <f>BNVFE!I19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AU13" s="10">
         <f>BNVFE!J19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AV13" s="10">
         <f>BNVFE!K19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AW13" s="10">
         <f>BNVFE!L19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AX13" s="10">
         <f>BNVFE!M19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AY13" s="10">
         <f>BNVFE!N19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="AZ13" s="10">
         <f>BNVFE!O19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BA13" s="10">
         <f>BNVFE!P19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BB13" s="10">
         <f>BNVFE!Q19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BC13" s="10">
         <f>BNVFE!R19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BD13" s="10">
         <f>BNVFE!S19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BE13" s="10">
         <f>BNVFE!T19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BF13" s="10">
         <f>BNVFE!U19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BG13" s="10">
         <f>BNVFE!V19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BH13" s="10">
         <f>BNVFE!W19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BI13" s="10">
         <f>BNVFE!X19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BJ13" s="10">
         <f>BNVFE!Y19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BK13" s="10">
         <f>BNVFE!Z19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BL13" s="10">
         <f>BNVFE!AA19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BM13" s="10">
         <f>BNVFE!AB19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BN13" s="10">
         <f>BNVFE!AC19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BO13" s="10">
         <f>BNVFE!AD19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BP13" s="10">
         <f>BNVFE!AE19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BQ13" s="10">
         <f>BNVFE!AF19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BR13" s="10">
         <f>BNVFE!AG19</f>
-        <v>1.2927707805913415E-3</v>
+        <v>1.4345302324303027E-3</v>
       </c>
       <c r="BS13" s="10"/>
       <c r="BT13" s="4"/>

--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C752FB79-D71E-41B0-B3B0-DB2CFF5FF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2378B0F-79B5-4197-B8ED-D8EBC98ECD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1816,91 +1816,91 @@
                   <c:v>3.5391080625855263E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.6152338546126896E-4</c:v>
+                  <c:v>3.6088456096524573E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.6806778318324615E-4</c:v>
+                  <c:v>3.6762364959872147E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.7326311577328699E-4</c:v>
+                  <c:v>3.7305268848239113E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.8684273091170592E-4</c:v>
+                  <c:v>3.8390446456956746E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.9133628030331842E-4</c:v>
+                  <c:v>3.8945117909917112E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.9460271712590122E-4</c:v>
+                  <c:v>3.9478572490128536E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.0654622240144441E-4</c:v>
+                  <c:v>4.0530266560179776E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.0753465089361259E-4</c:v>
+                  <c:v>4.0644088616368534E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.0771889354095417E-4</c:v>
+                  <c:v>4.0723147741595202E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.0791884576015625E-4</c:v>
+                  <c:v>4.0781542893777881E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.0852284515353123E-4</c:v>
+                  <c:v>4.084529749843797E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.09583671112226E-4</c:v>
+                  <c:v>4.0952517143723945E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.1078673798239525E-4</c:v>
+                  <c:v>4.1059307064899203E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.122748024320864E-4</c:v>
+                  <c:v>4.1171511968786801E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.1373149805260076E-4</c:v>
+                  <c:v>4.1358689176047874E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.1495700440447459E-4</c:v>
+                  <c:v>4.1480689706644802E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.1601549646964788E-4</c:v>
+                  <c:v>4.1525890145649821E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.1779365223495714E-4</c:v>
+                  <c:v>4.1773024164510215E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.1809544457369974E-4</c:v>
+                  <c:v>4.1815438812669832E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.1838332983416382E-4</c:v>
+                  <c:v>4.187805118549935E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.1848122624012197E-4</c:v>
+                  <c:v>4.1986477441321394E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.1826563698301188E-4</c:v>
+                  <c:v>4.2010028687417098E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.1769414168042572E-4</c:v>
+                  <c:v>4.1933307173546813E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.1714393092982577E-4</c:v>
+                  <c:v>4.188656755284378E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.1708664938544884E-4</c:v>
+                  <c:v>4.1835819780479942E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.165029094218215E-4</c:v>
+                  <c:v>4.1778495783898021E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.1616572999280917E-4</c:v>
+                  <c:v>4.1723247846381687E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.1755377409260071E-4</c:v>
+                  <c:v>4.1687626249388459E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.1711981834238049E-4</c:v>
+                  <c:v>4.1637554676519082E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,136 +3233,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>5.2911336018791888E-5</c:v>
+                  <c:v>5.4911128575712512E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>5.4633355406983469E-5</c:v>
+                  <c:v>5.648882845053901E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>5.6355374795175051E-5</c:v>
+                  <c:v>5.8066528325365508E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>5.8077394183367066E-5</c:v>
+                  <c:v>5.9644228200192006E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.9799413571558647E-5</c:v>
+                  <c:v>6.1221928075018504E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>6.1521432959750228E-5</c:v>
+                  <c:v>6.2799627949845001E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>6.3243452347942243E-5</c:v>
+                  <c:v>6.4377327824671499E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>6.4965471736133824E-5</c:v>
+                  <c:v>6.5955027699497997E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>6.6687491124325406E-5</c:v>
+                  <c:v>6.7532727574324495E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>6.8409510512516987E-5</c:v>
+                  <c:v>6.9110427449150993E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.0131529900709002E-5</c:v>
+                  <c:v>7.0688127323977491E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.1853549288900583E-5</c:v>
+                  <c:v>7.2265827198803988E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.3575568677092164E-5</c:v>
+                  <c:v>7.3843527073630486E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>7.5297588065284179E-5</c:v>
+                  <c:v>7.5421226948456984E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>7.5722348919915995E-5</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>8.0144525754122377E-5</c:v>
+                  <c:v>7.9887779987756596E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>8.0922650602619964E-5</c:v>
+                  <c:v>8.0751450482208258E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>8.2247994269403775E-5</c:v>
+                  <c:v>8.1710630373747845E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>8.3280711603233847E-5</c:v>
+                  <c:v>8.2699423101052853E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>8.2910808979344075E-5</c:v>
+                  <c:v>8.2852190642242104E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>8.2709536945446978E-5</c:v>
+                  <c:v>8.2920085174881958E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>8.1373982016617121E-5</c:v>
+                  <c:v>8.1583659729760359E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>8.0659892904163668E-5</c:v>
+                  <c:v>8.0555001604390032E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>7.9807124660185322E-5</c:v>
+                  <c:v>7.9879508360227176E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>7.8987634533903321E-5</c:v>
+                  <c:v>7.9038073038817424E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>7.8028009936033827E-5</c:v>
+                  <c:v>7.7958087831275213E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>7.7122766808563597E-5</c:v>
+                  <c:v>7.7001107231624273E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>7.6319490121400875E-5</c:v>
+                  <c:v>7.6141481045219502E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>7.5555840180256291E-5</c:v>
+                  <c:v>7.5543560776028822E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>7.4865315441272314E-5</c:v>
+                  <c:v>7.4723932054689203E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>7.4241753709387812E-5</c:v>
+                  <c:v>7.4072065727179469E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>7.3666550441435144E-5</c:v>
+                  <c:v>7.3438945900699331E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>7.3143235881095107E-5</c:v>
+                  <c:v>7.2960464178048665E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>7.268369834764319E-5</c:v>
+                  <c:v>7.2631046935429816E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>7.2282905818000628E-5</c:v>
+                  <c:v>7.2231473281437187E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>7.1941486288945263E-5</c:v>
+                  <c:v>7.1979944618622279E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>7.1603868596124793E-5</c:v>
+                  <c:v>7.1589541110669247E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>7.129639337962048E-5</c:v>
+                  <c:v>7.1315167467393649E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>7.1056851476574028E-5</c:v>
+                  <c:v>7.1091041208948405E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>7.082859882864499E-5</c:v>
+                  <c:v>7.0976485161884415E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>7.0341451089990512E-5</c:v>
+                  <c:v>7.0527206909558481E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>7.0180331309609449E-5</c:v>
+                  <c:v>7.0461221660692515E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>7.008295989492991E-5</c:v>
+                  <c:v>7.0325542614338066E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>7.001263722126285E-5</c:v>
+                  <c:v>7.0190653409110391E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,91 +3786,91 @@
                   <c:v>2.2911907216031429E-3</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>2.4416893404631888E-3</c:v>
+                  <c:v>2.4533121815477699E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>2.5184424936439019E-3</c:v>
+                  <c:v>2.5265453809969573E-3</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>2.5972597245510895E-3</c:v>
+                  <c:v>2.5997785804461439E-3</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>2.6712322131487161E-3</c:v>
+                  <c:v>2.6730117798953314E-3</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>2.7413284684994969E-3</c:v>
+                  <c:v>2.7462449793445188E-3</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>2.8030530706552449E-3</c:v>
+                  <c:v>2.8194781787937058E-3</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>2.8293185238036926E-3</c:v>
+                  <c:v>2.8194781787937058E-3</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>2.8691599474660314E-3</c:v>
+                  <c:v>2.8560947785182997E-3</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>2.9102408430290473E-3</c:v>
+                  <c:v>2.8927113782428928E-3</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>2.9488442594546977E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>2.9718288652678219E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>2.973873170030446E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>2.9741148395886286E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>2.9740804199848872E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>2.974117402750609E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>2.9740189040973501E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>2.9738284977787817E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>2.9731170372461332E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>2.9728588902180751E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>2.9723678616157684E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>2.970316965865194E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>2.9689965712791254E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>2.969104224082315E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>2.9694304779858613E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>2.9701628099803533E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>2.9710357497177878E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>2.9721562176693601E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>2.973041607050701E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>2.9740906726328101E-3</c:v>
+                  <c:v>2.9659445776920802E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4294,91 +4294,91 @@
                   <c:v>5.2089918654504906E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>5.5511484890837198E-4</c:v>
+                  <c:v>5.5775728648862913E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.7256457698191549E-4</c:v>
+                  <c:v>5.7440675772709566E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.9048357040231516E-4</c:v>
+                  <c:v>5.9105622896556218E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>6.0730111805293394E-4</c:v>
+                  <c:v>6.0770570020402871E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>6.2323740919090079E-4</c:v>
+                  <c:v>6.2435517144249534E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>6.3727041602424229E-4</c:v>
+                  <c:v>6.4100464268096187E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>6.4324183213127449E-4</c:v>
+                  <c:v>6.4100464268096187E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>6.5229972721649369E-4</c:v>
+                  <c:v>6.4932937830019513E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>6.616394146024239E-4</c:v>
+                  <c:v>6.5765411391942839E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>6.7041585037635684E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>6.7564137017190565E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>6.7610614016152745E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>6.7616108341661443E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>6.7615325816513226E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>6.761616661481077E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>6.7613927260929199E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>6.7609598398407189E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>6.7593423437099028E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>6.7587554498487476E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>6.7576391028022079E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>6.7529764183818757E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>6.749974518717581E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>6.7502192659447849E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>6.750960999888459E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>6.7526259470123058E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.7546105639839315E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.7571579330834156E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>6.7591708541561474E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>6.7615558909110566E-4</c:v>
+                  <c:v>6.7430358515789492E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,79 +4712,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>4.236427364823752E-4</c:v>
+                  <c:v>4.2363145948937087E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.2882977835183994E-4</c:v>
+                  <c:v>4.2881932945840716E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.3401682022130295E-4</c:v>
+                  <c:v>4.3400719942744172E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.3920386209076769E-4</c:v>
+                  <c:v>4.3919506939647801E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.4439090396023069E-4</c:v>
+                  <c:v>4.4438293936551257E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.4957794582969543E-4</c:v>
+                  <c:v>4.4957080933454886E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.5476498769915844E-4</c:v>
+                  <c:v>4.5475867930358516E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5995202956862317E-4</c:v>
+                  <c:v>4.5994654927261971E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.6513907143808618E-4</c:v>
+                  <c:v>4.6513441924165601E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.7032611330755092E-4</c:v>
+                  <c:v>4.7032228921069057E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.7551315517701392E-4</c:v>
+                  <c:v>4.7551015917972686E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.8070019704647866E-4</c:v>
+                  <c:v>4.8069802914876315E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.8588723891594167E-4</c:v>
+                  <c:v>4.8588589911779771E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.9107428078540641E-4</c:v>
+                  <c:v>4.9107376908683401E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.9626132265486941E-4</c:v>
+                  <c:v>4.9626163905586856E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>5.0144836452433242E-4</c:v>
+                  <c:v>5.0144950902490486E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>5.0663540639379716E-4</c:v>
+                  <c:v>5.0663737899394115E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>5.1182244826326016E-4</c:v>
+                  <c:v>5.1182524896297571E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>5.170094901327249E-4</c:v>
+                  <c:v>5.17013118932012E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>5.2219653200218791E-4</c:v>
+                  <c:v>5.2220098890104656E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>5.2738357387165265E-4</c:v>
+                  <c:v>5.2738885887008286E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>5.3257061574111565E-4</c:v>
+                  <c:v>5.3257672883911915E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>5.3775765761058039E-4</c:v>
+                  <c:v>5.3776459880815371E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>5.429446994800434E-4</c:v>
+                  <c:v>5.4295246877719E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>5.4813174134950814E-4</c:v>
+                  <c:v>5.4814033874622456E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>5.7245968727451246E-4</c:v>
@@ -4793,88 +4793,88 @@
                   <c:v>5.6525537747016295E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>5.6816948983254214E-4</c:v>
+                  <c:v>5.6816966861959501E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>5.7128317518608321E-4</c:v>
+                  <c:v>5.7127368392557803E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>5.7537137435165198E-4</c:v>
+                  <c:v>5.7534557460258025E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>5.8053804811384778E-4</c:v>
+                  <c:v>5.8054658325228732E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>5.8402553055494823E-4</c:v>
+                  <c:v>5.8405577666029271E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>5.8760417107298871E-4</c:v>
+                  <c:v>5.8764082241883773E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.9096130220580865E-4</c:v>
+                  <c:v>5.9099172709820588E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.946019196444121E-4</c:v>
+                  <c:v>5.9460755532325421E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.9865845018156332E-4</c:v>
+                  <c:v>5.9864913770811101E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>6.0321943227520944E-4</c:v>
+                  <c:v>6.0320507489752481E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>6.0839429137508894E-4</c:v>
+                  <c:v>6.0839014040612108E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>6.1395089969970801E-4</c:v>
+                  <c:v>6.1397142134404336E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>6.1977379967962927E-4</c:v>
+                  <c:v>6.1982444305570708E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>6.2567088851316315E-4</c:v>
+                  <c:v>6.2573102314974604E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>6.3167004143386532E-4</c:v>
+                  <c:v>6.3172762641160651E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>6.3779136032516399E-4</c:v>
+                  <c:v>6.378517359356007E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>6.437466870978497E-4</c:v>
+                  <c:v>6.4379923494470867E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>6.4981143154692399E-4</c:v>
+                  <c:v>6.4986546410365699E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>6.5593323238593052E-4</c:v>
+                  <c:v>6.5601406745390174E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>6.6206558943440969E-4</c:v>
+                  <c:v>6.6214392925699006E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>6.6830617483670774E-4</c:v>
+                  <c:v>6.6836222069112383E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>6.7444724581067943E-4</c:v>
+                  <c:v>6.7447512104423497E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>6.8055623616867665E-4</c:v>
+                  <c:v>6.8056382295840078E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>6.8655076394605308E-4</c:v>
+                  <c:v>6.8654880506182118E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>6.9253674881163997E-4</c:v>
+                  <c:v>6.9251806945128461E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>6.9843365885812099E-4</c:v>
+                  <c:v>6.984226284742906E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>7.0421403083949718E-4</c:v>
+                  <c:v>7.0422345991320119E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>7.0992567085904998E-4</c:v>
+                  <c:v>7.099358150809658E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,79 +5208,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>3.6038411832808568E-5</c:v>
+                  <c:v>3.6038260344938299E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>3.647844074325616E-5</c:v>
+                  <c:v>3.6478359505012103E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>3.6918469653703644E-5</c:v>
+                  <c:v>3.6918458665085799E-5</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>3.7358498564151237E-5</c:v>
+                  <c:v>3.7358557825159494E-5</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>3.7798527474598721E-5</c:v>
+                  <c:v>3.7798656985233299E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>3.8238556385046314E-5</c:v>
+                  <c:v>3.8238756145306995E-5</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>3.8678585295493906E-5</c:v>
+                  <c:v>3.867885530538069E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.9118614205941391E-5</c:v>
+                  <c:v>3.9118954465454495E-5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.9558643116388983E-5</c:v>
+                  <c:v>3.955905362552819E-5</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.9998672026836467E-5</c:v>
+                  <c:v>3.9999152785601886E-5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.043870093728406E-5</c:v>
+                  <c:v>4.0439251945675691E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.0878729847731653E-5</c:v>
+                  <c:v>4.0879351105749386E-5</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.1318758758179137E-5</c:v>
+                  <c:v>4.1319450265823082E-5</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.1758787668626729E-5</c:v>
+                  <c:v>4.1759549425896887E-5</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.2198816579074322E-5</c:v>
+                  <c:v>4.2199648585970582E-5</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.2638845489521806E-5</c:v>
+                  <c:v>4.2639747746044278E-5</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.3078874399969399E-5</c:v>
+                  <c:v>4.3079846906117974E-5</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>4.3518903310416883E-5</c:v>
+                  <c:v>4.3519946066191778E-5</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>4.3958932220864476E-5</c:v>
+                  <c:v>4.3960045226265474E-5</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>4.4398961131312068E-5</c:v>
+                  <c:v>4.440014438633917E-5</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>4.4838990041759552E-5</c:v>
+                  <c:v>4.4840243546412974E-5</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>4.5279018952207145E-5</c:v>
+                  <c:v>4.528034270648667E-5</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>4.5719047862654629E-5</c:v>
+                  <c:v>4.5720441866560366E-5</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>4.6159076773102222E-5</c:v>
+                  <c:v>4.616054102663417E-5</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.6599105683549815E-5</c:v>
+                  <c:v>4.6600640186707866E-5</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>4.8563096039282174E-5</c:v>
@@ -5289,88 +5289,88 @@
                   <c:v>4.7951937565239972E-5</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.8199148542133818E-5</c:v>
+                  <c:v>4.8199163709058256E-5</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.8463289763291303E-5</c:v>
+                  <c:v>4.8462484597433007E-5</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.8810101273548841E-5</c:v>
+                  <c:v>4.8807912620409042E-5</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.9248402309752346E-5</c:v>
+                  <c:v>4.9249126365536466E-5</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.9544253613324154E-5</c:v>
+                  <c:v>4.9546819461280452E-5</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.9847838070065696E-5</c:v>
+                  <c:v>4.985094728957582E-5</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>5.0132631366857999E-5</c:v>
+                  <c:v>5.0135212381738722E-5</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>5.0441473470928121E-5</c:v>
+                  <c:v>5.0441951558763717E-5</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>5.0785598457265348E-5</c:v>
+                  <c:v>5.0784808458331483E-5</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>5.1172517250624796E-5</c:v>
+                  <c:v>5.1171299280649147E-5</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>5.161151266819503E-5</c:v>
+                  <c:v>5.1611160531775431E-5</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>5.2082892766601423E-5</c:v>
+                  <c:v>5.2084633665754489E-5</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>5.2576863009813412E-5</c:v>
+                  <c:v>5.2581159206018821E-5</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>5.3077126867236362E-5</c:v>
+                  <c:v>5.3082228229300067E-5</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>5.3586049060219874E-5</c:v>
+                  <c:v>5.3590934128752432E-5</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>5.4105334878616127E-5</c:v>
+                  <c:v>5.4110456683056242E-5</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>5.4610539196817424E-5</c:v>
+                  <c:v>5.4614996953739692E-5</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>5.5125025672775793E-5</c:v>
+                  <c:v>5.5129609381114051E-5</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>5.5644352375924891E-5</c:v>
+                  <c:v>5.5651209804066108E-5</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>5.6164574587047429E-5</c:v>
+                  <c:v>5.6171220337677975E-5</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>5.6693978062907934E-5</c:v>
+                  <c:v>5.6698732564004017E-5</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>5.721493949673903E-5</c:v>
+                  <c:v>5.7217304218088618E-5</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>5.7733179456780447E-5</c:v>
+                  <c:v>5.7733823061921899E-5</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>5.8241709288023016E-5</c:v>
+                  <c:v>5.8241543111285681E-5</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>5.8749514404049965E-5</c:v>
+                  <c:v>5.8747929790161759E-5</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>5.9249763094548476E-5</c:v>
+                  <c:v>5.9248827361253699E-5</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>5.9740125588038328E-5</c:v>
+                  <c:v>5.974092547844464E-5</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>6.0224657388228372E-5</c:v>
+                  <c:v>6.0225517946332457E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,199 +5704,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>5.6550914138770239E-4</c:v>
+                  <c:v>5.6455812757791844E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.5917423769000218E-4</c:v>
+                  <c:v>5.5821399807796067E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>5.5283933399230198E-4</c:v>
+                  <c:v>5.5186986857800116E-4</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>5.4650443029460177E-4</c:v>
+                  <c:v>5.4552573907804339E-4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>5.401695265969033E-4</c:v>
+                  <c:v>5.3918160957808561E-4</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>5.338346228992031E-4</c:v>
+                  <c:v>5.3283748007812784E-4</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.2749971920150289E-4</c:v>
+                  <c:v>5.2649335057816833E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>5.2116481550380268E-4</c:v>
+                  <c:v>5.2014922107821056E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>5.1482991180610421E-4</c:v>
+                  <c:v>5.1380509157825278E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>5.0849500810840401E-4</c:v>
+                  <c:v>5.0746096207829501E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>5.021601044107038E-4</c:v>
+                  <c:v>5.011168325783355E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>4.9582520071300533E-4</c:v>
+                  <c:v>4.9477270307837773E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>4.8949029701530512E-4</c:v>
+                  <c:v>4.8842857357841996E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>4.8315539331760492E-4</c:v>
+                  <c:v>4.8208444407846218E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>4.7682048961990471E-4</c:v>
+                  <c:v>4.7574031457850441E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>4.7048558592220624E-4</c:v>
+                  <c:v>4.693961850785449E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>4.6415068222450603E-4</c:v>
+                  <c:v>4.6305205557858713E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>4.5781577852680583E-4</c:v>
+                  <c:v>4.5670792607862935E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>4.5148087482910562E-4</c:v>
+                  <c:v>4.5036379657867158E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>4.4514597113140715E-4</c:v>
+                  <c:v>4.4401966707871207E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>4.3881106743370694E-4</c:v>
+                  <c:v>4.376755375787543E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>4.3247616373600674E-4</c:v>
+                  <c:v>4.3133140807879652E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>4.2614126003830653E-4</c:v>
+                  <c:v>4.2498727857883875E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>4.1980635634060806E-4</c:v>
+                  <c:v>4.1864314907887924E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>4.1347145264290786E-4</c:v>
+                  <c:v>4.1229901957892147E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>4.0713654894520765E-4</c:v>
+                  <c:v>4.059548900789637E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>4.0080164524750744E-4</c:v>
+                  <c:v>3.9961076057900592E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.9446674154980897E-4</c:v>
+                  <c:v>3.9326663107904641E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.8813183785210877E-4</c:v>
+                  <c:v>3.8692250157908864E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.8179693415440856E-4</c:v>
+                  <c:v>3.8057837207913087E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.7546203045671009E-4</c:v>
+                  <c:v>3.7423424257917309E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.6912712675900988E-4</c:v>
+                  <c:v>3.6789011307921358E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.6279222306130968E-4</c:v>
+                  <c:v>3.6154598357925581E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.5645731936360947E-4</c:v>
+                  <c:v>3.5520185407929804E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>3.50122415665911E-4</c:v>
+                  <c:v>3.4885772457934026E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
                   <c:v>3.8258341226368855E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3.0425177990638558E-4</c:v>
+                  <c:v>3.0142368171836523E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>3.1369602145278982E-4</c:v>
+                  <c:v>3.1172129818271576E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>3.1866725580745358E-4</c:v>
+                  <c:v>3.1835363985033353E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>3.2176784865192677E-4</c:v>
+                  <c:v>3.2033837375084818E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>3.2673519826153288E-4</c:v>
+                  <c:v>3.2549922221096792E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>3.3038240919707824E-4</c:v>
+                  <c:v>3.295473722969369E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>3.3340389823551702E-4</c:v>
+                  <c:v>3.3241740025221218E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>3.3475402773417714E-4</c:v>
+                  <c:v>3.3370677288845042E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>3.3555107094994109E-4</c:v>
+                  <c:v>3.3440244871008089E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>3.3533649804280095E-4</c:v>
+                  <c:v>3.3395051987863093E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>3.3530916094466514E-4</c:v>
+                  <c:v>3.3383141706516711E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>3.3543094523282268E-4</c:v>
+                  <c:v>3.3408465327594978E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>3.3562165718775656E-4</c:v>
+                  <c:v>3.345595858643791E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>3.3577393040427292E-4</c:v>
+                  <c:v>3.348966694935667E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>3.3592389782957394E-4</c:v>
+                  <c:v>3.3557366647309609E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>3.3615828155893885E-4</c:v>
+                  <c:v>3.3602582523573836E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>3.3637923107499002E-4</c:v>
+                  <c:v>3.3666388698891467E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>3.3656727929620473E-4</c:v>
+                  <c:v>3.3732068502989658E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>3.3676884833871952E-4</c:v>
+                  <c:v>3.3746813050975096E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>3.3691991114356807E-4</c:v>
+                  <c:v>3.3798885189704824E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>3.3705013729136348E-4</c:v>
+                  <c:v>3.3847429687946325E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>3.3713686099786852E-4</c:v>
+                  <c:v>3.3878069228597074E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>3.3722694633495147E-4</c:v>
+                  <c:v>3.3797080438273381E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>3.3729739602263772E-4</c:v>
+                  <c:v>3.376429310092252E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>3.3742953237129352E-4</c:v>
+                  <c:v>3.363987260823569E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>3.3751721202413692E-4</c:v>
+                  <c:v>3.3642665619027667E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>3.3760101841942016E-4</c:v>
+                  <c:v>3.3643494547201083E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>3.3764787130259203E-4</c:v>
+                  <c:v>3.3709147044773473E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>3.3772719520374359E-4</c:v>
+                  <c:v>3.3698146219063557E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7788,7 +7788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -9128,99 +9128,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3780336177922486E-3</v>
+        <v>1.3780000405381819E-3</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.394702045298585E-3</v>
+        <v>1.3946711291214914E-3</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4113704728049271E-3</v>
+        <v>1.4113422177048063E-3</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4280389003112637E-3</v>
+        <v>1.4280133062881156E-3</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4447073278176057E-3</v>
+        <v>1.4446843948714306E-3</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4613757553239421E-3</v>
+        <v>1.4613554834547455E-3</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4780441828302841E-3</v>
+        <v>1.4780265720380551E-3</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4947126103366205E-3</v>
+        <v>1.49469766062137E-3</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5113810378429625E-3</v>
+        <v>1.5113687492046793E-3</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5280494653492991E-3</v>
+        <v>1.5280398377879943E-3</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5447178928556411E-3</v>
+        <v>1.5447109263713092E-3</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5613863203619775E-3</v>
+        <v>1.5613820149546185E-3</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5780547478683195E-3</v>
+        <v>1.5780531035379335E-3</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5947231753746559E-3</v>
+        <v>1.594724192121243E-3</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6113916028809925E-3</v>
+        <v>1.611395280704558E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6280600303873345E-3</v>
+        <v>1.6280663692878729E-3</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6447284578936709E-3</v>
+        <v>1.6447374578711822E-3</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.661396885400013E-3</v>
+        <v>1.6614085464544972E-3</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6780653129063493E-3</v>
+        <v>1.6780796350378067E-3</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.6947337404126914E-3</v>
+        <v>1.6947507236211216E-3</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.711402167919028E-3</v>
+        <v>1.7114218122044366E-3</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.72807059542537E-3</v>
+        <v>1.7280929007877459E-3</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7447390229317064E-3</v>
+        <v>1.7447639893710609E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.7614074504380484E-3</v>
+        <v>1.7614350779543704E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -9232,19 +9232,19 @@
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8257982470394711E-3</v>
+        <v>1.8257988215671316E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8358039959613347E-3</v>
+        <v>1.8357734960363957E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.8489413203048922E-3</v>
+        <v>1.8488584134655208E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.865544295415052E-3</v>
+        <v>1.8655717228659801E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -9445,99 +9445,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
+        <v>4.2881932945840716E-4</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
+        <v>4.3400719942744172E-4</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
+        <v>4.3919506939647801E-4</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
+        <v>4.4438293936551257E-4</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
+        <v>4.4957080933454886E-4</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
+        <v>4.5475867930358516E-4</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
+        <v>4.5994654927261971E-4</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
+        <v>4.6513441924165601E-4</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
+        <v>4.7032228921069057E-4</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
+        <v>4.7551015917972686E-4</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
+        <v>4.8069802914876315E-4</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
+        <v>4.8588589911779771E-4</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
+        <v>4.9107376908683401E-4</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
+        <v>4.9626163905586856E-4</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
+        <v>5.0144950902490486E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
+        <v>5.0663737899394115E-4</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
+        <v>5.1182524896297571E-4</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
+        <v>5.17013118932012E-4</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
+        <v>5.2220098890104656E-4</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
+        <v>5.2738885887008286E-4</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
+        <v>5.3257672883911915E-4</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
+        <v>5.3776459880815371E-4</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
+        <v>5.4295246877719E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
+        <v>5.4814033874622456E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO6</f>
@@ -9549,19 +9549,19 @@
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.6816966861959501E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7127368392557803E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7534557460258025E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.8054658325228732E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -9762,99 +9762,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>1.2864579883752213E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>1.3020215982823249E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>1.3175852081894338E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>1.3331488180965375E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>1.3487124280036464E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>1.3642760379107553E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>1.3798396478178589E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>1.3954032577249678E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>1.4109668676320715E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>1.4265304775391804E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>1.4420940874462892E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>1.4576576973533929E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>1.4732213072605018E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>1.4887849171676055E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>1.5043485270747144E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>1.5199121369818232E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>1.5354757468889269E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>1.5510393567960358E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>1.5666029667031395E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>1.5821665766102483E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>1.5977301865173572E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>1.6132937964244609E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>1.6288574063315698E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>1.6444210162386735E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -9866,19 +9866,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>1.7045090058587847E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>1.7138210517767339E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>1.7260367238077405E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
+        <v>1.7416397497568618E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10005,99 +10005,99 @@
       </c>
       <c r="B2" s="4">
         <f>B$5/(1-'Other Values'!$B$3)</f>
-        <v>1.1722254425066041E-4</v>
+        <v>1.1722228319362329E-4</v>
       </c>
       <c r="C2" s="4">
         <f>C$5/(1-'Other Values'!$B$3)</f>
-        <v>1.1863656599543676E-4</v>
+        <v>1.1863653068379199E-4</v>
       </c>
       <c r="D2" s="4">
         <f>D$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2005058774021348E-4</v>
+        <v>1.2005077817396067E-4</v>
       </c>
       <c r="E2" s="4">
         <f>E$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2146460948498984E-4</v>
+        <v>1.2146502566412971E-4</v>
       </c>
       <c r="F2" s="4">
         <f>F$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2287863122976655E-4</v>
+        <v>1.2287927315429839E-4</v>
       </c>
       <c r="G2" s="4">
         <f>G$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2429265297454325E-4</v>
+        <v>1.2429352064446708E-4</v>
       </c>
       <c r="H2" s="4">
         <f>H$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2570667471931959E-4</v>
+        <v>1.2570776813463613E-4</v>
       </c>
       <c r="I2" s="4">
         <f>I$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2712069646409632E-4</v>
+        <v>1.2712201562480483E-4</v>
       </c>
       <c r="J2" s="4">
         <f>J$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2853471820887266E-4</v>
+        <v>1.285362631149735E-4</v>
       </c>
       <c r="K2" s="4">
         <f>K$5/(1-'Other Values'!$B$3)</f>
-        <v>1.2994873995364939E-4</v>
+        <v>1.2995051060514255E-4</v>
       </c>
       <c r="L2" s="4">
         <f>L$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3136276169842609E-4</v>
+        <v>1.3136475809531124E-4</v>
       </c>
       <c r="M2" s="4">
         <f>M$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3277678344320243E-4</v>
+        <v>1.3277900558547991E-4</v>
       </c>
       <c r="N2" s="4">
         <f>N$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3419080518797916E-4</v>
+        <v>1.3419325307564896E-4</v>
       </c>
       <c r="O2" s="4">
         <f>O$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3560482693275586E-4</v>
+        <v>1.3560750056581766E-4</v>
       </c>
       <c r="P2" s="4">
         <f>P$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3701884867753223E-4</v>
+        <v>1.3702174805598635E-4</v>
       </c>
       <c r="Q2" s="4">
         <f>Q$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3843287042230893E-4</v>
+        <v>1.3843599554615502E-4</v>
       </c>
       <c r="R2" s="4">
         <f>R$5/(1-'Other Values'!$B$3)</f>
-        <v>1.3984689216708527E-4</v>
+        <v>1.3985024303632407E-4</v>
       </c>
       <c r="S2" s="4">
         <f>S$5/(1-'Other Values'!$B$3)</f>
-        <v>1.41260913911862E-4</v>
+        <v>1.4126449052649276E-4</v>
       </c>
       <c r="T2" s="4">
         <f>T$5/(1-'Other Values'!$B$3)</f>
-        <v>1.426749356566387E-4</v>
+        <v>1.4267873801666143E-4</v>
       </c>
       <c r="U2" s="4">
         <f>U$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4408895740141507E-4</v>
+        <v>1.4409298550683048E-4</v>
       </c>
       <c r="V2" s="4">
         <f>V$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4550297914619177E-4</v>
+        <v>1.4550723299699918E-4</v>
       </c>
       <c r="W2" s="4">
         <f>W$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4691700089096812E-4</v>
+        <v>1.4692148048716787E-4</v>
       </c>
       <c r="X2" s="4">
         <f>X$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4833102263574484E-4</v>
+        <v>1.4833572797733689E-4</v>
       </c>
       <c r="Y2" s="4">
         <f>Y$5/(1-'Other Values'!$B$3)</f>
-        <v>1.4974504438052154E-4</v>
+        <v>1.4974997546750559E-4</v>
       </c>
       <c r="Z2" s="4">
         <f>Z$5/(1-'Other Values'!$B$3)</f>
@@ -10109,19 +10109,19 @@
       </c>
       <c r="AB2" s="4">
         <f>AB$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5488674153017263E-4</v>
+        <v>1.5488679026869968E-4</v>
       </c>
       <c r="AC2" s="4">
         <f>AC$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5573555264585283E-4</v>
+        <v>1.5573296526578585E-4</v>
       </c>
       <c r="AD2" s="4">
         <f>AD$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5685002263907255E-4</v>
+        <v>1.568429894577111E-4</v>
       </c>
       <c r="AE2" s="4">
         <f>AE$5/(1-'Other Values'!$B$3)</f>
-        <v>1.5825849190378402E-4</v>
+        <v>1.5826081863868456E-4</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -10322,99 +10322,99 @@
       </c>
       <c r="B5" s="4">
         <f>Extrapolations!Q7</f>
-        <v>3.647844074325616E-5</v>
+        <v>3.6478359505012103E-5</v>
       </c>
       <c r="C5" s="4">
         <f>Extrapolations!R7</f>
-        <v>3.6918469653703644E-5</v>
+        <v>3.6918458665085799E-5</v>
       </c>
       <c r="D5" s="4">
         <f>Extrapolations!S7</f>
-        <v>3.7358498564151237E-5</v>
+        <v>3.7358557825159494E-5</v>
       </c>
       <c r="E5" s="4">
         <f>Extrapolations!T7</f>
-        <v>3.7798527474598721E-5</v>
+        <v>3.7798656985233299E-5</v>
       </c>
       <c r="F5" s="4">
         <f>Extrapolations!U7</f>
-        <v>3.8238556385046314E-5</v>
+        <v>3.8238756145306995E-5</v>
       </c>
       <c r="G5" s="4">
         <f>Extrapolations!V7</f>
-        <v>3.8678585295493906E-5</v>
+        <v>3.867885530538069E-5</v>
       </c>
       <c r="H5" s="4">
         <f>Extrapolations!W7</f>
-        <v>3.9118614205941391E-5</v>
+        <v>3.9118954465454495E-5</v>
       </c>
       <c r="I5" s="4">
         <f>Extrapolations!X7</f>
-        <v>3.9558643116388983E-5</v>
+        <v>3.955905362552819E-5</v>
       </c>
       <c r="J5" s="4">
         <f>Extrapolations!Y7</f>
-        <v>3.9998672026836467E-5</v>
+        <v>3.9999152785601886E-5</v>
       </c>
       <c r="K5" s="4">
         <f>Extrapolations!Z7</f>
-        <v>4.043870093728406E-5</v>
+        <v>4.0439251945675691E-5</v>
       </c>
       <c r="L5" s="4">
         <f>Extrapolations!AA7</f>
-        <v>4.0878729847731653E-5</v>
+        <v>4.0879351105749386E-5</v>
       </c>
       <c r="M5" s="4">
         <f>Extrapolations!AB7</f>
-        <v>4.1318758758179137E-5</v>
+        <v>4.1319450265823082E-5</v>
       </c>
       <c r="N5" s="4">
         <f>Extrapolations!AC7</f>
-        <v>4.1758787668626729E-5</v>
+        <v>4.1759549425896887E-5</v>
       </c>
       <c r="O5" s="4">
         <f>Extrapolations!AD7</f>
-        <v>4.2198816579074322E-5</v>
+        <v>4.2199648585970582E-5</v>
       </c>
       <c r="P5" s="4">
         <f>Extrapolations!AE7</f>
-        <v>4.2638845489521806E-5</v>
+        <v>4.2639747746044278E-5</v>
       </c>
       <c r="Q5" s="4">
         <f>Extrapolations!AF7</f>
-        <v>4.3078874399969399E-5</v>
+        <v>4.3079846906117974E-5</v>
       </c>
       <c r="R5" s="4">
         <f>Extrapolations!AG7</f>
-        <v>4.3518903310416883E-5</v>
+        <v>4.3519946066191778E-5</v>
       </c>
       <c r="S5" s="4">
         <f>Extrapolations!AH7</f>
-        <v>4.3958932220864476E-5</v>
+        <v>4.3960045226265474E-5</v>
       </c>
       <c r="T5" s="4">
         <f>Extrapolations!AI7</f>
-        <v>4.4398961131312068E-5</v>
+        <v>4.440014438633917E-5</v>
       </c>
       <c r="U5" s="4">
         <f>Extrapolations!AJ7</f>
-        <v>4.4838990041759552E-5</v>
+        <v>4.4840243546412974E-5</v>
       </c>
       <c r="V5" s="4">
         <f>Extrapolations!AK7</f>
-        <v>4.5279018952207145E-5</v>
+        <v>4.528034270648667E-5</v>
       </c>
       <c r="W5" s="4">
         <f>Extrapolations!AL7</f>
-        <v>4.5719047862654629E-5</v>
+        <v>4.5720441866560366E-5</v>
       </c>
       <c r="X5" s="4">
         <f>Extrapolations!AM7</f>
-        <v>4.6159076773102222E-5</v>
+        <v>4.616054102663417E-5</v>
       </c>
       <c r="Y5" s="4">
         <f>Extrapolations!AN7</f>
-        <v>4.6599105683549815E-5</v>
+        <v>4.6600640186707866E-5</v>
       </c>
       <c r="Z5" s="4">
         <f>Extrapolations!AO7</f>
@@ -10426,19 +10426,19 @@
       </c>
       <c r="AB5" s="4">
         <f>Extrapolations!AQ7</f>
-        <v>4.8199148542133818E-5</v>
+        <v>4.8199163709058256E-5</v>
       </c>
       <c r="AC5" s="4">
         <f>Extrapolations!AR7</f>
-        <v>4.8463289763291303E-5</v>
+        <v>4.8462484597433007E-5</v>
       </c>
       <c r="AD5" s="4">
         <f>Extrapolations!AS7</f>
-        <v>4.8810101273548841E-5</v>
+        <v>4.8807912620409042E-5</v>
       </c>
       <c r="AE5" s="4">
         <f>Extrapolations!AT7</f>
-        <v>4.9248402309752346E-5</v>
+        <v>4.9249126365536466E-5</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -10639,99 +10639,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.0943532222976846E-4</v>
+        <v>1.0943507851503629E-4</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.1075540896111091E-4</v>
+        <v>1.1075537599525738E-4</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.1207549569245369E-4</v>
+        <v>1.1207567347547847E-4</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.1339558242379614E-4</v>
+        <v>1.1339597095569988E-4</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.1471566915513892E-4</v>
+        <v>1.1471626843592097E-4</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.160357558864817E-4</v>
+        <v>1.1603656591614206E-4</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.1735584261782415E-4</v>
+        <v>1.1735686339636347E-4</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.1867592934916693E-4</v>
+        <v>1.1867716087658456E-4</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.1999601608050938E-4</v>
+        <v>1.1999745835680565E-4</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.2131610281185216E-4</v>
+        <v>1.2131775583702706E-4</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.2263618954319494E-4</v>
+        <v>1.2263805331724813E-4</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.2395627627453739E-4</v>
+        <v>1.2395835079746922E-4</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.2527636300588017E-4</v>
+        <v>1.2527864827769063E-4</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.2659644973722295E-4</v>
+        <v>1.2659894575791172E-4</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.279165364685654E-4</v>
+        <v>1.2791924323813281E-4</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.2923662319990818E-4</v>
+        <v>1.292395407183539E-4</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.3055670993125063E-4</v>
+        <v>1.3055983819857531E-4</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.3187679666259341E-4</v>
+        <v>1.318801356787964E-4</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.3319688339393618E-4</v>
+        <v>1.3320043315901748E-4</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.3451697012527864E-4</v>
+        <v>1.345207306392389E-4</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.3583705685662141E-4</v>
+        <v>1.3584102811945998E-4</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.3715714358796387E-4</v>
+        <v>1.3716132559968107E-4</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.3847723031930665E-4</v>
+        <v>1.3848162307990248E-4</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.3979731705064942E-4</v>
+        <v>1.3980192056012357E-4</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -10743,19 +10743,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.4459744562640142E-4</v>
+        <v>1.4459749112717473E-4</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.4538986928987389E-4</v>
+        <v>1.4538745379229901E-4</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.464303038206465E-4</v>
+        <v>1.4642373786122711E-4</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.47745206929257E-4</v>
+        <v>1.4774737909660938E-4</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -10884,123 +10884,123 @@
       </c>
       <c r="B2" s="4">
         <f>Extrapolations!G9</f>
-        <v>1.7968922323952086E-3</v>
+        <v>1.7938065267531708E-3</v>
       </c>
       <c r="C2" s="4">
         <f>Extrapolations!H9</f>
-        <v>1.7765351800131182E-3</v>
+        <v>1.7734198274894919E-3</v>
       </c>
       <c r="D2" s="4">
         <f>Extrapolations!I9</f>
-        <v>1.7561781276310348E-3</v>
+        <v>1.753033128225806E-3</v>
       </c>
       <c r="E2" s="4">
         <f>Extrapolations!J9</f>
-        <v>1.7358210752489514E-3</v>
+        <v>1.7326464289621271E-3</v>
       </c>
       <c r="F2" s="4">
         <f>Extrapolations!K9</f>
-        <v>1.7154640228668611E-3</v>
+        <v>1.7122597296984482E-3</v>
       </c>
       <c r="G2" s="4">
         <f>Extrapolations!L9</f>
-        <v>1.6951069704847777E-3</v>
+        <v>1.6918730304347623E-3</v>
       </c>
       <c r="H2" s="4">
         <f>Extrapolations!M9</f>
-        <v>1.6747499181026873E-3</v>
+        <v>1.6714863311710834E-3</v>
       </c>
       <c r="I2" s="4">
         <f>Extrapolations!N9</f>
-        <v>1.6543928657206039E-3</v>
+        <v>1.6510996319074045E-3</v>
       </c>
       <c r="J2" s="4">
         <f>Extrapolations!O9</f>
-        <v>1.6340358133385205E-3</v>
+        <v>1.6307129326437256E-3</v>
       </c>
       <c r="K2" s="4">
         <f>Extrapolations!P9</f>
-        <v>1.6136787609564301E-3</v>
+        <v>1.6103262333800397E-3</v>
       </c>
       <c r="L2" s="4">
         <f>Extrapolations!Q9</f>
-        <v>1.5933217085743467E-3</v>
+        <v>1.5899395341163608E-3</v>
       </c>
       <c r="M2" s="4">
         <f>Extrapolations!R9</f>
-        <v>1.5729646561922633E-3</v>
+        <v>1.5695528348526819E-3</v>
       </c>
       <c r="N2" s="4">
         <f>Extrapolations!S9</f>
-        <v>1.552607603810173E-3</v>
+        <v>1.549166135588996E-3</v>
       </c>
       <c r="O2" s="4">
         <f>Extrapolations!T9</f>
-        <v>1.5322505514280896E-3</v>
+        <v>1.5287794363253171E-3</v>
       </c>
       <c r="P2" s="4">
         <f>Extrapolations!U9</f>
-        <v>1.5118934990460062E-3</v>
+        <v>1.5083927370616382E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>Extrapolations!V9</f>
-        <v>1.4915364466639158E-3</v>
+        <v>1.4880060377979523E-3</v>
       </c>
       <c r="R2" s="4">
         <f>Extrapolations!W9</f>
-        <v>1.4711793942818324E-3</v>
+        <v>1.4676193385342734E-3</v>
       </c>
       <c r="S2" s="4">
         <f>Extrapolations!X9</f>
-        <v>1.450822341899749E-3</v>
+        <v>1.4472326392705945E-3</v>
       </c>
       <c r="T2" s="4">
         <f>Extrapolations!Y9</f>
-        <v>1.4304652895176587E-3</v>
+        <v>1.4268459400069156E-3</v>
       </c>
       <c r="U2" s="4">
         <f>Extrapolations!Z9</f>
-        <v>1.4101082371355753E-3</v>
+        <v>1.4064592407432297E-3</v>
       </c>
       <c r="V2" s="4">
         <f>Extrapolations!AA9</f>
-        <v>1.3897511847534849E-3</v>
+        <v>1.3860725414795508E-3</v>
       </c>
       <c r="W2" s="4">
         <f>Extrapolations!AB9</f>
-        <v>1.3693941323714015E-3</v>
+        <v>1.3656858422158719E-3</v>
       </c>
       <c r="X2" s="4">
         <f>Extrapolations!AC9</f>
-        <v>1.3490370799893181E-3</v>
+        <v>1.345299142952186E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>Extrapolations!AD9</f>
-        <v>1.3286800276072278E-3</v>
+        <v>1.3249124436885071E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>Extrapolations!AE9</f>
-        <v>1.3083229752251443E-3</v>
+        <v>1.3045257444248282E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>Extrapolations!AF9</f>
-        <v>1.2879659228430609E-3</v>
+        <v>1.2841390451611492E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>Extrapolations!AG9</f>
-        <v>1.2676088704609706E-3</v>
+        <v>1.2637523458974634E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>Extrapolations!AH9</f>
-        <v>1.2472518180788872E-3</v>
+        <v>1.2433656466337845E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>Extrapolations!AI9</f>
-        <v>1.2268947656968038E-3</v>
+        <v>1.2229789473701055E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>Extrapolations!AJ9</f>
-        <v>1.2065377133147134E-3</v>
+        <v>1.2025922481064197E-3</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -11201,99 +11201,99 @@
       </c>
       <c r="B5" s="22">
         <f>Extrapolations!Q6</f>
-        <v>4.2882977835183994E-4</v>
+        <v>4.2881932945840716E-4</v>
       </c>
       <c r="C5" s="22">
         <f>Extrapolations!R6</f>
-        <v>4.3401682022130295E-4</v>
+        <v>4.3400719942744172E-4</v>
       </c>
       <c r="D5" s="22">
         <f>Extrapolations!S6</f>
-        <v>4.3920386209076769E-4</v>
+        <v>4.3919506939647801E-4</v>
       </c>
       <c r="E5" s="22">
         <f>Extrapolations!T6</f>
-        <v>4.4439090396023069E-4</v>
+        <v>4.4438293936551257E-4</v>
       </c>
       <c r="F5" s="22">
         <f>Extrapolations!U6</f>
-        <v>4.4957794582969543E-4</v>
+        <v>4.4957080933454886E-4</v>
       </c>
       <c r="G5" s="22">
         <f>Extrapolations!V6</f>
-        <v>4.5476498769915844E-4</v>
+        <v>4.5475867930358516E-4</v>
       </c>
       <c r="H5" s="22">
         <f>Extrapolations!W6</f>
-        <v>4.5995202956862317E-4</v>
+        <v>4.5994654927261971E-4</v>
       </c>
       <c r="I5" s="22">
         <f>Extrapolations!X6</f>
-        <v>4.6513907143808618E-4</v>
+        <v>4.6513441924165601E-4</v>
       </c>
       <c r="J5" s="22">
         <f>Extrapolations!Y6</f>
-        <v>4.7032611330755092E-4</v>
+        <v>4.7032228921069057E-4</v>
       </c>
       <c r="K5" s="22">
         <f>Extrapolations!Z6</f>
-        <v>4.7551315517701392E-4</v>
+        <v>4.7551015917972686E-4</v>
       </c>
       <c r="L5" s="22">
         <f>Extrapolations!AA6</f>
-        <v>4.8070019704647866E-4</v>
+        <v>4.8069802914876315E-4</v>
       </c>
       <c r="M5" s="22">
         <f>Extrapolations!AB6</f>
-        <v>4.8588723891594167E-4</v>
+        <v>4.8588589911779771E-4</v>
       </c>
       <c r="N5" s="22">
         <f>Extrapolations!AC6</f>
-        <v>4.9107428078540641E-4</v>
+        <v>4.9107376908683401E-4</v>
       </c>
       <c r="O5" s="22">
         <f>Extrapolations!AD6</f>
-        <v>4.9626132265486941E-4</v>
+        <v>4.9626163905586856E-4</v>
       </c>
       <c r="P5" s="22">
         <f>Extrapolations!AE6</f>
-        <v>5.0144836452433242E-4</v>
+        <v>5.0144950902490486E-4</v>
       </c>
       <c r="Q5" s="22">
         <f>Extrapolations!AF6</f>
-        <v>5.0663540639379716E-4</v>
+        <v>5.0663737899394115E-4</v>
       </c>
       <c r="R5" s="22">
         <f>Extrapolations!AG6</f>
-        <v>5.1182244826326016E-4</v>
+        <v>5.1182524896297571E-4</v>
       </c>
       <c r="S5" s="22">
         <f>Extrapolations!AH6</f>
-        <v>5.170094901327249E-4</v>
+        <v>5.17013118932012E-4</v>
       </c>
       <c r="T5" s="22">
         <f>Extrapolations!AI6</f>
-        <v>5.2219653200218791E-4</v>
+        <v>5.2220098890104656E-4</v>
       </c>
       <c r="U5" s="22">
         <f>Extrapolations!AJ6</f>
-        <v>5.2738357387165265E-4</v>
+        <v>5.2738885887008286E-4</v>
       </c>
       <c r="V5" s="22">
         <f>Extrapolations!AK6</f>
-        <v>5.3257061574111565E-4</v>
+        <v>5.3257672883911915E-4</v>
       </c>
       <c r="W5" s="22">
         <f>Extrapolations!AL6</f>
-        <v>5.3775765761058039E-4</v>
+        <v>5.3776459880815371E-4</v>
       </c>
       <c r="X5" s="22">
         <f>Extrapolations!AM6</f>
-        <v>5.429446994800434E-4</v>
+        <v>5.4295246877719E-4</v>
       </c>
       <c r="Y5" s="22">
         <f>Extrapolations!AN6</f>
-        <v>5.4813174134950814E-4</v>
+        <v>5.4814033874622456E-4</v>
       </c>
       <c r="Z5" s="22">
         <f>Extrapolations!AO6</f>
@@ -11305,19 +11305,19 @@
       </c>
       <c r="AB5" s="22">
         <f>Extrapolations!AQ6</f>
-        <v>5.6816948983254214E-4</v>
+        <v>5.6816966861959501E-4</v>
       </c>
       <c r="AC5" s="22">
         <f>Extrapolations!AR6</f>
-        <v>5.7128317518608321E-4</v>
+        <v>5.7127368392557803E-4</v>
       </c>
       <c r="AD5" s="22">
         <f>Extrapolations!AS6</f>
-        <v>5.7537137435165198E-4</v>
+        <v>5.7534557460258025E-4</v>
       </c>
       <c r="AE5" s="22">
         <f>Extrapolations!AT6</f>
-        <v>5.8053804811384778E-4</v>
+        <v>5.8054658325228732E-4</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -11518,99 +11518,99 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*Calculations!$B$27</f>
-        <v>1.2864893350555196E-3</v>
+        <v>1.2864579883752213E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*Calculations!$B$27</f>
-        <v>1.3020504606639086E-3</v>
+        <v>1.3020215982823249E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*Calculations!$B$27</f>
-        <v>1.3176115862723028E-3</v>
+        <v>1.3175852081894338E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*Calculations!$B$27</f>
-        <v>1.3331727118806919E-3</v>
+        <v>1.3331488180965375E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*Calculations!$B$27</f>
-        <v>1.3487338374890861E-3</v>
+        <v>1.3487124280036464E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*Calculations!$B$27</f>
-        <v>1.3642949630974751E-3</v>
+        <v>1.3642760379107553E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*Calculations!$B$27</f>
-        <v>1.3798560887058693E-3</v>
+        <v>1.3798396478178589E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*Calculations!$B$27</f>
-        <v>1.3954172143142583E-3</v>
+        <v>1.3954032577249678E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*Calculations!$B$27</f>
-        <v>1.4109783399226525E-3</v>
+        <v>1.4109668676320715E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*Calculations!$B$27</f>
-        <v>1.4265394655310416E-3</v>
+        <v>1.4265304775391804E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*Calculations!$B$27</f>
-        <v>1.4421005911394358E-3</v>
+        <v>1.4420940874462892E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*Calculations!$B$27</f>
-        <v>1.4576617167478248E-3</v>
+        <v>1.4576576973533929E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*Calculations!$B$27</f>
-        <v>1.473222842356219E-3</v>
+        <v>1.4732213072605018E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*Calculations!$B$27</f>
-        <v>1.488783967964608E-3</v>
+        <v>1.4887849171676055E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*Calculations!$B$27</f>
-        <v>1.504345093572997E-3</v>
+        <v>1.5043485270747144E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*Calculations!$B$27</f>
-        <v>1.5199062191813913E-3</v>
+        <v>1.5199121369818232E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*Calculations!$B$27</f>
-        <v>1.5354673447897803E-3</v>
+        <v>1.5354757468889269E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*Calculations!$B$27</f>
-        <v>1.5510284703981745E-3</v>
+        <v>1.5510393567960358E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*Calculations!$B$27</f>
-        <v>1.5665895960065635E-3</v>
+        <v>1.5666029667031395E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*Calculations!$B$27</f>
-        <v>1.5821507216149577E-3</v>
+        <v>1.5821665766102483E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*Calculations!$B$27</f>
-        <v>1.5977118472233467E-3</v>
+        <v>1.5977301865173572E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*Calculations!$B$27</f>
-        <v>1.613272972831741E-3</v>
+        <v>1.6132937964244609E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*Calculations!$B$27</f>
-        <v>1.62883409844013E-3</v>
+        <v>1.6288574063315698E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*Calculations!$B$27</f>
-        <v>1.6443952240485242E-3</v>
+        <v>1.6444210162386735E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*Calculations!$B$27</f>
@@ -11622,19 +11622,19 @@
       </c>
       <c r="AB8" s="4">
         <f>AB$5*Calculations!$B$27</f>
-        <v>1.7045084694976261E-3</v>
+        <v>1.7045090058587847E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*Calculations!$B$27</f>
-        <v>1.7138495255582494E-3</v>
+        <v>1.7138210517767339E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*Calculations!$B$27</f>
-        <v>1.7261141230549557E-3</v>
+        <v>1.7260367238077405E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*Calculations!$B$27</f>
-        <v>1.7416141443415431E-3</v>
+        <v>1.7416397497568618E-3</v>
       </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -16206,8 +16206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16391,91 +16391,91 @@
         <v>3.5391080625855263E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6152338546126896E-4</v>
+        <v>3.6088456096524573E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>3.6806778318324615E-4</v>
+        <v>3.6762364959872147E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>3.7326311577328699E-4</v>
+        <v>3.7305268848239113E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8684273091170592E-4</v>
+        <v>3.8390446456956746E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>3.9133628030331842E-4</v>
+        <v>3.8945117909917112E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>3.9460271712590122E-4</v>
+        <v>3.9478572490128536E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0654622240144441E-4</v>
+        <v>4.0530266560179776E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0753465089361259E-4</v>
+        <v>4.0644088616368534E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.0771889354095417E-4</v>
+        <v>4.0723147741595202E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.0791884576015625E-4</v>
+        <v>4.0781542893777881E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.0852284515353123E-4</v>
+        <v>4.084529749843797E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.09583671112226E-4</v>
+        <v>4.0952517143723945E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.1078673798239525E-4</v>
+        <v>4.1059307064899203E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.122748024320864E-4</v>
+        <v>4.1171511968786801E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.1373149805260076E-4</v>
+        <v>4.1358689176047874E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.1495700440447459E-4</v>
+        <v>4.1480689706644802E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.1601549646964788E-4</v>
+        <v>4.1525890145649821E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.1779365223495714E-4</v>
+        <v>4.1773024164510215E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.1809544457369974E-4</v>
+        <v>4.1815438812669832E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.1838332983416382E-4</v>
+        <v>4.187805118549935E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.1848122624012197E-4</v>
+        <v>4.1986477441321394E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.1826563698301188E-4</v>
+        <v>4.2010028687417098E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.1769414168042572E-4</v>
+        <v>4.1933307173546813E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.1714393092982577E-4</v>
+        <v>4.188656755284378E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.1708664938544884E-4</v>
+        <v>4.1835819780479942E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.165029094218215E-4</v>
+        <v>4.1778495783898021E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.1616572999280917E-4</v>
+        <v>4.1723247846381687E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.1755377409260071E-4</v>
+        <v>4.1687626249388459E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.1711981834238049E-4</v>
+        <v>4.1637554676519082E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -16496,91 +16496,91 @@
         <v>7.5722348919915995E-5</v>
       </c>
       <c r="E9" s="4">
-        <v>8.0144525754122377E-5</v>
+        <v>7.9887779987756596E-5</v>
       </c>
       <c r="F9" s="4">
-        <v>8.0922650602619964E-5</v>
+        <v>8.0751450482208258E-5</v>
       </c>
       <c r="G9" s="4">
-        <v>8.2247994269403775E-5</v>
+        <v>8.1710630373747845E-5</v>
       </c>
       <c r="H9" s="4">
-        <v>8.3280711603233847E-5</v>
+        <v>8.2699423101052853E-5</v>
       </c>
       <c r="I9" s="4">
-        <v>8.2910808979344075E-5</v>
+        <v>8.2852190642242104E-5</v>
       </c>
       <c r="J9" s="4">
-        <v>8.2709536945446978E-5</v>
+        <v>8.2920085174881958E-5</v>
       </c>
       <c r="K9" s="4">
-        <v>8.1373982016617121E-5</v>
+        <v>8.1583659729760359E-5</v>
       </c>
       <c r="L9" s="4">
-        <v>8.0659892904163668E-5</v>
+        <v>8.0555001604390032E-5</v>
       </c>
       <c r="M9" s="4">
-        <v>7.9807124660185322E-5</v>
+        <v>7.9879508360227176E-5</v>
       </c>
       <c r="N9" s="4">
-        <v>7.8987634533903321E-5</v>
+        <v>7.9038073038817424E-5</v>
       </c>
       <c r="O9" s="4">
-        <v>7.8028009936033827E-5</v>
+        <v>7.7958087831275213E-5</v>
       </c>
       <c r="P9" s="4">
-        <v>7.7122766808563597E-5</v>
+        <v>7.7001107231624273E-5</v>
       </c>
       <c r="Q9" s="4">
-        <v>7.6319490121400875E-5</v>
+        <v>7.6141481045219502E-5</v>
       </c>
       <c r="R9" s="4">
-        <v>7.5555840180256291E-5</v>
+        <v>7.5543560776028822E-5</v>
       </c>
       <c r="S9" s="4">
-        <v>7.4865315441272314E-5</v>
+        <v>7.4723932054689203E-5</v>
       </c>
       <c r="T9" s="4">
-        <v>7.4241753709387812E-5</v>
+        <v>7.4072065727179469E-5</v>
       </c>
       <c r="U9" s="4">
-        <v>7.3666550441435144E-5</v>
+        <v>7.3438945900699331E-5</v>
       </c>
       <c r="V9" s="4">
-        <v>7.3143235881095107E-5</v>
+        <v>7.2960464178048665E-5</v>
       </c>
       <c r="W9" s="4">
-        <v>7.268369834764319E-5</v>
+        <v>7.2631046935429816E-5</v>
       </c>
       <c r="X9" s="4">
-        <v>7.2282905818000628E-5</v>
+        <v>7.2231473281437187E-5</v>
       </c>
       <c r="Y9" s="4">
-        <v>7.1941486288945263E-5</v>
+        <v>7.1979944618622279E-5</v>
       </c>
       <c r="Z9" s="4">
-        <v>7.1603868596124793E-5</v>
+        <v>7.1589541110669247E-5</v>
       </c>
       <c r="AA9" s="4">
-        <v>7.129639337962048E-5</v>
+        <v>7.1315167467393649E-5</v>
       </c>
       <c r="AB9" s="4">
-        <v>7.1056851476574028E-5</v>
+        <v>7.1091041208948405E-5</v>
       </c>
       <c r="AC9" s="4">
-        <v>7.082859882864499E-5</v>
+        <v>7.0976485161884415E-5</v>
       </c>
       <c r="AD9" s="4">
-        <v>7.0341451089990512E-5</v>
+        <v>7.0527206909558481E-5</v>
       </c>
       <c r="AE9" s="4">
-        <v>7.0180331309609449E-5</v>
+        <v>7.0461221660692515E-5</v>
       </c>
       <c r="AF9" s="4">
-        <v>7.008295989492991E-5</v>
+        <v>7.0325542614338066E-5</v>
       </c>
       <c r="AG9" s="4">
-        <v>7.001263722126285E-5</v>
+        <v>7.0190653409110391E-5</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
@@ -16601,91 +16601,91 @@
         <v>2.2911907216031429E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>2.4416893404631888E-3</v>
+        <v>2.4533121815477699E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>2.5184424936439019E-3</v>
+        <v>2.5265453809969573E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>2.5972597245510895E-3</v>
+        <v>2.5997785804461439E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>2.6712322131487161E-3</v>
+        <v>2.6730117798953314E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>2.7413284684994969E-3</v>
+        <v>2.7462449793445188E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>2.8030530706552449E-3</v>
+        <v>2.8194781787937058E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>2.8293185238036926E-3</v>
+        <v>2.8194781787937058E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>2.8691599474660314E-3</v>
+        <v>2.8560947785182997E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>2.9102408430290473E-3</v>
+        <v>2.8927113782428928E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>2.9488442594546977E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>2.9718288652678219E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="P10" s="4">
-        <v>2.973873170030446E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="Q10" s="4">
-        <v>2.9741148395886286E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>2.9740804199848872E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="S10" s="4">
-        <v>2.974117402750609E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="T10" s="4">
-        <v>2.9740189040973501E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="U10" s="4">
-        <v>2.9738284977787817E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="V10" s="4">
-        <v>2.9731170372461332E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="W10" s="4">
-        <v>2.9728588902180751E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="X10" s="4">
-        <v>2.9723678616157684E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="Y10" s="4">
-        <v>2.970316965865194E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="Z10" s="4">
-        <v>2.9689965712791254E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>2.969104224082315E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>2.9694304779858613E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>2.9701628099803533E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AD10" s="4">
-        <v>2.9710357497177878E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AE10" s="4">
-        <v>2.9721562176693601E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AF10" s="4">
-        <v>2.973041607050701E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AG10" s="4">
-        <v>2.9740906726328101E-3</v>
+        <v>2.9659445776920802E-3</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -16706,91 +16706,91 @@
         <v>5.2089918654504906E-4</v>
       </c>
       <c r="E11" s="4">
-        <v>5.5511484890837198E-4</v>
+        <v>5.5775728648862913E-4</v>
       </c>
       <c r="F11" s="4">
-        <v>5.7256457698191549E-4</v>
+        <v>5.7440675772709566E-4</v>
       </c>
       <c r="G11" s="4">
-        <v>5.9048357040231516E-4</v>
+        <v>5.9105622896556218E-4</v>
       </c>
       <c r="H11" s="4">
-        <v>6.0730111805293394E-4</v>
+        <v>6.0770570020402871E-4</v>
       </c>
       <c r="I11" s="4">
-        <v>6.2323740919090079E-4</v>
+        <v>6.2435517144249534E-4</v>
       </c>
       <c r="J11" s="4">
-        <v>6.3727041602424229E-4</v>
+        <v>6.4100464268096187E-4</v>
       </c>
       <c r="K11" s="4">
-        <v>6.4324183213127449E-4</v>
+        <v>6.4100464268096187E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>6.5229972721649369E-4</v>
+        <v>6.4932937830019513E-4</v>
       </c>
       <c r="M11" s="4">
-        <v>6.616394146024239E-4</v>
+        <v>6.5765411391942839E-4</v>
       </c>
       <c r="N11" s="4">
-        <v>6.7041585037635684E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="O11" s="4">
-        <v>6.7564137017190565E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="P11" s="4">
-        <v>6.7610614016152745E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="Q11" s="4">
-        <v>6.7616108341661443E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="R11" s="4">
-        <v>6.7615325816513226E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="S11" s="4">
-        <v>6.761616661481077E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="T11" s="4">
-        <v>6.7613927260929199E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="U11" s="4">
-        <v>6.7609598398407189E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="V11" s="4">
-        <v>6.7593423437099028E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="W11" s="4">
-        <v>6.7587554498487476E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="X11" s="4">
-        <v>6.7576391028022079E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="Y11" s="4">
-        <v>6.7529764183818757E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="Z11" s="4">
-        <v>6.749974518717581E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AA11" s="4">
-        <v>6.7502192659447849E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AB11" s="4">
-        <v>6.750960999888459E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AC11" s="4">
-        <v>6.7526259470123058E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AD11" s="4">
-        <v>6.7546105639839315E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AE11" s="4">
-        <v>6.7571579330834156E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AF11" s="4">
-        <v>6.7591708541561474E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AG11" s="4">
-        <v>6.7615558909110566E-4</v>
+        <v>6.7430358515789492E-4</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -16814,88 +16814,88 @@
         <v>5.6525537747016295E-4</v>
       </c>
       <c r="F12" s="4">
-        <v>5.6816948983254214E-4</v>
+        <v>5.6816966861959501E-4</v>
       </c>
       <c r="G12" s="4">
-        <v>5.7128317518608321E-4</v>
+        <v>5.7127368392557803E-4</v>
       </c>
       <c r="H12" s="4">
-        <v>5.7537137435165198E-4</v>
+        <v>5.7534557460258025E-4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.8053804811384778E-4</v>
+        <v>5.8054658325228732E-4</v>
       </c>
       <c r="J12" s="4">
-        <v>5.8402553055494823E-4</v>
+        <v>5.8405577666029271E-4</v>
       </c>
       <c r="K12" s="4">
-        <v>5.8760417107298871E-4</v>
+        <v>5.8764082241883773E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>5.9096130220580865E-4</v>
+        <v>5.9099172709820588E-4</v>
       </c>
       <c r="M12" s="4">
-        <v>5.946019196444121E-4</v>
+        <v>5.9460755532325421E-4</v>
       </c>
       <c r="N12" s="4">
-        <v>5.9865845018156332E-4</v>
+        <v>5.9864913770811101E-4</v>
       </c>
       <c r="O12" s="4">
-        <v>6.0321943227520944E-4</v>
+        <v>6.0320507489752481E-4</v>
       </c>
       <c r="P12" s="4">
-        <v>6.0839429137508894E-4</v>
+        <v>6.0839014040612108E-4</v>
       </c>
       <c r="Q12" s="4">
-        <v>6.1395089969970801E-4</v>
+        <v>6.1397142134404336E-4</v>
       </c>
       <c r="R12" s="4">
-        <v>6.1977379967962927E-4</v>
+        <v>6.1982444305570708E-4</v>
       </c>
       <c r="S12" s="4">
-        <v>6.2567088851316315E-4</v>
+        <v>6.2573102314974604E-4</v>
       </c>
       <c r="T12" s="4">
-        <v>6.3167004143386532E-4</v>
+        <v>6.3172762641160651E-4</v>
       </c>
       <c r="U12" s="4">
-        <v>6.3779136032516399E-4</v>
+        <v>6.378517359356007E-4</v>
       </c>
       <c r="V12" s="4">
-        <v>6.437466870978497E-4</v>
+        <v>6.4379923494470867E-4</v>
       </c>
       <c r="W12" s="4">
-        <v>6.4981143154692399E-4</v>
+        <v>6.4986546410365699E-4</v>
       </c>
       <c r="X12" s="4">
-        <v>6.5593323238593052E-4</v>
+        <v>6.5601406745390174E-4</v>
       </c>
       <c r="Y12" s="4">
-        <v>6.6206558943440969E-4</v>
+        <v>6.6214392925699006E-4</v>
       </c>
       <c r="Z12" s="4">
-        <v>6.6830617483670774E-4</v>
+        <v>6.6836222069112383E-4</v>
       </c>
       <c r="AA12" s="4">
-        <v>6.7444724581067943E-4</v>
+        <v>6.7447512104423497E-4</v>
       </c>
       <c r="AB12" s="4">
-        <v>6.8055623616867665E-4</v>
+        <v>6.8056382295840078E-4</v>
       </c>
       <c r="AC12" s="4">
-        <v>6.8655076394605308E-4</v>
+        <v>6.8654880506182118E-4</v>
       </c>
       <c r="AD12" s="4">
-        <v>6.9253674881163997E-4</v>
+        <v>6.9251806945128461E-4</v>
       </c>
       <c r="AE12" s="4">
-        <v>6.9843365885812099E-4</v>
+        <v>6.984226284742906E-4</v>
       </c>
       <c r="AF12" s="4">
-        <v>7.0421403083949718E-4</v>
+        <v>7.0422345991320119E-4</v>
       </c>
       <c r="AG12" s="4">
-        <v>7.0992567085904998E-4</v>
+        <v>7.099358150809658E-4</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -16919,88 +16919,88 @@
         <v>4.7951937565239972E-5</v>
       </c>
       <c r="F13" s="4">
-        <v>4.8199148542133818E-5</v>
+        <v>4.8199163709058256E-5</v>
       </c>
       <c r="G13" s="4">
-        <v>4.8463289763291303E-5</v>
+        <v>4.8462484597433007E-5</v>
       </c>
       <c r="H13" s="4">
-        <v>4.8810101273548841E-5</v>
+        <v>4.8807912620409042E-5</v>
       </c>
       <c r="I13" s="4">
-        <v>4.9248402309752346E-5</v>
+        <v>4.9249126365536466E-5</v>
       </c>
       <c r="J13" s="4">
-        <v>4.9544253613324154E-5</v>
+        <v>4.9546819461280452E-5</v>
       </c>
       <c r="K13" s="4">
-        <v>4.9847838070065696E-5</v>
+        <v>4.985094728957582E-5</v>
       </c>
       <c r="L13" s="4">
-        <v>5.0132631366857999E-5</v>
+        <v>5.0135212381738722E-5</v>
       </c>
       <c r="M13" s="4">
-        <v>5.0441473470928121E-5</v>
+        <v>5.0441951558763717E-5</v>
       </c>
       <c r="N13" s="4">
-        <v>5.0785598457265348E-5</v>
+        <v>5.0784808458331483E-5</v>
       </c>
       <c r="O13" s="4">
-        <v>5.1172517250624796E-5</v>
+        <v>5.1171299280649147E-5</v>
       </c>
       <c r="P13" s="4">
-        <v>5.161151266819503E-5</v>
+        <v>5.1611160531775431E-5</v>
       </c>
       <c r="Q13" s="4">
-        <v>5.2082892766601423E-5</v>
+        <v>5.2084633665754489E-5</v>
       </c>
       <c r="R13" s="4">
-        <v>5.2576863009813412E-5</v>
+        <v>5.2581159206018821E-5</v>
       </c>
       <c r="S13" s="4">
-        <v>5.3077126867236362E-5</v>
+        <v>5.3082228229300067E-5</v>
       </c>
       <c r="T13" s="4">
-        <v>5.3586049060219874E-5</v>
+        <v>5.3590934128752432E-5</v>
       </c>
       <c r="U13" s="4">
-        <v>5.4105334878616127E-5</v>
+        <v>5.4110456683056242E-5</v>
       </c>
       <c r="V13" s="4">
-        <v>5.4610539196817424E-5</v>
+        <v>5.4614996953739692E-5</v>
       </c>
       <c r="W13" s="4">
-        <v>5.5125025672775793E-5</v>
+        <v>5.5129609381114051E-5</v>
       </c>
       <c r="X13" s="4">
-        <v>5.5644352375924891E-5</v>
+        <v>5.5651209804066108E-5</v>
       </c>
       <c r="Y13" s="4">
-        <v>5.6164574587047429E-5</v>
+        <v>5.6171220337677975E-5</v>
       </c>
       <c r="Z13" s="4">
-        <v>5.6693978062907934E-5</v>
+        <v>5.6698732564004017E-5</v>
       </c>
       <c r="AA13" s="4">
-        <v>5.721493949673903E-5</v>
+        <v>5.7217304218088618E-5</v>
       </c>
       <c r="AB13" s="4">
-        <v>5.7733179456780447E-5</v>
+        <v>5.7733823061921899E-5</v>
       </c>
       <c r="AC13" s="4">
-        <v>5.8241709288023016E-5</v>
+        <v>5.8241543111285681E-5</v>
       </c>
       <c r="AD13" s="4">
-        <v>5.8749514404049965E-5</v>
+        <v>5.8747929790161759E-5</v>
       </c>
       <c r="AE13" s="4">
-        <v>5.9249763094548476E-5</v>
+        <v>5.9248827361253699E-5</v>
       </c>
       <c r="AF13" s="4">
-        <v>5.9740125588038328E-5</v>
+        <v>5.974092547844464E-5</v>
       </c>
       <c r="AG13" s="4">
-        <v>6.0224657388228372E-5</v>
+        <v>6.0225517946332457E-5</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -17021,91 +17021,91 @@
         <v>3.8258341226368855E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>3.0425177990638558E-4</v>
+        <v>3.0142368171836523E-4</v>
       </c>
       <c r="F14" s="4">
-        <v>3.13696